--- a/evaluation_results.xlsx
+++ b/evaluation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Response Faithfulness</t>
+          <t>Response</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,20 +451,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Response Relevancy</t>
+          <t>Evaluation Relevancy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Evaluation Relevancy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Response Correctness</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Evaluation Correctness</t>
         </is>
@@ -473,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn đã gây ảnh hưởng như thế nào đến ngành nuôi trồng thủy sản và nông nghiệp ở Đồng bằng sông Cửu Long? (How has saline intrusion affected the aquaculture and agriculture industries in the Mekong Delta?)</t>
+          <t>Based on the research paper, what were the estimated damages to the aquaculture and agriculture sectors due to salt intrusion in the Mekong Delta in 2016?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saline intrusion has had significant impacts on both the aquaculture and agriculture industries in the Mekong Delta. In terms of agriculture, it has caused difficulties in distributing water resources, particularly affecting the freshwater supply for the 3rd (Spring – Summer) rice crop in early 2016. The prolonged drought also increased water demands for rice cultivation. In the case of aquaculture, shrimp farmers in areas affected by saline intrusion have had to extract more groundwater to decrease the salinity concentration of surface water. However, for rice farmers, saline intrusion did not impact the demand for and extraction of groundwater. The most severe economic damage from saline intrusion in 2016 was in Cà Mau province, with damages estimated around 16 trillion VND. Other provinces like Đồng Tháp, Cần Thơ, An Giang were less affected.</t>
+          <t>The research paper does not provide specific estimates of the damages to the aquaculture and agriculture sectors due to salt intrusion in the Mekong Delta in 2016. However, it does mention that salinity intrusion severely affected livelihoods and welfare of households in wider areas during that year. The paper also states that higher salinity decreases the productivity and revenue share of rice crop, decreases aquaculture production, and reduces farmer households’ income and consumption.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,71 +478,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Saline intrusion has had significant impacts on both the aquaculture and agriculture industries in the Mekong Delta. In terms of agriculture, it has caused difficulties in distributing water resources, particularly affecting the freshwater supply for the 3rd (Spring – Summer) rice crop in early 2016. The prolonged drought also increased water demands for rice cultivation. In the case of aquaculture, shrimp farmers in areas affected by saline intrusion have had to extract more groundwater to decrease the salinity concentration of surface water. However, for rice farmers, saline intrusion did not impact the demand for and extraction of groundwater. The most severe economic damage from saline intrusion in 2016 was in Cà Mau province, with damages estimated around 16 trillion VND. Other provinces like Đồng Tháp, Cần Thơ, An Giang were less affected.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Saline intrusion has had significant impacts on both the aquaculture and agriculture industries in the Mekong Delta. In terms of agriculture, it has caused difficulties in distributing water resources, particularly affecting the freshwater supply for the 3rd (Spring – Summer) rice crop in early 2016. The prolonged drought also increased water demands for rice cultivation. In the case of aquaculture, shrimp farmers in areas affected by saline intrusion have had to extract more groundwater to decrease the salinity concentration of surface water. However, for rice farmers, saline intrusion did not impact the demand for and extraction of groundwater. The most severe economic damage from saline intrusion in 2016 was in Cà Mau province, with damages estimated around 16 trillion VND. Other provinces like Đồng Tháp, Cần Thơ, An Giang were less affected.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saline intrusion has affected both the aquaculture and agriculture industries in the Mekong Delta. It includes specific examples and data, which adds to its correctness. However, without a reference answer, it's hard to confirm the exact accuracy of the information provided.</t>
+          <t>The generated answer is relevant to the user query and provides a detailed response, even though it does not provide specific estimates. It gives a comprehensive overview of the impact of salt intrusion on the aquaculture and agriculture sectors in the Mekong Delta in 2016, as per the research paper. The only reason it doesn't get a full score is because it doesn't provide the exact figures asked for in the question.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Các vấn đề gặp phải trong công tác quản lý nguồn tài nguyên nước và sử dụng nước cho canh tác lúa tại huyện Long Phú, tỉnh Sóc Trăng là gì? (What are the challenges faced in water resource management and water usage for rice cultivation in Long Phu district, Soc Trang province?)</t>
+          <t>According to the paper, how does a salinity level of 3‰ affect rice plants, and what species can be raised in areas with a salinity level of 5 - 10‰ and 10 - 25‰?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The context does not provide specific information about the challenges faced in water resource management and water usage for rice cultivation in Long Phu district, Soc Trang province.</t>
+          <t>The context does not provide specific information on how a salinity level of 3‰ affects rice plants, or what species can be raised in areas with a salinity level of 5 - 10‰ and 10 - 25‰.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The context does not provide specific information about the challenges faced in water resource management and water usage for rice cultivation in Long Phu district, Soc Trang province.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>The context does not provide specific information about the challenges faced in water resource management and water usage for rice cultivation in Long Phu district, Soc Trang province.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>The generated answer is not relevant to the user query as it does not provide any information about the challenges faced in water resource management and water usage for rice cultivation in Long Phu district, Soc Trang province.</t>
+          <t>The generated answer is relevant to the user query as it addresses the question about salinity levels and their effects on rice plants and other species. However, it does not provide any specific information or answer the question, hence the score is in the middle range.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu về xâm nhập mặn ở Đồng Bằng Sông Cửu Long, những yếu tố nào được xem là những hiểm họa quan trọng nhất? Và những chiến lược và biện pháp nào đã được phát triển để đối phó với những hiểm họa này?</t>
+          <t>Based on the research paper, what were the economic impacts of the 2016 saline intrusion in the Vietnamese Mekong Delta, particularly in the province of Cà Mau?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Những hiểm họa quan trọng nhất trong nghiên cứu về xâm nhập mặn ở Đồng Bằng Sông Cửu Long bao gồm xâm nhập mặn, thiếu hụt nước ngọt và ảnh hưởng của triều cường. Để đối phó và thích ứng với những hiểm họa này, chính quyền và người dân địa phương đã phát triển nhiều chiến lược và biện pháp. Các biện pháp này bao gồm xây dựng đê bao, thay đổi kỹ thuật canh tác, hỗ trợ tài chính để khôi phục sản xuất sau thảm họa, khai thác nước ngầm và đa dạng hóa nguồn thu nhập.</t>
+          <t>The research paper does not provide specific information on the economic impacts of the 2016 saline intrusion in the Vietnamese Mekong Delta, particularly in the province of Cà Mau.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,34 +532,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Những hiểm họa quan trọng nhất trong nghiên cứu về xâm nhập mặn ở Đồng Bằng Sông Cửu Long bao gồm xâm nhập mặn, thiếu hụt nước ngọt và ảnh hưởng của triều cường. Để đối phó và thích ứng với những hiểm họa này, chính quyền và người dân địa phương đã phát triển nhiều chiến lược và biện pháp. Các biện pháp này bao gồm xây dựng đê bao, thay đổi kỹ thuật canh tác, hỗ trợ tài chính để khôi phục sản xuất sau thảm họa, khai thác nước ngầm và đa dạng hóa nguồn thu nhập.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Những hiểm họa quan trọng nhất trong nghiên cứu về xâm nhập mặn ở Đồng Bằng Sông Cửu Long bao gồm xâm nhập mặn, thiếu hụt nước ngọt và ảnh hưởng của triều cường. Để đối phó và thích ứng với những hiểm họa này, chính quyền và người dân địa phương đã phát triển nhiều chiến lược và biện pháp. Các biện pháp này bao gồm xây dựng đê bao, thay đổi kỹ thuật canh tác, hỗ trợ tài chính để khôi phục sản xuất sau thảm họa, khai thác nước ngầm và đa dạng hóa nguồn thu nhập.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive response to both parts of the question. It identifies the main hazards in the Mekong Delta's salt intrusion research and outlines the strategies and measures developed to deal with these hazards. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is relevant to the user query and seems correct, but without a reference answer or the actual research paper, it's hard to confirm its full accuracy.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu, những yếu tố nào ảnh hưởng đến kết quả sinh kế của nông hộ ven biển Đồng Bằng Sông Cửu Long? Và để nâng cao năng lực thích ứng và sử dụng hiệu quả nguồn vốn sinh kế, những yếu tố nào cần được đầu tư và hỗ trợ?</t>
+          <t>Discuss the challenges faced in water resources management due to saline intrusion in the Vietnamese Mekong Delta as highlighted in the paper. How did these challenges affect rice cultivation in the region?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của nông hộ ven biển Đồng Bằng Sông Cửu Long bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và việc vay vốn. Để nâng cao năng lực thích ứng và sử dụng hiệu quả nguồn vốn sinh kế, cần đầu tư và hỗ trợ các yếu tố sau: đa dạng hóa sinh kế, cải thiện vốn con người bằng cách nâng cao chất lượng đào tạo nghề, cải thiện vốn tự nhiên bằng cách quy hoạch đất sản xuất phù hợp và bảo vệ nguồn nước ngọt, cải thiện vốn vật chất thông qua chính sách hỗ trợ hợp lý, cải thiện vốn tài chính, và cải thiện vốn xã hội bằng cách tăng cường mối quan hệ xã hội và sự uy tín trong cộng đồng.</t>
+          <t>Saline intrusion in the Vietnamese Mekong Delta presents several challenges for water resources management. This phenomenon occurs when not enough river discharge is flowing to the low-lying estuaries, causing salt water to flow into the land. The factors affecting saline intrusion include the amplitude and period of tides, local rainfall and runoff, the slope of the river bed, wind velocity and direction, and the depth of the estuary. 
+The intrusion of salt water affects different provinces in varying degrees due to the difference in water volumes at each mouth of the tributaries. This makes it difficult to quantify the damage costs to farmers. During the annual saline intrusion period, from March to May, vegetables and other crops become scarce in the affected areas. Salinity intrusion also restricts the use of canal water for domestic and industrial uses and causes corrosion of metal materials in engines, construction artefacts, and elsewhere.
+The impact of saline intrusion is particularly significant on rice cultivation. The research suggests that salinity shocks have adverse impacts on the production of rice in the Mekong Delta. Evidence of salinization reducing agricultural land, labor supply in agriculture, and farmer households’ income and consumption has been found. 
+To cope with these challenges, farmers have been observed to switch to salt-resistant crop production and diversify their crops to sustain their income and food security against salinization shocks. However, these adjustments within the agricultural sector are not always sufficient, and further research is needed to develop strategies for flood loss prevention and salinity management for the vulnerable agricultural sector.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,34 +562,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của nông hộ ven biển Đồng Bằng Sông Cửu Long bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và việc vay vốn. Để nâng cao năng lực thích ứng và sử dụng hiệu quả nguồn vốn sinh kế, cần đầu tư và hỗ trợ các yếu tố sau: đa dạng hóa sinh kế, cải thiện vốn con người bằng cách nâng cao chất lượng đào tạo nghề, cải thiện vốn tự nhiên bằng cách quy hoạch đất sản xuất phù hợp và bảo vệ nguồn nước ngọt, cải thiện vốn vật chất thông qua chính sách hỗ trợ hợp lý, cải thiện vốn tài chính, và cải thiện vốn xã hội bằng cách tăng cường mối quan hệ xã hội và sự uy tín trong cộng đồng.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của nông hộ ven biển Đồng Bằng Sông Cửu Long bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và việc vay vốn. Để nâng cao năng lực thích ứng và sử dụng hiệu quả nguồn vốn sinh kế, cần đầu tư và hỗ trợ các yếu tố sau: đa dạng hóa sinh kế, cải thiện vốn con người bằng cách nâng cao chất lượng đào tạo nghề, cải thiện vốn tự nhiên bằng cách quy hoạch đất sản xuất phù hợp và bảo vệ nguồn nước ngọt, cải thiện vốn vật chất thông qua chính sách hỗ trợ hợp lý, cải thiện vốn tài chính, và cải thiện vốn xã hội bằng cách tăng cường mối quan hệ xã hội và sự uy tín trong cộng đồng.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed response to both parts of the question. It identifies the factors affecting the livelihood outcomes of coastal households in the Mekong Delta and suggests ways to improve their adaptive capacity and effective use of livelihood capital. The answer is well-structured and coherent, making it easy to understand.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the challenges faced in water resources management due to saline intrusion in the Vietnamese Mekong Delta. It also discusses the impact of these challenges on rice cultivation in the region. The answer is comprehensive and appears to be accurate, although without a reference answer, it's difficult to confirm the absolute correctness of all details.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu về tác động của xâm nhập mặn do biến đổi khí hậu tại tỉnh Sóc Trăng, hãy cho biết các huyện nào bị ảnh hưởng nhiều nhất theo hai kịch bản biến đổi khí hậu trong năm 2004 và 2030?</t>
+          <t>Based on the research conducted in the Sóc Trăng province, how did the salt intrusion affect the farming practices and water resources in the region? Provide specific examples from the text.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Các huyện bị ảnh hưởng nhiều nhất do xâm nhập mặn theo hai kịch bản biến đổi khí hậu trong năm 2004 và 2030 tại tỉnh Sóc Trăng là Mỹ Xuyên, Long Phú và Trần Đề.</t>
+          <t>Salt intrusion, particularly under the impact of climate change, has significantly affected farming practices and water resources in the Sóc Trăng province. For instance, it has had a notable impact on rice cultivation areas. The research identified three main rice crops systems - triple rice crop, double rice crop, and rice-shrimp rotation crop - and found that the impact of saline intrusion varied across these systems and districts. In the My Xuyen district, the affected area of rice-shrimp rotation crop increased by 14.7 ha, while in the Tran De and Long Phu districts, the affected areas of double rice crop and triple rice crop decreased by 155.5 ha and 35.5 ha, respectively.
+Furthermore, salinity intrusion, freshwater scarcity, and ebb tide influences were identified as the most significant hazards, and these have been increasing in recent years. To cope with these challenges, the local government and people have developed strategies such as dyke building, farming technical changes, financial support for production recovery from disasters, underground water exploitation, and income diversification. However, these adaptation options have shown some limitations as they did not fully consider the differences in terms of ecological, social, and economic environment. Future adaptation strategies are suggested to take these factors into account.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,34 +590,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Các huyện bị ảnh hưởng nhiều nhất do xâm nhập mặn theo hai kịch bản biến đổi khí hậu trong năm 2004 và 2030 tại tỉnh Sóc Trăng là Mỹ Xuyên, Long Phú và Trần Đề.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Các huyện bị ảnh hưởng nhiều nhất do xâm nhập mặn theo hai kịch bản biến đổi khí hậu trong năm 2004 và 2030 tại tỉnh Sóc Trăng là Mỹ Xuyên, Long Phú và Trần Đề.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and seems to be correct, providing specific districts in Sóc Trăng province that are most affected by salt intrusion due to climate change in 2004 and 2030. However, without a reference answer, it's hard to confirm the absolute correctness of the provided districts.</t>
+          <t>The generated answer is highly relevant to the user query and provides specific examples from the research conducted in the Sóc Trăng province. It explains how salt intrusion has affected farming practices and water resources in the region, and also mentions the strategies developed to cope with these challenges. The only reason it doesn't get a full score is because it doesn't provide specific examples of how the water resources were affected, which was part of the user's query.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu về yếu tố ảnh hưởng đến sinh kế của cư dân vùng hạn mặn ở đồng bằng sông Cửu Long, những yếu tố nào có mối quan hệ cùng chiều với thu nhập của cư dân?</t>
+          <t>According to the survey results mentioned in the text, how did the farmers in the researched area manage their water resources and farming schedules? Discuss the benefits and challenges they faced.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Những yếu tố có mối quan hệ cùng chiều với thu nhập của cư dân vùng hạn mặn ở đồng bằng sông Cửu Long bao gồm tổng diện tích đất nông nghiệp, kinh nghiệm, sự hỗ trợ của chính quyền địa phương, số nguồn thu nhập, và số phương tiện sản xuất.</t>
+          <t>Farmers in the researched area, the Mekong Delta, have had to adapt their farming practices due to water-related challenges such as salinity intrusion, floods, acid sulfate soils, polluted water, and fresh water shortages. One of the strategies they have adopted is shifting to salt-resistant industrial crops, which helps them maintain their income and food security against salinization shocks. This is seen as a within-agricultural adjustment in response to salinity shock.
+However, the farmers face several challenges. The water control infrastructure systems, which are funded by about 10 percent of the state budget and labor contributed by the people, suffer from many shortcomings in terms of both their structure and management. Furthermore, the water resources planning process is largely "top-down", with villagers and farmers playing a very minor role. This means that many grass-roots people have little voice in the planning and natural prevention projection processes.
+Despite these challenges, floods are not only seen as a disaster by many farmers and scientists. They recognize that floods bring multiple benefits, including fertile sediment, fish spawning, aquatic products, pest control, improved water quality, water provision, reduced fire risk, and ecological drivers. These benefits are seen as replenishing and revitalizing for the agricultural land. However, high floods can result in loss of life and cause millions of dollars worth of damage to houses, infrastructure, and crops. The costs of these damages have been increasing due to higher economic development and an increasing population.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,71 +619,51 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Những yếu tố có mối quan hệ cùng chiều với thu nhập của cư dân vùng hạn mặn ở đồng bằng sông Cửu Long bao gồm tổng diện tích đất nông nghiệp, kinh nghiệm, sự hỗ trợ của chính quyền địa phương, số nguồn thu nhập, và số phương tiện sản xuất.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Những yếu tố có mối quan hệ cùng chiều với thu nhập của cư dân vùng hạn mặn ở đồng bằng sông Cửu Long bao gồm tổng diện tích đất nông nghiệp, kinh nghiệm, sự hỗ trợ của chính quyền địa phương, số nguồn thu nhập, và số phương tiện sản xuất.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and seems to be correct, providing a detailed list of factors that have a direct relationship with the income of residents in the saline drought area of the Mekong Delta. However, without a reference answer, it's hard to confirm the absolute accuracy of the specifics.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how farmers in the researched area manage their water resources and farming schedules. It also discusses the benefits and challenges they face. The answer is comprehensive and accurate, but it could be slightly more concise.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu về ảnh hưởng của xâm nhập mặn đến công tác quản lý và sử dụng nguồn tài nguyên nước dưới đất tại vùng ven biển tỉnh Sóc Trăng, kết quả nghiên cứu cho thấy xâm nhập mặn gây khó khăn như thế nào trong công tác quản lý nguồn tài nguyên nước dưới đất?</t>
+          <t>Based on the research paper, what challenges were identified in the management of Water Resources at the beginning of 2016?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn, đặc biệt trong mùa khô năm 2016, đã gây ra khó khăn trong việc quản lý nguồn tài nguyên nước dưới đất, chủ yếu ở huyện Trần Đề. Điều này đặc biệt phản ánh trong việc kiểm soát việc khai thác và sử dụng nguồn nước dưới đất. Trong các khu vực nuôi trồng thủy sản, người nuôi tôm đã tăng cường khai thác nước dưới đất để giảm nồng độ mặn của nước mặt. Ngược lại, đối với các hộ trồng lúa, chủ yếu ở huyện Long Phú, xâm nhập mặn không gây ảnh hưởng đến nhu cầu sử dụng hay khai thác nước dưới đất.</t>
+          <t>The context does not provide specific information about the challenges identified in the management of Water Resources at the beginning of 2016.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn, đặc biệt trong mùa khô năm 2016, đã gây ra khó khăn trong việc quản lý nguồn tài nguyên nước dưới đất, chủ yếu ở huyện Trần Đề. Điều này đặc biệt phản ánh trong việc kiểm soát việc khai thác và sử dụng nguồn nước dưới đất. Trong các khu vực nuôi trồng thủy sản, người nuôi tôm đã tăng cường khai thác nước dưới đất để giảm nồng độ mặn của nước mặt. Ngược lại, đối với các hộ trồng lúa, chủ yếu ở huyện Long Phú, xâm nhập mặn không gây ảnh hưởng đến nhu cầu sử dụng hay khai thác nước dưới đất.</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Xâm nhập mặn, đặc biệt trong mùa khô năm 2016, đã gây ra khó khăn trong việc quản lý nguồn tài nguyên nước dưới đất, chủ yếu ở huyện Trần Đề. Điều này đặc biệt phản ánh trong việc kiểm soát việc khai thác và sử dụng nguồn nước dưới đất. Trong các khu vực nuôi trồng thủy sản, người nuôi tôm đã tăng cường khai thác nước dưới đất để giảm nồng độ mặn của nước mặt. Ngược lại, đối với các hộ trồng lúa, chủ yếu ở huyện Long Phú, xâm nhập mặn không gây ảnh hưởng đến nhu cầu sử dụng hay khai thác nước dưới đất.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saltwater intrusion affects the management and use of groundwater resources in coastal areas of Soc Trang province. It correctly identifies the impact on different sectors such as aquaculture and rice farming. However, it lacks specific data or statistics to support its claims, which could have made the answer more comprehensive.</t>
+          <t>The generated answer is relevant to the user query and does not contain any factual errors. However, it does not provide a specific answer to the question, which may be due to the lack of information provided in the user query.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Trong vùng ven biển ĐBSCL, xâm nhập mặn ảnh hưởng như thế nào đến sinh kế của người dân?</t>
+          <t>According to the paper, why is it important to enhance the interaction and exchange between management staff and the local people in the context of water resource management?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn ảnh hưởng đến sinh kế của người dân ven biển ĐBSCL bằng cách làm giảm diện tích đất canh tác và làm tăng mức độ nhiễm mặn của đất, đặc biệt trong mùa khô. Điều này có thể gây ra khó khăn trong việc trồng lúa và một số hoạt động canh tác khác như chăn nuôi. Tuy nhiên, một số khu vực ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình, nơi kinh tế chủ yếu dựa vào nuôi thủy sản, có thể tận dụng nguồn nước biển bằng cách mở thêm nhiều kênh rạch, cho phép nước biển đi vào sâu hơn vào đất liền. Tuy nhiên, việc này cũng làm tăng nguy cơ ngập lụt và nhiễm mặn cho các khu vực nội đồng.</t>
+          <t>The paper emphasizes the importance of enhancing interaction and exchange between management staff and local people in water resource management because current adaptation strategies to hazards like salinity intrusion, freshwater scarcity, and ebb tide influences have limitations. These strategies often do not fully consider the differences in ecological, social, and economic environments, which are crucial factors as the vulnerability of people highly depends on these conditions. Therefore, to develop more effective and beneficial strategies, especially for the most vulnerable groups, it is important to understand and incorporate the needs and capacities of the local communities. This can be achieved through better interaction and exchange between management staff and local people.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -747,34 +673,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn ảnh hưởng đến sinh kế của người dân ven biển ĐBSCL bằng cách làm giảm diện tích đất canh tác và làm tăng mức độ nhiễm mặn của đất, đặc biệt trong mùa khô. Điều này có thể gây ra khó khăn trong việc trồng lúa và một số hoạt động canh tác khác như chăn nuôi. Tuy nhiên, một số khu vực ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình, nơi kinh tế chủ yếu dựa vào nuôi thủy sản, có thể tận dụng nguồn nước biển bằng cách mở thêm nhiều kênh rạch, cho phép nước biển đi vào sâu hơn vào đất liền. Tuy nhiên, việc này cũng làm tăng nguy cơ ngập lụt và nhiễm mặn cho các khu vực nội đồng.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Xâm nhập mặn ảnh hưởng đến sinh kế của người dân ven biển ĐBSCL bằng cách làm giảm diện tích đất canh tác và làm tăng mức độ nhiễm mặn của đất, đặc biệt trong mùa khô. Điều này có thể gây ra khó khăn trong việc trồng lúa và một số hoạt động canh tác khác như chăn nuôi. Tuy nhiên, một số khu vực ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình, nơi kinh tế chủ yếu dựa vào nuôi thủy sản, có thể tận dụng nguồn nước biển bằng cách mở thêm nhiều kênh rạch, cho phép nước biển đi vào sâu hơn vào đất liền. Tuy nhiên, việc này cũng làm tăng nguy cơ ngập lụt và nhiễm mặn cho các khu vực nội đồng.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saltwater intrusion affects the livelihoods of people living in coastal areas of the Mekong Delta. It correctly identifies the impact on agriculture and aquaculture, and also mentions the potential benefits and risks of using seawater for aquaculture. The answer could be improved by providing more specific examples or data to support the points made.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why it's important to enhance the interaction and exchange between management staff and local people in the context of water resource management. It correctly identifies the limitations of current strategies and the need to understand local conditions and needs for more effective strategies.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tại sao việc xâm nhập mặn ảnh hưởng đến canh tác lúa nhưng không ảnh hưởng đến nuôi trồng thủy sản?</t>
+          <t>According to the research paper, what were the main hazards identified that have been increasing in recent years in the Mekong Delta region? Discuss the strategies and measures developed by the governments and local people to cope with these hazards.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn ảnh hưởng đến canh tác lúa do nó gây khó khăn cho việc cung cấp nước ngọt, đặc biệt là cho vụ lúa Xuân - Hè đầu năm 2016. Tuy nhiên, nó ít ảnh hưởng đến nuôi trồng thủy sản, chủ yếu là nuôi cá nước ngọt, vì phần lớn diện tích đất canh tác ở vùng này được sử dụng cho việc trồng lúa. Đối với người nuôi tôm, họ sử dụng biện pháp bơm nước giếng khoan vào ao nuôi để pha loãng nồng độ mặn trong nước, giúp giảm ảnh hưởng của xâm nhập mặn.</t>
+          <t>The main hazards identified in the Mekong Delta region that have been increasing in recent years include major flooding, salinity intrusion, and water quality problems. These issues are exacerbated by factors such as climate change, dam construction, and anthropogenic activities. 
+Major flooding is now likely to occur more frequently than the previous average of "once in two or three years". This is due to large water discharges from upstream, long and heavy rainfall in the Mekong Delta itself, and high tides that lead to high water levels in the rivers and canal system, preventing easy drainage. 
+Salinity intrusion occurs when not enough river discharge is flowing to the low-lying estuaries, and instead, salt water flows into the land. This is influenced by factors such as the amplitude and period of tides, the amount of local rainfall and runoff, the slope of the river bed, wind velocity and direction, and the depth of the estuary. 
+Water quality problems are also a significant issue, with many wells experiencing quality problems such as high pH, high iron content, salinity, and odours. 
+To cope with these hazards, computer modelling is widely used as a powerful tool in water resources engineering. This allows for the estimation of extreme floods or severe saline intrusion in the Mekong Delta under various scenarios, assisting with decision-making in water planning and management. The results from these models can be used as a technical prerequisite for the development of a regional strategy and action plan to prepare for flood loss prevention and salinity management for the vulnerable agricultural sector. 
+Furthermore, some farmers have adapted their activities to correspond with salinity intrusion, implementing a more varied production scheme to raise shrimp during the dry season. This adaptation takes advantage of the positive effect of salinity intrusion in reducing acidity in potential acid sulphate soil land.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,34 +705,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn ảnh hưởng đến canh tác lúa do nó gây khó khăn cho việc cung cấp nước ngọt, đặc biệt là cho vụ lúa Xuân - Hè đầu năm 2016. Tuy nhiên, nó ít ảnh hưởng đến nuôi trồng thủy sản, chủ yếu là nuôi cá nước ngọt, vì phần lớn diện tích đất canh tác ở vùng này được sử dụng cho việc trồng lúa. Đối với người nuôi tôm, họ sử dụng biện pháp bơm nước giếng khoan vào ao nuôi để pha loãng nồng độ mặn trong nước, giúp giảm ảnh hưởng của xâm nhập mặn.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Xâm nhập mặn ảnh hưởng đến canh tác lúa do nó gây khó khăn cho việc cung cấp nước ngọt, đặc biệt là cho vụ lúa Xuân - Hè đầu năm 2016. Tuy nhiên, nó ít ảnh hưởng đến nuôi trồng thủy sản, chủ yếu là nuôi cá nước ngọt, vì phần lớn diện tích đất canh tác ở vùng này được sử dụng cho việc trồng lúa. Đối với người nuôi tôm, họ sử dụng biện pháp bơm nước giếng khoan vào ao nuôi để pha loãng nồng độ mặn trong nước, giúp giảm ảnh hưởng của xâm nhập mặn.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and mostly correct. It explains how salt intrusion affects rice cultivation by making it difficult to provide fresh water, especially for the Spring-Summer rice crop. It also explains why salt intrusion has less impact on aquaculture, mainly freshwater fish farming, because most of the cultivated land in the region is used for rice cultivation. For shrimp farmers, they use the method of pumping well water into the pond to dilute the salinity in the water, reducing the impact of salt intrusion. However, the answer could be improved by explaining more about the tolerance of different aquaculture species to salinity.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the main hazards identified in the Mekong Delta region, as well as the strategies and measures developed to cope with these hazards. It does not contain any noticeable mistakes. The only reason it does not receive a perfect score is because it could have included more specific examples of government initiatives or policies.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Những khó khăn và hạn chế nào đang tồn tại trong công tác quản lý khai thác và sử dụng nguồn tài nguyên nước ngọt?</t>
+          <t>The paper mentions some limitations of the current adaptation strategies. What are these limitations and how does the paper suggest future adaptation strategies should be improved to benefit different social groups, especially the most vulnerable?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Có một số khó khăn và hạn chế trong công tác quản lý khai thác và sử dụng nguồn tài nguyên nước ngọt. Một trong những vấn đề lớn là việc quản lý chủ yếu tập trung ở cấp chính quyền, mức độ tham gia của người dân chưa cao. Đồng thời, việc đăng ký và kiểm soát khai thác nước ngọt còn gặp một số hạn chế. Hiệu quả hoạt động của hệ thống thủy lợi, đóng vai trò quan trọng trong việc cung cấp nguồn nước và duy trì hệ thống canh tác, cũng cần được cải thiện. Công tác nạo vét, bảo dưỡng công trình cần được quan tâm, nhất là vào mùa khô. Ngoài ra, việc phổ biến các quy định trong khai thác và sử dụng nguồn nước ngọt cần được tiến hành theo chiều sâu để các chính sách được thực hiện một cách có hiệu quả, hạn chế tình trạng khai thác quá mức nguồn nước ngọt.</t>
+          <t>The current adaptation strategies to hazards such as salinity intrusion and freshwater scarcity have some limitations. They do not fully consider the differences in terms of ecological, social, and economic environment. However, the vulnerability of people highly depends on these conditions. To improve future adaptation strategies, the paper suggests that these strategies should take into account the ecological, social, and economic environment. This would ensure that the strategies benefit different social groups, especially the most vulnerable. One suitable method for building future adaptation programs is the Participatory Vulnerability Assessment (PVA) approach. This approach helps identify vulnerable groups that need assistance and assess their capacity, thereby developing appropriate adaptation strategies. Furthermore, this approach enhances people's awareness of natural disasters and disaster mitigation, especially in the context of global climate change.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,108 +732,78 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Có một số khó khăn và hạn chế trong công tác quản lý khai thác và sử dụng nguồn tài nguyên nước ngọt. Một trong những vấn đề lớn là việc quản lý chủ yếu tập trung ở cấp chính quyền, mức độ tham gia của người dân chưa cao. Đồng thời, việc đăng ký và kiểm soát khai thác nước ngọt còn gặp một số hạn chế. Hiệu quả hoạt động của hệ thống thủy lợi, đóng vai trò quan trọng trong việc cung cấp nguồn nước và duy trì hệ thống canh tác, cũng cần được cải thiện. Công tác nạo vét, bảo dưỡng công trình cần được quan tâm, nhất là vào mùa khô. Ngoài ra, việc phổ biến các quy định trong khai thác và sử dụng nguồn nước ngọt cần được tiến hành theo chiều sâu để các chính sách được thực hiện một cách có hiệu quả, hạn chế tình trạng khai thác quá mức nguồn nước ngọt.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Có một số khó khăn và hạn chế trong công tác quản lý khai thác và sử dụng nguồn tài nguyên nước ngọt. Một trong những vấn đề lớn là việc quản lý chủ yếu tập trung ở cấp chính quyền, mức độ tham gia của người dân chưa cao. Đồng thời, việc đăng ký và kiểm soát khai thác nước ngọt còn gặp một số hạn chế. Hiệu quả hoạt động của hệ thống thủy lợi, đóng vai trò quan trọng trong việc cung cấp nguồn nước và duy trì hệ thống canh tác, cũng cần được cải thiện. Công tác nạo vét, bảo dưỡng công trình cần được quan tâm, nhất là vào mùa khô. Ngoài ra, việc phổ biến các quy định trong khai thác và sử dụng nguồn nước ngọt cần được tiến hành theo chiều sâu để các chính sách được thực hiện một cách có hiệu quả, hạn chế tình trạng khai thác quá mức nguồn nước ngọt.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the difficulties and limitations in managing the exploitation and use of fresh water resources. It does not contain any noticeable mistakes. However, it could be more concise and structured, hence the score is not a perfect 5.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the limitations of current adaptation strategies and how future strategies could be improved. It also specifically addresses the need to benefit different social groups, especially the most vulnerable. However, it could have been more specific about the types of social groups that are most vulnerable.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Công nghệ khử mặn nào được nghiên cứu trong bài báo và được cho là có tiềm năng ứng dụng cao nhất cho cấp nước sinh hoạt ở các cụm dân cư nông thôn Đồng bằng sông Cửu Long?</t>
+          <t>Based on the research paper, what are the factors that have a positive relationship with the livelihood output of coastal households in the Mekong Delta?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Công nghệ khử mặn được nghiên cứu trong bài báo và được cho là có tiềm năng ứng dụng cao nhất cho cấp nước sinh hoạt ở các cụm dân cư nông thôn Đồng bằng sông Cửu Long là công nghệ điện thẩm tách (Electrodialysis – ED).</t>
+          <t>The research paper does not provide specific information on the factors that have a positive relationship with the livelihood output of coastal households in the Mekong Delta.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Công nghệ khử mặn được nghiên cứu trong bài báo và được cho là có tiềm năng ứng dụng cao nhất cho cấp nước sinh hoạt ở các cụm dân cư nông thôn Đồng bằng sông Cửu Long là công nghệ điện thẩm tách (Electrodialysis – ED).</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Công nghệ khử mặn được nghiên cứu trong bài báo và được cho là có tiềm năng ứng dụng cao nhất cho cấp nước sinh hoạt ở các cụm dân cư nông thôn Đồng bằng sông Cửu Long là công nghệ điện thẩm tách (Electrodialysis – ED).</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and fully correct. It directly answers the user's query by naming the desalination technology that is being researched and has high potential for application in supplying water in rural communities in the Mekong Delta.</t>
+          <t>The generated answer is relevant to the user query but it does not provide any information about the factors that have a positive relationship with the livelihood output of coastal households in the Mekong Delta. It's unclear whether this is due to the research paper not containing this information or the chatbot's inability to extract it.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Những yếu tố nào ảnh hưởng đến quyết định của nông dân trong việc lựa chọn mô hình sản xuất lúa trong điều kiện xâm nhập mặn ở đồng bằng sông Cửu Long?</t>
+          <t>According to the paper, how does climate change and rising sea levels affect the current farming systems and the lives of people, especially in coastal areas of the Mekong Delta?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Thông tin cung cấp không đưa ra các yếu tố ảnh hưởng đến quyết định của nông dân trong việc lựa chọn mô hình sản xuất lúa trong điều kiện xâm nhập mặn ở đồng bằng sông Cửu Long.</t>
+          <t>The paper does not provide specific information on how climate change and rising sea levels affect the current farming systems and the lives of people in the coastal areas of the Mekong Delta.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thông tin cung cấp không đưa ra các yếu tố ảnh hưởng đến quyết định của nông dân trong việc lựa chọn mô hình sản xuất lúa trong điều kiện xâm nhập mặn ở đồng bằng sông Cửu Long.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Thông tin cung cấp không đưa ra các yếu tố ảnh hưởng đến quyết định của nông dân trong việc lựa chọn mô hình sản xuất lúa trong điều kiện xâm nhập mặn ở đồng bằng sông Cửu Long.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>The generated answer does not provide any relevant information to the user's query about the factors influencing farmers' decisions in choosing rice production models under saline intrusion conditions in the Mekong Delta.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of climate change and its effects on farming systems and people's lives in the Mekong Delta. However, it does not provide any specific information or details, which makes it difficult to determine its correctness.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu, những yếu tố nào ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang mô hình lúa - tôm và lúa - cá?</t>
+          <t>Based on the research paper, what are the various livelihood strategies employed by the coastal communities, and how do these strategies change during periods of saline intrusion and non-saline periods?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang mô hình lúa - tôm và lúa - cá bao gồm diện tích đất, trình độ học vấn, lao động chính, xâm nhập mặn, nguồn nước và vay vốn. Trong đó, xâm nhập mặn và diện tích đất là hai yếu tố quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất.</t>
+          <t>The coastal communities employ various strategies to cope with and adapt to hazards such as salinity intrusion. These strategies include the construction of dykes, changes in farming techniques, financial support for production recovery from disasters, exploitation of underground water, and diversification of income sources. However, these strategies have shown some limitations as they do not fully consider the differences in ecological, social, and economic environments. The vulnerability of people highly depends on these conditions. Therefore, future adaptation strategies should take these issues into account to benefit different social groups, especially the most vulnerable.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,34 +813,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang mô hình lúa - tôm và lúa - cá bao gồm diện tích đất, trình độ học vấn, lao động chính, xâm nhập mặn, nguồn nước và vay vốn. Trong đó, xâm nhập mặn và diện tích đất là hai yếu tố quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Các yếu tố ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang mô hình lúa - tôm và lúa - cá bao gồm diện tích đất, trình độ học vấn, lao động chính, xâm nhập mặn, nguồn nước và vay vốn. Trong đó, xâm nhập mặn và diện tích đất là hai yếu tố quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response, even without a reference answer for comparison. It lists several factors that influence the probability of switching from a rice cultivation model to a rice-shrimp and rice-fish model, which directly answers the user's question.</t>
+          <t>The generated answer is highly relevant to the user query, providing a detailed explanation of the various strategies employed by coastal communities during periods of saline intrusion. However, it does not explicitly mention how these strategies change during non-saline periods, which was part of the user's question.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kết quả nghiên cứu cho thấy diện tích đất và xâm nhập mặn có tác động như thế nào đến quyết định chuyển đổi mô hình sản xuất từ lúa chuyên canh sang lúa - tôm và lúa - cá?</t>
+          <t>According to the research, how does saline intrusion due to climate change impact rice cultivation in Soc Trang? Compare the impact under two climate change scenarios in 2004 and 2030, specifically focusing on the changes in the affected areas of rice-shrimp rotation crop, double rice crop, and triple rice crop.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Diện tích đất và xâm nhập mặn là hai yếu tố quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất từ lúa chuyên canh sang lúa tôm và lúa cá. Diện tích đất và xâm nhập mặn có ảnh hưởng trái ngược nhau trong xu hướng chuyển đổi sang mô hình lúa – tôm hoặc lúa – cá. Những hộ có diện tích sản xuất lớn thường thực hiện chuyển đổi sang mô hình lúa – tôm nhiều hơn, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi sang mô hình tôm – lúa. Trong khi đó, hộ trồng lúa càng có diện tích đất sản xuất ít, sẽ không đủ điều kiện tạo ra thu nhập cho gia đình ổn định và nguồn lực để chuyển đổi để có thể chuyển đổi cơ cấu sản xuất nhằm tạo ra thu nhập cao hơn trong tương lai.</t>
+          <t>The research indicates that saline intrusion due to climate change significantly impacts rice cultivation in Soc Trang. Under two climate change scenarios in 2004 and 2030, the impact of saline intrusion is primarily distributed to three districts: My Xuyen, Long Phu, and Tran De. The affected area of rice-shrimp rotation crop in My Xuyen increased by 14.7 hectares between the two scenarios. Conversely, the affected areas of double rice crop in Tran De and those of triple rice crop in Long Phu decreased by 155.5 hectares and 35.5 hectares, respectively.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -969,34 +840,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Diện tích đất và xâm nhập mặn là hai yếu tố quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất từ lúa chuyên canh sang lúa tôm và lúa cá. Diện tích đất và xâm nhập mặn có ảnh hưởng trái ngược nhau trong xu hướng chuyển đổi sang mô hình lúa – tôm hoặc lúa – cá. Những hộ có diện tích sản xuất lớn thường thực hiện chuyển đổi sang mô hình lúa – tôm nhiều hơn, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi sang mô hình tôm – lúa. Trong khi đó, hộ trồng lúa càng có diện tích đất sản xuất ít, sẽ không đủ điều kiện tạo ra thu nhập cho gia đình ổn định và nguồn lực để chuyển đổi để có thể chuyển đổi cơ cấu sản xuất nhằm tạo ra thu nhập cao hơn trong tương lai.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Diện tích đất và xâm nhập mặn là hai yếu tố quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất từ lúa chuyên canh sang lúa tôm và lúa cá. Diện tích đất và xâm nhập mặn có ảnh hưởng trái ngược nhau trong xu hướng chuyển đổi sang mô hình lúa – tôm hoặc lúa – cá. Những hộ có diện tích sản xuất lớn thường thực hiện chuyển đổi sang mô hình lúa – tôm nhiều hơn, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi sang mô hình tôm – lúa. Trong khi đó, hộ trồng lúa càng có diện tích đất sản xuất ít, sẽ không đủ điều kiện tạo ra thu nhập cho gia đình ổn định và nguồn lực để chuyển đổi để có thể chuyển đổi cơ cấu sản xuất nhằm tạo ra thu nhập cao hơn trong tương lai.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how land area and saltwater intrusion impact the decision to switch from specialized rice cultivation to rice-shrimp and rice-fish models. It does not contain any factual errors or inaccuracies. However, it could be more concise and clear in its explanation, hence the score is not a perfect 5.</t>
+          <t>The generated answer is highly relevant to the user query and provides specific details about the impact of saline intrusion on different types of rice crops in Soc Trang under two climate change scenarios. However, it does not provide a comparative analysis between the two scenarios, which was asked in the query.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu, hiện trạng công trình thủy lợi được đánh giá dựa trên những tiêu chí nào?</t>
+          <t>Based on the research findings, how has the agricultural structure in Sóc Trăng and other BĐSCL provinces changed before and after 2005? What factors contributed to this change?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hiện trạng công trình thủy lợi được đánh giá dựa trên các tiêu chí như hệ thống các kênh, đê bao và cống, mực nước trạm Mỹ Thuận với tần suất 3%, 5% và 10% so với cao trình đỉnh đê, cũng như mực nước tương ứng trong các năm 2030 và 2050. Đồng thời, cũng dựa trên thời gian đóng cống trong các tháng mùa khô, tỷ lệ số giờ lấy nước liên tục, và số lần lấy nước liên tục.</t>
+          <t>The context does not provide specific information on how the agricultural structure in Sóc Trăng and other BĐSCL provinces has changed before and after 2005, nor does it mention the factors that contributed to this change.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1006,34 +867,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hiện trạng công trình thủy lợi được đánh giá dựa trên các tiêu chí như hệ thống các kênh, đê bao và cống, mực nước trạm Mỹ Thuận với tần suất 3%, 5% và 10% so với cao trình đỉnh đê, cũng như mực nước tương ứng trong các năm 2030 và 2050. Đồng thời, cũng dựa trên thời gian đóng cống trong các tháng mùa khô, tỷ lệ số giờ lấy nước liên tục, và số lần lấy nước liên tục.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Hiện trạng công trình thủy lợi được đánh giá dựa trên các tiêu chí như hệ thống các kênh, đê bao và cống, mực nước trạm Mỹ Thuận với tần suất 3%, 5% và 10% so với cao trình đỉnh đê, cũng như mực nước tương ứng trong các năm 2030 và 2050. Đồng thời, cũng dựa trên thời gian đóng cống trong các tháng mùa khô, tỷ lệ số giờ lấy nước liên tục, và số lần lấy nước liên tục.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant to the user query and provides a detailed explanation of the criteria used to evaluate the current state of irrigation works. It includes specific factors such as the system of channels, embankments and culverts, water levels at My Thuan station, as well as the timing of culvert closures during the dry season, the percentage of continuous water extraction, and the number of continuous water extractions. However, without a reference answer, it's hard to confirm the complete accuracy of these criteria.</t>
+          <t>The generated answer does not provide any relevant information or answer to the user's query.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu, tình hình thủy lợi ở huyện Vũng Liêm, tỉnh Vĩnh Long hiện tại và trong tương lai có những vấn đề gì cần được giải quyết?</t>
+          <t>According to the Bộ Khoa học và Công nghê (2016), what is the standard salinity level in drinking water and how does it affect the growth of regular rice varieties? Can you name any rice varieties that are resistant to salinity?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hiện tại, mực nước trạm Mỹ Thuận với tần suất 3%, 5% và 10% thấp hơn cao trình đỉnh đê (+2,20 m). Tuy nhiên, dự báo cho thấy mực nước tương ứng năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5 đều cao hơn cao trình đỉnh đê. Điều này có thể gây ra nguy cơ lũ lụt. Trong những năm có độ mặn cao như 2016, 2020 và 2021, thời gian đóng cống trong các tháng mùa khô là trên 25%. Điều này cho thấy có nhu cầu cần giải quyết vấn đề xâm nhập mặn.</t>
+          <t>The context does not provide information on the standard salinity level in drinking water according to the Bộ Khoa học và Công nghê (2016), how it affects the growth of regular rice varieties, or any rice varieties that are resistant to salinity.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1043,34 +894,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hiện tại, mực nước trạm Mỹ Thuận với tần suất 3%, 5% và 10% thấp hơn cao trình đỉnh đê (+2,20 m). Tuy nhiên, dự báo cho thấy mực nước tương ứng năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5 đều cao hơn cao trình đỉnh đê. Điều này có thể gây ra nguy cơ lũ lụt. Trong những năm có độ mặn cao như 2016, 2020 và 2021, thời gian đóng cống trong các tháng mùa khô là trên 25%. Điều này cho thấy có nhu cầu cần giải quyết vấn đề xâm nhập mặn.</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Hiện tại, mực nước trạm Mỹ Thuận với tần suất 3%, 5% và 10% thấp hơn cao trình đỉnh đê (+2,20 m). Tuy nhiên, dự báo cho thấy mực nước tương ứng năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5 đều cao hơn cao trình đỉnh đê. Điều này có thể gây ra nguy cơ lũ lụt. Trong những năm có độ mặn cao như 2016, 2020 và 2021, thời gian đóng cống trong các tháng mùa khô là trên 25%. Điều này cho thấy có nhu cầu cần giải quyết vấn đề xâm nhập mặn.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant to the user query and provides detailed information about the current and future water situation in Vũng Liêm district, Vĩnh Long province. It mentions potential issues such as flood risks and salt intrusion that need to be addressed. However, it could be more specific about the solutions to these problems.</t>
+          <t>The generated answer does not provide any information relevant to the user's query. It simply states that the information is not available, which does not answer the user's question.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng với BĐKH được ban hành vào ngày nào?</t>
+          <t>Based on the research conducted using MODIS remote sensing images, which three main rice cultivation statuses were identified in Sóc Trăng province? What were the reliability measures for this research?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The context does not provide specific information on the exact date when Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng với BĐKH was issued.</t>
+          <t>The research identified three main rice cultivation statuses in Sóc Trăng province: triple rice crop, double rice crop, and rice-shrimp rotation crop. The reliability measures for this research were a confidence level of 80.8% and a Kappa value of 0.78.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1080,41 +921,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The context does not provide specific information on the exact date when Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng với BĐKH was issued.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>The context does not provide specific information on the exact date when Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng với BĐKH was issued.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>The generated answer is not relevant to the user query as it does not provide the information asked for, which is the date of issuance of the resolution.</t>
+          <t>The generated answer is relevant and seems to be correct, providing specific details about the rice cultivation statuses identified in Sóc Trăng province and the reliability measures for the research. However, without a reference answer, it's not possible to confirm the absolute accuracy of these details.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng BĐKH đề ra những nhiệm vụ và giải pháp cụ thể chính nào?</t>
+          <t>According to the paper by Dũng and Thuận (2021), what factors were found to have a positive correlation with the livelihood outcome of residents in the salty drought area? What factor had a negative correlation?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng BĐKH đề ra 6 nhóm nhiệm vụ và giải pháp cụ thể chính, bao gồm: 
-1. Rà soát, hoàn thiện và bổ sung hệ thống cơ chế, chính sách.
-2. Cập nhật và hệ thống hóa số liệu, dữ liệu liên ngành, tăng cường điều tra cơ bản.
-3. Xây dựng quy hoạch và tổ chức không gian lãnh thổ.
-4. Xây dựng cơ cấu kinh tế hợp lý thích ứng với BĐKH.
-5. Đầu tư và phát triển hạ tầng.
-6. Phát triển và huy động nguồn lực. 
-Trọng tâm của giai đoạn từ nay đến năm 2020 là thực hiện những nhiệm vụ cấp bách đã nêu trong Nghị quyết 120, trong đó, ưu tiên giải quyết vấn đề sạt lở bờ biển, bờ sông, rạch và sụt lún đất trong vùng đang diễn ra rất nhanh và ngày càng trầm trọng; triển khai quy hoạch, thiết kế các dự án cần đầu tư quy mô lớn ở giai đoạn tiếp theo nhằm triển khai mô hình kinh tế - xã hội của vùng một cách bền vững và chủ động thích ứng với BĐKH.</t>
+          <t>The factors found to have a positive correlation with the livelihood outcome of residents in the salty drought area include the number of production means, production experience, the number of main laborers, the number of income sources, and local support. On the other hand, borrowing was the factor that had a negative correlation with the livelihood outcome.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1124,85 +948,57 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng BĐKH đề ra 6 nhóm nhiệm vụ và giải pháp cụ thể chính, bao gồm: 
-1. Rà soát, hoàn thiện và bổ sung hệ thống cơ chế, chính sách.
-2. Cập nhật và hệ thống hóa số liệu, dữ liệu liên ngành, tăng cường điều tra cơ bản.
-3. Xây dựng quy hoạch và tổ chức không gian lãnh thổ.
-4. Xây dựng cơ cấu kinh tế hợp lý thích ứng với BĐKH.
-5. Đầu tư và phát triển hạ tầng.
-6. Phát triển và huy động nguồn lực. 
-Trọng tâm của giai đoạn từ nay đến năm 2020 là thực hiện những nhiệm vụ cấp bách đã nêu trong Nghị quyết 120, trong đó, ưu tiên giải quyết vấn đề sạt lở bờ biển, bờ sông, rạch và sụt lún đất trong vùng đang diễn ra rất nhanh và ngày càng trầm trọng; triển khai quy hoạch, thiết kế các dự án cần đầu tư quy mô lớn ở giai đoạn tiếp theo nhằm triển khai mô hình kinh tế - xã hội của vùng một cách bền vững và chủ động thích ứng với BĐKH.</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng BĐKH đề ra 6 nhóm nhiệm vụ và giải pháp cụ thể chính, bao gồm: 
-1. Rà soát, hoàn thiện và bổ sung hệ thống cơ chế, chính sách.
-2. Cập nhật và hệ thống hóa số liệu, dữ liệu liên ngành, tăng cường điều tra cơ bản.
-3. Xây dựng quy hoạch và tổ chức không gian lãnh thổ.
-4. Xây dựng cơ cấu kinh tế hợp lý thích ứng với BĐKH.
-5. Đầu tư và phát triển hạ tầng.
-6. Phát triển và huy động nguồn lực. 
-Trọng tâm của giai đoạn từ nay đến năm 2020 là thực hiện những nhiệm vụ cấp bách đã nêu trong Nghị quyết 120, trong đó, ưu tiên giải quyết vấn đề sạt lở bờ biển, bờ sông, rạch và sụt lún đất trong vùng đang diễn ra rất nhanh và ngày càng trầm trọng; triển khai quy hoạch, thiết kế các dự án cần đầu tư quy mô lớn ở giai đoạn tiếp theo nhằm triển khai mô hình kinh tế - xã hội của vùng một cách bền vững và chủ động thích ứng với BĐKH.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant and accurate to the user query. It provides a detailed response to the question about the specific tasks and solutions proposed by the overall action program implementing Resolution No. 120/NQ-CP on sustainable development of the Mekong Delta in response to climate change.</t>
+          <t>The generated answer is highly relevant to the user query and appears to be fully correct, providing specific factors that have a positive correlation and the one factor that has a negative correlation with the livelihood outcome of residents in the salty drought area, as per the paper by Dũng and Thuận (2021).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu về ảnh hưởng của mặn đến nông nghiệp, kết quả cho thấy những điều gì về việc chuyển đổi cây trồng của nông dân để thích ứng với tác động của mặn?</t>
+          <t>Based on the text, what factors were identified as influencing the livelihood outcomes of residents in salt-affected areas? Please list and briefly explain their relationship with household income.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nghiên cứu không cung cấp thông tin cụ thể về việc chuyển đổi cây trồng của nông dân để thích ứng với tác động của mặn.</t>
+          <t>Several factors were identified as influencing the livelihood outcomes of residents in salt-affected areas:
+1. Agricultural Production: Higher salinity decreases the productivity and revenue share of rice crop and aquaculture production, but increases the revenue share of industrial crops, such as coconut, a salt-resistant crop. This suggests that farmers are adopting new crops and switching crops as mechanisms for risk diversification to secure their income against salinization shocks.
+2. Agricultural Land Use: Higher salinity intrusion is associated with decreases in farmers’ land used for rice and in their general land used reported for agriculture. This reduction in land use could potentially impact the income generated from farming activities.
+3. Labor Supply: Salinity shock is estimated to decrease labor supply in agriculture for those without agricultural land, but labor supply for those with agricultural land does not respond to higher salinity. This could affect the income of those who rely on agricultural labor for their livelihood.
+4. Household Income and Consumption: Salinization is found to reduce farmer households’ income and consumption, which directly impacts the livelihood of these households.
+5. Education: The estimated effect on household spending on education is positive, implying farmers’ increased investment to acquire new skills. This could potentially lead to income diversification and improved livelihood outcomes in the long run.
+6. Migration and Credit Access: While the evidence on out-migration for off-farm work in urban centers is mixed, a more developed local credit market is found to play a positive role in easing the income losses incurred by farmers during salinization shocks. This suggests that access to credit and the ability to migrate for work can influence the livelihood outcomes of residents in salt-affected areas.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nghiên cứu không cung cấp thông tin cụ thể về việc chuyển đổi cây trồng của nông dân để thích ứng với tác động của mặn.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Nghiên cứu không cung cấp thông tin cụ thể về việc chuyển đổi cây trồng của nông dân để thích ứng với tác động của mặn.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant to the user query but it does not provide a detailed or informative response.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive list of factors influencing the livelihood outcomes of residents in salt-affected areas. It also explains their relationship with household income in a clear and detailed manner. The answer is fully correct and well-structured, making it easy to understand.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Những vấn đề chính gây ảnh hưởng đến sản xuất nông nghiệp và cuộc sống của nông dân do mặn đối mặt là gì?</t>
+          <t>Discuss the role of local support in the livelihoods of people living in salt-affected areas as mentioned in the text. Can you provide examples of such support?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Các vấn đề chính gây ảnh hưởng đến sản xuất nông nghiệp và cuộc sống của nông dân do mặn đối mặt bao gồm xâm nhập mặn gây khó khăn cho việc phân phối nguồn nước, đặc biệt là không đủ nước ngọt cho canh tác lúa vụ 3 (vụ Xuân - Hè) đầu năm 2016. Khô hạn kéo dài cũng làm tăng nhu cầu sử dụng nước cho sản xuất lúa. Mặt khác, việc khai thác nước dưới đất được quản lý tốt, nhưng có hạn chế trong việc tiếp xúc giữa người dân và chính quyền địa phương, dẫn đến việc các quy định không được áp dụng một cách rộng rãi.</t>
+          <t>Local support plays a significant role in the livelihoods of people living in salt-affected areas. For instance, in the Mekong Delta, the government and local people have developed various strategies and measures to cope with and adapt to hazards such as salinity intrusion and freshwater scarcity. These include the construction of dykes, changes in farming techniques, financial support for production recovery from disasters, exploitation of underground water, and diversification of income sources. However, it's noted that these adaptation options have some limitations as they do not fully consider the differences in terms of ecological, social, and economic environment. Therefore, future adaptation strategies should take into account these issues to benefit different social groups, especially the most vulnerable.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1212,37 +1008,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Các vấn đề chính gây ảnh hưởng đến sản xuất nông nghiệp và cuộc sống của nông dân do mặn đối mặt bao gồm xâm nhập mặn gây khó khăn cho việc phân phối nguồn nước, đặc biệt là không đủ nước ngọt cho canh tác lúa vụ 3 (vụ Xuân - Hè) đầu năm 2016. Khô hạn kéo dài cũng làm tăng nhu cầu sử dụng nước cho sản xuất lúa. Mặt khác, việc khai thác nước dưới đất được quản lý tốt, nhưng có hạn chế trong việc tiếp xúc giữa người dân và chính quyền địa phương, dẫn đến việc các quy định không được áp dụng một cách rộng rãi.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Các vấn đề chính gây ảnh hưởng đến sản xuất nông nghiệp và cuộc sống của nông dân do mặn đối mặt bao gồm xâm nhập mặn gây khó khăn cho việc phân phối nguồn nước, đặc biệt là không đủ nước ngọt cho canh tác lúa vụ 3 (vụ Xuân - Hè) đầu năm 2016. Khô hạn kéo dài cũng làm tăng nhu cầu sử dụng nước cho sản xuất lúa. Mặt khác, việc khai thác nước dưới đất được quản lý tốt, nhưng có hạn chế trong việc tiếp xúc giữa người dân và chính quyền địa phương, dẫn đến việc các quy định không được áp dụng một cách rộng rãi.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the main issues affecting agricultural production and the lives of farmers due to salinity. It includes specific examples such as the difficulty in water distribution, the lack of fresh water for crop cultivation, and the prolonged drought increasing the demand for water. It also mentions the well-managed but limited exploitation of groundwater and the lack of widespread application of regulations due to limited interaction between the people and local authorities. The answer could be improved by providing more specific examples or solutions to these problems.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of local support in the livelihoods of people living in salt-affected areas. It also provides specific examples, as requested by the user. The answer is comprehensive and appears to be correct, even in the absence of a reference answer.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Vùng đồng bằng sông Cửu Long đang đối mặt với những vấn đề gì do tác động của con người? Hãy liệt kê ít nhất 3 vấn đề này.</t>
+          <t>Based on the research paper, what are the various factors that influence the livelihood outcomes of residents in saline intrusion areas? Can you explain the relationship between these factors and the household income?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vùng đồng bằng sông Cửu Long đang đối mặt với một số vấn đề do tác động của con người, bao gồm:
-1. Tác động của biến đổi khí hậu toàn cầu, bao gồm sự nóng lên toàn cầu và nước biển dâng, có thể khiến ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập.
-2. Sự suy giảm nguồn tài nguyên thiên nhiên, thu hẹp diện tích canh tác và cư trú do tác động tiêu cực của các hiện tượng thời tiết cực đoan.
-3. Tác động của các hoạt động phát triển công nghiệp và nông nghiệp trong khu vực, gây ra những thách thức lớn đối với sự phát triển bền vững của nền nông nghiệp vùng đồng bằng sông Cửu Long.</t>
+          <t>The livelihood outcomes of residents in saline intrusion areas, such as the Vietnamese Mekong delta (MKD), are influenced by several factors. 
+Firstly, agricultural production is significantly affected by salinization. Higher salinity decreases the productivity and revenue share of rice crops and aquaculture production. However, it increases the revenue share of industrial crops, such as coconut, which are salt-resistant. This suggests that farmers are adopting new crops and switching crops as a risk diversification strategy to secure their income against salinization shocks.
+Secondly, salinization impacts the agricultural land used. Higher salinity intrusion is associated with decreases in farmers’ land used for rice and their general land used for agriculture.
+Thirdly, salinization affects labor supply. Salinity shock is estimated to decrease labor supply in agriculture for those without agricultural land, but labor supply for those with agricultural land does not respond to higher salinity.
+Fourthly, salinization reduces farmer households’ income and consumption. However, it is found to increase household spending on education, potentially implying farmers’ increased investment to acquire new skills.
+Lastly, the study tests two channels for adaptation smoothing: migration and credit access. The evidence on out-migration for off-farm work in urban centers is mixed, but the results support the hypothesis that a more developed local credit market plays a positive role in easing the income losses incurred by farmers during salinization shocks.
+In summary, salinization affects agricultural production, land use, labor supply, and household income and consumption. However, farmers are adapting to these changes through crop switching, acquiring new skills, and accessing credit.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1252,40 +1041,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Vùng đồng bằng sông Cửu Long đang đối mặt với một số vấn đề do tác động của con người, bao gồm:
-1. Tác động của biến đổi khí hậu toàn cầu, bao gồm sự nóng lên toàn cầu và nước biển dâng, có thể khiến ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập.
-2. Sự suy giảm nguồn tài nguyên thiên nhiên, thu hẹp diện tích canh tác và cư trú do tác động tiêu cực của các hiện tượng thời tiết cực đoan.
-3. Tác động của các hoạt động phát triển công nghiệp và nông nghiệp trong khu vực, gây ra những thách thức lớn đối với sự phát triển bền vững của nền nông nghiệp vùng đồng bằng sông Cửu Long.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Vùng đồng bằng sông Cửu Long đang đối mặt với một số vấn đề do tác động của con người, bao gồm:
-1. Tác động của biến đổi khí hậu toàn cầu, bao gồm sự nóng lên toàn cầu và nước biển dâng, có thể khiến ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập.
-2. Sự suy giảm nguồn tài nguyên thiên nhiên, thu hẹp diện tích canh tác và cư trú do tác động tiêu cực của các hiện tượng thời tiết cực đoan.
-3. Tác động của các hoạt động phát triển công nghiệp và nông nghiệp trong khu vực, gây ra những thách thức lớn đối với sự phát triển bền vững của nền nông nghiệp vùng đồng bằng sông Cửu Long.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response. It lists three major issues that the Mekong Delta is facing due to human impact, which is exactly what the user asked for.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed explanation of the various factors that influence the livelihood outcomes of residents in saline intrusion areas. It also explains the relationship between these factors and household income. The answer is well-structured, clear, and accurate, demonstrating a deep understanding of the topic.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Vì sao việc xây dựng các nhà máy thủy điện trên sông Mê Kông có tác động lớn đến môi trường và đời sống của người dân?</t>
+          <t>According to the paper titled "Ảnh hưởng của xâm nhập mặn đến công tác quản lý và sử dụng nguồn tài nguyên nước dưới đất tại vùng ven biển tỉnh sóc trăng" by Hằng et al., how does saline intrusion affect the management of groundwater resources in Tran De district and its usage in aquaculture and rice farming areas?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Việc xây dựng các nhà máy thủy điện trên sông Mê Kông có thể thay đổi dòng chảy của sông, gây ra tác động tiêu cực đến môi trường và đời sống của người dân. Đặc biệt, vùng đồng bằng sông Cửu Long (ĐBSCL) chịu ảnh hưởng kép từ dòng chảy của sông Mê Kông từ thượng nguồn và dòng triều do tác động biển xâm nhập vào đất liền. Bất kỳ thay đổi nào trong dòng chảy của sông Mê Kông có thể làm tăng hiện tượng xâm nhập mặn và khô hạn, đặc biệt từ tháng 1 đến tháng 4. Điều này có thể gây ra những hậu quả nghiêm trọng như suy giảm nguồn tài nguyên thiên nhiên, thu hẹp diện tích canh tác và cư trú, và tăng mối đe dọa an ninh lương thực.</t>
+          <t>During periods influenced by salt, particularly in the dry season of 2016, saline intrusion posed challenges to the management of groundwater resources in Tran De district, especially in controlling the extraction and use of groundwater. In areas of aquaculture, shrimp farmers increased their extraction of groundwater to reduce the salinity concentration of surface water. However, for rice farmers, primarily in the Long Phu district, saline intrusion did not affect the demand for or extraction of groundwater.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1295,34 +1068,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Việc xây dựng các nhà máy thủy điện trên sông Mê Kông có thể thay đổi dòng chảy của sông, gây ra tác động tiêu cực đến môi trường và đời sống của người dân. Đặc biệt, vùng đồng bằng sông Cửu Long (ĐBSCL) chịu ảnh hưởng kép từ dòng chảy của sông Mê Kông từ thượng nguồn và dòng triều do tác động biển xâm nhập vào đất liền. Bất kỳ thay đổi nào trong dòng chảy của sông Mê Kông có thể làm tăng hiện tượng xâm nhập mặn và khô hạn, đặc biệt từ tháng 1 đến tháng 4. Điều này có thể gây ra những hậu quả nghiêm trọng như suy giảm nguồn tài nguyên thiên nhiên, thu hẹp diện tích canh tác và cư trú, và tăng mối đe dọa an ninh lương thực.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Việc xây dựng các nhà máy thủy điện trên sông Mê Kông có thể thay đổi dòng chảy của sông, gây ra tác động tiêu cực đến môi trường và đời sống của người dân. Đặc biệt, vùng đồng bằng sông Cửu Long (ĐBSCL) chịu ảnh hưởng kép từ dòng chảy của sông Mê Kông từ thượng nguồn và dòng triều do tác động biển xâm nhập vào đất liền. Bất kỳ thay đổi nào trong dòng chảy của sông Mê Kông có thể làm tăng hiện tượng xâm nhập mặn và khô hạn, đặc biệt từ tháng 1 đến tháng 4. Điều này có thể gây ra những hậu quả nghiêm trọng như suy giảm nguồn tài nguyên thiên nhiên, thu hẹp diện tích canh tác và cư trú, và tăng mối đe dọa an ninh lương thực.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the construction of hydroelectric plants on the Mekong River can negatively impact the environment and the lives of the people. It correctly identifies the potential changes in the river flow, the increased risk of saltwater intrusion and drought, and the subsequent consequences such as the reduction of natural resources, shrinking of agricultural and residential areas, and threats to food security.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saline intrusion affects the management of groundwater resources in Tran De district and its usage in aquaculture and rice farming areas. However, it does not fully address the impact on rice farming areas as specified in the query, hence the slight deduction.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mô hình cân bằng nước MIKE HYDRO BASIN (MHB) được áp dụng như thế nào trong nghiên cứu này?</t>
+          <t>According to the research paper, how did saline intrusion during the dry season of 2016 affect the management and use of groundwater resources in the coastal areas of Soc Trang province, particularly in Tran De district and Long Phu district?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu này, mô hình cân bằng nước MIKE HYDRO BASIN (MHB) được sử dụng để phân bổ nguồn nước dựa trên số lượng. Mô hình này phụ thuộc lớn vào các quy tắc được thiết lập để phân bổ dòng chảy, bao gồm các quy tắc về phân bổ lượng nước nội sinh từ mưa vào các sông/kênh, tỉ lệ phân lưu giữa các nhánh sông/kênh, phân bổ nhu cầu nước đối với từng nguồn cấp, phân bổ nguồn cấp cho từng đối tượng sử dụng nước, và phân bổ dòng chảy hồi quy trở lại từng nguồn cấp. Tuy nhiên, mô hình này không xem xét đến chất lượng nước, đặc biệt là độ mặn.</t>
+          <t>During the dry season of 2016, saline intrusion posed significant challenges to the management and use of groundwater resources, especially in the Tran De district. In aquaculture areas, shrimp farmers increased their extraction of groundwater to reduce the salinity concentration of surface water. However, for rice farmers in the Long Phu district, saline intrusion did not affect their demand for or extraction of groundwater.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1332,34 +1095,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu này, mô hình cân bằng nước MIKE HYDRO BASIN (MHB) được sử dụng để phân bổ nguồn nước dựa trên số lượng. Mô hình này phụ thuộc lớn vào các quy tắc được thiết lập để phân bổ dòng chảy, bao gồm các quy tắc về phân bổ lượng nước nội sinh từ mưa vào các sông/kênh, tỉ lệ phân lưu giữa các nhánh sông/kênh, phân bổ nhu cầu nước đối với từng nguồn cấp, phân bổ nguồn cấp cho từng đối tượng sử dụng nước, và phân bổ dòng chảy hồi quy trở lại từng nguồn cấp. Tuy nhiên, mô hình này không xem xét đến chất lượng nước, đặc biệt là độ mặn.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Trong nghiên cứu này, mô hình cân bằng nước MIKE HYDRO BASIN (MHB) được sử dụng để phân bổ nguồn nước dựa trên số lượng. Mô hình này phụ thuộc lớn vào các quy tắc được thiết lập để phân bổ dòng chảy, bao gồm các quy tắc về phân bổ lượng nước nội sinh từ mưa vào các sông/kênh, tỉ lệ phân lưu giữa các nhánh sông/kênh, phân bổ nhu cầu nước đối với từng nguồn cấp, phân bổ nguồn cấp cho từng đối tượng sử dụng nước, và phân bổ dòng chảy hồi quy trở lại từng nguồn cấp. Tuy nhiên, mô hình này không xem xét đến chất lượng nước, đặc biệt là độ mặn.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and provides a detailed explanation of how the MIKE HYDRO BASIN (MHB) water balance model is used in the study. It mentions the model's dependence on established rules for water allocation and its limitations in considering water quality. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saline intrusion affected the management and use of groundwater resources in the specified areas. It loses half a point for not providing more specific details or data to support the statements.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mô hình MHB tính toán cân bằng nước theo thời đoạn ngày cho năm hiện trạng 2020, nhằm xác định những thông tin gì?</t>
+          <t>The paper discusses the impact of saline intrusion on agricultural production, specifically rice farming. Can you explain how this phenomenon affected the rice cultivation area in Long Phu, and what were the consequences?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The MHB model calculates water balance on a daily basis for the current year 2020 to determine information such as the distribution of water sources, the ratio of water distribution between different river branches, and the allocation of water demand for each source. It also considers factors like the return flow distribution to each source. However, it's important to note that this model does not take into account the quality of water, particularly salinity levels, and the operation of salinity control sluices.</t>
+          <t>The impact of saline intrusion on rice cultivation in Long Phu was significant. According to the climate change scenarios studied for 2004 and 2030, the area affected by saline intrusion for triple rice crop in Long Phu decreased by 35.5 hectares. This suggests that the saline intrusion has led to a reduction in the area suitable for rice cultivation. The consequences of this include a decrease in the productivity and revenue share of rice crops, a decrease in aquaculture production, and an increase in the revenue share of industrial crops like coconut, which are salt-resistant. This has led to farmers adopting new crops and switching crops as a risk diversification strategy to secure their income against salinization shocks.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1369,34 +1122,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The MHB model calculates water balance on a daily basis for the current year 2020 to determine information such as the distribution of water sources, the ratio of water distribution between different river branches, and the allocation of water demand for each source. It also considers factors like the return flow distribution to each source. However, it's important to note that this model does not take into account the quality of water, particularly salinity levels, and the operation of salinity control sluices.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>The MHB model calculates water balance on a daily basis for the current year 2020 to determine information such as the distribution of water sources, the ratio of water distribution between different river branches, and the allocation of water demand for each source. It also considers factors like the return flow distribution to each source. However, it's important to note that this model does not take into account the quality of water, particularly salinity levels, and the operation of salinity control sluices.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of what the MHB model calculates. It also adds extra information about what the model does not consider, which is useful for understanding the model's limitations. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of saline intrusion on rice cultivation in Long Phu. It also discusses the consequences of this phenomenon. However, it lacks specific data or sources to support its claims, which prevents it from receiving a perfect score.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu này, tỉ lệ nhu cầu nước của một đối tượng lấy từ một nút cụ thể được xác định như thế nào?</t>
+          <t>Explain the impact of the 2016 salinity crisis on aquaculture and rice production in Long Phú, as discussed in the document "researched_paper_cleanup.txt". What measures were taken by shrimp farmers to mitigate the effects of high salinity levels?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tỉ lệ nhu cầu nước của một đối tượng lấy từ một nút cụ thể được xác định bằng cách lấy tỉ lệ lượng nước đến tại nút đó so với tổng lượng nước đến tại tất cả các nút cấp cho đối tượng đang xét. Tỉ lệ này không cố định mà thay đổi theo ngày tương ứng với sự thay đổi của lượng nước đến từng nút.</t>
+          <t>The document does not provide specific information on the impact of the 2016 salinity crisis on aquaculture and rice production in Long Phú, nor does it discuss any measures taken by shrimp farmers to mitigate the effects of high salinity levels.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1406,34 +1149,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tỉ lệ nhu cầu nước của một đối tượng lấy từ một nút cụ thể được xác định bằng cách lấy tỉ lệ lượng nước đến tại nút đó so với tổng lượng nước đến tại tất cả các nút cấp cho đối tượng đang xét. Tỉ lệ này không cố định mà thay đổi theo ngày tương ứng với sự thay đổi của lượng nước đến từng nút.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Tỉ lệ nhu cầu nước của một đối tượng lấy từ một nút cụ thể được xác định bằng cách lấy tỉ lệ lượng nước đến tại nút đó so với tổng lượng nước đến tại tất cả các nút cấp cho đối tượng đang xét. Tỉ lệ này không cố định mà thay đổi theo ngày tương ứng với sự thay đổi của lượng nước đến từng nút.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant to the user query and provides a detailed explanation of how the water demand ratio of an object taken from a specific node is determined. It does not contain any noticeable mistakes. However, without a reference answer, it's hard to confirm if the provided method is the only or the most accurate one, hence the score is not a perfect 5.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the 2016 salinity crisis and its impact on aquaculture and rice production in Long Phú. However, it does not provide any specific information or details, which makes it impossible to judge its correctness.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kết quả tính toán từ mô hình MHB cho thấy tổng lượng nước thiếu cả năm trên toàn vùng chiếm khoảng bao nhiêu phần trăm so với tổng nhu cầu sử dụng nước?</t>
+          <t>The document mentions a regulation (Decree No. 33/2017/NĐ-CP) in relation to the use of well water in shrimp farming. Discuss the conflict between this regulation and the practical needs of shrimp farmers in harsh weather conditions. How does prolonged salinity crisis affect the management of water resources, especially in local areas?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tổng lượng nước thiếu cả năm trên toàn vùng chiếm khoảng 11,4% so với tổng nhu cầu sử dụng nước.</t>
+          <t>The context provided does not mention any specific regulation such as Decree No. 33/2017/NĐ-CP in relation to the use of well water in shrimp farming. It also does not discuss any conflict between this regulation and the practical needs of shrimp farmers in harsh weather conditions. Furthermore, the context does not provide specific information on how a prolonged salinity crisis affects the management of water resources, especially in local areas.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1443,34 +1176,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tổng lượng nước thiếu cả năm trên toàn vùng chiếm khoảng 11,4% so với tổng nhu cầu sử dụng nước.</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Tổng lượng nước thiếu cả năm trên toàn vùng chiếm khoảng 11,4% so với tổng nhu cầu sử dụng nước.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and directly answers the user's query. It provides a specific percentage which is what the user asked for.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the regulation, the conflict with the needs of shrimp farmers, or the effects of a prolonged salinity crisis on water resource management. Instead, it simply states that the context does not provide this information, which is not helpful or informative.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn đã được triển khai tại tỉnh nào?</t>
+          <t>Based on the research findings, what percentage of households surveyed were aware of the regulations for exploiting groundwater resources, and what percentage understood the consequences of over-exploitation?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Thông tin trong ngữ cảnh không cung cấp chi tiết về mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn đã được triển khai tại tỉnh nào.</t>
+          <t>90% of the households surveyed were aware of the regulations for exploiting groundwater resources. However, only 3% of the households understood that over-exploitation of these resources could lead to land subsidence.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1480,34 +1203,26 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thông tin trong ngữ cảnh không cung cấp chi tiết về mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn đã được triển khai tại tỉnh nào.</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Thông tin trong ngữ cảnh không cung cấp chi tiết về mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn đã được triển khai tại tỉnh nào.</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>The generated answer does not provide any relevant information to the user's query.</t>
+          <t>The generated answer is highly relevant to the user query and provides specific percentages for both parts of the question. It is not possible to verify the correctness without a reference answer, but the response is detailed and seems plausible.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Giải pháp nào được đề xuất để vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long?</t>
+          <t>Discuss the impact of saltwater intrusion on rice cultivation and aquaculture, as mentioned in the document. How does the management and use of groundwater resources factor into this issue?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Giải pháp được đề xuất để vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long bao gồm việc kết hợp nhiều loại công nghệ một cách đồng bộ và khoa học. Trọng tâm là giải quyết bài toán sử dụng nước tối ưu, giám sát, điều khiển các công trình, thiết bị (như trạm bơm, cống...) từ xa, và giám sát toàn bộ khu vực canh tác (khí hậu, nước đến nước đi) để hỗ trợ ra quyết định vận hành công trình từ xa. Tất cả những giải pháp này được xây dựng dựa trên nền tảng công nghệ Internet of Things (IoT).</t>
+          <t>Saltwater intrusion has a significant impact on rice cultivation and aquaculture. The research shows that exposure to higher salinity decreases the productivity and revenue share of rice crops. It also decreases aquaculture production. However, it increases the revenue share of industrial crops, such as coconut, which are salt-resistant. This suggests that farmers are adopting new crops and switching crops as a risk diversification strategy to secure their income against salinization shocks. 
+In terms of land use, higher salinity intrusion is associated with decreases not only in farmers’ land used for rice but also in their general land used for agriculture. Salinization also affects labor supply, reducing it in agriculture for those without agricultural land, while labor supply for those with agricultural land does not respond to higher salinity.
+The document does not provide specific information on the management and use of groundwater resources in relation to saltwater intrusion. However, it does mention that the operation of sluice gates, which can slow the intrusion of saltwater, is likely correlated with the development of local agricultural production.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1517,71 +1232,51 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Giải pháp được đề xuất để vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long bao gồm việc kết hợp nhiều loại công nghệ một cách đồng bộ và khoa học. Trọng tâm là giải quyết bài toán sử dụng nước tối ưu, giám sát, điều khiển các công trình, thiết bị (như trạm bơm, cống...) từ xa, và giám sát toàn bộ khu vực canh tác (khí hậu, nước đến nước đi) để hỗ trợ ra quyết định vận hành công trình từ xa. Tất cả những giải pháp này được xây dựng dựa trên nền tảng công nghệ Internet of Things (IoT).</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Giải pháp được đề xuất để vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long bao gồm việc kết hợp nhiều loại công nghệ một cách đồng bộ và khoa học. Trọng tâm là giải quyết bài toán sử dụng nước tối ưu, giám sát, điều khiển các công trình, thiết bị (như trạm bơm, cống...) từ xa, và giám sát toàn bộ khu vực canh tác (khí hậu, nước đến nước đi) để hỗ trợ ra quyết định vận hành công trình từ xa. Tất cả những giải pháp này được xây dựng dựa trên nền tảng công nghệ Internet of Things (IoT).</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and provides a detailed explanation of the solution for operating the inter-provincial irrigation system in the Mekong Delta region intelligently. It includes the use of various technologies, remote monitoring and control of structures and equipment, and decision-making support based on IoT technology. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of saltwater intrusion on rice cultivation and aquaculture. It also attempts to address the part of the query about groundwater resources, although it admits that the document does not provide specific information on this. The answer could be improved by providing more general information on how groundwater management might affect saltwater intrusion, even if the document does not provide specifics.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Các vấn đề chính trong công tác quản lý và vận hành hệ thống thủy lợi hiện nay là gì?</t>
+          <t>Explain the proposed model for simulating the impact of sea level rise on agricultural production areas, as discussed in the paper by Hiển et al. What are the key components of this model and how does it predict future scenarios?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Các vấn đề chính trong công tác quản lý và vận hành hệ thống thủy lợi hiện nay bao gồm: phần mềm chỉ giải quyết được các vấn đề riêng lẻ, chưa tích hợp để giải quyết tổng hợp các vấn đề; các giải pháp quan trắc chỉ có giá trị thực tiễn khi lắp đặt đầy đủ hệ thống trạm đo; các giải pháp mô hình được xây dựng đơn lẻ, khó áp dụng trong vận hành công trình; giải pháp vận hành, giám sát từ xa khó áp dụng cho vận hành cả hệ thống và phân phối nước cho nhiều đối tượng dùng nước; chưa kết hợp được bài toán phân phối nước tối ưu với các công nghệ mô phỏng thủy lực, điều khiển từ xa; và các giải pháp chỉ quan tâm đến đối tượng sử dụng là các cơ quan, tổ chức, chưa tạo được kết nối với toàn bộ các cá nhân, tổ chức liên quan đến hệ thống thủy lợi.</t>
+          <t>The context does not provide information on a proposed model for simulating the impact of sea level rise on agricultural production areas, as discussed in a paper by Hiển et al. Therefore, I cannot provide details on the key components of this model or how it predicts future scenarios.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Các vấn đề chính trong công tác quản lý và vận hành hệ thống thủy lợi hiện nay bao gồm: phần mềm chỉ giải quyết được các vấn đề riêng lẻ, chưa tích hợp để giải quyết tổng hợp các vấn đề; các giải pháp quan trắc chỉ có giá trị thực tiễn khi lắp đặt đầy đủ hệ thống trạm đo; các giải pháp mô hình được xây dựng đơn lẻ, khó áp dụng trong vận hành công trình; giải pháp vận hành, giám sát từ xa khó áp dụng cho vận hành cả hệ thống và phân phối nước cho nhiều đối tượng dùng nước; chưa kết hợp được bài toán phân phối nước tối ưu với các công nghệ mô phỏng thủy lực, điều khiển từ xa; và các giải pháp chỉ quan tâm đến đối tượng sử dụng là các cơ quan, tổ chức, chưa tạo được kết nối với toàn bộ các cá nhân, tổ chức liên quan đến hệ thống thủy lợi.</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Các vấn đề chính trong công tác quản lý và vận hành hệ thống thủy lợi hiện nay bao gồm: phần mềm chỉ giải quyết được các vấn đề riêng lẻ, chưa tích hợp để giải quyết tổng hợp các vấn đề; các giải pháp quan trắc chỉ có giá trị thực tiễn khi lắp đặt đầy đủ hệ thống trạm đo; các giải pháp mô hình được xây dựng đơn lẻ, khó áp dụng trong vận hành công trình; giải pháp vận hành, giám sát từ xa khó áp dụng cho vận hành cả hệ thống và phân phối nước cho nhiều đối tượng dùng nước; chưa kết hợp được bài toán phân phối nước tối ưu với các công nghệ mô phỏng thủy lực, điều khiển từ xa; và các giải pháp chỉ quan tâm đến đối tượng sử dụng là các cơ quan, tổ chức, chưa tạo được kết nối với toàn bộ các cá nhân, tổ chức liên quan đến hệ thống thủy lợi.</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the main issues in the management and operation of the current irrigation system. However, without a reference answer, it's hard to confirm the absolute correctness of the information provided.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the proposed model for simulating the impact of sea level rise on agricultural production areas, as discussed in the paper by Hiển et al.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Giải pháp nào được đề xuất để hiện đại hóa quản lý và vận hành các công trình thủy lợi?</t>
+          <t>Based on the findings of the paper, discuss the effects of sea level rise on coastal and inland districts. How does the construction of sea barriers and the change from rice cultivation to shrimp farming by locals affect the infiltration of sea water into the inland areas?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Giải pháp được đề xuất để hiện đại hóa quản lý và vận hành các công trình thủy lợi bao gồm việc xây dựng một hệ thống liên kết ba mô hình chính thông qua công nghệ Internet of Things (IoT). Ba mô hình này bao gồm Mô hình thuỷ lực, Mô hình quản lý kết cấu hạ tầng thủy lợi qua hệ thống GIS trực tuyến (WebGIS), và Mô hình SCADA.</t>
+          <t>The context does not provide specific information on the effects of sea level rise on coastal and inland districts, the construction of sea barriers, or the change from rice cultivation to shrimp farming by locals and its effect on the infiltration of sea water into the inland areas.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1591,96 +1286,2130 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Giải pháp được đề xuất để hiện đại hóa quản lý và vận hành các công trình thủy lợi bao gồm việc xây dựng một hệ thống liên kết ba mô hình chính thông qua công nghệ Internet of Things (IoT). Ba mô hình này bao gồm Mô hình thuỷ lực, Mô hình quản lý kết cấu hạ tầng thủy lợi qua hệ thống GIS trực tuyến (WebGIS), và Mô hình SCADA.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Giải pháp được đề xuất để hiện đại hóa quản lý và vận hành các công trình thủy lợi bao gồm việc xây dựng một hệ thống liên kết ba mô hình chính thông qua công nghệ Internet of Things (IoT). Ba mô hình này bao gồm Mô hình thuỷ lực, Mô hình quản lý kết cấu hạ tầng thủy lợi qua hệ thống GIS trực tuyến (WebGIS), và Mô hình SCADA.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and seems to be correct, providing a detailed solution for modernizing the management and operation of irrigation works. However, without a reference answer, it's hard to confirm its full accuracy.</t>
+          <t>The generated answer does not provide any relevant information or answer to the user's query. It simply states that the context does not provide the necessary information, which is not helpful or informative.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tại địa điểm nào trong tỉnh Bến Tre, mực độ mặn của nước là cao nhất?</t>
+          <t>Based on the research paper, what are the projected impacts of sea level rise on agricultural production in the Bạc Liêu province from 2016 to 2050?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Thông tin trong ngữ cảnh không cung cấp chi tiết về địa điểm cụ thể nào trong tỉnh Bến Tre có mực độ mặn cao nhất.</t>
+          <t>The projected impacts of sea level rise on agricultural production in the Bạc Liêu province from 2016 to 2050 are quite severe. The rising sea levels are expected to increasingly affect the agricultural production areas each year, posing complex risks. The simulation results of the flood risk map for the highest flood months for the years 2020, 2030, 2040, 2050 under low, medium, and high scenarios show this. 
+In the future, if the system of dikes and dams is properly planned, it will reduce the adverse effects of rising sea levels. However, agricultural production in the dry season will be very difficult due to severe drought and lack of fresh water. This situation could lead to poverty, food shortages, lack of fresh water for living, economic downturn, and many other negative consequences. Therefore, measures to remedy the flooding situation are needed, such as re-planning the canal system, dredging canals to create flow to share the water volume on the rivers with each other; building a reasonable dike system to prevent sea water and a salt prevention dam system to prevent sea water from invading the fields, reducing damage caused by saline intrusion.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Thông tin trong ngữ cảnh không cung cấp chi tiết về địa điểm cụ thể nào trong tỉnh Bến Tre có mực độ mặn cao nhất.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Thông tin trong ngữ cảnh không cung cấp chi tiết về địa điểm cụ thể nào trong tỉnh Bến Tre có mực độ mặn cao nhất.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant to the user query and it is correct in the context that it does not have specific information to provide. However, it does not provide a specific answer to the user's question.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the projected impacts of sea level rise on agricultural production in the Bạc Liêu province from 2016 to 2050. It also suggests potential solutions to mitigate these impacts. The answer is comprehensive and seems accurate, but without a reference answer, it's hard to confirm its complete correctness.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nhiệt độ nước tại địa điểm "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" vào ngày 8/4/2023 là bao nhiêu độ Celsius?</t>
+          <t>What are the proposed solutions to mitigate the negative effects of sea level rise and saltwater intrusion into farmlands in the Bạc Liêu province as mentioned in the document?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The context does not provide information on the water temperature at the location "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" on April 8, 2023.</t>
+          <t>The document suggests several solutions to mitigate the negative effects of sea level rise and saltwater intrusion into farmlands. Firstly, it emphasizes the need to increase awareness and understanding of the importance of Resolution 120 and the Planning Law No. 21/2017/QH14 among leaders, officials, and citizens. Secondly, it proposes a review of outdated or inappropriate plans and projects, especially those with significant ecological and biodiversity impacts. Thirdly, it recommends comprehensive assessments of the economic, social, and environmental aspects of large projects implemented in the past. Fourthly, it advocates for a firm stance against expanding dyke areas, aiming to maintain and restore freshwater storage areas during the flood season. Fifthly, it suggests reducing the number of coal-fired power plants and encouraging investment in renewable energy sources such as solar, wind, biomass, wave, and tidal power. Lastly, it calls for enhanced international cooperation, particularly between Vietnam and the Netherlands, in adapting to climate change and water management.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed list of proposed solutions to mitigate the negative effects of sea level rise and saltwater intrusion into farmlands in the Bạc Liêu province. It does not contain any noticeable mistakes. However, it could be more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>In the context of the Mekong Delta region's vulnerability to sea level rise, describe the simulation model researched to understand the impact on agricultural production areas. How does the model account for the various geographical and infrastructural elements in the region?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>The simulation model used to understand the impact on agricultural production areas in the Mekong Delta region due to sea level rise is a hydrodynamic model. This model uses flow data related to physical data such as river and canal cross-sections, banks or fields. The model aims to improve the description of flood propagation over the floodplain, water exchange between the floodplains and the river channels, the effect of topography and infrastructure on flooding, morphological changes, and bank erosion potential and changes over time. 
+When it comes to saline intrusion, the model takes into account the low slopes of the Mekong and its tributaries’ river beds and the complex of a two tidal regime. This makes the modelling of salinity intrusion for the whole system quite complicated. The results from these models can be used as a technical prerequisite for the development of a regional strategy and action plan to prepare for flood loss prevention and salinity management for the vulnerable agricultural sector.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the simulation model used to understand the impact of sea level rise on agricultural production areas in the Mekong Delta region. It also explains how the model accounts for various geographical and infrastructural elements in the region. The only reason it doesn't get a perfect score is because it doesn't explicitly mention how the model accounts for infrastructural elements, although it does mention the effect of infrastructure on flooding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Based on the analysis and comparison of desalination technologies used in Vietnam and worldwide, which technology was identified as having the greatest potential for application in rural villages in the Mekong Delta? Explain why this technology is considered the most effective for desalinating groundwater contaminated by salinity.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>The technology identified as having the greatest potential for application in rural villages in the Mekong Delta is electrodialysis. This technology was chosen based on an analysis and comparison of various desalination technologies used in Vietnam and worldwide. The study found that electrodialysis has the highest potential for application due to its effectiveness in desalinating groundwater that has been contaminated by salinity, thus ensuring the provision of safe and sufficient water for rural communities in the Mekong Delta.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and appears to be correct, providing a specific technology (electrodialysis) and explaining why it is considered effective for desalinating groundwater contaminated by salinity in the Mekong Delta. However, without a reference answer, it's not possible to confirm the absolute correctness of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>What are the two types of desalination technologies mentioned in the text and how do they differ in terms of energy consumption and suitability for use in rural areas of Vietnam?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>The two types of desalination technologies mentioned in the text are thermal and membrane. The text specifically highlights electrodialysis (ED), a type of membrane technology, as having the greatest potential for application in rural areas of Vietnam. ED uses direct current electricity, making it suitable for use with solar energy, a direct current source. Because it consumes less energy than reverse osmosis (RO) technology, the investment cost for a solar power system would be lower when using ED.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and accurate. It correctly identifies the two types of desalination technologies mentioned in the query and provides a detailed explanation of their energy consumption and suitability for use in rural areas of Vietnam. The only reason it doesn't get a perfect score is because it doesn't explicitly compare the energy consumption of thermal and membrane technologies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Based on the six standards mentioned in the text, describe the requirements for a desalination system to be effective and economically viable in rural communities in Vietnam.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>An effective and economically viable desalination system in rural communities in Vietnam would need to adhere to several standards. Firstly, it should enhance awareness and understanding among leaders, officials, and people about the importance of Resolution 120 and the Planning Law No. 21/2017/QH14. Secondly, it should review and halt the implementation of outdated or inappropriate plans, especially those that have significant impacts on a wide area and affect the ecosystem, biodiversity, and natural conditions of the Mekong Delta.
+Thirdly, comprehensive assessments of the economic, social, and environmental aspects of large projects implemented in the past should be conducted to learn lessons before considering other large projects. Fourthly, it should decisively prevent the expansion of dyke areas to maintain and restore freshwater storage areas during the flood season. Fifthly, it should reduce the number of coal-fired power plants and encourage and facilitate investment in the development of renewable energy sources such as solar, wind, biomass, wave, and tidal power.
+Lastly, it should enhance international cooperation, especially between Vietnam and the Netherlands, according to the strategic partnership agreement on climate change adaptation and water management.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>The generated answer is somewhat relevant to the user query as it discusses standards for environmental projects in Vietnam. However, it does not specifically address the requirements for a desalination system to be effective and economically viable in rural communities in Vietnam. The answer seems to be more focused on general environmental and energy policies rather than on the specifics of desalination systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Based on the research paper "Lựa chọn mô hình sản xuất của hộ trồng lúa trong điều kiện xâm nhập mặn ở đồng bằng sông cửu long" by Khôi and Khải, what are the key factors that influence a rice farmer's decision to choose integrated rice farming in the Mekong River Delta?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>The key factors that influence a rice farmer's decision to choose integrated rice farming in the Mekong River Delta include land area, levels of education, members generating main income, saline intrusion, sources of water for irrigation, and bank loan status. Among these, land area and saline intrusion are the most significant factors.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive list of factors that influence a rice farmer's decision to choose integrated rice farming in the Mekong River Delta. It also highlights the most significant factors among them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>According to the data from the Disaster Prevention and Mitigation Center of the Ministry of Agriculture and Rural Development, what is the salinity level considered as saline intrusion and how far has this salinity intrusion been measured in the Tiền and Hậu rivers?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the salinity level considered as saline intrusion according to the Disaster Prevention and Mitigation Center of the Ministry of Agriculture and Rural Development, nor does it mention how far this salinity intrusion has been measured in the Tiền and Hậu rivers.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any relevant or correct information in response to the user's query. It simply states that the information is not available, which does not answer the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>What are some of the national solutions that have been implemented to control salt intrusion, as mentioned in the document? How effective have these solutions been, particularly in coastal provinces like Cà Mau, Sóc Trăng, and Trà Vinh?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Several national solutions have been implemented to control salt intrusion. These include enhancing awareness and understanding of the importance of Resolution 120 and the Planning Law No. 21/2017/QH14 among leaders, officials, and citizens. There has also been a review of old plans and projects that are no longer suitable or contrary to the spirit of the Resolution, with a particular focus on large projects that have a significant impact on a wide area and affect the ecosystem, biodiversity, and natural conditions of the Mekong Delta.
+Other measures include comprehensive assessments of the economic, social, and environmental aspects of large projects that have been implemented in the past, to learn lessons before considering other large projects. There is a firm stance against expanding dyke areas, in order to maintain and restore freshwater storage areas during the flood season. The number of coal-fired power plants is being reduced, while encouraging and facilitating investment in the development of renewable energy sources such as solar, wind, biomass, wave, and tidal power. International cooperation is also being strengthened, especially between Vietnam and the Netherlands, according to a strategic partnership agreement on climate change adaptation and water management.
+However, the effectiveness of these solutions has not been fully evaluated in the context. The document does mention that current adaptation options have some limitations, as they do not fully consider the differences in terms of ecological, social, and economic environment. The vulnerability of people highly depends on these conditions, so future adaptation strategies should take these issues into account to benefit different social groups, especially the most vulnerable.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the national solutions implemented to control salt intrusion. It also discusses the effectiveness of these solutions, although it does not specifically mention the coastal provinces like Cà Mau, Sóc Trăng, and Trà Vinh. The answer is comprehensive and accurate, but the lack of specific information about the mentioned provinces prevents it from receiving a perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Based on the research findings, how has salt intrusion affected the quality of the environment and the agricultural practices of farmers? How do the studies of Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007) support the trend of adapting production to natural conditions and proactively reducing the impact of climate change?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Salt intrusion has had a significant impact on the environment and agricultural practices in the Mekong Delta. It has been found to decrease the productivity and revenue share of rice crops, as well as aquaculture production. However, it has also led to an increase in the revenue share of industrial crops, particularly coconut, which is a salt-resistant crop. This suggests that farmers are adopting new crops and switching crops as a mechanism for risk diversification, helping them secure their income against salinization shocks.
+In terms of land use, higher salinity intrusion is associated with decreases in farmers' land used for rice and their general land used for agriculture. Salinization has also been found to affect labor supply, reducing it in agriculture for those without agricultural land, while those with agricultural land do not see a change in labor supply due to higher salinity.
+Salinization also reduces farmer households' income and consumption. However, it has been found to increase household spending on education, potentially indicating farmers' increased investment to acquire new skills. 
+In terms of adaptation, the evidence on out-migration for off-farm work in urban centers is mixed, but there is support for the hypothesis that a more developed local credit market plays a positive role in easing the income losses incurred by farmers during salinization shocks.
+Unfortunately, the context does not provide information on the studies of Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007), so it's not possible to comment on how these studies support the trend of adapting production to natural conditions and proactively reducing the impact of climate change.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>The generated answer provides a comprehensive explanation of how salt intrusion affects the environment and agricultural practices, including impacts on crop productivity, land use, labor supply, and household income. It also discusses the adaptation strategies of farmers. However, it does not address the second part of the user's query about the studies of Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007), which results in a slight deduction in the score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Based on the research findings, what are the trends in farming adaptations to climate change in South America as per the studies by Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007)?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the trends in farming adaptations to climate change in South America as per the studies by Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007).</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>The context does not provide information on the water temperature at the location "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" on April 8, 2023.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>The context does not provide information on the water temperature at the location "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" on April 8, 2023.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>The generated answer is relevant and correct. It accurately states that the information requested by the user is not available in the provided context.</t>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any information relevant to the user's query about the trends in farming adaptations to climate change in South America according to the specified studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Analyze the data provided on the distribution of rice farming models in the research area. What are the differences in education level and gender distribution among the households practicing monoculture and combined rice farming?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>The context does not provide specific information on the distribution of education level and gender among households practicing monoculture and combined rice farming.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and correctly states that the provided context does not contain the specific information asked for. However, it does not attempt to provide any further analysis or insight, which could have improved the response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Based on the research paper, how does the salinity intrusion affect the probability of transitioning from specialized rice cultivation to a rice-shrimp model? What is the significance level of this correlation?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>The research paper does not provide specific information on the impact of salinity intrusion on the probability of transitioning from specialized rice cultivation to a rice-shrimp model, nor does it mention the significance level of such a correlation.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it does not provide a definitive answer to the question. It is possible that the information is not available in the research paper, but without a reference answer or the actual paper, it's hard to confirm the correctness of the response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>According to the document, what are the significant variables that explain the probability of transitioning from specialized rice cultivation to a rice-shrimp model? How do land area and salinity intrusion influence this transition?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>The document does not provide specific information on the significant variables that explain the probability of transitioning from specialized rice cultivation to a rice-shrimp model, nor does it detail how land area and salinity intrusion influence this transition.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it's not possible to determine its correctness without a reference answer or the original document. The answer is also somewhat vague, stating that the document doesn't provide the requested information without offering any additional details or context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>What are the key factors that influence the probability of transitioning from specialized rice farming to the rice-shrimp model, as identified in the research paper "Nghiên cứu vận hành công trình thủy lợi trong điều kiện xâm nhập mặn: trường hợp nghiên cứu tại huyện vũng liêm, tỉnh vĩnh long" by Lavane et al.?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the key factors that influence the probability of transitioning from specialized rice farming to the rice-shrimp model as identified in the research paper "Nghiên cứu vận hành công trình thủy lợi trong điều kiện xâm nhập mặn: trường hợp nghiên cứu tại huyện vũng liêm, tỉnh vĩnh long" by Lavane et al.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the research paper mentioned. However, it does not provide any specific factors that influence the transition from specialized rice farming to the rice-shrimp model, which is what the user asked for. Therefore, it is not fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>According to the same research, how do land area and salinity intrusion affect the trend of transitioning to the rice-shrimp or rice-fish model? What contradictions in economic benefits of these models are suggested in the context of salinity intrusion in the region?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>The context does not provide specific information on how land area and salinity intrusion affect the trend of transitioning to the rice-shrimp or rice-fish model. Similarly, it does not mention any contradictions in economic benefits of these models in the context of salinity intrusion in the region.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any information or answer to the user's query. It simply states that the context does not provide the necessary information, which is not helpful or relevant to the user's question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Based on the research paper, what were the two conditions under which the Nang Am sluice-gate was operated from 2015-2021?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>The Nang Am sluice-gate was operated from 2015-2021 under two conditions: the water level and the salinity, with a salinity threshold of 1 g/L.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and seems to be correct, providing specific conditions under which the Nang Am sluice-gate was operated. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>According to the climate change scenarios of the Ministry of Natural Resources and Environment (2016), how do the predicted water levels in 2030 and 2050 under the three scenarios RCP2.6, RCP4.5 and RCP 8.5 compare to the dike-crest elevation?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the comparison of predicted water levels in 2030 and 2050 under the three scenarios RCP2.6, RCP4.5, and RCP 8.5 to the dike-crest elevation according to the climate change scenarios of the Ministry of Natural Resources and Environment (2016).</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and does not contain any factual errors. However, it does not provide a direct answer to the question, instead stating that the necessary information is not available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Based on the research conducted in Vũng Liêm, Vĩnh Long, what are the current conditions of the irrigation system and how does it relate to the operation of the sluice gates during the dry season under saline intrusion conditions?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>The irrigation system in Vũng Liêm, Vĩnh Long was digitised using QGIS and the dyke elevations were evaluated based on the water level of the My Thuan station, as predicted from climate change scenarios. The Nang Am sluice-gate was chosen for operation from 2015 to 2021 under two conditions: water level and salinity, with a salinity threshold of 1 g/L. The results indicated that the current water level of the My Thuan station, with a frequency of 3%, 5%, and 10%, is lower than the dike-crest elevation (+2.20 m). However, the projected water levels for 2030 and 2050 under three scenarios (RCP2.6, RCP4.5, and RCP 8.5) are higher than the dike-crest elevation. In years with high salinity, such as 2016, 2020, and 2021, the sluice gate was closed for over 25% of the time during the dry months.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the current conditions of the irrigation system in Vũng Liêm, Vĩnh Long. It also explains how the operation of the sluice gates during the dry season is affected by saline intrusion conditions. The answer is comprehensive and appears to be accurate, although without a reference answer, it's not possible to confirm every detail. The score is not a perfect 5 due to the lack of a reference answer for complete verification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>In the paper titled "Quản lý tài nguyên nước bền vững, ứng phó với biến đổi khí hậu ở Đồng bằng sông Cửu Long" by PGS. TS Lê Anh Tuấn, what are the key challenges faced by the Mekong Delta and what are the key findings from the various technical reports related to water resource management and climate change adaptation?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>The Mekong Delta faces several key challenges, including salinity intrusion, freshwater scarcity, and ebb tide influences, which have been increasing in recent years. These hazards have a direct impact on production and the livelihoods of the local people. Other challenges include unpredictable weather changes, market price fluctuations, environmental pollution, and shrimp diseases, which further complicate production.
+To cope with these hazards, the local government and people have developed strategies such as dyke building, farming technical changes, financial support for production recovery from disasters, underground water exploitation, and income diversification. However, these adaptation options have limitations as they do not fully consider the differences in ecological, social, and economic environments. The vulnerability of people highly depends on these conditions.
+In terms of water resource management, the planning in the Mekong Delta is quite "top-down", with villagers and farmers playing a minor role. The water control infrastructure systems suffer from many shortcomings and challenges in terms of both their structure and management. There are two water quantity problems and three main water quality problems that limit agricultural production: Salinity intrusion, floods, acid sulfate soils, polluted water, and fresh water shortages.
+Regarding floods, the Mekong Delta, due to its location, receives the total volume of floodwaters from upstream. About 50 percent of the Mekong Delta experiences flooding, and these areas are susceptible to serious damage by floods about every five years. Major flooding is now likely to occur even more frequently than the “once in two or three years” average. High floods result in loss of life and cause millions of dollars worth of damage to houses, infrastructure, and crops. However, floods are also perceived by many farmers and scientists not only as a “disaster” but also as a natural phenomenon that brings multiple replenishing and revitalizing benefits.
+The paper suggests that future adaptation strategies should take into account the above issues in order to benefit different social groups, especially the most vulnerable.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive overview of the key challenges faced by the Mekong Delta as well as the findings from technical reports related to water resource management and climate change adaptation. The answer could be slightly more concise, hence the score is not a perfect 5.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Based on the text, what are the two main impacts on the flow in the Mekong Delta region, and how do they affect the region during different times of the year?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>The two main impacts on the flow in the Mekong Delta region are flooding and salinity intrusion. Flooding is a significant issue, particularly during the yearly September-October flood period, known locally as mùa nước nổi (water rising season). This flooding can cause loss of life and significant damage to houses, infrastructure, and crops. However, it also brings benefits such as fertile sediment, fish spawning, and improved water quality. 
+On the other hand, salinity intrusion, which is particularly prevalent from March to May, occurs when not enough river discharge is flowing to the low-lying estuaries, allowing salt water to flow into the land. This intrusion can restrict the use of canal water for domestic and industrial uses, cause corrosion of metal materials, and make vegetables and other crops scarce in the affected areas. However, it also has some positive effects, such as reducing acidity in potential acid sulphate soil land and enabling farmers to implement a more varied production scheme to raise shrimp during the dry season.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the two main impacts on the flow in the Mekong Delta region, including how they affect the region during different times of the year. It also provides additional context and details that enhance the understanding of the topic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>According to the mathematical models mentioned in the text, what changes are predicted for the Mekong Delta region in terms of average temperature and rainfall in the next 30 years, and how might these changes affect agriculture in the region?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>The text does not provide specific information on the predicted changes in average temperature and rainfall in the Mekong Delta region over the next 30 years according to mathematical models, nor does it discuss how such changes might affect agriculture in the region.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and it is correct in stating that the text does not provide the specific information asked for. However, it could have been more helpful by suggesting where such information might be found or by providing general information on the effects of temperature and rainfall changes on agriculture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>What are the potential impacts of global warming and rising sea levels on low-lying coastal areas, specifically in the Mekong Delta region, as discussed in the document "researched_paper_cleanup.txt"?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>The document does not provide specific information on the impacts of global warming and rising sea levels on low-lying coastal areas, particularly in the Mekong Delta region.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of global warming and rising sea levels' impact on the Mekong Delta region. However, it does not provide any specific information or details, which makes it impossible to judge its correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>According to the document, what are the dual impacts that the delta region is facing, and how do industrial and agricultural activities in the region contribute to these impacts?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>The delta region is facing the dual impacts of floods and salinity intrusion. Floods occur when excess water upstream flows over river banks or dykes to the floodplain, and they can cause prolonged deep inundation, river bank erosion, and transportation difficulties. However, they also have multiple replenishing and revitalizing benefits such as providing fertile sediment, aiding fish spawning, improving water quality, and reducing fire risk. 
+On the other hand, salinity intrusion occurs when not enough river discharge is flowing to the low-lying estuaries and instead salt water flows into the land. This can damage crops, restrict the use of canal water for domestic and industrial uses, and cause corrosion of metal materials. However, it also has a positive effect of reducing acidity in potential acid sulphate soil land and enabling farmers to implement a more varied production scheme to raise shrimp during the dry season.
+Industrial and agricultural activities in the region contribute to these impacts in several ways. For instance, the construction of dams, climate change, and water poor quality are some of the anthropogenic stressors that endanger the Lower Mekong River. Additionally, water resources planning in the Mekong Delta is quite "top-down", with villagers and farmers playing a very minor role in water planning and natural prevention projection processes. This could potentially exacerbate the impacts of floods and salinity intrusion.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed explanation of the dual impacts that the delta region is facing, as well as how industrial and agricultural activities contribute to these impacts. The answer is well-structured, clear, and appears to be fully correct, with no mistakes or inaccuracies evident.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>What are the six specific tasks and solutions proposed in the comprehensive action program to implement Resolution 120/NQ-CP on sustainable development, as issued by the Vietnamese government?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>The six specific tasks and solutions proposed in the comprehensive action program to implement Resolution 120/NQ-CP on sustainable development are: (1) Reviewing, perfecting and supplementing the system of mechanisms and policies; (2) Updating and systematizing cross-sectoral data, enhancing basic surveys; (3) Developing planning and organizing territorial space; (4) Building an appropriate economic structure adapted to climate change; (5) Investing and developing infrastructure; (6) Developing and mobilizing resources.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response to the question asked. It lists all six tasks and solutions proposed in the comprehensive action program to implement Resolution 120/NQ-CP on sustainable development, as issued by the Vietnamese government.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>What are the priority issues to be addressed by 2020 according to Resolution 120/NQ-CP, and how does it plan to deal with the rapid and increasingly serious issues of coastal erosion, riverbank erosion, and land subsidence?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>The priority issues to be addressed by 2020 according to Resolution 120/NQ-CP include the rapid and increasingly serious issues of coastal erosion, riverbank erosion, and land subsidence. The plan to deal with these issues involves implementing urgent tasks outlined in the resolution. This includes prioritizing the resolution of coastal and riverbank erosion and land subsidence, which are occurring at a rapid pace. Additionally, the plan involves deploying planning and designing large-scale investment projects for the next phase to implement the region's socio-economic model in a sustainable and proactive manner that adapts to climate change.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and appears to be correct, providing a detailed response to the user's query about the priority issues addressed by Resolution 120/NQ-CP and the plan to deal with coastal erosion, riverbank erosion, and land subsidence. However, without a reference answer, it's difficult to confirm the complete accuracy of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Based on the text, what challenges have been identified in the implementation of Resolution 120, and how have these affected the involvement of organizations, businesses, and individuals?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>The implementation of Resolution 120 has faced several challenges. Understanding and applying the resolution in practice has been difficult, with many localities not fully innovating in line with the spirit of the resolution. Instead, they rely on guidance and support resources from the central government. The approach based on internal strength has not been emphasized, and there has been a lack of widespread participation from organizations, businesses, and individuals. Additionally, the completion of the institutional framework and policies to carry out tasks according to Resolution 120 has been slow, especially policies to promote the development of key sectors and fields. Some policies have been issued but have not been integrated into daily life due to a lack of synchronization with implementation resources. There is also a lack of regulations on coordination mechanisms and information sharing among relevant agencies. Particularly, the mindset of prioritizing the selection of construction solutions at all levels/sectors is still more prevalent than choosing non-construction solutions. These challenges have hindered the active involvement of organizations, businesses, and individuals in the implementation of the resolution.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the challenges faced in the implementation of Resolution 120. It also clearly outlines how these challenges have affected the involvement of organizations, businesses, and individuals. The answer is comprehensive and appears to be correct, even without a reference answer for comparison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Discuss the issues related to policy synchronization and information sharing among related agencies as mentioned in the text. How do these issues impact the selection of solutions for projects?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>The text indicates that there are significant issues related to policy synchronization and information sharing among related agencies. The implementation of Resolution 120, for instance, has been problematic, with many localities not innovating in line with the resolution's spirit and instead waiting for guidance and support from the central government. The approach based on internal strength has not been emphasized, and the widespread participation of organizations, businesses, and people has not been mobilized. 
+Moreover, the perfection of mechanisms and policies to carry out tasks according to Resolution 120 has been slow, especially policies to promote the development of key sectors and fields. Some policies have been issued but have not been integrated into life because they are not synchronized with the resources for implementation. There is a lack of regulations on the coordination mechanism and information sharing among related agencies.
+These issues have a significant impact on the selection of solutions for projects. The text suggests that there is a prevailing mindset of prioritizing the selection of construction solutions over non-construction solutions. This could be due to the lack of coordination and information sharing, which may limit the understanding of the full range of possible solutions and their potential impacts.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed discussion on the issues related to policy synchronization and information sharing among related agencies. It also explains how these issues impact the selection of solutions for projects. The answer could be slightly more specific in terms of the impact on project solution selection, hence the score is not a perfect 5.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Based on the research paper "The Salinization of Agricultural Hubs: Impacts and Adjustments to Intensifying Saltwater Intrusion in the Mekong Delta", what are the observed effects of salinization on rice production, land use, labor supply, and household income in the Mekong Delta region?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>The research paper outlines several effects of salinization in the Mekong Delta region. For agricultural production, higher salinity decreases the productivity and revenue share of rice crops, as well as aquaculture production. However, it increases the revenue share of industrial crops, such as coconut, which is a salt-resistant crop. 
+In terms of land use, higher salinity intrusion is associated with decreases in farmers’ land used for rice and their general land used for agriculture. 
+Regarding labor supply, salinity shock is estimated to decrease labor supply in agriculture for those without agricultural land, but labor supply for those with agricultural land does not respond to higher salinity.
+Finally, salinization is found to reduce farmer households’ income and consumption. However, it seems to increase household spending on education, potentially indicating farmers’ increased investment to acquire new skills.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and appears to be fully correct. It provides detailed information on the effects of salinization on rice production, land use, labor supply, and household income in the Mekong Delta region, as requested by the user.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>In the context of the Vietnamese Mekong Delta, discuss the role of credit access and labor migration to urban areas as potential adaptation mechanisms in response to the challenges posed by salinization. Provide evidence from the research paper to support your answer.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>The research paper discusses two potential adaptation mechanisms in response to salinization in the Vietnamese Mekong Delta: credit access and labor migration to urban areas. The evidence on labor migration for off-farm work in urban centers is mixed, suggesting that it may not be a consistent or reliable adaptation strategy for all farmers affected by salinization. On the other hand, the study supports the hypothesis that a more developed local credit market plays a positive role in easing the income losses incurred by farmers during salinization shocks. This suggests that access to credit can provide farmers with the financial resources needed to adapt their farming practices or invest in new, more salt-resistant crops.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of credit access and labor migration as potential adaptation mechanisms in response to salinization in the Vietnamese Mekong Delta. It also provides evidence from the research paper to support its points. However, it could have been more specific about the evidence from the research paper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Based on the research conducted on the Vietnamese Mekong delta, explain how salinization impacts agricultural production, labor decisions, and the welfare of farmer households. Discuss the five main results of the analysis in detail.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Salinization has a significant impact on agricultural production, labor decisions, and the welfare of farmer households in the Vietnamese Mekong delta. The analysis of these impacts yielded five main results.
+Firstly, in terms of agricultural production, higher salinity was found to decrease the productivity and revenue share of rice crops, which is a significant concern given that the Mekong delta contributes to over 90% of national rice exports. Higher salinity also decreases aquaculture production. However, it increases the revenue share of industrial crops, particularly coconut, which is a salt-resistant crop. This suggests that farmers may be adopting new crops or switching crops as a risk diversification strategy to secure their income against salinization shocks.
+Secondly, higher salinity intrusion was associated with decreases in farmers’ land used for rice and their general land used for agriculture. This suggests that salinization may be leading to a reduction in agricultural land use.
+Thirdly, salinization was found to affect labor supply. While salinity shock was estimated to decrease labor supply in agriculture for those without agricultural land, labor supply for those with agricultural land did not respond to higher salinity. This indicates that salinization may be influencing labor decisions in the agricultural sector.
+Fourthly, salinization was found to reduce farmer households’ income and consumption, indicating a negative impact on their welfare. However, the estimated effect on household spending on education was positive, which could imply that farmers are investing more in acquiring new skills in response to the challenges posed by salinization.
+Lastly, the study tested two channels for adaptation smoothing: migration and credit access. The evidence on out-migration for off-farm work in urban centers was mixed, but the results supported the hypothesis that a more developed local credit market plays a positive role in easing the income losses incurred by farmers during salinization shocks. This suggests that financial mechanisms may be an important part of the response to salinization.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive explanation of the impact of salinization on agricultural production, labor decisions, and the welfare of farmer households in the Vietnamese Mekong delta. It also successfully discusses the five main results of the analysis in detail, as requested by the user. The answer is well-structured, clear, and appears to be accurate, making it a high-quality response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>The study mentions two channels for adaptation smoothing: migration and credit access. Can you elaborate on these channels and how they play a role in easing the income losses incurred by farmers during salinization shocks?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>The study suggests that migration and credit access are two potential channels for adaptation smoothing in response to salinization shocks. Migration refers to the movement of individuals from rural areas to urban centers for off-farm work. This can help to supplement income lost due to decreased agricultural productivity from salinization. However, the evidence for this channel is mixed, indicating that it may not always be a viable or effective strategy for all farmers.
+On the other hand, credit access refers to the availability and development of local credit markets. The study found that a more developed local credit market can play a positive role in easing the income losses incurred by farmers during salinization shocks. This is because access to credit can provide farmers with the necessary funds to invest in adaptive strategies, such as switching to salt-resistant crops or investing in new farming technologies. This can help to mitigate the negative impacts of salinization on their income.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the two channels for adaptation smoothing: migration and credit access. It also explains how these channels can help ease the income losses incurred by farmers during salinization shocks. The answer is accurate and comprehensive, making it deserving of a perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Based on the research findings in the document, explain the impact of salinization on total farm revenue and the adaptive measures farmers are taking in response to salinity shock in the Mekong Delta, Vietnam.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Salinization does not have a significant impact on total farm revenue from all crops and aquaculture in the Mekong Delta, Vietnam. However, it does affect the productivity and revenue share of specific crops. For instance, higher salinity decreases the productivity and revenue share of rice crops and aquaculture production. On the other hand, it increases the revenue share of industrial crops, particularly coconut, which is a salt-resistant crop. 
+In response to salinity shock, farmers are adopting new crops and switching to salt-resistant industrial crops as a risk diversification strategy. This helps them secure their income against salinization shocks. Additionally, there is evidence of farmers reducing their agricultural land and labor supply in agriculture due to salinization. 
+Other adaptive measures include migration for off-farm work in urban centers and accessing credit markets. The development of local credit markets has been found to play a positive role in easing the income losses incurred by farmers during salinization shocks. There is also an increased investment in education, potentially implying farmers' efforts to acquire new skills to adapt to the changing environment.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of salinization on total farm revenue and the adaptive measures farmers are taking in response to salinity shock in the Mekong Delta, Vietnam. It does not contain any noticeable mistakes. The only reason it does not receive a perfect score is because it could be more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>The paper discusses the concept of flood and salinity intrusion in the Mekong Delta. Discuss how these natural phenomena are perceived by the local people and the mitigation strategies suggested in the paper to deal with these issues.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Floods in the Mekong Delta are perceived by many farmers and scientists not only as a disaster but also as a natural occurrence that brings multiple benefits. These benefits include fertile sediment, fish spawning, aquatic products, flushing effect, pest control, water quality, water provision, reduced fire risk, and ecological drivers. However, floods can also cause loss of life and property, and can lead to issues such as bank erosion, navigation hazards, pests, invasive exotic plants, and health risks.
+Salinity intrusion, on the other hand, occurs when not enough river discharge is flowing to the low-lying estuaries and instead, salt water flows into the land. This can cause damage to crops and restrict the use of canal water for domestic and industrial uses. However, it also has a positive effect of reducing acidity in potential acid sulphate soil land, leading to higher pH in water. This enables farmers to implement a more varied production scheme, such as raising shrimp during the dry season.
+To mitigate these issues, the paper suggests the use of computer modelling as a powerful tool in water resources engineering. This can help in understanding changes in water quantity and quality over time, and assist with decision-making in water planning and management. The results from these models can be used as a technical prerequisite for the development of a regional strategy and action plan to prepare for flood loss prevention and salinity management for the vulnerable agricultural sector.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive and accurate response. It discusses the perception of floods and salinity intrusion by the local people in the Mekong Delta and also outlines the mitigation strategies suggested in the paper. The answer is well-structured and detailed, providing a thorough understanding of the topic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Explain the different types of floods as distinguished in the Vietnamese language and how each type impacts the Mekong Delta region.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>In the Vietnamese language, there are several types of floods distinguished. The term 'lũ' refers to a flood, which occurs when excess water upstream flows over river banks or dykes to the floodplain. 'Lụt' refers to inundation, which is affected by floods. 'Ngập' refers to submergence, a phenomenon that occurs when water levels in the plain, such as fields or land of the inner dyke or depression areas or wetlands, are higher than the ground surface level at a certain period. Submergence may be caused by high floods, heavy rainfall, a strong tide, or uprising groundwater.
+The term 'bão lũ' or storm-flood refers to a serious disaster when the basin is affected by strong storms and continuous heavy rainfall. These storm-floods frequently occur in North and Central Vietnam, but rarely in the South. 
+In the Mekong Delta, due to its location in the most downstream part of the basin, it receives the total volume of floodwaters from upstream. The flooded area ranges from 1.2 to 1.4 million hectares in years of low and medium flooding, and around 1.9 million hectares in years of high flooding. About 50 percent of the Mekong delta experiences flooding and these areas are also susceptible to serious damage by floods about every five years. High floods are caused when three simultaneous factors happen: large water discharges occur originating from upstream as affected by typhoons or tropical low pressures; long and heavy rainfall occurs in the Mekong Delta itself; and, high tides that lead to high water levels in the rivers and canal system prevent easy drainage. These floods result in loss of life, especially amongst children, and cause millions of dollars worth of damage to houses, infrastructure, and crops.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the different types of floods as distinguished in the Vietnamese language. It also thoroughly explains how each type impacts the Mekong Delta region. The answer is accurate and detailed, making it a perfect response to the user's query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Discuss the dual nature of floods in the Mekong Delta, highlighting both the damaging effects and the potential benefits they bring to the region.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Floods in the Mekong Delta have a dual nature, bringing both damaging effects and potential benefits to the region. On the damaging side, high floods result in loss of life, particularly among children, and cause significant damage to houses, infrastructure, and crops. The cost of this damage can reach into the millions of dollars. Other indirect damages include economic losses due to interruption of economic activities, anxiety, inconvenience, ill health, and loss of cultural significance. There are also other recorded damages affecting rural communities and the commercial sector directly, such as bank erosion, navigation hazards, pests, invasive exotic plants, and health risks.
+On the other hand, floods are not only perceived as a disaster. They are historically linked with the natural form of the Mekong River delta region and bring multiple replenishing and revitalizing benefits. These include the deposit of fertile sediment, which enriches the soil for farming, the spawning of fish and production of aquatic products, a flushing effect that cleanses the waterways, pest control, improvement of water quality, provision of water, reduction of fire risk, and serving as ecological drivers. These benefits highlight the complex relationship between the people of the Mekong Delta and their environment.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive discussion on the dual nature of floods in the Mekong Delta. It accurately highlights both the damaging effects and the potential benefits of floods in the region, providing specific examples for each. The answer is well-structured and fully correct, hence the perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Explain the impact of salinity intrusion on the Mekong Delta and its implications for local agriculture and water supply. Discuss the potential benefits and drawbacks of this phenomenon.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Salinity intrusion in the Mekong Delta has a significant impact on local agriculture and water supply. It occurs when not enough river discharge is flowing to the low-lying estuaries, causing salt water to flow into the land. This intrusion is influenced by various factors such as tides, local rainfall and runoff, the slope of the river bed, wind velocity and direction, and the depth of the estuary.
+The impact on agriculture is complex. On one hand, higher salinity decreases the productivity and revenue share of rice crops and aquaculture production. It also leads to a reduction in the land used for rice and general agricultural purposes. On the other hand, it increases the revenue share of industrial crops like coconuts, which are salt-resistant. This suggests that farmers may be adopting new crops and switching crops as a risk diversification strategy to secure their income against salinization shocks.
+Salinity intrusion also affects labor supply in agriculture. It is estimated to decrease labor supply for those without agricultural land, but those with agricultural land do not seem to be affected. Furthermore, salinization reduces farmer households' income and consumption, but it may also lead to increased spending on education, possibly indicating an investment in new skills.
+The intrusion of salt water also leads to more salinity in groundwater layers, causing quality problems in many wells, such as high iron content, salinity, and odours. This has implications for future water supply plans, which are largely based on increased groundwater withdrawal.
+Despite these challenges, salinity intrusion also has some benefits. It reduces acidity in potential acid sulphate soil land, leading to higher pH in water. It also allows farmers to implement a more varied production scheme, such as raising shrimp during the dry season. Moreover, the marine and coastal region contributes more than half of the exported aquatic value for Vietnam.
+In conclusion, while salinity intrusion presents significant challenges for the Mekong Delta, it also offers some opportunities for adaptation and diversification. It is crucial to continue studying this phenomenon and its impacts to develop effective strategies for managing its effects.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed explanation of the impact of salinity intrusion on the Mekong Delta. It discusses the implications for local agriculture and water supply, and also presents both the potential benefits and drawbacks of this phenomenon. The answer is accurate and well-structured, making it easy to understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>The Lower Mekong River and its delta are facing several anthropogenic stressors. Identify and discuss these stressors, and propose potential solutions to minimize their negative impacts and ensure the sustainability of the region.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>The Lower Mekong River and its delta are indeed facing several anthropogenic stressors. These include the construction of dams, climate change, poor water quality, and delta subsidence. 
+The construction of large-scale hydro-power dams in the Mekong Basin, which began in the 1990s, has had significant impacts on ecosystems and human life. These dams trap up to 95% of sediments, reducing downstream sediment loads and altering the natural hydrological cycle. This results in lower flood peaks and higher dry season flows, which can have detrimental effects on the region's biodiversity and agricultural productivity.
+Climate change is another major stressor, with studies projecting increased average temperatures in the Mekong River Basin. However, the future patterns of precipitation are uncertain. This uncertainty, coupled with the potential for increased temperatures, could exacerbate existing water scarcity issues and negatively impact the region's agriculture and aquaculture industries.
+Poor water quality and delta subsidence are also significant issues. The latter is particularly concerning as it could lead to increased flooding and saltwater intrusion, which can damage crops and contaminate freshwater resources.
+To minimize these negative impacts and ensure the sustainability of the region, several measures could be taken. Firstly, future decisions regarding dam construction should carefully consider the potential environmental and socio-economic impacts. This could involve conducting comprehensive environmental impact assessments and implementing measures to mitigate potential harm.
+Secondly, efforts should be made to mitigate and adapt to climate change. This could involve implementing sustainable agricultural practices, improving water management systems, and investing in renewable energy sources.
+Thirdly, measures should be taken to improve water quality. This could involve implementing stricter regulations on industrial and agricultural pollutants, as well as investing in water treatment facilities.
+Lastly, to address delta subsidence, efforts could be made to reduce groundwater extraction, which is a major cause of land subsidence. This could involve improving water efficiency and promoting the use of alternative water sources.
+In conclusion, while the Lower Mekong River and its delta are facing several significant anthropogenic stressors, there are a range of potential solutions that could help to minimize their negative impacts and ensure the sustainability of the region.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed response. It correctly identifies and discusses the anthropogenic stressors affecting the Lower Mekong River and its delta, and proposes potential solutions to minimize their negative impacts and ensure the sustainability of the region. The answer is well-structured, clear, and accurate, demonstrating a deep understanding of the topic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>"Discuss the various anthropogenic stressors impacting the Lower Mekong River and its delta. How do these factors compare to those affecting other large rivers around the world?"</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>The Lower Mekong River and its delta are currently facing several anthropogenic stressors. These include the construction of dams, climate change, poor water quality, and the sinking of the delta. The construction of large-scale hydro-power dams, which began in the 1990s, has had significant impacts on ecosystems and human life. These dams trap up to 95% of sediments, reducing downstream sediment loads and altering the natural hydrological cycle. Climate change is also a major concern, with projections indicating increased average temperatures, although precipitation patterns remain uncertain.
+Poor water quality is another issue, with salinity intrusion being a particular problem. This occurs when not enough river discharge is flowing to the low-lying estuaries, allowing salt water to flow into the land. This intrusion affects agriculture, restricts the use of canal water for domestic and industrial uses, and causes corrosion of metal materials. However, it also has some positive effects, such as reducing acidity in potential acid sulphate soil land and enabling farmers to implement a more varied production scheme.
+The sinking of the delta is another significant issue. This is influenced by factors such as the amplitude and period of tides, the amount of local rainfall and runoff, the slope of the river bed, the wind velocity and direction, and the depth of the estuary.
+When compared to other large rivers around the world, these factors are not unique to the Lower Mekong River. Many large rivers face similar issues, such as dam construction, climate change, and poor water quality. However, the specific impacts and severity of these issues can vary depending on the geographical, topological, climatic, and hydrological characteristics of each river and its surrounding region.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive discussion of the anthropogenic stressors impacting the Lower Mekong River and its delta. It also effectively compares these factors to those affecting other large rivers around the world. The answer is accurate, detailed, and well-structured, making it a high-quality response to the user's question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>"Explain the socio-economic features of the Lower Mekong basin and how the construction of dams in the Mekong Basin has affected the region's ecosystems and human life. What are the potential consequences of these changes?"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>The Lower Mekong basin is home to over 70 million people, a number projected to increase to 90 million by 2025. Half of this population resides within 15 kilometers of the riverbanks, and the Mekong Delta alone hosts nearly 20 million inhabitants. The region has experienced rapid economic development following a period of conflicts, leading to substantial infrastructure development, including dam construction. Agriculture and aquaculture are vital to the economy, with extensive irrigation practices in the region. The natural flooding of the lower basin during the wet season contributes to high fertility and biodiversity, including numerous fish species, and supports a significant fishery industry with substantial annual production and income.
+The construction of large-scale hydro-power dams in the Mekong Basin began in the 1990s to meet increasing electricity demands. There are currently 176 dams planned or under construction in the Mekong River Basin, with a total hydro-power capacity of approximately 60 GW. These dams have had significant impacts on ecosystems and human life. They trap up to 95% of sediments, reducing downstream sediment loads, which can influence the delta's sedimentation rates. Dam operations have also altered the natural hydrological cycle, resulting in lower flood peaks and higher dry season flows. This has affected monsoon water flows downstream and is expected to impact flood frequency and flow magnitude in specific regions.
+The potential consequences of these changes include uncertainties in post-dam sediment data, potential consequences for the delta's sedimentation rates, and varying impacts on flood and low flow hydrology. Some studies attribute low flow levels to poor rainfall and deforestation. The changes brought about by dam construction could also outweigh the impacts of projected climate changes on the region's hydrology.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the socio-economic features of the Lower Mekong basin, the impact of dam construction on the region's ecosystems and human life, and the potential consequences of these changes. It is well-structured and detailed, but it could be slightly more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>"Discuss the impact of dam construction on the hydrological cycle and sediment loads in the Mekong River Basin. How do these changes potentially affect the region's socio-economic aspects?"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Dam construction in the Mekong River Basin has significantly altered the natural hydrological cycle. This alteration has resulted in lower flood peaks and higher dry season flows. The impacts on flood and low flow hydrology vary, with some studies attribiting low flow levels to poor rainfall and deforestation. Upstream dams and reservoirs have also affected monsoon water flows downstream, and dam development is expected to impact flood frequency and flow magnitude in specific regions.
+In terms of sediment loads, dams trap up to 95% of sediments, leading to a reduction in downstream sediment loads. The reduction in sediment discharge was particularly observed after the construction of the Manwan dam in China. The locations and quantities of dams influence sediment reduction, which can have potential consequences for the delta's sedimentation rates.
+These changes in the hydrological cycle and sediment loads can have significant impacts on the socio-economic aspects of the region. The lower flood peaks and higher dry season flows can affect agriculture and aquaculture, which are essential to the region's economy. The reduction in sediment loads can lead to uncertainties in post-dam sediment data, potentially affecting the stability of the Mekong Delta, which is home to 20 million people and plays a crucial role in rice production and export for Vietnam. Furthermore, the changes in flood frequency and flow magnitude can increase flood risks in certain areas, posing threats to local communities and infrastructure.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and appears to be fully correct. It provides a comprehensive discussion on the impact of dam construction on the hydrological cycle and sediment loads in the Mekong River Basin, and how these changes potentially affect the region's socio-economic aspects. The answer is detailed, well-structured, and covers all aspects of the query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>"Compare the effects of dam construction on the Amazon River and China's Huang He (Yellow) River. What are the key risks associated with the construction of megadams on large rivers, and how does the Dam Environmental Vulnerability Index (DEVI) highlight these vulnerabilities?"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>The construction of megadams on large rivers like the Amazon and China's Huang He (Yellow) River has significant impacts. The Amazon River is heavily dammed, with numerous dams already built and many more planned. This has led to high vulnerability in several sub-basins, as highlighted by the Dam Environmental Vulnerability Index (DEVI). On the other hand, dams on China's Huang He (Yellow) River have resulted in decreased sediment deposition and increased erosion downstream.
+The key risks associated with the construction of megadams on large rivers include downstream sediment and nutrient reductions, changes in flood patterns, and reservoir siltation. These risks can have significant environmental impacts and can disrupt the natural balance of the river ecosystem. The DEVI is a tool that helps to highlight these vulnerabilities by assessing the potential environmental risks associated with dam construction in different river basins.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive comparison of the effects of dam construction on the Amazon River and China's Huang He (Yellow) River. It also accurately describes the key risks associated with the construction of megadams on large rivers and explains how the Dam Environmental Vulnerability Index (DEVI) highlights these vulnerabilities. The only reason it does not receive a perfect score is because it does not provide specific examples or data to support its claims.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>"Discuss the potential impacts of climate change on large rivers, such as the Mekong, Amazon, and Nile. How might these impacts vary depending on the specific characteristics of each river basin?"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Climate change can have a variety of impacts on large rivers like the Mekong, Amazon, and Nile. For instance, studies in the Mekong River Basin have projected increased average temperatures, but the patterns of precipitation remain uncertain. This could potentially affect the hydrological cycle of the river, including the monomodal flood pulse, which is a key feature of the Mekong.
+In the case of the Amazon River, climate change is expected to intensify the hydrological cycle, potentially leading to an increase in extreme events during short periods. This could result in increased flood magnitude and return period. Similarly, atmospheric rivers, which transport moisture, may also be influenced by climate change, impacting the river flow regimes.
+For the Nile and Danube rivers, climate change might lead to decreased flood magnitude and return period. This is because these rivers might not be as affected by monsoon rainfall and glacier meltwater as others, like the Indus and Brahmaputra, which could face reduced flow due to glacier loss.
+The impacts of climate change on these rivers can vary depending on the specific characteristics of each river basin. For example, rivers like the Huang He might benefit from increased precipitation due to climate change, while Arctic rivers in Russia may experience increased flow due to ice melt and permafrost thaw. 
+In summary, climate change can have diverse impacts on large rivers, and these impacts can vary greatly depending on the specific characteristics of each river basin.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed discussion on the potential impacts of climate change on large rivers such as the Mekong, Amazon, and Nile. It also explains how these impacts might vary depending on the specific characteristics of each river basin. However, the user didn't ask about the Danube, Huang He, or Arctic rivers in Russia, so the inclusion of these rivers is unnecessary and slightly detracts from the answer's focus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>"Explain the role of international organizations like the Mekong River Commission in promoting sustainable development and facilitating communication among countries. How can lessons from the management of other large rivers, like the Nile, inform improved management of the Mekong?"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>International organizations such as the Mekong River Commission (MRC) play a crucial role in promoting sustainable development and facilitating communication among countries in the Mekong region. They are responsible for sharing scientific data, which can help in making informed decisions about the region's development. The MRC also reviews projects for potential development impacts, ensuring that any proposed initiatives are sustainable and beneficial for the region.
+Lessons from the management of other large rivers, like the Nile, can be used to improve the management of the Mekong. The Nile has robust international management, which can serve as a model for the Mekong. By studying the strategies and practices used in the Nile's management, the Mekong region can adopt and implement similar measures to address its unique challenges. This could include strategies for dam development, water quality improvement, and dealing with the impacts of climate change.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the role of international organizations like the Mekong River Commission. It also correctly addresses how lessons from the management of other large rivers can inform improved management of the Mekong. The only reason it doesn't get a perfect score is because it could have provided more specific examples or details from the Nile's management that could be applied to the Mekong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>In the context of the research paper "Thiết lập mô hình cân bằng nước phục vụ lập quy hoạch tổng hợp lưu vực sông Cửu Long", what is the role of the MIKE HYDRO BASIN (MHB) model in assessing the water supply's ability to meet various water usage needs in the Mekong River Basin?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>The MIKE HYDRO BASIN (MHB) model is used to evaluate the ability of the water supply to meet various water usage needs in the Mekong River Basin. The entire basin is divided into 120 comprehensive water resource management areas. Water usage needs are calculated for six purposes including living, industry, cultivation, livestock, aquaculture, and other needs, and are limited to freshwater. The MHB model calculates the water balance on a daily basis for the current year 2020, to determine in detail the total water shortage throughout the year, the time of water shortage in the year, the months of water shortage throughout the basin and in the 120 comprehensive water resource management areas. The results show that the total water shortage throughout the year in the entire basin accounts for about 11.4% of the total water usage needs, with the most shortage occurring in February to April (19.1-19.6%), and the area with the most shortage is the Ca Mau peninsula. The MHB model applied to the Mekong River Basin can be used as a quick and convenient assessment tool to evaluate the water supply's ability to respond to different planning scenarios, thereby forming the basis for selecting appropriate water allocation options. The river network established in the MHB model includes 130 rivers and channels, of which 43 rivers are part of the comprehensive planning of the Mekong River Basin and are inter-provincial rivers and water sources. The selected rivers and channels are all major channels or the boundaries of water use areas.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of the MIKE HYDRO BASIN (MHB) model in assessing the water supply's ability to meet various water usage needs in the Mekong River Basin. It includes specific details about the model's application, the division of the basin, the calculation of water usage needs, and the results of the model's application. The answer is fully correct and comprehensive, providing a clear and thorough response to the user's question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>According to the document, how do international organizations like the Mekong River Commission (MRC) contribute to sustainable development and communication among Mekong countries?</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>International organizations like the Mekong River Commission (MRC) contribute to sustainable development and communication among Mekong countries by sharing scientific data, promoting sustainable development practices, and facilitating communication. The MRC also reviews projects for potential development impacts.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and appears to be correct, providing specific ways in which the MRC contributes to sustainable development and communication among Mekong countries. However, without a reference answer, it's difficult to confirm the absolute accuracy of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Explain the impact of the East Sea and West Sea tides on the flow in the LVSCL river system, including Tan Chau and Chau Doc. How does this two-way flow (negative or positive flow rate) depend on the tide?</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>The flow in the LVSCL river system, including Tan Chau and Chau Doc, is significantly influenced by the tides of the East Sea and West Sea. This results in a two-way flow, meaning the flow can either be negative or positive depending on whether the tide is rising or falling. The tidal regime is semi-diurnal or irregular semi-diurnal, which means there are usually two high tides and two low tides each day. The direction chosen in the river network setup is the direction of the average flow over a long period (month). This setup may not accurately simulate the actual flow regime, but it aligns with the general trend of the flow and the purpose of assessing the ability to meet fresh water needs over a long period.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the tides of the East Sea and West Sea influence the flow in the LVSCL river system, including Tan Chau and Chau Doc. It also explains how this results in a two-way flow, which can be either negative or positive depending on the tide. The only reason it doesn't get a perfect score is because it doesn't explicitly state how the flow rate depends on the tide, which was part of the user's question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Describe the challenges faced in applying the MHB model to balance water in detail up to 120 regions in LVSCL. How does the model incorporate the endogenous flow from rain and groundwater sources?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the challenges faced in applying the MHB model to balance water in up to 120 regions in LVSCL, nor does it discuss how the model incorporates the endogenous flow from rain and groundwater sources.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any relevant information or answer to the user's query. It simply states that the context does not provide information, which is not helpful or informative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Can you explain the concept of "Tỉ lệ phân lưu" (bifurcation rate) as described in the research paper "researched_paper_cleanup.txt"? How is it determined at each node in the context of river flow?</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>The concept of "Tỉ lệ phân lưu" or bifurcation rate refers to the proportion of flow that is diverted at each node in a river network. It is determined by the ratio of the flow volume that goes into a branch river to the total flow volume that arrives at the node. This bifurcation of flow within the river network is relatively stable. The bifurcation rate is incorporated into the model as the relationship between the flow volume of the main river and its branches, determined from the results of hydraulic model calculations. This includes the influence of tides. However, in locations significantly affected by tides, the relationship between hourly or average daily flow volumes between the main river and its branches can be complex, especially when the main river and its branches are influenced by tides from different directions. The impact of border overflow also complicates the flow volume relationship between the main river and its branches. Therefore, running separate models for flood and dry seasons ensures better simulation and higher reliability due to the relatively stable direction of average daily flow or larger time spans per season.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>The generated answer provides a comprehensive explanation of the concept of "Tỉ lệ phân lưu" or bifurcation rate, and how it is determined at each node in the context of river flow. It also discusses the complexities involved in determining the bifurcation rate, such as the influence of tides and border overflow. The answer is relevant and appears to be correct, but without a reference answer, it's difficult to confirm its complete accuracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>According to the research paper, what is the significance of the "priority node" in water distribution? How is the water allocation for an object from a node calculated?</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>The "priority node" in water distribution is significant as it determines the proportion of water allocated to a specific object from a node. The water allocation for an object from a node is calculated by the ratio of the water demand of that object taken from that node (an object can take water from multiple nodes) to the total water demand of all objects taking water from that node.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and appears to be correct, providing a clear explanation of the significance of the "priority node" in water distribution and how water allocation for an object from a node is calculated. However, without a reference answer, it's difficult to confirm the absolute accuracy of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>What are the two main obstacles that affect the validity of the water balance results using the MHB model on LVSCL and similar areas with complex river/channel networks, as mentioned in the document?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>The document does not provide specific information on the two main obstacles that affect the validity of the water balance results using the MHB model on LVSCL and similar areas with complex river/channel networks.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the MHB model and its application to areas with complex river/channel networks. However, it does not provide any specific information about the two main obstacles that affect the validity of the water balance results, which was the main point of the user's question. Therefore, it is not fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>In the context of the document, how is the flow distribution ratio, which is input into the model, determined and what factors does it include?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>The flow distribution ratio is determined from the results of hydraulic model calculations. It is input into the model as the relationship between the main flow and the branch flow. This ratio includes the influence of the tide. However, in locations significantly affected by the tide, the relationship between the hourly or daily average flow of the main and branch rivers is often not strict, especially when the main river and the branch river are affected by tides from two different directions. Additionally, the impact of border overflow also complicates the flow relationship between the main and branch rivers, making it difficult to strictly define. At certain times of the day, the bifurcation point can turn into an inflow point or vice versa due to the change in direction of the average flow. Therefore, separating the model for the flood season and the dry season ensures better simulation and higher reliability as the direction of the average daily flow or larger time period is quite stable for each season.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the flow distribution ratio is determined and the factors it includes. It mentions the influence of the tide, the impact of border overflow, and the change in direction of the average flow. The only reason it doesn't get a perfect score is because it could be more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Explain the impact of tidal influences on the relationship between the main stream and branch flow in areas with significant tidal effects, as discussed in the text. How does this relationship become more complex during flood season and dry season?</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>The text does not provide specific information on the impact of tidal influences on the relationship between the main stream and branch flow in areas with significant tidal effects, nor does it discuss how this relationship becomes more complex during flood season and dry season.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any information or explanation about the impact of tidal influences on the relationship between the main stream and branch flow in areas with significant tidal effects, nor does it discuss how this relationship becomes more complex during flood season and dry season. It simply states that the text does not provide this information, which does not answer the user's query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Based on the research findings in the document, identify the region with the highest water shortage and provide the average shortage percentage. Also, discuss the time of the year when the water shortage is most severe.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>The context does not provide specific information on the region with the highest water shortage or the average shortage percentage. It also does not discuss the time of the year when the water shortage is most severe.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any information related to the user's query. It simply states that the information is not available, which does not help answer the user's question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Based on the research paper "Nghiên cứu, đề xuất các mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn tại tỉnh Vĩnh Long", can you explain the impact of salt intrusion on the agricultural models in Vĩnh Long province and how the proposed models can adapt to this situation?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the research paper "Nghiên cứu, đề xuất các mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn tại tỉnh Vĩnh Long", or the impact of salt intrusion on the agricultural models in Vĩnh Long province and how the proposed models can adapt to this situation.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any relevant information or answer to the user's query. It simply states that the context does not provide the necessary information, which is not helpful or informative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>The paper mentions the effects of salt intrusion during the dry season of 2015-2016 and 2019-2020 in Vĩnh Long province. Can you describe the extent of these effects and how they impacted different types of crops and regions within the province?</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>The context does not provide specific information about the effects of salt intrusion during the dry season of 2015-2016 and 2019-2020 in Vĩnh Long province, or how they impacted different types of crops and regions within the province.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any relevant information to the user's query. It simply states that the context does not provide the necessary information, which does not answer the user's question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Based on the research conducted in the Vĩnh Long province, what were the key strategies implemented to enhance the effectiveness of the SKNN models adapted for XNM?</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The key strategies implemented to enhance the effectiveness of the SKNN models adapted for XNM in the Vĩnh Long province included the construction of 15 SKNN models suitable for the local farming situation. These models were adapted for various sectors such as crop cultivation, livestock farming, aquaculture, and combined production. Additionally, five models were piloted at 20 households, which included rice cultivation, corn, watermelon, breeding cattle, and striped catfish farming, showing high economic efficiency and potential for expansion in similar conditions. To further enhance the application effectiveness, nearly 100 farming households in Vũng Liêm, Trà Ôn, and Mang Thít districts were trained in three conferences. A practical study tour was also organized in Bến Tre province for 30 exemplary farming households. The remaining models are recommended to be piloted in the annual agricultural promotion programs of the province, and the application of supportive policies for farming households is suggested.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the strategies implemented to enhance the effectiveness of the SKNN models in the Vĩnh Long province. It does not contain any noticeable mistakes. However, it could be slightly more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>In the context of the research paper "Giải pháp vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng đồng bằng sông cửu long" by Dũng et al. (2021), what were the proposed solutions for the operation of the inter-provincial irrigation system in the Mekong Delta region?</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>The proposed solutions for the operation of the inter-provincial irrigation system in the Mekong Delta region, as discussed in the research paper by Dũng et al. (2021), involve the use of smart and flexible operation of the irrigation system. This is to enhance water productivity and protect the ecological environment. The solutions are based on the Internet of Things (IoT) technology. The paper also suggests that the only solution to meet the increasing demand for food in the context of limited land and water resources is to improve the efficiency of land and water use through solutions that enhance the efficiency of management and exploitation of irrigation works.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and appears to be fully correct. It provides a detailed explanation of the proposed solutions for the operation of the inter-provincial irrigation system in the Mekong Delta region as discussed in the research paper by Dũng et al. (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>What are the challenges faced by the inter-provincial irrigation system in the Mekong Delta region, as discussed in the paper by Dũng et al. (2021)?</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the challenges faced by the inter-provincial irrigation system in the Mekong Delta region as discussed in a paper by Dũng et al. (2021).</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any information relevant to the user's query about the challenges faced by the inter-provincial irrigation system in the Mekong Delta region.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>According to the paper, how can the Internet of Things (IoT) technology be used to improve the operation of the inter-provincial irrigation systems in the Mekong Delta region?</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>The paper suggests that Internet of Things (IoT) technology can be used to intelligently operate inter-provincial irrigation systems in the Mekong Delta region. This would involve using IoT to manage the various water needs of different sectors such as agriculture, aquaculture, tourism, environment, and disaster prevention. The goal is to enhance water productivity and protect the ecological environment, especially in the face of increasing climate change and extreme salt intrusion. However, the paper does not provide specific details on how IoT technology would be implemented to achieve these goals.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of how IoT technology can be used to improve the operation of inter-provincial irrigation systems in the Mekong Delta region. It loses half a point for not providing specific details on the implementation of IoT technology, as mentioned in the answer itself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Based on the research directions mentioned in the document, can you explain how the application of technology in the management and operation of irrigation systems can help companies exploit water resources more efficiently and reduce operational costs?</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>The application of technology in the management and operation of irrigation systems can help companies exploit water resources more efficiently and reduce operational costs by enabling intelligent and flexible operation of the systems. This can be achieved by integrating various technologies in a scientific and synchronized manner. The focus should be on solving the problem of optimal water use, monitoring and controlling the facilities and equipment (such as pumping stations, sluices) remotely, and overseeing the entire cultivation area (from incoming to outgoing water) to support remote operation decision-making. 
+Research results have already addressed many issues related to technology and equipment, such as hydraulic simulation and remote control and monitoring devices. The use of Internet of Things (IoT) technology can also be a foundation for operating these inter-provincial irrigation systems intelligently. 
+By enhancing the efficiency of resource use through these technological solutions, companies can meet the increasing demand for food in a context where land and water resources are limited. This not only improves water productivity but also helps protect the ecological environment.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how technology can be applied in the management and operation of irrigation systems to exploit water resources more efficiently and reduce operational costs. It also provides examples of specific technologies and their benefits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Analyze the data on salinity from 2007 to 2017 at Son Doc and Huong My stations as mentioned in the document. Discuss the trend of salinity increase and its implications on the water management and irrigation systems.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>The context does not provide specific data on salinity from 2007 to 2017 at Son Doc and Huong My stations. Therefore, it's not possible to analyze the trend of salinity increase and its implications on the water management and irrigation systems based on the provided information.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and correctly states that it cannot provide the requested analysis due to lack of specific data. However, it does not attempt to provide any general insights or potential implications of salinity increase on water management and irrigation systems, which could have made the response more valuable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Explain the challenges faced in the operation of hydraulic works for multiple objectives, industries, and economic subjects as mentioned in the document "researched_paper_cleanup.txt". How does the current operation process fail to address these challenges?</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Hydraulic works need to operate to serve multiple objectives, various industries, and different economic subjects. The information used in these operations must be accurate, sufficient, precise, and timely. The current operation processes of these hydraulic works partially meet the diverse water needs of different sectors such as agriculture, aquaculture, and the environment, especially in conditions of freshwater scarcity. However, these operation processes are primarily built based on determining a certain frequency of climatic factors, water sources, or salinity levels. This approach fails to adequately and accurately address the impacts of climate change in a timely manner. Therefore, the current stage of hydraulic works is described as "not smart". The proposed solution is to integrate various technologies in a synchronized, scientific manner, focusing on solving the problem of optimal water use, monitoring and controlling the works and equipment remotely, and monitoring the entire cultivation area to support remote operation decision-making.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the challenges faced in the operation of hydraulic works for multiple objectives, industries, and economic subjects. It also explains how the current operation process fails to address these challenges. The answer could be slightly more specific in terms of the document "researched_paper_cleanup.txt", but overall it is a very good response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Based on the research results mentioned in the document, what technological and equipment-related issues have been resolved in the field of hydraulic simulation and remote control and monitoring?</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>The research results have addressed several technological and equipment-related issues such as hydraulic simulation, control equipment, and remote monitoring.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it does not provide specific details about what technological and equipment-related issues have been resolved in the field of hydraulic simulation and remote control and monitoring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>What are the main challenges identified in the research regarding the current management of irrigation systems? Provide at least three examples from the text.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>The main challenges identified in the research regarding the current management of irrigation systems include the following: 
+1. The water resources planning in the Mekong Delta is largely "top-down", with villagers and farmers playing a minor role in water planning and natural prevention projection processes. This means that those most affected by water management decisions often have little say in them.
+2. The water control infrastructure systems, despite receiving about 10 percent of the state budget and labor contributions from the people, suffer from many shortcomings in terms of their structure and management. 
+3. There are significant water quantity and quality problems that limit agricultural production. These include salinity intrusion, floods, acid sulfate soils, polluted water, and fresh water shortages. These issues are exacerbated by the fact that the Mekong Delta receives the total volume of floodwaters from upstream, leading to frequent and potentially damaging flooding.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides three clear examples of challenges in the management of irrigation systems. It is detailed and well-structured. However, without a reference answer, it's hard to confirm the absolute correctness of the information provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Based on the research, what are the three main models proposed for the construction of the system, and how are they interconnected?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>The system proposed in the research is constructed using three main models. These include a hydraulic model, a management model for irrigation infrastructure through an online GIS system (WebGIS), and a SCADA model. These models are interconnected through the Internet of Things (IoT).</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and appears to be correct, providing detailed information about the three main models used for the system construction and explaining how they are interconnected. However, without a reference answer, it's not possible to confirm the absolute correctness of the specific models mentioned.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Based on the text, what are the challenges faced when applying a system on a provincial scale and how does the text suggest these challenges can be addressed?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>The text does not provide specific information about the challenges faced when applying a system on a provincial scale, nor does it suggest how these challenges can be addressed.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and seems to be correct based on the information provided. However, without the text or a reference answer, it's hard to confirm its full accuracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>In the context of the document, what role does the integration of Artificial Intelligence (AI) play in the automation of operations and what would be the human role after its implementation?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>The integration of Artificial Intelligence (AI) plays a significant role in achieving full automation of operations. It is proposed to be used to intelligently and accurately solve decision-making problems in operations. After its implementation, the human role would be limited to supervision, asset protection, maintenance, and handling of any potential issues.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the role of AI in automation and the human role post-implementation. However, it could have included more specific examples or details to fully answer the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Based on the data provided in the 'testing.json' file, what was the highest recorded salinity at any location in the Province of Ben Tre on 8/1/2023?</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>The highest recorded salinity at any location in the Province of Ben Tre on 8/1/2023 was 13.00.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and appears to be correct, as it provides a specific value for the highest recorded salinity in the Province of Ben Tre on the specified date. Without a reference answer, it's impossible to verify the exact correctness, but the response is in line with the type of answer expected from the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>According to the meteorological readings from the 'testing.json' file, which location in the Province of Ben Tre had a pH level of 8.5 on 8/1/2023?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>The location in the Province of Ben Tre that had a pH level of 8.5 on 8/1/2023 was HTX nghêu Thành Đạt - Hiệp Thạnh - TX. Duyên Hải.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and appears to be correct, providing a specific location in the Province of Ben Tre that had the specified pH level on the given date. Without a reference answer, it's impossible to verify the accuracy, but the response is in line with the question's requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Based on the data provided in the testing.json file, can you analyze and explain the correlation between the salinity and temperature at different locations in Ben Tre province on the date 8/1/2023?</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>On August 1, 2023, in the Ben Tre province, the salinity and temperature readings varied across different locations. For instance, at "Sông Cổ Chiên - Châu Thành (Cầu Rạch Gốc)", "Bến phà Long Hưng - Hòa Minh - Châu Thành", and "Sông Vinh Kim - Cầu Ngang", the salinity was 0.00 and the temperatures were 28.00, 29.00, and 28.00 respectively. At "Sông Hiệp Mỹ - Cầu Ngang (gần Cầu Hiệp Mỹ)", the salinity increased to 1.00 with a temperature of 27.00. The location "Cống Thâu Râu -Mỹ Long Nam - Cầu Ngang" had a salinity of 4.00 and a temperature of 29.00. The highest salinity of 9.00 was recorded at "HTX nghêu Thành Đạt - Hiệp Thạnh - TX. Duyên Hải" with a temperature of 29.00. At "Cầu Sông Giăng - Hiệp Thạnh - TX. Duyên Hải", the salinity was 5.00 and the temperature was 29.00. Lastly, "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" had the highest salinity of 10.00 with a pH of 7.50. However, the temperature for this location is not provided. From this data, it's not clear if there's a direct correlation between salinity and temperature as they seem to vary independently across different locations.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the salinity and temperature at different locations in Ben Tre province on the specified date. It also correctly concludes that it's not clear if there's a direct correlation between salinity and temperature. However, it mentions a pH value at the end which was not asked for in the query, hence the slight deduction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>From the information in the testing.json file, identify the location in Ben Tre province that had the highest alkaline level on 8/4/2023 and discuss the potential environmental factors that could have contributed to this high level.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>On 8/4/2023, the locations in Ben Tre province with the highest alkaline level were "Sông Vinh Kim - Cầu Ngang" and "Sông Hiệp Mỹ - Cầu Ngang (gần Cầu Hiệp Mỹ)", both with an alkaline level of 90.00. Environmental factors that could contribute to high alkaline levels include the presence of certain minerals in the soil or water, industrial waste discharge, or agricultural runoff, which can contain fertilizers high in alkaline substances. However, the specific contributing factors for these locations are not provided in the data.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed response. It correctly identifies the locations with the highest alkaline level on the specified date and discusses potential environmental factors that could contribute to high alkaline levels. However, it does not provide specific contributing factors for these locations, which is why it doesn't get a perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Based on the data provided in the 'testing.json' file, what were the recorded pH and temperature values at the location "Sông Hiệp Mỹ - Cầu Ngang (gần Cầu Hiệp Mỹ)" on the date "8/4/2023"?</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>The recorded pH and temperature values at the location "Sông Hiệp Mỹ - Cầu Ngang (gần Cầu Hiệp Mỹ)" on the date "8/4/2023" were 8.00 and 27.00 respectively.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and appears to be fully correct, providing specific pH and temperature values for the specified location and date. Without a reference answer, it's impossible to verify the accuracy of these values, but the answer is structured and detailed in a way that suggests correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Analyze the 'testing.json' file and compare the salinity levels recorded at "Sông Vinh Kim - Cầu Ngang" and "Cầu Sông Giăng - Hiệp Thạnh - TX. Duyên Hải" on the date "8/4/2023". Which location had a higher salinity level?</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>On the date "8/4/2023", the location "Sông Vinh Kim - Cầu Ngang" had a salinity level of "0.00", while the location "Cầu Sông Giăng - Hiệp Thạnh - TX. Duyên Hải" had a salinity level of "5.00". Therefore, "Cầu Sông Giăng - Hiệp Thạnh - TX. Duyên Hải" had a higher salinity level.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a clear and correct comparison of the salinity levels at the two specified locations on the given date. It also correctly identifies which location had a higher salinity level.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Based on the data provided in the testing.json file, can you identify the location with the highest salinity on the date 8/4/2023? Please provide the salinity value and the corresponding pH level at this location.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>The location with the highest salinity on the date 8/4/2023 is "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" with a salinity value of 6.00. The corresponding pH level at this location is 7.50.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides specific details about the location, salinity value, and pH level, which suggests that it is correct. However, without the actual data or a reference answer, it's impossible to verify the accuracy of these details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Analyze the data in the testing.json file and determine the average temperature recorded across all locations on 8/4/2023. How does this temperature correlate with the NH4/NH3 values observed?</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>The average temperature recorded across all locations on 8/4/2023 is 28.67 degrees. The NH4/NH3 values observed on the same date range from 3.00 to 4.00. However, the context does not provide enough information to determine a correlation between the temperature and NH4/NH3 values.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct. It provides the average temperature and the range of NH4/NH3 values for the specified date. It also correctly states that there isn't enough information to determine a correlation between the two. However, without the actual data or a reference answer, it's impossible to confirm the exact correctness of the provided values.</t>
         </is>
       </c>
     </row>

--- a/evaluation_results.xlsx
+++ b/evaluation_results.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Based on the research paper, what were the estimated damages to the aquaculture and agriculture sectors due to salt intrusion in the Mekong Delta in 2016?</t>
+          <t>Theo nghiên cứu, đâu là tỉnh chịu ảnh hưởng nặng nề nhất do xâm nhập mặn năm 2016 và mức độ thiệt hại ước tính là bao nhiêu?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The research paper does not provide specific estimates of the damages to the aquaculture and agriculture sectors due to salt intrusion in the Mekong Delta in 2016. However, it does mention that salinity intrusion severely affected livelihoods and welfare of households in wider areas during that year. The paper also states that higher salinity decreases the productivity and revenue share of rice crop, decreases aquaculture production, and reduces farmer households’ income and consumption.</t>
+          <t>Tỉnh chịu ảnh hưởng nặng nề nhất do xâm nhập mặn năm 2016 là tỉnh Cà Mau, với mức độ thiệt hại ước tính khoảng 16 nghìn tỷ.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,46 +483,46 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides a detailed response, even though it does not provide specific estimates. It gives a comprehensive overview of the impact of salt intrusion on the aquaculture and agriculture sectors in the Mekong Delta in 2016, as per the research paper. The only reason it doesn't get a full score is because it doesn't provide the exact figures asked for in the question.</t>
+          <t>The generated answer is relevant and appears to be correct, providing specific information in response to the user's query about the province most affected by salt intrusion in 2016 and the estimated damage.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>According to the paper, how does a salinity level of 3‰ affect rice plants, and what species can be raised in areas with a salinity level of 5 - 10‰ and 10 - 25‰?</t>
+          <t>Các loài nào có thể sống trong môi trường nước có độ mặn từ 5 - 10‰ và từ 10 - 25‰?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The context does not provide specific information on how a salinity level of 3‰ affects rice plants, or what species can be raised in areas with a salinity level of 5 - 10‰ and 10 - 25‰.</t>
+          <t>The context does not provide information on which species can live in water with salinity levels of 5 - 10‰ and 10 - 25‰.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the question about salinity levels and their effects on rice plants and other species. However, it does not provide any specific information or answer the question, hence the score is in the middle range.</t>
+          <t>The generated answer is relevant to the user query, but it does not provide a specific answer to the question. However, without a reference answer, it's hard to judge if the bot could have provided a more specific answer.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Based on the research paper, what were the economic impacts of the 2016 saline intrusion in the Vietnamese Mekong Delta, particularly in the province of Cà Mau?</t>
+          <t>Theo nghiên cứu, xâm nhập mặn đã ảnh hưởng như thế nào đến công tác quản lý nguồn tài nguyên nước trong sản xuất nông nghiệp tại huyện Long Phú, tỉnh Sóc Trăng?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The research paper does not provide specific information on the economic impacts of the 2016 saline intrusion in the Vietnamese Mekong Delta, particularly in the province of Cà Mau.</t>
+          <t>Xâm nhập mặn đã gây ra khó khăn trong việc điều tiết nguồn nước, đặc biệt là việc không cung cấp đủ nước ngọt cho canh tác lúa vụ 3 (vụ Xuân - Hè) đầu năm 2016. Khô hạn kéo dài đã làm tăng nhu cầu sử dụng nước cho sản xuất lúa. Tuy nhiên, vấn đề khai thác nước dưới đất được quản lý tốt và không có mâu thuẫn giữa các nông hộ trong việc sử dụng nguồn nước mặt phục vụ cho sản xuất lúa.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,22 +537,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and seems correct, but without a reference answer or the actual research paper, it's hard to confirm its full accuracy.</t>
+          <t>The generated answer is relevant and provides a detailed explanation of how saltwater intrusion has affected water resource management in agricultural production in Long Phu district, Soc Trang province. It mentions specific impacts such as difficulties in water regulation and increased demand for water due to prolonged drought. However, without a reference answer, it's hard to confirm the full accuracy of the information.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Discuss the challenges faced in water resources management due to saline intrusion in the Vietnamese Mekong Delta as highlighted in the paper. How did these challenges affect rice cultivation in the region?</t>
+          <t>Hãy phân tích và đánh giá ảnh hưởng của xâm nhập mặn năm 2016 đối với kinh tế (nông nghiệp, nuôi trồng thủy sản) ở Việt Nam, cụ thể là tỉnh Cà Mau và một số tỉnh ít ảnh hưởng mặn như Đồng Tháp, Cần Thơ, An Giang.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saline intrusion in the Vietnamese Mekong Delta presents several challenges for water resources management. This phenomenon occurs when not enough river discharge is flowing to the low-lying estuaries, causing salt water to flow into the land. The factors affecting saline intrusion include the amplitude and period of tides, local rainfall and runoff, the slope of the river bed, wind velocity and direction, and the depth of the estuary. 
-The intrusion of salt water affects different provinces in varying degrees due to the difference in water volumes at each mouth of the tributaries. This makes it difficult to quantify the damage costs to farmers. During the annual saline intrusion period, from March to May, vegetables and other crops become scarce in the affected areas. Salinity intrusion also restricts the use of canal water for domestic and industrial uses and causes corrosion of metal materials in engines, construction artefacts, and elsewhere.
-The impact of saline intrusion is particularly significant on rice cultivation. The research suggests that salinity shocks have adverse impacts on the production of rice in the Mekong Delta. Evidence of salinization reducing agricultural land, labor supply in agriculture, and farmer households’ income and consumption has been found. 
-To cope with these challenges, farmers have been observed to switch to salt-resistant crop production and diversify their crops to sustain their income and food security against salinization shocks. However, these adjustments within the agricultural sector are not always sufficient, and further research is needed to develop strategies for flood loss prevention and salinity management for the vulnerable agricultural sector.</t>
+          <t>Xâm nhập mặn năm 2016 đã gây ra những ảnh hưởng tiêu cực đáng kể đối với kinh tế, đặc biệt là trong lĩnh vực nông nghiệp và nuôi trồng thủy sản ở Việt Nam. Tổng thiệt hại ước tính đối với kinh tế là khoảng 38.500 tỷ VNĐ và ảnh hưởng đến khoảng 8.111 nghìn người.
+Tỉnh Cà Mau là tỉnh chịu thiệt hại nặng nề nhất do xâm nhập mặn với mức độ thiệt hại khoảng 16 nghìn tỷ. Xâm nhập mặn đã gây ra khó khăn trong việc cung cấp nước ngọt cho canh tác, làm tăng nhu cầu sử dụng nước và gây ra những thách thức cho công tác quản lý nguồn tài nguyên nước.
+Mặt khác, một số tỉnh ít ảnh hưởng mặn như Đồng Tháp, Cần Thơ, An Giang đã không chịu ảnh hưởng nặng nề như Cà Mau. Tuy nhiên, cần lưu ý rằng các số liệu này có thể chưa chính xác do sự thay đổi nhiều về sử dụng đất và giá trị đất so với thực tế.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,20 +566,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the challenges faced in water resources management due to saline intrusion in the Vietnamese Mekong Delta. It also discusses the impact of these challenges on rice cultivation in the region. The answer is comprehensive and appears to be accurate, although without a reference answer, it's difficult to confirm the absolute correctness of all details.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the impact of saltwater intrusion in 2016 on the economy, specifically agriculture and aquaculture, in Vietnam. It also specifically addresses the impact on Ca Mau province and other less affected provinces like Dong Thap, Can Tho, and An Giang. The only reason it doesn't get a full score is because it mentions that the data might not be accurate due to changes in land use and land value, which introduces a slight uncertainty.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Based on the research conducted in the Sóc Trăng province, how did the salt intrusion affect the farming practices and water resources in the region? Provide specific examples from the text.</t>
+          <t>Theo kết quả thống kê của Phòng Nông nghiệp và Phát triển Nông thôn huyện Long Phú năm 2016, hai xã nào chịu ảnh hưởng nặng nề nhất từ đợt xâm nhập mặn - khô hạn cuối năm 2015 và đầu năm 2016? Hãy nêu diện tích lúa bị thiệt hại của từng xã.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Salt intrusion, particularly under the impact of climate change, has significantly affected farming practices and water resources in the Sóc Trăng province. For instance, it has had a notable impact on rice cultivation areas. The research identified three main rice crops systems - triple rice crop, double rice crop, and rice-shrimp rotation crop - and found that the impact of saline intrusion varied across these systems and districts. In the My Xuyen district, the affected area of rice-shrimp rotation crop increased by 14.7 ha, while in the Tran De and Long Phu districts, the affected areas of double rice crop and triple rice crop decreased by 155.5 ha and 35.5 ha, respectively.
-Furthermore, salinity intrusion, freshwater scarcity, and ebb tide influences were identified as the most significant hazards, and these have been increasing in recent years. To cope with these challenges, the local government and people have developed strategies such as dyke building, farming technical changes, financial support for production recovery from disasters, underground water exploitation, and income diversification. However, these adaptation options have shown some limitations as they did not fully consider the differences in terms of ecological, social, and economic environment. Future adaptation strategies are suggested to take these factors into account.</t>
+          <t>Xin lỗi, nhưng thông tin cung cấp không đề cập đến hai xã cụ thể nào chịu ảnh hưởng nặng nề nhất từ đợt xâm nhập mặn - khô hạn cuối năm 2015 và đầu năm 2016, cũng như diện tích lúa bị thiệt hại của từng xã.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -590,26 +588,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides specific examples from the research conducted in the Sóc Trăng province. It explains how salt intrusion has affected farming practices and water resources in the region, and also mentions the strategies developed to cope with these challenges. The only reason it doesn't get a full score is because it doesn't provide specific examples of how the water resources were affected, which was part of the user's query.</t>
+          <t>The generated answer is relevant to the user query and it is correct in the sense that it admits the lack of specific information asked for. However, it does not provide any additional information or attempt to provide a solution, hence it is not a perfect response.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>According to the survey results mentioned in the text, how did the farmers in the researched area manage their water resources and farming schedules? Discuss the benefits and challenges they faced.</t>
+          <t>Theo kết quả phỏng vấn, phần trăm hộ dân nào có thống nhất thời gian lấy nước canh tác với các nông hộ lân cận? Hãy giải thích tác động của việc lấy nước không đồng loạt đối với việc canh tác.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Farmers in the researched area, the Mekong Delta, have had to adapt their farming practices due to water-related challenges such as salinity intrusion, floods, acid sulfate soils, polluted water, and fresh water shortages. One of the strategies they have adopted is shifting to salt-resistant industrial crops, which helps them maintain their income and food security against salinization shocks. This is seen as a within-agricultural adjustment in response to salinity shock.
-However, the farmers face several challenges. The water control infrastructure systems, which are funded by about 10 percent of the state budget and labor contributed by the people, suffer from many shortcomings in terms of both their structure and management. Furthermore, the water resources planning process is largely "top-down", with villagers and farmers playing a very minor role. This means that many grass-roots people have little voice in the planning and natural prevention projection processes.
-Despite these challenges, floods are not only seen as a disaster by many farmers and scientists. They recognize that floods bring multiple benefits, including fertile sediment, fish spawning, aquatic products, pest control, improved water quality, water provision, reduced fire risk, and ecological drivers. These benefits are seen as replenishing and revitalizing for the agricultural land. However, high floods can result in loss of life and cause millions of dollars worth of damage to houses, infrastructure, and crops. The costs of these damages have been increasing due to higher economic development and an increasing population.</t>
+          <t>Theo kết quả phỏng vấn, 47% số hộ dân có thống nhất thời gian lấy nước canh tác với các nông hộ lân cận. Việc lấy nước không đồng loạt có thể gây ra khó khăn. Cụ thể, những hộ lấy nước trước có thể lấy đủ thậm chí là nhiều hơn so với nhu cầu thực của cây lúa, trong khi những hộ lấy nước sau có thể thiếu nước ngọt. Hơn nữa, trong thời gian diễn ra xâm nhập mặn, việc đóng và mở cống không thường xuyên và không đủ nước ngọt phục vụ cho canh tác của vùng.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -624,46 +620,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how farmers in the researched area manage their water resources and farming schedules. It also discusses the benefits and challenges they face. The answer is comprehensive and accurate, but it could be slightly more concise.</t>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of the impact of not synchronizing water collection for farming. However, without a reference answer, it's hard to verify the accuracy of the specific percentage mentioned (47%).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Based on the research paper, what challenges were identified in the management of Water Resources at the beginning of 2016?</t>
+          <t>Theo nghiên cứu, hãy mô tả những khó khăn và trở ngại mà công tác quản lý nguồn Tài Nguyên Nước đã gặp phải vào đầu năm 2016? Hãy đưa ra ít nhất ba điểm.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The context does not provide specific information about the challenges identified in the management of Water Resources at the beginning of 2016.</t>
+          <t>Công tác quản lý nguồn Tài Nguyên Nước đã gặp phải một số khó khăn và trở ngại. Đầu tiên, mức độ tham gia của người dân trong việc khai thác nguồn tài nguyên nước chưa cao. Mặc dù 90% số hộ dân được phỏng vấn biết quy định thực hiện đăng ký trong khai thác nguồn tài nguyên nước, nhưng mức độ tham gia của họ vẫn còn hạn chế. Thứ hai, việc đăng ký và kiểm soát khai thác nguồn tài nguyên nước vẫn còn một số hạn chế. Cuối cùng, công tác nạo vét, bảo dưỡng công trình cần được quan tâm, nhất là vào mùa khô.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and does not contain any factual errors. However, it does not provide a specific answer to the question, which may be due to the lack of information provided in the user query.</t>
+          <t>The generated answer is relevant and correct. It provides three points of difficulties and obstacles that water resource management faced in early 2016. However, it could be more specific about the context of 2016.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>According to the paper, why is it important to enhance the interaction and exchange between management staff and the local people in the context of water resource management?</t>
+          <t>Theo nội dung của bài nghiên cứu, hãy giải thích tầm quan trọng của việc thống nhất lịch canh tác giữa các hộ nông dân và những lợi ích mà việc này mang lại.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The paper emphasizes the importance of enhancing interaction and exchange between management staff and local people in water resource management because current adaptation strategies to hazards like salinity intrusion, freshwater scarcity, and ebb tide influences have limitations. These strategies often do not fully consider the differences in ecological, social, and economic environments, which are crucial factors as the vulnerability of people highly depends on these conditions. Therefore, to develop more effective and beneficial strategies, especially for the most vulnerable groups, it is important to understand and incorporate the needs and capacities of the local communities. This can be achieved through better interaction and exchange between management staff and local people.</t>
+          <t>Việc thống nhất lịch canh tác giữa các hộ nông dân rất quan trọng. Khoảng 73% số hộ dân đã thống nhất lịch canh tác với các nông hộ lân cận. Điều này phần lớn phụ thuộc vào thời gian máy cày đến ruộng và nguồn nước ngọt. Việc xuống giống đồng loạt giúp cho việc mua bán sau khi thu hoạch dễ dàng hơn. Điều này cho thấy việc thống nhất về lịch thời vụ được thực hiện khá tốt tại vùng nghiên cứu.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -678,24 +674,20 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why it's important to enhance the interaction and exchange between management staff and local people in the context of water resource management. It correctly identifies the limitations of current strategies and the need to understand local conditions and needs for more effective strategies.</t>
+          <t>The generated answer is relevant and mostly correct. It explains the importance of synchronizing the farming schedule among farmers and the benefits it brings, such as easier post-harvest trading. However, it could have provided more detailed benefits to fully answer the user's query.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>According to the research paper, what were the main hazards identified that have been increasing in recent years in the Mekong Delta region? Discuss the strategies and measures developed by the governments and local people to cope with these hazards.</t>
+          <t>Theo nghiên cứu, những hiểm họa nào được xác định là quan trọng nhất ở đồng bằng sông Cửu Long và chúng đã thay đổi như thế nào trong những năm gần đây?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The main hazards identified in the Mekong Delta region that have been increasing in recent years include major flooding, salinity intrusion, and water quality problems. These issues are exacerbated by factors such as climate change, dam construction, and anthropogenic activities. 
-Major flooding is now likely to occur more frequently than the previous average of "once in two or three years". This is due to large water discharges from upstream, long and heavy rainfall in the Mekong Delta itself, and high tides that lead to high water levels in the rivers and canal system, preventing easy drainage. 
-Salinity intrusion occurs when not enough river discharge is flowing to the low-lying estuaries, and instead, salt water flows into the land. This is influenced by factors such as the amplitude and period of tides, the amount of local rainfall and runoff, the slope of the river bed, wind velocity and direction, and the depth of the estuary. 
-Water quality problems are also a significant issue, with many wells experiencing quality problems such as high pH, high iron content, salinity, and odours. 
-To cope with these hazards, computer modelling is widely used as a powerful tool in water resources engineering. This allows for the estimation of extreme floods or severe saline intrusion in the Mekong Delta under various scenarios, assisting with decision-making in water planning and management. The results from these models can be used as a technical prerequisite for the development of a regional strategy and action plan to prepare for flood loss prevention and salinity management for the vulnerable agricultural sector. 
-Furthermore, some farmers have adapted their activities to correspond with salinity intrusion, implementing a more varied production scheme to raise shrimp during the dry season. This adaptation takes advantage of the positive effect of salinity intrusion in reducing acidity in potential acid sulphate soil land.</t>
+          <t>Những hiểm họa quan trọng nhất ở đồng bằng sông Cửu Long bao gồm hiện tượng nóng lên toàn cầu, sự tan băng và nước biển dâng, cùng với những tác động từ hoạt động công nghiệp và nông nghiệp trong khu vực. Những hiện tượng này có thể dẫn đến việc ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập, 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô và khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa. 
+Trong những năm gần đây, tần suất và cường độ các hiện tượng thời tiết cực đoan đã tăng lên, làm gia tăng mối đe dọa an ninh lương thực và tạo ra những biến động tiêu cực cho khu vực nông thôn. Đồng thời, dự báo cho thấy trong thập kỷ 2030-2040, nhiệt độ trung bình cũng như nhiệt độ lớn nhất và nhỏ nhất trong vùng đều sẽ gia tăng, phổ biến tăng khoảng 20˚C. Tổng lượng mưa trung bình trong vùng cũng sẽ sụt giảm, phổ biến từ 10 đến 20%, khiến việc cung cấp nước ngọt cho canh tác lúa thêm khó khăn.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,19 +702,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the main hazards identified in the Mekong Delta region, as well as the strategies and measures developed to cope with these hazards. It does not contain any noticeable mistakes. The only reason it does not receive a perfect score is because it could have included more specific examples of government initiatives or policies.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response. It identifies the main hazards in the Mekong Delta, including global warming, melting ice and rising sea levels, and the impacts of industrial and agricultural activities. It also explains how these hazards have changed in recent years, with an increase in extreme weather events and predictions for future temperature and rainfall changes.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The paper mentions some limitations of the current adaptation strategies. What are these limitations and how does the paper suggest future adaptation strategies should be improved to benefit different social groups, especially the most vulnerable?</t>
+          <t>Hãy mô tả những biện pháp thích ứng mà chính quyền và người dân địa phương đã và đang phát triển để đối phó với các hiểm họa này. Theo nghiên cứu, những biện pháp này còn bất cập gì và những chiến lược thích ứng trong tương lai cần xây dựng như thế nào?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The current adaptation strategies to hazards such as salinity intrusion and freshwater scarcity have some limitations. They do not fully consider the differences in terms of ecological, social, and economic environment. However, the vulnerability of people highly depends on these conditions. To improve future adaptation strategies, the paper suggests that these strategies should take into account the ecological, social, and economic environment. This would ensure that the strategies benefit different social groups, especially the most vulnerable. One suitable method for building future adaptation programs is the Participatory Vulnerability Assessment (PVA) approach. This approach helps identify vulnerable groups that need assistance and assess their capacity, thereby developing appropriate adaptation strategies. Furthermore, this approach enhances people's awareness of natural disasters and disaster mitigation, especially in the context of global climate change.</t>
+          <t>Các biện pháp thích ứng mà chính quyền và người dân địa phương đã và đang phát triển để đối phó với các hiểm họa này chưa được triển khai một cách hiệu quả. Cụ thể, việc hiểu và triển khai Nghị quyết 120 sau gần 2 năm ban hành vẫn còn lúng túng. Nhiều địa phương chưa thực sự đổi mới theo tinh thần Nghị quyết, còn trông chờ vào hướng dẫn và nguồn lực hỗ trợ từ Trung ương. Việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ theo Nghị quyết 120 vẫn còn chậm. 
+Một trong những bất cập lớn là việc thiếu quy định về cơ chế phối hợp, chia sẻ thông tin giữa các cơ quan liên quan. Đặc biệt, tư duy ưu tiên lựa chọn giải pháp công trình ở các cấp/ngành vẫn nhiều hơn là các chọn lựa giải pháp phi công trình.
+Đối với chiến lược thích ứng trong tương lai, một trong những phương pháp phù hợp là cách tiếp cận đánh giá tổn thương có sự tham gia của cộng đồng (PVA). PVA giúp nhận ra những nhóm dễ bị tổn thương cần giúp đỡ và đánh giá được năng lực của họ để từ đó phát triển các chiến lược thích ứng phù hợp. Thông qua cách tiếp cận này sẽ nâng cao được nhận thức của người dân về thiên tai và công tác phòng chống giảm nhẹ thiên tai, nhất là trong bối cảnh biến đổi khí hậu toàn cầu như hiện nay.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -737,24 +731,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the limitations of current adaptation strategies and how future strategies could be improved. It also specifically addresses the need to benefit different social groups, especially the most vulnerable. However, it could have been more specific about the types of social groups that are most vulnerable.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed response. It discusses the current measures, their shortcomings, and future strategies for adaptation. However, it could have been more specific about the hazards being referred to in the user query.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Based on the research paper, what are the factors that have a positive relationship with the livelihood output of coastal households in the Mekong Delta?</t>
+          <t>Theo nghiên cứu, những yếu tố nào có ảnh hưởng đến kết quả sinh kế của nông hộ ven biển đồng bằng sông Cửu Long? Hãy phân tích và giải thích ảnh hưởng của từng yếu tố.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The research paper does not provide specific information on the factors that have a positive relationship with the livelihood output of coastal households in the Mekong Delta.</t>
+          <t>Có nhiều yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn, bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và việc vay vốn. 
+Số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, và hỗ trợ của địa phương đều có mối quan hệ cùng chiều với thu nhập của hộ gia đình, tức là khi các yếu tố này tăng lên, thu nhập của hộ gia đình cũng tăng theo. 
+Tuy nhiên, việc vay vốn lại có mối quan hệ trái chiều với thu nhập của hộ gia đình. Điều này có thể được giải thích là do việc vay vốn thường đi kèm với lãi suất, và nếu không quản lý tốt, nó có thể dẫn đến tình trạng nợ nên thu nhập thực tế của hộ gia đình giảm đi.
+Ngoài ra, hiện tượng nóng lên toàn cầu và sự tăng lên của mực nước biển cũng ảnh hưởng đến sinh kế của cư dân vùng hạn mặn. Sự tăng lên của mực nước biển có thể dẫn đến xâm nhập mặn, làm giảm năng suất nông nghiệp và ảnh hưởng đến nguồn thu nhập của hộ gia đình.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -764,19 +761,20 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query but it does not provide any information about the factors that have a positive relationship with the livelihood output of coastal households in the Mekong Delta. It's unclear whether this is due to the research paper not containing this information or the chatbot's inability to extract it.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the factors affecting the livelihoods of households in the Mekong Delta coastal region. It correctly identifies and explains the impact of various factors such as production means, production experience, labor force, income sources, local support, and borrowing. It also correctly identifies the impact of global warming and sea level rise. However, it does not specifically address the context of the Mekong Delta coastal region, which is why it does not receive a perfect score.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>According to the paper, how does climate change and rising sea levels affect the current farming systems and the lives of people, especially in coastal areas of the Mekong Delta?</t>
+          <t>Trình bày về tác động của biến đổi khí hậu và mực nước biển dâng đối với hệ thống canh tác và đời sống người dân ở vùng ven biển đồng bằng sông Cửu Long.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The paper does not provide specific information on how climate change and rising sea levels affect the current farming systems and the lives of people in the coastal areas of the Mekong Delta.</t>
+          <t>Biến đổi khí hậu và mực nước biển dâng có tác động nghiêm trọng đến hệ thống canh tác và đời sống người dân ở vùng ven biển đồng bằng sông Cửu Long. Hiện tượng nóng lên toàn cầu gây ra sự tan băng và nước biển dâng, khiến nhiều vùng đất thấp có nguy cơ bị ngập chìm và xâm nhập mặn. Điều này có thể dẫn đến việc ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập, khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô và khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa, khó có thể trồng lúa và một số canh tác khác như chăn nuôi.
+Ngoài ra, vùng đồng bằng còn chịu tác động từ những hoạt động phát triển công nghiệp và nông nghiệp trong khu vực. Nước biển từ các cửa sông sẽ chảy theo sông và kênh vào phía trong nội đồng, làm cho đất bị ngập úng và nhiễm mặn. Các huyện ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình do kinh tế chủ yếu là nuôi thủy sản nên việc lấy nguồn nước biển thường xuyên phải mở thêm nhiều kênh rạch, làm cho nước biển đi vào sâu phía trong được thuận lợi. Các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long mấy năm gần đây do người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm phá vỡ việc vận hành của hệ thống cống ngăn mặn, làm cho nước biển vào sâu trong nội đồng nguy cơ ngập ngày càng thể hiện rõ diện tích ngập tăng lên.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -791,19 +789,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the topic of climate change and its effects on farming systems and people's lives in the Mekong Delta. However, it does not provide any specific information or details, which makes it difficult to determine its correctness.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of climate change and rising sea levels on the agricultural system and the lives of people in the coastal areas of the Mekong Delta. It also includes specific examples and statistics to support the points made. However, it could be improved by providing more specific solutions or strategies to mitigate these impacts.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Based on the research paper, what are the various livelihood strategies employed by the coastal communities, and how do these strategies change during periods of saline intrusion and non-saline periods?</t>
+          <t>Hãy mô tả chiến lược sinh kế của người dân vùng ven biển và những khó khăn mà họ đang đối mặt với nguồn vốn sinh kế của mình.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The coastal communities employ various strategies to cope with and adapt to hazards such as salinity intrusion. These strategies include the construction of dykes, changes in farming techniques, financial support for production recovery from disasters, exploitation of underground water, and diversification of income sources. However, these strategies have shown some limitations as they do not fully consider the differences in ecological, social, and economic environments. The vulnerability of people highly depends on these conditions. Therefore, future adaptation strategies should take these issues into account to benefit different social groups, especially the most vulnerable.</t>
+          <t>Người dân vùng ven biển có nhiều chiến lược sinh kế khác nhau, bao gồm trồng lúa, nuôi tôm, chăn nuôi, và làm thuê trong lĩnh vực nông nghiệp và phi nông nghiệp, đáp ứng cho cả thời gian xâm nhập mặn và thời gian không mặn. Tuy nhiên, họ đang đối mặt với một số khó khăn liên quan đến nguồn vốn sinh kế của mình. 
+Vốn con người có lực lượng lao động dồi dào nhưng tỷ lệ lao động phụ thuộc cao và trình độ học vấn thấp, đặc biệt trong độ tuổi lao động. Nguồn vốn xã hội còn hạn chế với tỷ lệ tham gia vào các tổ chức thấp. Nguồn vốn tự nhiên, bao gồm đất đai, khá cao nhưng nguồn vốn vật chất thì thiếu hụt, đặc biệt đối với những hộ nghèo. Nguồn vốn tài chính cũng chưa cao, với thu nhập chủ yếu trong thời gian xâm nhập mặn. 
+Kinh nghiệm và vay vốn có ảnh hưởng tiêu cực đến kết quả sinh kế nông hộ, trong khi đó, các yếu tố khác như diện tích đất, đầu tư sản xuất và tổng giá trị phương tiện phục vụ sản xuất và sinh hoạt có ảnh hưởng tích cực. Để cải thiện tình hình, vốn vật chất và tài chính cần được đầu tư và hỗ trợ thêm.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -818,19 +818,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query, providing a detailed explanation of the various strategies employed by coastal communities during periods of saline intrusion. However, it does not explicitly mention how these strategies change during non-saline periods, which was part of the user's question.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the livelihood strategies of coastal residents and the challenges they face with their livelihood capital. It covers various aspects such as human capital, social capital, natural capital, and financial capital. The answer also suggests some solutions to improve the situation. However, it could be more specific about the challenges related to each type of capital.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>According to the research, how does saline intrusion due to climate change impact rice cultivation in Soc Trang? Compare the impact under two climate change scenarios in 2004 and 2030, specifically focusing on the changes in the affected areas of rice-shrimp rotation crop, double rice crop, and triple rice crop.</t>
+          <t>Trình bày về tác động của xâm nhập mặn do biến đổi khí hậu đối với hiện trạng canh tác lúa tại tỉnh Sóc Trăng theo hai kịch bản biến đổi khí hậu năm 2004 và 2030.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The research indicates that saline intrusion due to climate change significantly impacts rice cultivation in Soc Trang. Under two climate change scenarios in 2004 and 2030, the impact of saline intrusion is primarily distributed to three districts: My Xuyen, Long Phu, and Tran De. The affected area of rice-shrimp rotation crop in My Xuyen increased by 14.7 hectares between the two scenarios. Conversely, the affected areas of double rice crop in Tran De and those of triple rice crop in Long Phu decreased by 155.5 hectares and 35.5 hectares, respectively.</t>
+          <t>Tác động của xâm nhập mặn do biến đổi khí hậu đã gây ra những thay đổi đáng kể đối với hiện trạng canh tác lúa tại tỉnh Sóc Trăng. Theo hai kịch bản biến đổi khí hậu năm 2004 và 2030, có ba hệ thống canh tác lúa chính bao gồm canh tác lúa ba vụ (99,182.2 ha, chiếm 30.3% tổng diện tích), canh tác lúa hai vụ (69,484.2 ha, chiếm 21.2% tổng diện tích) và canh tác lúa-tôm luân phiên (69,484.2 ha, chiếm 4.3% tổng diện tích). Tác động của xâm nhập mặn chủ yếu tập trung vào ba huyện là Mỹ Xuyên, Long Phú và Trần Đề. Khi so sánh kịch bản biến đổi khí hậu năm 2004 và năm 2030, diện tích bị ảnh hưởng của canh tác lúa-tôm luân phiên tại Mỹ Xuyên tăng thêm 14.7 ha; trong khi đó, diện tích bị ảnh hưởng của canh tác lúa hai vụ tại Trần Đề và canh tác lúa ba vụ tại Long Phú giảm lần lượt 155.5 ha và 35.5 ha.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -845,24 +845,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides specific details about the impact of saline intrusion on different types of rice crops in Soc Trang under two climate change scenarios. However, it does not provide a comparative analysis between the two scenarios, which was asked in the query.</t>
+          <t>The generated answer is highly relevant to the user query and provides detailed information about the impact of saltwater intrusion due to climate change on rice cultivation in Soc Trang province according to two climate change scenarios in 2004 and 2030. It also provides specific data on the affected areas and the changes in different rice cultivation systems. However, without a reference answer, it's hard to confirm the accuracy of the data provided.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Based on the research findings, how has the agricultural structure in Sóc Trăng and other BĐSCL provinces changed before and after 2005? What factors contributed to this change?</t>
+          <t>Trước năm 2005, nông dân ở tỉnh Sóc Trăng và các tỉnh BĐSCL đã thực hiện biện pháp nào để đáp ứng nhu cầu lương thực và quy hoạch của địa phương?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The context does not provide specific information on how the agricultural structure in Sóc Trăng and other BĐSCL provinces has changed before and after 2005, nor does it mention the factors that contributed to this change.</t>
+          <t>The context does not provide information on the measures taken by farmers in Soc Trang province and other Mekong Delta provinces before 2005 to meet local food needs and planning.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -872,19 +872,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any relevant information or answer to the user's query.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of measures taken by farmers in Soc Trang province and other Mekong Delta provinces. However, it does not provide any specific information or details, which makes it incomplete and not fully correct.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>According to the Bộ Khoa học và Công nghê (2016), what is the standard salinity level in drinking water and how does it affect the growth of regular rice varieties? Can you name any rice varieties that are resistant to salinity?</t>
+          <t>Theo kết quả nghiên cứu, hãy mô tả sự thay đổi diện tích canh tác lúa và diện tích các kiểu sử dụng thuộc vùng sinh thái mặn, lợ từ năm 2004 đến năm 2030 và 2050 dưới tác động của biến đổi khí hậu.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The context does not provide information on the standard salinity level in drinking water according to the Bộ Khoa học và Công nghê (2016), how it affects the growth of regular rice varieties, or any rice varieties that are resistant to salinity.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến sự thay đổi diện tích canh tác lúa và diện tích các kiểu sử dụng thuộc vùng sinh thái mặn, lợ từ năm 2004 đến năm 2030 và 2050 dưới tác động của biến đổi khí hậu.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -899,19 +899,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any information relevant to the user's query. It simply states that the information is not available, which does not answer the user's question.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of changes in rice cultivation area and usage of different types of saline and brackish ecological zones under the impact of climate change. However, it does not provide any specific information or details about these changes, stating that the provided information does not mention these changes. Therefore, it is not fully correct or helpful in answering the user's question.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Based on the research conducted using MODIS remote sensing images, which three main rice cultivation statuses were identified in Sóc Trăng province? What were the reliability measures for this research?</t>
+          <t>Hãy mô tả cách nghiên cứu sử dụng ảnh viễn thám MODIS để xây dựng bản đồ hiện trạng canh tác lúa tỉnh Sóc Trăng và nêu rõ 3 hiện trạng canh tác lúa chính được xác định trong nghiên cứu.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The research identified three main rice cultivation statuses in Sóc Trăng province: triple rice crop, double rice crop, and rice-shrimp rotation crop. The reliability measures for this research were a confidence level of 80.8% and a Kappa value of 0.78.</t>
+          <t>Nghiên cứu đã sử dụng ảnh viễn thám MODIS để xây dựng bản đồ hiện trạng canh tác lúa tỉnh Sóc Trăng với độ tin cậy cao. Trong quá trình nghiên cứu, ba hiện trạng canh tác lúa chính đã được xác định, bao gồm lúa 3 vụ, lúa 2 vụ và lúa tôm luân canh.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -926,19 +926,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and seems to be correct, providing specific details about the rice cultivation statuses identified in Sóc Trăng province and the reliability measures for the research. However, without a reference answer, it's not possible to confirm the absolute accuracy of these details.</t>
+          <t>The generated answer is relevant to the user query and provides a correct response. It describes the use of MODIS remote sensing images in the research to map the current state of rice cultivation in Soc Trang province and identifies the three main rice cultivation states determined in the study. However, it does not provide a detailed description of the research process, which is why it does not receive a full score of 5.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>According to the paper by Dũng and Thuận (2021), what factors were found to have a positive correlation with the livelihood outcome of residents in the salty drought area? What factor had a negative correlation?</t>
+          <t>Trong nghiên cứu của Dũng và Thuận (2021), họ đã chỉ ra những yếu tố nào ảnh hưởng đến thu nhập của cư dân vùng hạn mặn? Hãy phân tích mối quan hệ giữa các yếu tố này và thu nhập.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The factors found to have a positive correlation with the livelihood outcome of residents in the salty drought area include the number of production means, production experience, the number of main laborers, the number of income sources, and local support. On the other hand, borrowing was the factor that had a negative correlation with the livelihood outcome.</t>
+          <t>Các yếu tố ảnh hưởng đến thu nhập của cư dân vùng hạn mặn bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và việc vay vốn. Đa số các yếu tố này có mối quan hệ cùng chiều với thu nhập của hộ gia đình, tức là khi các yếu tố này tăng lên, thu nhập của hộ gia đình cũng tăng theo. Tuy nhiên, yếu tố vay vốn lại có mối quan hệ trái chiều, tức là khi số tiền vay vốn tăng lên, thu nhập của hộ gia đình lại giảm đi.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -948,30 +948,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and appears to be fully correct, providing specific factors that have a positive correlation and the one factor that has a negative correlation with the livelihood outcome of residents in the salty drought area, as per the paper by Dũng and Thuận (2021).</t>
+          <t>The generated answer is relevant and seems to be correct, providing a detailed analysis of the factors affecting the income of residents in salt-affected areas and their relationship with income. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Based on the text, what factors were identified as influencing the livelihood outcomes of residents in salt-affected areas? Please list and briefly explain their relationship with household income.</t>
+          <t>Theo nghiên cứu trong tài liệu, hãy liệt kê các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn và giải thích mối quan hệ giữa các yếu tố này với thu nhập của hộ gia đình.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Several factors were identified as influencing the livelihood outcomes of residents in salt-affected areas:
-1. Agricultural Production: Higher salinity decreases the productivity and revenue share of rice crop and aquaculture production, but increases the revenue share of industrial crops, such as coconut, a salt-resistant crop. This suggests that farmers are adopting new crops and switching crops as mechanisms for risk diversification to secure their income against salinization shocks.
-2. Agricultural Land Use: Higher salinity intrusion is associated with decreases in farmers’ land used for rice and in their general land used reported for agriculture. This reduction in land use could potentially impact the income generated from farming activities.
-3. Labor Supply: Salinity shock is estimated to decrease labor supply in agriculture for those without agricultural land, but labor supply for those with agricultural land does not respond to higher salinity. This could affect the income of those who rely on agricultural labor for their livelihood.
-4. Household Income and Consumption: Salinization is found to reduce farmer households’ income and consumption, which directly impacts the livelihood of these households.
-5. Education: The estimated effect on household spending on education is positive, implying farmers’ increased investment to acquire new skills. This could potentially lead to income diversification and improved livelihood outcomes in the long run.
-6. Migration and Credit Access: While the evidence on out-migration for off-farm work in urban centers is mixed, a more developed local credit market is found to play a positive role in easing the income losses incurred by farmers during salinization shocks. This suggests that access to credit and the ability to migrate for work can influence the livelihood outcomes of residents in salt-affected areas.</t>
+          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và vay vốn. Đa số các yếu tố này có mối quan hệ cùng chiều với thu nhập của hộ gia đình, tức là khi các yếu tố này tăng lên, thu nhập của hộ gia đình cũng tăng theo. Tuy nhiên, yếu tố vay vốn lại có mối quan hệ trái chiều, tức là khi số tiền vay vốn tăng lên, thu nhập của hộ gia đình lại giảm đi.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -986,19 +980,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive list of factors influencing the livelihood outcomes of residents in salt-affected areas. It also explains their relationship with household income in a clear and detailed manner. The answer is fully correct and well-structured, making it easy to understand.</t>
+          <t>The generated answer is relevant and appears to be correct, providing a detailed list of factors that influence the livelihood outcomes of residents in salt-affected areas and explaining the relationship between these factors and household income. However, without a reference answer, it's difficult to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Discuss the role of local support in the livelihoods of people living in salt-affected areas as mentioned in the text. Can you provide examples of such support?</t>
+          <t>Trình bày về vai trò của sự hỗ trợ từ địa phương đối với sinh kế của người dân ở vùng hạn mặn, kèm theo các ví dụ cụ thể được đề cập trong tài liệu.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Local support plays a significant role in the livelihoods of people living in salt-affected areas. For instance, in the Mekong Delta, the government and local people have developed various strategies and measures to cope with and adapt to hazards such as salinity intrusion and freshwater scarcity. These include the construction of dykes, changes in farming techniques, financial support for production recovery from disasters, exploitation of underground water, and diversification of income sources. However, it's noted that these adaptation options have some limitations as they do not fully consider the differences in terms of ecological, social, and economic environment. Therefore, future adaptation strategies should take into account these issues to benefit different social groups, especially the most vulnerable.</t>
+          <t>Sự hỗ trợ từ địa phương đóng một vai trò tích cực trong việc cải thiện sinh kế của người dân ở vùng hạn mặn. Trong thực tế, người dân ở các địa phương này đã nhận được nhiều sự hỗ trợ từ chính quyền. Một số hình thức hỗ trợ cụ thể bao gồm việc cung cấp vốn vay với lãi suất ưu đãi, tổ chức các khóa tập huấn về chăn nuôi và nuôi trồng thủy sản, cũng như hỗ trợ giống lúa chịu mặn. Những hỗ trợ này đã góp phần quan trọng vào việc nâng cao năng lực sản xuất và cải thiện sinh kế cho người dân ở vùng hạn mặn.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1013,25 +1007,21 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of local support in the livelihoods of people living in salt-affected areas. It also provides specific examples, as requested by the user. The answer is comprehensive and appears to be correct, even in the absence of a reference answer.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of local support in improving the livelihoods of people in salt-affected areas. It also provides specific examples of the types of support provided, such as preferential loans, training courses, and salt-resistant rice varieties. However, without a reference answer, it's hard to judge if it's fully correct.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Based on the research paper, what are the various factors that influence the livelihood outcomes of residents in saline intrusion areas? Can you explain the relationship between these factors and the household income?</t>
+          <t>Hãy liệt kê và giải thích các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn mà nghiên cứu đã chỉ ra. Trong số đó, yếu tố nào có mối quan hệ trái chiều với thu nhập của hộ gia đình?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The livelihood outcomes of residents in saline intrusion areas, such as the Vietnamese Mekong delta (MKD), are influenced by several factors. 
-Firstly, agricultural production is significantly affected by salinization. Higher salinity decreases the productivity and revenue share of rice crops and aquaculture production. However, it increases the revenue share of industrial crops, such as coconut, which are salt-resistant. This suggests that farmers are adopting new crops and switching crops as a risk diversification strategy to secure their income against salinization shocks.
-Secondly, salinization impacts the agricultural land used. Higher salinity intrusion is associated with decreases in farmers’ land used for rice and their general land used for agriculture.
-Thirdly, salinization affects labor supply. Salinity shock is estimated to decrease labor supply in agriculture for those without agricultural land, but labor supply for those with agricultural land does not respond to higher salinity.
-Fourthly, salinization reduces farmer households’ income and consumption. However, it is found to increase household spending on education, potentially implying farmers’ increased investment to acquire new skills.
-Lastly, the study tests two channels for adaptation smoothing: migration and credit access. The evidence on out-migration for off-farm work in urban centers is mixed, but the results support the hypothesis that a more developed local credit market plays a positive role in easing the income losses incurred by farmers during salinization shocks.
-In summary, salinization affects agricultural production, land use, labor supply, and household income and consumption. However, farmers are adapting to these changes through crop switching, acquiring new skills, and accessing credit.</t>
+          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và vay vốn. 
+Số phương tiện sản xuất và số lao động chính liên quan đến khả năng sản xuất của hộ gia đình. Kinh nghiệm sản xuất cho phép người dân thích ứng với hạn mặn và rút ra kinh nghiệm từ những thất bại trước đó để sản xuất tốt hơn. Số nguồn thu nhập cũng quan trọng vì nó cung cấp tài chính cho hoạt động sản xuất. Hỗ trợ của địa phương, như vay vốn với lãi suất ưu đãi, tập huấn chăn nuôi, nuôi trồng thủy sản, hỗ trợ giống lúa chịu mặn, cũng đóng góp tích cực vào sinh kế của người dân.
+Trong số các yếu tố trên, chỉ có yếu tố vay vốn có mối quan hệ trái chiều với thu nhập của hộ gia đình. Điều này có thể do việc vay vốn tạo ra nợ và có thể giảm thu nhập ròng của hộ gia đình.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1046,19 +1036,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed explanation of the various factors that influence the livelihood outcomes of residents in saline intrusion areas. It also explains the relationship between these factors and household income. The answer is well-structured, clear, and accurate, demonstrating a deep understanding of the topic.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the factors affecting the livelihood outcomes of residents in salt-affected areas. It also correctly identifies borrowing as the factor that has an inverse relationship with household income. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>According to the paper titled "Ảnh hưởng của xâm nhập mặn đến công tác quản lý và sử dụng nguồn tài nguyên nước dưới đất tại vùng ven biển tỉnh sóc trăng" by Hằng et al., how does saline intrusion affect the management of groundwater resources in Tran De district and its usage in aquaculture and rice farming areas?</t>
+          <t>Dựa trên nghiên cứu, hãy mô tả cách xâm nhập mặn ảnh hưởng đến việc quản lý và sử dụng nguồn tài nguyên nước dưới đất tại vùng ven biển tỉnh Sóc Trăng. Đặc biệt, hãy so sánh ảnh hưởng của xâm nhập mặn đối với người trồng tôm và người trồng lúa.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>During periods influenced by salt, particularly in the dry season of 2016, saline intrusion posed challenges to the management of groundwater resources in Tran De district, especially in controlling the extraction and use of groundwater. In areas of aquaculture, shrimp farmers increased their extraction of groundwater to reduce the salinity concentration of surface water. However, for rice farmers, primarily in the Long Phu district, saline intrusion did not affect the demand for or extraction of groundwater.</t>
+          <t>Trong thời gian bị ảnh hưởng bởi xâm nhập mặn, đặc biệt trong mùa khô năm 2016, xâm nhập mặn đã gây ra khó khăn trong việc quản lý nguồn tài nguyên nước dưới đất, chủ yếu ở huyện Trần Đề. Điều này đặc biệt khó khăn trong việc kiểm soát việc khai thác và sử dụng nguồn nước dưới đất. 
+Đối với người nuôi tôm ở các khu vực nuôi trồng thủy sản, họ đã tăng cường khai thác nước dưới đất để giảm nồng độ mặn của nước mặt. Ngược lại, đối với người trồng lúa, chủ yếu ở huyện Long Phú, xâm nhập mặn không gây ảnh hưởng đến nhu cầu sử dụng và khai thác nước dưới đất. 
+Tuy nhiên, xâm nhập mặn đã gây ra khó khăn trong việc cung cấp nước ngọt đủ cho vụ lúa Xuân - Hè đầu năm 2016. Khô hạn kéo dài đã làm tăng nhu cầu sử dụng nước cho sản xuất lúa. Mặc dù vấn đề khai thác nước dưới đất được quản lý tốt, nhưng do hạn chế trong việc tiếp xúc giữa người dân và chính quyền địa phương, các quy định chưa được áp dụng một cách rộng rãi.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1073,19 +1065,20 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saline intrusion affects the management of groundwater resources in Tran De district and its usage in aquaculture and rice farming areas. However, it does not fully address the impact on rice farming areas as specified in the query, hence the slight deduction.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saltwater intrusion affects the management and use of groundwater resources in coastal areas of Soc Trang province. It also compares the impact of saltwater intrusion on shrimp farmers and rice farmers, as requested by the user. The answer is comprehensive and seems accurate, although without a reference answer, it's hard to confirm the exact details. The score is not a perfect 5 because the answer could be more concise and better structured.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>According to the research paper, how did saline intrusion during the dry season of 2016 affect the management and use of groundwater resources in the coastal areas of Soc Trang province, particularly in Tran De district and Long Phu district?</t>
+          <t>Theo nghiên cứu, xâm nhập mặn đã gây ra những khó khăn gì trong công tác quản lý và sử dụng nguồn tài nguyên nước dưới đất ở huyện Trần Đề? Và tác động của xâm nhập mặn đối với người trồng lúa ở huyện Long Phú là gì?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>During the dry season of 2016, saline intrusion posed significant challenges to the management and use of groundwater resources, especially in the Tran De district. In aquaculture areas, shrimp farmers increased their extraction of groundwater to reduce the salinity concentration of surface water. However, for rice farmers in the Long Phu district, saline intrusion did not affect their demand for or extraction of groundwater.</t>
+          <t>Trong thời gian xâm nhập mặn, đặc biệt là mùa khô năm 2016, xâm nhập mặn đã gây ra khó khăn trong công tác quản lý nguồn tài nguyên nước dưới đất ở huyện Trần Đề. Cụ thể là việc kiểm soát khai thác và sử dụng nguồn tài nguyên này. Các khu vực nuôi trồng thủy sản, người nuôi tôm đã tăng cường khai thác nước dưới đất để pha loãng nồng độ mặn của nước mặt trên các kênh sông/rạch.
+Đối với người trồng lúa ở huyện Long Phú, xâm nhập mặn đã làm giảm đáng kể diện tích trồng lúa. Cụ thể ở Long Phú, diện tích đất trồng lúa giảm gần 1⁄2 (6.500 ha) vụ Xuân Hè (diện tích trồng lúa hàng năm của huyện xấp xỉ trên 13.000 ha) và gây thiệt hại hơn 4.000 ha (mức độ thiệt hại được thống kê từ 30% - 70%) do không đủ nguồn nước tưới cho cây lúa.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1100,19 +1093,21 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saline intrusion affected the management and use of groundwater resources in the specified areas. It loses half a point for not providing more specific details or data to support the statements.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response to both parts of the question. It discusses the difficulties in managing and using underground water resources in Trần Đề district due to saltwater intrusion, and the impact of saltwater intrusion on rice farmers in Long Phú district.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>The paper discusses the impact of saline intrusion on agricultural production, specifically rice farming. Can you explain how this phenomenon affected the rice cultivation area in Long Phu, and what were the consequences?</t>
+          <t>Biến đổi khí hậu và nước biển dâng đã tác động như thế nào đến đồng bằng sông Cửu Long? Hãy nêu rõ những hậu quả mà xâm nhập mặn có thể gây ra trong mùa khô.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The impact of saline intrusion on rice cultivation in Long Phu was significant. According to the climate change scenarios studied for 2004 and 2030, the area affected by saline intrusion for triple rice crop in Long Phu decreased by 35.5 hectares. This suggests that the saline intrusion has led to a reduction in the area suitable for rice cultivation. The consequences of this include a decrease in the productivity and revenue share of rice crops, a decrease in aquaculture production, and an increase in the revenue share of industrial crops like coconut, which are salt-resistant. This has led to farmers adopting new crops and switching crops as a risk diversification strategy to secure their income against salinization shocks.</t>
+          <t>Biến đổi khí hậu và nước biển dâng đã tạo ra những tác động nghiêm trọng đối với đồng bằng sông Cửu Long. Một trong những hậu quả nghiêm trọng nhất là sự tan băng và nước biển dâng, khiến nhiều vùng đất thấp có nguy cơ bị ngập chìm và xâm nhập mặn. Đặc biệt, nếu không có những chuyển biến tích cực kiểm soát khả năng nóng lên toàn cầu, có thể sẽ có ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập do nước biển dâng và lún sụt đồng bằng. 
+Trong mùa khô, khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn. Điều này có thể gây ra những hậu quả nghiêm trọng cho nền nông nghiệp, với khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa, khó có thể trồng lúa và một số canh tác khác như chăn nuôi. 
+Ngoài ra, các vùng ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình do kinh tế chủ yếu là nuôi thủy sản nên việc lấy nguồn nước biển thường xuyên phải mở thêm nhiều kênh rạch làm cho nước biển đi vào sâu phía trong được thuận lợi. Các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long mấy năm gần đây do người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm phá vỡ việc vận hành của hệ thống cống ngăn mặn. Từ đó càng làm cho nước biển vào sâu trong nội đồng nguy cơ ngập ngày càng thể hiện rõ diện tích ngập tăng lên.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1127,19 +1122,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of saline intrusion on rice cultivation in Long Phu. It also discusses the consequences of this phenomenon. However, it lacks specific data or sources to support its claims, which prevents it from receiving a perfect score.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of climate change and sea level rise on the Mekong Delta. It also clearly outlines the consequences of saltwater intrusion during the dry season. The answer could be improved by providing more specific examples or data, but overall it is very accurate and informative.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Explain the impact of the 2016 salinity crisis on aquaculture and rice production in Long Phú, as discussed in the document "researched_paper_cleanup.txt". What measures were taken by shrimp farmers to mitigate the effects of high salinity levels?</t>
+          <t>Theo nghiên cứu, hạn mặn năm 2016 đã ảnh hưởng như thế nào đến diện tích đất sản xuất lúa ở Long Phú và việc nuôi trồng thủy sản? Hãy giải thích nguyên nhân.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The document does not provide specific information on the impact of the 2016 salinity crisis on aquaculture and rice production in Long Phú, nor does it discuss any measures taken by shrimp farmers to mitigate the effects of high salinity levels.</t>
+          <t>Hạn mặn năm 2016 đã gây thiệt hại cho diện tích đất sản xuất lúa ở Long Phú. Tuy nhiên, nó ít ảnh hưởng đến việc nuôi trồng thủy sản, chủ yếu là nuôi cá nước ngọt, do phần lớn diện tích đất canh tác ở vùng này được sử dụng cho việc trồng lúa. Nguyên nhân là do người nuôi tôm đã sử dụng biện pháp bơm nước giếng khoan vào ao nuôi để pha loãng nồng độ mặn trong nước, giúp giảm ảnh hưởng của hạn mặn.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1154,19 +1149,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the topic of the 2016 salinity crisis and its impact on aquaculture and rice production in Long Phú. However, it does not provide any specific information or details, which makes it impossible to judge its correctness.</t>
+          <t>The generated answer is relevant and provides a detailed explanation of the impact of the 2016 saltwater intrusion on rice production and aquaculture in Long Phu. It also explains the reason why aquaculture was less affected. However, it could have been more specific about the extent of the damage to the rice fields.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The document mentions a regulation (Decree No. 33/2017/NĐ-CP) in relation to the use of well water in shrimp farming. Discuss the conflict between this regulation and the practical needs of shrimp farmers in harsh weather conditions. How does prolonged salinity crisis affect the management of water resources, especially in local areas?</t>
+          <t>Giải pháp mà người nuôi tôm sử dụng để hạ độ mặn trong nước là gì? Việc này có vi phạm quy định xử phạt quy phạm hành chính trong lĩnh vực tài nguyên nước và khoáng sản không? Nếu có, hãy trình bày về quy định đó và lý do tại sao người dân vẫn tiếp tục vi phạm.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The context provided does not mention any specific regulation such as Decree No. 33/2017/NĐ-CP in relation to the use of well water in shrimp farming. It also does not discuss any conflict between this regulation and the practical needs of shrimp farmers in harsh weather conditions. Furthermore, the context does not provide specific information on how a prolonged salinity crisis affects the management of water resources, especially in local areas.</t>
+          <t>Người nuôi tôm thường sử dụng phương pháp bơm nước giếng khoan vào ao nuôi để pha loãng nồng độ mặn trong nước. Tuy nhiên, việc này thực sự vi phạm quy định xử phạt quy phạm hành chính trong lĩnh vực tài nguyên nước và khoáng sản, theo điều 7 của Nghị định số 33/2017/NĐ-CP. Mặc dù vậy, việc thực thi quy định này ở địa phương thực sự khó khăn. Lý do chính là chi phí đầu tư vào các ao nuôi tôm rất cao. Trong điều kiện thời tiết khắc nghiệt, nếu không có giải pháp bơm thêm nước giếng khoan để pha loãng nồng độ mặn, các ao nuôi tôm có thể gặp nguy hiểm và dẫn đến chết tôm.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1176,24 +1171,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query. It does not provide any information about the regulation, the conflict with the needs of shrimp farmers, or the effects of a prolonged salinity crisis on water resource management. Instead, it simply states that the context does not provide this information, which is not helpful or informative.</t>
+          <t>The generated answer is highly relevant and accurate. It correctly addresses the user's query about the solution shrimp farmers use to reduce salinity in water, whether this violates any administrative regulations in the field of water and mineral resources, and if so, what those regulations are and why people continue to violate them. The answer is comprehensive and provides a clear explanation for all parts of the query.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Based on the research findings, what percentage of households surveyed were aware of the regulations for exploiting groundwater resources, and what percentage understood the consequences of over-exploitation?</t>
+          <t>Theo kết quả nghiên cứu trong bài báo, hãy phân tích mức độ tham gia và hiểu biết của người dân về việc khai thác nguồn tài nguyên nước dưới đất (NDĐ) và những hậu quả có thể xảy ra khi khai thác quá mức?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>90% of the households surveyed were aware of the regulations for exploiting groundwater resources. However, only 3% of the households understood that over-exploitation of these resources could lead to land subsidence.</t>
+          <t>Theo kết quả nghiên cứu, 90% số hộ dân được phỏng vấn biết đến quy định về việc đăng ký khai thác nguồn nước dưới đất (NDĐ). Tuy nhiên, chỉ có 3% số hộ dân hiểu rằng việc khai thác NDĐ quá mức có thể gây sụt lún. Trong khi đó, 63% hộ dân cho rằng việc khai thác NDĐ quá mức không gây sụt lún và 34% số hộ dân không quan tâm đến vấn đề này. Điều này cho thấy mức độ tham gia và hiểu biết của người dân về việc khai thác NDĐ và hậu quả của việc khai thác quá mức còn hạn chế.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1203,26 +1198,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides specific percentages for both parts of the question. It is not possible to verify the correctness without a reference answer, but the response is detailed and seems plausible.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the public's participation and understanding of the exploitation of underground water resources and the potential consequences of over-exploitation. It provides specific statistics and concludes with an overall assessment, which aligns perfectly with the user's request.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Discuss the impact of saltwater intrusion on rice cultivation and aquaculture, as mentioned in the document. How does the management and use of groundwater resources factor into this issue?</t>
+          <t>Trình bày những khó khăn và trở ngại trong công tác quản lý khai thác và sử dụng nguồn tài nguyên NDĐ? Đề xuất một số giải pháp để cải thiện tình hình.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Saltwater intrusion has a significant impact on rice cultivation and aquaculture. The research shows that exposure to higher salinity decreases the productivity and revenue share of rice crops. It also decreases aquaculture production. However, it increases the revenue share of industrial crops, such as coconut, which are salt-resistant. This suggests that farmers are adopting new crops and switching crops as a risk diversification strategy to secure their income against salinization shocks. 
-In terms of land use, higher salinity intrusion is associated with decreases not only in farmers’ land used for rice but also in their general land used for agriculture. Salinization also affects labor supply, reducing it in agriculture for those without agricultural land, while labor supply for those with agricultural land does not respond to higher salinity.
-The document does not provide specific information on the management and use of groundwater resources in relation to saltwater intrusion. However, it does mention that the operation of sluice gates, which can slow the intrusion of saltwater, is likely correlated with the development of local agricultural production.</t>
+          <t>Công tác quản lý khai thác và sử dụng nguồn tài nguyên NDĐ gặp phải một số khó khăn và trở ngại. Một trong số đó là việc quản lý chủ yếu tập trung ở cấp chính quyền, mức độ tham gia của người dân chưa cao. Thêm vào đó, việc đăng ký và kiểm soát khai thác NDĐ vẫn còn một số hạn chế. Hiệu quả hoạt động của hệ thống thủy lợi là cốt yếu trong việc cung cấp nguồn nước và duy trì hệ thống canh tác của vùng, vì thế công tác nạo vét, bảo dưỡng công trình cần được quan tâm, nhất là vào mùa khô. 
+Để cải thiện tình hình, một số giải pháp có thể được đề xuất. Đầu tiên, việc phổ biến các quy định trong khai thác và sử dụng nguồn NDĐ cần được tiến hành theo chiều sâu để các chính sách được thực hiện một cách có hiệu quả, hạn chế tình trạng khai thác quá mức nguồn NDĐ. Thứ hai, cần thay đổi tư duy và tiếp cận, không chỉ dựa vào hướng dẫn và nguồn lực hỗ trợ từ Trung ương mà cần đề cao nội lực và huy động sự tham gia rộng rãi của các tổ chức, doanh nghiệp, người dân. Cuối cùng, việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ cũng rất quan trọng, cần tăng tốc độ và đồng bộ hóa với nguồn lực thực hiện.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1237,46 +1231,48 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of saltwater intrusion on rice cultivation and aquaculture. It also attempts to address the part of the query about groundwater resources, although it admits that the document does not provide specific information on this. The answer could be improved by providing more general information on how groundwater management might affect saltwater intrusion, even if the document does not provide specifics.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive response. It correctly identifies the challenges in managing and exploiting NDĐ resources and proposes several solutions to improve the situation. The answer is well-structured and detailed, making it a high-quality response.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Explain the proposed model for simulating the impact of sea level rise on agricultural production areas, as discussed in the paper by Hiển et al. What are the key components of this model and how does it predict future scenarios?</t>
+          <t>Hãy mô tả quá trình nước biển dâng xâm lấn vào nội đồng diễn biến như thế nào? Hãy nêu rõ các yếu tố ảnh hưởng đến quá trình này.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The context does not provide information on a proposed model for simulating the impact of sea level rise on agricultural production areas, as discussed in a paper by Hiển et al. Therefore, I cannot provide details on the key components of this model or how it predicts future scenarios.</t>
+          <t>Quá trình nước biển dâng xâm lấn vào nội đồng diễn ra khi nước biển từ các cửa sông chảy theo sông và kênh vào phía trong nội đồng. Khi càng đi sâu vào, lượng nước sẽ giảm do tràn và thấm vào đất, tương ứng với hệ số dòng sông và kênh giảm. Nước biển chảy theo sông/kênh sẽ thấm vào đất hoặc tràn lên đất (nếu mực nước cao hơn độ cao của địa hình) làm cho đất bị ngập úng và nhiễm mặn.
+Các yếu tố ảnh hưởng đến quá trình này bao gồm việc xây dựng hệ thống cống, hệ thống đê, việc mở thêm nhiều kênh rạch ở các vùng ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình để lấy nguồn nước biển cho nuôi thủy sản. Đồng thời, việc người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm ở các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long trong mấy năm gần đây cũng phá vỡ việc vận hành của hệ thống cống ngăn mặn, làm cho nước biển vào sâu trong nội đồng và nguy cơ ngập ngày càng thể hiện rõ.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query as it does not provide any information about the proposed model for simulating the impact of sea level rise on agricultural production areas, as discussed in the paper by Hiển et al.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the process of sea water intrusion into the inland delta. It also clearly outlines the factors affecting this process. The answer is comprehensive and appears to be correct, even without a reference answer for comparison.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Based on the findings of the paper, discuss the effects of sea level rise on coastal and inland districts. How does the construction of sea barriers and the change from rice cultivation to shrimp farming by locals affect the infiltration of sea water into the inland areas?</t>
+          <t>Dựa vào kết quả mô phỏng, hãy phân tích tình hình ngập úng và nhiễm mặn ở các huyện ven biển và các huyện phía trong. Hãy đưa ra các nguyên nhân dẫn đến sự khác biệt này.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The context does not provide specific information on the effects of sea level rise on coastal and inland districts, the construction of sea barriers, or the change from rice cultivation to shrimp farming by locals and its effect on the infiltration of sea water into the inland areas.</t>
+          <t>Kết quả mô phỏng cho thấy các huyện ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình thường bị ngập ở mức cao hơn so với các huyện phía trong. Một nguyên nhân chính là do kinh tế của các huyện này chủ yếu dựa vào nuôi thủy sản, nên việc lấy nguồn nước biển thường xuyên phải mở thêm nhiều kênh rạch, làm cho nước biển dễ dàng xâm nhập vào phía trong. 
+Trong khi đó, các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long trong những năm gần đây cũng đang đối mặt với tình trạng ngập úng và nhiễm mặn tăng lên. Điều này chủ yếu do người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm, phá vỡ việc vận hành của hệ thống cống ngăn mặn, làm cho nước biển dễ dàng xâm nhập vào sâu trong nội đồng.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1291,20 +1287,20 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any relevant information or answer to the user's query. It simply states that the context does not provide the necessary information, which is not helpful or informative.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the flooding and salinity situation in coastal and inland districts. It also provides reasons for the differences observed. The answer is accurate and comprehensive, but it could be slightly more concise.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Based on the research paper, what are the projected impacts of sea level rise on agricultural production in the Bạc Liêu province from 2016 to 2050?</t>
+          <t>Hãy mô tả kịch bản nước biển dâng xâm lấn vào nội đồng giai đoạn năm 2016 đến năm 2050 mà tác giả đã đề xuất. Theo kịch bản này, những vấn đề gì sẽ xảy ra với sản xuất nông nghiệp và cuộc sống của người dân tỉnh Bạc Liêu?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The projected impacts of sea level rise on agricultural production in the Bạc Liêu province from 2016 to 2050 are quite severe. The rising sea levels are expected to increasingly affect the agricultural production areas each year, posing complex risks. The simulation results of the flood risk map for the highest flood months for the years 2020, 2030, 2040, 2050 under low, medium, and high scenarios show this. 
-In the future, if the system of dikes and dams is properly planned, it will reduce the adverse effects of rising sea levels. However, agricultural production in the dry season will be very difficult due to severe drought and lack of fresh water. This situation could lead to poverty, food shortages, lack of fresh water for living, economic downturn, and many other negative consequences. Therefore, measures to remedy the flooding situation are needed, such as re-planning the canal system, dredging canals to create flow to share the water volume on the rivers with each other; building a reasonable dike system to prevent sea water and a salt prevention dam system to prevent sea water from invading the fields, reducing damage caused by saline intrusion.</t>
+          <t>Theo kịch bản nước biển dâng xâm lấn vào nội đồng từ năm 2016 đến năm 2050, mức độ ảnh hưởng của nước biển dâng đến vùng sản xuất nông nghiệp sẽ tăng lên rất cao theo từng năm, tiềm ẩn nguy cơ phức tạp. Các mô phỏng bản đồ nguy cơ ngập cho thấy tình trạng ngập lụt sẽ tăng lên vào các năm 2020, 2030, 2040, 2050 theo kịch bản mức thấp, mức trung bình và mức cao.
+Tình trạng ngập lụt chung cho tỉnh Bạc Liêu sẽ ảnh hưởng đến các khu vực huyện trong tỉnh. Nếu không có quy hoạch hệ thống đê và đập hợp lý, tình trạng nước biển dâng sẽ gây ra những ảnh hưởng không tốt. Sản xuất nông nghiệp vào mùa khô sẽ trở nên khó khăn do khô hạn và thiếu nước ngọt. Điều này dẫn đến nghèo đói, thiếu lương thực, thiếu nguồn nước ngọt để sinh hoạt, kinh tế đi xuống và nhiều hệ lụy xấu khác.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1319,19 +1315,20 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the projected impacts of sea level rise on agricultural production in the Bạc Liêu province from 2016 to 2050. It also suggests potential solutions to mitigate these impacts. The answer is comprehensive and seems accurate, but without a reference answer, it's hard to confirm its complete correctness.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the scenario of sea level rise invading the mainland from 2016 to 2050. It also correctly identifies the potential problems that will occur with agricultural production and the lives of the people in Bac Lieu province. The only reason it doesn't get a perfect score is because it could have provided more specific examples or data to support its points.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>What are the proposed solutions to mitigate the negative effects of sea level rise and saltwater intrusion into farmlands in the Bạc Liêu province as mentioned in the document?</t>
+          <t>Theo nội dung bài viết, hãy liệt kê và giải thích các biện pháp mà tác giả đề xuất để khắc phục tình trạng ngập lụt do nước biển dâng tại tỉnh Bạc Liêu.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The document suggests several solutions to mitigate the negative effects of sea level rise and saltwater intrusion into farmlands. Firstly, it emphasizes the need to increase awareness and understanding of the importance of Resolution 120 and the Planning Law No. 21/2017/QH14 among leaders, officials, and citizens. Secondly, it proposes a review of outdated or inappropriate plans and projects, especially those with significant ecological and biodiversity impacts. Thirdly, it recommends comprehensive assessments of the economic, social, and environmental aspects of large projects implemented in the past. Fourthly, it advocates for a firm stance against expanding dyke areas, aiming to maintain and restore freshwater storage areas during the flood season. Fifthly, it suggests reducing the number of coal-fired power plants and encouraging investment in renewable energy sources such as solar, wind, biomass, wave, and tidal power. Lastly, it calls for enhanced international cooperation, particularly between Vietnam and the Netherlands, in adapting to climate change and water management.</t>
+          <t>Tác giả đề xuất một số biện pháp để khắc phục tình trạng ngập lụt do nước biển dâng tại tỉnh Bạc Liêu. Đầu tiên, tác giả đề cập đến việc quy hoạch lại hệ thống kênh, vét kênh tạo dòng chảy nhằm chia sẻ lượng nước trên các con sông với nhau. Điều này giúp cân đối lượng nước, giảm thiểu nguy cơ ngập lụt khi có biến động về mực nước biển.
+Tiếp theo, tác giả cũng đề nghị xây dựng hệ thống đê điều hợp lý ngăn nước biển và hệ thống đập ngăn mặn ngăn nước biển xâm nhập vào đồng ruộng. Việc này không chỉ giúp giảm thiệt hại do xâm nhập mặn gây ra mà còn bảo vệ các khu vực sản xuất nông nghiệp, giảm thiểu nguy cơ thiếu nước ngọt trong sinh hoạt và sản xuất.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1346,20 +1343,20 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed list of proposed solutions to mitigate the negative effects of sea level rise and saltwater intrusion into farmlands in the Bạc Liêu province. It does not contain any noticeable mistakes. However, it could be more concise.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the measures proposed by the author to address the issue of flooding due to sea level rise in Bac Lieu province. The answer is also correct as it accurately reflects the content of the user's query.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>In the context of the Mekong Delta region's vulnerability to sea level rise, describe the simulation model researched to understand the impact on agricultural production areas. How does the model account for the various geographical and infrastructural elements in the region?</t>
+          <t>Trong nghiên cứu mô phỏng mô hình xâm lấn do nước biển dâng ảnh hưởng đến khu vực sản xuất nông nghiệp tại khu vực ĐBSCL, hãy mô tả quá trình xác định hướng nước biển xâm lấn và cách thức xây dựng bản đồ số thể hiện quá trình ngập úng, ngập mặn địa hình.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The simulation model used to understand the impact on agricultural production areas in the Mekong Delta region due to sea level rise is a hydrodynamic model. This model uses flow data related to physical data such as river and canal cross-sections, banks or fields. The model aims to improve the description of flood propagation over the floodplain, water exchange between the floodplains and the river channels, the effect of topography and infrastructure on flooding, morphological changes, and bank erosion potential and changes over time. 
-When it comes to saline intrusion, the model takes into account the low slopes of the Mekong and its tributaries’ river beds and the complex of a two tidal regime. This makes the modelling of salinity intrusion for the whole system quite complicated. The results from these models can be used as a technical prerequisite for the development of a regional strategy and action plan to prepare for flood loss prevention and salinity management for the vulnerable agricultural sector.</t>
+          <t>Quá trình xác định hướng nước biển xâm lấn được mô tả như sau: Nước biển từ các cửa sông sẽ chảy theo sông và kênh vào phía trong nội đồng. Càng vào trong thì lượng nước sẽ giảm do tràn và thấm vào đất tương ứng với hệ số dòng sông và kênh giảm. Nước biển chảy theo sông/kênh sẽ thấm vào đất hoặc tràn lên đất (nếu mực nước cao hơn độ cao của địa hình) làm cho đất bị ngập úng và nhiễm mặn.
+Về việc xây dựng bản đồ số thể hiện quá trình ngập úng, ngập mặn địa hình, nghiên cứu đã tiến hành xây dựng bản đồ số thể hiện quá trình ngập úng, ngập mặn địa hình do nước biển dâng xâm lấn vào vùng sản xuất nông nghiệp trong đất liền thông qua bản đồ theo thời gian. Từ đó đưa ra các thống kê về diện tích ngập theo thời gian, theo từng đơn vị hành chính (cấp tỉnh, cấp huyện) trên địa bàn một tỉnh được chọn thí điểm (tỉnh Bạc Liêu) trong khu vực ĐBSCL cũng đã được mô tả chi tiết trên cơ sở các kịch bản trong quá khứ và cho các giai đoạn trong tương lai.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1374,19 +1371,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the simulation model used to understand the impact of sea level rise on agricultural production areas in the Mekong Delta region. It also explains how the model accounts for various geographical and infrastructural elements in the region. The only reason it doesn't get a perfect score is because it doesn't explicitly mention how the model accounts for infrastructural elements, although it does mention the effect of infrastructure on flooding.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the process of determining the direction of sea water intrusion and the construction of a digital map showing the process of flooding and salinization of the terrain. The answer is complete and accurate, with no errors or omissions.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Based on the analysis and comparison of desalination technologies used in Vietnam and worldwide, which technology was identified as having the greatest potential for application in rural villages in the Mekong Delta? Explain why this technology is considered the most effective for desalinating groundwater contaminated by salinity.</t>
+          <t>Trong bối cảnh hạn và xâm nhập mặn tại Đồng bằng sông Cửu Long, công nghệ nào được đánh giá có tiềm năng ứng dụng cao nhất để khử mặn và làm ngọt hóa nguồn nước ngầm đang bị nhiễm mặn? Hãy giải thích lý do vì sao công nghệ này được lựa chọn.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The technology identified as having the greatest potential for application in rural villages in the Mekong Delta is electrodialysis. This technology was chosen based on an analysis and comparison of various desalination technologies used in Vietnam and worldwide. The study found that electrodialysis has the highest potential for application due to its effectiveness in desalinating groundwater that has been contaminated by salinity, thus ensuring the provision of safe and sufficient water for rural communities in the Mekong Delta.</t>
+          <t>Công nghệ ED (Electrodialysis) được đánh giá có tiềm năng ứng dụng cao nhất để khử mặn và làm ngọt hóa nguồn nước ngầm đang bị nhiễm mặn. Lý do là công nghệ ED sử dụng nguồn điện một chiều, do đó rất phù hợp để sử dụng nguồn năng lượng mặt trời (nguồn một chiều). Bởi vì tiêu thụ năng lượng ít hơn công nghệ RO (Reverse Osmosis), nên chi phí đầu tư cho hệ thống điện năng lượng mặt trời sẽ ít hơn. Hơn nữa, chi phí đầu tư và vận hành hệ thống khử mặn nước lợ với tổng chất rắn hòa tan-TDS- dưới 5000mg/lít, thì sử dụng công nghệ ED có chi phí rẻ hơn loại công nghệ RO.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1401,19 +1398,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be correct, providing a specific technology (electrodialysis) and explaining why it is considered effective for desalinating groundwater contaminated by salinity in the Mekong Delta. However, without a reference answer, it's not possible to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why the ED (Electrodialysis) technology is considered to have the highest potential for desalination and sweetening of saline-contaminated groundwater. The answer could be improved by providing more context or examples, but overall it is very informative and accurate.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>What are the two types of desalination technologies mentioned in the text and how do they differ in terms of energy consumption and suitability for use in rural areas of Vietnam?</t>
+          <t>Theo nghiên cứu, công nghệ khử mặn nào có chi phí đầu tư và vận hành rẻ hơn khi xử lý nước lợ với tổng chất rắn hòa tan (TDS) dưới 5000mg/lít? Vì sao công nghệ này lại có chi phí rẻ hơn?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The two types of desalination technologies mentioned in the text are thermal and membrane. The text specifically highlights electrodialysis (ED), a type of membrane technology, as having the greatest potential for application in rural areas of Vietnam. ED uses direct current electricity, making it suitable for use with solar energy, a direct current source. Because it consumes less energy than reverse osmosis (RO) technology, the investment cost for a solar power system would be lower when using ED.</t>
+          <t>Công nghệ khử mặn ED (Electrodialysis) có chi phí đầu tư và vận hành rẻ hơn khi xử lý nước lợ với tổng chất rắn hòa tan (TDS) dưới 5000mg/lít so với công nghệ RO (Reverse Osmosis). Lý do là công nghệ ED sử dụng nguồn điện một chiều, do đó rất phù hợp để sử dụng nguồn năng lượng mặt trời (nguồn một chiều). Vì tiêu thụ năng lượng ít hơn công nghệ RO, nên chi phí đầu tư cho hệ thống điện năng lượng mặt trời sẽ ít hơn.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1428,48 +1425,46 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and accurate. It correctly identifies the two types of desalination technologies mentioned in the query and provides a detailed explanation of their energy consumption and suitability for use in rural areas of Vietnam. The only reason it doesn't get a perfect score is because it doesn't explicitly compare the energy consumption of thermal and membrane technologies.</t>
+          <t>The generated answer is relevant and correct. It accurately identifies Electrodialysis (ED) as a desalination technology with lower investment and operating costs for treating brackish water with a total dissolved solids (TDS) under 5000mg/liter compared to Reverse Osmosis (RO). It also provides a valid reason for the lower cost, which is the lower energy consumption of ED technology, making it suitable for using solar energy. The answer could be improved by providing more detailed cost comparisons or more specific data to support the claim.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Based on the six standards mentioned in the text, describe the requirements for a desalination system to be effective and economically viable in rural communities in Vietnam.</t>
+          <t>Liệt kê và giải thích 6 tiêu chuẩn được áp dụng cho một hệ thống khử mặn quy mô cụm dân cư nông thôn ĐBSCL theo nghiên cứu.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>An effective and economically viable desalination system in rural communities in Vietnam would need to adhere to several standards. Firstly, it should enhance awareness and understanding among leaders, officials, and people about the importance of Resolution 120 and the Planning Law No. 21/2017/QH14. Secondly, it should review and halt the implementation of outdated or inappropriate plans, especially those that have significant impacts on a wide area and affect the ecosystem, biodiversity, and natural conditions of the Mekong Delta.
-Thirdly, comprehensive assessments of the economic, social, and environmental aspects of large projects implemented in the past should be conducted to learn lessons before considering other large projects. Fourthly, it should decisively prevent the expansion of dyke areas to maintain and restore freshwater storage areas during the flood season. Fifthly, it should reduce the number of coal-fired power plants and encourage and facilitate investment in the development of renewable energy sources such as solar, wind, biomass, wave, and tidal power.
-Lastly, it should enhance international cooperation, especially between Vietnam and the Netherlands, according to the strategic partnership agreement on climate change adaptation and water management.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến 6 tiêu chuẩn được áp dụng cho một hệ thống khử mặn quy mô cụm dân cư nông thôn ĐBSCL.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The generated answer is somewhat relevant to the user query as it discusses standards for environmental projects in Vietnam. However, it does not specifically address the requirements for a desalination system to be effective and economically viable in rural communities in Vietnam. The answer seems to be more focused on general environmental and energy policies rather than on the specifics of desalination systems.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the 6 standards applied to a desalination system for a rural residential cluster in the Mekong Delta region as per the research.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Based on the research paper "Lựa chọn mô hình sản xuất của hộ trồng lúa trong điều kiện xâm nhập mặn ở đồng bằng sông cửu long" by Khôi and Khải, what are the key factors that influence a rice farmer's decision to choose integrated rice farming in the Mekong River Delta?</t>
+          <t>Theo nghiên cứu, công nghệ nào được đề xuất để khử mặn cho các cụm dân cư nông thôn vùng ĐBSCL? Hãy nêu các lý do mà nghiên cứu đưa ra để lựa chọn công nghệ này.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The key factors that influence a rice farmer's decision to choose integrated rice farming in the Mekong River Delta include land area, levels of education, members generating main income, saline intrusion, sources of water for irrigation, and bank loan status. Among these, land area and saline intrusion are the most significant factors.</t>
+          <t>Công nghệ điện thẩm tách (Electrodialysis – ED) được đề xuất để khử mặn cho các cụm dân cư nông thôn vùng ĐBSCL. Các lý do mà nghiên cứu đưa ra để lựa chọn công nghệ này bao gồm: công nghệ ED có chi phí rẻ hơn công nghệ RO khi xử lý nước lợ có tổng chất rắn hòa tan (TDS) dưới 5000mg/lít; công nghệ ED sử dụng nguồn điện một chiều, phù hợp để sử dụng nguồn năng lượng mặt trời; và do tiêu thụ năng lượng ít hơn công nghệ RO, nên chi phí đầu tư cho hệ thống điện năng lượng mặt trời sẽ ít hơn.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1484,19 +1479,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive list of factors that influence a rice farmer's decision to choose integrated rice farming in the Mekong River Delta. It also highlights the most significant factors among them.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response. It correctly identifies the technology proposed for desalination in rural communities in the Mekong Delta region and provides the reasons for this choice as requested in the query.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>According to the data from the Disaster Prevention and Mitigation Center of the Ministry of Agriculture and Rural Development, what is the salinity level considered as saline intrusion and how far has this salinity intrusion been measured in the Tiền and Hậu rivers?</t>
+          <t>Trong nghiên cứu "Lựa chọn mô hình sản xuất của hộ trồng lúa trong điều kiện xâm nhập mặn ở đồng bằng sông cửu long" của Khôi và Khải, hãy liệt kê các yếu tố ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang lúa – tôm và lúa – cá.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>The context does not provide information on the salinity level considered as saline intrusion according to the Disaster Prevention and Mitigation Center of the Ministry of Agriculture and Rural Development, nor does it mention how far this salinity intrusion has been measured in the Tiền and Hậu rivers.</t>
+          <t>Các yếu tố ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang lúa – tôm bao gồm diện tích đất, trình độ học vấn, lao động chính, nhập mặn, nguồn nước và vay vốn. Đối với mô hình lúa – cá, các yếu tố tác động đến xác suất chuyển đổi bao gồm trình độ học vấn, nhập mặn, và nguồn nước.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1506,26 +1501,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any relevant or correct information in response to the user's query. It simply states that the information is not available, which does not answer the question.</t>
+          <t>The generated answer is relevant and appears to be fully correct, providing a detailed list of factors that influence the probability of transitioning from a rice farming model to a rice-shrimp or rice-fish model. It directly addresses the user's query without any noticeable errors or omissions.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>What are some of the national solutions that have been implemented to control salt intrusion, as mentioned in the document? How effective have these solutions been, particularly in coastal provinces like Cà Mau, Sóc Trăng, and Trà Vinh?</t>
+          <t>Theo Trung tâm phòng tránh và giảm nhẹ thiên tai thuộc Bộ Nông nghiệp và Phát triển Nông thôn, mức độ mặn nào được xem là bị xâm nhập mặn? Hãy mô tả tình hình xâm nhập mặn ở sông Tiền và sông Hậu.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Several national solutions have been implemented to control salt intrusion. These include enhancing awareness and understanding of the importance of Resolution 120 and the Planning Law No. 21/2017/QH14 among leaders, officials, and citizens. There has also been a review of old plans and projects that are no longer suitable or contrary to the spirit of the Resolution, with a particular focus on large projects that have a significant impact on a wide area and affect the ecosystem, biodiversity, and natural conditions of the Mekong Delta.
-Other measures include comprehensive assessments of the economic, social, and environmental aspects of large projects that have been implemented in the past, to learn lessons before considering other large projects. There is a firm stance against expanding dyke areas, in order to maintain and restore freshwater storage areas during the flood season. The number of coal-fired power plants is being reduced, while encouraging and facilitating investment in the development of renewable energy sources such as solar, wind, biomass, wave, and tidal power. International cooperation is also being strengthened, especially between Vietnam and the Netherlands, according to a strategic partnership agreement on climate change adaptation and water management.
-However, the effectiveness of these solutions has not been fully evaluated in the context. The document does mention that current adaptation options have some limitations, as they do not fully consider the differences in terms of ecological, social, and economic environment. The vulnerability of people highly depends on these conditions, so future adaptation strategies should take these issues into account to benefit different social groups, especially the most vulnerable.</t>
+          <t>Mức độ mặn 4‰ được Trung tâm phòng tránh và giảm nhẹ thiên tai thuộc Bộ Nông nghiệp và Phát triển Nông thôn xác định là bị xâm nhập mặn. Tuy nhiên, tình hình ở sông Tiền và sông Hậu nghiêm trọng hơn nhiều, với số liệu đo độ mặn cho kết quả trên 45‰. Độ mặn này kéo dài và xâm nhập sâu tới 70 km tính từ cửa sông, thậm chí có thời điểm độ mặn xâm nhập sâu đến 85 km.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1540,23 +1533,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the national solutions implemented to control salt intrusion. It also discusses the effectiveness of these solutions, although it does not specifically mention the coastal provinces like Cà Mau, Sóc Trăng, and Trà Vinh. The answer is comprehensive and accurate, but the lack of specific information about the mentioned provinces prevents it from receiving a perfect score.</t>
+          <t>The generated answer is relevant and appears to be correct, providing specific information about the salinity level considered as salt intrusion and describing the situation in the Tien and Hau rivers. However, without a reference answer, it's difficult to confirm the absolute accuracy of the details provided.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Based on the research findings, how has salt intrusion affected the quality of the environment and the agricultural practices of farmers? How do the studies of Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007) support the trend of adapting production to natural conditions and proactively reducing the impact of climate change?</t>
+          <t>Hãy nêu một số giải pháp cấp quốc gia đã được áp dụng để kiểm soát xâm nhập mặn? Tại sao các tỉnh ven biển như Cà Mau, Sóc Trăng và Trà Vinh lại dễ bị tổn thương bởi xâm nhập mặn?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Salt intrusion has had a significant impact on the environment and agricultural practices in the Mekong Delta. It has been found to decrease the productivity and revenue share of rice crops, as well as aquaculture production. However, it has also led to an increase in the revenue share of industrial crops, particularly coconut, which is a salt-resistant crop. This suggests that farmers are adopting new crops and switching crops as a mechanism for risk diversification, helping them secure their income against salinization shocks.
-In terms of land use, higher salinity intrusion is associated with decreases in farmers' land used for rice and their general land used for agriculture. Salinization has also been found to affect labor supply, reducing it in agriculture for those without agricultural land, while those with agricultural land do not see a change in labor supply due to higher salinity.
-Salinization also reduces farmer households' income and consumption. However, it has been found to increase household spending on education, potentially indicating farmers' increased investment to acquire new skills. 
-In terms of adaptation, the evidence on out-migration for off-farm work in urban centers is mixed, but there is support for the hypothesis that a more developed local credit market plays a positive role in easing the income losses incurred by farmers during salinization shocks.
-Unfortunately, the context does not provide information on the studies of Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007), so it's not possible to comment on how these studies support the trend of adapting production to natural conditions and proactively reducing the impact of climate change.</t>
+          <t>Một trong những giải pháp cấp quốc gia đã được áp dụng để kiểm soát xâm nhập mặn là dự án xây dựng hệ thống kênh rạch dẫn nước ở Đồng bằng sông Cửu Long. Các tỉnh ven biển như Cà Mau, Sóc Trăng và Trà Vinh dễ bị tổn thương bởi xâm nhập mặn do chúng có tỷ lệ hộ trồng lúa và diện tích lúa bị nhiễm mặn lớn nhất trong vùng. Các mô hình trồng lúa chuyên canh 3 vụ lúa hoặc 2 vụ lúa cũng dễ tổn thương với xâm nhập mặn do nước mặn sẽ kìm hãm sự phát triển sinh lý của cây lúa.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1571,19 +1560,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The generated answer provides a comprehensive explanation of how salt intrusion affects the environment and agricultural practices, including impacts on crop productivity, land use, labor supply, and household income. It also discusses the adaptation strategies of farmers. However, it does not address the second part of the user's query about the studies of Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007), which results in a slight deduction in the score.</t>
+          <t>The generated answer is relevant and mostly correct. It provides a solution that has been implemented at the national level to control saltwater intrusion and explains why coastal provinces like Ca Mau, Soc Trang, and Tra Vinh are vulnerable to saltwater intrusion. However, it could have included more diverse solutions for a more comprehensive answer.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Based on the research findings, what are the trends in farming adaptations to climate change in South America as per the studies by Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007)?</t>
+          <t>Theo nghiên cứu, hãy mô tả xu hướng chuyển đổi sản xuất của nông dân ở Nam Mỹ để thích ứng với điều kiện tự nhiên và giảm bớt tác động của biến đổi khí hậu. Hãy đưa ra các ví dụ cụ thể từ các nghiên cứu của Gbetibouo &amp; Hassan (2005), Seo &amp; Mendelsohn (2007) để hỗ trợ câu trả lời của bạn.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The context does not provide information on the trends in farming adaptations to climate change in South America as per the studies by Gbetibouo &amp; Hassan (2005), and Seo &amp; Mendelsohn (2007).</t>
+          <t>Rất tiếc, thông tin cung cấp không đưa ra chi tiết cụ thể về xu hướng chuyển đổi sản xuất của nông dân ở Nam Mỹ để thích ứng với điều kiện tự nhiên và giảm bớt tác động của biến đổi khí hậu, cũng như không có ví dụ cụ thể từ các nghiên cứu của Gbetibouo &amp; Hassan (2005), Seo &amp; Mendelsohn (2007).</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1598,24 +1587,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any information relevant to the user's query about the trends in farming adaptations to climate change in South America according to the specified studies.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for a description of the trend of farmers in South America adapting to natural conditions and mitigating the impact of climate change, with specific examples from the studies of Gbetibouo &amp; Hassan (2005), Seo &amp; Mendelsohn (2007). The generated answer does not provide any of this information.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Analyze the data provided on the distribution of rice farming models in the research area. What are the differences in education level and gender distribution among the households practicing monoculture and combined rice farming?</t>
+          <t>Dựa trên kết quả nghiên cứu, hãy phân tích sự khác biệt giữa các hộ trồng lúa chuyên canh và hộ trồng lúa kết hợp về tỷ lệ, mô hình sản xuất, trình độ học vấn của chủ hộ và tỷ lệ vay vốn. Hãy đưa ra giả thuyết về nguyên nhân của những khác biệt này.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The context does not provide specific information on the distribution of education level and gender among households practicing monoculture and combined rice farming.</t>
+          <t>Các hộ trồng lúa chuyên canh chiếm 51,64% trong khi hộ trồng lúa kết hợp chiếm 48,36%. Mô hình lúa-màu và lúa-cá có tỷ lệ cao hơn so với mô hình lúa-tôm. Chủ hộ trồng lúa chuyên canh có trình độ học vấn từ cấp 3 trở lên chiếm tỷ lệ thấp hơn so với nhóm hộ trồng lúa kết hợp, với tỷ lệ 32,33% so với 40,21%. Tuy nhiên, tỷ lệ phân bổ giới tính của chủ hộ thiên về nam giới với tỷ lệ trên 90% và không có sự khác biệt đáng kể giữa hai mô hình. Chủ hộ trồng lúa chuyên canh có tỷ lệ vay vốn là 86% so với tỷ lệ vay vốn 79% của nhóm hộ trồng lúa kết hợp.
+Nguyên nhân của những khác biệt này có thể do các yếu tố như diện tích đất, tuổi chủ hộ, học vấn, và nguồn nước. Các hộ có diện tích sản xuất lớn thường thực hiện chuyển đổi sang mô hình lúa – tôm nhiều hơn, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi. Trong khi đó, hộ trồng lúa càng có diện tích đất sản xuất ít, sẽ không đủ điều kiện tạo ra thu nhập cho gia đình ổn định và nguồn lực để chuyển đổi.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1625,19 +1615,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and correctly states that the provided context does not contain the specific information asked for. However, it does not attempt to provide any further analysis or insight, which could have improved the response.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the differences between specialized rice farming households and combined rice farming households in terms of proportion, production model, education level of the household head, and loan rate. It also hypothesizes the reasons for these differences. The answer is comprehensive and appears to be accurate, although without a reference answer, it's hard to confirm the exact accuracy. However, based on the information provided, it seems to be a well-researched and well-presented response.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Based on the research paper, how does the salinity intrusion affect the probability of transitioning from specialized rice cultivation to a rice-shrimp model? What is the significance level of this correlation?</t>
+          <t>Theo nghiên cứu, xâm nhập mặn có tương quan thuận với xác suất chuyển đổi từ lúa chuyên canh sang lúa – tôm ở mức ý nghĩa là bao nhiêu phần trăm? Hãy giải thích tác động biên của xâm nhập mặn đối với xác suất chuyển đổi này.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The research paper does not provide specific information on the impact of salinity intrusion on the probability of transitioning from specialized rice cultivation to a rice-shrimp model, nor does it mention the significance level of such a correlation.</t>
+          <t>Xâm nhập mặn có tương quan thuận với xác suất chuyển đổi từ lúa chuyên canh sang lúa – tôm ở mức ý nghĩa là 1%. Tác động biên của xâm nhập mặn cho thấy xác suất chuyển đổi từ lúa chuyên canh sang lúa tôm cao hơn hộ trồng lúa trong điều kiện không xâm nhập mặn là 13,8 điểm phần trăm.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1652,24 +1642,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query, but it does not provide a definitive answer to the question. It is possible that the information is not available in the research paper, but without a reference answer or the actual paper, it's hard to confirm the correctness of the response.</t>
+          <t>The generated answer is relevant to the user query and provides specific information about the correlation between saltwater intrusion and the probability of conversion from specialized rice cultivation to rice-shrimp farming. However, without a reference answer, it's hard to verify the correctness of the specific percentages provided.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>According to the document, what are the significant variables that explain the probability of transitioning from specialized rice cultivation to a rice-shrimp model? How do land area and salinity intrusion influence this transition?</t>
+          <t>Liệt kê các biến có ý nghĩa giải thích cho xác suất chuyển đổi mô hình từ chuyên canh lúa sang lúa – màu theo nghiên cứu. Trình bày cách mà diện tích đất và xâm nhập mặn ảnh hưởng đến quyết định chuyển đổi mô hình canh tác.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The document does not provide specific information on the significant variables that explain the probability of transitioning from specialized rice cultivation to a rice-shrimp model, nor does it detail how land area and salinity intrusion influence this transition.</t>
+          <t>Các biến có ý nghĩa giải thích cho xác suất chuyển đổi mô hình từ chuyên canh lúa sang lúa – màu bao gồm: diện tích đất, tuổi chủ hộ, học vấn cấp 1, học vấn cấp 2, và nguồn nước.
+Diện tích đất và xâm nhập mặn đều ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang mô hình lúa kết hợp. Những hộ có diện tích sản xuất lớn thường thực hiện chuyển đổi sang mô hình lúa – tôm nhiều hơn, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi sang mô hình tôm – lúa. Trong khi đó, hộ trồng lúa càng có diện tích đất sản xuất ít, sẽ không đủ điều kiện tạo ra thu nhập cho gia đình ổn định và nguồn lực để chuyển đổi để có thể chuyển đổi cơ cấu sản xuất nhằm tạo ra thu nhập cao hơn trong tương lai.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1679,46 +1670,46 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query, but it's not possible to determine its correctness without a reference answer or the original document. The answer is also somewhat vague, stating that the document doesn't provide the requested information without offering any additional details or context.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the variables that influence the probability of transitioning from rice cultivation to a rice-shrimp model. It also explains how land area and saltwater intrusion affect this decision. However, it does not fully explain how saltwater intrusion specifically impacts the decision, which is why it does not receive a perfect score.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>What are the key factors that influence the probability of transitioning from specialized rice farming to the rice-shrimp model, as identified in the research paper "Nghiên cứu vận hành công trình thủy lợi trong điều kiện xâm nhập mặn: trường hợp nghiên cứu tại huyện vũng liêm, tỉnh vĩnh long" by Lavane et al.?</t>
+          <t>Theo nghiên cứu, yếu tố nào quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất từ lúa chuyên canh sang lúa tôm và lúa cá?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The context does not provide information on the key factors that influence the probability of transitioning from specialized rice farming to the rice-shrimp model as identified in the research paper "Nghiên cứu vận hành công trình thủy lợi trong điều kiện xâm nhập mặn: trường hợp nghiên cứu tại huyện vũng liêm, tỉnh vĩnh long" by Lavane et al.</t>
+          <t>Yếu tố quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất từ lúa chuyên canh sang lúa tôm và lúa cá là xâm nhập mặn và diện tích đất.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the topic of the research paper mentioned. However, it does not provide any specific factors that influence the transition from specialized rice farming to the rice-shrimp model, which is what the user asked for. Therefore, it is not fully correct.</t>
+          <t>The generated answer is relevant and seems correct, providing specific factors that could influence the decision to switch from specialized rice cultivation to shrimp and fish rice. However, without a reference answer, it's hard to confirm the absolute correctness of the response.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>According to the same research, how do land area and salinity intrusion affect the trend of transitioning to the rice-shrimp or rice-fish model? What contradictions in economic benefits of these models are suggested in the context of salinity intrusion in the region?</t>
+          <t>Theo kết quả nghiên cứu, diện tích đất và nhiễm mặn có ảnh hưởng như thế nào đến xu hướng chuyển đổi sang mô hình lúa – tôm hoặc lúa – cá?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The context does not provide specific information on how land area and salinity intrusion affect the trend of transitioning to the rice-shrimp or rice-fish model. Similarly, it does not mention any contradictions in economic benefits of these models in the context of salinity intrusion in the region.</t>
+          <t>Diện tích đất và nhiễm mặn có ảnh hưởng trái ngược nhau đối với xu hướng chuyển đổi sang mô hình lúa – tôm hoặc lúa – cá. Cụ thể, diện tích đất lớn thường thúc đẩy xu hướng chuyển đổi sang mô hình lúa – tôm, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi sang mô hình này. Ngược lại, nếu diện tích đất sản xuất ít, hộ sẽ không đủ điều kiện tạo ra thu nhập ổn định cho gia đình và nguồn lực để chuyển đổi, do đó hạn chế xu hướng chuyển đổi. Trong khi đó, nhiễm mặn có ảnh hưởng đến xu hướng chuyển đổi mô hình canh tác, nhưng không rõ ràng ảnh hưởng đến xu hướng chuyển đổi sang mô hình lúa – màu.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1733,19 +1724,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any information or answer to the user's query. It simply states that the context does not provide the necessary information, which is not helpful or relevant to the user's question.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how land area and salinity affect the trend of transitioning to rice-shrimp or rice-fish farming models. However, there is a minor mistake in the last sentence where it mentions "rice-color" model which seems to be a mistranslation or typo.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Based on the research paper, what were the two conditions under which the Nang Am sluice-gate was operated from 2015-2021?</t>
+          <t>Trình bày các điều kiện đã được đặt ra để vận hành cống Nàng Âm trong giai đoạn 2015-2021 trong nghiên cứu về vận hành công trình thủy lợi trong điều kiện xâm nhập mặn tại huyện Vũng Liêm, tỉnh Vĩnh Long?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The Nang Am sluice-gate was operated from 2015-2021 under two conditions: the water level and the salinity, with a salinity threshold of 1 g/L.</t>
+          <t>Cống Nàng Âm được vận hành trong giai đoạn 2015-2021 dựa trên hai điều kiện chính. Đầu tiên là mực nước, và thứ hai là độ mặn, với ngưỡng mặn được đặt ở 1 g/L.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1760,46 +1751,47 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and seems to be correct, providing specific conditions under which the Nang Am sluice-gate was operated. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is relevant to the user query and seems to be correct, providing two main conditions for the operation of the Nàng Âm culvert during the period 2015-2021. However, without a reference answer, it's hard to confirm the full accuracy.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>According to the climate change scenarios of the Ministry of Natural Resources and Environment (2016), how do the predicted water levels in 2030 and 2050 under the three scenarios RCP2.6, RCP4.5 and RCP 8.5 compare to the dike-crest elevation?</t>
+          <t>Theo kết quả nghiên cứu, hãy so sánh mực nước trạm Mỹ Thuận hiện tại với mực nước dự báo năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The context does not provide information on the comparison of predicted water levels in 2030 and 2050 under the three scenarios RCP2.6, RCP4.5, and RCP 8.5 to the dike-crest elevation according to the climate change scenarios of the Ministry of Natural Resources and Environment (2016).</t>
+          <t>Rất tiếc, nhưng thông tin cung cấp không đưa ra dữ liệu cụ thể về mực nước trạm Mỹ Thuận hiện tại so với mực nước dự báo năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and does not contain any factual errors. However, it does not provide a direct answer to the question, instead stating that the necessary information is not available.</t>
+          <t>The generated answer is relevant to the user query as it addresses the comparison of water levels at My Thuan station. However, it does not provide the specific information requested, hence it's not fully correct.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Based on the research conducted in Vũng Liêm, Vĩnh Long, what are the current conditions of the irrigation system and how does it relate to the operation of the sluice gates during the dry season under saline intrusion conditions?</t>
+          <t>Hãy mô tả hiện trạng thủy lợi tại huyện Vũng Liêm, tỉnh Vĩnh Long và giải thích tại sao hệ thống đê cần được nâng cấp?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The irrigation system in Vũng Liêm, Vĩnh Long was digitised using QGIS and the dyke elevations were evaluated based on the water level of the My Thuan station, as predicted from climate change scenarios. The Nang Am sluice-gate was chosen for operation from 2015 to 2021 under two conditions: water level and salinity, with a salinity threshold of 1 g/L. The results indicated that the current water level of the My Thuan station, with a frequency of 3%, 5%, and 10%, is lower than the dike-crest elevation (+2.20 m). However, the projected water levels for 2030 and 2050 under three scenarios (RCP2.6, RCP4.5, and RCP 8.5) are higher than the dike-crest elevation. In years with high salinity, such as 2016, 2020, and 2021, the sluice gate was closed for over 25% of the time during the dry months.</t>
+          <t>Hiện trạng công trình thủy lợi tại huyện Vũng Liêm, tỉnh Vĩnh Long đã được số hóa bằng QGIS và các cao trình đê bao được đánh giá theo mực nước trạm Mỹ Thuận dự báo từ các kịch bản biến đổi khí hậu. Cống Nàng Âm được chọn để vận hành theo điều kiện mực nước và độ mặn. Mực nước trạm Mỹ Thuận hiện tại với tần suất 3%, 5% và 10% thấp hơn cao trình đỉnh đê (+2,20 m). Tuy nhiên, mực nước tương ứng năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5 đều cao hơn cao trình đỉnh đê. Trong những năm có độ mặn cao như 2016, 2020 và 2021 thì thời gian đóng cống trong các tháng mùa khô là trên 25%.
+Hệ thống đê cần được nâng cấp vì mực nước dự báo trong tương lai theo các kịch bản biến đổi khí hậu sẽ cao hơn cao trình đỉnh đê. Điều này có thể gây ra nguy cơ ngập lụt, đặc biệt trong bối cảnh biến đổi khí hậu và xâm nhập mặn ngày càng nghiêm trọng.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1814,23 +1806,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the current conditions of the irrigation system in Vũng Liêm, Vĩnh Long. It also explains how the operation of the sluice gates during the dry season is affected by saline intrusion conditions. The answer is comprehensive and appears to be accurate, although without a reference answer, it's not possible to confirm every detail. The score is not a perfect 5 due to the lack of a reference answer for complete verification.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the current state of irrigation in Vũng Liêm district, Vĩnh Long province. It also explains why the dike system needs to be upgraded, citing future water level predictions and climate change scenarios. The answer is accurate and comprehensive, but it could be slightly more concise.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>In the paper titled "Quản lý tài nguyên nước bền vững, ứng phó với biến đổi khí hậu ở Đồng bằng sông Cửu Long" by PGS. TS Lê Anh Tuấn, what are the key challenges faced by the Mekong Delta and what are the key findings from the various technical reports related to water resource management and climate change adaptation?</t>
+          <t>Theo bài viết "Quản lý tài nguyên nước bền vững, ứng phó với biến đổi khí hậu ở Đồng bằng sông Cửu Long" của PGS. TS Lê Anh Tuấn, ĐBSCL đang đối mặt với những vấn đề gì và Thủ tướng Nguyễn Xuân Phúc đã có những hành động nào để giải quyết những vấn đề này?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Mekong Delta faces several key challenges, including salinity intrusion, freshwater scarcity, and ebb tide influences, which have been increasing in recent years. These hazards have a direct impact on production and the livelihoods of the local people. Other challenges include unpredictable weather changes, market price fluctuations, environmental pollution, and shrimp diseases, which further complicate production.
-To cope with these hazards, the local government and people have developed strategies such as dyke building, farming technical changes, financial support for production recovery from disasters, underground water exploitation, and income diversification. However, these adaptation options have limitations as they do not fully consider the differences in ecological, social, and economic environments. The vulnerability of people highly depends on these conditions.
-In terms of water resource management, the planning in the Mekong Delta is quite "top-down", with villagers and farmers playing a minor role. The water control infrastructure systems suffer from many shortcomings and challenges in terms of both their structure and management. There are two water quantity problems and three main water quality problems that limit agricultural production: Salinity intrusion, floods, acid sulfate soils, polluted water, and fresh water shortages.
-Regarding floods, the Mekong Delta, due to its location, receives the total volume of floodwaters from upstream. About 50 percent of the Mekong Delta experiences flooding, and these areas are susceptible to serious damage by floods about every five years. Major flooding is now likely to occur even more frequently than the “once in two or three years” average. High floods result in loss of life and cause millions of dollars worth of damage to houses, infrastructure, and crops. However, floods are also perceived by many farmers and scientists not only as a “disaster” but also as a natural phenomenon that brings multiple replenishing and revitalizing benefits.
-The paper suggests that future adaptation strategies should take into account the above issues in order to benefit different social groups, especially the most vulnerable.</t>
+          <t>Đồng bằng sông Cửu Long (ĐBSCL) đang đối mặt với nhiều vấn đề như tranh chấp nước giữa các địa phương sử dụng chung hệ thống thủy lợi, tình trạng biến đổi khí hậu và xâm nhập mặn cực đoan, mất diện tích tưới tiêu do úng, nhiễm mặn, khai thác quá tải nước ngầm và sự phát triển của đô thị. Để giải quyết những vấn đề này, Thủ tướng Chính phủ đã ký Quyết định số 417/QĐ-TTg về việc ban hành Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng với biến đổi khí hậu. Chương trình này đề ra 6 nhóm nhiệm vụ và giải pháp cụ thể chính, bao gồm rà soát, hoàn thiện và bổ sung hệ thống cơ chế, chính sách, cập nhật và hệ thống hóa số liệu, dữ liệu liên ngành, xây dựng quy hoạch và tổ chức không gian lãnh thổ, xây dựng cơ cấu kinh tế hợp lý thích ứng với biến đổi khí hậu, đầu tư và phát triển hạ tầng, và phát triển và huy động nguồn lực.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1845,20 +1833,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive overview of the key challenges faced by the Mekong Delta as well as the findings from technical reports related to water resource management and climate change adaptation. The answer could be slightly more concise, hence the score is not a perfect 5.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the issues facing the Mekong Delta and the actions taken by Prime Minister Nguyen Xuan Phuc to address these issues. The answer could be improved by providing more specific examples or details about the actions taken.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Based on the text, what are the two main impacts on the flow in the Mekong Delta region, and how do they affect the region during different times of the year?</t>
+          <t>Hãy mô tả hai tác động dòng chảy mà Đồng bằng sông Cửu Long đang chịu và thời gian diễn ra của chúng trong năm?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>The two main impacts on the flow in the Mekong Delta region are flooding and salinity intrusion. Flooding is a significant issue, particularly during the yearly September-October flood period, known locally as mùa nước nổi (water rising season). This flooding can cause loss of life and significant damage to houses, infrastructure, and crops. However, it also brings benefits such as fertile sediment, fish spawning, and improved water quality. 
-On the other hand, salinity intrusion, which is particularly prevalent from March to May, occurs when not enough river discharge is flowing to the low-lying estuaries, allowing salt water to flow into the land. This intrusion can restrict the use of canal water for domestic and industrial uses, cause corrosion of metal materials, and make vegetables and other crops scarce in the affected areas. However, it also has some positive effects, such as reducing acidity in potential acid sulphate soil land and enabling farmers to implement a more varied production scheme to raise shrimp during the dry season.</t>
+          <t>Đồng bằng sông Cửu Long đang chịu hai tác động dòng chảy. Một là dòng chảy của sông Mekong từ thượng nguồn đổ về. Thứ hai là dòng triều do tác động biển xâm nhập vào đất liền. Thời gian bị ngập lũ, thường do dòng chảy của sông Mekong, diễn ra từ tháng 8 đến tháng 10. Trong khi đó, từ tháng 1 đến tháng 4 là thời gian bị tác động mạnh mẽ của hiện tượng xâm nhập mặn và khô hạn, thường do dòng triều biển.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1873,19 +1860,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the two main impacts on the flow in the Mekong Delta region, including how they affect the region during different times of the year. It also provides additional context and details that enhance the understanding of the topic.</t>
+          <t>The generated answer is relevant and accurate. It correctly describes the two types of water flow impacts that the Mekong Delta is experiencing and the time of year they occur. The only reason it doesn't get a perfect score is because it could be a bit more detailed in describing the impacts of these phenomena.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>According to the mathematical models mentioned in the text, what changes are predicted for the Mekong Delta region in terms of average temperature and rainfall in the next 30 years, and how might these changes affect agriculture in the region?</t>
+          <t>Theo kết quả phỏng đoán từ các mô hình toán, hãy nêu những thay đổi về nhiệt độ và lượng mưa trung bình dự kiến sẽ xảy ra trong thập niên 2030-2040 ở Đồng bằng sông Cửu Long?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The text does not provide specific information on the predicted changes in average temperature and rainfall in the Mekong Delta region over the next 30 years according to mathematical models, nor does it discuss how such changes might affect agriculture in the region.</t>
+          <t>Trong thập kỷ 2030-2040, nhiệt độ trung bình cũng như nhiệt độ lớn nhất và nhỏ nhất tại Đồng bằng sông Cửu Long dự kiến sẽ tăng, với mức tăng phổ biến khoảng 20˚C. Đồng thời, tổng lượng mưa trung bình trong khu vực này cũng dự đoán sẽ giảm, phổ biến từ 10 đến 20%, làm tăng khó khăn trong việc cung cấp nước ngọt cho canh tác lúa.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1900,19 +1887,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and it is correct in stating that the text does not provide the specific information asked for. However, it could have been more helpful by suggesting where such information might be found or by providing general information on the effects of temperature and rainfall changes on agriculture.</t>
+          <t>The generated answer is relevant to the user query and provides a detailed prediction for the changes in temperature and rainfall in the Mekong Delta region for the decade 2030-2040. However, the prediction of a 20˚C increase in temperature seems a bit extreme and might be a mistake.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>What are the potential impacts of global warming and rising sea levels on low-lying coastal areas, specifically in the Mekong Delta region, as discussed in the document "researched_paper_cleanup.txt"?</t>
+          <t>Theo Ủy ban Liên chính phủ về BĐKH, vùng nào là một trong ba vùng đồng bằng ven biển sẽ bị tác động nghiêm trọng nhất do BĐKH và nước biển dâng so với các nơi khác trên thế giới?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>The document does not provide specific information on the impacts of global warming and rising sea levels on low-lying coastal areas, particularly in the Mekong Delta region.</t>
+          <t>Vùng ĐBSCL là một trong ba vùng đồng bằng ven biển sẽ bị tác động nghiêm trọng nhất do BĐKH và nước biển dâng so với các nơi khác trên thế giới, theo Ủy ban Liên chính phủ về BĐKH.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1927,21 +1914,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the topic of global warming and rising sea levels' impact on the Mekong Delta region. However, it does not provide any specific information or details, which makes it impossible to judge its correctness.</t>
+          <t>The generated answer is relevant and correct, providing the information that the Mekong Delta (ĐBSCL) is one of the three coastal plains most severely affected by climate change and sea level rise, according to the Intergovernmental Panel on Climate Change (Ủy ban Liên chính phủ về BĐKH). The answer could be slightly more detailed, hence the score is not a full 5.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>According to the document, what are the dual impacts that the delta region is facing, and how do industrial and agricultural activities in the region contribute to these impacts?</t>
+          <t>Theo dự đoán, nếu không kiểm soát được hiện tượng nóng lên toàn cầu, hậu quả nào có thể xảy ra đối với các vùng đất thấp ven biển ĐBSCL vào cuối thế kỷ XXI?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>The delta region is facing the dual impacts of floods and salinity intrusion. Floods occur when excess water upstream flows over river banks or dykes to the floodplain, and they can cause prolonged deep inundation, river bank erosion, and transportation difficulties. However, they also have multiple replenishing and revitalizing benefits such as providing fertile sediment, aiding fish spawning, improving water quality, and reducing fire risk. 
-On the other hand, salinity intrusion occurs when not enough river discharge is flowing to the low-lying estuaries and instead salt water flows into the land. This can damage crops, restrict the use of canal water for domestic and industrial uses, and cause corrosion of metal materials. However, it also has a positive effect of reducing acidity in potential acid sulphate soil land and enabling farmers to implement a more varied production scheme to raise shrimp during the dry season.
-Industrial and agricultural activities in the region contribute to these impacts in several ways. For instance, the construction of dams, climate change, and water poor quality are some of the anthropogenic stressors that endanger the Lower Mekong River. Additionally, water resources planning in the Mekong Delta is quite "top-down", with villagers and farmers playing a very minor role in water planning and natural prevention projection processes. This could potentially exacerbate the impacts of floods and salinity intrusion.</t>
+          <t>Nếu không kiểm soát được hiện tượng nóng lên toàn cầu, vào cuối thế kỷ XXI, có thể sẽ có ít nhất 25% diện tích các vùng đất thấp ven biển ĐBSCL có nguy cơ bị chìm ngập do nước biển dâng và lún sụt đồng bằng. Khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô và khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa, khó có thể trồng lúa và một số canh tác khác như chăn nuôi được.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1956,19 +1941,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed explanation of the dual impacts that the delta region is facing, as well as how industrial and agricultural activities contribute to these impacts. The answer is well-structured, clear, and appears to be fully correct, with no mistakes or inaccuracies evident.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed prediction of the potential consequences of global warming on low-lying coastal areas in the Mekong Delta by the end of the 21st century. It includes specific percentages and impacts on agriculture, which adds to its correctness. However, without a reference answer, it's hard to confirm the exact accuracy of these figures, hence the score is not a perfect 5.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>What are the six specific tasks and solutions proposed in the comprehensive action program to implement Resolution 120/NQ-CP on sustainable development, as issued by the Vietnamese government?</t>
+          <t>Hãy liệt kê 6 nhóm nhiệm vụ và giải pháp cụ thể chính được đề ra trong Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng BĐKH.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>The six specific tasks and solutions proposed in the comprehensive action program to implement Resolution 120/NQ-CP on sustainable development are: (1) Reviewing, perfecting and supplementing the system of mechanisms and policies; (2) Updating and systematizing cross-sectoral data, enhancing basic surveys; (3) Developing planning and organizing territorial space; (4) Building an appropriate economic structure adapted to climate change; (5) Investing and developing infrastructure; (6) Developing and mobilizing resources.</t>
+          <t>Sáu nhóm nhiệm vụ và giải pháp cụ thể chính được đề ra trong Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng BĐKH bao gồm: 
+1. Rà soát, hoàn thiện và bổ sung hệ thống cơ chế, chính sách.
+2. Cập nhật và hệ thống hóa số liệu, dữ liệu liên ngành, tăng cường điều tra cơ bản.
+3. Xây dựng quy hoạch và tổ chức không gian lãnh thổ.
+4. Xây dựng cơ cấu kinh tế hợp lý thích ứng với BĐKH.
+5. Đầu tư và phát triển hạ tầng.
+6. Phát triển và huy động nguồn lực.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1983,19 +1974,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response to the question asked. It lists all six tasks and solutions proposed in the comprehensive action program to implement Resolution 120/NQ-CP on sustainable development, as issued by the Vietnamese government.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response. It lists the six main tasks and solutions proposed in the overall action program to implement Resolution No. 120/NQ-CP on sustainable development of the Mekong Delta in response to climate change, which is exactly what the user asked for.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>What are the priority issues to be addressed by 2020 according to Resolution 120/NQ-CP, and how does it plan to deal with the rapid and increasingly serious issues of coastal erosion, riverbank erosion, and land subsidence?</t>
+          <t>Trong giai đoạn từ nay đến năm 2020, vấn đề nào được ưu tiên giải quyết theo Nghị quyết 120?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>The priority issues to be addressed by 2020 according to Resolution 120/NQ-CP include the rapid and increasingly serious issues of coastal erosion, riverbank erosion, and land subsidence. The plan to deal with these issues involves implementing urgent tasks outlined in the resolution. This includes prioritizing the resolution of coastal and riverbank erosion and land subsidence, which are occurring at a rapid pace. Additionally, the plan involves deploying planning and designing large-scale investment projects for the next phase to implement the region's socio-economic model in a sustainable and proactive manner that adapts to climate change.</t>
+          <t>Vấn đề được ưu tiên giải quyết theo Nghị quyết 120 trong giai đoạn từ nay đến năm 2020 là sạt lở bờ biển, bờ sông, rạch và sụt lún đất trong vùng đang diễn ra rất nhanh và ngày càng trầm trọng.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2010,19 +2001,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be correct, providing a detailed response to the user's query about the priority issues addressed by Resolution 120/NQ-CP and the plan to deal with coastal erosion, riverbank erosion, and land subsidence. However, without a reference answer, it's difficult to confirm the complete accuracy of the information.</t>
+          <t>The generated answer is relevant and appears to be fully correct, providing specific details about the issues prioritized by Resolution 120 from now until 2020.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Based on the text, what challenges have been identified in the implementation of Resolution 120, and how have these affected the involvement of organizations, businesses, and individuals?</t>
+          <t>Theo nội dung trong đoạn văn, hãy nêu những khó khăn mà các địa phương đang gặp phải trong việc hiểu và triển khai Nghị quyết 120?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>The implementation of Resolution 120 has faced several challenges. Understanding and applying the resolution in practice has been difficult, with many localities not fully innovating in line with the spirit of the resolution. Instead, they rely on guidance and support resources from the central government. The approach based on internal strength has not been emphasized, and there has been a lack of widespread participation from organizations, businesses, and individuals. Additionally, the completion of the institutional framework and policies to carry out tasks according to Resolution 120 has been slow, especially policies to promote the development of key sectors and fields. Some policies have been issued but have not been integrated into daily life due to a lack of synchronization with implementation resources. There is also a lack of regulations on coordination mechanisms and information sharing among relevant agencies. Particularly, the mindset of prioritizing the selection of construction solutions at all levels/sectors is still more prevalent than choosing non-construction solutions. These challenges have hindered the active involvement of organizations, businesses, and individuals in the implementation of the resolution.</t>
+          <t>Các địa phương đang gặp phải nhiều khó khăn trong việc hiểu và triển khai Nghị quyết 120. Một số vấn đề bao gồm việc chưa thực sự đổi mới theo tinh thần Nghị quyết, còn trông chờ vào hướng dẫn và nguồn lực hỗ trợ từ Trung ương. Cách tiếp cận dựa vào nội lực chưa được đề cao, chưa huy động được sự tham gia rộng rãi của các tổ chức, doanh nghiệp, người dân. Việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ theo Nghị quyết 120 vẫn còn chậm, nhất là các chính sách đẩy mạnh phát triển các ngành, lĩnh vực then chốt. Một số chính sách đã được ban hành nhưng chưa đi vào cuộc sống vì chưa đồng bộ với nguồn lực thực hiện; còn thiếu quy định về cơ chế phối hợp, chia sẻ thông tin giữa các cơ quan liên quan. Đặc biệt, tư duy ưu tiên lựa chọn giải pháp công trình ở các cấp/ngành vằn nhiều hơn là các chọn lựa giải pháp phi công trình.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2032,26 +2023,24 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the challenges faced in the implementation of Resolution 120. It also clearly outlines how these challenges have affected the involvement of organizations, businesses, and individuals. The answer is comprehensive and appears to be correct, even without a reference answer for comparison.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the difficulties localities are facing in understanding and implementing Resolution 120. It does not contain any mistakes or inaccuracies.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Discuss the issues related to policy synchronization and information sharing among related agencies as mentioned in the text. How do these issues impact the selection of solutions for projects?</t>
+          <t>Theo ngữ cảnh đã cho, hãy phân tích và giải thích vì sao việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ theo Nghị quyết 120 lại diễn ra chậm?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>The text indicates that there are significant issues related to policy synchronization and information sharing among related agencies. The implementation of Resolution 120, for instance, has been problematic, with many localities not innovating in line with the resolution's spirit and instead waiting for guidance and support from the central government. The approach based on internal strength has not been emphasized, and the widespread participation of organizations, businesses, and people has not been mobilized. 
-Moreover, the perfection of mechanisms and policies to carry out tasks according to Resolution 120 has been slow, especially policies to promote the development of key sectors and fields. Some policies have been issued but have not been integrated into life because they are not synchronized with the resources for implementation. There is a lack of regulations on the coordination mechanism and information sharing among related agencies.
-These issues have a significant impact on the selection of solutions for projects. The text suggests that there is a prevailing mindset of prioritizing the selection of construction solutions over non-construction solutions. This could be due to the lack of coordination and information sharing, which may limit the understanding of the full range of possible solutions and their potential impacts.</t>
+          <t>Việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ theo Nghị quyết 120 diễn ra chậm do một số lý do. Đầu tiên, nhiều địa phương chưa thực sự đổi mới theo tinh thần Nghị quyết và vẫn đang chờ đợi hướng dẫn và nguồn lực hỗ trợ từ Trung ương. Thứ hai, cách tiếp cận dựa vào nội lực chưa được đề cao, chưa huy động được sự tham gia rộng rãi của các tổ chức, doanh nghiệp, người dân. Thứ ba, một số chính sách đã được ban hành nhưng chưa đi vào cuộc sống vì chưa đồng bộ với nguồn lực thực hiện. Cuối cùng, còn thiếu quy định về cơ chế phối hợp, chia sẻ thông tin giữa các cơ quan liên quan.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2066,22 +2055,20 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed discussion on the issues related to policy synchronization and information sharing among related agencies. It also explains how these issues impact the selection of solutions for projects. The answer could be slightly more specific in terms of the impact on project solution selection, hence the score is not a perfect 5.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of why the implementation of tasks according to Resolution 120 is slow. It lists several reasons, including lack of innovation in localities, lack of internal resources, policies not being implemented effectively, and lack of coordination among relevant agencies. The answer is comprehensive and correct, hence the perfect score.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Based on the research paper "The Salinization of Agricultural Hubs: Impacts and Adjustments to Intensifying Saltwater Intrusion in the Mekong Delta", what are the observed effects of salinization on rice production, land use, labor supply, and household income in the Mekong Delta region?</t>
+          <t>Theo bài viết, tác giả đề xuất những giải pháp nào để thực hiện ý kiến chỉ đạo của Thủ tướng về việc thích ứng với tình hình mặn hóa ở Đồng bằng sông Cửu Long?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The research paper outlines several effects of salinization in the Mekong Delta region. For agricultural production, higher salinity decreases the productivity and revenue share of rice crops, as well as aquaculture production. However, it increases the revenue share of industrial crops, such as coconut, which is a salt-resistant crop. 
-In terms of land use, higher salinity intrusion is associated with decreases in farmers’ land used for rice and their general land used for agriculture. 
-Regarding labor supply, salinity shock is estimated to decrease labor supply in agriculture for those without agricultural land, but labor supply for those with agricultural land does not respond to higher salinity.
-Finally, salinization is found to reduce farmer households’ income and consumption. However, it seems to increase household spending on education, potentially indicating farmers’ increased investment to acquire new skills.</t>
+          <t>Tác giả đề xuất một số giải pháp để thích ứng với tình hình mặn hóa ở Đồng bằng sông Cửu Long. Đầu tiên, họ đề cử việc vận hành thông minh hệ thống thủy lợi liên tỉnh dựa trên nền tảng công nghệ Internet of Things (IoT) để nâng cao năng suất nước và bảo vệ môi trường sinh thái. Thứ hai, họ khuyến nghị tăng hiệu quả sử dụng tài nguyên đất và nước thông qua các giải pháp nâng cao hiệu quả quản lý khai thác các công trình thuỷ lợi. 
+Ngoài ra, tác giả cũng đề cử một số chiến lược khác như xây dựng đê bao, thay đổi biện pháp canh tác, chính sách hỗ trợ khắc phục sản xuất, khai thác nguồn nước ngầm và đa dạng hóa nguồn thu nhập. Tuy nhiên, tác giả cũng nhấn mạnh rằng các chương trình thích ứng trong tương lai cần phải xây dựng trên cơ sở nhu cầu và năng lực của cộng đồng.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2096,19 +2083,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and appears to be fully correct. It provides detailed information on the effects of salinization on rice production, land use, labor supply, and household income in the Mekong Delta region, as requested by the user.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive response to the question about the author's proposed solutions to adapt to the salinization situation in the Mekong Delta. The answer is correct and complete, covering various strategies and emphasizing the need for future adaptation programs to be based on community needs and capabilities.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>In the context of the Vietnamese Mekong Delta, discuss the role of credit access and labor migration to urban areas as potential adaptation mechanisms in response to the challenges posed by salinization. Provide evidence from the research paper to support your answer.</t>
+          <t>Trong bài nghiên cứu "The Salinization of Agricultural Hubs: Impacts and Adjustments to Intensifying Saltwater Intrusion in the Mekong Delta", tác giả đã chỉ ra những tác động nào của mặn hóa đối với sản xuất nông nghiệp, quyết định lao động và phúc lợi của các hộ nông dân ở Đồng bằng sông Cửu Long?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The research paper discusses two potential adaptation mechanisms in response to salinization in the Vietnamese Mekong Delta: credit access and labor migration to urban areas. The evidence on labor migration for off-farm work in urban centers is mixed, suggesting that it may not be a consistent or reliable adaptation strategy for all farmers affected by salinization. On the other hand, the study supports the hypothesis that a more developed local credit market plays a positive role in easing the income losses incurred by farmers during salinization shocks. This suggests that access to credit can provide farmers with the financial resources needed to adapt their farming practices or invest in new, more salt-resistant crops.</t>
+          <t>Tác giả đã chỉ ra rằng mặn hóa có ảnh hưởng tiêu cực đáng kể đến sản xuất lúa, làm giảm diện tích đất sử dụng và một phần nguồn cung lao động trong nông nghiệp. Mặn hóa cũng được cho là làm tăng sản xuất các loại cây công nghiệp chịu mặn. Trong khi ảnh hưởng đến thu nhập và tiêu dùng của hộ gia đình là tiêu cực, tác giả cũng chỉ ra rằng có dấu hiệu cho thấy việc tăng chi tiêu cho giáo dục như một phản ứng trước những cú sốc do mặn hóa. Đối với các biện pháp thích ứng, tác giả tìm thấy bằng chứng không rõ ràng về việc di cư lao động đến các khu vực đô thị để làm việc ngoài nông nghiệp và có dấu hiệu cho thấy vai trò của việc tiếp cận tín dụng trong việc giảm thiểu mất mát thu nhập của nông dân.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2123,24 +2110,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of credit access and labor migration as potential adaptation mechanisms in response to salinization in the Vietnamese Mekong Delta. It also provides evidence from the research paper to support its points. However, it could have been more specific about the evidence from the research paper.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impacts of salinization on agricultural production, labor decisions, and the welfare of farming households in the Mekong Delta, as outlined in the research paper. The answer could be slightly more concise, hence the score is not a perfect 5.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Based on the research conducted on the Vietnamese Mekong delta, explain how salinization impacts agricultural production, labor decisions, and the welfare of farmer households. Discuss the five main results of the analysis in detail.</t>
+          <t>Hãy mô tả ảnh hưởng của sự mặn hóa đối với sản xuất nông nghiệp, quyết định lao động và phúc lợi của các hộ nông dân ở đồng bằng sông Cửu Long, Việt Nam theo nghiên cứu này. Đặc biệt, hãy nêu rõ về sự thay đổi trong sản xuất và sử dụng đất nông nghiệp, cung cấp lao động, thu nhập và tiêu dùng của hộ nông dân, cũng như các kênh thích ứng như di cư và tiếp cận tín dụng.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salinization has a significant impact on agricultural production, labor decisions, and the welfare of farmer households in the Vietnamese Mekong delta. The analysis of these impacts yielded five main results.
-Firstly, in terms of agricultural production, higher salinity was found to decrease the productivity and revenue share of rice crops, which is a significant concern given that the Mekong delta contributes to over 90% of national rice exports. Higher salinity also decreases aquaculture production. However, it increases the revenue share of industrial crops, particularly coconut, which is a salt-resistant crop. This suggests that farmers may be adopting new crops or switching crops as a risk diversification strategy to secure their income against salinization shocks.
-Secondly, higher salinity intrusion was associated with decreases in farmers’ land used for rice and their general land used for agriculture. This suggests that salinization may be leading to a reduction in agricultural land use.
-Thirdly, salinization was found to affect labor supply. While salinity shock was estimated to decrease labor supply in agriculture for those without agricultural land, labor supply for those with agricultural land did not respond to higher salinity. This indicates that salinization may be influencing labor decisions in the agricultural sector.
-Fourthly, salinization was found to reduce farmer households’ income and consumption, indicating a negative impact on their welfare. However, the estimated effect on household spending on education was positive, which could imply that farmers are investing more in acquiring new skills in response to the challenges posed by salinization.
-Lastly, the study tested two channels for adaptation smoothing: migration and credit access. The evidence on out-migration for off-farm work in urban centers was mixed, but the results supported the hypothesis that a more developed local credit market plays a positive role in easing the income losses incurred by farmers during salinization shocks. This suggests that financial mechanisms may be an important part of the response to salinization.</t>
+          <t>Sự mặn hóa có ảnh hưởng lớn đến sản xuất nông nghiệp, quyết định lao động và phúc lợi của các hộ nông dân ở đồng bằng sông Cửu Long, Việt Nam. Cụ thể, thu nhập từ hoạt động nuôi trồng và đánh bắt thủy sản có thể cao hơn so với hoạt động nông nghiệp, nhưng rủi ro cũng rất cao. Có nhiều hộ gia đình làm giàu nhờ hoạt động này, nhưng cũng có không ít hộ gia đình trắng tay sau những lần rủi ro.
+Những người có kinh nghiệm sản xuất trên 10 năm thường có thu nhập từ khá trở lên, trong khi những người có kinh nghiệm sản xuất dưới 10 năm thường có thu nhập từ trung bình trở xuống. Khi người dân có kinh nghiệm trong sản xuất, họ có thể chủ động thích ứng với hạn mặn và thông qua những thất bại trước đó, họ có thể rút ra kinh nghiệm sản xuất tốt hơn.
+Hỗ trợ của địa phương cũng đóng góp tích cực vào sinh kế của người dân ở vùng hạn mặn. Trong những năm qua, người dân ở các địa phương đã nhận được nhiều sự hỗ trợ của chính quyền, như vay vốn với lãi suất ưu đãi, tập huấn chăn nuôi, nuôi trồng thủy sản, hỗ trợ giống lúa chịu mặn.
+Tuy nhiên, sự mặn hóa cũng ảnh hưởng đến việc sử dụng đất nông nghiệp. Quá trình nước biển dâng xâm lấn vào nội đồng làm cho đất bị ngập úng và nhiễm mặn, ảnh hưởng đến sản xuất nông nghiệp. Các vùng ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình do kinh tế chủ yếu là nuôi thủy sản nên việc lấy nguồn nước biển thường xuyên phải mở thêm nhiều kênh rạch, làm cho nước biển đi vào sâu phía trong được thuận lợi. Các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long mấy năm gần đây do người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm phá vỡ việc vận hành của hệ thống cống ngăn mặn, làm cho nước biển vào sâu trong nội đồng nguy cơ ngập ngày càng thể hiện rõ diện tích ngập tăng lên.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2155,20 +2140,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive explanation of the impact of salinization on agricultural production, labor decisions, and the welfare of farmer households in the Vietnamese Mekong delta. It also successfully discusses the five main results of the analysis in detail, as requested by the user. The answer is well-structured, clear, and appears to be accurate, making it a high-quality response.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of salinization on agricultural production, labor decisions, and the welfare of farming households in the Mekong Delta, Vietnam. It also discusses changes in agricultural production and land use, labor supply, income and consumption of farming households, as well as adaptation channels such as migration and access to credit. However, it could have been more specific in discussing the changes in labor supply and consumption of farming households.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>The study mentions two channels for adaptation smoothing: migration and credit access. Can you elaborate on these channels and how they play a role in easing the income losses incurred by farmers during salinization shocks?</t>
+          <t>Trong nghiên cứu này, tác giả đã chỉ ra một số hạn chế liên quan đến việc đo lường mức độ mặn của sông. Hãy mô tả những hạn chế này và giải thích tại sao chúng có thể gây ra vấn đề trong việc xác định sự lan truyền của mặn.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The study suggests that migration and credit access are two potential channels for adaptation smoothing in response to salinization shocks. Migration refers to the movement of individuals from rural areas to urban centers for off-farm work. This can help to supplement income lost due to decreased agricultural productivity from salinization. However, the evidence for this channel is mixed, indicating that it may not always be a viable or effective strategy for all farmers.
-On the other hand, credit access refers to the availability and development of local credit markets. The study found that a more developed local credit market can play a positive role in easing the income losses incurred by farmers during salinization shocks. This is because access to credit can provide farmers with the necessary funds to invest in adaptive strategies, such as switching to salt-resistant crops or investing in new farming technologies. This can help to mitigate the negative impacts of salinization on their income.</t>
+          <t>Tác giả không chỉ ra bất kỳ hạn chế nào liên quan đến việc đo lường mức độ mặn của sông trong nghiên cứu này. Tuy nhiên, tác giả đã chỉ ra rằng mức độ mặn của sông đã tăng lên trong thời gian, với một số trường hợp mặn tăng lên đến 45‰, cao hơn nhiều so với mức 4‰ mà Trung tâm phòng tránh và giảm nhẹ thiên tai xem là mức xâm nhập mặn. Độ mặn này không chỉ kéo dài mà còn xâm nhập sâu vào đất liền, tới 70 km từ cửa sông và thậm chí có thời điểm đạt đến 85 km. Điều này có thể gây ra vấn đề trong việc xác định sự lan truyền của mặn do mức độ mặn thực tế có thể cao hơn nhiều so với những gì được đo lường hoặc dự đoán.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2183,21 +2167,21 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the two channels for adaptation smoothing: migration and credit access. It also explains how these channels can help ease the income losses incurred by farmers during salinization shocks. The answer is accurate and comprehensive, making it deserving of a perfect score.</t>
+          <t>The generated answer is somewhat relevant to the user query, but it does not directly address the question about the limitations of measuring the salinity of rivers. Instead, it provides information about the increase in river salinity and the problems this can cause. The answer could be improved by directly addressing the limitations of salinity measurement and explaining why these limitations could cause problems in determining the spread of salinity.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Based on the research findings in the document, explain the impact of salinization on total farm revenue and the adaptive measures farmers are taking in response to salinity shock in the Mekong Delta, Vietnam.</t>
+          <t>Theo nghiên cứu, hãy mô tả những tác động của sự mặn hóa đối với sản xuất nông nghiệp tại đồng bằng sông Cửu Long, cũng như những biện pháp thích ứng mà người dân địa phương đã áp dụng.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Salinization does not have a significant impact on total farm revenue from all crops and aquaculture in the Mekong Delta, Vietnam. However, it does affect the productivity and revenue share of specific crops. For instance, higher salinity decreases the productivity and revenue share of rice crops and aquaculture production. On the other hand, it increases the revenue share of industrial crops, particularly coconut, which is a salt-resistant crop. 
-In response to salinity shock, farmers are adopting new crops and switching to salt-resistant industrial crops as a risk diversification strategy. This helps them secure their income against salinization shocks. Additionally, there is evidence of farmers reducing their agricultural land and labor supply in agriculture due to salinization. 
-Other adaptive measures include migration for off-farm work in urban centers and accessing credit markets. The development of local credit markets has been found to play a positive role in easing the income losses incurred by farmers during salinization shocks. There is also an increased investment in education, potentially implying farmers' efforts to acquire new skills to adapt to the changing environment.</t>
+          <t>Sự mặn hóa đã gây ra nhiều khó khăn cho sản xuất nông nghiệp tại đồng bằng sông Cửu Long. Một trong những vấn đề lớn nhất là sự suy giảm đáng kể của nguồn nước ngọt, điều này đã ảnh hưởng đến việc canh tác lúa. Tuy nhiên, người dân địa phương đã thích ứng với tình hình này bằng cách thống nhất lịch canh tác, điều này phụ thuộc vào thời gian máy cày đến ruộng và nguồn nước ngọt. Việc xuống giống đồng loạt cũng giúp việc mua bán sau khi thu hoạch dễ dàng hơn.
+Ngoài ra, chính quyền địa phương đã không cho phép sử dụng Nước Dưới Đất để duy trì diện tích lúa, do đó không có nông hộ nào sử dụng Nước Dưới Đất cho canh tác lúa mà chỉ sử dụng cho mục đích sinh hoạt. Điều này cho thấy sự hợp tác giữa người dân và các cấp quản lý cấp xã và huyện trong việc sử dụng nguồn tài nguyên Nước Dưới Đất.
+Nghiên cứu cũng cho thấy rằng người dân có kinh nghiệm sản xuất trên 10 năm có thể chủ động thích ứng với hạn mặn và thông qua những thất bại trước đó, họ có thể rút ra kinh nghiệm sản xuất tốt hơn. Hỗ trợ của địa phương, như vay vốn với lãi suất ưu đãi, tập huấn chăn nuôi, nuôi trồng thủy sản, hỗ trợ giống lúa chịu mặn, cũng đã đóng góp tích cực vào sinh kế của người dân ở vùng hạn mặn.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2212,21 +2196,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of salinization on total farm revenue and the adaptive measures farmers are taking in response to salinity shock in the Mekong Delta, Vietnam. It does not contain any noticeable mistakes. The only reason it does not receive a perfect score is because it could be more concise.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impacts of salinization on agriculture in the Mekong Delta, as well as the adaptive measures that local people have implemented. It does not contain any noticeable errors or inaccuracies. However, it could be slightly more concise and clear in its presentation of information.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>The paper discusses the concept of flood and salinity intrusion in the Mekong Delta. Discuss how these natural phenomena are perceived by the local people and the mitigation strategies suggested in the paper to deal with these issues.</t>
+          <t>Trình bày về vấn đề quản lý lũ lụt và xâm nhập mặn tại đồng bằng sông Cửu Long theo bài báo "Flood and Salinity Management in the Mekong Delta, Vietnam" của Le Anh Tuan. Hãy đề cập đến những hạn chế và thách thức trong việc xây dựng và quản lý hệ thống cơ sở hạ tầng kiểm soát nước.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Floods in the Mekong Delta are perceived by many farmers and scientists not only as a disaster but also as a natural occurrence that brings multiple benefits. These benefits include fertile sediment, fish spawning, aquatic products, flushing effect, pest control, water quality, water provision, reduced fire risk, and ecological drivers. However, floods can also cause loss of life and property, and can lead to issues such as bank erosion, navigation hazards, pests, invasive exotic plants, and health risks.
-Salinity intrusion, on the other hand, occurs when not enough river discharge is flowing to the low-lying estuaries and instead, salt water flows into the land. This can cause damage to crops and restrict the use of canal water for domestic and industrial uses. However, it also has a positive effect of reducing acidity in potential acid sulphate soil land, leading to higher pH in water. This enables farmers to implement a more varied production scheme, such as raising shrimp during the dry season.
-To mitigate these issues, the paper suggests the use of computer modelling as a powerful tool in water resources engineering. This can help in understanding changes in water quantity and quality over time, and assist with decision-making in water planning and management. The results from these models can be used as a technical prerequisite for the development of a regional strategy and action plan to prepare for flood loss prevention and salinity management for the vulnerable agricultural sector.</t>
+          <t>Đồng bằng sông Cửu Long đang phải đối mặt với những hiểm họa như xâm nhập mặn, thiếu nước ngọt và ảnh hưởng của triều cường, những vấn đề này đã tăng lên trong những năm gần đây. Để đối phó và thích ứng với những hiểm họa này, chính quyền và người dân địa phương đã phát triển nhiều chiến lược và biện pháp như xây dựng đê bao, thay đổi kỹ thuật canh tác, hỗ trợ tài chính để khôi phục sản xuất sau thảm họa, khai thác nước ngầm và đa dạng hóa nguồn thu nhập. Tuy nhiên, những biện pháp thích ứng hiện tại có một số hạn chế, chẳng hạn như không đầy đủ xem xét sự khác biệt về môi trường sinh thái, xã hội và kinh tế. Kết quả của việc đánh giá tổn thương cho thấy rằng sự tổn thương của người dân phụ thuộc nhiều vào những điều kiện này. Do đó, các chiến lược thích ứng trong tương lai nên xem xét những vấn đề trên để hỗ trợ các nhóm xã hội khác nhau, đặc biệt là những nhóm dễ bị tổn thương nhất.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2241,49 +2223,46 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive and accurate response. It discusses the perception of floods and salinity intrusion by the local people in the Mekong Delta and also outlines the mitigation strategies suggested in the paper. The answer is well-structured and detailed, providing a thorough understanding of the topic.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive overview of the flood and salinity management issues in the Mekong Delta, as well as the challenges in building and managing water control infrastructure. It also mentions the limitations of current adaptation measures. However, it does not specifically reference the article "Flood and Salinity Management in the Mekong Delta, Vietnam" by Le Anh Tuan, which was asked for in the query.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Explain the different types of floods as distinguished in the Vietnamese language and how each type impacts the Mekong Delta region.</t>
+          <t>Trình bày sự khác biệt giữa các loại lũ lụt được phân biệt trong tiếng Việt: lũ, lụt và ngập. Đồng thời, giải thích nguyên nhân gây ra từng loại lũ lụt này.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>In the Vietnamese language, there are several types of floods distinguished. The term 'lũ' refers to a flood, which occurs when excess water upstream flows over river banks or dykes to the floodplain. 'Lụt' refers to inundation, which is affected by floods. 'Ngập' refers to submergence, a phenomenon that occurs when water levels in the plain, such as fields or land of the inner dyke or depression areas or wetlands, are higher than the ground surface level at a certain period. Submergence may be caused by high floods, heavy rainfall, a strong tide, or uprising groundwater.
-The term 'bão lũ' or storm-flood refers to a serious disaster when the basin is affected by strong storms and continuous heavy rainfall. These storm-floods frequently occur in North and Central Vietnam, but rarely in the South. 
-In the Mekong Delta, due to its location in the most downstream part of the basin, it receives the total volume of floodwaters from upstream. The flooded area ranges from 1.2 to 1.4 million hectares in years of low and medium flooding, and around 1.9 million hectares in years of high flooding. About 50 percent of the Mekong delta experiences flooding and these areas are also susceptible to serious damage by floods about every five years. High floods are caused when three simultaneous factors happen: large water discharges occur originating from upstream as affected by typhoons or tropical low pressures; long and heavy rainfall occurs in the Mekong Delta itself; and, high tides that lead to high water levels in the rivers and canal system prevent easy drainage. These floods result in loss of life, especially amongst children, and cause millions of dollars worth of damage to houses, infrastructure, and crops.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa chi tiết về sự khác biệt giữa các loại lũ lụt như lũ, lụt và ngập, cũng như nguyên nhân gây ra từng loại lũ lụt này.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the different types of floods as distinguished in the Vietnamese language. It also thoroughly explains how each type impacts the Mekong Delta region. The answer is accurate and detailed, making it a perfect response to the user's query.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the differences between the types of floods or their causes.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Discuss the dual nature of floods in the Mekong Delta, highlighting both the damaging effects and the potential benefits they bring to the region.</t>
+          <t>Lũ lụt không chỉ gây ra thiệt hại mà còn mang lại những lợi ích gì cho đồng bằng sông Cửu Long? Hãy liệt kê và giải thích các lợi ích này.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Floods in the Mekong Delta have a dual nature, bringing both damaging effects and potential benefits to the region. On the damaging side, high floods result in loss of life, particularly among children, and cause significant damage to houses, infrastructure, and crops. The cost of this damage can reach into the millions of dollars. Other indirect damages include economic losses due to interruption of economic activities, anxiety, inconvenience, ill health, and loss of cultural significance. There are also other recorded damages affecting rural communities and the commercial sector directly, such as bank erosion, navigation hazards, pests, invasive exotic plants, and health risks.
-On the other hand, floods are not only perceived as a disaster. They are historically linked with the natural form of the Mekong River delta region and bring multiple replenishing and revitalizing benefits. These include the deposit of fertile sediment, which enriches the soil for farming, the spawning of fish and production of aquatic products, a flushing effect that cleanses the waterways, pest control, improvement of water quality, provision of water, reduction of fire risk, and serving as ecological drivers. These benefits highlight the complex relationship between the people of the Mekong Delta and their environment.</t>
+          <t>The context does not provide information on the benefits that floods bring to the Mekong Delta.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2293,29 +2272,24 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive discussion on the dual nature of floods in the Mekong Delta. It accurately highlights both the damaging effects and the potential benefits of floods in the region, providing specific examples for each. The answer is well-structured and fully correct, hence the perfect score.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for the benefits of flooding in the Mekong Delta, but the chatbot did not provide any.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Explain the impact of salinity intrusion on the Mekong Delta and its implications for local agriculture and water supply. Discuss the potential benefits and drawbacks of this phenomenon.</t>
+          <t>Hãy mô tả những lợi ích mà lũ lụt mang lại cho vùng đồng bằng sông Cửu Long, cũng như những tác động tiêu cực mà nó gây ra.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Salinity intrusion in the Mekong Delta has a significant impact on local agriculture and water supply. It occurs when not enough river discharge is flowing to the low-lying estuaries, causing salt water to flow into the land. This intrusion is influenced by various factors such as tides, local rainfall and runoff, the slope of the river bed, wind velocity and direction, and the depth of the estuary.
-The impact on agriculture is complex. On one hand, higher salinity decreases the productivity and revenue share of rice crops and aquaculture production. It also leads to a reduction in the land used for rice and general agricultural purposes. On the other hand, it increases the revenue share of industrial crops like coconuts, which are salt-resistant. This suggests that farmers may be adopting new crops and switching crops as a risk diversification strategy to secure their income against salinization shocks.
-Salinity intrusion also affects labor supply in agriculture. It is estimated to decrease labor supply for those without agricultural land, but those with agricultural land do not seem to be affected. Furthermore, salinization reduces farmer households' income and consumption, but it may also lead to increased spending on education, possibly indicating an investment in new skills.
-The intrusion of salt water also leads to more salinity in groundwater layers, causing quality problems in many wells, such as high iron content, salinity, and odours. This has implications for future water supply plans, which are largely based on increased groundwater withdrawal.
-Despite these challenges, salinity intrusion also has some benefits. It reduces acidity in potential acid sulphate soil land, leading to higher pH in water. It also allows farmers to implement a more varied production scheme, such as raising shrimp during the dry season. Moreover, the marine and coastal region contributes more than half of the exported aquatic value for Vietnam.
-In conclusion, while salinity intrusion presents significant challenges for the Mekong Delta, it also offers some opportunities for adaptation and diversification. It is crucial to continue studying this phenomenon and its impacts to develop effective strategies for managing its effects.</t>
+          <t>Lũ lụt ở vùng đồng bằng sông Cửu Long mang lại một số lợi ích như việc cung cấp nước cho canh tác và giúp làm giàu đất đai bằng cách mang theo chất dinh dưỡng từ thượng nguồn. Tuy nhiên, lũ lụt cũng gây ra những tác động tiêu cực. Trong khoảng từ tháng 8 đến tháng 10, vùng này thường bị ngập lụt, gây ra thiệt hại cho nông nghiệp và nhà cửa. Từ tháng 1 đến tháng 4, vùng này lại chịu tác động mạnh mẽ của hiện tượng xâm nhập mặn và khô hạn, gây khó khăn cho việc cung cấp nước ngọt cho canh tác.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2330,27 +2304,21 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed explanation of the impact of salinity intrusion on the Mekong Delta. It discusses the implications for local agriculture and water supply, and also presents both the potential benefits and drawbacks of this phenomenon. The answer is accurate and well-structured, making it easy to understand.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of both the benefits and negative impacts of flooding in the Mekong Delta region. It could be slightly improved by providing more specific examples or details.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>The Lower Mekong River and its delta are facing several anthropogenic stressors. Identify and discuss these stressors, and propose potential solutions to minimize their negative impacts and ensure the sustainability of the region.</t>
+          <t>Trình bày về những yếu tố ảnh hưởng đến sự xâm nhập mặn tại đồng bằng sông Cửu Long và hậu quả của nó đối với nông nghiệp và nguồn nước ngầm.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The Lower Mekong River and its delta are indeed facing several anthropogenic stressors. These include the construction of dams, climate change, poor water quality, and delta subsidence. 
-The construction of large-scale hydro-power dams in the Mekong Basin, which began in the 1990s, has had significant impacts on ecosystems and human life. These dams trap up to 95% of sediments, reducing downstream sediment loads and altering the natural hydrological cycle. This results in lower flood peaks and higher dry season flows, which can have detrimental effects on the region's biodiversity and agricultural productivity.
-Climate change is another major stressor, with studies projecting increased average temperatures in the Mekong River Basin. However, the future patterns of precipitation are uncertain. This uncertainty, coupled with the potential for increased temperatures, could exacerbate existing water scarcity issues and negatively impact the region's agriculture and aquaculture industries.
-Poor water quality and delta subsidence are also significant issues. The latter is particularly concerning as it could lead to increased flooding and saltwater intrusion, which can damage crops and contaminate freshwater resources.
-To minimize these negative impacts and ensure the sustainability of the region, several measures could be taken. Firstly, future decisions regarding dam construction should carefully consider the potential environmental and socio-economic impacts. This could involve conducting comprehensive environmental impact assessments and implementing measures to mitigate potential harm.
-Secondly, efforts should be made to mitigate and adapt to climate change. This could involve implementing sustainable agricultural practices, improving water management systems, and investing in renewable energy sources.
-Thirdly, measures should be taken to improve water quality. This could involve implementing stricter regulations on industrial and agricultural pollutants, as well as investing in water treatment facilities.
-Lastly, to address delta subsidence, efforts could be made to reduce groundwater extraction, which is a major cause of land subsidence. This could involve improving water efficiency and promoting the use of alternative water sources.
-In conclusion, while the Lower Mekong River and its delta are facing several significant anthropogenic stressors, there are a range of potential solutions that could help to minimize their negative impacts and ensure the sustainability of the region.</t>
+          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và vay vốn. Trong đó, chỉ có yếu tố vay vốn có mối quan hệ trái chiều với thu nhập của hộ gia đình.
+Xâm nhập mặn chủ yếu ảnh hưởng đến canh tác lúa, cụ thể là việc lúa bị thiệt hại do không đủ nước ngọt cung cấp. Đối với nuôi trồng thủy sản, việc nuôi tôm gần như không bị ảnh hưởng bởi tình trạng hạn mặn kéo dài do có nguồn nước dưới đất hỗ trợ cho việc pha loãng nồng độ mặn.
+Xâm nhập mặn cũng gây khó khăn trong quản lý nguồn nước dưới đất, đặc biệt là việc kiểm soát việc khai thác và sử dụng nguồn nước này. Trong khu vực nuôi tôm, người nông dân đã tăng cường khai thác nguồn nước dưới đất để giảm nồng độ mặn của nước mặt. Ngược lại, đối với người trồng lúa, xâm nhập mặn không ảnh hưởng đến nhu cầu sử dụng và khai thác nguồn nước dưới đất.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2365,22 +2333,21 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed response. It correctly identifies and discusses the anthropogenic stressors affecting the Lower Mekong River and its delta, and proposes potential solutions to minimize their negative impacts and ensure the sustainability of the region. The answer is well-structured, clear, and accurate, demonstrating a deep understanding of the topic.</t>
+          <t>The generated answer is highly relevant to the user query, providing detailed information about the factors affecting salt intrusion in the Mekong Delta and its consequences for agriculture and groundwater. However, it does not explicitly mention the factors that directly influence salt intrusion, focusing more on the effects and coping mechanisms. Therefore, it is not fully comprehensive in addressing the user's question.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>"Discuss the various anthropogenic stressors impacting the Lower Mekong River and its delta. How do these factors compare to those affecting other large rivers around the world?"</t>
+          <t>Hãy mô tả các yếu tố đang đe dọa sông Mekong dưới hạ lưu, bao gồm tác động của đập, biến đổi khí hậu, sự lún của đồng bằng sông và sự suy giảm chất lượng nước. Hãy so sánh với các sông lớn khác trên thế giới và đề xuất các quyết định tương lai để giảm thiểu tác động tiêu cực và tìm kiếm một lộ trình đảm bảo sự phát triển bền vững.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>The Lower Mekong River and its delta are currently facing several anthropogenic stressors. These include the construction of dams, climate change, poor water quality, and the sinking of the delta. The construction of large-scale hydro-power dams, which began in the 1990s, has had significant impacts on ecosystems and human life. These dams trap up to 95% of sediments, reducing downstream sediment loads and altering the natural hydrological cycle. Climate change is also a major concern, with projections indicating increased average temperatures, although precipitation patterns remain uncertain.
-Poor water quality is another issue, with salinity intrusion being a particular problem. This occurs when not enough river discharge is flowing to the low-lying estuaries, allowing salt water to flow into the land. This intrusion affects agriculture, restricts the use of canal water for domestic and industrial uses, and causes corrosion of metal materials. However, it also has some positive effects, such as reducing acidity in potential acid sulphate soil land and enabling farmers to implement a more varied production scheme.
-The sinking of the delta is another significant issue. This is influenced by factors such as the amplitude and period of tides, the amount of local rainfall and runoff, the slope of the river bed, the wind velocity and direction, and the depth of the estuary.
-When compared to other large rivers around the world, these factors are not unique to the Lower Mekong River. Many large rivers face similar issues, such as dam construction, climate change, and poor water quality. However, the specific impacts and severity of these issues can vary depending on the geographical, topological, climatic, and hydrological characteristics of each river and its surrounding region.</t>
+          <t>Các yếu tố đang đe dọa sông Mekong dưới hạ lưu bao gồm tác động của biến đổi khí hậu và sự lún của đồng bằng sông. Biến đổi khí hậu dẫn đến tăng tần suất và cường độ các hiện tượng thời tiết cực đoan, làm gia tăng mối đe dọa an ninh lương thực và tạo ra những biến động tiêu cực lên khu vực nông thôn. Đồng thời, sự lún của đồng bằng sông cũng là một vấn đề lớn, khiến cho nhiều vùng đất thấp có nguy cơ bị ngập chìm và xâm nhập mặn.
+So với các sông lớn khác trên thế giới, sông Mekong dưới hạ lưu còn phải chịu tác động nghiêm trọng hơn từ biến đổi khí hậu và nước biển dâng. Điều này có thể dẫn đến việc ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập và khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô.
+Để giảm thiểu tác động tiêu cực và tìm kiếm một lộ trình đảm bảo sự phát triển bền vững, cần phải có những chuyển biến tích cực trong việc kiểm soát khả năng nóng lên toàn cầu. Đồng thời, cần phải xem xét lại các hoạt động phát triển công nghiệp và nông nghiệp trong khu vực để giảm thiểu tác động đến môi trường và nguồn nước.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2395,21 +2362,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive discussion of the anthropogenic stressors impacting the Lower Mekong River and its delta. It also effectively compares these factors to those affecting other large rivers around the world. The answer is accurate, detailed, and well-structured, making it a high-quality response to the user's question.</t>
+          <t>The generated answer is relevant and mostly correct. It addresses the threats to the Mekong River, compares it to other rivers, and suggests future decisions for sustainable development. However, it does not mention the impact of dams and the degradation of water quality, which were specifically asked for in the user query.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>"Explain the socio-economic features of the Lower Mekong basin and how the construction of dams in the Mekong Basin has affected the region's ecosystems and human life. What are the potential consequences of these changes?"</t>
+          <t>Hãy mô tả các đặc điểm vùng Mekong, bao gồm địa lý, cài đặt topological, điều kiện khí hậu, thủy văn, đặc điểm dân số và các hoạt động do con người. Hãy nêu rõ cách mà các yếu tố này ảnh hưởng đến sự phát triển và bảo tồn của sông Mekong.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The Lower Mekong basin is home to over 70 million people, a number projected to increase to 90 million by 2025. Half of this population resides within 15 kilometers of the riverbanks, and the Mekong Delta alone hosts nearly 20 million inhabitants. The region has experienced rapid economic development following a period of conflicts, leading to substantial infrastructure development, including dam construction. Agriculture and aquaculture are vital to the economy, with extensive irrigation practices in the region. The natural flooding of the lower basin during the wet season contributes to high fertility and biodiversity, including numerous fish species, and supports a significant fishery industry with substantial annual production and income.
-The construction of large-scale hydro-power dams in the Mekong Basin began in the 1990s to meet increasing electricity demands. There are currently 176 dams planned or under construction in the Mekong River Basin, with a total hydro-power capacity of approximately 60 GW. These dams have had significant impacts on ecosystems and human life. They trap up to 95% of sediments, reducing downstream sediment loads, which can influence the delta's sedimentation rates. Dam operations have also altered the natural hydrological cycle, resulting in lower flood peaks and higher dry season flows. This has affected monsoon water flows downstream and is expected to impact flood frequency and flow magnitude in specific regions.
-The potential consequences of these changes include uncertainties in post-dam sediment data, potential consequences for the delta's sedimentation rates, and varying impacts on flood and low flow hydrology. Some studies attribute low flow levels to poor rainfall and deforestation. The changes brought about by dam construction could also outweigh the impacts of projected climate changes on the region's hydrology.</t>
+          <t>Vùng Mekong có một hệ thống sông rạch phức tạp, liên kết nhau và đổ ra biển Đông và biển Tây. Hai mặt giáp biển với tổng chiều dài vùng ven biển hơn 700 km, tạo ra tác động lớn từ các dao động biển. Vùng này chịu hai tác động dòng chảy: dòng chảy của sông Mekong từ thượng nguồn và dòng triều do tác động biển xâm nhập vào đất liền. Tháng 8 đến tháng 10 là thời gian bị ngập lũ, còn từ tháng 1 đến tháng 4 là thời gian bị tác động mạnh mẽ của hiện tượng xâm nhập mặn và khô hạn.
+Tần suất và cường độ các hiện tượng thời tiết cực đoan đang gia tăng, đe dọa an ninh lương thực và tạo ra những biến động tiêu cực lên khu vực nông thôn, như suy giảm nguồn tài nguyên thiên nhiên, thu hẹp diện tích canh tác và cư trú. Di cư từ nông thôn lên các vùng đô thị đang diễn ra nhanh hơn, tạo ra hệ lụy xấu về mặt xã hội và môi trường.
+Dự báo cho thập kỷ 2030-2040, nhiệt độ trung bình cũng như nhiệt độ lớn nhất và nhỏ nhất trong vùng sẽ gia tăng, phổ biến tăng khoảng 20˚C. Tổng lượng mưa trung bình cũng sẽ giảm, từ 10 đến 20%, khiến việc cung cấp nước ngọt cho canh tác lúa thêm khó khăn.
+Hiện tượng nóng lên toàn cầu và nước biển dâng đang tác động nghiêm trọng đến vùng này. Ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập do nước biển dâng và lún sụt đồng bằng, khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô và khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa.
+Vùng đồng bằng sẽ bị ảnh hưởng kép, từ những tác động thay đổi tự nhiên mang tính toàn cầu và từ những hoạt động phát triển công nghiệp và nông nghiệp trong khu vực. Những thách thức này đang và sẽ là những thách thức lớn uy hiếp sự phát triển bền vững của nền nông nghiệp vùng Mekong.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2424,108 +2393,100 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the socio-economic features of the Lower Mekong basin, the impact of dam construction on the region's ecosystems and human life, and the potential consequences of these changes. It is well-structured and detailed, but it could be slightly more concise.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the Mekong region, including its geography, climate conditions, hydrology, population characteristics, and human activities. It also explains how these factors affect the development and conservation of the Mekong River. However, it does not explicitly mention the topological setup, which was part of the user's query.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>"Discuss the impact of dam construction on the hydrological cycle and sediment loads in the Mekong River Basin. How do these changes potentially affect the region's socio-economic aspects?"</t>
+          <t>Theo nghiên cứu, đập nước đã tác động như thế nào đến chu kỳ thủy văn tự nhiên và làm thay đổi lưu lượng nước trong mùa mưa và mùa khô? Hãy nêu rõ các hậu quả của việc xây dựng đập lên lưu lượng nước và tần suất lũ lụt ở các khu vực cụ thể.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Dam construction in the Mekong River Basin has significantly altered the natural hydrological cycle. This alteration has resulted in lower flood peaks and higher dry season flows. The impacts on flood and low flow hydrology vary, with some studies attribiting low flow levels to poor rainfall and deforestation. Upstream dams and reservoirs have also affected monsoon water flows downstream, and dam development is expected to impact flood frequency and flow magnitude in specific regions.
-In terms of sediment loads, dams trap up to 95% of sediments, leading to a reduction in downstream sediment loads. The reduction in sediment discharge was particularly observed after the construction of the Manwan dam in China. The locations and quantities of dams influence sediment reduction, which can have potential consequences for the delta's sedimentation rates.
-These changes in the hydrological cycle and sediment loads can have significant impacts on the socio-economic aspects of the region. The lower flood peaks and higher dry season flows can affect agriculture and aquaculture, which are essential to the region's economy. The reduction in sediment loads can lead to uncertainties in post-dam sediment data, potentially affecting the stability of the Mekong Delta, which is home to 20 million people and plays a crucial role in rice production and export for Vietnam. Furthermore, the changes in flood frequency and flow magnitude can increase flood risks in certain areas, posing threats to local communities and infrastructure.</t>
+          <t>Rất tiếc, thông tin được cung cấp không đề cập đến tác động của đập nước đối với chu kỳ thủy văn tự nhiên hoặc làm thay đổi lưu lượng nước trong mùa mưa và mùa khô. Do đó, không thể nêu rõ hậu quả của việc xây dựng đập lên lưu lượng nước và tần suất lũ lụt ở các khu vực cụ thể.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and appears to be fully correct. It provides a comprehensive discussion on the impact of dam construction on the hydrological cycle and sediment loads in the Mekong River Basin, and how these changes potentially affect the region's socio-economic aspects. The answer is detailed, well-structured, and covers all aspects of the query.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for the impact of dams on the natural hydrological cycle and how they change water flow in rainy and dry seasons, as well as the consequences of dam construction on water flow and flood frequency in specific areas. The generated answer, however, does not provide any of this information.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>"Compare the effects of dam construction on the Amazon River and China's Huang He (Yellow) River. What are the key risks associated with the construction of megadams on large rivers, and how does the Dam Environmental Vulnerability Index (DEVI) highlight these vulnerabilities?"</t>
+          <t>Đề cập đến tình hình ô nhiễm nước tại lưu vực sông Mekong, hãy mô tả những nguy cơ tiềm ẩn đối với chất lượng nước do sự gia tăng của nước thải công nghiệp, nông nghiệp và đô thị.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The construction of megadams on large rivers like the Amazon and China's Huang He (Yellow) River has significant impacts. The Amazon River is heavily dammed, with numerous dams already built and many more planned. This has led to high vulnerability in several sub-basins, as highlighted by the Dam Environmental Vulnerability Index (DEVI). On the other hand, dams on China's Huang He (Yellow) River have resulted in decreased sediment deposition and increased erosion downstream.
-The key risks associated with the construction of megadams on large rivers include downstream sediment and nutrient reductions, changes in flood patterns, and reservoir siltation. These risks can have significant environmental impacts and can disrupt the natural balance of the river ecosystem. The DEVI is a tool that helps to highlight these vulnerabilities by assessing the potential environmental risks associated with dam construction in different river basins.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến tình hình ô nhiễm nước tại lưu vực sông Mekong hoặc nguy cơ tiềm ẩn đối với chất lượng nước do sự gia tăng của nước thải công nghiệp, nông nghiệp và đô thị.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive comparison of the effects of dam construction on the Amazon River and China's Huang He (Yellow) River. It also accurately describes the key risks associated with the construction of megadams on large rivers and explains how the Dam Environmental Vulnerability Index (DEVI) highlights these vulnerabilities. The only reason it does not receive a perfect score is because it does not provide specific examples or data to support its claims.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for a description of the potential risks to water quality in the Mekong River basin due to the increase in industrial, agricultural, and urban wastewater, but the chatbot did not provide any information on this topic.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>"Discuss the potential impacts of climate change on large rivers, such as the Mekong, Amazon, and Nile. How might these impacts vary depending on the specific characteristics of each river basin?"</t>
+          <t>Hãy mô tả những tác động tiêu cực của việc xây dựng đập lớn đối với các dòng sông lớn trên thế giới, đặc biệt là sông Amazon và sông Huang He (Yellow) của Trung Quốc.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Climate change can have a variety of impacts on large rivers like the Mekong, Amazon, and Nile. For instance, studies in the Mekong River Basin have projected increased average temperatures, but the patterns of precipitation remain uncertain. This could potentially affect the hydrological cycle of the river, including the monomodal flood pulse, which is a key feature of the Mekong.
-In the case of the Amazon River, climate change is expected to intensify the hydrological cycle, potentially leading to an increase in extreme events during short periods. This could result in increased flood magnitude and return period. Similarly, atmospheric rivers, which transport moisture, may also be influenced by climate change, impacting the river flow regimes.
-For the Nile and Danube rivers, climate change might lead to decreased flood magnitude and return period. This is because these rivers might not be as affected by monsoon rainfall and glacier meltwater as others, like the Indus and Brahmaputra, which could face reduced flow due to glacier loss.
-The impacts of climate change on these rivers can vary depending on the specific characteristics of each river basin. For example, rivers like the Huang He might benefit from increased precipitation due to climate change, while Arctic rivers in Russia may experience increased flow due to ice melt and permafrost thaw. 
-In summary, climate change can have diverse impacts on large rivers, and these impacts can vary greatly depending on the specific characteristics of each river basin.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến tác động tiêu cực của việc xây dựng đập lớn đối với các dòng sông lớn trên thế giới, đặc biệt là sông Amazon và sông Huang He (Yellow) của Trung Quốc.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed discussion on the potential impacts of climate change on large rivers such as the Mekong, Amazon, and Nile. It also explains how these impacts might vary depending on the specific characteristics of each river basin. However, the user didn't ask about the Danube, Huang He, or Arctic rivers in Russia, so the inclusion of these rivers is unnecessary and slightly detracts from the answer's focus.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for a description of the negative impacts of building large dams on major rivers in the world, especially the Amazon and Huang He (Yellow) rivers, but the generated answer does not provide any information on this topic.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>"Explain the role of international organizations like the Mekong River Commission in promoting sustainable development and facilitating communication among countries. How can lessons from the management of other large rivers, like the Nile, inform improved management of the Mekong?"</t>
+          <t>Trình bày về những chiến lược cục bộ và khu vực được đề xuất trong bài nghiên cứu để giải quyết các vấn đề liên quan đến nguồn nước ngầm và phát triển đập.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>International organizations such as the Mekong River Commission (MRC) play a crucial role in promoting sustainable development and facilitating communication among countries in the Mekong region. They are responsible for sharing scientific data, which can help in making informed decisions about the region's development. The MRC also reviews projects for potential development impacts, ensuring that any proposed initiatives are sustainable and beneficial for the region.
-Lessons from the management of other large rivers, like the Nile, can be used to improve the management of the Mekong. The Nile has robust international management, which can serve as a model for the Mekong. By studying the strategies and practices used in the Nile's management, the Mekong region can adopt and implement similar measures to address its unique challenges. This could include strategies for dam development, water quality improvement, and dealing with the impacts of climate change.</t>
+          <t>Bài nghiên cứu đề xuất một số chiến lược để giải quyết các vấn đề liên quan đến nguồn nước ngầm và phát triển đập. Đầu tiên, cần quy hoạch lại hệ thống kênh, vét kênh để tạo dòng chảy nhằm chia sẻ lượng nước trên các con sông với nhau. Thứ hai, xây dựng hệ thống đê điều hợp lý để ngăn nước biển và hệ thống đập ngăn mặn ngăn nước biển xâm nhập vào đồng ruộng, nhằm giảm thiệt hại do xâm nhập mặn gây ra.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2540,19 +2501,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the role of international organizations like the Mekong River Commission. It also correctly addresses how lessons from the management of other large rivers can inform improved management of the Mekong. The only reason it doesn't get a perfect score is because it could have provided more specific examples or details from the Nile's management that could be applied to the Mekong.</t>
+          <t>The generated answer is relevant to the user query and provides strategies to address the issues related to groundwater and dam development. However, it does not specifically mention local and regional strategies as asked in the query.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>In the context of the research paper "Thiết lập mô hình cân bằng nước phục vụ lập quy hoạch tổng hợp lưu vực sông Cửu Long", what is the role of the MIKE HYDRO BASIN (MHB) model in assessing the water supply's ability to meet various water usage needs in the Mekong River Basin?</t>
+          <t>Theo nghiên cứu trong bài báo, mô hình cân bằng nước MIKE HYDRO BASIN (MHB) được áp dụng để đánh giá khả năng đáp ứng của nguồn nước cho những nhu cầu sử dụng nước nào tại lưu vực sông Cửu Long?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>The MIKE HYDRO BASIN (MHB) model is used to evaluate the ability of the water supply to meet various water usage needs in the Mekong River Basin. The entire basin is divided into 120 comprehensive water resource management areas. Water usage needs are calculated for six purposes including living, industry, cultivation, livestock, aquaculture, and other needs, and are limited to freshwater. The MHB model calculates the water balance on a daily basis for the current year 2020, to determine in detail the total water shortage throughout the year, the time of water shortage in the year, the months of water shortage throughout the basin and in the 120 comprehensive water resource management areas. The results show that the total water shortage throughout the year in the entire basin accounts for about 11.4% of the total water usage needs, with the most shortage occurring in February to April (19.1-19.6%), and the area with the most shortage is the Ca Mau peninsula. The MHB model applied to the Mekong River Basin can be used as a quick and convenient assessment tool to evaluate the water supply's ability to respond to different planning scenarios, thereby forming the basis for selecting appropriate water allocation options. The river network established in the MHB model includes 130 rivers and channels, of which 43 rivers are part of the comprehensive planning of the Mekong River Basin and are inter-provincial rivers and water sources. The selected rivers and channels are all major channels or the boundaries of water use areas.</t>
+          <t>Mô hình cân bằng nước MIKE HYDRO BASIN (MHB) được áp dụng để đánh giá khả năng đáp ứng của nguồn nước dựa trên số lượng nước. Mô hình này phụ thuộc lớn vào các quy tắc được thiết lập để phân bổ dòng chảy, bao gồm các quy tắc về phân bổ lượng nước nội sinh từ mưa vào các sông/kênh, tỉ lệ phân lưu giữa các nhánh sông/kênh, phân bổ nhu cầu nước đối với từng nguồn cấp, phân bổ nguồn cấp cho từng đối tượng sử dụng nước, và phân bổ dòng chảy hồi quy trở lại từng nguồn cấp. Tuy nhiên, mô hình này không xem xét đến chất lượng nước và độ mặn.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2562,24 +2523,24 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of the MIKE HYDRO BASIN (MHB) model in assessing the water supply's ability to meet various water usage needs in the Mekong River Basin. It includes specific details about the model's application, the division of the basin, the calculation of water usage needs, and the results of the model's application. The answer is fully correct and comprehensive, providing a clear and thorough response to the user's question.</t>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of how the MIKE HYDRO BASIN (MHB) model is used to evaluate the water supply's ability to meet various water usage needs. However, it does not specifically mention the Mekong Delta (Cửu Long River Basin), which was part of the user's question.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>According to the document, how do international organizations like the Mekong River Commission (MRC) contribute to sustainable development and communication among Mekong countries?</t>
+          <t>Theo kết quả tính toán từ mô hình MHB, thời gian thiếu nước nhiều nhất trong năm ở lưu vực sông Cửu Long là vào những tháng nào và khu vực nào thiếu nước nhiều nhất?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>International organizations like the Mekong River Commission (MRC) contribute to sustainable development and communication among Mekong countries by sharing scientific data, promoting sustainable development practices, and facilitating communication. The MRC also reviews projects for potential development impacts.</t>
+          <t>Thời gian thiếu nước nhiều nhất trong năm ở lưu vực sông Cửu Long là vào các tháng 2–4. Khu vực thiếu nước nhiều nhất là vùng bán đảo Cà Mau, đặc biệt là vùng Nam bán đảo Cà Mau, với tỉ lệ thiếu trung bình 25,5%.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2594,19 +2555,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be correct, providing specific ways in which the MRC contributes to sustainable development and communication among Mekong countries. However, without a reference answer, it's difficult to confirm the absolute accuracy of the information.</t>
+          <t>The generated answer is highly relevant to the user query and provides specific and detailed information about the time of year and the area where water shortage is most severe in the Mekong Delta, according to the MHB model.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Explain the impact of the East Sea and West Sea tides on the flow in the LVSCL river system, including Tan Chau and Chau Doc. How does this two-way flow (negative or positive flow rate) depend on the tide?</t>
+          <t>Hãy mô tả đặc điểm của dòng chảy trong hệ thống sông, kênh vùng LVSCL, bao gồm cả dòng chảy tại Tân Châu và Châu Đốc? Và giải thích tại sao mô hình MHB chỉ cho phép thiết lập dòng chảy cố định 1 chiều?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>The flow in the LVSCL river system, including Tan Chau and Chau Doc, is significantly influenced by the tides of the East Sea and West Sea. This results in a two-way flow, meaning the flow can either be negative or positive depending on whether the tide is rising or falling. The tidal regime is semi-diurnal or irregular semi-diurnal, which means there are usually two high tides and two low tides each day. The direction chosen in the river network setup is the direction of the average flow over a long period (month). This setup may not accurately simulate the actual flow regime, but it aligns with the general trend of the flow and the purpose of assessing the ability to meet fresh water needs over a long period.</t>
+          <t>Dòng chảy trong hệ thống sông, kênh vùng LVSCL, bao gồm cả dòng chảy tại Tân Châu và Châu Đốc, có đặc điểm là chịu ảnh hưởng mạnh của thủy triều biển Đông và biển Tây, nên dòng chảy là 2 chiều, phụ thuộc vào lúc triều lên hay triều rút. Trong ngày thường có 2 lần triều lên và 2 lần triều rút. Tuy nhiên, mô hình MHB chỉ cho phép thiết lập dòng chảy cố định 1 chiều. Lý do là mô hình này được thiết kế để mô phỏng xu hướng chung của dòng chảy và đánh giá khả năng đáp ứng nhu cầu nước ngọt trong thời đoạn dài, đồng thời đảm bảo sự đơn giản và linh hoạt cần thiết trong việc đánh giá các phương án, kịch bản phân bổ nguồn nước khác nhau.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2621,46 +2582,47 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the tides of the East Sea and West Sea influence the flow in the LVSCL river system, including Tan Chau and Chau Doc. It also explains how this results in a two-way flow, which can be either negative or positive depending on the tide. The only reason it doesn't get a perfect score is because it doesn't explicitly state how the flow rate depends on the tide, which was part of the user's question.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the flow characteristics in the LVSCL river system, including Tan Chau and Chau Doc. It also correctly explains why the MHB model only allows for a one-way fixed flow setup.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Describe the challenges faced in applying the MHB model to balance water in detail up to 120 regions in LVSCL. How does the model incorporate the endogenous flow from rain and groundwater sources?</t>
+          <t>Trong mô hình MHB, dòng chảy nội sinh từ mưa được đưa vào mô hình thông qua bao nhiêu nút? Và mỗi nút này đại diện cho điều gì?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>The context does not provide information on the challenges faced in applying the MHB model to balance water in up to 120 regions in LVSCL, nor does it discuss how the model incorporates the endogenous flow from rain and groundwater sources.</t>
+          <t>Trong mô hình MHB, dòng chảy nội sinh từ mưa được đưa vào mô hình thông qua 120 nút. Mỗi nút này đại diện cho một khu sử dụng nước.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any relevant information or answer to the user's query. It simply states that the context does not provide information, which is not helpful or informative.</t>
+          <t>The generated answer is not relevant to the user query. The user query asks about the MHB model, but the generated answer does not provide any specific information about this model.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Can you explain the concept of "Tỉ lệ phân lưu" (bifurcation rate) as described in the research paper "researched_paper_cleanup.txt"? How is it determined at each node in the context of river flow?</t>
+          <t>Hãy giải thích ý nghĩa của "Tỉ lệ phân lưu" và "Quy tắc lấy nước từ nhiều nút cấp" trong nghiên cứu về mạng lưới sông LVSCL.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>The concept of "Tỉ lệ phân lưu" or bifurcation rate refers to the proportion of flow that is diverted at each node in a river network. It is determined by the ratio of the flow volume that goes into a branch river to the total flow volume that arrives at the node. This bifurcation of flow within the river network is relatively stable. The bifurcation rate is incorporated into the model as the relationship between the flow volume of the main river and its branches, determined from the results of hydraulic model calculations. This includes the influence of tides. However, in locations significantly affected by tides, the relationship between hourly or average daily flow volumes between the main river and its branches can be complex, especially when the main river and its branches are influenced by tides from different directions. The impact of border overflow also complicates the flow volume relationship between the main river and its branches. Therefore, running separate models for flood and dry seasons ensures better simulation and higher reliability due to the relatively stable direction of average daily flow or larger time spans per season.</t>
+          <t>"Tỉ lệ phân lưu" là một khái niệm liên quan đến cách dòng chảy được phân chia tại mỗi nút trong mạng lưới sông. Nó được xác định bằng cách lấy tỉ lệ giữa lưu lượng dòng chảy ra sông nhánh và tổng lưu lượng dòng chảy đến nút. Điều này cho thấy cách dòng chảy được phân phối trong mạng lưới sông.
+"Quy tắc lấy nước từ nhiều nút cấp" là một quy tắc được sử dụng trong nghiên cứu để xác định tỉ lệ nhu cầu nước của một đối tượng được lấy từ một nút cụ thể. Tỉ lệ này được xác định bằng cách lấy tỉ lệ giữa lượng nước đến tại nút cụ thể và tổng lượng nước đến tại tất cả các nút cấp cho đối tượng đang xét. Tỉ lệ này không cố định mà thay đổi theo ngày, tương ứng với sự thay đổi của lượng nước đến từng nút.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2675,19 +2637,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>The generated answer provides a comprehensive explanation of the concept of "Tỉ lệ phân lưu" or bifurcation rate, and how it is determined at each node in the context of river flow. It also discusses the complexities involved in determining the bifurcation rate, such as the influence of tides and border overflow. The answer is relevant and appears to be correct, but without a reference answer, it's difficult to confirm its complete accuracy.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the terms "Tỉ lệ phân lưu" and "Quy tắc lấy nước từ nhiều nút cấp" in the context of river network studies. The answer is clear, comprehensive, and appears to be correct, even in the absence of a reference answer.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>According to the research paper, what is the significance of the "priority node" in water distribution? How is the water allocation for an object from a node calculated?</t>
+          <t>Theo kết quả nghiên cứu, vùng nào thiếu nước nhiều nhất và thời gian thiếu nước nhiều nhất là khi nào? Hãy nêu nguyên nhân dựa trên thông tin trong bài.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>The "priority node" in water distribution is significant as it determines the proportion of water allocated to a specific object from a node. The water allocation for an object from a node is calculated by the ratio of the water demand of that object taken from that node (an object can take water from multiple nodes) to the total water demand of all objects taking water from that node.</t>
+          <t>Vùng Đồng Bằng Sông Cửu Long, cụ thể là tỉnh Sóc Trăng và huyện Long Phú, đã chịu ảnh hưởng nặng nề nhất về thiếu nước. Thời gian thiếu nước nhiều nhất là vào cuối năm 2015 và đầu năm 2016. Nguyên nhân chính là do xâm nhập mặn và khô hạn. Điều này đã làm giảm nguồn nước mặt dùng cho canh tác lúa, buộc nông dân phải sử dụng nước giếng, dẫn đến suy giảm nguồn tài nguyên nước dưới đất.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2702,46 +2664,47 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be correct, providing a clear explanation of the significance of the "priority node" in water distribution and how water allocation for an object from a node is calculated. However, without a reference answer, it's difficult to confirm the absolute accuracy of the information.</t>
+          <t>The generated answer is highly relevant to the user query and provides detailed and accurate information about the region most affected by water shortage, the time when the shortage was most severe, and the reasons for the shortage.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>What are the two main obstacles that affect the validity of the water balance results using the MHB model on LVSCL and similar areas with complex river/channel networks, as mentioned in the document?</t>
+          <t>Trong nghiên cứu này, mô hình MHB đã được sử dụng để phân bổ nguồn nước. Tuy nhiên, mô hình này có hạn chế gì và tại sao việc xem xét chất lượng nước, đặc biệt là độ mặn, lại quan trọng trong bối cảnh hiện tại?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>The document does not provide specific information on the two main obstacles that affect the validity of the water balance results using the MHB model on LVSCL and similar areas with complex river/channel networks.</t>
+          <t>Mô hình MHB được sử dụng trong nghiên cứu này chủ yếu tập trung vào việc phân bổ số lượng nước, nhưng nó không xem xét đến chất lượng nước, đặc biệt là độ mặn. Điều này là một hạn chế vì chất lượng nước, bao gồm độ mặn, có thể ảnh hưởng đến việc sử dụng nước cho các mục đích khác nhau, như sản xuất nông nghiệp. Điều này đặc biệt quan trọng trong bối cảnh hiện tại, khi mặn được dự báo sẽ thay đổi bất thường do chế độ vận hành của các thủy điện ở thượng lưu. Đối với các khu vực sử dụng nước thuộc vùng mặn và lợ thuộc vùng bán đảo Cà Mau, việc xem xét độ mặn là cần thiết, vì xâm nhập mặn có thể gây ra sự thiếu hụt nước nghiêm trọng hơn.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the topic of the MHB model and its application to areas with complex river/channel networks. However, it does not provide any specific information about the two main obstacles that affect the validity of the water balance results, which was the main point of the user's question. Therefore, it is not fully correct.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the limitations of the MHB model and the importance of considering water quality, especially salinity. It also provides context for the current situation. The only reason it doesn't get a perfect score is because without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>In the context of the document, how is the flow distribution ratio, which is input into the model, determined and what factors does it include?</t>
+          <t>Trình bày hai trở ngại chính ảnh hưởng đến tính hợp lý của kết quả cân bằng nước bằng mô hình MHB trên LVSCL và giải thích cách tỷ lệ phân lưu được xác định trong mô hình này.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The flow distribution ratio is determined from the results of hydraulic model calculations. It is input into the model as the relationship between the main flow and the branch flow. This ratio includes the influence of the tide. However, in locations significantly affected by the tide, the relationship between the hourly or daily average flow of the main and branch rivers is often not strict, especially when the main river and the branch river are affected by tides from two different directions. Additionally, the impact of border overflow also complicates the flow relationship between the main and branch rivers, making it difficult to strictly define. At certain times of the day, the bifurcation point can turn into an inflow point or vice versa due to the change in direction of the average flow. Therefore, separating the model for the flood season and the dry season ensures better simulation and higher reliability as the direction of the average daily flow or larger time period is quite stable for each season.</t>
+          <t>Hai trở ngại chính ảnh hưởng đến tính hợp lý của kết quả cân bằng nước bằng mô hình MHB trên LVSCL bao gồm việc xác định tỷ lệ phân lưu giữa các nhánh sông/kênh, và tỉ lệ phân bổ giữa nhiều nguồn nước cho nhiều đối tượng khác nhau. 
+Tỷ lệ phân lưu trong mô hình này được xác định dưới dạng đường quan hệ lưu lượng giữa dòng chính và dòng nhánh, được xác định từ kết quả tính toán của mô hình thủy lực, do đó đã bao gồm ảnh hưởng của triều. Cụ thể hơn, tỷ lệ phân lưu tại mỗi nút được xác định bằng tỉ lệ lưu lượng dòng chảy ra sông nhánh trên tổng lưu lượng dòng chảy đến nút. Sự phân chia dòng chảy trong mạng sông LVSCL là tương đối ổn định.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2756,19 +2719,20 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the flow distribution ratio is determined and the factors it includes. It mentions the influence of the tide, the impact of border overflow, and the change in direction of the average flow. The only reason it doesn't get a perfect score is because it could be more concise.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the two main obstacles affecting the validity of the water balance results using the MHB model on LVSCL and how the diversion ratio is determined in this model.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Explain the impact of tidal influences on the relationship between the main stream and branch flow in areas with significant tidal effects, as discussed in the text. How does this relationship become more complex during flood season and dry season?</t>
+          <t>Theo nghiên cứu, hãy mô tả ảnh hưởng của triều và lũ tràn biên giới đến quan hệ lưu lượng giữa dòng chính và dòng nhánh? Vì sao việc chia mô hình chạy riêng rẽ cho mùa lũ và mùa kiệt lại quan trọng?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>The text does not provide specific information on the impact of tidal influences on the relationship between the main stream and branch flow in areas with significant tidal effects, nor does it discuss how this relationship becomes more complex during flood season and dry season.</t>
+          <t>Triều và lũ tràn biên giới có ảnh hưởng đáng kể đến quan hệ lưu lượng giữa dòng chính và dòng nhánh. Tại các vị trí chịu ảnh hưởng triều lớn, quan hệ giữa lưu lượng giờ hoặc lưu lượng trung bình ngày giữa dòng chính và dòng nhánh thường không chặt chẽ, đặc biệt khi sông chính và sông nhánh chịu ảnh hưởng triều từ hai hướng khác nhau. Ảnh hưởng của lũ tràn biên giới cũng làm cho quan hệ lưu lượng giữa dòng chính và dòng nhánh trở nên rất phức tạp, khó chặt chẽ. Có những thời điểm trong ngày từ vị trí là điểm phân lưu biến thành nhập lưu hoặc ngược lại do dòng chảy trung bình đổi chiều. 
+Việc chia mô hình chạy riêng rẽ cho mùa lũ và mùa kiệt quan trọng vì nó đảm bảo mô phỏng tốt, độ tin cậy cao hơn do chiều dòng chảy trung bình ngày hoặc thời đoạn lớn hơn là khá ổn định theo từng mùa.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2778,24 +2742,24 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any information or explanation about the impact of tidal influences on the relationship between the main stream and branch flow in areas with significant tidal effects, nor does it discuss how this relationship becomes more complex during flood season and dry season. It simply states that the text does not provide this information, which does not answer the user's query.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of tides and border floods on the flow relationship between the main stream and the branch stream. It also explains why it is important to separate the model for the flood season and the dry season. The answer seems to be correct and comprehensive, but without a reference answer, it's hard to be completely certain.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Based on the research findings in the document, identify the region with the highest water shortage and provide the average shortage percentage. Also, discuss the time of the year when the water shortage is most severe.</t>
+          <t>Dựa vào kết quả tính toán cân bằng nước, hãy phân tích tình hình thiếu nước trên lưu vực, đặc biệt là vùng bán đảo Cà Mau và các vùng giáp biển Đông và biển Tây.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>The context does not provide specific information on the region with the highest water shortage or the average shortage percentage. It also does not discuss the time of the year when the water shortage is most severe.</t>
+          <t>Tổng lượng nước thiếu cả năm trên toàn vùng chiếm khoảng 11,4% so với tổng nhu cầu sử dụng nước. Thời gian thiếu nước nhiều nhất là vào tháng 2–4. Vùng bán đảo Cà Mau, đặc biệt là vùng Nam bán đảo Cà Mau, là khu vực thiếu nước nhiều nhất với tỉ lệ thiếu trung bình 25,5%. Các vùng khác như Tứ giác Long Xuyên, giữa sông Tiền–sông Hậu, và tả sông Tiền cũng gặp tình trạng thiếu nước, nhưng không nghiêm trọng như vùng bán đảo Cà Mau, kể cả vào mùa khô. Tuy nhiên, một số khu vực giáp biển Đông và biển Tây cũng gặp tình trạng thiếu nước do bị nhiễm mặn.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2810,19 +2774,19 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any information related to the user's query. It simply states that the information is not available, which does not help answer the user's question.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the water shortage situation in the specified areas. It also includes specific statistics and mentions the most affected periods and regions, which shows a high level of accuracy. However, without a reference answer, it's hard to confirm the exact correctness of the provided data.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Based on the research paper "Nghiên cứu, đề xuất các mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn tại tỉnh Vĩnh Long", can you explain the impact of salt intrusion on the agricultural models in Vĩnh Long province and how the proposed models can adapt to this situation?</t>
+          <t>Trong nghiên cứu "Nghiên cứu, đề xuất các mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn tại tỉnh Vĩnh Long", tác giả đã xem xét bao nhiêu mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn và cuối cùng đã xây dựng được bao nhiêu mô hình phù hợp với tình hình canh tác tại tỉnh Vĩnh Long? Hãy liệt kê các lĩnh vực mà các mô hình này thuộc về.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>The context does not provide information on the research paper "Nghiên cứu, đề xuất các mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn tại tỉnh Vĩnh Long", or the impact of salt intrusion on the agricultural models in Vĩnh Long province and how the proposed models can adapt to this situation.</t>
+          <t>Thông tin trong ngữ cảnh không cung cấp đủ chi tiết về số lượng mô hình sinh kế nông nghiệp được xem xét trong nghiên cứu "Nghiên cứu, đề xuất các mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn tại tỉnh Vĩnh Long", cũng như số lượng mô hình đã được xây dựng phù hợp với tình hình canh tác tại tỉnh Vĩnh Long. Cũng không có thông tin về các lĩnh vực mà các mô hình này thuộc về.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2837,46 +2801,47 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any relevant information or answer to the user's query. It simply states that the context does not provide the necessary information, which is not helpful or informative.</t>
+          <t>The generated answer is relevant to the user query as it addresses the question about the number of models considered and built in the research. However, it does not provide any specific information or details, stating that the context does not provide enough information. This is a limitation, but the answer is still relevant and does not contain factual errors.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The paper mentions the effects of salt intrusion during the dry season of 2015-2016 and 2019-2020 in Vĩnh Long province. Can you describe the extent of these effects and how they impacted different types of crops and regions within the province?</t>
+          <t>Tại tỉnh Vĩnh Long, xâm nhập mặn đã gây ảnh hưởng như thế nào đến sản xuất nông nghiệp trong mùa khô 2015-2016 và mùa khô 2019-2020? Hãy nêu rõ các con số và vùng bị ảnh hưởng nếu có.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>The context does not provide specific information about the effects of salt intrusion during the dry season of 2015-2016 and 2019-2020 in Vĩnh Long province, or how they impacted different types of crops and regions within the province.</t>
+          <t>Rất tiếc, thông tin được cung cấp không đề cập đến ảnh hưởng của xâm nhập mặn đến sản xuất nông nghiệp tại tỉnh Vĩnh Long trong mùa khô 2015-2016 và mùa khô 2019-2020.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any relevant information to the user's query. It simply states that the context does not provide the necessary information, which does not answer the user's question.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the impact of saltwater intrusion on agricultural production in Vinh Long province during the dry seasons of 2015-2016 and 2019-2020.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Based on the research conducted in the Vĩnh Long province, what were the key strategies implemented to enhance the effectiveness of the SKNN models adapted for XNM?</t>
+          <t>Hãy mô tả quy trình xây dựng và áp dụng 15 mô hình SXNN thích ứng XNM tại tỉnh Vĩnh Long, bao gồm các bước từ việc phân tích đặc điểm của các mô hình SKNN hiện hữu, xem xét 25 mô hình SKNN thích ứng với XNM, đến việc tổ chức tập huấn và thực tế cho nông hộ.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>The key strategies implemented to enhance the effectiveness of the SKNN models adapted for XNM in the Vĩnh Long province included the construction of 15 SKNN models suitable for the local farming situation. These models were adapted for various sectors such as crop cultivation, livestock farming, aquaculture, and combined production. Additionally, five models were piloted at 20 households, which included rice cultivation, corn, watermelon, breeding cattle, and striped catfish farming, showing high economic efficiency and potential for expansion in similar conditions. To further enhance the application effectiveness, nearly 100 farming households in Vũng Liêm, Trà Ôn, and Mang Thít districts were trained in three conferences. A practical study tour was also organized in Bến Tre province for 30 exemplary farming households. The remaining models are recommended to be piloted in the annual agricultural promotion programs of the province, and the application of supportive policies for farming households is suggested.</t>
+          <t>Đầu tiên, các đặc điểm của các mô hình sinh kế nông nghiệp (SKNN) hiện hữu tại địa phương được phân tích. Sau đó, 25 mô hình SKNN thích ứng với xâm nhập mặn (XNM) được xem xét, những mô hình này đã được áp dụng một cách hiệu quả tại đồng bằng sông Cửu Long (ĐBSCL). Dựa trên bộ tiêu chí đánh giá tính khả thi (bao gồm 7 nhóm tiêu chí và 45 chỉ thị thành phần), 15 mô hình SXNN thích ứng XNM thuộc các lĩnh vực trồng trọt, chăn nuôi, nuôi trồng thuỷ sản (NTTS) và sản xuất kết hợp được xây dựng phù hợp với tình hình canh tác tại tỉnh Vĩnh Long.
+Để tăng cường hiệu quả ứng dụng, 3 hội nghị tập huấn cho gần 100 nông hộ tại huyện Vũng Liêm, Trà Ôn, Mang Thít và 01 chuyến tham quan, học tập thực tế tại tỉnh Bến Tre cho 30 nông hộ điển hình đã được tổ chức. Trong số các mô hình được đề xuất, 5 mô hình được triển khai thí điểm tại 20 hộ (trồng lúa, bắp nếp, dưa hấu, nuôi bò sinh sản và cá rô phi vằn) cho hiệu quả kinh tế cao cũng như tiềm năng nhân rộng tại các khu vực có điều kiện tương tự.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2891,46 +2856,47 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the strategies implemented to enhance the effectiveness of the SKNN models in the Vĩnh Long province. It does not contain any noticeable mistakes. However, it could be slightly more concise.</t>
+          <t>The generated answer is highly relevant and accurate to the user query. It provides a detailed description of the process of building and applying 15 adaptive agricultural livelihood models in Vinh Long province, including the steps from analyzing the characteristics of existing models, considering 25 models adapted to saltwater intrusion, to organizing training and practical for households.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>In the context of the research paper "Giải pháp vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng đồng bằng sông cửu long" by Dũng et al. (2021), what were the proposed solutions for the operation of the inter-provincial irrigation system in the Mekong Delta region?</t>
+          <t>Trong các mô hình đề xuất, 5 mô hình đã được triển khai thí điểm tại 20 hộ và cho thấy hiệu quả kinh tế cao cũng như tiềm năng nhân rộng. Hãy liệt kê và mô tả chi tiết về 5 mô hình này, bao gồm lĩnh vực hoạt động và cách thức triển khai.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>The proposed solutions for the operation of the inter-provincial irrigation system in the Mekong Delta region, as discussed in the research paper by Dũng et al. (2021), involve the use of smart and flexible operation of the irrigation system. This is to enhance water productivity and protect the ecological environment. The solutions are based on the Internet of Things (IoT) technology. The paper also suggests that the only solution to meet the increasing demand for food in the context of limited land and water resources is to improve the efficiency of land and water use through solutions that enhance the efficiency of management and exploitation of irrigation works.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến 5 mô hình đã được triển khai thí điểm tại 20 hộ. Do đó, tôi không thể liệt kê và mô tả chi tiết về 5 mô hình này.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and appears to be fully correct. It provides a detailed explanation of the proposed solutions for the operation of the inter-provincial irrigation system in the Mekong Delta region as discussed in the research paper by Dũng et al. (2021).</t>
+          <t>The generated answer is relevant to the user query and it is correct in stating that it cannot provide the requested information due to lack of specific details in the query. However, it could have been more helpful by asking for more information or suggesting where the user might find the information they are looking for.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>What are the challenges faced by the inter-provincial irrigation system in the Mekong Delta region, as discussed in the paper by Dũng et al. (2021)?</t>
+          <t>Theo bài báo, hãy mô tả những khó khăn mà hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long đang gặp phải? Giải pháp nào được đề xuất để giải quyết những vấn đề này?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The context does not provide information on the challenges faced by the inter-provincial irrigation system in the Mekong Delta region as discussed in a paper by Dũng et al. (2021).</t>
+          <t>Hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long đang gặp phải nhiều khó khăn. Một trong số đó là hiện tượng tranh chấp nước giữa các địa phương sử dụng chung hệ thống thủy lợi đang diễn ra ngày càng gay gắt. Thêm vào đó, sự phát triển của đô thị và khai thác quá tải nước ngầm đã làm giảm diện tích tưới tiêu. Đồng thời, hiện tượng xâm nhập mặn và khô hạn cũng đang tác động mạnh mẽ lên vùng này, đặc biệt là từ tháng 1 đến tháng 4 hàng năm. 
+Để giải quyết những vấn đề này, bài báo đề xuất việc nghiên cứu giải pháp để vận hành một cách thông minh, linh hoạt các công trình trong hệ thống thủy lợi nhằm nâng cao năng suất nước và bảo vệ môi trường sinh thái. Cụ thể, các giải pháp được đề xuất dựa trên nền tảng công nghệ Internet of Things (IoT). Ngoài ra, cần tăng hiệu quả sử dụng tài nguyên đất và nước thông qua các giải pháp nâng cao hiệu quả quản lý khai thác các công trình thuỷ lợi.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2940,24 +2906,24 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>The generated answer does not provide any information relevant to the user's query about the challenges faced by the inter-provincial irrigation system in the Mekong Delta region.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the problems faced by the inter-provincial irrigation system in the Mekong Delta region. It also suggests solutions to these problems. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>According to the paper, how can the Internet of Things (IoT) technology be used to improve the operation of the inter-provincial irrigation systems in the Mekong Delta region?</t>
+          <t>Trình bày về tầm quan trọng của việc vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long trong bối cảnh biến đổi khí hậu và xâm nhập mặn. Công nghệ nào được đề cập trong bài báo để hỗ trợ việc này?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>The paper suggests that Internet of Things (IoT) technology can be used to intelligently operate inter-provincial irrigation systems in the Mekong Delta region. This would involve using IoT to manage the various water needs of different sectors such as agriculture, aquaculture, tourism, environment, and disaster prevention. The goal is to enhance water productivity and protect the ecological environment, especially in the face of increasing climate change and extreme salt intrusion. However, the paper does not provide specific details on how IoT technology would be implemented to achieve these goals.</t>
+          <t>Việc vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long đóng vai trò quan trọng trong sản xuất nông nghiệp và dân sinh. Trong bối cảnh biến đổi khí hậu và xâm nhập mặn ngày càng bất lợi và khó lường, việc vận hành thông minh và linh hoạt các công trình trong hệ thống thủy lợi trở nên cần thiết hơn bao giờ hết để nâng cao năng suất nước và bảo vệ môi trường sinh thái. Công nghệ Internet of Things (IoT) được đề cập trong bài báo như một nền tảng hỗ trợ cho việc vận hành thông minh hệ thống thủy lợi.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2972,21 +2938,22 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of how IoT technology can be used to improve the operation of inter-provincial irrigation systems in the Mekong Delta region. It loses half a point for not providing specific details on the implementation of IoT technology, as mentioned in the answer itself.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive response. It correctly explains the importance of smart operation of inter-provincial irrigation systems in the Mekong Delta region in the context of climate change and saltwater intrusion. It also correctly identifies the Internet of Things (IoT) as the technology mentioned in the article to support this operation.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Based on the research directions mentioned in the document, can you explain how the application of technology in the management and operation of irrigation systems can help companies exploit water resources more efficiently and reduce operational costs?</t>
+          <t>Hãy liệt kê và giải thích 3 hướng nghiên cứu chính đã được sử dụng trong việc quản lý và khai thác công trình thủy lợi (CTTL) như được mô tả trong tài liệu.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>The application of technology in the management and operation of irrigation systems can help companies exploit water resources more efficiently and reduce operational costs by enabling intelligent and flexible operation of the systems. This can be achieved by integrating various technologies in a scientific and synchronized manner. The focus should be on solving the problem of optimal water use, monitoring and controlling the facilities and equipment (such as pumping stations, sluices) remotely, and overseeing the entire cultivation area (from incoming to outgoing water) to support remote operation decision-making. 
-Research results have already addressed many issues related to technology and equipment, such as hydraulic simulation and remote control and monitoring devices. The use of Internet of Things (IoT) technology can also be a foundation for operating these inter-provincial irrigation systems intelligently. 
-By enhancing the efficiency of resource use through these technological solutions, companies can meet the increasing demand for food in a context where land and water resources are limited. This not only improves water productivity but also helps protect the ecological environment.</t>
+          <t>Ba hướng nghiên cứu chính đã được sử dụng trong việc quản lý và khai thác công trình thủy lợi (CTTL) như sau:
+1. Đánh giá hiện trạng thủy lợi: Đây là việc nghiên cứu và đánh giá tình hình hiện tại của các công trình thủy lợi, bao gồm hệ thống các kênh, đê bao và cống. Mục tiêu là xác định mức độ hiệu quả của các công trình hiện tại và xác định nhu cầu cho việc nâng cấp hoặc thay thế.
+2. Tính toán vận hành cống: Đây là việc nghiên cứu và tính toán cách vận hành cống trong các tháng mùa khô, dựa trên điều kiện xâm nhập mặn. Mục tiêu là tối ưu hóa việc sử dụng nước và ngăn chặn xâm nhập mặn.
+3. Nghiên cứu ứng phó với biến đổi khí hậu: Đây là việc nghiên cứu về cách quản lý tài nguyên nước để ứng phó với biến đổi khí hậu, bao gồm thay đổi đặc điểm lũ lụt và xâm nhập mặn. Mục tiêu là đảm bảo sự bền vững của các công trình thủy lợi trong bối cảnh biến đổi khí hậu.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3001,19 +2968,20 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how technology can be applied in the management and operation of irrigation systems to exploit water resources more efficiently and reduce operational costs. It also provides examples of specific technologies and their benefits.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response. It lists and explains three main research directions used in the management and exploitation of irrigation works as requested by the user.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Analyze the data on salinity from 2007 to 2017 at Son Doc and Huong My stations as mentioned in the document. Discuss the trend of salinity increase and its implications on the water management and irrigation systems.</t>
+          <t>Dựa trên số liệu mặn từ 2007 đến 2017 tại trạm Sơn Đốc và Hương Mỹ, hãy phân tích xu hướng biến đổi của mặn và những hậu quả mà nó gây ra cho hệ thống thủy lợi và canh tác.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>The context does not provide specific data on salinity from 2007 to 2017 at Son Doc and Huong My stations. Therefore, it's not possible to analyze the trend of salinity increase and its implications on the water management and irrigation systems based on the provided information.</t>
+          <t>Từ 2007 đến 2017, mặn tại trạm Sơn Đốc và Hương Mỹ đã tăng với tốc độ 0.2-0.5 PSU/năm. Mặn năm 2015-2016 được đánh giá là trầm trọng nhất trong 90 năm qua, nhưng mặn năm 2019-2020 thậm chí còn nghiêm trọng hơn. Mặn năm 2019-2020 ở tất cả các nhánh sông, ngoại trừ sông Vàm Cỏ Đông, đều tăng so với năm 2015-2016, cao nhất là tăng thêm 9 km trên sông Vàm Cỏ Tây. Xu hướng mặn không chỉ tăng về nồng độ mà còn rút ngắn về thời gian xuất hiện mặn cực hạn.
+Tình trạng mặn tăng này đã gây ra những hậu quả nghiêm trọng cho hệ thống thủy lợi và canh tác. Cụ thể, việc phối hợp điều tiết phân phối nước chưa giải quyết được yêu cầu thực tế, có sự mâu thuẫn nhu cầu sử dụng nước đặc biệt vào mùa khô ở các địa phương đầu nguồn và cuối nguồn. Một số kênh trục chính đã bị nhiễm XNM, nhiễm phèn thường xuyên, trong khi đó một số khu vực không có nguồn tiếp ngọt làm cho nhiều diện tích rau màu bị ảnh hưởng nghiêm trọng.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3023,51 +2991,52 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and correctly states that it cannot provide the requested analysis due to lack of specific data. However, it does not attempt to provide any general insights or potential implications of salinity increase on water management and irrigation systems, which could have made the response more valuable.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the salinity changes at the Son Doc and Huong My stations from 2007 to 2017. It also discusses the consequences of these changes on the irrigation system and farming. However, it includes information about the years 2019-2020, which is beyond the requested time frame, hence the slight deduction in score.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Explain the challenges faced in the operation of hydraulic works for multiple objectives, industries, and economic subjects as mentioned in the document "researched_paper_cleanup.txt". How does the current operation process fail to address these challenges?</t>
+          <t>Theo nội dung trong tài liệu, vấn đề gì khiến công tác thủy lợi ở ĐBSCL đang ở giai đoạn "chưa thông minh" và giải pháp đề xuất để khắc phục vấn đề này là gì?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hydraulic works need to operate to serve multiple objectives, various industries, and different economic subjects. The information used in these operations must be accurate, sufficient, precise, and timely. The current operation processes of these hydraulic works partially meet the diverse water needs of different sectors such as agriculture, aquaculture, and the environment, especially in conditions of freshwater scarcity. However, these operation processes are primarily built based on determining a certain frequency of climatic factors, water sources, or salinity levels. This approach fails to adequately and accurately address the impacts of climate change in a timely manner. Therefore, the current stage of hydraulic works is described as "not smart". The proposed solution is to integrate various technologies in a synchronized, scientific manner, focusing on solving the problem of optimal water use, monitoring and controlling the works and equipment remotely, and monitoring the entire cultivation area to support remote operation decision-making.</t>
+          <t>Công tác thủy lợi ở ĐBSCL đang ở giai đoạn "chưa thông minh" do một số vấn đề như tranh chấp nước giữa các địa phương sử dụng chung hệ thống thủy lợi, biến đổi khí hậu, xâm nhập mặn, mất diện tích tưới tiêu do úng, nhiễm mặn, khai thác quá tải nước ngầm và sự phát triển của đô thị. Ngoài ra, quy trình vận hành công trình thủy lợi hiện nay chủ yếu được xây dựng dựa trên cơ sở xác định một tần suất nhất định của các yếu tố khí hậu, nguồn nước, hay độ mặn nên không xử lý được đúng, đủ, chính xác và kịp thời trước sự tác động của biến đổi khí hậu.
+Giải pháp đề xuất để khắc phục vấn đề này là vận hành một cách thông minh, linh hoạt các công trình trong hệ thống thủy lợi nhằm nâng cao năng suất nước và bảo vệ môi trường sinh thái. Điều này có thể được thực hiện thông qua việc kết hợp nhiều loại công nghệ một cách đồng bộ, khoa học, tập trung vào giải quyết bài toán sử dụng nước tối ưu, giám sát, điều khiển các công trình, thiết bị từ xa, giám sát toàn bộ khu vực canh tác để hỗ trợ ra quyết định vận hành công trình từ xa.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the challenges faced in the operation of hydraulic works for multiple objectives, industries, and economic subjects. It also explains how the current operation process fails to address these challenges. The answer could be slightly more specific in terms of the document "researched_paper_cleanup.txt", but overall it is a very good response.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the issues facing irrigation in the Mekong Delta, as well as proposed solutions to these problems. The answer is detailed, accurate, and well-structured, making it easy for the user to understand.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Based on the research results mentioned in the document, what technological and equipment-related issues have been resolved in the field of hydraulic simulation and remote control and monitoring?</t>
+          <t>Các kết quả nghiên cứu đã giải quyết được những vấn đề gì về công nghệ và thiết bị trong lĩnh vực thủy lợi?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>The research results have addressed several technological and equipment-related issues such as hydraulic simulation, control equipment, and remote monitoring.</t>
+          <t>Các kết quả nghiên cứu đã giải quyết được nhiều vấn đề về công nghệ và thiết bị trong lĩnh vực thủy lợi, bao gồm mô phỏng thủy lực và thiết bị điều khiển, giám sát từ xa.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3082,22 +3051,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query, but it does not provide specific details about what technological and equipment-related issues have been resolved in the field of hydraulic simulation and remote control and monitoring.</t>
+          <t>The generated answer is relevant and correct. It addresses the user's query about what research has solved in terms of technology and equipment in the field of irrigation. However, it could provide more specific examples or details to fully satisfy the query.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>What are the main challenges identified in the research regarding the current management of irrigation systems? Provide at least three examples from the text.</t>
+          <t>Theo nội dung của tài liệu nghiên cứu, hãy liệt kê những hạn chế chính của các kết quả nghiên cứu đã thực hiện trong quản lý điều hành hệ thống tưới hiện nay?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>The main challenges identified in the research regarding the current management of irrigation systems include the following: 
-1. The water resources planning in the Mekong Delta is largely "top-down", with villagers and farmers playing a minor role in water planning and natural prevention projection processes. This means that those most affected by water management decisions often have little say in them.
-2. The water control infrastructure systems, despite receiving about 10 percent of the state budget and labor contributions from the people, suffer from many shortcomings in terms of their structure and management. 
-3. There are significant water quantity and quality problems that limit agricultural production. These include salinity intrusion, floods, acid sulfate soils, polluted water, and fresh water shortages. These issues are exacerbated by the fact that the Mekong Delta receives the total volume of floodwaters from upstream, leading to frequent and potentially damaging flooding.</t>
+          <t>Các hạn chế chính của các kết quả nghiên cứu đã thực hiện trong quản lý điều hành hệ thống tưới hiện nay bao gồm:
+1. Các phần mềm chỉ giải quyết được các vấn đề riêng lẻ, chưa tích hợp để giải quyết tổng hợp các vấn đề trong công tác quản lý điều hành hệ thống tưới.
+2. Các giải pháp quan trắc chỉ có giá trị thực tiễn khi lắp đặt đầy đủ hệ thống trạm đo tại trải khắp hệ thống.
+3. Các giải pháp mô hình được xây dựng đơn lẻ, theo kịch bản cho trước chỉ phù hợp trong việc lập quy hoạch, kế hoạch trong dài hạn, khó áp dụng trong vận hành công trình.
+4. Giải pháp vận hành, giám sát từ xa có thể áp dụng cho từng công trình cụ thể, nhưng khó áp dụng cho vận hành cả hệ thống và phân phối nước cho nhiều đối tượng dùng nước.
+5. Chưa kết hợp được bài toán phân phối nước tối ưu với các công nghệ mô phỏng thủy lực, điều khiển từ xa.
+6. Các giải pháp chỉ quan tâm đến đối tượng sử dụng là các cơ quan, tổ chức QLKT CTTL, mà chưa tạo được kết nối với toàn bộ các cá nhân, tổ chức liên quan đến hệ thống thủy lợi từ đầu mối tới mặt ruộng, như tổ chức thủy lợi cơ sở, nông dân.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3112,19 +3084,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides three clear examples of challenges in the management of irrigation systems. It is detailed and well-structured. However, without a reference answer, it's hard to confirm the absolute correctness of the information provided.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed list of the main limitations of the research results in the current irrigation system management. It is comprehensive and appears to be correct, even without a reference answer for comparison.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Based on the research, what are the three main models proposed for the construction of the system, and how are they interconnected?</t>
+          <t>Giải pháp đề xuất trong nghiên cứu này sẽ giải quyết được những vấn đề gì trong công tác quản lý, điều hành hệ thống tưới, đặc biệt là các hệ thống thủy lợi liên tỉnh?</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>The system proposed in the research is constructed using three main models. These include a hydraulic model, a management model for irrigation infrastructure through an online GIS system (WebGIS), and a SCADA model. These models are interconnected through the Internet of Things (IoT).</t>
+          <t>The proposed solution in this research will address overall issues in the management and operation of irrigation systems, especially inter-provincial irrigation systems. It will modernize the management and operation of irrigation works, which is a current concern. This solution is a potential one with high practical applicability. It will serve as a scientific basis for the study and application of the operation of inter-provincial irrigation systems in the Mekong Delta region.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3139,19 +3111,19 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be correct, providing detailed information about the three main models used for the system construction and explaining how they are interconnected. However, without a reference answer, it's not possible to confirm the absolute correctness of the specific models mentioned.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the proposed solution in the research will address issues in the management and operation of irrigation systems, especially inter-provincial ones. However, it does not specify the exact problems that will be solved, which would have made the answer more precise.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Based on the text, what are the challenges faced when applying a system on a provincial scale and how does the text suggest these challenges can be addressed?</t>
+          <t>Trong nghiên cứu này, tác giả đã đề cập đến vấn đề gì khi áp dụng cho một hệ thống có quy mô liên tỉnh và giải pháp nào được đề xuất để giải quyết vấn đề này?</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>The text does not provide specific information about the challenges faced when applying a system on a provincial scale, nor does it suggest how these challenges can be addressed.</t>
+          <t>Khi áp dụng cho một hệ thống có quy mô liên tỉnh, tác giả đã đề cập đến vấn đề dữ liệu lớn, nghĩa là rất nhiều số liệu và ở các định dạng khác nhau sẽ được truyền tải, lưu trữ và xử lý ở trung tâm, tạo ra một khối lượng dữ liệu vô cùng lớn. Để giải quyết vấn đề này, tác giả đề xuất kết hợp ứng dụng công nghệ Bigdata để hỗ trợ xử lý dữ liệu.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3166,19 +3138,19 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and seems to be correct based on the information provided. However, without the text or a reference answer, it's hard to confirm its full accuracy.</t>
+          <t>The generated answer is relevant to the user query and seems to be correct. It addresses the problem mentioned in the query (big data) and provides a solution (using Bigdata technology). However, without a reference answer, it's hard to confirm the absolute correctness.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>In the context of the document, what role does the integration of Artificial Intelligence (AI) play in the automation of operations and what would be the human role after its implementation?</t>
+          <t>Theo tác giả, công nghệ nào cần được kết hợp để hoàn toàn tự động hóa công tác vận hành một hệ thống thông tin liên lạc và vai trò của con người trong hệ thống này sẽ là gì?</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>The integration of Artificial Intelligence (AI) plays a significant role in achieving full automation of operations. It is proposed to be used to intelligently and accurately solve decision-making problems in operations. After its implementation, the human role would be limited to supervision, asset protection, maintenance, and handling of any potential issues.</t>
+          <t>Để hoàn toàn tự động hóa công tác vận hành một hệ thống thông tin liên lạc, tác giả đề xuất cần kết hợp công nghệ trí tuệ nhân tạo (AI). Trong hệ thống này, con người sẽ chỉ đóng vai trò giám sát, bảo vệ tài sản, sửa chữa bảo dưỡng và xử lý sự cố (nếu có).</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3193,46 +3165,46 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the role of AI in automation and the human role post-implementation. However, it could have included more specific examples or details to fully answer the question.</t>
+          <t>The generated answer is relevant to the user query and appears to be correct, providing a specific technology (AI) and outlining the human role in the system. However, without a reference answer, it's not possible to confirm the absolute correctness.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Based on the data provided in the 'testing.json' file, what was the highest recorded salinity at any location in the Province of Ben Tre on 8/1/2023?</t>
+          <t>Hãy liệt kê các thông số đo lường khí hậu được ghi nhận tại địa điểm "Sông Cổ Chiên - Châu Thành (Cầu Rạch Gốc)" vào ngày "8/1/2023" theo dữ liệu trong tệp testing.json.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>The highest recorded salinity at any location in the Province of Ben Tre on 8/1/2023 was 13.00.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa bất kỳ dữ liệu nào về các thông số đo lường khí hậu tại địa điểm "Sông Cổ Chiên - Châu Thành (Cầu Rạch Gốc)" vào ngày "8/1/2023" theo dữ liệu trong tệp testing.json.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and appears to be correct, as it provides a specific value for the highest recorded salinity in the Province of Ben Tre on the specified date. Without a reference answer, it's impossible to verify the exact correctness, but the response is in line with the type of answer expected from the question.</t>
+          <t>The generated answer is relevant and correct. It directly addresses the user's query and states that there is no available data for the specified location and date in the testing.json file.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>According to the meteorological readings from the 'testing.json' file, which location in the Province of Ben Tre had a pH level of 8.5 on 8/1/2023?</t>
+          <t>Trong tệp testing.json, địa điểm nào có nồng độ muối (Salinity) cao nhất vào ngày "8/1/2023" và thông số đó là bao nhiêu?</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>The location in the Province of Ben Tre that had a pH level of 8.5 on 8/1/2023 was HTX nghêu Thành Đạt - Hiệp Thạnh - TX. Duyên Hải.</t>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp dữ liệu về nồng độ muối (Salinity) ở bất kỳ địa điểm nào vào ngày "8/1/2023".</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3247,78 +3219,78 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and appears to be correct, providing a specific location in the Province of Ben Tre that had the specified pH level on the given date. Without a reference answer, it's impossible to verify the accuracy, but the response is in line with the question's requirements.</t>
+          <t>The generated answer is relevant to the user query and seems correct, but without a reference answer or the actual data from the 'testing.json' file, it's impossible to confirm its absolute correctness. The bot appropriately communicates that it cannot provide the requested information due to lack of data.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Based on the data provided in the testing.json file, can you analyze and explain the correlation between the salinity and temperature at different locations in Ben Tre province on the date 8/1/2023?</t>
+          <t>Hãy liệt kê các thông số môi trường được ghi nhận tại địa điểm "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" vào ngày "8/1/2023".</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>On August 1, 2023, in the Ben Tre province, the salinity and temperature readings varied across different locations. For instance, at "Sông Cổ Chiên - Châu Thành (Cầu Rạch Gốc)", "Bến phà Long Hưng - Hòa Minh - Châu Thành", and "Sông Vinh Kim - Cầu Ngang", the salinity was 0.00 and the temperatures were 28.00, 29.00, and 28.00 respectively. At "Sông Hiệp Mỹ - Cầu Ngang (gần Cầu Hiệp Mỹ)", the salinity increased to 1.00 with a temperature of 27.00. The location "Cống Thâu Râu -Mỹ Long Nam - Cầu Ngang" had a salinity of 4.00 and a temperature of 29.00. The highest salinity of 9.00 was recorded at "HTX nghêu Thành Đạt - Hiệp Thạnh - TX. Duyên Hải" with a temperature of 29.00. At "Cầu Sông Giăng - Hiệp Thạnh - TX. Duyên Hải", the salinity was 5.00 and the temperature was 29.00. Lastly, "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" had the highest salinity of 10.00 with a pH of 7.50. However, the temperature for this location is not provided. From this data, it's not clear if there's a direct correlation between salinity and temperature as they seem to vary independently across different locations.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa các thông số môi trường tại địa điểm "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" vào ngày "8/1/2023".</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the salinity and temperature at different locations in Ben Tre province on the specified date. It also correctly concludes that it's not clear if there's a direct correlation between salinity and temperature. However, it mentions a pH value at the end which was not asked for in the query, hence the slight deduction.</t>
+          <t>The generated answer is relevant to the user query and it seems correct, but without a reference answer, it's hard to confirm its absolute correctness. The bot appropriately communicates that it doesn't have the specific environmental data for the requested location and date.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>From the information in the testing.json file, identify the location in Ben Tre province that had the highest alkaline level on 8/4/2023 and discuss the potential environmental factors that could have contributed to this high level.</t>
+          <t>Theo dữ liệu trong tệp, địa điểm nào có nồng độ muối (Salinity) cao nhất vào ngày "8/1/2023"?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>On 8/4/2023, the locations in Ben Tre province with the highest alkaline level were "Sông Vinh Kim - Cầu Ngang" and "Sông Hiệp Mỹ - Cầu Ngang (gần Cầu Hiệp Mỹ)", both with an alkaline level of 90.00. Environmental factors that could contribute to high alkaline levels include the presence of certain minerals in the soil or water, industrial waste discharge, or agricultural runoff, which can contain fertilizers high in alkaline substances. However, the specific contributing factors for these locations are not provided in the data.</t>
+          <t>Dữ liệu trong tệp không cung cấp thông tin cụ thể về nồng độ muối (Salinity) tại bất kỳ địa điểm nào vào ngày "8/1/2023".</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed response. It correctly identifies the locations with the highest alkaline level on the specified date and discusses potential environmental factors that could contribute to high alkaline levels. However, it does not provide specific contributing factors for these locations, which is why it doesn't get a perfect score.</t>
+          <t>The generated answer is relevant and correct. It accurately responds to the user's query by stating that the file does not provide specific information about the salinity at any location on the date "8/1/2023".</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Based on the data provided in the 'testing.json' file, what were the recorded pH and temperature values at the location "Sông Hiệp Mỹ - Cầu Ngang (gần Cầu Hiệp Mỹ)" on the date "8/4/2023"?</t>
+          <t>Hãy liệt kê các thông tin về môi trường nước tại "Sông Vinh Kim - Cầu Ngang" vào ngày "8/4/2023" theo dữ liệu trong tệp.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>The recorded pH and temperature values at the location "Sông Hiệp Mỹ - Cầu Ngang (gần Cầu Hiệp Mỹ)" on the date "8/4/2023" were 8.00 and 27.00 respectively.</t>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về môi trường nước tại "Sông Vinh Kim - Cầu Ngang" vào ngày "8/4/2023".</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3328,19 +3300,19 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and appears to be fully correct, providing specific pH and temperature values for the specified location and date. Without a reference answer, it's impossible to verify the accuracy of these values, but the answer is structured and detailed in a way that suggests correctness.</t>
+          <t>The generated answer is relevant to the user query and it seems correct, but without a reference answer or additional context, it's hard to confirm its absolute correctness.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Analyze the 'testing.json' file and compare the salinity levels recorded at "Sông Vinh Kim - Cầu Ngang" and "Cầu Sông Giăng - Hiệp Thạnh - TX. Duyên Hải" on the date "8/4/2023". Which location had a higher salinity level?</t>
+          <t>Theo dữ liệu trong tệp, địa điểm nào có nhiệt độ cao nhất vào ngày "8/4/2023" và nhiệt độ đó là bao nhiêu?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>On the date "8/4/2023", the location "Sông Vinh Kim - Cầu Ngang" had a salinity level of "0.00", while the location "Cầu Sông Giăng - Hiệp Thạnh - TX. Duyên Hải" had a salinity level of "5.00". Therefore, "Cầu Sông Giăng - Hiệp Thạnh - TX. Duyên Hải" had a higher salinity level.</t>
+          <t>Dữ liệu trong tệp không cung cấp thông tin cụ thể về nhiệt độ cao nhất vào ngày "8/4/2023" tại bất kỳ địa điểm nào.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3350,66 +3322,66 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides a clear and correct comparison of the salinity levels at the two specified locations on the given date. It also correctly identifies which location had a higher salinity level.</t>
+          <t>The generated answer is relevant to the user query and seems correct, but without a reference answer or the data file, it's impossible to confirm its accuracy.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Based on the data provided in the testing.json file, can you identify the location with the highest salinity on the date 8/4/2023? Please provide the salinity value and the corresponding pH level at this location.</t>
+          <t>Hãy liệt kê các thông số môi trường được ghi nhận tại địa điểm "HTX nghêu Thành Đạt - Hiệp Thạnh - TX. Duyên Hải" vào ngày "8/4/2023".</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>The location with the highest salinity on the date 8/4/2023 is "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" with a salinity value of 6.00. The corresponding pH level at this location is 7.50.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa bất kỳ thông tin nào về các thông số môi trường được ghi nhận tại địa điểm "HTX nghêu Thành Đạt - Hiệp Thạnh - TX. Duyên Hải" vào ngày "8/4/2023".</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides specific details about the location, salinity value, and pH level, which suggests that it is correct. However, without the actual data or a reference answer, it's impossible to verify the accuracy of these details.</t>
+          <t>The generated answer is relevant to the user query and it is correct in stating that it doesn't have the specific information requested. However, it could have been more helpful by suggesting ways to find the requested information.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Analyze the data in the testing.json file and determine the average temperature recorded across all locations on 8/4/2023. How does this temperature correlate with the NH4/NH3 values observed?</t>
+          <t>So sánh nồng độ muối (Salinity) và nhiệt độ (Temperature) tại các địa điểm "Cống La Bang - Đôn Châu - Duyên Hải" và "Bến đò Phước Thiện - Đông Hải - Duyên Hải" vào ngày "8/4/2023".</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>The average temperature recorded across all locations on 8/4/2023 is 28.67 degrees. The NH4/NH3 values observed on the same date range from 3.00 to 4.00. However, the context does not provide enough information to determine a correlation between the temperature and NH4/NH3 values.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa dữ liệu về nồng độ muối (Salinity) và nhiệt độ (Temperature) tại các địa điểm "Cống La Bang - Đôn Châu - Duyên Hải" và "Bến đò Phước Thiện - Đông Hải - Duyên Hải" vào ngày "8/4/2023".</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and seems to be correct. It provides the average temperature and the range of NH4/NH3 values for the specified date. It also correctly states that there isn't enough information to determine a correlation between the two. However, without the actual data or a reference answer, it's impossible to confirm the exact correctness of the provided values.</t>
+          <t>The generated answer is relevant to the user query, but it does not provide the specific information requested. However, it correctly states that the requested data is not available, which is a valid response in the absence of the specific data.</t>
         </is>
       </c>
     </row>

--- a/evaluation_results.xlsx
+++ b/evaluation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,39 +463,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, đâu là tỉnh chịu ảnh hưởng nặng nề nhất do xâm nhập mặn năm 2016 và mức độ thiệt hại ước tính là bao nhiêu?</t>
+          <t>Theo nghiên cứu, cá tra có khả năng thích ứng như thế nào khi gặp phải tình trạng xâm nhập mặn?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tỉnh chịu ảnh hưởng nặng nề nhất do xâm nhập mặn năm 2016 là tỉnh Cà Mau, với mức độ thiệt hại ước tính khoảng 16 nghìn tỷ.</t>
+          <t>Nghiên cứu không cung cấp thông tin về khả năng thích ứng của cá tra khi gặp phải tình trạng xâm nhập mặn.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be correct, providing specific information in response to the user's query about the province most affected by salt intrusion in 2016 and the estimated damage.</t>
+          <t>The generated answer is relevant to the user query and it does not contain any factual errors. However, it does not provide a detailed answer to the user's question, hence the score is not the maximum.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Các loài nào có thể sống trong môi trường nước có độ mặn từ 5 - 10‰ và từ 10 - 25‰?</t>
+          <t>Trong thí nghiệm, các chỉ số nào được sử dụng để đánh giá sự tăng trưởng và hiệu quả nuôi của cá tra?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The context does not provide information on which species can live in water with salinity levels of 5 - 10‰ and 10 - 25‰.</t>
+          <t>Các chỉ số được sử dụng để đánh giá sự tăng trưởng và hiệu quả nuôi của cá tra trong thí nghiệm bao gồm tỉ lệ sống (SR - %), tăng trọng (WG - g), tăng dài (LG - cm), tốc độ tăng trưởng ngày (DWG – g/ngày), tăng trưởng tuyệt đối (SGR -%/ngày), và hệ số chuyển hóa thức ăn (FCR – g/g).</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,24 +505,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query, but it does not provide a specific answer to the question. However, without a reference answer, it's hard to judge if the bot could have provided a more specific answer.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response, listing the specific indices used to evaluate the growth and efficiency of catfish farming in experiments.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, xâm nhập mặn đã ảnh hưởng như thế nào đến công tác quản lý nguồn tài nguyên nước trong sản xuất nông nghiệp tại huyện Long Phú, tỉnh Sóc Trăng?</t>
+          <t>Theo nghiên cứu, chỉ tiêu sinh hóa, huyết học và nội tiết nào của cá tra thay đổi khi sống trong điều kiện có độ mặn tăng lên và điều kiện nước lợ vừa?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn đã gây ra khó khăn trong việc điều tiết nguồn nước, đặc biệt là việc không cung cấp đủ nước ngọt cho canh tác lúa vụ 3 (vụ Xuân - Hè) đầu năm 2016. Khô hạn kéo dài đã làm tăng nhu cầu sử dụng nước cho sản xuất lúa. Tuy nhiên, vấn đề khai thác nước dưới đất được quản lý tốt và không có mâu thuẫn giữa các nông hộ trong việc sử dụng nguồn nước mặt phục vụ cho sản xuất lúa.</t>
+          <t>Khi sống trong điều kiện có độ mặn tăng lên, nồng độ IGF-1 của cá tra tăng lên. Trong điều kiện nước lợ vừa, cá tra sử dụng nhiều năng lượng hơn, thể hiện ở sự giảm glucose máu, tăng số lượng hồng cầu và nồng độ hemoglobin.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,21 +537,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and provides a detailed explanation of how saltwater intrusion has affected water resource management in agricultural production in Long Phu district, Soc Trang province. It mentions specific impacts such as difficulties in water regulation and increased demand for water due to prolonged drought. However, without a reference answer, it's hard to confirm the full accuracy of the information.</t>
+          <t>The generated answer is relevant to the user query and provides specific details about the changes in biochemical, hematological, and endocrine indicators in catfish under increased salinity conditions and brackish water conditions. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hãy phân tích và đánh giá ảnh hưởng của xâm nhập mặn năm 2016 đối với kinh tế (nông nghiệp, nuôi trồng thủy sản) ở Việt Nam, cụ thể là tỉnh Cà Mau và một số tỉnh ít ảnh hưởng mặn như Đồng Tháp, Cần Thơ, An Giang.</t>
+          <t>Đồng bằng sông Cửu Long đang đối mặt với vấn đề gì theo đánh giá của tổ chức liên minh Chính phủ về BĐKH (IPCC, 2014) và Bộ Tài nguyên và Môi trường Việt Nam (MONRE, 2016)? Vấn đề này có ảnh hưởng như thế nào đến các loài thủy sản nuôi nước ngọt?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn năm 2016 đã gây ra những ảnh hưởng tiêu cực đáng kể đối với kinh tế, đặc biệt là trong lĩnh vực nông nghiệp và nuôi trồng thủy sản ở Việt Nam. Tổng thiệt hại ước tính đối với kinh tế là khoảng 38.500 tỷ VNĐ và ảnh hưởng đến khoảng 8.111 nghìn người.
-Tỉnh Cà Mau là tỉnh chịu thiệt hại nặng nề nhất do xâm nhập mặn với mức độ thiệt hại khoảng 16 nghìn tỷ. Xâm nhập mặn đã gây ra khó khăn trong việc cung cấp nước ngọt cho canh tác, làm tăng nhu cầu sử dụng nước và gây ra những thách thức cho công tác quản lý nguồn tài nguyên nước.
-Mặt khác, một số tỉnh ít ảnh hưởng mặn như Đồng Tháp, Cần Thơ, An Giang đã không chịu ảnh hưởng nặng nề như Cà Mau. Tuy nhiên, cần lưu ý rằng các số liệu này có thể chưa chính xác do sự thay đổi nhiều về sử dụng đất và giá trị đất so với thực tế.</t>
+          <t>Đồng bằng sông Cửu Long đang phải đối mặt với tác động nặng nề của biến đổi khí hậu, đặc biệt là vấn đề nước biển dâng. Nước biển dâng không chỉ làm thay đổi chế độ thủy văn dòng chảy mà còn gây áp lực lên đến 90% diện tích ngập nước, biến nhiều vùng đồng bằng nước ngọt hiện nay trở thành vùng nước lợ. Điều này cũng gây ra sự thay đổi môi trường nước từ ngọt sang lợ mặn, ảnh hưởng trực tiếp đến sản xuất nông nghiệp, trong đó có nuôi trồng thủy sản. Cụ thể, việc xâm nhập mặn sẽ gây ảnh hưởng nghiêm trọng đến việc nuôi trồng thủy sản nước ngọt.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -566,19 +564,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the impact of saltwater intrusion in 2016 on the economy, specifically agriculture and aquaculture, in Vietnam. It also specifically addresses the impact on Ca Mau province and other less affected provinces like Dong Thap, Can Tho, and An Giang. The only reason it doesn't get a full score is because it mentions that the data might not be accurate due to changes in land use and land value, which introduces a slight uncertainty.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the issues facing the Mekong Delta, as assessed by the IPCC and MONRE. It also accurately describes the impact of these issues on freshwater aquaculture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Theo kết quả thống kê của Phòng Nông nghiệp và Phát triển Nông thôn huyện Long Phú năm 2016, hai xã nào chịu ảnh hưởng nặng nề nhất từ đợt xâm nhập mặn - khô hạn cuối năm 2015 và đầu năm 2016? Hãy nêu diện tích lúa bị thiệt hại của từng xã.</t>
+          <t>Theo tổ chức liên minh Chính phủ về BĐKH (IPCC, 2014) và Bộ Tài nguyên và Môi trường Việt Nam (MONRE, 2016), vấn đề môi trường nào đang đe dọa Đồng bằng sông Cửu Long, đặc biệt trong mùa khô? Hãy nêu rõ tác động của vấn đề này đối với các loài thủy sản nuôi nước ngọt.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin cung cấp không đề cập đến hai xã cụ thể nào chịu ảnh hưởng nặng nề nhất từ đợt xâm nhập mặn - khô hạn cuối năm 2015 và đầu năm 2016, cũng như diện tích lúa bị thiệt hại của từng xã.</t>
+          <t>Đồng bằng sông Cửu Long đang đối mặt với đe dọa từ sự thay đổi khí hậu, đặc biệt là nước biển dâng và xâm nhập mặn, đặc biệt trong mùa khô. Sự tăng mực nước biển và xâm nhập mặn không chỉ làm thay đổi chế độ thủy văn dòng chảy mà còn gây áp lực lên 90% diện tích ngập nước. Điều này có thể dẫn đến việc từ 15.000 - 20.000 km2 đất thấp ven biển bị ngập hoàn toàn. Đối với ngành thủy sản, sự tăng mực nước biển và xâm nhập mặn có thể gây tác động rất lớn, làm thay đổi môi trường nước từ ngọt sang lợ mặn, ảnh hưởng đến sản xuất nông nghiệp và nuôi trồng thủy sản.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -588,24 +586,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and it is correct in the sense that it admits the lack of specific information asked for. However, it does not provide any additional information or attempt to provide a solution, hence it is not a perfect response.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the environmental issue threatening the Mekong Delta, particularly during the dry season. It also explains the impact of this issue on freshwater aquaculture. The answer is accurate and comprehensive, but it could be slightly more concise.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Theo kết quả phỏng vấn, phần trăm hộ dân nào có thống nhất thời gian lấy nước canh tác với các nông hộ lân cận? Hãy giải thích tác động của việc lấy nước không đồng loạt đối với việc canh tác.</t>
+          <t>Trong phần "Phương pháp nghiên cứu", hãy mô tả quy trình nuôi cá tra thương phẩm ở Phụng Hiệp - Hậu Giang và Thạnh Phú - Bến Tre. Bạn cần nêu rõ về: số lượng cá được nuôi, kích thước và số lượng vèo, điều kiện môi trường, mật độ cá và chế độ cho ăn.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Theo kết quả phỏng vấn, 47% số hộ dân có thống nhất thời gian lấy nước canh tác với các nông hộ lân cận. Việc lấy nước không đồng loạt có thể gây ra khó khăn. Cụ thể, những hộ lấy nước trước có thể lấy đủ thậm chí là nhiều hơn so với nhu cầu thực của cây lúa, trong khi những hộ lấy nước sau có thể thiếu nước ngọt. Hơn nữa, trong thời gian diễn ra xâm nhập mặn, việc đóng và mở cống không thường xuyên và không đủ nước ngọt phục vụ cho canh tác của vùng.</t>
+          <t>Cá tra giống từ cùng một trại giống được nuôi thuần cho đến khi đạt cỡ 20 g/con và ổn định tỉ lệ sống trước khi bố trí thí nghiệm. Tổng cộng, 2700 cá, với kích thước trung bình là 13,58±1,20 cm/con và trọng lượng trung bình là 23,88±3,89 g/con, được bố trí vào 9 vèo. Mỗi vèo có kích thước 4 m dài x 2 m ngang x 1 m sâu. Cá được nuôi ở Phụng Hiệp - Hậu Giang và Thạnh Phú - Bến Tre tương ứng với ba điều kiện môi trường tự nhiên: nước ngọt (0-0,5‰), nước lợ nhẹ (0,5-5‰) và nước lợ vừa (5-18‰). Mật độ cá trong mỗi vèo là 37,5 cá thể/m3. Cá được cho ăn tương đương 2% khối lượng cá 2 lần/ngày. Thức ăn công nghiệp 40% protein cỡ 3mm/viên nổi được sử dụng cho cá ăn trong suốt thời gian thí nghiệm.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -620,19 +618,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides a detailed explanation of the impact of not synchronizing water collection for farming. However, without a reference answer, it's hard to verify the accuracy of the specific percentage mentioned (47%).</t>
+          <t>The generated answer is highly relevant to the user query and provides detailed information about the process of raising commercial pangasius in Phụng Hiệp - Hậu Giang and Thạnh Phú - Bến Tre. It includes details about the number of fish raised, the size and number of cages, environmental conditions, fish density, and feeding regimen. However, it does not specify the duration of the experiment, which could be an important detail in the research method.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, hãy mô tả những khó khăn và trở ngại mà công tác quản lý nguồn Tài Nguyên Nước đã gặp phải vào đầu năm 2016? Hãy đưa ra ít nhất ba điểm.</t>
+          <t>Trong thí nghiệm mô tả trong tài liệu, cá được cho ăn bao nhiêu lần mỗi ngày và thức ăn sử dụng có chứa bao nhiêu phần trăm protein?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Công tác quản lý nguồn Tài Nguyên Nước đã gặp phải một số khó khăn và trở ngại. Đầu tiên, mức độ tham gia của người dân trong việc khai thác nguồn tài nguyên nước chưa cao. Mặc dù 90% số hộ dân được phỏng vấn biết quy định thực hiện đăng ký trong khai thác nguồn tài nguyên nước, nhưng mức độ tham gia của họ vẫn còn hạn chế. Thứ hai, việc đăng ký và kiểm soát khai thác nguồn tài nguyên nước vẫn còn một số hạn chế. Cuối cùng, công tác nạo vét, bảo dưỡng công trình cần được quan tâm, nhất là vào mùa khô.</t>
+          <t>Cá trong thí nghiệm được cho ăn 2 lần mỗi ngày. Thức ăn được sử dụng chứa 40% protein.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -647,19 +645,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and correct. It provides three points of difficulties and obstacles that water resource management faced in early 2016. However, it could be more specific about the context of 2016.</t>
+          <t>The generated answer is relevant and directly answers the user's query about how many times the fish were fed each day and the protein content of the food used in the experiment.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Theo nội dung của bài nghiên cứu, hãy giải thích tầm quan trọng của việc thống nhất lịch canh tác giữa các hộ nông dân và những lợi ích mà việc này mang lại.</t>
+          <t>Phương pháp nào được sử dụng để xác định nồng độ IGF-I trong máu cá và kit nào được sử dụng trong quá trình này?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Việc thống nhất lịch canh tác giữa các hộ nông dân rất quan trọng. Khoảng 73% số hộ dân đã thống nhất lịch canh tác với các nông hộ lân cận. Điều này phần lớn phụ thuộc vào thời gian máy cày đến ruộng và nguồn nước ngọt. Việc xuống giống đồng loạt giúp cho việc mua bán sau khi thu hoạch dễ dàng hơn. Điều này cho thấy việc thống nhất về lịch thời vụ được thực hiện khá tốt tại vùng nghiên cứu.</t>
+          <t>Nồng độ IGF-I trong máu cá được xác định bằng phương pháp ELISA. Kit được sử dụng trong quá trình này là DRG® IGF-1 600 ELISA (EIA-4140).</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -674,20 +672,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and mostly correct. It explains the importance of synchronizing the farming schedule among farmers and the benefits it brings, such as easier post-harvest trading. However, it could have provided more detailed benefits to fully answer the user's query.</t>
+          <t>The generated answer is relevant and fully correct, providing specific details about the method (ELISA) and the kit (DRG® IGF-1 600 ELISA (EIA-4140)) used to determine the concentration of IGF-I in fish blood.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, những hiểm họa nào được xác định là quan trọng nhất ở đồng bằng sông Cửu Long và chúng đã thay đổi như thế nào trong những năm gần đây?</t>
+          <t>Hãy mô tả quy trình xác định nồng độ IGF-I và các chỉ tiêu môi trường trong thí nghiệm nuôi cá. Cụ thể hãy nêu các thiết bị và phương pháp được sử dụng.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Những hiểm họa quan trọng nhất ở đồng bằng sông Cửu Long bao gồm hiện tượng nóng lên toàn cầu, sự tan băng và nước biển dâng, cùng với những tác động từ hoạt động công nghiệp và nông nghiệp trong khu vực. Những hiện tượng này có thể dẫn đến việc ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập, 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô và khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa. 
-Trong những năm gần đây, tần suất và cường độ các hiện tượng thời tiết cực đoan đã tăng lên, làm gia tăng mối đe dọa an ninh lương thực và tạo ra những biến động tiêu cực cho khu vực nông thôn. Đồng thời, dự báo cho thấy trong thập kỷ 2030-2040, nhiệt độ trung bình cũng như nhiệt độ lớn nhất và nhỏ nhất trong vùng đều sẽ gia tăng, phổ biến tăng khoảng 20˚C. Tổng lượng mưa trung bình trong vùng cũng sẽ sụt giảm, phổ biến từ 10 đến 20%, khiến việc cung cấp nước ngọt cho canh tác lúa thêm khó khăn.</t>
+          <t>Nồng độ IGF-I được xác định bằng phương pháp ELISA sử dụng kit DRG® IGF-1 600 ELISA (EIA-4140). Các chỉ tiêu môi trường được thu nhận vào buổi sáng (8:00) và buổi chiều (16:00). Độ mặn nước mặt được đo bằng tỉ trọng kế. Nhiệt độ nước mặt và pH được đo bằng bút đo pH và nhiệt độ điện tử (Hanna HI 98127, Mỹ). Các chỉ tiêu được xác định trong thí nghiệm nuôi tăng trưởng bao gồm tỉ lệ sống, tăng trọng, tăng dài, tốc độ tăng trưởng ngày, tăng trưởng tuyệt đối, và hệ số chuyển hóa thức ăn. Các số liệu và biểu đồ được quản lý và vẽ bằng phần mềm Microsoft Excel. Các số liệu được thống kê và phân tích tính chuẩn bằng phương pháp so sánh phương sai một nhân tố (One-way ANOVA) và phần mềm IBM SPSS 21.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -702,21 +699,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response. It identifies the main hazards in the Mekong Delta, including global warming, melting ice and rising sea levels, and the impacts of industrial and agricultural activities. It also explains how these hazards have changed in recent years, with an increase in extreme weather events and predictions for future temperature and rainfall changes.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the process, equipment, and methods used to determine the IGF-I concentration and environmental parameters in a fish farming experiment. It also includes the specific times of data collection, the parameters measured in the growth experiment, and the software used for data management and statistical analysis.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hãy mô tả những biện pháp thích ứng mà chính quyền và người dân địa phương đã và đang phát triển để đối phó với các hiểm họa này. Theo nghiên cứu, những biện pháp này còn bất cập gì và những chiến lược thích ứng trong tương lai cần xây dựng như thế nào?</t>
+          <t>Trong thí nghiệm nuôi cá, các chỉ tiêu tăng trưởng được xác định như thế nào? Hãy giải thích cách tính toán các chỉ tiêu như tỉ lệ sống, tăng trọng, tăng dài, tốc độ tăng trưởng ngày, tăng trưởng tuyệt đối và hệ số chuyển hóa thức ăn.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Các biện pháp thích ứng mà chính quyền và người dân địa phương đã và đang phát triển để đối phó với các hiểm họa này chưa được triển khai một cách hiệu quả. Cụ thể, việc hiểu và triển khai Nghị quyết 120 sau gần 2 năm ban hành vẫn còn lúng túng. Nhiều địa phương chưa thực sự đổi mới theo tinh thần Nghị quyết, còn trông chờ vào hướng dẫn và nguồn lực hỗ trợ từ Trung ương. Việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ theo Nghị quyết 120 vẫn còn chậm. 
-Một trong những bất cập lớn là việc thiếu quy định về cơ chế phối hợp, chia sẻ thông tin giữa các cơ quan liên quan. Đặc biệt, tư duy ưu tiên lựa chọn giải pháp công trình ở các cấp/ngành vẫn nhiều hơn là các chọn lựa giải pháp phi công trình.
-Đối với chiến lược thích ứng trong tương lai, một trong những phương pháp phù hợp là cách tiếp cận đánh giá tổn thương có sự tham gia của cộng đồng (PVA). PVA giúp nhận ra những nhóm dễ bị tổn thương cần giúp đỡ và đánh giá được năng lực của họ để từ đó phát triển các chiến lược thích ứng phù hợp. Thông qua cách tiếp cận này sẽ nâng cao được nhận thức của người dân về thiên tai và công tác phòng chống giảm nhẹ thiên tai, nhất là trong bối cảnh biến đổi khí hậu toàn cầu như hiện nay.</t>
+          <t>Trong thí nghiệm nuôi cá, các chỉ tiêu tăng trưởng được xác định như sau:
+- Tỉ lệ sống (SR - %) được ghi nhận bởi số lượng cá lúc bố trí và cá lúc thu hoạch ở tháng thứ 3.
+- Tăng trọng (WG - g) được xác định ở thời điểm thu mẫu tăng trưởng ở cuối mỗi tháng thí nghiệm.
+- Tăng dài (LG - cm) được xác định bằng hiệu số chiều dài tổng ở các lần đo.
+- Tốc độ tăng trưởng ngày (DWG – g/ngày) và tăng trưởng tuyệt đối (SGR -%/ngày) được tính toán dựa trên tăng trọng.
+- Hệ số chuyển hóa thức ăn (FCR – g/g) căn cứ lượng thức ăn cá ăn vào và khối lượng cá tăng lên trong suốt thời gian thí nghiệm.
+Các số liệu và biểu đồ được quản lý và vẽ bằng phần mềm Microsoft Excel. Các số liệu được thống kê và phân tích tính chuẩn. Phương pháp so sánh phương sai một nhân tố (One-way ANOVA) tương ứng với các điều kiện nuôi để xác định sự khác biệt về tăng trưởng, các chỉ tiêu sinh hóa và huyết học của cá.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -731,22 +732,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed response. It discusses the current measures, their shortcomings, and future strategies for adaptation. However, it could have been more specific about the hazards being referred to in the user query.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how growth indicators in fish farming experiments are determined, including survival rate, weight gain, length gain, daily growth rate, absolute growth, and feed conversion ratio. The answer is fully correct and comprehensive, providing a clear understanding of the topic.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, những yếu tố nào có ảnh hưởng đến kết quả sinh kế của nông hộ ven biển đồng bằng sông Cửu Long? Hãy phân tích và giải thích ảnh hưởng của từng yếu tố.</t>
+          <t>Theo nghiên cứu, nguồn nước nuôi cá ở xã Hiệp Hưng, huyện Phụng Hiệp, tỉnh Hậu Giang có đặc điểm gì và khác biệt như thế nào so với nguồn nước tại xã Bình Thạnh và xã Giao Thanh của huyện Thạnh Phú, tỉnh Bến Tre?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Có nhiều yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn, bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và việc vay vốn. 
-Số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, và hỗ trợ của địa phương đều có mối quan hệ cùng chiều với thu nhập của hộ gia đình, tức là khi các yếu tố này tăng lên, thu nhập của hộ gia đình cũng tăng theo. 
-Tuy nhiên, việc vay vốn lại có mối quan hệ trái chiều với thu nhập của hộ gia đình. Điều này có thể được giải thích là do việc vay vốn thường đi kèm với lãi suất, và nếu không quản lý tốt, nó có thể dẫn đến tình trạng nợ nên thu nhập thực tế của hộ gia đình giảm đi.
-Ngoài ra, hiện tượng nóng lên toàn cầu và sự tăng lên của mực nước biển cũng ảnh hưởng đến sinh kế của cư dân vùng hạn mặn. Sự tăng lên của mực nước biển có thể dẫn đến xâm nhập mặn, làm giảm năng suất nông nghiệp và ảnh hưởng đến nguồn thu nhập của hộ gia đình.</t>
+          <t>Nguồn nước nuôi cá ở xã Hiệp Hưng, huyện Phụng Hiệp, tỉnh Hậu Giang được thu nhận từ nhánh Ngã Bảy của sông Hậu. Đặc điểm cơ bản của nước này là nước ngọt với pH kiềm nhẹ và nhiệt độ nước thí nghiệm không biến đổi lớn trong suốt thời gian thí nghiệm. Trái lại, xã Bình Thạnh và xã Giao Thanh của huyện Thạnh Phú, tỉnh Bến Tre là vùng canh tác nông nghiệp sử dụng nguồn nước chủ yếu từ sông Cổ Chiên có độ mặn dao động khá lớn; đồng thời, nhiệt độ ở đây cao hơn so với nhiệt độ ao nuôi ở Hậu Giang.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -761,20 +759,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the factors affecting the livelihoods of households in the Mekong Delta coastal region. It correctly identifies and explains the impact of various factors such as production means, production experience, labor force, income sources, local support, and borrowing. It also correctly identifies the impact of global warming and sea level rise. However, it does not specifically address the context of the Mekong Delta coastal region, which is why it does not receive a perfect score.</t>
+          <t>The generated answer is highly relevant to the user query and provides detailed information about the water sources in the specified locations. It compares the characteristics of the water in Hiệp Hưng, Phụng Hiệp, Hậu Giang with that in Bình Thạnh and Giao Thanh, Thạnh Phú, Bến Tre. The answer seems to be accurate and comprehensive, but without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trình bày về tác động của biến đổi khí hậu và mực nước biển dâng đối với hệ thống canh tác và đời sống người dân ở vùng ven biển đồng bằng sông Cửu Long.</t>
+          <t>Theo kết quả thí nghiệm, sự khác biệt về nhiệt độ và độ mặn ở khu vực Hậu Giang và Bến Tre ảnh hưởng như thế nào đến sự tăng trưởng và tỉ lệ tiêu tốn thức ăn của cá tra?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Biến đổi khí hậu và mực nước biển dâng có tác động nghiêm trọng đến hệ thống canh tác và đời sống người dân ở vùng ven biển đồng bằng sông Cửu Long. Hiện tượng nóng lên toàn cầu gây ra sự tan băng và nước biển dâng, khiến nhiều vùng đất thấp có nguy cơ bị ngập chìm và xâm nhập mặn. Điều này có thể dẫn đến việc ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập, khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô và khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa, khó có thể trồng lúa và một số canh tác khác như chăn nuôi.
-Ngoài ra, vùng đồng bằng còn chịu tác động từ những hoạt động phát triển công nghiệp và nông nghiệp trong khu vực. Nước biển từ các cửa sông sẽ chảy theo sông và kênh vào phía trong nội đồng, làm cho đất bị ngập úng và nhiễm mặn. Các huyện ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình do kinh tế chủ yếu là nuôi thủy sản nên việc lấy nguồn nước biển thường xuyên phải mở thêm nhiều kênh rạch, làm cho nước biển đi vào sâu phía trong được thuận lợi. Các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long mấy năm gần đây do người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm phá vỡ việc vận hành của hệ thống cống ngăn mặn, làm cho nước biển vào sâu trong nội đồng nguy cơ ngập ngày càng thể hiện rõ diện tích ngập tăng lên.</t>
+          <t>Sự khác biệt về nhiệt độ và độ mặn ở khu vực Hậu Giang và Bến Tre ảnh hưởng đến sự tăng trưởng và tỉ lệ tiêu tốn thức ăn của cá tra. Cụ thể, cá tra trong điều kiện lợ nhẹ có khối lượng và chiều dài lớn nhất, kế đến là cá trong điều kiện nước ngọt và thấp nhất là cá trong điều kiện lợ vừa. Tuy nhiên, sự khác biệt này không ảnh hưởng đến tỉ lệ sống của cá tra.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -789,21 +786,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of climate change and rising sea levels on the agricultural system and the lives of people in the coastal areas of the Mekong Delta. It also includes specific examples and statistics to support the points made. However, it could be improved by providing more specific solutions or strategies to mitigate these impacts.</t>
+          <t>The generated answer is relevant and seems to be correct as it directly addresses the user's query about the impact of temperature and salinity differences in Hau Giang and Ben Tre on the growth and food consumption rate of pangasius. However, without a reference answer, it's hard to confirm the absolute correctness of the specific details provided.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hãy mô tả chiến lược sinh kế của người dân vùng ven biển và những khó khăn mà họ đang đối mặt với nguồn vốn sinh kế của mình.</t>
+          <t>Theo nghiên cứu, điều kiện nuôi nào làm cho khối lượng và chiều dài của cá tra lớn nhất và tại sao?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Người dân vùng ven biển có nhiều chiến lược sinh kế khác nhau, bao gồm trồng lúa, nuôi tôm, chăn nuôi, và làm thuê trong lĩnh vực nông nghiệp và phi nông nghiệp, đáp ứng cho cả thời gian xâm nhập mặn và thời gian không mặn. Tuy nhiên, họ đang đối mặt với một số khó khăn liên quan đến nguồn vốn sinh kế của mình. 
-Vốn con người có lực lượng lao động dồi dào nhưng tỷ lệ lao động phụ thuộc cao và trình độ học vấn thấp, đặc biệt trong độ tuổi lao động. Nguồn vốn xã hội còn hạn chế với tỷ lệ tham gia vào các tổ chức thấp. Nguồn vốn tự nhiên, bao gồm đất đai, khá cao nhưng nguồn vốn vật chất thì thiếu hụt, đặc biệt đối với những hộ nghèo. Nguồn vốn tài chính cũng chưa cao, với thu nhập chủ yếu trong thời gian xâm nhập mặn. 
-Kinh nghiệm và vay vốn có ảnh hưởng tiêu cực đến kết quả sinh kế nông hộ, trong khi đó, các yếu tố khác như diện tích đất, đầu tư sản xuất và tổng giá trị phương tiện phục vụ sản xuất và sinh hoạt có ảnh hưởng tích cực. Để cải thiện tình hình, vốn vật chất và tài chính cần được đầu tư và hỗ trợ thêm.</t>
+          <t>Khối lượng và chiều dài của cá tra lớn nhất khi nuôi trong điều kiện lợ nhẹ. Điều này có thể do sự khác biệt về nhiệt độ và độ mặn ở các khu vực khác nhau ảnh hưởng đến sự tăng trưởng và tỉ lệ tiêu tốn thức ăn của cá. Cá tra có khả năng thích ứng với sự gia tăng độ mặn đến dưới điểm đẳng áp của đa số các loài cá nước ngọt, từ 9-12‰. Trong điều kiện lợ nhẹ, cá có tốc độ tăng trưởng cao và hệ số FCR thấp hơn so với điều kiện lợ vừa.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -818,19 +813,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed description of the livelihood strategies of coastal residents and the challenges they face with their livelihood capital. It covers various aspects such as human capital, social capital, natural capital, and financial capital. The answer also suggests some solutions to improve the situation. However, it could be more specific about the challenges related to each type of capital.</t>
+          <t>The generated answer is relevant and provides a detailed explanation of the conditions that lead to the largest size and weight of catfish. It explains the impact of temperature and salinity on the growth and food consumption rate of the fish, and how catfish can adapt to increased salinity. The answer also compares the growth rate and FCR coefficient under light silt conditions with moderate silt conditions. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trình bày về tác động của xâm nhập mặn do biến đổi khí hậu đối với hiện trạng canh tác lúa tại tỉnh Sóc Trăng theo hai kịch bản biến đổi khí hậu năm 2004 và 2030.</t>
+          <t>Theo kết quả nghiên cứu, hãy mô tả mối liên hệ giữa nồng độ muối trong nước nuôi và hiệu quả kinh tế khi nuôi cá tra.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tác động của xâm nhập mặn do biến đổi khí hậu đã gây ra những thay đổi đáng kể đối với hiện trạng canh tác lúa tại tỉnh Sóc Trăng. Theo hai kịch bản biến đổi khí hậu năm 2004 và 2030, có ba hệ thống canh tác lúa chính bao gồm canh tác lúa ba vụ (99,182.2 ha, chiếm 30.3% tổng diện tích), canh tác lúa hai vụ (69,484.2 ha, chiếm 21.2% tổng diện tích) và canh tác lúa-tôm luân phiên (69,484.2 ha, chiếm 4.3% tổng diện tích). Tác động của xâm nhập mặn chủ yếu tập trung vào ba huyện là Mỹ Xuyên, Long Phú và Trần Đề. Khi so sánh kịch bản biến đổi khí hậu năm 2004 và năm 2030, diện tích bị ảnh hưởng của canh tác lúa-tôm luân phiên tại Mỹ Xuyên tăng thêm 14.7 ha; trong khi đó, diện tích bị ảnh hưởng của canh tác lúa hai vụ tại Trần Đề và canh tác lúa ba vụ tại Long Phú giảm lần lượt 155.5 ha và 35.5 ha.</t>
+          <t>Khi nồng độ muối trong nước nuôi tăng, hệ số FCR (Food Conversion Ratio - tỷ lệ chuyển đổi thức ăn) cũng tăng, điều này dẫn đến việc hiệu quả kinh tế giảm. Điều này có nghĩa là cá tra cần sử dụng nhiều thức ăn hơn để tăng trọng khi nước nuôi có nồng độ muối cao hơn. Đặc biệt, trong điều kiện nước có độ mặn cao, cá tra phải sử dụng một phần năng lượng từ thức ăn để điều hòa áp suất thẩm thấu.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -845,24 +840,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides detailed information about the impact of saltwater intrusion due to climate change on rice cultivation in Soc Trang province according to two climate change scenarios in 2004 and 2030. It also provides specific data on the affected areas and the changes in different rice cultivation systems. However, without a reference answer, it's hard to confirm the accuracy of the data provided.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the relationship between salt concentration in the water and the economic efficiency of raising catfish. It correctly explains how a higher salt concentration can lead to a higher Food Conversion Ratio (FCR), which in turn reduces economic efficiency. The only reason it doesn't get a perfect score is because it could have been a bit more concise.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trước năm 2005, nông dân ở tỉnh Sóc Trăng và các tỉnh BĐSCL đã thực hiện biện pháp nào để đáp ứng nhu cầu lương thực và quy hoạch của địa phương?</t>
+          <t>Theo nghiên cứu, cá tra thích ứng với điều kiện nhiệt độ và độ mặn tăng cao ở Giao Thạnh, Thạnh Phú, Bến Tre như thế nào? Hãy giải thích rõ về cơ chế thích nghi của cá tra trong điều kiện này.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The context does not provide information on the measures taken by farmers in Soc Trang province and other Mekong Delta provinces before 2005 to meet local food needs and planning.</t>
+          <t>Cá tra có khả năng thích ứng với sự gia tăng độ mặn đến dưới điểm đẳng áp của đa số các loài cá nước ngọt, từ 9-12‰. Trong điều kiện lợ nhẹ ở Bình Thạnh, Thạnh Phú, tỉnh Bến Tre, cá có tốc độ tăng trưởng cao và hệ số FCR (tỉ lệ tiêu tốn thức ăn) thấp hơn so với điều kiện lợ vừa ở Giao Thạnh. Tuy nhiên, khi nuôi cá tra dưới các nồng độ muối khác nhau trong điều kiện phòng thí nghiệm, nồng độ muối trong nước nuôi càng cao thì hệ số FCR càng tăng và hiệu quả kinh tế càng giảm. Điều này cho thấy, mặc dù cá tra có khả năng thích ứng với độ mặn tăng, nhưng việc tăng độ mặn quá mức có thể làm tăng chi phí nuôi trồng do tốc độ tiêu tốn thức ăn tăng lên.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -872,19 +867,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the topic of measures taken by farmers in Soc Trang province and other Mekong Delta provinces. However, it does not provide any specific information or details, which makes it incomplete and not fully correct.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how catfish adapt to increased salinity and temperature conditions in Giao Thạnh, Thạnh Phú, Bến Tre. It also explains the economic implications of these adaptations. However, it does not fully address the part of the question asking for an explanation of the adaptation mechanism of the catfish, hence the score is not a full 5.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu, hãy mô tả sự thay đổi diện tích canh tác lúa và diện tích các kiểu sử dụng thuộc vùng sinh thái mặn, lợ từ năm 2004 đến năm 2030 và 2050 dưới tác động của biến đổi khí hậu.</t>
+          <t>So sánh nồng độ Hb trong máu cá tra khi nuôi vèo trong ao và khi thực nghiệm nuôi trong bể 300L. Theo bạn, những khác biệt này có ý nghĩa gì trong việc nuôi trồng cá tra?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến sự thay đổi diện tích canh tác lúa và diện tích các kiểu sử dụng thuộc vùng sinh thái mặn, lợ từ năm 2004 đến năm 2030 và 2050 dưới tác động của biến đổi khí hậu.</t>
+          <t>Nồng độ Hb trong máu cá tra khi nuôi vèo trong ao thấp hơn so với khi thực nghiệm nuôi trong bể 300L. Cụ thể, nồng độ Hb khi nuôi vèo trong ao là 4,4 g/dl, trong khi đó, khi thực nghiệm nuôi trong bể 300L, nồng độ Hb là 8,37g/dL. Sự khác biệt này có thể liên quan đến việc cá tra cần sử dụng nhiều oxy hơn để tạo năng lượng cho các hoạt động của cơ thể như vận động, tiêu hóa thức ăn và điều hòa áp suất thẩm thấu. Khi lượng oxy trong máu giảm, cơ thể cá tra sẽ kích thích quá trình tạo máu và tăng tuần hoàn, điều này dẫn đến sự tăng cường trong hoạt động sinh tổng hợp Hb.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -894,24 +889,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the topic of changes in rice cultivation area and usage of different types of saline and brackish ecological zones under the impact of climate change. However, it does not provide any specific information or details about these changes, stating that the provided information does not mention these changes. Therefore, it is not fully correct or helpful in answering the user's question.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed comparison of the Hb concentration in catfish blood when raised in a pond versus a 300L tank. It also explains the significance of these differences in catfish farming. However, without a reference answer, it's hard to confirm the exactness of the provided values for Hb concentration.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hãy mô tả cách nghiên cứu sử dụng ảnh viễn thám MODIS để xây dựng bản đồ hiện trạng canh tác lúa tỉnh Sóc Trăng và nêu rõ 3 hiện trạng canh tác lúa chính được xác định trong nghiên cứu.</t>
+          <t>Theo nghiên cứu của Claiborne et al. (2002), những hoạt động nào của cơ thể cần sử dụng nhiều oxy để tạo năng lượng? Và quá trình này có ảnh hưởng gì đến lượng oxy trong máu và hoạt động tạo máu của cơ thể?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nghiên cứu đã sử dụng ảnh viễn thám MODIS để xây dựng bản đồ hiện trạng canh tác lúa tỉnh Sóc Trăng với độ tin cậy cao. Trong quá trình nghiên cứu, ba hiện trạng canh tác lúa chính đã được xác định, bao gồm lúa 3 vụ, lúa 2 vụ và lúa tôm luân canh.</t>
+          <t>Theo Claiborne et al. (2002), các hoạt động của cơ thể như sự vận động, tiêu hóa thức ăn và sự điều hòa áp suất thẩm thấu đều cần sử dụng nhiều oxy để tạo năng lượng. Khi lượng oxy trong máu giảm, nó sẽ kích thích các tế bào thụ cảm nồng độ oxy ở mang, từ đó kích thích cơ thể tạo máu và tăng tuần hoàn. Quá trình điều hòa hoạt động tuần hoàn, điều hòa quá trình tạo máu và hoạt động sinh tổng hợp Hb được kích thích bởi nhiều loại hormone khác nhau. Tất cả các quá trình này đều nhằm đáp ứng nhu cầu chuyển hóa vật chất và năng lượng ở các tế bào của cơ thể.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -926,19 +921,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides a correct response. It describes the use of MODIS remote sensing images in the research to map the current state of rice cultivation in Soc Trang province and identifies the three main rice cultivation states determined in the study. However, it does not provide a detailed description of the research process, which is why it does not receive a full score of 5.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the body activities that require a lot of oxygen to generate energy, as well as the effects of this process on the amount of oxygen in the blood and the body's blood production activities. The answer is comprehensive and seems to be accurate, although without a reference answer, it's hard to confirm the absolute correctness. The score is slightly less than perfect due to the lack of a reference answer for comparison.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu của Dũng và Thuận (2021), họ đã chỉ ra những yếu tố nào ảnh hưởng đến thu nhập của cư dân vùng hạn mặn? Hãy phân tích mối quan hệ giữa các yếu tố này và thu nhập.</t>
+          <t>Theo nghiên cứu, nồng độ glucose trong máu cá tra ở điều kiện nước ngọt so với điều kiện lợ nhẹ và lợ vừa có sự khác biệt như thế nào? Và động vật thủy sinh tiêu tốn bao nhiêu phần trăm năng lượng hấp thu để chuyển đổi thành năng lượng cung cấp cho hoạt động điều hòa áp suất thẩm thấu?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến thu nhập của cư dân vùng hạn mặn bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và việc vay vốn. Đa số các yếu tố này có mối quan hệ cùng chiều với thu nhập của hộ gia đình, tức là khi các yếu tố này tăng lên, thu nhập của hộ gia đình cũng tăng theo. Tuy nhiên, yếu tố vay vốn lại có mối quan hệ trái chiều, tức là khi số tiền vay vốn tăng lên, thu nhập của hộ gia đình lại giảm đi.</t>
+          <t>Nồng độ glucose trong máu cá tra ở điều kiện nước ngọt có xu hướng cao hơn so với điều kiện lợ nhẹ và lợ vừa ở thời điểm bắt đầu thí nghiệm và ở thời điểm tháng thứ 3. Trong các thời điểm còn lại, glucose trong máu cá ở cả ba điều kiện đều khác biệt không có ý nghĩa thống kê. Động vật thủy sinh tiêu tốn từ 20-50% năng lượng hấp thu để chuyển đổi thành năng lượng cung cấp cho hoạt động điều hòa áp suất thẩm thấu.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -953,19 +948,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and seems to be correct, providing a detailed analysis of the factors affecting the income of residents in salt-affected areas and their relationship with income. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is relevant and appears to be correct, providing detailed information on the glucose levels in catfish under different water conditions and the energy consumption of aquatic animals for osmoregulation. However, without a reference answer, it's hard to confirm the exact correctness.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu trong tài liệu, hãy liệt kê các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn và giải thích mối quan hệ giữa các yếu tố này với thu nhập của hộ gia đình.</t>
+          <t>Theo nghiên cứu, cá tra sử dụng năng lượng từ thức ăn để thích ứng với điều kiện nào? Hãy giải thích tác động của điều kiện này đến tốc độ tăng trưởng của cá tra.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và vay vốn. Đa số các yếu tố này có mối quan hệ cùng chiều với thu nhập của hộ gia đình, tức là khi các yếu tố này tăng lên, thu nhập của hộ gia đình cũng tăng theo. Tuy nhiên, yếu tố vay vốn lại có mối quan hệ trái chiều, tức là khi số tiền vay vốn tăng lên, thu nhập của hộ gia đình lại giảm đi.</t>
+          <t>Cá tra sử dụng năng lượng từ thức ăn để thích ứng với điều kiện độ mặn. Khi độ mặn tăng, cá tra sử dụng năng lượng để duy trì sự thích ứng, điều này dẫn đến việc năng lượng dành cho tăng trưởng giảm đi. Do đó, tốc độ tăng trưởng của cá tra chậm lại khi độ mặn tăng cao.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -980,19 +975,20 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be correct, providing a detailed list of factors that influence the livelihood outcomes of residents in salt-affected areas and explaining the relationship between these factors and household income. However, without a reference answer, it's difficult to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of how catfish use energy from food to adapt to salinity conditions and how this affects their growth rate. However, without a reference answer, it's hard to confirm the complete accuracy of the information.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Trình bày về vai trò của sự hỗ trợ từ địa phương đối với sinh kế của người dân ở vùng hạn mặn, kèm theo các ví dụ cụ thể được đề cập trong tài liệu.</t>
+          <t>Hãy mô tả cơ chế mà cá tra sử dụng để điều hòa lượng muối trong cơ thể khi ở trong điều kiện nước lợ. Đồng thời, hãy giải thích vai trò của IGF-1 trong quá trình này.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sự hỗ trợ từ địa phương đóng một vai trò tích cực trong việc cải thiện sinh kế của người dân ở vùng hạn mặn. Trong thực tế, người dân ở các địa phương này đã nhận được nhiều sự hỗ trợ từ chính quyền. Một số hình thức hỗ trợ cụ thể bao gồm việc cung cấp vốn vay với lãi suất ưu đãi, tổ chức các khóa tập huấn về chăn nuôi và nuôi trồng thủy sản, cũng như hỗ trợ giống lúa chịu mặn. Những hỗ trợ này đã góp phần quan trọng vào việc nâng cao năng lực sản xuất và cải thiện sinh kế cho người dân ở vùng hạn mặn.</t>
+          <t>Cá tra sử dụng một cơ chế đặc biệt để điều hòa lượng muối trong cơ thể khi ở trong điều kiện nước lợ. Cơ chế này liên quan đến việc tăng nồng độ IGF-1 trong máu cá trong một thời gian dài. IGF-1 được đánh giá là một cơ chế nhằm sản sinh ra một lượng lớn tế bào có nhiều kênh chloride ở mang cá. Quá trình này đòi hỏi các tế bào chloride ở mang cá được sinh ra nhiều hơn, đồng thời các tế bào này cũng hoạt động nhiều hơn, tạo nhiều kênh Na+/K+ ATPase hơn. 
+IGF-1 không chỉ điều hòa hoạt động tăng trưởng mà còn được sử dụng để điều hòa áp suất thẩm thấu bằng cách để đẩy muối ra khỏi cơ thể. Nồng độ IGF-1 trong máu cá ở điều kiện nước lợ nhẹ và lợ vừa lần lượt là 27,77±4,91 và 26,29±5,71 ng/ml, cao hơn so với cá ở nước ngọt, 21,06±5,11 ng/ml.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1007,26 +1003,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of local support in improving the livelihoods of people in salt-affected areas. It also provides specific examples of the types of support provided, such as preferential loans, training courses, and salt-resistant rice varieties. However, without a reference answer, it's hard to judge if it's fully correct.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the mechanism that catfish use to regulate salt levels in their bodies in brackish water conditions. It also explains the role of IGF-1 in this process. The answer is accurate and comprehensive, but it could be slightly more concise.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hãy liệt kê và giải thích các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn mà nghiên cứu đã chỉ ra. Trong số đó, yếu tố nào có mối quan hệ trái chiều với thu nhập của hộ gia đình?</t>
+          <t>Hãy liệt kê 12 mối đe dọa mới đối với đa dạng sinh học nước ngọt mà bài báo đã đề cập. Những mối đe dọa này có ảnh hưởng như thế nào đối với các loài sống trong hệ sinh thái nước ngọt?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và vay vốn. 
-Số phương tiện sản xuất và số lao động chính liên quan đến khả năng sản xuất của hộ gia đình. Kinh nghiệm sản xuất cho phép người dân thích ứng với hạn mặn và rút ra kinh nghiệm từ những thất bại trước đó để sản xuất tốt hơn. Số nguồn thu nhập cũng quan trọng vì nó cung cấp tài chính cho hoạt động sản xuất. Hỗ trợ của địa phương, như vay vốn với lãi suất ưu đãi, tập huấn chăn nuôi, nuôi trồng thủy sản, hỗ trợ giống lúa chịu mặn, cũng đóng góp tích cực vào sinh kế của người dân.
-Trong số các yếu tố trên, chỉ có yếu tố vay vốn có mối quan hệ trái chiều với thu nhập của hộ gia đình. Điều này có thể do việc vay vốn tạo ra nợ và có thể giảm thu nhập ròng của hộ gia đình.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến 12 mối đe dọa mới đối với đa dạng sinh học nước ngọt hoặc ảnh hưởng của những mối đe dọa này đối với các loài sống trong hệ sinh thái nước ngọt.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1036,54 +1030,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the factors affecting the livelihood outcomes of residents in salt-affected areas. It also correctly identifies borrowing as the factor that has an inverse relationship with household income. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is relevant to the user query and it seems correct, as it states that the provided information does not mention the 12 new threats to freshwater biodiversity or their impact on species living in freshwater ecosystems. However, without a reference answer or the original article, it's impossible to confirm the absolute correctness of the generated answer.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dựa trên nghiên cứu, hãy mô tả cách xâm nhập mặn ảnh hưởng đến việc quản lý và sử dụng nguồn tài nguyên nước dưới đất tại vùng ven biển tỉnh Sóc Trăng. Đặc biệt, hãy so sánh ảnh hưởng của xâm nhập mặn đối với người trồng tôm và người trồng lúa.</t>
+          <t>Theo chỉ số Living Planet Index của Quỹ Bảo vệ Thiên nhiên Thế giới (WWF), diễn biến của sự giảm sút dân số các loài sống trong môi trường nước ngọt từ năm 1970 đến 2014 so với môi trường biển và đất liền như thế nào?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trong thời gian bị ảnh hưởng bởi xâm nhập mặn, đặc biệt trong mùa khô năm 2016, xâm nhập mặn đã gây ra khó khăn trong việc quản lý nguồn tài nguyên nước dưới đất, chủ yếu ở huyện Trần Đề. Điều này đặc biệt khó khăn trong việc kiểm soát việc khai thác và sử dụng nguồn nước dưới đất. 
-Đối với người nuôi tôm ở các khu vực nuôi trồng thủy sản, họ đã tăng cường khai thác nước dưới đất để giảm nồng độ mặn của nước mặt. Ngược lại, đối với người trồng lúa, chủ yếu ở huyện Long Phú, xâm nhập mặn không gây ảnh hưởng đến nhu cầu sử dụng và khai thác nước dưới đất. 
-Tuy nhiên, xâm nhập mặn đã gây ra khó khăn trong việc cung cấp nước ngọt đủ cho vụ lúa Xuân - Hè đầu năm 2016. Khô hạn kéo dài đã làm tăng nhu cầu sử dụng nước cho sản xuất lúa. Mặc dù vấn đề khai thác nước dưới đất được quản lý tốt, nhưng do hạn chế trong việc tiếp xúc giữa người dân và chính quyền địa phương, các quy định chưa được áp dụng một cách rộng rãi.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến chỉ số Living Planet Index của Quỹ Bảo vệ Thiên nhiên Thế giới (WWF) hoặc diễn biến của sự giảm sút dân số các loài sống trong môi trường nước ngọt từ năm 1970 đến 2014 so với môi trường biển và đất liền.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how saltwater intrusion affects the management and use of groundwater resources in coastal areas of Soc Trang province. It also compares the impact of saltwater intrusion on shrimp farmers and rice farmers, as requested by the user. The answer is comprehensive and seems accurate, although without a reference answer, it's hard to confirm the exact details. The score is not a perfect 5 because the answer could be more concise and better structured.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the Living Planet Index or the decline in population of species in freshwater environments from 1970 to 2014 compared to marine and terrestrial environments.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, xâm nhập mặn đã gây ra những khó khăn gì trong công tác quản lý và sử dụng nguồn tài nguyên nước dưới đất ở huyện Trần Đề? Và tác động của xâm nhập mặn đối với người trồng lúa ở huyện Long Phú là gì?</t>
+          <t>Theo báo cáo của WWF năm 2018, chỉ số LPI cho động vật có xương sống nước ngọt đã giảm như thế nào so với đất liền và biển? Hãy giải thích nguyên nhân khiến cho sự giảm này nghiêm trọng hơn ở các hệ sinh thái nước ngọt?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trong thời gian xâm nhập mặn, đặc biệt là mùa khô năm 2016, xâm nhập mặn đã gây ra khó khăn trong công tác quản lý nguồn tài nguyên nước dưới đất ở huyện Trần Đề. Cụ thể là việc kiểm soát khai thác và sử dụng nguồn tài nguyên này. Các khu vực nuôi trồng thủy sản, người nuôi tôm đã tăng cường khai thác nước dưới đất để pha loãng nồng độ mặn của nước mặt trên các kênh sông/rạch.
-Đối với người trồng lúa ở huyện Long Phú, xâm nhập mặn đã làm giảm đáng kể diện tích trồng lúa. Cụ thể ở Long Phú, diện tích đất trồng lúa giảm gần 1⁄2 (6.500 ha) vụ Xuân Hè (diện tích trồng lúa hàng năm của huyện xấp xỉ trên 13.000 ha) và gây thiệt hại hơn 4.000 ha (mức độ thiệt hại được thống kê từ 30% - 70%) do không đủ nguồn nước tưới cho cây lúa.</t>
+          <t>Rất tiếc, thông tin trong ngữ cảnh không cung cấp đủ chi tiết để trả lời câu hỏi về chỉ số LPI cho động vật có xương sống nước ngọt theo báo cáo của WWF năm 2018, cũng như nguyên nhân khiến cho sự giảm này nghiêm trọng hơn ở các hệ sinh thái nước ngọt.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1093,26 +1084,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response to both parts of the question. It discusses the difficulties in managing and using underground water resources in Trần Đề district due to saltwater intrusion, and the impact of saltwater intrusion on rice farmers in Long Phú district.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the question. However, it does not provide any information or answer to the user's question, stating that there is not enough information to answer. This is a failure to provide a correct answer, hence the score.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Biến đổi khí hậu và nước biển dâng đã tác động như thế nào đến đồng bằng sông Cửu Long? Hãy nêu rõ những hậu quả mà xâm nhập mặn có thể gây ra trong mùa khô.</t>
+          <t>Đe dọa nào đang gây ra sự suy giảm liên tục của đa dạng sinh học trong các hệ sinh thái nước ngọt trên toàn cầu? Hãy đưa ra ví dụ về cách mà các chất ô nhiễm và quá trình liên quan đang thay đổi nhanh chóng.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biến đổi khí hậu và nước biển dâng đã tạo ra những tác động nghiêm trọng đối với đồng bằng sông Cửu Long. Một trong những hậu quả nghiêm trọng nhất là sự tan băng và nước biển dâng, khiến nhiều vùng đất thấp có nguy cơ bị ngập chìm và xâm nhập mặn. Đặc biệt, nếu không có những chuyển biến tích cực kiểm soát khả năng nóng lên toàn cầu, có thể sẽ có ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập do nước biển dâng và lún sụt đồng bằng. 
-Trong mùa khô, khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn. Điều này có thể gây ra những hậu quả nghiêm trọng cho nền nông nghiệp, với khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa, khó có thể trồng lúa và một số canh tác khác như chăn nuôi. 
-Ngoài ra, các vùng ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình do kinh tế chủ yếu là nuôi thủy sản nên việc lấy nguồn nước biển thường xuyên phải mở thêm nhiều kênh rạch làm cho nước biển đi vào sâu phía trong được thuận lợi. Các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long mấy năm gần đây do người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm phá vỡ việc vận hành của hệ thống cống ngăn mặn. Từ đó càng làm cho nước biển vào sâu trong nội đồng nguy cơ ngập ngày càng thể hiện rõ diện tích ngập tăng lên.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến đe dọa gây ra sự suy giảm liên tục của đa dạng sinh học trong các hệ sinh thái nước ngọt trên toàn cầu, cũng như không đưa ra ví dụ về cách mà các chất ô nhiễm và quá trình liên quan đang thay đổi nhanh chóng.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1122,24 +1111,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of climate change and sea level rise on the Mekong Delta. It also clearly outlines the consequences of saltwater intrusion during the dry season. The answer could be improved by providing more specific examples or data, but overall it is very accurate and informative.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for threats causing the continuous decline of biodiversity in freshwater ecosystems globally and examples of how pollution and related processes are rapidly changing. The generated answer does not provide any of this information.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, hạn mặn năm 2016 đã ảnh hưởng như thế nào đến diện tích đất sản xuất lúa ở Long Phú và việc nuôi trồng thủy sản? Hãy giải thích nguyên nhân.</t>
+          <t>Theo bài viết của Reid và cộng sự năm 2019, những mối đe dọa nào đang gây ra sự suy giảm đa dạng sinh học trong hệ sinh thái nước ngọt trên toàn cầu?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hạn mặn năm 2016 đã gây thiệt hại cho diện tích đất sản xuất lúa ở Long Phú. Tuy nhiên, nó ít ảnh hưởng đến việc nuôi trồng thủy sản, chủ yếu là nuôi cá nước ngọt, do phần lớn diện tích đất canh tác ở vùng này được sử dụng cho việc trồng lúa. Nguyên nhân là do người nuôi tôm đã sử dụng biện pháp bơm nước giếng khoan vào ao nuôi để pha loãng nồng độ mặn trong nước, giúp giảm ảnh hưởng của hạn mặn.</t>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về bài viết của Reid và cộng sự năm 2019 hoặc những mối đe dọa nào đang gây ra sự suy giảm đa dạng sinh học trong hệ sinh thái nước ngọt trên toàn cầu.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1149,24 +1138,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and provides a detailed explanation of the impact of the 2016 saltwater intrusion on rice production and aquaculture in Long Phu. It also explains the reason why aquaculture was less affected. However, it could have been more specific about the extent of the damage to the rice fields.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the question. However, it does not provide the specific information asked for in the query, hence it is not fully correct.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Giải pháp mà người nuôi tôm sử dụng để hạ độ mặn trong nước là gì? Việc này có vi phạm quy định xử phạt quy phạm hành chính trong lĩnh vực tài nguyên nước và khoáng sản không? Nếu có, hãy trình bày về quy định đó và lý do tại sao người dân vẫn tiếp tục vi phạm.</t>
+          <t>Trong bối cảnh biến đổi khí hậu, theo báo cáo của Darwall &amp; Freyhof (2015) được trích dẫn trong bài viết, phần trăm loài cá nước ngọt trên toàn cầu đang đối mặt với mối đe dọa là bao nhiêu?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Người nuôi tôm thường sử dụng phương pháp bơm nước giếng khoan vào ao nuôi để pha loãng nồng độ mặn trong nước. Tuy nhiên, việc này thực sự vi phạm quy định xử phạt quy phạm hành chính trong lĩnh vực tài nguyên nước và khoáng sản, theo điều 7 của Nghị định số 33/2017/NĐ-CP. Mặc dù vậy, việc thực thi quy định này ở địa phương thực sự khó khăn. Lý do chính là chi phí đầu tư vào các ao nuôi tôm rất cao. Trong điều kiện thời tiết khắc nghiệt, nếu không có giải pháp bơm thêm nước giếng khoan để pha loãng nồng độ mặn, các ao nuôi tôm có thể gặp nguy hiểm và dẫn đến chết tôm.</t>
+          <t>Bài viết không cung cấp thông tin về phần trăm loài cá nước ngọt trên toàn cầu đang đối mặt với mối đe dọa theo báo cáo của Darwall &amp; Freyhof (2015).</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1176,47 +1165,47 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant and accurate. It correctly addresses the user's query about the solution shrimp farmers use to reduce salinity in water, whether this violates any administrative regulations in the field of water and mineral resources, and if so, what those regulations are and why people continue to violate them. The answer is comprehensive and provides a clear explanation for all parts of the query.</t>
+          <t>The generated answer is relevant to the user query and seems correct, as it states that the required information is not provided in the article. However, without a reference answer, it's hard to confirm the absolute correctness.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu trong bài báo, hãy phân tích mức độ tham gia và hiểu biết của người dân về việc khai thác nguồn tài nguyên nước dưới đất (NDĐ) và những hậu quả có thể xảy ra khi khai thác quá mức?</t>
+          <t>Hãy liệt kê và giải thích 12 mối đe dọa đang nổi lên đối với đa dạng sinh học nước ngọt mà các chuyên gia và tài liệu hỗ trợ đã xác định.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu, 90% số hộ dân được phỏng vấn biết đến quy định về việc đăng ký khai thác nguồn nước dưới đất (NDĐ). Tuy nhiên, chỉ có 3% số hộ dân hiểu rằng việc khai thác NDĐ quá mức có thể gây sụt lún. Trong khi đó, 63% hộ dân cho rằng việc khai thác NDĐ quá mức không gây sụt lún và 34% số hộ dân không quan tâm đến vấn đề này. Điều này cho thấy mức độ tham gia và hiểu biết của người dân về việc khai thác NDĐ và hậu quả của việc khai thác quá mức còn hạn chế.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến 12 mối đe dọa đang nổi lên đối với đa dạng sinh học nước ngọt mà các chuyên gia và tài liệu hỗ trợ đã xác định.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the public's participation and understanding of the exploitation of underground water resources and the potential consequences of over-exploitation. It provides specific statistics and concludes with an overall assessment, which aligns perfectly with the user's request.</t>
+          <t>The generated answer does not provide any information related to the user's query about the emerging threats to freshwater biodiversity.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trình bày những khó khăn và trở ngại trong công tác quản lý khai thác và sử dụng nguồn tài nguyên NDĐ? Đề xuất một số giải pháp để cải thiện tình hình.</t>
+          <t>Theo báo cáo của IPCC năm 2014, những biến đổi nào về môi trường nước ngọt được dự đoán sẽ xảy ra do biến đổi khí hậu? Hãy đưa ra các ví dụ cụ thể từ ngữ cảnh đã cho.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Công tác quản lý khai thác và sử dụng nguồn tài nguyên NDĐ gặp phải một số khó khăn và trở ngại. Một trong số đó là việc quản lý chủ yếu tập trung ở cấp chính quyền, mức độ tham gia của người dân chưa cao. Thêm vào đó, việc đăng ký và kiểm soát khai thác NDĐ vẫn còn một số hạn chế. Hiệu quả hoạt động của hệ thống thủy lợi là cốt yếu trong việc cung cấp nguồn nước và duy trì hệ thống canh tác của vùng, vì thế công tác nạo vét, bảo dưỡng công trình cần được quan tâm, nhất là vào mùa khô. 
-Để cải thiện tình hình, một số giải pháp có thể được đề xuất. Đầu tiên, việc phổ biến các quy định trong khai thác và sử dụng nguồn NDĐ cần được tiến hành theo chiều sâu để các chính sách được thực hiện một cách có hiệu quả, hạn chế tình trạng khai thác quá mức nguồn NDĐ. Thứ hai, cần thay đổi tư duy và tiếp cận, không chỉ dựa vào hướng dẫn và nguồn lực hỗ trợ từ Trung ương mà cần đề cao nội lực và huy động sự tham gia rộng rãi của các tổ chức, doanh nghiệp, người dân. Cuối cùng, việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ cũng rất quan trọng, cần tăng tốc độ và đồng bộ hóa với nguồn lực thực hiện.</t>
+          <t>Biến đổi khí hậu dự đoán sẽ gây ra nhiều thay đổi đối với môi trường nước ngọt. Một trong những thay đổi nghiêm trọng là sự thiếu hụt nguồn nước ngọt cung cấp cho hệ thống canh tác lúa do xâm nhập mặn ở vùng đồng bằng ven biển. Đặc biệt, tại Đồng bằng sông Cửu Long, biến đổi khí hậu đã gây ra ảnh hưởng tiêu cực đến hệ thống canh tác lúa vùng ven biển về vấn đề thiếu nguồn nước ngọt cung cấp tưới do xâm nhập mặn. Tình trạng xâm nhập mặn được dự báo sẽ càng gia tăng về không gian và thời gian trong tương lai. 
+Ngoài ra, nước biển dâng và xâm nhập mặn sẽ ảnh hưởng nghiêm trọng đến các dự án ngăn mặn. Mực nước biển dâng cao, chế độ sóng và dòng chảy ven bờ sẽ có những thay đổi gây xói lở bờ và hệ thống đê biển. Khả năng tiêu thoát nước ra biển giảm, kéo theo mực nước các con sông trong nội địa dâng lên, kết hợp với sự gia tăng dòng chảy lũ từ thượng nguồn uy hiếp sự an toàn của các tuyến đê bao và bờ bao. Tác động xâm nhập mặn cũng làm gia tăng sự thay đổi môi trường nước giữa ngọt, lợ mặn gây ảnh hưởng đến sản xuất nông nghiệp.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1231,20 +1220,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive response. It correctly identifies the challenges in managing and exploiting NDĐ resources and proposes several solutions to improve the situation. The answer is well-structured and detailed, making it a high-quality response.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the potential impacts of climate change on freshwater environments, specifically in the context of Vietnam. It correctly identifies key issues such as saltwater intrusion, rising sea levels, and their effects on agriculture and infrastructure. However, it could have included more global examples or mentioned other potential impacts as predicted by the IPCC 2014 report for a more comprehensive answer.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hãy mô tả quá trình nước biển dâng xâm lấn vào nội đồng diễn biến như thế nào? Hãy nêu rõ các yếu tố ảnh hưởng đến quá trình này.</t>
+          <t>Theo nghiên cứu của Reid và cộng sự năm 2019, những thay đổi nào do biến đổi khí hậu có thể tác động đến sự đa dạng sinh học trong môi trường nước ngọt? Hãy liệt kê và giải thích một số ví dụ được đề cập trong bài viết.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Quá trình nước biển dâng xâm lấn vào nội đồng diễn ra khi nước biển từ các cửa sông chảy theo sông và kênh vào phía trong nội đồng. Khi càng đi sâu vào, lượng nước sẽ giảm do tràn và thấm vào đất, tương ứng với hệ số dòng sông và kênh giảm. Nước biển chảy theo sông/kênh sẽ thấm vào đất hoặc tràn lên đất (nếu mực nước cao hơn độ cao của địa hình) làm cho đất bị ngập úng và nhiễm mặn.
-Các yếu tố ảnh hưởng đến quá trình này bao gồm việc xây dựng hệ thống cống, hệ thống đê, việc mở thêm nhiều kênh rạch ở các vùng ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình để lấy nguồn nước biển cho nuôi thủy sản. Đồng thời, việc người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm ở các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long trong mấy năm gần đây cũng phá vỡ việc vận hành của hệ thống cống ngăn mặn, làm cho nước biển vào sâu trong nội đồng và nguy cơ ngập ngày càng thể hiện rõ.</t>
+          <t>Rất tiếc, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về nghiên cứu của Reid và cộng sự năm 2019 hoặc về cách biến đổi khí hậu có thể tác động đến sự đa dạng sinh học trong môi trường nước ngọt.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1254,25 +1242,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the process of sea water intrusion into the inland delta. It also clearly outlines the factors affecting this process. The answer is comprehensive and appears to be correct, even without a reference answer for comparison.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of Reid's 2019 research and the impact of climate change on biodiversity in freshwater environments. However, it does not provide any specific information or examples as requested by the user, hence it is not fully correct.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dựa vào kết quả mô phỏng, hãy phân tích tình hình ngập úng và nhiễm mặn ở các huyện ven biển và các huyện phía trong. Hãy đưa ra các nguyên nhân dẫn đến sự khác biệt này.</t>
+          <t>Trong bối cảnh thương mại điện tử toàn cầu, vấn đề nào được đề cập trong bài viết là một thách thức lớn đối với việc quản lý và chính sách bảo vệ môi trường? Hãy trình bày về vấn đề này và đưa ra một số giải pháp tiềm năng để giải quyết vấn đề.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Kết quả mô phỏng cho thấy các huyện ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình thường bị ngập ở mức cao hơn so với các huyện phía trong. Một nguyên nhân chính là do kinh tế của các huyện này chủ yếu dựa vào nuôi thủy sản, nên việc lấy nguồn nước biển thường xuyên phải mở thêm nhiều kênh rạch, làm cho nước biển dễ dàng xâm nhập vào phía trong. 
-Trong khi đó, các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long trong những năm gần đây cũng đang đối mặt với tình trạng ngập úng và nhiễm mặn tăng lên. Điều này chủ yếu do người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm, phá vỡ việc vận hành của hệ thống cống ngăn mặn, làm cho nước biển dễ dàng xâm nhập vào sâu trong nội đồng.</t>
+          <t>Bài viết không đề cập đến bối cảnh thương mại điện tử toàn cầu. Thay vào đó, nó tập trung vào thách thức của việc quản lý và chính sách bảo vệ môi trường trong ngành nông nghiệp, đặc biệt là trong bối cảnh của biến đổi khí hậu và các hiện tượng thời tiết cực đoan. Một trong những vấn đề lớn được đề cập là việc thúc đẩy phát triển nông nghiệp theo mô hình tăng trưởng xanh, nhằm giảm cường độ phát thải khí nhà kính và thúc đẩy sử dụng năng lượng sạch, năng lượng tái tạo. Một số giải pháp tiềm năng được đề xuất bao gồm tăng cường hợp tác toàn diện, liên tỉnh, thực hiện rà soát lại các quy hoạch liên quan và xanh hóa sản xuất.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1287,157 +1274,154 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the flooding and salinity situation in coastal and inland districts. It also provides reasons for the differences observed. The answer is accurate and comprehensive, but it could be slightly more concise.</t>
+          <t>The generated answer is somewhat relevant to the user query. However, it does not address the specific context of global e-commerce mentioned in the query. Instead, it discusses environmental challenges and solutions in the context of agriculture. Therefore, while it provides a detailed response, it does not fully answer the user's question.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hãy mô tả kịch bản nước biển dâng xâm lấn vào nội đồng giai đoạn năm 2016 đến năm 2050 mà tác giả đã đề xuất. Theo kịch bản này, những vấn đề gì sẽ xảy ra với sản xuất nông nghiệp và cuộc sống của người dân tỉnh Bạc Liêu?</t>
+          <t>Theo nghiên cứu của Reid và cộng sự năm 2019, hãy mô tả cách thay đổi môi trường toàn cầu có thể tác động đến các tuyến đường thương mại điện tử? Hãy đưa ra ví dụ về cách thay đổi khí hậu và hạn hán có thể tăng cầu cho các loài cây trồng thích nghi với môi trường ấm và khô.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Theo kịch bản nước biển dâng xâm lấn vào nội đồng từ năm 2016 đến năm 2050, mức độ ảnh hưởng của nước biển dâng đến vùng sản xuất nông nghiệp sẽ tăng lên rất cao theo từng năm, tiềm ẩn nguy cơ phức tạp. Các mô phỏng bản đồ nguy cơ ngập cho thấy tình trạng ngập lụt sẽ tăng lên vào các năm 2020, 2030, 2040, 2050 theo kịch bản mức thấp, mức trung bình và mức cao.
-Tình trạng ngập lụt chung cho tỉnh Bạc Liêu sẽ ảnh hưởng đến các khu vực huyện trong tỉnh. Nếu không có quy hoạch hệ thống đê và đập hợp lý, tình trạng nước biển dâng sẽ gây ra những ảnh hưởng không tốt. Sản xuất nông nghiệp vào mùa khô sẽ trở nên khó khăn do khô hạn và thiếu nước ngọt. Điều này dẫn đến nghèo đói, thiếu lương thực, thiếu nguồn nước ngọt để sinh hoạt, kinh tế đi xuống và nhiều hệ lụy xấu khác.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến nghiên cứu của Reid và cộng sự năm 2019, cũng như không nói về cách thay đổi môi trường toàn cầu có thể tác động đến các tuyến đường thương mại điện tử. Nó cũng không đưa ra ví dụ về cách thay đổi khí hậu và hạn hán có thể tăng cầu cho các loài cây trồng thích nghi với môi trường ấm và khô.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed description of the scenario of sea level rise invading the mainland from 2016 to 2050. It also correctly identifies the potential problems that will occur with agricultural production and the lives of the people in Bac Lieu province. The only reason it doesn't get a perfect score is because it could have provided more specific examples or data to support its points.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the research of Reid and colleagues in 2019, nor does it discuss how global environmental changes can impact e-commerce trade routes. It also does not provide examples of how climate change and drought can increase demand for plant species adapted to warm and dry environments.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Theo nội dung bài viết, hãy liệt kê và giải thích các biện pháp mà tác giả đề xuất để khắc phục tình trạng ngập lụt do nước biển dâng tại tỉnh Bạc Liêu.</t>
+          <t>Trong bối cảnh của các bệnh truyền nhiễm, hãy giải thích tầm quan trọng của các hệ sinh thái nước ngọt đối với sự sống còn của hầu hết các hình thức sống. Hãy đưa ra ví dụ về cách một số bệnh truyền nhiễm mới có thể ảnh hưởng đến đa dạng sinh học nước ngọt và cách chúng được truyền bởi các loài không bản địa.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tác giả đề xuất một số biện pháp để khắc phục tình trạng ngập lụt do nước biển dâng tại tỉnh Bạc Liêu. Đầu tiên, tác giả đề cập đến việc quy hoạch lại hệ thống kênh, vét kênh tạo dòng chảy nhằm chia sẻ lượng nước trên các con sông với nhau. Điều này giúp cân đối lượng nước, giảm thiểu nguy cơ ngập lụt khi có biến động về mực nước biển.
-Tiếp theo, tác giả cũng đề nghị xây dựng hệ thống đê điều hợp lý ngăn nước biển và hệ thống đập ngăn mặn ngăn nước biển xâm nhập vào đồng ruộng. Việc này không chỉ giúp giảm thiệt hại do xâm nhập mặn gây ra mà còn bảo vệ các khu vực sản xuất nông nghiệp, giảm thiểu nguy cơ thiếu nước ngọt trong sinh hoạt và sản xuất.</t>
+          <t>Rất tiếc, thông tin được cung cấp không đề cập đến tầm quan trọng của các hệ sinh thái nước ngọt trong bối cảnh của các bệnh truyền nhiễm, cũng như cách mà các bệnh truyền nhiễm mới có thể ảnh hưởng đến đa dạng sinh học nước ngọt và cách chúng được truyền bởi các loài không bản địa.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the measures proposed by the author to address the issue of flooding due to sea level rise in Bac Lieu province. The answer is also correct as it accurately reflects the content of the user's query.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information or explanation about the importance of freshwater ecosystems in the context of infectious diseases, nor does it give examples of how new infectious diseases can affect freshwater biodiversity and how they are transmitted by non-native species.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu mô phỏng mô hình xâm lấn do nước biển dâng ảnh hưởng đến khu vực sản xuất nông nghiệp tại khu vực ĐBSCL, hãy mô tả quá trình xác định hướng nước biển xâm lấn và cách thức xây dựng bản đồ số thể hiện quá trình ngập úng, ngập mặn địa hình.</t>
+          <t>Theo nghiên cứu của Johnson &amp; Paull (2011), hãy mô tả sự gia tăng của các bệnh liên quan đến nước ở các loài lưỡng cư, cá nước ngọt và tôm sú trong 40 năm qua (1970-2009). Đồng thời, hãy nêu rõ những hậu quả mà các bệnh này gây ra cho các loài này.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Quá trình xác định hướng nước biển xâm lấn được mô tả như sau: Nước biển từ các cửa sông sẽ chảy theo sông và kênh vào phía trong nội đồng. Càng vào trong thì lượng nước sẽ giảm do tràn và thấm vào đất tương ứng với hệ số dòng sông và kênh giảm. Nước biển chảy theo sông/kênh sẽ thấm vào đất hoặc tràn lên đất (nếu mực nước cao hơn độ cao của địa hình) làm cho đất bị ngập úng và nhiễm mặn.
-Về việc xây dựng bản đồ số thể hiện quá trình ngập úng, ngập mặn địa hình, nghiên cứu đã tiến hành xây dựng bản đồ số thể hiện quá trình ngập úng, ngập mặn địa hình do nước biển dâng xâm lấn vào vùng sản xuất nông nghiệp trong đất liền thông qua bản đồ theo thời gian. Từ đó đưa ra các thống kê về diện tích ngập theo thời gian, theo từng đơn vị hành chính (cấp tỉnh, cấp huyện) trên địa bàn một tỉnh được chọn thí điểm (tỉnh Bạc Liêu) trong khu vực ĐBSCL cũng đã được mô tả chi tiết trên cơ sở các kịch bản trong quá khứ và cho các giai đoạn trong tương lai.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không chứa bất kỳ thông tin nào về nghiên cứu của Johnson &amp; Paull (2011) hoặc về sự gia tăng của các bệnh liên quan đến nước ở các loài lưỡng cư, cá nước ngọt và tôm sú trong 40 năm qua (1970-2009), cũng như hậu quả của các bệnh này đối với các loài này.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the process of determining the direction of sea water intrusion and the construction of a digital map showing the process of flooding and salinization of the terrain. The answer is complete and accurate, with no errors or omissions.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the increase in water-related diseases in amphibians, freshwater fish, and prawns over the past 40 years (1970-2009) as studied by Johnson &amp; Paull (2011), nor does it mention the consequences of these diseases for these species.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Trong bối cảnh hạn và xâm nhập mặn tại Đồng bằng sông Cửu Long, công nghệ nào được đánh giá có tiềm năng ứng dụng cao nhất để khử mặn và làm ngọt hóa nguồn nước ngầm đang bị nhiễm mặn? Hãy giải thích lý do vì sao công nghệ này được lựa chọn.</t>
+          <t>Trình bày về hiện tượng "Harmful algal blooms" (HABs) và những yếu tố môi trường hoặc sinh thái nào đã tạo điều kiện cho sự tích tụ khối lượng sinh vật của các loài tảo gây hại? Hãy đề cập đến những thay đổi toàn cầu đã tăng cơ hội cho các loài tảo trở nên thống trị sinh thái và góp phần vào sự gia tăng của HABs.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Công nghệ ED (Electrodialysis) được đánh giá có tiềm năng ứng dụng cao nhất để khử mặn và làm ngọt hóa nguồn nước ngầm đang bị nhiễm mặn. Lý do là công nghệ ED sử dụng nguồn điện một chiều, do đó rất phù hợp để sử dụng nguồn năng lượng mặt trời (nguồn một chiều). Bởi vì tiêu thụ năng lượng ít hơn công nghệ RO (Reverse Osmosis), nên chi phí đầu tư cho hệ thống điện năng lượng mặt trời sẽ ít hơn. Hơn nữa, chi phí đầu tư và vận hành hệ thống khử mặn nước lợ với tổng chất rắn hòa tan-TDS- dưới 5000mg/lít, thì sử dụng công nghệ ED có chi phí rẻ hơn loại công nghệ RO.</t>
+          <t>Rất tiếc, thông tin trong ngữ cảnh không cung cấp đủ chi tiết để trả lời câu hỏi về hiện tượng "Harmful algal blooms" (HABs) và những yếu tố môi trường hoặc sinh thái đã tạo điều kiện cho sự tích tụ khối lượng sinh vật của các loài tảo gây hại. Cũng không có thông tin về những thay đổi toàn cầu đã tăng cơ hội cho các loài tảo trở nên thống trị sinh thái và góp phần vào sự gia tăng của HABs.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why the ED (Electrodialysis) technology is considered to have the highest potential for desalination and sweetening of saline-contaminated groundwater. The answer could be improved by providing more context or examples, but overall it is very informative and accurate.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the phenomenon "Harmful algal blooms" (HABs) or the environmental or ecological factors that have facilitated the accumulation of biomass of harmful algal species. It also does not mention any global changes that have increased the chances for algal species to become ecologically dominant and contribute to the increase of HABs.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, công nghệ khử mặn nào có chi phí đầu tư và vận hành rẻ hơn khi xử lý nước lợ với tổng chất rắn hòa tan (TDS) dưới 5000mg/lít? Vì sao công nghệ này lại có chi phí rẻ hơn?</t>
+          <t>Theo nghiên cứu của Reid và cộng sự năm 2019, hãy mô tả những tác động tiêu cực của việc xây dựng đập thủy điện lên sự đa dạng sinh học nước ngọt?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Công nghệ khử mặn ED (Electrodialysis) có chi phí đầu tư và vận hành rẻ hơn khi xử lý nước lợ với tổng chất rắn hòa tan (TDS) dưới 5000mg/lít so với công nghệ RO (Reverse Osmosis). Lý do là công nghệ ED sử dụng nguồn điện một chiều, do đó rất phù hợp để sử dụng nguồn năng lượng mặt trời (nguồn một chiều). Vì tiêu thụ năng lượng ít hơn công nghệ RO, nên chi phí đầu tư cho hệ thống điện năng lượng mặt trời sẽ ít hơn.</t>
+          <t>Rất tiếc, nhưng không có thông tin nào trong ngữ cảnh được cung cấp về nghiên cứu của Reid và cộng sự năm 2019 hoặc về tác động tiêu cực của việc xây dựng đập thủy điện lên sự đa dạng sinh học nước ngọt.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and correct. It accurately identifies Electrodialysis (ED) as a desalination technology with lower investment and operating costs for treating brackish water with a total dissolved solids (TDS) under 5000mg/liter compared to Reverse Osmosis (RO). It also provides a valid reason for the lower cost, which is the lower energy consumption of ED technology, making it suitable for using solar energy. The answer could be improved by providing more detailed cost comparisons or more specific data to support the claim.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the query, but it does not provide any information or answer to the user's question.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Liệt kê và giải thích 6 tiêu chuẩn được áp dụng cho một hệ thống khử mặn quy mô cụm dân cư nông thôn ĐBSCL theo nghiên cứu.</t>
+          <t>Trong bối cảnh thay đổi toàn cầu, tác động của chất độc BMAA đối với sức khỏe con người là gì theo nghiên cứu của Reid và cộng sự năm 2019?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến 6 tiêu chuẩn được áp dụng cho một hệ thống khử mặn quy mô cụm dân cư nông thôn ĐBSCL.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến tác động của chất độc BMAA đối với sức khỏe con người theo nghiên cứu của Reid và cộng sự năm 2019.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1447,56 +1431,56 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query as it does not provide any information about the 6 standards applied to a desalination system for a rural residential cluster in the Mekong Delta region as per the research.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the impact of the toxin BMAA on human health according to the research of Reid and colleagues in 2019. However, it does not provide any specific information or details about this impact, stating that the provided information does not mention it. Therefore, it is not fully correct or complete.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, công nghệ nào được đề xuất để khử mặn cho các cụm dân cư nông thôn vùng ĐBSCL? Hãy nêu các lý do mà nghiên cứu đưa ra để lựa chọn công nghệ này.</t>
+          <t>Theo nghiên cứu của Reid và cộng sự năm 2019, việc xây dựng đập thủy điện có những tác động như thế nào đến đa dạng sinh học nước ngọt và an ninh lương thực của cộng đồng sống dựa vào nguồn lợi từ sông?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Công nghệ điện thẩm tách (Electrodialysis – ED) được đề xuất để khử mặn cho các cụm dân cư nông thôn vùng ĐBSCL. Các lý do mà nghiên cứu đưa ra để lựa chọn công nghệ này bao gồm: công nghệ ED có chi phí rẻ hơn công nghệ RO khi xử lý nước lợ có tổng chất rắn hòa tan (TDS) dưới 5000mg/lít; công nghệ ED sử dụng nguồn điện một chiều, phù hợp để sử dụng nguồn năng lượng mặt trời; và do tiêu thụ năng lượng ít hơn công nghệ RO, nên chi phí đầu tư cho hệ thống điện năng lượng mặt trời sẽ ít hơn.</t>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về nghiên cứu của Reid và cộng sự năm 2019 liên quan đến tác động của việc xây dựng đập thủy điện đối với đa dạng sinh học nước ngọt và an ninh lương thực của cộng đồng sống dựa vào nguồn lợi từ sông.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response. It correctly identifies the technology proposed for desalination in rural communities in the Mekong Delta region and provides the reasons for this choice as requested in the query.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of Reid's 2019 research on the impact of hydroelectric dam construction. However, it does not provide any specific information or details about the research, which is what the user was asking for. Therefore, it is not fully correct or helpful.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu "Lựa chọn mô hình sản xuất của hộ trồng lúa trong điều kiện xâm nhập mặn ở đồng bằng sông cửu long" của Khôi và Khải, hãy liệt kê các yếu tố ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang lúa – tôm và lúa – cá.</t>
+          <t>Theo tác giả, việc chuyển đổi nguồn thực phẩm từ protein nước đến protein đất, đặc biệt là protein từ chăn nuôi, đối mặt với những thách thức kinh tế - xã hội nào?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang lúa – tôm bao gồm diện tích đất, trình độ học vấn, lao động chính, nhập mặn, nguồn nước và vay vốn. Đối với mô hình lúa – cá, các yếu tố tác động đến xác suất chuyển đổi bao gồm trình độ học vấn, nhập mặn, và nguồn nước.</t>
+          <t>Tác giả không đề cập đến việc chuyển đổi nguồn thực phẩm từ protein nước đến protein đất, đặc biệt là protein từ chăn nuôi, trong ngữ cảnh được cung cấp.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1506,133 +1490,132 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be fully correct, providing a detailed list of factors that influence the probability of transitioning from a rice farming model to a rice-shrimp or rice-fish model. It directly addresses the user's query without any noticeable errors or omissions.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the economic and social challenges faced in the transition from aquatic to terrestrial protein sources, particularly livestock protein.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Theo Trung tâm phòng tránh và giảm nhẹ thiên tai thuộc Bộ Nông nghiệp và Phát triển Nông thôn, mức độ mặn nào được xem là bị xâm nhập mặn? Hãy mô tả tình hình xâm nhập mặn ở sông Tiền và sông Hậu.</t>
+          <t>Theo nghiên cứu của Reid và cộng sự năm 2019, hãy mô tả những thách thức kinh tế xã hội mà chúng ta có thể gặp phải khi chuyển đổi nguồn thực phẩm an toàn từ protein thuỷ sản sang protein có nguồn gốc từ chăn nuôi đất liền?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mức độ mặn 4‰ được Trung tâm phòng tránh và giảm nhẹ thiên tai thuộc Bộ Nông nghiệp và Phát triển Nông thôn xác định là bị xâm nhập mặn. Tuy nhiên, tình hình ở sông Tiền và sông Hậu nghiêm trọng hơn nhiều, với số liệu đo độ mặn cho kết quả trên 45‰. Độ mặn này kéo dài và xâm nhập sâu tới 70 km tính từ cửa sông, thậm chí có thời điểm độ mặn xâm nhập sâu đến 85 km.</t>
+          <t>Rất tiếc, nhưng không có thông tin nào trong ngữ cảnh được cung cấp liên quan đến nghiên cứu của Reid và cộng sự năm 2019 hoặc những thách thức kinh tế xã hội khi chuyển đổi nguồn thực phẩm an toàn từ protein thuỷ sản sang protein có nguồn gốc từ chăn nuôi đất liền.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be correct, providing specific information about the salinity level considered as salt intrusion and describing the situation in the Tien and Hau rivers. However, without a reference answer, it's difficult to confirm the absolute accuracy of the details provided.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the question. However, it does not provide any specific information or details about the research of Reid and colleagues in 2019 or the socio-economic challenges of transitioning from seafood protein to land-based protein sources, which is what the user asked for. Therefore, it is not fully correct.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hãy nêu một số giải pháp cấp quốc gia đã được áp dụng để kiểm soát xâm nhập mặn? Tại sao các tỉnh ven biển như Cà Mau, Sóc Trăng và Trà Vinh lại dễ bị tổn thương bởi xâm nhập mặn?</t>
+          <t>Trong bối cảnh các chất ô nhiễm mới xuất hiện, hãy giải thích tác động của các chất này đối với đa dạng sinh học nước ngọt và cách chúng có thể ảnh hưởng đến chức năng của hệ sinh thái nước ngọt.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Một trong những giải pháp cấp quốc gia đã được áp dụng để kiểm soát xâm nhập mặn là dự án xây dựng hệ thống kênh rạch dẫn nước ở Đồng bằng sông Cửu Long. Các tỉnh ven biển như Cà Mau, Sóc Trăng và Trà Vinh dễ bị tổn thương bởi xâm nhập mặn do chúng có tỷ lệ hộ trồng lúa và diện tích lúa bị nhiễm mặn lớn nhất trong vùng. Các mô hình trồng lúa chuyên canh 3 vụ lúa hoặc 2 vụ lúa cũng dễ tổn thương với xâm nhập mặn do nước mặn sẽ kìm hãm sự phát triển sinh lý của cây lúa.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến tác động của các chất ô nhiễm mới xuất hiện đối với đa dạng sinh học nước ngọt hoặc cách chúng có thể ảnh hưởng đến chức năng của hệ sinh thái nước ngọt.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and mostly correct. It provides a solution that has been implemented at the national level to control saltwater intrusion and explains why coastal provinces like Ca Mau, Soc Trang, and Tra Vinh are vulnerable to saltwater intrusion. However, it could have included more diverse solutions for a more comprehensive answer.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the impact of new pollutants on freshwater biodiversity and how they can affect the function of freshwater ecosystems.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, hãy mô tả xu hướng chuyển đổi sản xuất của nông dân ở Nam Mỹ để thích ứng với điều kiện tự nhiên và giảm bớt tác động của biến đổi khí hậu. Hãy đưa ra các ví dụ cụ thể từ các nghiên cứu của Gbetibouo &amp; Hassan (2005), Seo &amp; Mendelsohn (2007) để hỗ trợ câu trả lời của bạn.</t>
+          <t>Hãy mô tả những tác động tiêu cực mà các chất kháng sinh và các chất phụ gia trong sản phẩm chăm sóc cá nhân có thể gây ra cho các cộng đồng vi sinh vật tự nhiên và hệ sinh thái nước ngọt. Hãy đưa ra ví dụ cụ thể từ ngữ cảnh đã cho.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rất tiếc, thông tin cung cấp không đưa ra chi tiết cụ thể về xu hướng chuyển đổi sản xuất của nông dân ở Nam Mỹ để thích ứng với điều kiện tự nhiên và giảm bớt tác động của biến đổi khí hậu, cũng như không có ví dụ cụ thể từ các nghiên cứu của Gbetibouo &amp; Hassan (2005), Seo &amp; Mendelsohn (2007).</t>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh đã cung cấp không đề cập đến tác động tiêu cực của các chất kháng sinh và các chất phụ gia trong sản phẩm chăm sóc cá nhân đối với các cộng đồng vi sinh vật tự nhiên và hệ sinh thái nước ngọt.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query. The user asked for a description of the trend of farmers in South America adapting to natural conditions and mitigating the impact of climate change, with specific examples from the studies of Gbetibouo &amp; Hassan (2005), Seo &amp; Mendelsohn (2007). The generated answer does not provide any of this information.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the impact of antibiotics and additives in personal care products on natural microbial communities and freshwater ecosystems. However, it does not provide any specific examples or details, which were requested in the user query. The answer is also not incorrect, but it is incomplete.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Dựa trên kết quả nghiên cứu, hãy phân tích sự khác biệt giữa các hộ trồng lúa chuyên canh và hộ trồng lúa kết hợp về tỷ lệ, mô hình sản xuất, trình độ học vấn của chủ hộ và tỷ lệ vay vốn. Hãy đưa ra giả thuyết về nguyên nhân của những khác biệt này.</t>
+          <t>Các vật liệu nano kỹ thuật (ENMs) có những đặc tính gì đặc biệt so với các vật liệu thông thường? Hãy giải thích tại sao việc dự đoán hoạt tính sinh học của ENMs lại khó khăn và những tác động tiềm tàng mà chúng có thể gây ra cho các loài sống trong nước ngọt.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Các hộ trồng lúa chuyên canh chiếm 51,64% trong khi hộ trồng lúa kết hợp chiếm 48,36%. Mô hình lúa-màu và lúa-cá có tỷ lệ cao hơn so với mô hình lúa-tôm. Chủ hộ trồng lúa chuyên canh có trình độ học vấn từ cấp 3 trở lên chiếm tỷ lệ thấp hơn so với nhóm hộ trồng lúa kết hợp, với tỷ lệ 32,33% so với 40,21%. Tuy nhiên, tỷ lệ phân bổ giới tính của chủ hộ thiên về nam giới với tỷ lệ trên 90% và không có sự khác biệt đáng kể giữa hai mô hình. Chủ hộ trồng lúa chuyên canh có tỷ lệ vay vốn là 86% so với tỷ lệ vay vốn 79% của nhóm hộ trồng lúa kết hợp.
-Nguyên nhân của những khác biệt này có thể do các yếu tố như diện tích đất, tuổi chủ hộ, học vấn, và nguồn nước. Các hộ có diện tích sản xuất lớn thường thực hiện chuyển đổi sang mô hình lúa – tôm nhiều hơn, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi. Trong khi đó, hộ trồng lúa càng có diện tích đất sản xuất ít, sẽ không đủ điều kiện tạo ra thu nhập cho gia đình ổn định và nguồn lực để chuyển đổi.</t>
+          <t>Xin lỗi, nhưng thông tin cung cấp không đề cập đến các vật liệu nano kỹ thuật (ENMs), đặc tính của chúng so với các vật liệu thông thường, khó khăn trong việc dự đoán hoạt tính sinh học của ENMs, hoặc tác động tiềm tàng mà chúng có thể gây ra cho các loài sống trong nước ngọt.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the differences between specialized rice farming households and combined rice farming households in terms of proportion, production model, education level of the household head, and loan rate. It also hypothesizes the reasons for these differences. The answer is comprehensive and appears to be accurate, although without a reference answer, it's hard to confirm the exact accuracy. However, based on the information provided, it seems to be a well-researched and well-presented response.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the special characteristics of engineered nano materials (ENMs), why predicting their biological activity is difficult, or the potential impacts they could have on freshwater species.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, xâm nhập mặn có tương quan thuận với xác suất chuyển đổi từ lúa chuyên canh sang lúa – tôm ở mức ý nghĩa là bao nhiêu phần trăm? Hãy giải thích tác động biên của xâm nhập mặn đối với xác suất chuyển đổi này.</t>
+          <t>Hãy mô tả những tác động tiêu cực của việc ô nhiễm microplastic đối với môi trường biển, cũng như những hệ quả mà chúng gây ra cho động vật. Hãy đưa ra các ví dụ cụ thể từ ngữ cảnh đã cho.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn có tương quan thuận với xác suất chuyển đổi từ lúa chuyên canh sang lúa – tôm ở mức ý nghĩa là 1%. Tác động biên của xâm nhập mặn cho thấy xác suất chuyển đổi từ lúa chuyên canh sang lúa tôm cao hơn hộ trồng lúa trong điều kiện không xâm nhập mặn là 13,8 điểm phần trăm.</t>
+          <t>Rất tiếc, ngữ cảnh đã cung cấp không chứa thông tin về tác động tiêu cực của việc ô nhiễm microplastic đối với môi trường biển, cũng như những hệ quả mà chúng gây ra cho động vật.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1642,52 +1625,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides specific information about the correlation between saltwater intrusion and the probability of conversion from specialized rice cultivation to rice-shrimp farming. However, without a reference answer, it's hard to verify the correctness of the specific percentages provided.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for a description of the negative impacts of microplastic pollution on the marine environment and its consequences for animals, with specific examples. The generated answer does not provide any of this information.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Liệt kê các biến có ý nghĩa giải thích cho xác suất chuyển đổi mô hình từ chuyên canh lúa sang lúa – màu theo nghiên cứu. Trình bày cách mà diện tích đất và xâm nhập mặn ảnh hưởng đến quyết định chuyển đổi mô hình canh tác.</t>
+          <t>Trong ngữ cảnh đã cho, tác giả đã đề cập đến những rủi ro tiềm ẩn từ việc sử dụng các vật liệu nano mới nổi (ENMs). Hãy phân tích và giải thích những rủi ro này, đồng thời đề cập đến những khía cạnh cụ thể như "tính khả dụng sinh học" và "tính hoạt động sinh học" của ENMs.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Các biến có ý nghĩa giải thích cho xác suất chuyển đổi mô hình từ chuyên canh lúa sang lúa – màu bao gồm: diện tích đất, tuổi chủ hộ, học vấn cấp 1, học vấn cấp 2, và nguồn nước.
-Diện tích đất và xâm nhập mặn đều ảnh hưởng đến xác suất chuyển đổi từ mô hình chuyên canh lúa sang mô hình lúa kết hợp. Những hộ có diện tích sản xuất lớn thường thực hiện chuyển đổi sang mô hình lúa – tôm nhiều hơn, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi sang mô hình tôm – lúa. Trong khi đó, hộ trồng lúa càng có diện tích đất sản xuất ít, sẽ không đủ điều kiện tạo ra thu nhập cho gia đình ổn định và nguồn lực để chuyển đổi để có thể chuyển đổi cơ cấu sản xuất nhằm tạo ra thu nhập cao hơn trong tương lai.</t>
+          <t>Rất tiếc, trong ngữ cảnh đã cho không có thông tin nào liên quan đến rủi ro tiềm ẩn từ việc sử dụng các vật liệu nano mới nổi (ENMs), cũng như "tính khả dụng sinh học" và "tính hoạt động sinh học" của ENMs.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the variables that influence the probability of transitioning from rice cultivation to a rice-shrimp model. It also explains how land area and saltwater intrusion affect this decision. However, it does not fully explain how saltwater intrusion specifically impacts the decision, which is why it does not receive a perfect score.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for an analysis and explanation of the potential risks of using emerging nano materials (ENMs), including specific aspects such as their "bioavailability" and "bioactivity". However, the generated answer simply states that there is no information on this topic in the given context, which does not address the user's question.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, yếu tố nào quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất từ lúa chuyên canh sang lúa tôm và lúa cá?</t>
+          <t>Theo nghiên cứu của Reid và cộng sự vào năm 2019, hãy mô tả những tác động tiêu cực của ô nhiễm microplastic đối với hệ sinh thái nước ngọt. Hãy đề cập đến các nguồn gốc, cách thức tiếp xúc và tác động lên các loài sinh vật sống trong môi trường nước ngọt.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Yếu tố quan trọng nhất tác động trực tiếp đến quyết định chuyển đổi mô hình sản xuất từ lúa chuyên canh sang lúa tôm và lúa cá là xâm nhập mặn và diện tích đất.</t>
+          <t>Rất tiếc, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về nghiên cứu của Reid và cộng sự vào năm 2019 liên quan đến tác động tiêu cực của ô nhiễm microplastic đối với hệ sinh thái nước ngọt.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1697,73 +1679,75 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and seems correct, providing specific factors that could influence the decision to switch from specialized rice cultivation to shrimp and fish rice. However, without a reference answer, it's hard to confirm the absolute correctness of the response.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the research by Reid and colleagues in 2019 on the negative impacts of microplastic pollution on freshwater ecosystems. However, it does not provide any information or details about the research, the sources of microplastic pollution, how organisms in freshwater environments come into contact with microplastics, or the impacts on these organisms, which were all asked for in the user query. Therefore, it is not fully correct or complete.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu, diện tích đất và nhiễm mặn có ảnh hưởng như thế nào đến xu hướng chuyển đổi sang mô hình lúa – tôm hoặc lúa – cá?</t>
+          <t>Trình bày về ảnh hưởng của ánh sáng nhân tạo đối với sự di chuyển theo chiều dọc của loài zooplankton Daphnia và cộng đồng vi sinh vật trong hệ sinh thái nước ngọt, dựa trên nghiên cứu của Moore và cộng sự (2000) và Holker và cộng sự (2015).</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Diện tích đất và nhiễm mặn có ảnh hưởng trái ngược nhau đối với xu hướng chuyển đổi sang mô hình lúa – tôm hoặc lúa – cá. Cụ thể, diện tích đất lớn thường thúc đẩy xu hướng chuyển đổi sang mô hình lúa – tôm, do yêu cầu về diện tích canh tác và nguồn vốn đầu tư để chuyển đổi sang mô hình này. Ngược lại, nếu diện tích đất sản xuất ít, hộ sẽ không đủ điều kiện tạo ra thu nhập ổn định cho gia đình và nguồn lực để chuyển đổi, do đó hạn chế xu hướng chuyển đổi. Trong khi đó, nhiễm mặn có ảnh hưởng đến xu hướng chuyển đổi mô hình canh tác, nhưng không rõ ràng ảnh hưởng đến xu hướng chuyển đổi sang mô hình lúa – màu.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến ảnh hưởng của ánh sáng nhân tạo đối với sự di chuyển theo chiều dọc của loài zooplankton Daphnia và cộng đồng vi sinh vật trong hệ sinh thái nước ngọt, cũng như không có thông tin về nghiên cứu của Moore và cộng sự (2000) và Holker và cộng sự (2015).</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how land area and salinity affect the trend of transitioning to rice-shrimp or rice-fish farming models. However, there is a minor mistake in the last sentence where it mentions "rice-color" model which seems to be a mistranslation or typo.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the influence of artificial light on the vertical movement of the zooplankton species Daphnia and the microbial community in freshwater ecosystems, based on the studies of Moore et al. (2000) and Holker et al. (2015). Instead, it simply states that the provided information does not mention these topics.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Trình bày các điều kiện đã được đặt ra để vận hành cống Nàng Âm trong giai đoạn 2015-2021 trong nghiên cứu về vận hành công trình thủy lợi trong điều kiện xâm nhập mặn tại huyện Vũng Liêm, tỉnh Vĩnh Long?</t>
+          <t>Theo nghiên cứu của Holker et al. (2015), ánh sáng nhân tạo vào ban đêm (ALAN) có ảnh hưởng như thế nào đến cộng đồng vi sinh vật và hệ thống nước ngọt? Hãy nêu ví dụ về cách ánh sáng ảnh hưởng đến hành vi của các loài sinh vật.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cống Nàng Âm được vận hành trong giai đoạn 2015-2021 dựa trên hai điều kiện chính. Đầu tiên là mực nước, và thứ hai là độ mặn, với ngưỡng mặn được đặt ở 1 g/L.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến nghiên cứu của Holker et al. (2015) về ảnh hưởng của ánh sáng nhân tạo vào ban đêm (ALAN) đối với cộng đồng vi sinh vật và hệ thống nước ngọt, cũng như cách ánh sáng ảnh hưởng đến hành vi của các loài sinh vật.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and seems to be correct, providing two main conditions for the operation of the Nàng Âm culvert during the period 2015-2021. However, without a reference answer, it's hard to confirm the full accuracy.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the impact of artificial light at night (ALAN) on microbial communities and freshwater systems, or examples of how light affects the behavior of species, as asked in the user query.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu, hãy so sánh mực nước trạm Mỹ Thuận hiện tại với mực nước dự báo năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5.</t>
+          <t>Salinisation (sự mặn mòi) của nước ngọt đang diễn ra ở tốc độ và quy mô chưa từng có. Hãy giải thích nguy cơ mà sự mặn mòi mang lại, đặc biệt là với các khu rừng và đất ngập nước trên toàn thế giới, cũng như các khu vực nông nghiệp.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rất tiếc, nhưng thông tin cung cấp không đưa ra dữ liệu cụ thể về mực nước trạm Mỹ Thuận hiện tại so với mực nước dự báo năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5.</t>
+          <t>Sự mặn mòi của nước ngọt có thể gây ra nhiều nguy cơ và thách thức, đặc biệt đối với các khu vực nông nghiệp và các khu rừng và đất ngập nước. Một trong những nguy cơ lớn nhất là sự xâm nhập mặn, khi mực nước biển dâng cao, có thể gây ra những thay đổi trong chế độ sóng và dòng chảy ven bờ, dẫn đến xói lở bờ và hệ thống đê biển. Điều này cũng làm giảm khả năng tiêu thoát nước ra biển, làm tăng mực nước các con sông trong nội địa, và kết hợp với sự gia tăng dòng chảy lũ từ thượng nguồn, có thể uy hiếp sự an toàn của các tuyến đê bao và bờ bao. 
+Ngoài ra, sự xâm nhập mặn cũng có thể gây ra sự thay đổi môi trường nước từ ngọt sang mặn, ảnh hưởng đến sản xuất nông nghiệp. Điều này có thể gây ra mâu thuẫn nghiêm trọng trong việc sử dụng nguồn nước giữa các hệ thống canh tác, đặc biệt là ở những khu vực tiếp giáp giữa mặn và ngọt. Rủi ro trong canh tác nông nghiệp vùng ven biển do tác động của biến đổi khí hậu và nước biển dâng rất cao. 
+Cuối cùng, sự mặn mòi cũng có thể ảnh hưởng đến sự phát triển bền vững của vùng, đặc biệt là sản xuất nông nghiệp, dẫn đến những đe dọa cho sự phát triển của hệ thống kinh tế - xã hội - môi trường.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1778,20 +1762,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the comparison of water levels at My Thuan station. However, it does not provide the specific information requested, hence it's not fully correct.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the risks associated with salinisation, particularly in relation to forests, wetlands, and agricultural areas. It covers the impact on coastal erosion, inland water levels, agricultural production, and sustainable development. The answer could be improved by providing more specific examples or data, but overall it is a very good response.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hãy mô tả hiện trạng thủy lợi tại huyện Vũng Liêm, tỉnh Vĩnh Long và giải thích tại sao hệ thống đê cần được nâng cấp?</t>
+          <t>Hãy mô tả cách mà việc khai thác thực vật có thể gây ra tình trạng mặn hóa đất ở các khu vực thấp độ và các khu vực bán khô hạn? Hãy đề cập đến vai trò của lượng mưa và sự thay đổi khí hậu trong câu trả lời của bạn.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hiện trạng công trình thủy lợi tại huyện Vũng Liêm, tỉnh Vĩnh Long đã được số hóa bằng QGIS và các cao trình đê bao được đánh giá theo mực nước trạm Mỹ Thuận dự báo từ các kịch bản biến đổi khí hậu. Cống Nàng Âm được chọn để vận hành theo điều kiện mực nước và độ mặn. Mực nước trạm Mỹ Thuận hiện tại với tần suất 3%, 5% và 10% thấp hơn cao trình đỉnh đê (+2,20 m). Tuy nhiên, mực nước tương ứng năm 2030 và 2050 theo ba kịch bản RCP2.6, RCP4.5 và RCP 8.5 đều cao hơn cao trình đỉnh đê. Trong những năm có độ mặn cao như 2016, 2020 và 2021 thì thời gian đóng cống trong các tháng mùa khô là trên 25%.
-Hệ thống đê cần được nâng cấp vì mực nước dự báo trong tương lai theo các kịch bản biến đổi khí hậu sẽ cao hơn cao trình đỉnh đê. Điều này có thể gây ra nguy cơ ngập lụt, đặc biệt trong bối cảnh biến đổi khí hậu và xâm nhập mặn ngày càng nghiêm trọng.</t>
+          <t>Dựa trên thông tin được cung cấp, không thể mô tả cách mà việc khai thác thực vật có thể gây ra tình trạng mặn hóa đất ở các khu vực thấp độ và các khu vực bán khô hạn. Tuy nhiên, thông tin cho thấy rằng biến đổi khí hậu, bao gồm sự thay đổi trong lượng mưa và nước biển dâng, đã gây ra tình trạng thiếu nguồn nước ngọt cho hệ thống canh tác lúa do xâm nhập mặn ở vùng đồng bằng ven biển. Điều này cũng đã tác động tiêu cực đến hệ thống canh tác lúa vùng ven biển. Ngoài ra, xâm nhập mặn cũng làm gia tăng sự thay đổi môi trường nước giữa ngọt, lợ mặn gây ảnh hưởng đến sản xuất nông nghiệp.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1806,127 +1789,130 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed description of the current state of irrigation in Vũng Liêm district, Vĩnh Long province. It also explains why the dike system needs to be upgraded, citing future water level predictions and climate change scenarios. The answer is accurate and comprehensive, but it could be slightly more concise.</t>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of how climate change, including changes in rainfall and sea level rise, can lead to soil salinization in low-lying and semi-arid areas. However, it does not directly address the role of plant exploitation in this process, which was part of the user's question.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Theo bài viết "Quản lý tài nguyên nước bền vững, ứng phó với biến đổi khí hậu ở Đồng bằng sông Cửu Long" của PGS. TS Lê Anh Tuấn, ĐBSCL đang đối mặt với những vấn đề gì và Thủ tướng Nguyễn Xuân Phúc đã có những hành động nào để giải quyết những vấn đề này?</t>
+          <t>Theo bài đọc, hãy liệt kê và giải thích các tác động sinh học của quá trình mặn hóa đất lên các loài không chịu được mặn, các loài thực vật nước ngọt và động vật không xương sống nước ngọt.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Đồng bằng sông Cửu Long (ĐBSCL) đang đối mặt với nhiều vấn đề như tranh chấp nước giữa các địa phương sử dụng chung hệ thống thủy lợi, tình trạng biến đổi khí hậu và xâm nhập mặn cực đoan, mất diện tích tưới tiêu do úng, nhiễm mặn, khai thác quá tải nước ngầm và sự phát triển của đô thị. Để giải quyết những vấn đề này, Thủ tướng Chính phủ đã ký Quyết định số 417/QĐ-TTg về việc ban hành Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng với biến đổi khí hậu. Chương trình này đề ra 6 nhóm nhiệm vụ và giải pháp cụ thể chính, bao gồm rà soát, hoàn thiện và bổ sung hệ thống cơ chế, chính sách, cập nhật và hệ thống hóa số liệu, dữ liệu liên ngành, xây dựng quy hoạch và tổ chức không gian lãnh thổ, xây dựng cơ cấu kinh tế hợp lý thích ứng với biến đổi khí hậu, đầu tư và phát triển hạ tầng, và phát triển và huy động nguồn lực.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến các tác động sinh học của quá trình mặn hóa đất lên các loài không chịu được mặn, các loài thực vật nước ngọt và động vật không xương sống nước ngọt.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the issues facing the Mekong Delta and the actions taken by Prime Minister Nguyen Xuan Phuc to address these issues. The answer could be improved by providing more specific examples or details about the actions taken.</t>
+          <t>The generated answer is relevant to the user query and it is correct in stating that the information needed to answer the question was not provided. However, it does not provide any additional information or attempt to answer the question in a more general sense, which could have improved the response.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hãy mô tả hai tác động dòng chảy mà Đồng bằng sông Cửu Long đang chịu và thời gian diễn ra của chúng trong năm?</t>
+          <t>Theo nghiên cứu của Reid và cộng sự năm 2019, hãy mô tả những tác động tiêu cực của việc giảm lượng canxi (Ca) trong các hệ thống nước ngọt đối với các hệ thống sinh thái nước ngọt, đặc biệt là các hồ nước mềm. Hãy đề cập đến các quá trình chính gây ra sự giảm canxi và những hậu quả mà nó gây ra cho các cộng đồng sinh vật không xương sống.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Đồng bằng sông Cửu Long đang chịu hai tác động dòng chảy. Một là dòng chảy của sông Mekong từ thượng nguồn đổ về. Thứ hai là dòng triều do tác động biển xâm nhập vào đất liền. Thời gian bị ngập lũ, thường do dòng chảy của sông Mekong, diễn ra từ tháng 8 đến tháng 10. Trong khi đó, từ tháng 1 đến tháng 4 là thời gian bị tác động mạnh mẽ của hiện tượng xâm nhập mặn và khô hạn, thường do dòng triều biển.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến nghiên cứu của Reid và cộng sự năm 2019, cũng như không nói về tác động tiêu cực của việc giảm lượng canxi trong các hệ thống nước ngọt đối với các hệ thống sinh thái nước ngọt, đặc biệt là các hồ nước mềm. Cũng không có thông tin về các quá trình chính gây ra sự giảm canxi và những hậu quả mà nó gây ra cho các cộng đồng sinh vật không xương sống.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and accurate. It correctly describes the two types of water flow impacts that the Mekong Delta is experiencing and the time of year they occur. The only reason it doesn't get a perfect score is because it could be a bit more detailed in describing the impacts of these phenomena.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the negative impacts of reduced calcium in freshwater systems, the main processes causing calcium reduction, or the consequences for invertebrate communities, as requested in the user query.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Theo kết quả phỏng đoán từ các mô hình toán, hãy nêu những thay đổi về nhiệt độ và lượng mưa trung bình dự kiến sẽ xảy ra trong thập niên 2030-2040 ở Đồng bằng sông Cửu Long?</t>
+          <t>Trong bối cảnh của việc giảm lượng canxi trong các hồ nước mềm, hãy giải thích tầm quan trọng của việc giám sát và phân tích dữ liệu cổ sinh vật học (palaeolimnological) và dữ liệu giám sát dài hạn. Hãy đề cập đến những phát hiện chính của Jeziorski và cộng sự năm 2008 liên quan đến sự thay đổi của các cộng đồng sinh vật không xương sống.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Trong thập kỷ 2030-2040, nhiệt độ trung bình cũng như nhiệt độ lớn nhất và nhỏ nhất tại Đồng bằng sông Cửu Long dự kiến sẽ tăng, với mức tăng phổ biến khoảng 20˚C. Đồng thời, tổng lượng mưa trung bình trong khu vực này cũng dự đoán sẽ giảm, phổ biến từ 10 đến 20%, làm tăng khó khăn trong việc cung cấp nước ngọt cho canh tác lúa.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến việc giảm lượng canxi trong các hồ nước mềm, tầm quan trọng của việc giám sát và phân tích dữ liệu cổ sinh vật học (palaeolimnological) và dữ liệu giám sát dài hạn, hoặc những phát hiện chính của Jeziorski và cộng sự năm 2008 liên quan đến sự thay đổi của các cộng đồng sinh vật không xương sống.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides a detailed prediction for the changes in temperature and rainfall in the Mekong Delta region for the decade 2030-2040. However, the prediction of a 20˚C increase in temperature seems a bit extreme and might be a mistake.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information or explanation about the importance of monitoring and analyzing palaeolimnological data and long-term monitoring data in the context of reducing calcium in soft water lakes, or the main findings of Jeziorski et al. in 2008 related to changes in invertebrate communities.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Theo Ủy ban Liên chính phủ về BĐKH, vùng nào là một trong ba vùng đồng bằng ven biển sẽ bị tác động nghiêm trọng nhất do BĐKH và nước biển dâng so với các nơi khác trên thế giới?</t>
+          <t>Theo nghiên cứu của Jeziorski et al. (2008), hãy mô tả sự thay đổi trong cộng đồng động vật không xương sống liên quan đến mức độ Ca giảm. Hãy đề cập đến những dấu hiệu của sự cạn kiệt Ca ở các hồ nước mềm và những thay đổi liên quan đến cộng đồng Cladocera.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Vùng ĐBSCL là một trong ba vùng đồng bằng ven biển sẽ bị tác động nghiêm trọng nhất do BĐKH và nước biển dâng so với các nơi khác trên thế giới, theo Ủy ban Liên chính phủ về BĐKH.</t>
+          <t>Rất tiếc, nhưng không có thông tin nào trong ngữ cảnh được cung cấp liên quan đến nghiên cứu của Jeziorski et al. (2008), sự thay đổi trong cộng đồng động vật không xương sống liên quan đến mức độ Ca giảm, dấu hiệu của sự cạn kiệt Ca ở các hồ nước mềm, hoặc thay đổi liên quan đến cộng đồng Cladocera.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and correct, providing the information that the Mekong Delta (ĐBSCL) is one of the three coastal plains most severely affected by climate change and sea level rise, according to the Intergovernmental Panel on Climate Change (Ủy ban Liên chính phủ về BĐKH). The answer could be slightly more detailed, hence the score is not a full 5.</t>
+          <t>The generated answer is relevant to the user query as it addresses the lack of information regarding the specific study mentioned. However, it does not provide any useful information or attempt to answer the question, hence the average score.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Theo dự đoán, nếu không kiểm soát được hiện tượng nóng lên toàn cầu, hậu quả nào có thể xảy ra đối với các vùng đất thấp ven biển ĐBSCL vào cuối thế kỷ XXI?</t>
+          <t>Trong bối cảnh nhiều yếu tố gây stress cho hệ sinh thái nước ngọt, hãy phân tích sự tương tác giữa các yếu tố này. Liệu chúng chỉ đơn thuần xảy ra cùng một lúc hay có sự tương tác lẫn nhau? Hãy đưa ra ví dụ về các kết quả từ các nghiên cứu trước đây để hỗ trợ cho câu trả lời của bạn.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nếu không kiểm soát được hiện tượng nóng lên toàn cầu, vào cuối thế kỷ XXI, có thể sẽ có ít nhất 25% diện tích các vùng đất thấp ven biển ĐBSCL có nguy cơ bị chìm ngập do nước biển dâng và lún sụt đồng bằng. Khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô và khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa, khó có thể trồng lúa và một số canh tác khác như chăn nuôi được.</t>
+          <t>Các yếu tố gây stress cho hệ sinh thái nước ngọt không chỉ đơn thuần xảy ra cùng một lúc mà còn có sự tương tác lẫn nhau. Ví dụ, trong tình hình biến đổi khí hậu, sự xâm nhập mặn ngày càng tăng, tạo ra một môi trường khó khăn cho cộng đồng và chính quyền địa phương. Điều này cũng gây ra sự giảm lưu lượng từ thượng nguồn và mặn xâm nhập sâu vào đất liền, tạo ra một tình hình phức tạp hơn trong tương lai. 
+Đồng thời, việc thiếu các công cụ hiện đại để đánh giá tác động của sự thay đổi cũng là một vấn đề. Ví dụ, việc sử dụng thuốc bảo vệ thực vật ngày càng nhiều trong canh tác lúa có thể tác động đến môi trường, và việc xác định mối tương quan giữa các yếu tố như khí nhà kính và nhiệt độ không khí là rất khó khăn. 
+Một ví dụ khác là việc cá tra có thể thích ứng tốt khi sự xâm nhập mặn không vượt quá điều kiện lợ nhẹ. Trong điều kiện này, nồng độ IGF-1 của cá tăng lên để biệt hóa các tế bào ở mang, tăng khả năng điều hòa áp suất thẩm thấu. Cá sử dụng nhiều năng lượng hơn trong điều kiện nước lợ vừa, thể hiện ở sự giảm glucose máu, tăng số lượng hồng cầu và nồng độ Hb. 
+Như vậy, các yếu tố gây stress cho hệ sinh thái nước ngọt không chỉ xảy ra cùng một lúc mà còn có sự tương tác lẫn nhau, tạo ra một hệ thống phức tạp.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1941,30 +1927,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed prediction of the potential consequences of global warming on low-lying coastal areas in the Mekong Delta by the end of the 21st century. It includes specific percentages and impacts on agriculture, which adds to its correctness. However, without a reference answer, it's hard to confirm the exact accuracy of these figures, hence the score is not a perfect 5.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the interaction between various stress factors affecting freshwater ecosystems. It also provides examples from previous studies to support the analysis, as requested by the user. However, it could have been more specific in citing the sources of the studies mentioned.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hãy liệt kê 6 nhóm nhiệm vụ và giải pháp cụ thể chính được đề ra trong Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng BĐKH.</t>
+          <t>Trong nghiên cứu của Reid và cộng sự năm 2019, họ đã phân tích dữ liệu từ bao nhiêu bài báo và kết hợp gần bao nhiêu yếu tố gây stress? Hãy mô tả tỷ lệ phần trăm của các tương tác được phát hiện trong nghiên cứu này.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sáu nhóm nhiệm vụ và giải pháp cụ thể chính được đề ra trong Chương trình hành động tổng thể thực hiện Nghị quyết số 120/NQ-CP về phát triển bền vững ĐBSCL thích ứng BĐKH bao gồm: 
-1. Rà soát, hoàn thiện và bổ sung hệ thống cơ chế, chính sách.
-2. Cập nhật và hệ thống hóa số liệu, dữ liệu liên ngành, tăng cường điều tra cơ bản.
-3. Xây dựng quy hoạch và tổ chức không gian lãnh thổ.
-4. Xây dựng cơ cấu kinh tế hợp lý thích ứng với BĐKH.
-5. Đầu tư và phát triển hạ tầng.
-6. Phát triển và huy động nguồn lực.</t>
+          <t>Rất tiếc, thông tin trong ngữ cảnh không cung cấp chi tiết về nghiên cứu của Reid và cộng sự năm 2019, số lượng bài báo họ đã phân tích, số lượng yếu tố gây stress họ đã kết hợp, hoặc tỷ lệ phần trăm của các tương tác được phát hiện trong nghiên cứu của họ.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1974,101 +1954,100 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response. It lists the six main tasks and solutions proposed in the overall action program to implement Resolution No. 120/NQ-CP on sustainable development of the Mekong Delta in response to climate change, which is exactly what the user asked for.</t>
+          <t>The generated answer is relevant to the user query and correctly states that the information asked for is not available. However, it does not provide any additional information or attempt to answer the question in a more helpful way.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Trong giai đoạn từ nay đến năm 2020, vấn đề nào được ưu tiên giải quyết theo Nghị quyết 120?</t>
+          <t>Trong phần "Công cụ bảo tồn và quản lý", tác giả đã đề cập đến công nghệ DNA môi trường (eDNA). Hãy giải thích cách thức hoạt động của công nghệ này và ứng dụng của nó trong bảo tồn đa dạng sinh học nước ngọt.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Vấn đề được ưu tiên giải quyết theo Nghị quyết 120 trong giai đoạn từ nay đến năm 2020 là sạt lở bờ biển, bờ sông, rạch và sụt lún đất trong vùng đang diễn ra rất nhanh và ngày càng trầm trọng.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến công nghệ DNA môi trường (eDNA) hoặc cách thức hoạt động và ứng dụng của nó trong bảo tồn đa dạng sinh học nước ngọt.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and appears to be fully correct, providing specific details about the issues prioritized by Resolution 120 from now until 2020.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for an explanation of how environmental DNA (eDNA) technology works and its application in freshwater biodiversity conservation, but the generated answer did not provide any information on this topic.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Theo nội dung trong đoạn văn, hãy nêu những khó khăn mà các địa phương đang gặp phải trong việc hiểu và triển khai Nghị quyết 120?</t>
+          <t>Hãy mô tả cách mà DNA môi trường (eDNA) có thể được sử dụng trong việc bảo tồn đa dạng sinh học, đặc biệt là trong việc phát hiện các loài nước ngọt hiếm và nguy cấp. Bạn cần đề cập đến các ứng dụng tiềm năng của eDNA và giải thích sự khác biệt giữa giám sát 'chủ động' và 'bị động'.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Các địa phương đang gặp phải nhiều khó khăn trong việc hiểu và triển khai Nghị quyết 120. Một số vấn đề bao gồm việc chưa thực sự đổi mới theo tinh thần Nghị quyết, còn trông chờ vào hướng dẫn và nguồn lực hỗ trợ từ Trung ương. Cách tiếp cận dựa vào nội lực chưa được đề cao, chưa huy động được sự tham gia rộng rãi của các tổ chức, doanh nghiệp, người dân. Việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ theo Nghị quyết 120 vẫn còn chậm, nhất là các chính sách đẩy mạnh phát triển các ngành, lĩnh vực then chốt. Một số chính sách đã được ban hành nhưng chưa đi vào cuộc sống vì chưa đồng bộ với nguồn lực thực hiện; còn thiếu quy định về cơ chế phối hợp, chia sẻ thông tin giữa các cơ quan liên quan. Đặc biệt, tư duy ưu tiên lựa chọn giải pháp công trình ở các cấp/ngành vằn nhiều hơn là các chọn lựa giải pháp phi công trình.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến việc sử dụng DNA môi trường (eDNA) trong việc bảo tồn đa dạng sinh học, cũng như sự khác biệt giữa giám sát 'chủ động' và 'bị động'.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the difficulties localities are facing in understanding and implementing Resolution 120. It does not contain any mistakes or inaccuracies.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for a description of how environmental DNA (eDNA) can be used in biodiversity conservation, especially in detecting rare and endangered freshwater species, and the differences between 'active' and 'passive' monitoring. The generated answer does not provide any of this information.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Theo ngữ cảnh đã cho, hãy phân tích và giải thích vì sao việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ theo Nghị quyết 120 lại diễn ra chậm?</t>
+          <t>Giải thích về phương pháp luồng nước môi trường (e-flows) và cách nó giúp giảm thiểu tác động của quy định dòng chảy đối với nước ngọt. Bạn cần đề cập đến tầm quan trọng của việc mô phỏng mối quan hệ giữa các mô hình thủy văn và phản ứng sinh thái, cũng như việc thực hiện phân bổ nước dựa trên sự chịu đựng của các hệ sinh thái.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Việc hoàn thiện thể chế, chính sách triển khai thực hiện các nhiệm vụ theo Nghị quyết 120 diễn ra chậm do một số lý do. Đầu tiên, nhiều địa phương chưa thực sự đổi mới theo tinh thần Nghị quyết và vẫn đang chờ đợi hướng dẫn và nguồn lực hỗ trợ từ Trung ương. Thứ hai, cách tiếp cận dựa vào nội lực chưa được đề cao, chưa huy động được sự tham gia rộng rãi của các tổ chức, doanh nghiệp, người dân. Thứ ba, một số chính sách đã được ban hành nhưng chưa đi vào cuộc sống vì chưa đồng bộ với nguồn lực thực hiện. Cuối cùng, còn thiếu quy định về cơ chế phối hợp, chia sẻ thông tin giữa các cơ quan liên quan.</t>
+          <t>Rất tiếc, thông tin được cung cấp không đề cập đến phương pháp luồng nước môi trường (e-flows) hoặc cách nó giúp giảm thiểu tác động của quy định dòng chảy đối với nước ngọt. Tương tự, không có thông tin về tầm quan trọng của việc mô phỏng mối quan hệ giữa các mô hình thủy văn và phản ứng sinh thái, cũng như việc thực hiện phân bổ nước dựa trên sự chịu đựng của các hệ sinh thái.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of why the implementation of tasks according to Resolution 120 is slow. It lists several reasons, including lack of innovation in localities, lack of internal resources, policies not being implemented effectively, and lack of coordination among relevant agencies. The answer is comprehensive and correct, hence the perfect score.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the environmental flow method (e-flows) or how it helps to mitigate the impact of flow regulations on freshwater. Similarly, it does not mention the importance of simulating the relationship between hydrological models and ecological responses, as well as implementing water allocation based on the resilience of ecosystems.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Theo bài viết, tác giả đề xuất những giải pháp nào để thực hiện ý kiến chỉ đạo của Thủ tướng về việc thích ứng với tình hình mặn hóa ở Đồng bằng sông Cửu Long?</t>
+          <t>Theo bài viết, hãy giải thích về phương pháp Ecological Limits of Hydrologic Alteration (ELOHA) và vai trò của nó trong việc xác định mô hình thủy sinh vùng và phân bổ nước.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tác giả đề xuất một số giải pháp để thích ứng với tình hình mặn hóa ở Đồng bằng sông Cửu Long. Đầu tiên, họ đề cử việc vận hành thông minh hệ thống thủy lợi liên tỉnh dựa trên nền tảng công nghệ Internet of Things (IoT) để nâng cao năng suất nước và bảo vệ môi trường sinh thái. Thứ hai, họ khuyến nghị tăng hiệu quả sử dụng tài nguyên đất và nước thông qua các giải pháp nâng cao hiệu quả quản lý khai thác các công trình thuỷ lợi. 
-Ngoài ra, tác giả cũng đề cử một số chiến lược khác như xây dựng đê bao, thay đổi biện pháp canh tác, chính sách hỗ trợ khắc phục sản xuất, khai thác nguồn nước ngầm và đa dạng hóa nguồn thu nhập. Tuy nhiên, tác giả cũng nhấn mạnh rằng các chương trình thích ứng trong tương lai cần phải xây dựng trên cơ sở nhu cầu và năng lực của cộng đồng.</t>
+          <t>Xin lỗi, nhưng thông tin trong văn bản không cung cấp chi tiết về phương pháp Ecological Limits of Hydrologic Alteration (ELOHA) hoặc vai trò của nó trong việc xác định mô hình thủy sinh vùng và phân bổ nước.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2078,86 +2057,83 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive response to the question about the author's proposed solutions to adapt to the salinization situation in the Mekong Delta. The answer is correct and complete, covering various strategies and emphasizing the need for future adaptation programs to be based on community needs and capabilities.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of Ecological Limits of Hydrologic Alteration (ELOHA). However, it does not provide any information or explanation about the method or its role, which is what the user asked for.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Trong bài nghiên cứu "The Salinization of Agricultural Hubs: Impacts and Adjustments to Intensifying Saltwater Intrusion in the Mekong Delta", tác giả đã chỉ ra những tác động nào của mặn hóa đối với sản xuất nông nghiệp, quyết định lao động và phúc lợi của các hộ nông dân ở Đồng bằng sông Cửu Long?</t>
+          <t>Trình bày quan điểm của tác giả về việc giới thiệu các loài ngoại lai vào môi trường nước ngọt, cụ thể là vai trò của chúng trong việc cung cấp thức ăn cho hệ thống thức ăn hồ và chức năng hệ sinh thái sông. Đồng thời, hãy đưa ra lập luận về những rủi ro và lợi ích có thể phát sinh từ việc này.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tác giả đã chỉ ra rằng mặn hóa có ảnh hưởng tiêu cực đáng kể đến sản xuất lúa, làm giảm diện tích đất sử dụng và một phần nguồn cung lao động trong nông nghiệp. Mặn hóa cũng được cho là làm tăng sản xuất các loại cây công nghiệp chịu mặn. Trong khi ảnh hưởng đến thu nhập và tiêu dùng của hộ gia đình là tiêu cực, tác giả cũng chỉ ra rằng có dấu hiệu cho thấy việc tăng chi tiêu cho giáo dục như một phản ứng trước những cú sốc do mặn hóa. Đối với các biện pháp thích ứng, tác giả tìm thấy bằng chứng không rõ ràng về việc di cư lao động đến các khu vực đô thị để làm việc ngoài nông nghiệp và có dấu hiệu cho thấy vai trò của việc tiếp cận tín dụng trong việc giảm thiểu mất mát thu nhập của nông dân.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến việc giới thiệu các loài ngoại lai vào môi trường nước ngọt, vai trò của chúng trong việc cung cấp thức ăn cho hệ thống thức ăn hồ và chức năng hệ sinh thái sông, cũng như những rủi ro và lợi ích có thể phát sinh từ việc này.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impacts of salinization on agricultural production, labor decisions, and the welfare of farming households in the Mekong Delta, as outlined in the research paper. The answer could be slightly more concise, hence the score is not a perfect 5.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information or opinion on the introduction of alien species into freshwater environments, their role in providing food for lake food systems and river ecosystem functions, and the risks and benefits that may arise from this.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hãy mô tả ảnh hưởng của sự mặn hóa đối với sản xuất nông nghiệp, quyết định lao động và phúc lợi của các hộ nông dân ở đồng bằng sông Cửu Long, Việt Nam theo nghiên cứu này. Đặc biệt, hãy nêu rõ về sự thay đổi trong sản xuất và sử dụng đất nông nghiệp, cung cấp lao động, thu nhập và tiêu dùng của hộ nông dân, cũng như các kênh thích ứng như di cư và tiếp cận tín dụng.</t>
+          <t>Theo nghiên cứu của Reid và cộng sự năm 2019, việc giảm sản lượng tự nhiên của cá nước ngọt (so với nuôi trồng thủy sản) gây ra mối quan tâm lớn vì lý do gì? Hãy nêu rõ tầm quan trọng của nguồn thực phẩm này đối với những người dân nghèo và bị suy dinh dưỡng.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sự mặn hóa có ảnh hưởng lớn đến sản xuất nông nghiệp, quyết định lao động và phúc lợi của các hộ nông dân ở đồng bằng sông Cửu Long, Việt Nam. Cụ thể, thu nhập từ hoạt động nuôi trồng và đánh bắt thủy sản có thể cao hơn so với hoạt động nông nghiệp, nhưng rủi ro cũng rất cao. Có nhiều hộ gia đình làm giàu nhờ hoạt động này, nhưng cũng có không ít hộ gia đình trắng tay sau những lần rủi ro.
-Những người có kinh nghiệm sản xuất trên 10 năm thường có thu nhập từ khá trở lên, trong khi những người có kinh nghiệm sản xuất dưới 10 năm thường có thu nhập từ trung bình trở xuống. Khi người dân có kinh nghiệm trong sản xuất, họ có thể chủ động thích ứng với hạn mặn và thông qua những thất bại trước đó, họ có thể rút ra kinh nghiệm sản xuất tốt hơn.
-Hỗ trợ của địa phương cũng đóng góp tích cực vào sinh kế của người dân ở vùng hạn mặn. Trong những năm qua, người dân ở các địa phương đã nhận được nhiều sự hỗ trợ của chính quyền, như vay vốn với lãi suất ưu đãi, tập huấn chăn nuôi, nuôi trồng thủy sản, hỗ trợ giống lúa chịu mặn.
-Tuy nhiên, sự mặn hóa cũng ảnh hưởng đến việc sử dụng đất nông nghiệp. Quá trình nước biển dâng xâm lấn vào nội đồng làm cho đất bị ngập úng và nhiễm mặn, ảnh hưởng đến sản xuất nông nghiệp. Các vùng ven biển như thành phố Bạc Liêu, huyện Đông Hải, huyện Hòa Bình do kinh tế chủ yếu là nuôi thủy sản nên việc lấy nguồn nước biển thường xuyên phải mở thêm nhiều kênh rạch, làm cho nước biển đi vào sâu phía trong được thuận lợi. Các vùng phía trong quốc lộ 1A như huyện Giá Rai, huyện Phước Long mấy năm gần đây do người dân tự ý chuyển đổi từ trồng lúa qua nuôi tôm phá vỡ việc vận hành của hệ thống cống ngăn mặn, làm cho nước biển vào sâu trong nội đồng nguy cơ ngập ngày càng thể hiện rõ diện tích ngập tăng lên.</t>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp đủ chi tiết để trả lời câu hỏi về nghiên cứu của Reid và cộng sự năm 2019 và tầm quan trọng của nguồn thực phẩm từ cá nước ngọt đối với những người dân nghèo và bị suy dinh dưỡng.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of salinization on agricultural production, labor decisions, and the welfare of farming households in the Mekong Delta, Vietnam. It also discusses changes in agricultural production and land use, labor supply, income and consumption of farming households, as well as adaptation channels such as migration and access to credit. However, it could have been more specific in discussing the changes in labor supply and consumption of farming households.</t>
+          <t>The generated answer is relevant to the user query as it acknowledges the topic of the question, but it does not provide any information or answer to the user's question.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu này, tác giả đã chỉ ra một số hạn chế liên quan đến việc đo lường mức độ mặn của sông. Hãy mô tả những hạn chế này và giải thích tại sao chúng có thể gây ra vấn đề trong việc xác định sự lan truyền của mặn.</t>
+          <t>Trong phần "Fishways and dam removal", tác giả đã đề cập đến những khó khăn và thách thức gì liên quan đến việc thiết kế và vận hành các cấu trúc cho phép cá di chuyển qua đập? Hãy đưa ra ít nhất hai ví dụ về các loài cá mà việc tái thiết lập đường di trú đã thành công và không thành công.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tác giả không chỉ ra bất kỳ hạn chế nào liên quan đến việc đo lường mức độ mặn của sông trong nghiên cứu này. Tuy nhiên, tác giả đã chỉ ra rằng mức độ mặn của sông đã tăng lên trong thời gian, với một số trường hợp mặn tăng lên đến 45‰, cao hơn nhiều so với mức 4‰ mà Trung tâm phòng tránh và giảm nhẹ thiên tai xem là mức xâm nhập mặn. Độ mặn này không chỉ kéo dài mà còn xâm nhập sâu vào đất liền, tới 70 km từ cửa sông và thậm chí có thời điểm đạt đến 85 km. Điều này có thể gây ra vấn đề trong việc xác định sự lan truyền của mặn do mức độ mặn thực tế có thể cao hơn nhiều so với những gì được đo lường hoặc dự đoán.</t>
+          <t>Rất tiếc, nhưng thông tin trong ngữ cảnh không đề cập đến phần "Fishways and dam removal" hoặc bất kỳ khó khăn và thách thức nào liên quan đến việc thiết kế và vận hành các cấu trúc cho phép cá di chuyển qua đập. Cũng không có ví dụ nào về các loài cá mà việc tái thiết lập đường di trú đã thành công hoặc không thành công được nêu trong ngữ cảnh.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2167,53 +2143,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>The generated answer is somewhat relevant to the user query, but it does not directly address the question about the limitations of measuring the salinity of rivers. Instead, it provides information about the increase in river salinity and the problems this can cause. The answer could be improved by directly addressing the limitations of salinity measurement and explaining why these limitations could cause problems in determining the spread of salinity.</t>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the challenges related to the design and operation of structures that allow fish to move through dams, nor does it provide examples of fish species for which the restoration of migration routes has been successful or unsuccessful.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, hãy mô tả những tác động của sự mặn hóa đối với sản xuất nông nghiệp tại đồng bằng sông Cửu Long, cũng như những biện pháp thích ứng mà người dân địa phương đã áp dụng.</t>
+          <t>Theo nghiên cứu của Reid và cộng sự năm 2019, hãy nêu một số loài cá đã được báo cáo thành công trong việc tái thiết lập di cư sau khi xây dựng các cấu trúc giúp cá vượt qua các đập nước? Hãy đề cập đến các nghiên cứu liên quan.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sự mặn hóa đã gây ra nhiều khó khăn cho sản xuất nông nghiệp tại đồng bằng sông Cửu Long. Một trong những vấn đề lớn nhất là sự suy giảm đáng kể của nguồn nước ngọt, điều này đã ảnh hưởng đến việc canh tác lúa. Tuy nhiên, người dân địa phương đã thích ứng với tình hình này bằng cách thống nhất lịch canh tác, điều này phụ thuộc vào thời gian máy cày đến ruộng và nguồn nước ngọt. Việc xuống giống đồng loạt cũng giúp việc mua bán sau khi thu hoạch dễ dàng hơn.
-Ngoài ra, chính quyền địa phương đã không cho phép sử dụng Nước Dưới Đất để duy trì diện tích lúa, do đó không có nông hộ nào sử dụng Nước Dưới Đất cho canh tác lúa mà chỉ sử dụng cho mục đích sinh hoạt. Điều này cho thấy sự hợp tác giữa người dân và các cấp quản lý cấp xã và huyện trong việc sử dụng nguồn tài nguyên Nước Dưới Đất.
-Nghiên cứu cũng cho thấy rằng người dân có kinh nghiệm sản xuất trên 10 năm có thể chủ động thích ứng với hạn mặn và thông qua những thất bại trước đó, họ có thể rút ra kinh nghiệm sản xuất tốt hơn. Hỗ trợ của địa phương, như vay vốn với lãi suất ưu đãi, tập huấn chăn nuôi, nuôi trồng thủy sản, hỗ trợ giống lúa chịu mặn, cũng đã đóng góp tích cực vào sinh kế của người dân ở vùng hạn mặn.</t>
+          <t>Rất tiếc, nhưng không có thông tin nào trong ngữ cảnh được cung cấp liên quan đến nghiên cứu của Reid và cộng sự năm 2019 hoặc các loài cá đã thành công trong việc tái thiết lập di cư sau khi xây dựng các cấu trúc giúp cá vượt qua các đập nước.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impacts of salinization on agriculture in the Mekong Delta, as well as the adaptive measures that local people have implemented. It does not contain any noticeable errors or inaccuracies. However, it could be slightly more concise and clear in its presentation of information.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of Reid's 2019 research and fish migration. However, it does not provide any specific information or details about the fish species or related studies, which was asked in the query.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Trình bày về vấn đề quản lý lũ lụt và xâm nhập mặn tại đồng bằng sông Cửu Long theo bài báo "Flood and Salinity Management in the Mekong Delta, Vietnam" của Le Anh Tuan. Hãy đề cập đến những hạn chế và thách thức trong việc xây dựng và quản lý hệ thống cơ sở hạ tầng kiểm soát nước.</t>
+          <t>Trong bối cảnh biến đổi khí hậu, việc di dời quản lý các loài sống trong môi trường nước ngọt có phức tạp không? Hãy trình bày quan điểm của bạn dựa trên nội dung của bài viết Reid et al., 2019.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Đồng bằng sông Cửu Long đang phải đối mặt với những hiểm họa như xâm nhập mặn, thiếu nước ngọt và ảnh hưởng của triều cường, những vấn đề này đã tăng lên trong những năm gần đây. Để đối phó và thích ứng với những hiểm họa này, chính quyền và người dân địa phương đã phát triển nhiều chiến lược và biện pháp như xây dựng đê bao, thay đổi kỹ thuật canh tác, hỗ trợ tài chính để khôi phục sản xuất sau thảm họa, khai thác nước ngầm và đa dạng hóa nguồn thu nhập. Tuy nhiên, những biện pháp thích ứng hiện tại có một số hạn chế, chẳng hạn như không đầy đủ xem xét sự khác biệt về môi trường sinh thái, xã hội và kinh tế. Kết quả của việc đánh giá tổn thương cho thấy rằng sự tổn thương của người dân phụ thuộc nhiều vào những điều kiện này. Do đó, các chiến lược thích ứng trong tương lai nên xem xét những vấn đề trên để hỗ trợ các nhóm xã hội khác nhau, đặc biệt là những nhóm dễ bị tổn thương nhất.</t>
+          <t>Rất tiếc, nhưng không thể cung cấp câu trả lời cho câu hỏi của bạn vì không có thông tin liên quan đến việc di dời quản lý các loài sống trong môi trường nước ngọt trong bối cảnh biến đổi khí hậu trong bài viết Reid et al., 2019 trong ngữ cảnh được cung cấp.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2223,24 +2197,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive overview of the flood and salinity management issues in the Mekong Delta, as well as the challenges in building and managing water control infrastructure. It also mentions the limitations of current adaptation measures. However, it does not specifically reference the article "Flood and Salinity Management in the Mekong Delta, Vietnam" by Le Anh Tuan, which was asked for in the query.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of managing freshwater species in the context of climate change. However, it does not provide a substantive answer or viewpoint as requested by the user, instead stating that there is no relevant information in the specified article. This may be correct if the article indeed does not contain the requested information, but without the article for reference, it's impossible to verify the accuracy of this claim.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Trình bày sự khác biệt giữa các loại lũ lụt được phân biệt trong tiếng Việt: lũ, lụt và ngập. Đồng thời, giải thích nguyên nhân gây ra từng loại lũ lụt này.</t>
+          <t>Theo nội dung trong bài viết, hãy liệt kê các biện pháp mà các nhà khoa học bảo tồn đang áp dụng để bảo vệ các hệ sinh thái nước ngọt trên thế giới?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa chi tiết về sự khác biệt giữa các loại lũ lụt như lũ, lụt và ngập, cũng như nguyên nhân gây ra từng loại lũ lụt này.</t>
+          <t>Bài viết không cung cấp thông tin về các biện pháp mà các nhà khoa học bảo tồn đang áp dụng để bảo vệ các hệ sinh thái nước ngọt trên thế giới.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2250,24 +2224,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query as it does not provide any information about the differences between the types of floods or their causes.</t>
+          <t>The generated answer is relevant and correct. It accurately states that the information requested in the user query is not provided in the article.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lũ lụt không chỉ gây ra thiệt hại mà còn mang lại những lợi ích gì cho đồng bằng sông Cửu Long? Hãy liệt kê và giải thích các lợi ích này.</t>
+          <t>Hãy giải thích về vai trò của các tổ chức phi chính phủ (NGOs) trong việc bảo tồn hệ sinh thái nước ngọt, cụ thể là thông qua việc thực hiện Tuyên ngôn Brisbane năm 2007 và Hội nghị Sông Quốc tế năm 2017.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The context does not provide information on the benefits that floods bring to the Mekong Delta.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến vai trò của các tổ chức phi chính phủ (NGOs) trong việc bảo tồn hệ sinh thái nước ngọt, cũng như việc thực hiện Tuyên ngôn Brisbane năm 2007 và Hội nghị Sông Quốc tế năm 2017.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2277,24 +2251,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query. The user asked for the benefits of flooding in the Mekong Delta, but the chatbot did not provide any.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for an explanation of the role of NGOs in freshwater ecosystem conservation, specifically through the implementation of the 2007 Brisbane Declaration and the 2017 International River Conference. The generated answer does not provide any information on this topic.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hãy mô tả những lợi ích mà lũ lụt mang lại cho vùng đồng bằng sông Cửu Long, cũng như những tác động tiêu cực mà nó gây ra.</t>
+          <t>Hãy mô tả vai trò của các tổ chức phi chính phủ (NGOs) trong việc bảo vệ và cải thiện hệ thống sông, cụ thể là ở Vương quốc Anh, theo những gì đã được trình bày trong bài viết của Reid và cộng sự năm 2019.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lũ lụt ở vùng đồng bằng sông Cửu Long mang lại một số lợi ích như việc cung cấp nước cho canh tác và giúp làm giàu đất đai bằng cách mang theo chất dinh dưỡng từ thượng nguồn. Tuy nhiên, lũ lụt cũng gây ra những tác động tiêu cực. Trong khoảng từ tháng 8 đến tháng 10, vùng này thường bị ngập lụt, gây ra thiệt hại cho nông nghiệp và nhà cửa. Từ tháng 1 đến tháng 4, vùng này lại chịu tác động mạnh mẽ của hiện tượng xâm nhập mặn và khô hạn, gây khó khăn cho việc cung cấp nước ngọt cho canh tác.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến vai trò của các tổ chức phi chính phủ (NGOs) trong việc bảo vệ và cải thiện hệ thống sông, cụ thể là ở Vương quốc Anh, theo bài viết của Reid và cộng sự năm 2019.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2304,113 +2278,105 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of both the benefits and negative impacts of flooding in the Mekong Delta region. It could be slightly improved by providing more specific examples or details.</t>
+          <t>The generated answer is relevant to the user query and it seems correct, but without the reference answer or the actual article by Reid and colleagues, it's hard to confirm its full accuracy. The bot correctly states that it cannot provide the requested information, which suggests that it understood the query.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Trình bày về những yếu tố ảnh hưởng đến sự xâm nhập mặn tại đồng bằng sông Cửu Long và hậu quả của nó đối với nông nghiệp và nguồn nước ngầm.</t>
+          <t>Theo Rome Declaration mà Taylor và cộng sự đã đề cập năm 2016, hãy liệt kê và giải thích 10 bước hướng dẫn cho ngành đánh bắt cá nội địa một cách trách nhiệm.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Các yếu tố ảnh hưởng đến kết quả sinh kế của cư dân vùng hạn mặn bao gồm số phương tiện sản xuất, kinh nghiệm sản xuất, số lao động chính, số nguồn thu nhập, hỗ trợ của địa phương, và vay vốn. Trong đó, chỉ có yếu tố vay vốn có mối quan hệ trái chiều với thu nhập của hộ gia đình.
-Xâm nhập mặn chủ yếu ảnh hưởng đến canh tác lúa, cụ thể là việc lúa bị thiệt hại do không đủ nước ngọt cung cấp. Đối với nuôi trồng thủy sản, việc nuôi tôm gần như không bị ảnh hưởng bởi tình trạng hạn mặn kéo dài do có nguồn nước dưới đất hỗ trợ cho việc pha loãng nồng độ mặn.
-Xâm nhập mặn cũng gây khó khăn trong quản lý nguồn nước dưới đất, đặc biệt là việc kiểm soát việc khai thác và sử dụng nguồn nước này. Trong khu vực nuôi tôm, người nông dân đã tăng cường khai thác nguồn nước dưới đất để giảm nồng độ mặn của nước mặt. Ngược lại, đối với người trồng lúa, xâm nhập mặn không ảnh hưởng đến nhu cầu sử dụng và khai thác nguồn nước dưới đất.</t>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không chứa chi tiết về "Rome Declaration" mà Taylor và cộng sự đã đề cập năm 2016, cũng như 10 bước hướng dẫn cho ngành đánh bắt cá nội địa một cách trách nhiệm.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query, providing detailed information about the factors affecting salt intrusion in the Mekong Delta and its consequences for agriculture and groundwater. However, it does not explicitly mention the factors that directly influence salt intrusion, focusing more on the effects and coping mechanisms. Therefore, it is not fully comprehensive in addressing the user's question.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the "Rome Declaration" mentioned by Taylor and colleagues in 2016. However, it does not provide the requested information about the 10 steps for responsible inland fishing, which is a significant part of the user's question. Therefore, the answer is incomplete and not fully correct.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Hãy mô tả các yếu tố đang đe dọa sông Mekong dưới hạ lưu, bao gồm tác động của đập, biến đổi khí hậu, sự lún của đồng bằng sông và sự suy giảm chất lượng nước. Hãy so sánh với các sông lớn khác trên thế giới và đề xuất các quyết định tương lai để giảm thiểu tác động tiêu cực và tìm kiếm một lộ trình đảm bảo sự phát triển bền vững.</t>
+          <t>Hãy mô tả 12 mối đe dọa mới đối với đa dạng sinh học nước ngọt mà Reid và cộng sự đã xác định trong nghiên cứu của họ năm 2019.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Các yếu tố đang đe dọa sông Mekong dưới hạ lưu bao gồm tác động của biến đổi khí hậu và sự lún của đồng bằng sông. Biến đổi khí hậu dẫn đến tăng tần suất và cường độ các hiện tượng thời tiết cực đoan, làm gia tăng mối đe dọa an ninh lương thực và tạo ra những biến động tiêu cực lên khu vực nông thôn. Đồng thời, sự lún của đồng bằng sông cũng là một vấn đề lớn, khiến cho nhiều vùng đất thấp có nguy cơ bị ngập chìm và xâm nhập mặn.
-So với các sông lớn khác trên thế giới, sông Mekong dưới hạ lưu còn phải chịu tác động nghiêm trọng hơn từ biến đổi khí hậu và nước biển dâng. Điều này có thể dẫn đến việc ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập và khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô.
-Để giảm thiểu tác động tiêu cực và tìm kiếm một lộ trình đảm bảo sự phát triển bền vững, cần phải có những chuyển biến tích cực trong việc kiểm soát khả năng nóng lên toàn cầu. Đồng thời, cần phải xem xét lại các hoạt động phát triển công nghiệp và nông nghiệp trong khu vực để giảm thiểu tác động đến môi trường và nguồn nước.</t>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh được cung cấp không đề cập đến 12 mối đe dọa mới đối với đa dạng sinh học nước ngọt mà Reid và cộng sự đã xác định trong nghiên cứu của họ năm 2019.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and mostly correct. It addresses the threats to the Mekong River, compares it to other rivers, and suggests future decisions for sustainable development. However, it does not mention the impact of dams and the degradation of water quality, which were specifically asked for in the user query.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the 12 new threats to freshwater biodiversity identified by Reid and colleagues in their 2019 study.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hãy mô tả các đặc điểm vùng Mekong, bao gồm địa lý, cài đặt topological, điều kiện khí hậu, thủy văn, đặc điểm dân số và các hoạt động do con người. Hãy nêu rõ cách mà các yếu tố này ảnh hưởng đến sự phát triển và bảo tồn của sông Mekong.</t>
+          <t>Theo Reid và cộng sự, những giải pháp kỹ thuật nào đang được xem xét bởi các nhà quyết định chính sách để đối phó với áp lực tăng lên về số lượng và chất lượng nước? Những giải pháp này có hiệu quả như thế nào?</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Vùng Mekong có một hệ thống sông rạch phức tạp, liên kết nhau và đổ ra biển Đông và biển Tây. Hai mặt giáp biển với tổng chiều dài vùng ven biển hơn 700 km, tạo ra tác động lớn từ các dao động biển. Vùng này chịu hai tác động dòng chảy: dòng chảy của sông Mekong từ thượng nguồn và dòng triều do tác động biển xâm nhập vào đất liền. Tháng 8 đến tháng 10 là thời gian bị ngập lũ, còn từ tháng 1 đến tháng 4 là thời gian bị tác động mạnh mẽ của hiện tượng xâm nhập mặn và khô hạn.
-Tần suất và cường độ các hiện tượng thời tiết cực đoan đang gia tăng, đe dọa an ninh lương thực và tạo ra những biến động tiêu cực lên khu vực nông thôn, như suy giảm nguồn tài nguyên thiên nhiên, thu hẹp diện tích canh tác và cư trú. Di cư từ nông thôn lên các vùng đô thị đang diễn ra nhanh hơn, tạo ra hệ lụy xấu về mặt xã hội và môi trường.
-Dự báo cho thập kỷ 2030-2040, nhiệt độ trung bình cũng như nhiệt độ lớn nhất và nhỏ nhất trong vùng sẽ gia tăng, phổ biến tăng khoảng 20˚C. Tổng lượng mưa trung bình cũng sẽ giảm, từ 10 đến 20%, khiến việc cung cấp nước ngọt cho canh tác lúa thêm khó khăn.
-Hiện tượng nóng lên toàn cầu và nước biển dâng đang tác động nghiêm trọng đến vùng này. Ít nhất 25% diện tích các vùng đất thấp ven biển có nguy cơ bị chìm ngập do nước biển dâng và lún sụt đồng bằng, khoảng 50-75% diện tích canh tác hiện nay sẽ bị nhiễm mặn vào mùa khô và khoảng 30-40% diện tích nông nghiệp bị ảnh hưởng của nước mặn ngay cả trong mùa mưa.
-Vùng đồng bằng sẽ bị ảnh hưởng kép, từ những tác động thay đổi tự nhiên mang tính toàn cầu và từ những hoạt động phát triển công nghiệp và nông nghiệp trong khu vực. Những thách thức này đang và sẽ là những thách thức lớn uy hiếp sự phát triển bền vững của nền nông nghiệp vùng Mekong.</t>
+          <t>Rất tiếc, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về các giải pháp kỹ thuật mà Reid và cộng sự đề xuất để đối phó với áp lực tăng lên về số lượng và chất lượng nước, cũng như hiệu quả của những giải pháp này.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed description of the Mekong region, including its geography, climate conditions, hydrology, population characteristics, and human activities. It also explains how these factors affect the development and conservation of the Mekong River. However, it does not explicitly mention the topological setup, which was part of the user's query.</t>
+          <t>The generated answer is relevant to the user query as it addresses the topic of technical solutions proposed by Theo Reid and his colleagues to deal with the increasing pressure on water quantity and quality. However, it does not provide any specific information or details, which makes it partially incorrect.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, đập nước đã tác động như thế nào đến chu kỳ thủy văn tự nhiên và làm thay đổi lưu lượng nước trong mùa mưa và mùa khô? Hãy nêu rõ các hậu quả của việc xây dựng đập lên lưu lượng nước và tần suất lũ lụt ở các khu vực cụ thể.</t>
+          <t>Theo bài viết, những vấn đề gì sẽ gia tăng do tăng trưởng dân số, đô thị hóa, tăng cường tưới tiêu, nhiệt độ toàn cầu tăng lên và sự không thể đoán trước của khí hậu? Hãy nêu rõ các tác động tiêu cực mà những vấn đề này có thể gây ra cho hệ sinh thái nước ngọt và đa dạng sinh học.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rất tiếc, thông tin được cung cấp không đề cập đến tác động của đập nước đối với chu kỳ thủy văn tự nhiên hoặc làm thay đổi lưu lượng nước trong mùa mưa và mùa khô. Do đó, không thể nêu rõ hậu quả của việc xây dựng đập lên lưu lượng nước và tần suất lũ lụt ở các khu vực cụ thể.</t>
+          <t>Bài viết không cung cấp thông tin cụ thể về những vấn đề sẽ gia tăng do tăng trưởng dân số, đô thị hóa, tăng cường tưới tiêu, nhiệt độ toàn cầu tăng lên và sự không thể đoán trước của khí hậu. Cũng không có thông tin về các tác động tiêu cực mà những vấn đề này có thể gây ra cho hệ sinh thái nước ngọt và đa dạng sinh học.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2420,73 +2386,79 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query. The user asked for the impact of dams on the natural hydrological cycle and how they change water flow in rainy and dry seasons, as well as the consequences of dam construction on water flow and flood frequency in specific areas. The generated answer, however, does not provide any of this information.</t>
+          <t>The generated answer is not relevant to the user query. The user asked for the problems that will increase due to population growth, urbanization, increased irrigation, global temperature rise, and unpredictable climate, and the negative impacts these issues could have on freshwater ecosystems and biodiversity. The generated answer simply states that the article does not provide specific information on these issues, which does not answer the user's question.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Đề cập đến tình hình ô nhiễm nước tại lưu vực sông Mekong, hãy mô tả những nguy cơ tiềm ẩn đối với chất lượng nước do sự gia tăng của nước thải công nghiệp, nông nghiệp và đô thị.</t>
+          <t>Bài viết đã đề cập đến một số giải pháp để đối phó với áp lực tăng lên đối với lượng nước và chất lượng nước. Hãy liệt kê và giải thích các giải pháp này, cũng như những rủi ro tiềm ẩn mà chúng có thể mang lại.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến tình hình ô nhiễm nước tại lưu vực sông Mekong hoặc nguy cơ tiềm ẩn đối với chất lượng nước do sự gia tăng của nước thải công nghiệp, nông nghiệp và đô thị.</t>
+          <t>Các giải pháp được đề cập trong bài viết bao gồm:
+1. Quy hoạch các tuyến đê biển, đê cửa sông: Điều này cần phải tính đến các ảnh hưởng gia tăng do xói lở, bố trí hành lang ngoài đê hợp lý, bảo vệ đê bằng các giải pháp sinh thái, rừng ngập mặn thay vì cứng hóa. Các tác động suy giảm phù sa và biến đổi khí hậu có thể làm biến đổi đường bờ phức tạp và kéo dài trước khi đạt đến mức ổn định tương đối.
+2. Liên kết các hệ thống thủy lợi nhỏ lẻ thành các hệ thống lớn hơn: Điều này giúp đảm bảo chủ động nguồn nước trong các thời kỳ mặn có thể kéo dài hơn.
+3. Bố trí các trạm bơm có quy mô vừa và nhỏ cho các vùng ven biển: Điều này giúp đáp ứng các yêu cầu về nước phục vụ sản xuất, bơm tưới, tiếp nước và gạn ngọt trong các trường hợp mặn xâm nhập kéo dài.
+4. Phát triển hệ thống thủy lợi nội đồng: Điều này phục vụ các cánh đồng mẫu lớn có kết hợp với các trạm bơm vừa và nhỏ để chủ động sản xuất, nâng cao hiệu quả tưới, kiểm soát dịch bệnh và từng bước nâng cao chất lượng gạo.
+5. Thiết lập và xây dựng hệ thống SCADA chuyên ngành: Điều này giúp quan trắc mực nước, độ mặn ở các hệ thống thủy lợi, tăng cường dự báo nguồn nước, dự báo chuyên ngành để phục vụ chỉ đạo điều hành sản xuất và vận hành của các công trình thủy lợi.
+Rủi ro tiềm ẩn có thể bao gồm việc các tác động suy giảm phù sa và biến đổi khí hậu có thể làm biến đổi đường bờ phức tạp và kéo dài trước khi đạt đến mức ổn định tương đối. Điều này có thể gây ra khó khăn trong việc quy hoạch và bảo vệ các tuyến đê biển và đê cửa sông.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query. The user asked for a description of the potential risks to water quality in the Mekong River basin due to the increase in industrial, agricultural, and urban wastewater, but the chatbot did not provide any information on this topic.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the solutions mentioned in the article, as well as potential risks. It is well-structured and comprehensive, covering all aspects of the query.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hãy mô tả những tác động tiêu cực của việc xây dựng đập lớn đối với các dòng sông lớn trên thế giới, đặc biệt là sông Amazon và sông Huang He (Yellow) của Trung Quốc.</t>
+          <t>Hãy mô tả vị trí địa lý và tầm quan trọng của Đồng bằng sông Cửu Long trong phát triển kinh tế - xã hội và chiến lược an ninh lương thực Quốc gia.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến tác động tiêu cực của việc xây dựng đập lớn đối với các dòng sông lớn trên thế giới, đặc biệt là sông Amazon và sông Huang He (Yellow) của Trung Quốc.</t>
+          <t>Đồng bằng sông Cửu Long (ĐBSCL) là phần cuối cùng của Châu thổ sông Mê Kông, với tổng diện tích tự nhiên khoảng 4 triệu ha, chiếm 79% diện tích toàn Châu thổ và bằng 5% diện tích toàn lưu vực sông Mê Kông. ĐBSCL có vị trí quan trọng trong phát triển kinh tế - xã hội và là chìa khóa chính trong chiến lược an ninh lương thực Quốc gia. Với tiềm năng nông nghiệp và thủy sản to lớn, ĐBSCL luôn đóng góp khoảng 53% tổng sản lượng lương thực, 65% sản lượng thủy sản nuôi trồng và 70% trái cây của cả nước.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query. The user asked for a description of the negative impacts of building large dams on major rivers in the world, especially the Amazon and Huang He (Yellow) rivers, but the generated answer does not provide any information on this topic.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the geographical location and importance of the Mekong Delta in the economic-social development and national food security strategy. It is accurate and contains no mistakes.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Trình bày về những chiến lược cục bộ và khu vực được đề xuất trong bài nghiên cứu để giải quyết các vấn đề liên quan đến nguồn nước ngầm và phát triển đập.</t>
+          <t>Theo nghiên cứu, yếu tố nào tác động rõ nhất đến diễn biến mặn xâm nhập ở Đồng bằng sông Cửu Long?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Bài nghiên cứu đề xuất một số chiến lược để giải quyết các vấn đề liên quan đến nguồn nước ngầm và phát triển đập. Đầu tiên, cần quy hoạch lại hệ thống kênh, vét kênh để tạo dòng chảy nhằm chia sẻ lượng nước trên các con sông với nhau. Thứ hai, xây dựng hệ thống đê điều hợp lý để ngăn nước biển và hệ thống đập ngăn mặn ngăn nước biển xâm nhập vào đồng ruộng, nhằm giảm thiệt hại do xâm nhập mặn gây ra.</t>
+          <t>Yếu tố tác động rõ nhất đến diễn biến mặn xâm nhập ở Đồng bằng sông Cửu Long là thủy triều biển Đông và biển Tây. Độ mặn xâm nhập vào đất liền chủ yếu vào mùa khô (từ tháng 1 đến tháng 5) khi lượng mưa ít, nước mặn từ biển chảy vào đất liền qua các con sông và kênh rạch. Nước mặn sẽ thấm vào đất, ảnh hưởng đến cây trồng và sản xuất nông nghiệp.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2501,19 +2473,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides strategies to address the issues related to groundwater and dam development. However, it does not specifically mention local and regional strategies as asked in the query.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the factors affecting saltwater intrusion in the Mekong Delta. It correctly identifies the East Sea and West Sea tides as the main factors and explains the process of saltwater intrusion. However, it could be improved by mentioning other factors such as climate change and human activities.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu trong bài báo, mô hình cân bằng nước MIKE HYDRO BASIN (MHB) được áp dụng để đánh giá khả năng đáp ứng của nguồn nước cho những nhu cầu sử dụng nước nào tại lưu vực sông Cửu Long?</t>
+          <t>Hãy mô tả vai trò của Đồng bằng sông Cửu Long trong chiến lược an ninh lương thực Quốc gia và đóng góp của nó vào sản lượng lương thực, thủy sản nuôi trồng và trái cây của cả nước.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mô hình cân bằng nước MIKE HYDRO BASIN (MHB) được áp dụng để đánh giá khả năng đáp ứng của nguồn nước dựa trên số lượng nước. Mô hình này phụ thuộc lớn vào các quy tắc được thiết lập để phân bổ dòng chảy, bao gồm các quy tắc về phân bổ lượng nước nội sinh từ mưa vào các sông/kênh, tỉ lệ phân lưu giữa các nhánh sông/kênh, phân bổ nhu cầu nước đối với từng nguồn cấp, phân bổ nguồn cấp cho từng đối tượng sử dụng nước, và phân bổ dòng chảy hồi quy trở lại từng nguồn cấp. Tuy nhiên, mô hình này không xem xét đến chất lượng nước và độ mặn.</t>
+          <t>Đồng Bằng Sông Cửu Long (ĐBSCL) đóng vai trò quan trọng trong chiến lược an ninh lương thực Quốc gia. ĐBSCL có thế mạnh về phát triển nông nghiệp, với gần 70% diện tích đất phù sa và hệ thống sông ngòi nối liền các tỉnh, tạo điều kiện thuận lợi cho việc sản xuất nông nghiệp. Đặc biệt, Tiểu vùng Duyên Hải phía Đông của ĐBSCL, bao gồm các tỉnh Bến Tre, Tiền Giang, Vĩnh Long và Trà Vinh, dẫn đầu cả vùng về sản lượng thu hoạch cây ăn quả. Số lượng vật nuôi ở đây cũng khá phát triển và đóng vai trò quan trọng cho ngành chăn nuôi ĐBSCL. Tuy nhiên, vấn đề sử dụng các nguồn lực đang có dấu hiệu suy giảm và được đánh giá là chưa hiệu quả. Các yếu tố đầu vào qui trình sản xuất nông nghiệp và thủy sản chưa mang tính bền vững.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2523,24 +2495,24 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and provides a detailed explanation of how the MIKE HYDRO BASIN (MHB) model is used to evaluate the water supply's ability to meet various water usage needs. However, it does not specifically mention the Mekong Delta (Cửu Long River Basin), which was part of the user's question.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of the Mekong Delta in the national food security strategy and its contribution to the country's agricultural output. It also discusses the challenges faced in terms of resource utilization and sustainability. However, it does not provide specific figures or percentages to quantify the contribution of the Mekong Delta to the country's total agricultural output, which could have made the answer more precise and informative.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Theo kết quả tính toán từ mô hình MHB, thời gian thiếu nước nhiều nhất trong năm ở lưu vực sông Cửu Long là vào những tháng nào và khu vực nào thiếu nước nhiều nhất?</t>
+          <t>Phát triển thủy điện ở thượng lưu thuộc Trung Quốc đã hoàn thành như thế nào và nó có ảnh hưởng như thế nào đến chế độ dòng chảy mùa khô so với điều kiện tự nhiên?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Thời gian thiếu nước nhiều nhất trong năm ở lưu vực sông Cửu Long là vào các tháng 2–4. Khu vực thiếu nước nhiều nhất là vùng bán đảo Cà Mau, đặc biệt là vùng Nam bán đảo Cà Mau, với tỉ lệ thiếu trung bình 25,5%.</t>
+          <t>Phát triển thủy điện ở thượng lưu đã hoàn thiện hơn 150 đập thủy điện. Điều này đã tạo ra những thay đổi lớn trong chế độ dòng chảy tự nhiên, cả trong mùa mưa và mùa khô. Cụ thể, dòng chảy bình quân trong mùa khô đã tăng lên, nhưng việc điều tiết vận hành của thủy điện đã làm cho dòng chảy thay đổi trái với quy luật tự nhiên. Điều này đã và sẽ tiếp tục gây ra những ảnh hưởng lớn đến sản xuất nông nghiệp trên đồng bằng. Số năm dòng chảy xuống thấp ngay từ đầu mùa khô có thể tăng gấp 4 lần so với hiện nay và số năm dòng chảy xuống thấp ở đầu mùa mưa tăng gấp 2 lần so với hiện nay, làm cho tình trạng mặn hóa xảy ra sớm và kéo dài hơn.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2555,19 +2527,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides specific and detailed information about the time of year and the area where water shortage is most severe in the Mekong Delta, according to the MHB model.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the development of hydropower in the upper reaches of China has been completed and its impact on the dry season flow regime compared to natural conditions. It could be slightly improved by providing more specific data or sources to support the claims.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hãy mô tả đặc điểm của dòng chảy trong hệ thống sông, kênh vùng LVSCL, bao gồm cả dòng chảy tại Tân Châu và Châu Đốc? Và giải thích tại sao mô hình MHB chỉ cho phép thiết lập dòng chảy cố định 1 chiều?</t>
+          <t>Theo nội dung trong bài, hãy mô tả những ảnh hưởng của việc phát triển thủy điện ở Lào đến thay đổi phù sa và thủy sản ở Đồng bằng sông Cửu Long?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dòng chảy trong hệ thống sông, kênh vùng LVSCL, bao gồm cả dòng chảy tại Tân Châu và Châu Đốc, có đặc điểm là chịu ảnh hưởng mạnh của thủy triều biển Đông và biển Tây, nên dòng chảy là 2 chiều, phụ thuộc vào lúc triều lên hay triều rút. Trong ngày thường có 2 lần triều lên và 2 lần triều rút. Tuy nhiên, mô hình MHB chỉ cho phép thiết lập dòng chảy cố định 1 chiều. Lý do là mô hình này được thiết kế để mô phỏng xu hướng chung của dòng chảy và đánh giá khả năng đáp ứng nhu cầu nước ngọt trong thời đoạn dài, đồng thời đảm bảo sự đơn giản và linh hoạt cần thiết trong việc đánh giá các phương án, kịch bản phân bổ nguồn nước khác nhau.</t>
+          <t>Việc phát triển thủy điện ở Lào và trên dòng chính sông Mekong có thể tạo ra những tác động xấu đến thay đổi phù sa và thủy sản ở Đồng bằng sông Cửu Long. Cụ thể, việc xây dựng các hồ chứa và đập thủy điện có thể làm thay đổi lượng phù sa, ảnh hưởng đến môi trường sống của các loài thủy sản.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2582,19 +2554,20 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the flow characteristics in the LVSCL river system, including Tan Chau and Chau Doc. It also correctly explains why the MHB model only allows for a one-way fixed flow setup.</t>
+          <t>The generated answer is relevant and mostly correct. It accurately describes the potential negative impacts of hydroelectric development in Laos on sediment and aquatic life in the Mekong Delta. However, it could provide more specific details or examples to fully answer the question.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Trong mô hình MHB, dòng chảy nội sinh từ mưa được đưa vào mô hình thông qua bao nhiêu nút? Và mỗi nút này đại diện cho điều gì?</t>
+          <t>Trình bày về những thay đổi trong cơ cấu sản xuất nông nghiệp ở Đồng bằng sông Cửu Long từ năm 1999 đến nay, cùng với những ảnh hưởng của việc phát triển thủy sản đến môi trường và đất đai ở khu vực này.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Trong mô hình MHB, dòng chảy nội sinh từ mưa được đưa vào mô hình thông qua 120 nút. Mỗi nút này đại diện cho một khu sử dụng nước.</t>
+          <t>Từ năm 1999 đến nay, Đồng bằng sông Cửu Long đã chứng kiến một số thay đổi đáng kể trong cơ cấu sản xuất nông nghiệp. Diện tích nuôi trồng thủy sản đã tăng mạnh, trong khi diện tích trồng lúa có xu hướng giảm. Sản xuất nông nghiệp trên đồng bằng được xem là đã đạt đến mức cao, nhưng diện tích đất nông nghiệp có xu hướng giảm do việc chuyển đổi diện tích đất nông nghiệp sang các mục đích khác, đô thị hóa và công nghiệp hóa.
+Việc phát triển nuôi trồng thủy sản ở các vùng ven biển, nơi thiếu nguồn bổ sung nước ngọt từ nước mặt để pha loãng nhằm duy trì nồng độ thích hợp cho nuôi trồng thủy sản, đã tạo ra một số ảnh hưởng môi trường. Việc khai thác nước ngầm quá mức đã làm mực nước ngầm hạ thấp và có thể làm gia tăng sụt lún đất trên đồng bằng. Sụt lún đất trên đồng bằng được xem là có thể ảnh hưởng nhanh hơn so với ảnh hưởng của nước biển dâng. Thêm vào đó, việc phát triển thủy sản tăng mạnh trong khi cơ sở hạ tầng phân ranh mặn ngọt chưa được phát triển đồng bộ đã ảnh hưởng đến các vùng sản xuất lúa phụ cận.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2609,20 +2582,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query. The user query asks about the MHB model, but the generated answer does not provide any specific information about this model.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the changes in agricultural production structure in the Mekong Delta from 1999 to the present, as well as the impacts of aquaculture development on the environment and land in this area. The answer is accurate and comprehensive, but it could be more concise.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hãy giải thích ý nghĩa của "Tỉ lệ phân lưu" và "Quy tắc lấy nước từ nhiều nút cấp" trong nghiên cứu về mạng lưới sông LVSCL.</t>
+          <t>Hãy mô tả những thay đổi lớn về mực nước tại Jonghong (Trung Quốc) trong mùa mưa lũ từ tháng 6 đến tháng 10 so với giai đoạn trước năm 2000. Theo bạn, những thay đổi này có ảnh hưởng như thế nào đến dòng chảy lũ về Đồng Bằng Sông Cửu Long?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Tỉ lệ phân lưu" là một khái niệm liên quan đến cách dòng chảy được phân chia tại mỗi nút trong mạng lưới sông. Nó được xác định bằng cách lấy tỉ lệ giữa lưu lượng dòng chảy ra sông nhánh và tổng lưu lượng dòng chảy đến nút. Điều này cho thấy cách dòng chảy được phân phối trong mạng lưới sông.
-"Quy tắc lấy nước từ nhiều nút cấp" là một quy tắc được sử dụng trong nghiên cứu để xác định tỉ lệ nhu cầu nước của một đối tượng được lấy từ một nút cụ thể. Tỉ lệ này được xác định bằng cách lấy tỉ lệ giữa lượng nước đến tại nút cụ thể và tổng lượng nước đến tại tất cả các nút cấp cho đối tượng đang xét. Tỉ lệ này không cố định mà thay đổi theo ngày, tương ứng với sự thay đổi của lượng nước đến từng nút.</t>
+          <t>Mực nước tại Jonghong (Trung Quốc) trong mùa mưa lũ từ tháng 6 đến tháng 10 đã thấp hơn rất nhiều so với giai đoạn trước năm 2000. Thậm chí, mực nước chính lũ tháng 8, tháng 9 còn thấp hơn cả mực nước ở giai đoạn mùa khô và đầu mùa lũ (đầu tháng 6). Điều này cho thấy phần lớn dòng chảy lũ đã bị tích lại ở các hồ thủy điện. Những thay đổi này đã ảnh hưởng đến dòng chảy lũ về Đồng Bằng Sông Cửu Long, khi mà liên tục các năm lũ nhỏ từ 2002 đến nay, ngoại trừ năm lũ lớn 2011.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2637,19 +2609,20 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the terms "Tỉ lệ phân lưu" and "Quy tắc lấy nước từ nhiều nút cấp" in the context of river network studies. The answer is clear, comprehensive, and appears to be correct, even in the absence of a reference answer.</t>
+          <t>The generated answer is relevant and provides a detailed explanation of the changes in water levels in Jonghong, China during the flood season from June to October compared to the period before 2000. It also discusses the impact of these changes on the flood flow to the Mekong Delta. However, without a reference answer or specific data, it's hard to confirm the absolute correctness of the information.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Theo kết quả nghiên cứu, vùng nào thiếu nước nhiều nhất và thời gian thiếu nước nhiều nhất là khi nào? Hãy nêu nguyên nhân dựa trên thông tin trong bài.</t>
+          <t>Hãy giải thích về vai trò của các hồ chứa thượng lưu, đặc biệt là hồ thủy điện, trong việc điều tiết dòng chảy lũ. Theo bạn, việc sử dụng lượng trữ nước trong các hồ này để cấp nước hoặc xả phát điện trong suốt mùa khô có ảnh hưởng như thế nào đến dòng chảy lũ ở tương lai?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vùng Đồng Bằng Sông Cửu Long, cụ thể là tỉnh Sóc Trăng và huyện Long Phú, đã chịu ảnh hưởng nặng nề nhất về thiếu nước. Thời gian thiếu nước nhiều nhất là vào cuối năm 2015 và đầu năm 2016. Nguyên nhân chính là do xâm nhập mặn và khô hạn. Điều này đã làm giảm nguồn nước mặt dùng cho canh tác lúa, buộc nông dân phải sử dụng nước giếng, dẫn đến suy giảm nguồn tài nguyên nước dưới đất.</t>
+          <t>Các hồ chứa thượng lưu, đặc biệt là hồ thủy điện, đóng vai trò quan trọng trong việc điều tiết dòng chảy lũ. Chúng có khả năng tích lũ và xả cạn đến mực nước chết hàng năm. Khi xây dựng các thủy điện trên lưu vực, một phần dòng chảy lũ sẽ được tích lại trong hồ, do đó tổng lượng dòng chảy lũ xuống hạ lưu sẽ giảm đi một lượng tương đương với tổng dung tích hữu ích của các hồ này.
+Việc sử dụng lượng trữ nước trong các hồ này để cấp nước hoặc xả phát điện trong suốt mùa khô có thể tăng lưu lượng trung bình cả mùa khô. Tuy nhiên, điều này cũng có thể dẫn đến những thay đổi không mong muốn trong dòng chảy về hạ lưu, gây bất lợi cho sản xuất nông nghiệp. Cụ thể, việc vận hành tích nước sớm hoặc muộn có thể ảnh hưởng lớn đến dòng chảy về hạ lưu ở các tháng cuối mùa khô và đầu mùa mưa, hoặc cuối mùa mưa và đầu mùa khô, tạo ra điều kiện bất lợi cho sản xuất nông nghiệp trên đồng bằng.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2664,19 +2637,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides detailed and accurate information about the region most affected by water shortage, the time when the shortage was most severe, and the reasons for the shortage.</t>
+          <t>The generated answer is highly relevant and accurate in response to the user's query. It thoroughly explains the role of upstream reservoirs, especially hydroelectric dams, in regulating flood flows. It also discusses the potential impacts of using these reservoirs for water supply or power generation during the dry season on future flood flows. The answer is comprehensive and well-articulated, demonstrating a deep understanding of the topic.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu này, mô hình MHB đã được sử dụng để phân bổ nguồn nước. Tuy nhiên, mô hình này có hạn chế gì và tại sao việc xem xét chất lượng nước, đặc biệt là độ mặn, lại quan trọng trong bối cảnh hiện tại?</t>
+          <t>Theo nghiên cứu, tổng dung tích hữu ích của các hồ chứa theo quy hoạch đạt khoảng bao nhiêu và tương đương với bao nhiêu phần trăm tổng lượng dòng chảy mùa lũ ở năm nhiều nước hoặc năm khô?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mô hình MHB được sử dụng trong nghiên cứu này chủ yếu tập trung vào việc phân bổ số lượng nước, nhưng nó không xem xét đến chất lượng nước, đặc biệt là độ mặn. Điều này là một hạn chế vì chất lượng nước, bao gồm độ mặn, có thể ảnh hưởng đến việc sử dụng nước cho các mục đích khác nhau, như sản xuất nông nghiệp. Điều này đặc biệt quan trọng trong bối cảnh hiện tại, khi mặn được dự báo sẽ thay đổi bất thường do chế độ vận hành của các thủy điện ở thượng lưu. Đối với các khu vực sử dụng nước thuộc vùng mặn và lợ thuộc vùng bán đảo Cà Mau, việc xem xét độ mặn là cần thiết, vì xâm nhập mặn có thể gây ra sự thiếu hụt nước nghiêm trọng hơn.</t>
+          <t>Tổng dung tích hữu ích của các hồ chứa theo quy hoạch đạt khoảng 106 tỷ m3. Điều này tương đương với 21 - 48% tổng lượng dòng chảy mùa lũ ở năm nhiều nước hoặc năm khô.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2691,20 +2664,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the limitations of the MHB model and the importance of considering water quality, especially salinity. It also provides context for the current situation. The only reason it doesn't get a perfect score is because without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is relevant and seems to be correct, providing specific figures in response to the user's query. However, without a reference answer, it's not possible to confirm the exact correctness of these figures.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Trình bày hai trở ngại chính ảnh hưởng đến tính hợp lý của kết quả cân bằng nước bằng mô hình MHB trên LVSCL và giải thích cách tỷ lệ phân lưu được xác định trong mô hình này.</t>
+          <t>Theo kết quả phân tích, phát triển thủy điện sẽ ảnh hưởng như thế nào đến tổng lượng lũ xuống hạ lưu? Hãy nêu rõ sự thay đổi trong số năm lũ có tổng lượng nhỏ hơn tần suất 75% và số năm lũ có tổng lượng dòng chảy lớn hơn tần suất 25% khi xây dựng thêm các thủy điện.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hai trở ngại chính ảnh hưởng đến tính hợp lý của kết quả cân bằng nước bằng mô hình MHB trên LVSCL bao gồm việc xác định tỷ lệ phân lưu giữa các nhánh sông/kênh, và tỉ lệ phân bổ giữa nhiều nguồn nước cho nhiều đối tượng khác nhau. 
-Tỷ lệ phân lưu trong mô hình này được xác định dưới dạng đường quan hệ lưu lượng giữa dòng chính và dòng nhánh, được xác định từ kết quả tính toán của mô hình thủy lực, do đó đã bao gồm ảnh hưởng của triều. Cụ thể hơn, tỷ lệ phân lưu tại mỗi nút được xác định bằng tỉ lệ lưu lượng dòng chảy ra sông nhánh trên tổng lưu lượng dòng chảy đến nút. Sự phân chia dòng chảy trong mạng sông LVSCL là tương đối ổn định.</t>
+          <t>Phát triển thủy điện sẽ gây ra sự thay đổi rất lớn đối với tổng lượng lũ xuống hạ lưu. Cụ thể, nếu không xét đến biến đổi khí hậu, thì việc phát triển thủy điện độc lập có thể làm tăng thêm 15% số năm lũ có tổng lượng nhỏ hơn tần suất 75%. Trong điều kiện năm 2015, tỷ lệ này sẽ chiếm đến 48%, và nếu hoàn thiện các quy hoạch thủy điện ở thượng lưu, tỷ lệ này có thể lên đến 90%. Ngược lại, số năm lũ có tổng lượng dòng chảy lớn hơn tần suất 25% sẽ giảm đáng kể, chỉ còn chiếm 8% ứng với điều kiện thủy điện như hiện nay và gần như hiếm có tổng lượng lũ vượt tần suất 25% khi mà các thủy điện thượng lưu được hoàn tất theo quy hoạch.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2719,20 +2691,19 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the two main obstacles affecting the validity of the water balance results using the MHB model on LVSCL and how the diversion ratio is determined in this model.</t>
+          <t>The generated answer is highly relevant to the user query and provides detailed information on how the development of hydroelectric power can affect the total flood volume downstream. It also provides specific percentages for the change in years with a total flood volume less than 75% frequency and years with a flow volume greater than 25% frequency. However, without a reference answer, it's hard to verify the exact numbers given, hence the slight deduction.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Theo nghiên cứu, hãy mô tả ảnh hưởng của triều và lũ tràn biên giới đến quan hệ lưu lượng giữa dòng chính và dòng nhánh? Vì sao việc chia mô hình chạy riêng rẽ cho mùa lũ và mùa kiệt lại quan trọng?</t>
+          <t>Theo nghiên cứu, lượng lũ gia tăng tổng cộng khoảng bao nhiêu phần trăm so với trước khi thêm yếu tố biến đổi khí hậu? Và lũ lớn có thể chiếm bao nhiêu phần trăm ở TLQH+BĐKH?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Triều và lũ tràn biên giới có ảnh hưởng đáng kể đến quan hệ lưu lượng giữa dòng chính và dòng nhánh. Tại các vị trí chịu ảnh hưởng triều lớn, quan hệ giữa lưu lượng giờ hoặc lưu lượng trung bình ngày giữa dòng chính và dòng nhánh thường không chặt chẽ, đặc biệt khi sông chính và sông nhánh chịu ảnh hưởng triều từ hai hướng khác nhau. Ảnh hưởng của lũ tràn biên giới cũng làm cho quan hệ lưu lượng giữa dòng chính và dòng nhánh trở nên rất phức tạp, khó chặt chẽ. Có những thời điểm trong ngày từ vị trí là điểm phân lưu biến thành nhập lưu hoặc ngược lại do dòng chảy trung bình đổi chiều. 
-Việc chia mô hình chạy riêng rẽ cho mùa lũ và mùa kiệt quan trọng vì nó đảm bảo mô phỏng tốt, độ tin cậy cao hơn do chiều dòng chảy trung bình ngày hoặc thời đoạn lớn hơn là khá ổn định theo từng mùa.</t>
+          <t>Theo nghiên cứu, khi thêm yếu tố biến đổi khí hậu, lượng lũ gia tăng tổng cộng khoảng 10% so với trước. Và lũ lớn có thể chiếm 4% ở TLQH+BĐKH.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2747,19 +2718,19 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of tides and border floods on the flow relationship between the main stream and the branch stream. It also explains why it is important to separate the model for the flood season and the dry season. The answer seems to be correct and comprehensive, but without a reference answer, it's hard to be completely certain.</t>
+          <t>The generated answer is relevant and seems to be correct, but without a reference answer, it's hard to confirm the exact percentages.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dựa vào kết quả tính toán cân bằng nước, hãy phân tích tình hình thiếu nước trên lưu vực, đặc biệt là vùng bán đảo Cà Mau và các vùng giáp biển Đông và biển Tây.</t>
+          <t>Trong tương lai, diễn biến lũ và mực nước lũ ở ĐBSCL sẽ thay đổi như thế nào? Hãy nêu rõ sự thay đổi về số năm có lũ nhỏ và số năm lũ vượt báo động cấp III ở các điều kiện khác nhau.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tổng lượng nước thiếu cả năm trên toàn vùng chiếm khoảng 11,4% so với tổng nhu cầu sử dụng nước. Thời gian thiếu nước nhiều nhất là vào tháng 2–4. Vùng bán đảo Cà Mau, đặc biệt là vùng Nam bán đảo Cà Mau, là khu vực thiếu nước nhiều nhất với tỉ lệ thiếu trung bình 25,5%. Các vùng khác như Tứ giác Long Xuyên, giữa sông Tiền–sông Hậu, và tả sông Tiền cũng gặp tình trạng thiếu nước, nhưng không nghiêm trọng như vùng bán đảo Cà Mau, kể cả vào mùa khô. Tuy nhiên, một số khu vực giáp biển Đông và biển Tây cũng gặp tình trạng thiếu nước do bị nhiễm mặn.</t>
+          <t>Trong tương lai, diễn biến lũ và mực nước lũ ở ĐBSCL sẽ có sự thay đổi rất lớn. Số năm có lũ nhỏ sẽ gia tăng đáng kể. Cụ thể, ở điều kiện nền, số năm lũ nhỏ dưới báo động cấp I chỉ chiếm 3%, nhưng có thể tăng lên 13% ở điều kiện thủy điện như 2015, và có thể chiếm 47% ở TLQH. Mặt khác, số năm lũ vượt báo động cấp III ở điều kiện nền chiếm đến 32%, nhưng ở các kịch bản ĐK15 và TLQH, lũ vượt báo động cấp III sẽ giảm đáng kể, chỉ còn là 8% và 1%.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2774,46 +2745,47 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the water shortage situation in the specified areas. It also includes specific statistics and mentions the most affected periods and regions, which shows a high level of accuracy. However, without a reference answer, it's hard to confirm the exact correctness of the provided data.</t>
+          <t>The generated answer is highly relevant to the user query and provides detailed information about the future changes in flood patterns and flood levels in the Mekong Delta. It also addresses the changes in the number of years with minor floods and the number of years with floods exceeding level III alarm under different conditions. However, without a reference answer, it's hard to confirm the exact correctness of the provided statistics.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu "Nghiên cứu, đề xuất các mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn tại tỉnh Vĩnh Long", tác giả đã xem xét bao nhiêu mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn và cuối cùng đã xây dựng được bao nhiêu mô hình phù hợp với tình hình canh tác tại tỉnh Vĩnh Long? Hãy liệt kê các lĩnh vực mà các mô hình này thuộc về.</t>
+          <t>Theo nội dung trong bài, hãy mô tả những tác động của việc vận hành tích nước sớm và muộn ở các con đập đối với dòng chảy về hạ lưu và sản xuất nông nghiệp trên đồng bằng?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Thông tin trong ngữ cảnh không cung cấp đủ chi tiết về số lượng mô hình sinh kế nông nghiệp được xem xét trong nghiên cứu "Nghiên cứu, đề xuất các mô hình sinh kế nông nghiệp thích ứng với xâm nhập mặn tại tỉnh Vĩnh Long", cũng như số lượng mô hình đã được xây dựng phù hợp với tình hình canh tác tại tỉnh Vĩnh Long. Cũng không có thông tin về các lĩnh vực mà các mô hình này thuộc về.</t>
+          <t>Việc vận hành tích nước sớm ở các con đập có thể ảnh hưởng lớn đến dòng chảy về hạ lưu ở các tháng cuối mùa khô và đầu mùa mưa. Điều này có thể làm cho tần suất các năm dòng chảy về đồng bằng nhỏ hơn P75% chiếm 31,9%. Nếu hoàn thiện các quy hoạch của hơn 150 đập thủy điện ở thượng lưu, có thể làm 69,2% số năm có thể bị ảnh hưởng thiếu nước đầu mùa mưa ở các vùng ven biển. Điều này tạo ra điều kiện bất lợi cho sản xuất nông nghiệp trên đồng bằng.
+Tương tự, việc vận hành tích nước muộn ở các con đập cũng có thể ảnh hưởng lớn đến dòng chảy về hạ lưu ở các tháng cuối mùa mưa và đầu mùa khô. Điều này có thể làm cho tần suất các năm dòng chảy về đồng bằng nhỏ hơn P75% chiếm 26,4%. Nếu hoàn thiện các quy hoạch của hơn 150 đập thủy điện ở thượng lưu, có thể làm 82,4% số năm có thể bị ảnh hưởng thiếu nước cuối mùa mưa, đầu mùa khô ở các vùng ven biển. Điều này cũng tạo ra điều kiện bất lợi cho sản xuất nông nghiệp trên đồng bằng.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query as it addresses the question about the number of models considered and built in the research. However, it does not provide any specific information or details, stating that the context does not provide enough information. This is a limitation, but the answer is still relevant and does not contain factual errors.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impacts of early and late water storage at dams on downstream flow and agricultural production in the plains. It does not contain any mistakes or inaccuracies.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tại tỉnh Vĩnh Long, xâm nhập mặn đã gây ảnh hưởng như thế nào đến sản xuất nông nghiệp trong mùa khô 2015-2016 và mùa khô 2019-2020? Hãy nêu rõ các con số và vùng bị ảnh hưởng nếu có.</t>
+          <t>Trình bày về những bất lợi mà xu thế lũ liên tục nhỏ mang lại cho sản xuất vụ Đông Xuân ở ĐBSCL?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Rất tiếc, thông tin được cung cấp không đề cập đến ảnh hưởng của xâm nhập mặn đến sản xuất nông nghiệp tại tỉnh Vĩnh Long trong mùa khô 2015-2016 và mùa khô 2019-2020.</t>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến những bất lợi mà xu thế lũ liên tục nhỏ mang lại cho sản xuất vụ Đông Xuân ở ĐBSCL.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2828,20 +2800,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>The generated answer is not relevant to the user query as it does not provide any information about the impact of saltwater intrusion on agricultural production in Vinh Long province during the dry seasons of 2015-2016 and 2019-2020.</t>
+          <t>The generated answer does not provide any information relevant to the user's query about the disadvantages of continuous small floods for the Winter-Spring crop production in the Mekong Delta.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Hãy mô tả quy trình xây dựng và áp dụng 15 mô hình SXNN thích ứng XNM tại tỉnh Vĩnh Long, bao gồm các bước từ việc phân tích đặc điểm của các mô hình SKNN hiện hữu, xem xét 25 mô hình SKNN thích ứng với XNM, đến việc tổ chức tập huấn và thực tế cho nông hộ.</t>
+          <t>Theo nghiên cứu trong bài viết, hoàn thiện các quy hoạch của hơn 150 đập thủy điện ở thượng lưu có thể ảnh hưởng như thế nào đến số năm thiếu nước cuối mùa mưa, đầu mùa khô ở các vùng ven biển?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Đầu tiên, các đặc điểm của các mô hình sinh kế nông nghiệp (SKNN) hiện hữu tại địa phương được phân tích. Sau đó, 25 mô hình SKNN thích ứng với xâm nhập mặn (XNM) được xem xét, những mô hình này đã được áp dụng một cách hiệu quả tại đồng bằng sông Cửu Long (ĐBSCL). Dựa trên bộ tiêu chí đánh giá tính khả thi (bao gồm 7 nhóm tiêu chí và 45 chỉ thị thành phần), 15 mô hình SXNN thích ứng XNM thuộc các lĩnh vực trồng trọt, chăn nuôi, nuôi trồng thuỷ sản (NTTS) và sản xuất kết hợp được xây dựng phù hợp với tình hình canh tác tại tỉnh Vĩnh Long.
-Để tăng cường hiệu quả ứng dụng, 3 hội nghị tập huấn cho gần 100 nông hộ tại huyện Vũng Liêm, Trà Ôn, Mang Thít và 01 chuyến tham quan, học tập thực tế tại tỉnh Bến Tre cho 30 nông hộ điển hình đã được tổ chức. Trong số các mô hình được đề xuất, 5 mô hình được triển khai thí điểm tại 20 hộ (trồng lúa, bắp nếp, dưa hấu, nuôi bò sinh sản và cá rô phi vằn) cho hiệu quả kinh tế cao cũng như tiềm năng nhân rộng tại các khu vực có điều kiện tương tự.</t>
+          <t>Hoàn thiện các quy hoạch của hơn 150 đập thủy điện ở thượng lưu có thể làm 82,4% số năm có thể bị ảnh hưởng thiếu nước cuối mùa mưa, đầu mùa khô ở các vùng ven biển.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2856,47 +2827,51 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant and accurate to the user query. It provides a detailed description of the process of building and applying 15 adaptive agricultural livelihood models in Vinh Long province, including the steps from analyzing the characteristics of existing models, considering 25 models adapted to saltwater intrusion, to organizing training and practical for households.</t>
+          <t>The generated answer is relevant and seems to be correct, providing a specific percentage of years that could be affected by water shortages at the end of the rainy season and the beginning of the dry season in coastal areas due to the completion of plans for more than 150 hydroelectric dams upstream. However, without a reference answer, it's hard to confirm the exact correctness of the provided percentage.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Trong các mô hình đề xuất, 5 mô hình đã được triển khai thí điểm tại 20 hộ và cho thấy hiệu quả kinh tế cao cũng như tiềm năng nhân rộng. Hãy liệt kê và mô tả chi tiết về 5 mô hình này, bao gồm lĩnh vực hoạt động và cách thức triển khai.</t>
+          <t>Đề cập đến những ảnh hưởng bất lợi do tác động của các phát triển ở thượng lưu, hãy mô tả cách thay đổi dòng chảy và xu thế lũ có thể ảnh hưởng đến môi trường chất lượng nước và nuôi trồng thủy sản trên đồng bằng.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến 5 mô hình đã được triển khai thí điểm tại 20 hộ. Do đó, tôi không thể liệt kê và mô tả chi tiết về 5 mô hình này.</t>
+          <t>Các phát triển ở thượng lưu, như việc xây dựng các hồ thủy điện, đã tạo ra những thay đổi lớn trong dòng chảy và xu hướng lũ. Cụ thể, mực nước tại Jonghong (Trung Quốc) trong mùa mưa lũ từ tháng 6 đến tháng 10 đã thấp hơn rất nhiều so với trước năm 2000. Điều này cho thấy phần lớn dòng chảy lũ đã bị tích lại ở các hồ thủy điện. Đồng thời, lũ xuất hiện muộn hơn đến cả nửa tháng so với trước đây và thời gian lũ nhỏ ngắn lại. 
+Những thay đổi này có thể ảnh hưởng đến môi trường chất lượng nước và nuôi trồng thủy sản trên đồng bằng. Sự thay đổi trong dòng chảy có thể làm giảm lượng nước và phù sa cung cấp cho đồng bằng, điều này có thể ảnh hưởng đến chất lượng nước và làm giảm năng suất của các hoạt động nuôi trồng thủy sản. Đồng thời, sự thay đổi trong xu hướng lũ có thể tạo ra những thách thức mới cho việc quản lý nước và nuôi trồng thủy sản, đòi hỏi những giải pháp thích ứng mới.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and it is correct in stating that it cannot provide the requested information due to lack of specific details in the query. However, it could have been more helpful by asking for more information or suggesting where the user might find the information they are looking for.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how changes in upstream developments can affect water quality and aquaculture in the plains. It also provides specific examples and potential impacts, making it a comprehensive and correct response.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Theo bài báo, hãy mô tả những khó khăn mà hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long đang gặp phải? Giải pháp nào được đề xuất để giải quyết những vấn đề này?</t>
+          <t>Theo nội dung trong bài, hãy liệt kê một số giải pháp công trình ứng phó chính trên đồng bằng để phòng chống hạn hán và xâm nhập mặn những năm tới?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long đang gặp phải nhiều khó khăn. Một trong số đó là hiện tượng tranh chấp nước giữa các địa phương sử dụng chung hệ thống thủy lợi đang diễn ra ngày càng gay gắt. Thêm vào đó, sự phát triển của đô thị và khai thác quá tải nước ngầm đã làm giảm diện tích tưới tiêu. Đồng thời, hiện tượng xâm nhập mặn và khô hạn cũng đang tác động mạnh mẽ lên vùng này, đặc biệt là từ tháng 1 đến tháng 4 hàng năm. 
-Để giải quyết những vấn đề này, bài báo đề xuất việc nghiên cứu giải pháp để vận hành một cách thông minh, linh hoạt các công trình trong hệ thống thủy lợi nhằm nâng cao năng suất nước và bảo vệ môi trường sinh thái. Cụ thể, các giải pháp được đề xuất dựa trên nền tảng công nghệ Internet of Things (IoT). Ngoài ra, cần tăng hiệu quả sử dụng tài nguyên đất và nước thông qua các giải pháp nâng cao hiệu quả quản lý khai thác các công trình thuỷ lợi.</t>
+          <t>Một số giải pháp công trình ứng phó chính trên đồng bằng để phòng chống hạn hán và xâm nhập mặn những năm tới bao gồm:
+1. Rà soát lại quy hoạch lũ ĐBSCL trong bối cảnh có xét đến các tác động bất lợi về dòng chảy lũ, số lượng năm có lũ vừa và nhỏ sẽ tăng, trong khi ngập vùng ven biển và trung tâm đồng bằng lại có xu thế gia tăng do ảnh hưởng của nước biển dâng.
+2. Ưu tiên các cống ngăn mặn cặp theo sông Tiền, sông Hậu để ứng phó với các trường hợp mặn xuất hiện sớm, vào sâu theo các dòng chính, đồng thời ứng phó với các trường hợp mặn rút muộn hoặc mặn bất thường trong các trường hợp bất lợi do vận hành thủy điện ở thượng lưu.
+3. Thay thế từng phần các cửa cống hay từng bước chuyển đổi hình thức vận hành của các cống ngăn triều và kiểm soát mặn, đặc biệt các cống lớn cặp theo các sông chính để chủ động đóng mở khi cần, góp phần chủ động về nước tưới, tích trữ nước hay tiêu thoát nước, bảo vệ môi trường chất lượng nước trong các vùng hưởng lợi của hệ thống thủy lợi.
+4. Liên kết các hệ thống thủy lợi nhỏ lẻ thành các hệ thống lớn hơn để đảm bảo chủ động nguồn nước trong các thời kỳ mặn có thể kéo dài hơn, các hệ thống Gò Công-Bảo Định, Nam Măng Thít-Vĩnh Long, Nam-Bắc Bến Tre, Tiếp Nhật-Kế Sách (Sóc Trăng) và khép kín hệ thống ngăn mặn ven Biển Tây, định kỳ nạo vét tăng khả năng trữ nước của hệ thống thủy lợi.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2911,19 +2886,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the problems faced by the inter-provincial irrigation system in the Mekong Delta region. It also suggests solutions to these problems. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive list of solutions to combat drought and saltwater intrusion in the coming years. The answer is also correct as it provides feasible and practical solutions.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Trình bày về tầm quan trọng của việc vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long trong bối cảnh biến đổi khí hậu và xâm nhập mặn. Công nghệ nào được đề cập trong bài báo để hỗ trợ việc này?</t>
+          <t>Theo tác giả, việc liên kết các hệ thống thủy lợi nhỏ lẻ thành các hệ thống lớn hơn có tác dụng gì trong việc đảm bảo chủ động nguồn nước trong các thời kỳ mặn có thể kéo dài hơn?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Việc vận hành thông minh hệ thống thủy lợi liên tỉnh tại vùng Đồng bằng sông Cửu Long đóng vai trò quan trọng trong sản xuất nông nghiệp và dân sinh. Trong bối cảnh biến đổi khí hậu và xâm nhập mặn ngày càng bất lợi và khó lường, việc vận hành thông minh và linh hoạt các công trình trong hệ thống thủy lợi trở nên cần thiết hơn bao giờ hết để nâng cao năng suất nước và bảo vệ môi trường sinh thái. Công nghệ Internet of Things (IoT) được đề cập trong bài báo như một nền tảng hỗ trợ cho việc vận hành thông minh hệ thống thủy lợi.</t>
+          <t>Liên kết các hệ thống thủy lợi nhỏ lẻ thành các hệ thống lớn hơn giúp đảm bảo chủ động nguồn nước trong các thời kỳ mặn kéo dài hơn. Điều này có thể được thực hiện thông qua việc kết nối các hệ thống như Gò Công-Bảo Định, Nam Măng Thít-Vĩnh Long, Nam-Bắc Bến Tre, Tiếp Nhật-Kế Sách (Sóc Trăng) và khép kín hệ thống ngăn mặn ven Biển Tây. Đồng thời, cần định kỳ nạo vét để tăng khả năng trữ nước của hệ thống thủy lợi.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2938,22 +2913,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive response. It correctly explains the importance of smart operation of inter-provincial irrigation systems in the Mekong Delta region in the context of climate change and saltwater intrusion. It also correctly identifies the Internet of Things (IoT) as the technology mentioned in the article to support this operation.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how linking smaller irrigation systems into larger ones can ensure a proactive water source during prolonged salty periods. It also suggests specific systems that could be connected and additional measures to increase the water storage capacity of the irrigation system. The only reason it doesn't get a perfect score is because it doesn't directly address the author's perspective, which was asked in the query.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hãy liệt kê và giải thích 3 hướng nghiên cứu chính đã được sử dụng trong việc quản lý và khai thác công trình thủy lợi (CTTL) như được mô tả trong tài liệu.</t>
+          <t>Theo nội dung tài liệu, hãy liệt kê các hệ thống thủy lợi được đề cập và mô tả vai trò của chúng trong việc đảm bảo nguồn nước trong các thời kỳ mặn kéo dài?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ba hướng nghiên cứu chính đã được sử dụng trong việc quản lý và khai thác công trình thủy lợi (CTTL) như sau:
-1. Đánh giá hiện trạng thủy lợi: Đây là việc nghiên cứu và đánh giá tình hình hiện tại của các công trình thủy lợi, bao gồm hệ thống các kênh, đê bao và cống. Mục tiêu là xác định mức độ hiệu quả của các công trình hiện tại và xác định nhu cầu cho việc nâng cấp hoặc thay thế.
-2. Tính toán vận hành cống: Đây là việc nghiên cứu và tính toán cách vận hành cống trong các tháng mùa khô, dựa trên điều kiện xâm nhập mặn. Mục tiêu là tối ưu hóa việc sử dụng nước và ngăn chặn xâm nhập mặn.
-3. Nghiên cứu ứng phó với biến đổi khí hậu: Đây là việc nghiên cứu về cách quản lý tài nguyên nước để ứng phó với biến đổi khí hậu, bao gồm thay đổi đặc điểm lũ lụt và xâm nhập mặn. Mục tiêu là đảm bảo sự bền vững của các công trình thủy lợi trong bối cảnh biến đổi khí hậu.</t>
+          <t>Các hệ thống thủy lợi được đề cập trong tài liệu bao gồm Gò Công-Bảo Định, Nam Măng Thít-Vĩnh Long, Nam-Bắc Bến Tre, Tiếp Nhật-Kế Sách (Sóc Trăng) và hệ thống ngăn mặn ven Biển Tây. Vai trò của chúng trong việc đảm bảo nguồn nước trong các thời kỳ mặn kéo dài bao gồm việc liên kết các hệ thống thủy lợi nhỏ lẻ thành các hệ thống lớn hơn, định kỳ nạo vét để tăng khả năng trữ nước, và khép kín hệ thống ngăn mặn. Điều này giúp chủ động trong việc cung cấp nguồn nước, đặc biệt trong các thời kỳ mặn kéo dài.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2968,20 +2940,19 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response. It lists and explains three main research directions used in the management and exploitation of irrigation works as requested by the user.</t>
+          <t>The generated answer is highly relevant to the user query and appears to be fully correct. It lists the irrigation systems mentioned and describes their role in ensuring water supply during prolonged salinity periods.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dựa trên số liệu mặn từ 2007 đến 2017 tại trạm Sơn Đốc và Hương Mỹ, hãy phân tích xu hướng biến đổi của mặn và những hậu quả mà nó gây ra cho hệ thống thủy lợi và canh tác.</t>
+          <t>Trình bày các giải pháp được đề xuất trong tài liệu để phát triển hệ thống thủy lợi nội đồng và cải thiện chất lượng gạo, đồng thời góp phần vào việc xây dựng thương hiệu lúa gạo vùng ĐBSCL và tái cơ cấu ngành Nông nghiệp.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Từ 2007 đến 2017, mặn tại trạm Sơn Đốc và Hương Mỹ đã tăng với tốc độ 0.2-0.5 PSU/năm. Mặn năm 2015-2016 được đánh giá là trầm trọng nhất trong 90 năm qua, nhưng mặn năm 2019-2020 thậm chí còn nghiêm trọng hơn. Mặn năm 2019-2020 ở tất cả các nhánh sông, ngoại trừ sông Vàm Cỏ Đông, đều tăng so với năm 2015-2016, cao nhất là tăng thêm 9 km trên sông Vàm Cỏ Tây. Xu hướng mặn không chỉ tăng về nồng độ mà còn rút ngắn về thời gian xuất hiện mặn cực hạn.
-Tình trạng mặn tăng này đã gây ra những hậu quả nghiêm trọng cho hệ thống thủy lợi và canh tác. Cụ thể, việc phối hợp điều tiết phân phối nước chưa giải quyết được yêu cầu thực tế, có sự mâu thuẫn nhu cầu sử dụng nước đặc biệt vào mùa khô ở các địa phương đầu nguồn và cuối nguồn. Một số kênh trục chính đã bị nhiễm XNM, nhiễm phèn thường xuyên, trong khi đó một số khu vực không có nguồn tiếp ngọt làm cho nhiều diện tích rau màu bị ảnh hưởng nghiêm trọng.</t>
+          <t>Tài liệu không đề cập đến các giải pháp cụ thể để phát triển hệ thống thủy lợi nội đồng, cải thiện chất lượng gạo, xây dựng thương hiệu lúa gạo vùng ĐBSCL hay tái cơ cấu ngành Nông nghiệp.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2996,20 +2967,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the salinity changes at the Son Doc and Huong My stations from 2007 to 2017. It also discusses the consequences of these changes on the irrigation system and farming. However, it includes information about the years 2019-2020, which is beyond the requested time frame, hence the slight deduction in score.</t>
+          <t>The generated answer is not relevant to the user query as it does not provide any solutions proposed in the document for the development of the irrigation system, improving the quality of rice, contributing to the construction of the rice brand in the Mekong Delta region, and restructuring the agricultural sector.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Theo nội dung trong tài liệu, vấn đề gì khiến công tác thủy lợi ở ĐBSCL đang ở giai đoạn "chưa thông minh" và giải pháp đề xuất để khắc phục vấn đề này là gì?</t>
+          <t>Theo nội dung trong bài, hãy liệt kê các giải pháp được đề xuất để bảo vệ các tuyến đê biển và đê cửa sông trước các tác động của xói lở và biến đổi khí hậu?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Công tác thủy lợi ở ĐBSCL đang ở giai đoạn "chưa thông minh" do một số vấn đề như tranh chấp nước giữa các địa phương sử dụng chung hệ thống thủy lợi, biến đổi khí hậu, xâm nhập mặn, mất diện tích tưới tiêu do úng, nhiễm mặn, khai thác quá tải nước ngầm và sự phát triển của đô thị. Ngoài ra, quy trình vận hành công trình thủy lợi hiện nay chủ yếu được xây dựng dựa trên cơ sở xác định một tần suất nhất định của các yếu tố khí hậu, nguồn nước, hay độ mặn nên không xử lý được đúng, đủ, chính xác và kịp thời trước sự tác động của biến đổi khí hậu.
-Giải pháp đề xuất để khắc phục vấn đề này là vận hành một cách thông minh, linh hoạt các công trình trong hệ thống thủy lợi nhằm nâng cao năng suất nước và bảo vệ môi trường sinh thái. Điều này có thể được thực hiện thông qua việc kết hợp nhiều loại công nghệ một cách đồng bộ, khoa học, tập trung vào giải quyết bài toán sử dụng nước tối ưu, giám sát, điều khiển các công trình, thiết bị từ xa, giám sát toàn bộ khu vực canh tác để hỗ trợ ra quyết định vận hành công trình từ xa.</t>
+          <t>Các giải pháp được đề xuất để bảo vệ các tuyến đê biển và đê cửa sông trước các tác động của xói lở và biến đổi khí hậu bao gồm: tính đến các ảnh hưởng gia tăng do xói lở, bố trí hành lang ngoài đê hợp lý, bảo vệ đê bằng các giải pháp sinh thái, rừng ngập mặn thay vì cứng hóa. Các tác động suy giảm phù sa và biến đổi khí hậu có thể làm biến đổi đường bờ phức tạp và kéo dài trước khi đạt đến mức ổn định tương đối.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3024,19 +2994,20 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the issues facing irrigation in the Mekong Delta, as well as proposed solutions to these problems. The answer is detailed, accurate, and well-structured, making it easy for the user to understand.</t>
+          <t>The generated answer is relevant and appears to be correct, providing a detailed list of proposed solutions to protect sea dikes and river mouth dikes from erosion and climate change. However, without a reference answer, it's difficult to confirm the full accuracy of the response.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Các kết quả nghiên cứu đã giải quyết được những vấn đề gì về công nghệ và thiết bị trong lĩnh vực thủy lợi?</t>
+          <t>Trình bày các giải pháp phi công trình được đề cập trong bài để ứng phó với các tác động bất lợi đến 2 vụ lúa chính trên đồng bằng, bao gồm cả việc nâng cao nhận thức và năng lực thích ứng của cộng đồng?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Các kết quả nghiên cứu đã giải quyết được nhiều vấn đề về công nghệ và thiết bị trong lĩnh vực thủy lợi, bao gồm mô phỏng thủy lực và thiết bị điều khiển, giám sát từ xa.</t>
+          <t>Các giải pháp phi công trình được đề cập trong bài để ứng phó với các tác động bất lợi đến 2 vụ lúa chính trên đồng bằng bao gồm việc nghiên cứu thay đổi thời vụ cho các vùng nhằm giảm tập trung nước trong các tháng đầu mùa mưa và đầu mùa khô. Đồng thời, cần nâng cao hiệu quả sử dụng đất mùa lũ và rà soát lại quy hoạch sử dụng đất vùng ĐBSCL trong điều kiện có xét đến suy giảm cả lũ và phù sa.
+Để nâng cao nhận thức và năng lực thích ứng của cộng đồng, cần nâng cao nhận thức của cộng đồng để chủ động thích ứng với các tác động của biến đổi khí hậu và phát triển thượng lưu. Người dân cần có ý thức bảo vệ môi trường nước, sử dụng phân bón và thuốc bảo vệ thực vật hợp lý, thu gom các rác thải nông nghiệp. Đồng thời, cần nâng cao năng lực thích ứng cho người dân vùng ĐBSCL, cung cấp kịp thời các thông tin về nước để có sự chuẩn bị trước các tình huống có thể xảy ra trên đồng bằng trong tương lai.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3051,25 +3022,19 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and correct. It addresses the user's query about what research has solved in terms of technology and equipment in the field of irrigation. However, it could provide more specific examples or details to fully satisfy the query.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive response to the question. It not only discusses non-structural solutions to cope with adverse impacts on the two main rice crops in the delta, but also addresses the need to raise community awareness and adaptive capacity. The answer is fully correct and well-articulated.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Theo nội dung của tài liệu nghiên cứu, hãy liệt kê những hạn chế chính của các kết quả nghiên cứu đã thực hiện trong quản lý điều hành hệ thống tưới hiện nay?</t>
+          <t>Hãy nêu các giải pháp được đề xuất trong văn bản để giảm thiểu thiệt hại cho các nhóm dễ bị ảnh hưởng như hộ nghèo, ít đất sản xuất?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Các hạn chế chính của các kết quả nghiên cứu đã thực hiện trong quản lý điều hành hệ thống tưới hiện nay bao gồm:
-1. Các phần mềm chỉ giải quyết được các vấn đề riêng lẻ, chưa tích hợp để giải quyết tổng hợp các vấn đề trong công tác quản lý điều hành hệ thống tưới.
-2. Các giải pháp quan trắc chỉ có giá trị thực tiễn khi lắp đặt đầy đủ hệ thống trạm đo tại trải khắp hệ thống.
-3. Các giải pháp mô hình được xây dựng đơn lẻ, theo kịch bản cho trước chỉ phù hợp trong việc lập quy hoạch, kế hoạch trong dài hạn, khó áp dụng trong vận hành công trình.
-4. Giải pháp vận hành, giám sát từ xa có thể áp dụng cho từng công trình cụ thể, nhưng khó áp dụng cho vận hành cả hệ thống và phân phối nước cho nhiều đối tượng dùng nước.
-5. Chưa kết hợp được bài toán phân phối nước tối ưu với các công nghệ mô phỏng thủy lực, điều khiển từ xa.
-6. Các giải pháp chỉ quan tâm đến đối tượng sử dụng là các cơ quan, tổ chức QLKT CTTL, mà chưa tạo được kết nối với toàn bộ các cá nhân, tổ chức liên quan đến hệ thống thủy lợi từ đầu mối tới mặt ruộng, như tổ chức thủy lợi cơ sở, nông dân.</t>
+          <t>Các giải pháp được đề xuất bao gồm việc xây dựng các thể chế, chính sách, và quy hoạch sử dụng đất hợp lý. Đồng thời, cần triển khai các giải pháp sinh kế, chính sách hỗ trợ về sinh kế, đào tạo dạy nghề cho các hộ gia đình nghèo, và tập huấn chuyển giao các tiến bộ kỹ thuật. Ngoài ra, cung cấp nước sạch và vệ sinh môi trường ở các vùng nông thôn cũng là một phần của giải pháp. Cuối cùng, tăng cường năng lực cho các cấp quản lý bằng việc xây dựng các quy trình vận hành các công trình và các hệ thống thông tin cảnh báo cũng là một phần quan trọng của giải pháp.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3084,19 +3049,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed list of the main limitations of the research results in the current irrigation system management. It is comprehensive and appears to be correct, even without a reference answer for comparison.</t>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive list of proposed solutions to minimize damage to vulnerable groups such as poor households and those with little land for production. The answer is detailed and covers various aspects such as policy, livelihood solutions, training, provision of clean water, and strengthening management capacity. However, without a reference answer, it's hard to confirm if all the details are correct, hence the score is not a perfect 5.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Giải pháp đề xuất trong nghiên cứu này sẽ giải quyết được những vấn đề gì trong công tác quản lý, điều hành hệ thống tưới, đặc biệt là các hệ thống thủy lợi liên tỉnh?</t>
+          <t>Theo văn bản, chính sách hỗ trợ về sinh kế và đào tạo dạy nghề sẽ được áp dụng cho đối tượng nào?</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>The proposed solution in this research will address overall issues in the management and operation of irrigation systems, especially inter-provincial irrigation systems. It will modernize the management and operation of irrigation works, which is a current concern. This solution is a potential one with high practical applicability. It will serve as a scientific basis for the study and application of the operation of inter-provincial irrigation systems in the Mekong Delta region.</t>
+          <t>Chính sách hỗ trợ về sinh kế và đào tạo dạy nghề sẽ được áp dụng cho các hộ gia đình nghèo.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3111,19 +3076,19 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the proposed solution in the research will address issues in the management and operation of irrigation systems, especially inter-provincial ones. However, it does not specify the exact problems that will be solved, which would have made the answer more precise.</t>
+          <t>The generated answer is relevant and seems correct, as it specifies that the policies will be applied to poor households. However, without a reference answer or more context, it's hard to confirm if this is the only group that the policies apply to.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Trong nghiên cứu này, tác giả đã đề cập đến vấn đề gì khi áp dụng cho một hệ thống có quy mô liên tỉnh và giải pháp nào được đề xuất để giải quyết vấn đề này?</t>
+          <t>Theo nghiên cứu, hiện tượng ngập mặn đã ảnh hưởng đến bao nhiêu tỉnh trong khu vực đồng bằng sông Cửu Long và vấn đề chính mà người dân khu vực này đang đối mặt là gì?</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Khi áp dụng cho một hệ thống có quy mô liên tỉnh, tác giả đã đề cập đến vấn đề dữ liệu lớn, nghĩa là rất nhiều số liệu và ở các định dạng khác nhau sẽ được truyền tải, lưu trữ và xử lý ở trung tâm, tạo ra một khối lượng dữ liệu vô cùng lớn. Để giải quyết vấn đề này, tác giả đề xuất kết hợp ứng dụng công nghệ Bigdata để hỗ trợ xử lý dữ liệu.</t>
+          <t>Theo thông tin được cung cấp, hiện tượng ngập mặn đã ảnh hưởng đến tỉnh Bạc Liêu trong khu vực đồng bằng sông Cửu Long. Vấn đề chính mà người dân khu vực này đang đối mặt là sự thay đổi điều kiện tự nhiên do nước biển dâng và xâm nhập mặn, làm thiệt hại đáng kể đến sản xuất nông nghiệp.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3138,19 +3103,21 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and seems to be correct. It addresses the problem mentioned in the query (big data) and provides a solution (using Bigdata technology). However, without a reference answer, it's hard to confirm the absolute correctness.</t>
+          <t>The generated answer is relevant to the user query but it contains mistakes. The user asked about the number of provinces affected by saltwater intrusion in the Mekong Delta region, but the generated answer only mentioned one province, Bac Lieu. The main issue that people in this area are facing was correctly identified as changes in natural conditions due to sea level rise and saltwater intrusion, causing significant damage to agricultural production.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Theo tác giả, công nghệ nào cần được kết hợp để hoàn toàn tự động hóa công tác vận hành một hệ thống thông tin liên lạc và vai trò của con người trong hệ thống này sẽ là gì?</t>
+          <t>Hãy mô tả về dự kiến thiết lập hệ xử lý khử mặn thử nghiệm và vai trò của công nghệ IOT trong việc tự động hoá và kiểm soát quá trình này.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Để hoàn toàn tự động hóa công tác vận hành một hệ thống thông tin liên lạc, tác giả đề xuất cần kết hợp công nghệ trí tuệ nhân tạo (AI). Trong hệ thống này, con người sẽ chỉ đóng vai trò giám sát, bảo vệ tài sản, sửa chữa bảo dưỡng và xử lý sự cố (nếu có).</t>
+          <t>Dự kiến thiết lập hệ thống xử lý khử mặn thử nghiệm sẽ bao gồm việc sử dụng công nghệ RO (Reverse Osmosis) vì khả năng khử mặn tốt và giá thành phù hợp so với các công nghệ khác. Tuy nhiên, do độ mặn biến thiên phức tạp, việc vận hành và điều khiển sẽ gặp khó khăn, đặc biệt trong điều kiện nguồn nhân lực địa phương hạn chế.
+Công nghệ IOT sẽ được ứng dụng để khắc phục các nhược điểm này. IOT cho phép theo dõi và quản lý thời gian chạy của bơm, áp suất tác động lên màng, và các thông số cài đặt khác. Hệ thống sẽ tự động nhắn tin hoặc cảnh báo từ xa đến cho nhân viên bảo hành, bảo trì, hoặc tự động chạy chế độ CIP (Clean-in-Place). Những thông số về thời gian, điều kiện vận hành có thể được thay đổi hoặc cài đặt từ xa thông qua hệ thống server trên giao diện web hoặc app. 
+Ngoài ra, IOT cũng cho phép giám sát và thu thập thông số môi trường trên diện rộng, giúp dự báo và lập kế hoạch điều khiển cho điều kiện hoạt động tối ưu và phù hợp với công suất sử dụng. Người sử dụng có thể xem tình trạng hoạt động của hệ thống, cũng như điều khiển các chế độ hoạt động qua các thiết bị điện tử như laptop, điện thoại thông minh. Điều này giúp hạn chế tối đa sự cố xảy ra trong giai đoạn vận hành và đảm bảo chất lượng, hiệu suất lọc luôn được giám sát.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3165,46 +3132,49 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and appears to be correct, providing a specific technology (AI) and outlining the human role in the system. However, without a reference answer, it's not possible to confirm the absolute correctness.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate description of the proposed experimental desalination system and the role of IoT technology in automating and controlling this process. The answer is comprehensive, covering all aspects of the query, and does not contain any errors or inaccuracies.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hãy liệt kê các thông số đo lường khí hậu được ghi nhận tại địa điểm "Sông Cổ Chiên - Châu Thành (Cầu Rạch Gốc)" vào ngày "8/1/2023" theo dữ liệu trong tệp testing.json.</t>
+          <t>Theo Chỉ thị 04/CT–TTg ngày 22/01/2020 của Thủ tướng Chính phủ, hãy nêu các giải pháp cấp bách đã được đề xuất để phòng, chống hạn hán, thiếu nước và xâm ngập mặn? Hãy đưa ra các ví dụ cụ thể về tình hình thiếu nước ở các tỉnh miền Tây năm 2020.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa bất kỳ dữ liệu nào về các thông số đo lường khí hậu tại địa điểm "Sông Cổ Chiên - Châu Thành (Cầu Rạch Gốc)" vào ngày "8/1/2023" theo dữ liệu trong tệp testing.json.</t>
+          <t>Chỉ thị 04/CT–TTg ngày 22/01/2020 của Thủ tướng Chính phủ đã được ban hành để triển khai các giải pháp cấp bách phòng, chống hạn hán, thiếu nước, xâm ngập mặn. Tuy nhiên, văn bản không cung cấp chi tiết về các giải pháp cụ thể nào đã được đề xuất.
+Về tình hình thiếu nước ở các tỉnh miền Tây năm 2020, theo Tổng cục Thủy lợi (Bộ Nông nghiệp và Phát triển Nông thôn), cập nhật đến ngày 10/04/2020, hạn hán, xâm nhập mặn tại ĐBSCL gây thiệt hại nặng nề khiến khoảng 79.200 hộ dân đang gặp khó khăn, thiếu nước sinh hoạt. Cụ thể, Bến Tre có 12.700 hộ, Sóc Trăng: 19.000 hộ, Kiên Giang: 11.300 hộ, Cà Mau: 17.500 hộ, Bạc Liêu: 3.300 hộ, Long An: 7.900 hộ, Trà Vinh: 6.000 hộ.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and correct. It directly addresses the user's query and states that there is no available data for the specified location and date in the testing.json file.</t>
+          <t>The generated answer is relevant and mostly correct. It accurately refers to the directive and provides specific examples of the water shortage situation in the Western provinces in 2020. However, it does not provide the urgent solutions proposed in the directive, which was part of the user's query.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Trong tệp testing.json, địa điểm nào có nồng độ muối (Salinity) cao nhất vào ngày "8/1/2023" và thông số đó là bao nhiêu?</t>
+          <t>Trình bày về quá trình nghiên cứu xâm nhập mặn và độ mặn từ những năm 1960. Hãy nêu rõ các dự án, công trình nghiên cứu liên quan và phương pháp thống kê được sử dụng. Đồng thời, hãy phân tích về tình hình độ mặn tại các trạm đo mặn ở tỉnh Bến Tre và so sánh độ mặn giữa các năm từ 2000 đến 2016.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp dữ liệu về nồng độ muối (Salinity) ở bất kỳ địa điểm nào vào ngày "8/1/2023".</t>
+          <t>Rất tiếc, thông tin trong ngữ cảnh không cung cấp chi tiết về quá trình nghiên cứu xâm nhập mặn và độ mặn từ những năm 1960, các dự án, công trình nghiên cứu liên quan và phương pháp thống kê được sử dụng. Tuy nhiên, nó cho biết rằng trong những năm 2000, 2001, 2003, 2006, và 2008, độ mặn đã giảm đáng kể so với những năm sau đó như 2013, 2015, và 2016. Năm 2016 được ghi nhận là năm có xâm nhập mặn lớn nhất, với giá trị lớn hơn trung bình đến 8‰ ở tất cả các trạm, mức mặn có lúc lên tới 25.000 mg/l. 
+Phạm Việt Hoà và đồng nghiệp tại Viện Địa Lý Tài Nguyên TP.HCM đã nghiên cứu phương pháp đánh giá hạn mặn bằng viễn thám, từ đó lập nên bản đồ phân vùng xâm nhập mặn, mức độ và diễn biến xâm nhập mặn tỉnh Bến Tre được xây dựng từ công nghệ viễn thám đa tầng, đa độ phân giải, đa thời gian. 
+Tại tỉnh Bến Tre, độ mặn tại cảng cá Bình Đại (huyện Bình Đại) từ 26–29‰; tại xã An Thuận (huyện Thạnh Phú), mặn giao động từ 25–28‰; tại Tiệm Tôm (huyện Ba Tri), độ mặn lên đến 27–30‰. Độ mặn 4‰ đã xâm nhập vào đất liền cách cửa sông khoảng 48–68 km, qua địa bàn các xã: Tân Thạch, Tiên Long (huyện Châu Thành); Long Thới, Tân Thiềng (huyện Chợ Lách). Độ mặn 1‰ xâm nhập vào đất liền cách cửa sông từ 63–83 km, qua địa bàn các xã Phú Túc (huyện Châu Thành), Vĩnh Bình (huyện Chợ Lách).</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3219,78 +3189,78 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and seems correct, but without a reference answer or the actual data from the 'testing.json' file, it's impossible to confirm its absolute correctness. The bot appropriately communicates that it cannot provide the requested information due to lack of data.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed response about the research process on salt intrusion and salinity since the 1960s. It also mentions the statistical methods used, the salinity situation at the salinity measurement stations in Ben Tre province, and compares the salinity between the years 2000 to 2016. However, it does not provide specific projects and research works related to the topic, which was asked in the user query. Therefore, it is not fully correct.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hãy liệt kê các thông số môi trường được ghi nhận tại địa điểm "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" vào ngày "8/1/2023".</t>
+          <t>Theo nghiên cứu của Phạm Việt Hoà và cộng sự, năm nào có độ xâm nhập mặn lớn nhất và giá trị mặn lúc đó lên tới bao nhiêu mg/l?</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa các thông số môi trường tại địa điểm "Sông Long Toàn - TX. Duyên Hải (Cầu Long Toàn)" vào ngày "8/1/2023".</t>
+          <t>Theo nghiên cứu của Phạm Việt Hoà và cộng sự, năm 2016 là năm có độ xâm nhập mặn lớn nhất. Giá trị mặn lúc đó có thể lên tới 25.000 mg/l.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and it seems correct, but without a reference answer, it's hard to confirm its absolute correctness. The bot appropriately communicates that it doesn't have the specific environmental data for the requested location and date.</t>
+          <t>The generated answer is relevant and appears to be correct, providing specific information in response to the user's query about the year with the highest salt intrusion and the salinity value at that time.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Theo dữ liệu trong tệp, địa điểm nào có nồng độ muối (Salinity) cao nhất vào ngày "8/1/2023"?</t>
+          <t>Theo ghi nhận của Đài Khí tượng Thủy văn tỉnh Bến Tre, độ mặn ở cảng cá Bình Đại, xã An Thuận và Tiệm Tôm lần lượt là bao nhiêu?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dữ liệu trong tệp không cung cấp thông tin cụ thể về nồng độ muối (Salinity) tại bất kỳ địa điểm nào vào ngày "8/1/2023".</t>
+          <t>Độ mặn tại cảng cá Bình Đại là từ 26–29‰, tại xã An Thuận là từ 25–28‰ và tại Tiệm Tôm là từ 27–30‰.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and correct. It accurately responds to the user's query by stating that the file does not provide specific information about the salinity at any location on the date "8/1/2023".</t>
+          <t>The generated answer is relevant and appears to be correct, providing specific salinity levels for each of the locations mentioned in the user's query.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hãy liệt kê các thông tin về môi trường nước tại "Sông Vinh Kim - Cầu Ngang" vào ngày "8/4/2023" theo dữ liệu trong tệp.</t>
+          <t>Hãy liệt kê các biện pháp ngắn hạn mà MTTQ Việt Nam và các tổ chức thành viên đã thực hiện để ứng phó với tình hình hạn mặn từ đầu năm 2020 đến nay?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về môi trường nước tại "Sông Vinh Kim - Cầu Ngang" vào ngày "8/4/2023".</t>
+          <t>MTTQ Việt Nam và các tổ chức thành viên đã thực hiện nhiều biện pháp ngắn hạn để ứng phó với tình hình hạn mặn từ đầu năm 2020 đến nay. Các biện pháp này bao gồm việc vận động các tổ chức, cá nhân trong và ngoài tỉnh hỗ trợ bồn trữ nước, máy lọc nước, nước uống, nước ngọt để tặng cho người dân khắc phục hạn mặn. Ủy ban MTTQ Việt Nam tỉnh đã tiếp nhận, phân phối các nguồn lực hỗ trợ của các tổ chức, cá nhân trong và ngoài tỉnh đến người dân trên địa bàn tỉnh khắc phục hạn mặn. Các nguồn lực hỗ trợ này bao gồm 1.653 bồn trữ nước; 8.600 bình nước uống các loại, hàng trăm m3 nước ngọt.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3300,19 +3270,19 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and it seems correct, but without a reference answer or additional context, it's hard to confirm its absolute correctness.</t>
+          <t>The generated answer is relevant and provides a detailed response to the user's query about the short-term measures taken by MTTQ Vietnam and its member organizations to deal with the salinity situation from the beginning of 2020 to now. It loses half a point for not being as specific as it could be about the exact measures taken.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Theo dữ liệu trong tệp, địa điểm nào có nhiệt độ cao nhất vào ngày "8/4/2023" và nhiệt độ đó là bao nhiêu?</t>
+          <t>Tỉnh Bến Tre đã thực hiện những biện pháp nào để ứng phó với tình hình hạn mặn trong dài hạn?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dữ liệu trong tệp không cung cấp thông tin cụ thể về nhiệt độ cao nhất vào ngày "8/4/2023" tại bất kỳ địa điểm nào.</t>
+          <t>Tỉnh Bến Tre đã thực hiện một số biện pháp dài hạn để ứng phó với tình hình hạn mặn. Cụ thể, họ đã nghiên cứu và xây dựng 10 đập tạm trữ nước, nạo vét 260 km tuyến kênh nội đồng; vận hành hồ chứa nước ngọt Kênh Lấp, huyện Ba Tri trữ trên 800.000 m3 nước; và lắp đặt và vận hành tối đa công suất các hệ thống lọc mặn RO.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3322,66 +3292,5647 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and seems correct, but without a reference answer or the data file, it's impossible to confirm its accuracy.</t>
+          <t>The generated answer is relevant and provides specific measures that Bến Tre province has taken to deal with long-term salinity, such as building temporary dams, dredging channels, operating freshwater reservoirs, and maximizing the capacity of RO desalination systems. However, without a reference answer, it's hard to confirm the absolute correctness of these measures.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hãy liệt kê các thông số môi trường được ghi nhận tại địa điểm "HTX nghêu Thành Đạt - Hiệp Thạnh - TX. Duyên Hải" vào ngày "8/4/2023".</t>
+          <t>Theo nội dung trong bài, hãy mô tả những khó khăn mà công nghệ xử lý nước nhiễm mặn phải đối mặt ở khu vực đồng bằng sông Cửu Long, đặc biệt là Bến Tre?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa bất kỳ thông tin nào về các thông số môi trường được ghi nhận tại địa điểm "HTX nghêu Thành Đạt - Hiệp Thạnh - TX. Duyên Hải" vào ngày "8/4/2023".</t>
+          <t>Công nghệ xử lý nước nhiễm mặn ở khu vực đồng bằng sông Cửu Long, đặc biệt là Bến Tre, đối mặt với nhiều khó khăn. Đặc trưng độ mặn của Bến Tre rất phức tạp do ảnh hưởng của điều kiện thời tiết, lưu lượng của sông thượng nguồn đổ về, và ảnh hưởng hạn mặn theo từng năm, dẫn đến độ mặn muối biến thiên liên tục từ nhỏ 4000 mg/l đến rất mặn 35000 mg/l. Điều này gây khó khăn lớn cho tất cả các công nghệ xử lý nước nhiễm mặn có thể hoạt động vận hành ổn định. Hệ thống với chất lượng mặn đầu vào biến thiên sẽ làm giảm tuổi thọ, giảm công suất thiết kế, lãng phí về năng lượng vận hành và yêu cầu người vận hành hệ thống phải có chuyên môn cao để xử lý hiệu quả. Các công nghệ khử mặn hiện tại hầu hết là nhập ngoại và phụ thuộc rất lớn vào nhà sản xuất về công năng và linh kiện. Việc tắc nghẽn màng khi vận hành lọc RO là một vấn đề tồn tại đến hiện nay và làm giá thành hệ thống lọc mặn RO tăng cao, cùng với việc tiêu tốn rất nhiều năng lượng khi vận hành hệ thống lọc RO.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query and it is correct in stating that it doesn't have the specific information requested. However, it could have been more helpful by suggesting ways to find the requested information.</t>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the challenges faced by desalination technology in the Mekong Delta region, especially in Ben Tre. It covers various aspects such as the complex salinity levels, the impact of weather conditions, the variability of upstream river flow, and the dependence on foreign technology. The answer also mentions the technical difficulties in operating the system and the high energy consumption. However, it could have been more concise.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>So sánh nồng độ muối (Salinity) và nhiệt độ (Temperature) tại các địa điểm "Cống La Bang - Đôn Châu - Duyên Hải" và "Bến đò Phước Thiện - Đông Hải - Duyên Hải" vào ngày "8/4/2023".</t>
+          <t>Tại sao việc lựa chọn loại công nghệ xử lý nước mặn phù hợp với điều kiện, hoàn cảnh và mục tiêu ứng dụng ở mỗi vùng và lãnh thổ lại quan trọng?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Xin lỗi, nhưng thông tin được cung cấp không chứa dữ liệu về nồng độ muối (Salinity) và nhiệt độ (Temperature) tại các địa điểm "Cống La Bang - Đôn Châu - Duyên Hải" và "Bến đò Phước Thiện - Đông Hải - Duyên Hải" vào ngày "8/4/2023".</t>
+          <t>Việc lựa chọn loại công nghệ xử lý nước mặn phù hợp với điều kiện, hoàn cảnh và mục tiêu ứng dụng ở mỗi vùng và lãnh thổ quan trọng vì các vùng và lãnh thổ có sự khác nhau về thổ nhưỡng, độ mặn của nước đầu vào và điều kiện tự nhiên.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user query, but it does not provide the specific information requested. However, it correctly states that the requested data is not available, which is a valid response in the absence of the specific data.</t>
+          <t>The generated answer is relevant and mostly correct. It accurately explains why choosing the right desalination technology for each region and territory is important, considering the differences in soil, salinity of the input water, and natural conditions. However, it could have been more comprehensive by including factors such as cost, energy efficiency, and environmental impact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Hãy liệt kê một số công nghệ khử mặn thường được sử dụng mà bạn biết từ bài đọc và giải thích về ưu điểm và hạn chế của chúng.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Công nghệ khử mặn thường được sử dụng bao gồm chưng cất nén hơi (vapor compression distillation), thẩm thấu ngược (RO), UF–NF, FO–RO, FO–OMBR, FDFO–NF và công nghệ màng lọc như siêu lọc, màng điện phân. 
+Công nghệ màng lọc đang trở nên phổ biến hơn ở nhiều khu vực do mức tiêu thụ năng lượng phù hợp, ít ảnh hưởng môi trường và khả năng ứng dụng linh hoạt. Một số công nghệ màng bao gồm siêu lọc, màng điện phân, và thẩm thấu ngược đã được phát triển để đáp ứng nhu cầu nước ngọt nhiều vùng trên thế giới.
+Tuy nhiên, việc lựa chọn loại công nghệ xử lý nước mặn phù hợp với điều kiện, hoàn cảnh và mục tiêu ứng dụng ở mỗi vùng và lãnh thổ là rất quan trọng do sự khác nhau về thổ nhưỡng, độ mặn của nước đầu vào và điều kiện tự nhiên.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive list of desalination technologies. It also explains the advantages and limitations of these technologies. However, it could have been more specific about the advantages and limitations of each technology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Theo dự đoán, lượng nước cung cấp từ các công nghệ khử mặn sẽ đạt đến mức nào vào năm 2050? Hãy nêu rõ nguồn cung cấp nước hiện tại và so sánh với dự đoán.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp dự đoán về lượng nước sẽ được cung cấp từ các công nghệ khử mặn vào năm 2050. Tuy nhiên, nguồn cung cấp nước hiện tại được mô tả là đang gặp khó khăn do tình trạng ngập mặn ảnh hưởng đến 10/13 tỉnh trong khu vực đồng bằng sông Cửu Long. Các nhà máy cấp nước hiện tại chưa đáp ứng được yêu cầu về khử mặn, dẫn đến tình trạng khan hiếm nước ngọt. Ngoài ra, lượng nước ngầm khai thác cho sinh hoạt và dịch vụ liên tục tăng hàng năm, với tổng khối lượng nước sinh hoạt năm 2008 là hơn 2.5 triệu m3/năm.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of the current water supply situation. However, it does not provide a prediction for the amount of water to be supplied by desalination technologies in 2050, which was part of the user's question. Therefore, it is not fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hãy liệt kê một số công nghệ màng lọc nước được nêu trong bài viết và giải thích tại sao chúng lại trở nên phổ biến?</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Một số công nghệ màng lọc nước được nêu trong bài viết bao gồm siêu lọc, màng điện phân, và thẩm thấu ngược. Chúng trở nên phổ biến do mức tiêu thụ năng lượng phù hợp, ít ảnh hưởng môi trường và khả năng ứng dụng linh hoạt.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and fully correct. It lists some water filtration technologies mentioned in the article and explains why they have become popular.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Theo bài viết, những tiêu chí nào cần được xem xét khi lựa chọn công nghệ khử mặn phù hợp cho khu vực Bến Tre và đồng bằng sông Cửu Long?</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Khi lựa chọn công nghệ khử mặn phù hợp cho khu vực Bến Tre và đồng bằng sông Cửu Long, các tiêu chí cần xem xét bao gồm: khả năng đáp ứng yêu cầu về khử mặn để cung cấp đủ nước sinh hoạt cho người dân; tính tiết kiệm năng lượng; khả năng tự động hoá và kiểm soát quá trình xử lý nước; và tính khả thi trong việc chuyển giao công nghệ đến các khu vực có nguồn nhân lực hạn chế. Đặc biệt, trong bối cảnh biến đổi khí hậu, việc lựa chọn công nghệ cũng cần phải xem xét tình hình độ mặn phức tạp biến thiên liên tục, và nhu cầu ứng dụng các công nghệ điều khiển tự động.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive list of criteria to consider when choosing a desalination technology for the specified region. It also takes into account the context of climate change, which is an important factor in such decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hãy mô tả những tiềm năng của công nghệ lai trong việc cải thiện và tối ưu công nghệ khử mặn, giảm thiểu tiêu thụ năng lượng và chi phí vận hành sản xuất. Đưa ra ví dụ về các loại công nghệ có thể kết hợp trong công nghệ lai.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Công nghệ lai là loại công nghệ kết hợp nhiều loại công nghệ khác nhau, có tiềm năng phát triển trong việc cải thiện và tối ưu công nghệ khử mặn, giảm thiểu tiêu thụ năng lượng và chi phí vận hành sản xuất. Công nghệ lai có thể giúp tối ưu hóa hiệu suất, giảm độ phức tạp khi vận hành và tiêu hao vật tư, giúp chọn lựa phù hợp hơn trong các tình huống cụ thể. Ví dụ về các loại công nghệ có thể kết hợp trong công nghệ lai bao gồm màng lọc RO kết hợp màng lọc nano (NF), Lọc nước thẩm thấu tiếp (FO), màng siêu lọc (UF), màng lọc sinh học MBR.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and mostly correct. It accurately describes the potential of hybrid technology in improving and optimizing desalination technology, reducing energy consumption and operating costs. It also provides examples of technologies that can be combined in hybrid technology. However, it could be more detailed in explaining how these technologies work together in a hybrid system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Công nghệ RO có những ưu điểm gì khi áp dụng trong điều kiện thực tế? Hãy phân tích về khả năng khử mặn, độ pH, nhiệt độ hoạt động, công suất lọc và khả năng thay thế thiết bị hỗ trợ.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Công nghệ RO có khả năng khử mặn với độ sai lượng muối đầu vào rộng, cho phép nó hoạt động hiệu quả trong nhiều điều kiện khác nhau. Độ pH của nước sau khi qua RO thường ở mức trung tính, phù hợp với tính chất nước địa phương. Nhiệt độ hoạt động của công nghệ RO cũng rất linh hoạt, không yêu cầu môi trường cụ thể. Về công suất lọc, công nghệ RO có thể hoạt động ở nhiều mức độ mặn khác nhau, và với độ mặn thấp, công suất lọc có thể được nâng cao. Đối với việc thay thế thiết bị hỗ trợ, các thiết bị thay thế dễ dàng tìm kiếm do quá trình thương mại hoá rộng rãi ở Việt Nam.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive analysis of the advantages of RO technology in real-world conditions. It covers all the points asked by the user, including desalination ability, pH level, operating temperature, filtration capacity, and the ease of replacing supporting equipment. However, it could have provided more specific details or examples to support its points.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Hãy mô tả sự khác biệt về tiết kiệm năng lượng giữa hệ thống thẩm thấu ngược RO mạch kín (CCRO) và RO thông thường dựa trên nghiên cứu đã được thực hiện.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Hệ thống thẩm thấu ngược RO mạch kín (CCRO) đã cho thấy tiết kiệm năng lượng đáng kể so với RO thông thường. Cụ thể, CCRO giảm tiêu thụ năng lượng khoảng 37% so với RO thông thường, dẫn đến việc tiết kiệm tổng cộng được 64% năng lượng. Tuy nhiên, quy trình này chỉ được thực hiện ở quy mô thí nghiệm và chưa được thương mại hóa.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and provides a detailed comparison between the energy savings of the Closed Circuit Reverse Osmosis (CCRO) system and regular RO based on conducted research. It also mentions the experimental scale of the process, which adds to the completeness of the answer. However, without a reference answer, it's hard to confirm the exact figures provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, công nghệ RO đang được sử dụng như thế nào tại Việt Nam và những khó khăn nào mà công nghệ này đang gặp phải?</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Công nghệ RO (thẩm thấu ngược) đang được sử dụng rộng rãi tại Việt Nam, chiếm 61% thị phần. Công nghệ này thường được áp dụng trong các sản phẩm nhập khẩu thương mại với quy mô nhỏ, phổ biến nhất là quy mô hộ gia đình. Tuy nhiên, công nghệ RO đang gặp phải một số khó khăn. Một trong những trở ngại lớn là chi phí giá thành thiết bị. Hầu hết các nghiên cứu khử mặn tại Việt Nam đều ở quy mô nhỏ dạng phòng thí nghiệm và hầu như chưa có áp dụng quy mô thực nghiệm hay quy mô tập trung hoặc tích hợp các công nghê tiên tiến.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how RO technology is being used in Vietnam and the challenges it faces. It could be improved by providing more specific examples of the difficulties, but overall it is a very good response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu được thực hiện tại trung tâm Phát triển công nghệ cao ĐH Nguyễn Tất Thành, hãy mô tả quy trình khử mặn được đề xuất, bao gồm các bước chính và các thiết bị được sử dụng.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Quy trình khử mặn được thực hiện tại trung tâm Phát triển công nghệ cao ĐH Nguyễn Tất Thành bắt đầu từ hệ thống nước lợ đầu vào, thông qua đường ống được bơm lên hệ tiền xử lý để khử bớt các tạp chất và giảm chỉ số SDI thấp hơn 5. Sau đó, nước được bơm qua hệ thống lọc RO để tiến hành khử mặn. Nước đầu ra khi đạt yêu cầu về độ mặn sẽ theo đường ống qua thiết bị khử trùng UV trước khi vào bể chứa nước thành phẩm. Để bảo đảm hệ thống hoạt động ổn định và tránh tình trạng bị nghẽn, tắc màng và tăng tuổi thọ hoạt động của màng, hệ thống cũng kết nối với hệ châm hoá chất chống cáu cặn màng tự động và hệ thống rửa lọc màng tự động CIP khi chỉ số TMP tăng cao.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the desalination process proposed at the Nguyen Tat Thanh University's High-Tech Development Center, including the main steps and equipment used. It does not contain any mistakes or inaccuracies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong bài nghiên cứu, hãy giải thích tầm quan trọng của việc ứng dụng công nghệ điều khiển tự động trong quá trình khử mặn, đặc biệt trong giai đoạn chuyển đổi số hiện nay.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ứng dụng công nghệ điều khiển tự động trong quá trình khử mặn có tầm quan trọng lớn, đặc biệt trong giai đoạn chuyển đổi số hiện nay. Công nghệ này cho phép theo dõi và quản lý thời gian hoạt động của bơm, áp suất tác động lên màng, và các thông số cài đặt khác. Hệ thống có thể tự động nhắn tin hoặc cảnh báo từ xa đến nhân viên bảo hành, bảo trì, hoặc tự động chạy chế độ làm sạch. Các thông số về thời gian, điều kiện vận hành có thể được thay đổi hoặc cài đặt từ xa thông qua hệ thống server trên giao diện web hoặc app. 
+Ngoài ra, ứng dụng IoT tích hợp các thiết bị cảm biến đo các thông số môi trường cho phép giám sát, thu thập thông số môi trường trên diện rộng. Điều này cho phép dự báo, lập kế hoạch điều khiển cho điều kiện hoạt động tối ưu và phù hợp với công suất sử dụng. Hệ thống được quản lý từ xa, mọi lúc, mọi nơi. Người sử dụng có thể xem tình trạng hoạt động của hệ thống, cũng như điều khiển các chế độ hoạt động qua các thiết bị điện tử như laptop, điện thoại thông minh. Điều này giúp hạn chế tối đa sự cố xảy ra trong giai đoạn vận hành, đảm bảo chất lượng và hiệu suất lọc luôn được giám sát, và đảm bảo tính khách quan trong đánh giá tổng thể hệ thống xử lý nước nhiễm mặn.</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the importance of applying automatic control technology in the desalination process, especially in the current digital transition phase. It covers various aspects such as remote monitoring, predictive planning, and user control, which are all crucial in the context of the question. The answer is also well-structured and clear, making it easy to understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Hãy mô tả quy trình xử lý nước sau khi đạt yêu cầu về độ mặn trong hệ thống khử mặn được mô tả trong bài viết.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Sau khi nước đạt yêu cầu về độ mặn, nước sẽ được bơm qua thiết bị khử trùng UV trước khi vào bể chứa nước thành phẩm. Để đảm bảo hệ thống hoạt động ổn định và tránh tình trạng bị nghẽn, tắc màng và tăng tuổi thọ hoạt động của màng, hệ thống cũng được kết nối với hệ châm hoá chất chống cáu cặn màng tự động và hệ thống rửa lọc màng tự động CIP khi chỉ số TMP tăng cao.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and provides a detailed description of the process after the water meets the salinity requirements in a desalination system. It includes the use of UV disinfection, storage, and maintenance procedures to ensure the system's stability and longevity. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Theo bài viết, hãy nêu các ưu điểm của việc áp dụng IoT trong hệ thống khử mặn so với hệ thống SCADA.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Việc áp dụng IoT trong hệ thống khử mặn mang lại nhiều ưu điểm so với hệ thống SCADA. Một trong những ưu điểm lớn nhất là IoT có thể cung cấp các giải pháp không dây với tính linh hoạt mà SCADA không thể cung cấp. IoT cho phép theo dõi, quản lý thời gian chạy của bơm, áp suất tác động lên màng, các thông số cài đặt, và có thể tự động nhắn tin hoặc cảnh báo từ xa đến cho nhân viên bảo hành, bảo trì. Ngoài ra, IoT còn cho phép giám sát, thu thập thông số môi trường trên diện rộng, dự báo, lập kế hoạch điều khiển cho điều kiện hoạt động tối ưu và phù hợp với công suất sử dụng. Hệ thống được quản lý từ xa, mọi lúc, mọi nơi, và người sử dụng có thể xem tình trạng hoạt động của hệ thống, cũng như điều khiển các chế độ hoạt động qua các thiết bị điện tử như laptop, điện thoại thông minh.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the advantages of using IoT in desalination systems compared to SCADA systems. It covers various aspects such as flexibility, remote monitoring, environmental data collection, and remote control, which are all key benefits of IoT. The answer is also well-structured and clear, making it easy to understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Hãy mô tả sơ đồ khối hệ thống điều khiển tích hợp IoT được đề xuất trong bài viết, bao gồm vai trò của IoT gateway và cách chia hệ IoT thành các cụm chính.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Sơ đồ khối hệ thống điều khiển tích hợp IoT được đề xuất trong bài viết có IoT gateway đóng vai trò trung tâm. IoT gateway có khả năng kết nối với bộ điều khiển trung tâm (PLC), và cũng có khả năng truyền nhận không dây với cảm biến, cơ cấu chấp hành. Ngoài ra, nó còn có khả năng truyền nhận dữ liệu lên server. Hệ IoT được chia thành 3 cụm chính, mỗi cụm sẽ được giải quyết tương ứng với các nội dung khác nhau.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and mostly correct. It accurately describes the role of the IoT gateway and how the IoT system is divided into main clusters. However, it lacks some specific details about what each cluster is responsible for.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Trong mô hình hệ thống xử lý nước nhiễm mặn đề xuất, hãy mô tả vị trí và chức năng của các cảm biến được sử dụng, bao gồm cảm biến mực nước, cảm biến đo độ mặn, cảm biến lưu lượng nước, cảm biến đo lưu lượng nước dạng cơ, cảm biến đo áp suất dạng cơ và cảm biến Relay áp suất.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Trong mô hình hệ thống xử lý nước nhiễm mặn, các cảm biến được sử dụng như sau:
+- 2 cảm biến mực nước (LS) được đặt ở bể chứa nước thô và bể chứa nước thành phẩm để đo mực nước.
+- 2 cảm biến đo độ mặn (EC) được sử dụng, một để đo độ mặn nước đầu vào được đặt sau bơm cấp lọc và một để đo độ mặn nước đầu ra được gắn sau hệ thống lọc RO.
+- 2 cảm biến lưu lượng nước (FIT) được đặt trước và sau hệ thống RO để đo lưu lượng nước đầu vào và đo lưu lượng nước đầu ra, từ đó tính ra hiệu suất thu hồi nước của hệ thống.
+- 1 cảm biến lưu lượng nước đầu vào đặt ngay trước bơm cao áp, 1 cảm biến lưu lượng nước đầu ra đặt ngay sau hệ thống lọc RO.
+- Có 3 cảm biến đo lưu lượng nước dạng cơ (FL) và 7 cảm biến đo áp suất dạng cơ (PG) được sử dụng trong hệ thống.
+- 1 cảm biến Relay áp suất (PS) trả về tín hiệu ON/OFF cho biết trạng thái áp suất là cao hay thấp so với áp suất được cài đặt.
+Trạng thái của máy bơm và máy nén khí được xác định thông qua cảm biến do dòng điện đo trực tiếp trên dòng điện cấp cho máy bơm và máy nén khí đó.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant and accurate to the user query. It provides a detailed description of the location and function of each sensor used in the proposed desalination system model, including water level sensors, salinity sensors, water flow sensors, mechanical water flow sensors, mechanical pressure sensors, and pressure relay sensors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Trong hệ thống xử lý nước mặn, máy bơm và máy nén khí có thể ở trong ba trạng thái nào? Trạng thái "bất thường" được xác định như thế nào?</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Trong hệ thống xử lý nước mặn, máy bơm và máy nén khí có thể ở trong ba trạng thái: chạy, dừng và bất thường. Trạng thái "bất thường" xảy ra khi hệ thống yêu cầu máy bơm và máy nén khí chạy, nhưng qua kiểm tra cảm biến dòng điện tiêu thụ, dòng điện nằm ngoài vùng giá trị cho phép (giá trị này có thể cài đặt). Nguyên nhân có thể là máy bơm hoặc máy nén khí bị hư hoặc bị chạy quá tải.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the three states of the pump and air compressor in a saltwater treatment system, as well as how the "abnormal" state is defined.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hãy mô tả hai chế độ vận hành chính của hệ thống xử lý nước mặn và cách thức người vận hành có thể thay đổi giữa các chế độ này.</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Hệ thống xử lý nước mặn có hai chế độ vận hành chính: chế độ tự động và chế độ chạy bằng tay. Trong chế độ tự động, tất cả hệ thống cơ cấu và thiết bị tự vận hành, bao gồm các bơm, các van, máy nén khí, và những thiết bị khác. Trong chế độ chạy bằng tay, các cơ cấu, thiết bị không tự động chạy. Người vận hành có thể bật hoặc tắt bơm, van hoặc máy nén khí bất kì thông qua màn hình người dùng, hoặc thông qua website. Người vận hành cũng có thể tắt chức năng chạy tự động của riêng một thiết bị nào đó trong khi vẫn giữ nguyên hoạt động của những thiết bị khác. Việc thay đổi chế độ chạy này có thể thực hiện tự động khi điều kiện hoạt động đầu vào của nhà máy thay đổi. Hoặc người vận hành cũng có thể chủ động thay đổi chế độ chạy từ xa thông qua hệ thống web hoặc app trên điện thoại của hệ thống IoT.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate description of the two main operating modes of a saltwater treatment system and how an operator can switch between these modes. It does not contain any mistakes or inaccuracies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh hiện trạng độ mặn biến thiên phức tạp và nguồn nhân lực địa phương hạn chế, hãy giải thích tại sao việc ứng dụng IoT trong việc vận hành và điều khiển hệ thống xử lý nước nhiễm mặn lại trở nên cấp thiết?</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Ứng dụng IoT trong việc vận hành và điều khiển hệ thống xử lý nước nhiễm mặn trở nên cấp thiết vì nó cho phép theo dõi và quản lý thời gian chạy của bơm, áp suất tác động lên màng, và các thông số cài đặt khác. Hệ thống có thể tự động nhắn tin hoặc cảnh báo từ xa đến nhân viên bảo hành, bảo trì, hoặc tự động chạy chế độ làm sạch. Thông tin về thời gian và điều kiện vận hành có thể được thay đổi hoặc cài đặt từ xa thông qua hệ thống server trên giao diện web hoặc app. Điều này giúp giám sát và thu thập thông số môi trường trên diện rộng, dự báo và lập kế hoạch điều khiển cho điều kiện hoạt động tối ưu và phù hợp với công suất sử dụng. Hệ thống có thể được quản lý từ xa, mọi lúc, mọi nơi, giúp hạn chế tối đa sự cố xảy ra trong giai đoạn vận hành và đảm bảo chất lượng, hiệu suất lọc luôn được giám sát.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why the application of IoT in the operation and control of saline water treatment systems is urgent. It covers aspects such as remote monitoring and management, automatic alerts, and optimal operation planning, which are all crucial in the context of complex salinity conditions and limited local human resources.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Theo nội dung bài viết, công nghệ RO được lựa chọn để ứng dụng tại khu vực đồng bằng sông Cửu Long vì lý do gì? Hãy nêu rõ các ưu điểm của công nghệ này so với các công nghệ khác.</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Công nghệ RO được lựa chọn để ứng dụng tại khu vực đồng bằng sông Cửu Long vì nhiều lý do. Đầu tiên, công nghệ RO có khả năng khử mặn với độ sai lượng muối đầu vào rộng, phù hợp với điều kiện thực tế. Độ pH ở mức trung tính và nhiệt độ hoạt động của công nghệ này cũng phù hợp với tính chất nước địa phương. Thêm vào đó, công suất lọc của công nghệ RO đa dạng và có thể nâng cao công suất thêm khi độ mặn thấp. Các thiết bị thay thế cho các thiết bị hỗ trợ khi có sự cố cũng dễ dàng tìm kiếm do quá trình thương mại hoá rộng rãi ở Việt Nam. 
+Ngoài ra, công nghệ RO cũng có tiềm năng tiết kiệm năng lượng. Cụ thể, các nhà máy RO tiêu thụ khoảng 3,5–4,2 kWh trên mỗi m3 nước, trong đó hệ thống RO sử dụng trực tiếp 2,9–3,5 kWh và phần còn lại được sử dụng để bơm lấy nước cấp, tiền xử lý, và các hệ thống phụ trợ khác. Một số nghiên cứu đã áp dụng hệ thống thẩm thấu ngược RO mạch kín (CCRO) cho thấy tiết kiệm năng lượng đáng kể, CCRO giảm (~ 37%) so với RO thông thường, tiết kiệm tổng cộng được 64% năng lượng.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why RO technology is chosen for the Mekong Delta region. It also highlights the advantages of this technology compared to others, including its desalination capabilities, neutral pH level, operating temperature, diverse filtration capacity, and potential for energy saving. The answer is comprehensive and accurate, hence the perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Theo nội dung của tài liệu, hãy giải thích tầm quan trọng của việc khảo sát sự biến động độ mặn của khu vực ứng dụng trong việc thiết kế công suất và cải thiện hiệu quả kinh tế?</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Việc khảo sát sự biến động độ mặn của khu vực ứng dụng rất quan trọng trong việc thiết kế công suất và cải thiện hiệu quả kinh tế. Điều này giúp đưa ra các lựa chọn chính xác về thiết kế công suất, đảm bảo hiệu quả kinh tế tốt nhất. Ngoài ra, kết quả từ việc khảo sát này cũng là bước đầu của thử nghiệm công nghệ IOT ứng dụng trong hệ thống khử mặn, và là tư liệu để phát triển lên các hệ thống khử mặn quy mô tập trung trong tương lai.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and provides a detailed explanation of the importance of surveying salinity variations in the application area for capacity design and economic efficiency improvement. It also introduces additional information about the potential use of IoT technology in desalination systems, which is not directly asked in the query but could be considered as an added value. However, without a reference answer, it's hard to confirm the full correctness of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Đề tài nghiên cứu này đề cập đến việc sử dụng công nghệ IOT trong hệ thống khử mặn. Theo bạn, đây là bước đầu cho những ứng dụng nào khác của công nghệ IOT trong tương lai?</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Đề tài nghiên cứu này đề cập đến việc sử dụng công nghệ IOT trong hệ thống khử mặn, và đây là bước đầu cho việc phát triển các hệ thống khử mặn quy mô tập trung trong tương lai.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it discusses the potential future applications of IoT technology in desalination systems. However, it does not fully answer the user's question about other potential applications of IoT technology in the future, which is why it does not receive a higher score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Hãy mô tả vấn đề nước ngọt bị mặn hóa và tác động của nó đối với ngành nông nghiệp và sức khỏe con người.</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Nước ngọt bị mặn hóa, hay xâm nhập mặn, là một vấn đề nghiêm trọng đang diễn ra ở nhiều khu vực, đặc biệt là Đồng bằng sông Cửu Long. Điều này xảy ra khi nước biển dâng lên và xâm nhập vào các con sông và kênh đào, làm tăng độ mặn của nước ngọt. Vấn đề này càng trở nên phức tạp hơn khi mực nước biển dâng lên, làm giảm khả năng tiêu thoát nước ra biển và gây ngập úng tại nhiều khu vực.
+Xâm nhập mặn có tác động nghiêm trọng đến ngành nông nghiệp. Nó làm thay đổi môi trường nước từ ngọt sang mặn, ảnh hưởng đến sản xuất nông nghiệp và gây ra mâu thuẫn trong việc sử dụng nguồn nước giữa các hệ thống canh tác, đặc biệt là những khu vực tiếp giáp giữa mặn và ngọt. Điều này cũng tạo ra rủi ro lớn cho canh tác nông nghiệp ở vùng ven biển do tác động của biến đổi khí hậu và nước biển dâng.
+Về mặt sức khỏe con người, xâm nhập mặn cũng có tác động đáng kể. Ví dụ, cá tra có thể thích ứng tốt với sự xâm nhập mặn nếu nó không vượt quá một mức độ nhất định. Tuy nhiên, khi sống trong điều kiện có độ mặn tăng lên, cá tra phải sử dụng nhiều năng lượng hơn để biệt hóa các tế bào ở mang, tăng khả năng điều hòa áp suất thẩm thấu. Điều này dẫn đến sự giảm glucose máu, tăng số lượng hồng cầu và nồng độ hemoglobin.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the problem of freshwater salinization and its impact on agriculture and human health. It does not contain any noticeable mistakes. However, it could be improved by providing more specific examples or data to support the points made.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của Thorslund và cộng sự, họ đã đánh giá mức độ mặn và xu hướng mặn hóa ở bao nhiêu lưu vực sông phụ? Hãy liệt kê tên của các lưu vực sông chính mà họ đã nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Rất tiếc, thông tin trong văn bản không cung cấp chi tiết về nghiên cứu của Thorslund và cộng sự, cũng như số lượng và tên của các lưu vực sông mà họ đã nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and it is correct in the sense that it admits the lack of information to provide a detailed answer. However, it does not provide any additional information or attempt to answer the question in a more comprehensive way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu, các khu vực nào đã được khảo sát về mức độ mặn và những ảnh hưởng của con người đối với môi trường? Hãy liệt kê và giải thích tại sao chúng được chọn?</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Khu vực được khảo sát trong nghiên cứu là Huyện Ngã Năm thuộc tỉnh Sóc Trăng, Việt Nam. Khu vực này được chọn do nó giáp với tỉnh Bạc Liêu và Hậu Giang, là vùng chuyên sản xuất lúa có chất lượng cao nhưng đang bị ảnh hưởng bất lợi do tác động của biến đổi khí hậu. Hàng năm, Huyện bị ảnh hưởng bởi nước lũ từ Hậu Giang và nước mặn từ Bạc Liêu dọc theo tuyến kênh Quản Lộ Phụng Hiệp. Đặc biệt, nước mặn từ Bạc Liêu đã ảnh hưởng nghiêm trọng đến sản xuất nông nghiệp của Huyện. Tình hình xâm nhập mặn ngày càng trở nên nghiêm trọng từ năm 2005 đến 2012, ảnh hưởng đến hệ thống nông nghiệp của Huyện.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and provides a detailed explanation of the area surveyed for salinity levels and human impact on the environment. It explains why the area was chosen for the study, which aligns with the user's query. However, the user asked for multiple areas, and the generated answer only provided one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Theo kết quả nghiên cứu, mức độ mặn trung bình dài hạn ở phần lớn các lưu vực con được khảo sát là bao nhiêu? Điều này có ý nghĩa gì đối với việc sử dụng nước trong nông nghiệp?</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Rất tiếc, thông tin trong ngữ cảnh không cung cấp mức độ mặn trung bình dài hạn ở phần lớn các lưu vực con được khảo sát. Do đó, không thể đưa ra ý nghĩa của điều này đối với việc sử dụng nước trong nông nghiệp.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it does not provide a specific answer to the question. However, it correctly states that the information is not available, which is a valid response in the absence of specific data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của Thorslund và cộng sự năm 2021, họ đã sử dụng phương pháp nào để đánh giá sự khác biệt về đóng góp của từng yếu tố lái xe đối với các lớp tác động mặn khác nhau? Hãy giải thích về phương pháp này.</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Rất tiếc, thông tin trong ngữ cảnh không cung cấp chi tiết về nghiên cứu của Thorslund và cộng sự năm 2021, cũng như phương pháp mà họ đã sử dụng để đánh giá sự khác biệt về đóng góp của từng yếu tố lái xe đối với các lớp tác động mặn khác nhau.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of Thorslund and colleagues' 2021 study. However, it does not provide any specific information about the method they used, which was the main point of the user's question. Therefore, it is not fully correct or complete.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Theo kết quả nghiên cứu, yếu tố nào có đóng góp lớn hơn trong các lưu vực con có mức độ mặn từ Trung bình đến Cao? Hãy liệt kê và giải thích tại sao chúng lại có ảnh hưởng lớn đến mức độ mặn.</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Dựa trên thông tin được cung cấp, không thể xác định được yếu tố nào đóng góp lớn hơn trong các lưu vực con có mức độ mặn từ Trung bình đến Cao. Thông tin trong văn bản không đề cập đến các yếu tố cụ thể nào ảnh hưởng đến mức độ mặn.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and it is correct in stating that it cannot provide a specific answer due to lack of information. However, it could have been more helpful by providing general factors that could affect salinity levels.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, tác giả đã phát hiện ra mối quan hệ nào giữa độ mặn và khô hạn? Hãy giải thích mối quan hệ này dựa trên các thông tin từ bài đọc.</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Nghiên cứu cho thấy rằng độ mặn và khô hạn có mối quan hệ chặt chẽ. Cụ thể, tình hình xâm nhập mặn ngày càng trở nên nghiêm trọng, tăng về không gian, thời gian và nồng độ mặn từ năm 2005 đến 2012. Điều này đã ảnh hưởng nghiêm trọng đến sản xuất nông nghiệp, đặc biệt là sản xuất lúa. Nước mặn đã xâm nhập sâu vào nội đồng và hệ thống kênh trữ nước bên trong nội đồng, dẫn đến tình trạng nông dân không thể bơm nước vào ruộng. Điều này cho thấy rằng sự gia tăng độ mặn có thể gây ra tình trạng khô hạn, do nước mặn không thích hợp cho việc tưới tiêu và sản xuất nông nghiệp.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the relationship between salinity and drought, based on the information from the research. It loses half a point for not being as concise as it could be.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tác giả đã sử dụng bộ dữ liệu toàn cầu về khu vực khai thác mỏ để đánh giá điều gì? Hãy nêu rõ vai trò của bộ dữ liệu này trong nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Dữ liệu được cung cấp không đề cập đến việc tác giả sử dụng bộ dữ liệu toàn cầu về khu vực khai thác mỏ để đánh giá điều gì. Do đó, không thể xác định vai trò của bộ dữ liệu này trong nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and it is correct based on the information provided. However, it does not provide a detailed explanation or context, which could have made the answer more informative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của Thorslund và cộng sự năm 2021, họ đã sử dụng phương pháp nào để đánh giá tác động của các yếu tố con người liên quan đến nông nghiệp đối với mức độ mặn của nước? Hãy nêu rõ các phân tích bổ sung mà họ đã thực hiện để kiểm tra tính chắc chắn của kết quả.</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến nghiên cứu của Thorslund và cộng sự năm 2021, cũng như phương pháp mà họ đã sử dụng để đánh giá tác động của các yếu tố con người liên quan đến nông nghiệp đối với mức độ mặn của nước. Do đó, không thể cung cấp thông tin về các phân tích bổ sung mà họ đã thực hiện để kiểm tra tính chắc chắn của kết quả.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the research by Thorslund and colleagues in 2021. However, it does not provide any specific information about the methods used in the research or the additional analyses performed, stating that such information is not available. This is a limitation, but the response is still related to the query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Theo kết quả của nghiên cứu, phần trăm các lưu vực con có xu hướng mặn hóa tăng lên và giảm xuống trong giai đoạn nghiên cứu là bao nhiêu? Hãy nêu rõ các lưu vực sông có xu hướng mặn hóa tăng hoặc giảm đáng kể.</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin trong văn bản không cung cấp đủ chi tiết về phần trăm các lưu vực con có xu hướng mặn hóa tăng lên hoặc giảm xuống, cũng như không nêu rõ các lưu vực sông có xu hướng mặn hóa tăng hoặc giảm đáng kể.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and it is correct in stating that the information needed to answer the question is not provided. However, it could be improved by suggesting where the user might find the needed information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của Thorslund và cộng sự, yếu tố nào được xác định đóng vai trò quan trọng nhất trong việc dự đoán độ chính xác của mô hình RF đối với các lưu vực con đang trải qua quá trình mặn hóa? Hãy nêu rõ các biến số liên quan.</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Rất tiếc, nhưng thông tin được cung cấp không đề cập đến nghiên cứu của Thorslund và cộng sự, cũng như các yếu tố quan trọng trong việc dự đoán độ chính xác của mô hình RF đối với các lưu vực con đang trải qua quá trình mặn hóa.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the research of Thorslund and colleagues and the RF model. However, it does not provide the specific information asked for in the query, hence it is not fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Theo kết quả nghiên cứu, đâu là những biến số quan trọng cần xem xét khi dự đoán mức độ mặn, bất kể xu hướng mặn cơ bản là gì?</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Các biến số quan trọng cần xem xét khi dự đoán mức độ mặn bao gồm mực nước trên ruộng, mực nước thượng nguồn, dòng chảy không ổn định của chế độ triều, và thời gian mặn xâm nhập.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and fully correct. It provides a comprehensive list of factors to consider when predicting salinity levels, which directly addresses the user's query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, những vấn đề liên quan đến sự tăng mặn của nước ngọt có thể biến đổi như thế nào và ảnh hưởng như thế nào đến việc sử dụng nước tưới tiêu trong năm?</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Sự tăng mặn của nước ngọt do biến đổi khí hậu và nước biển dâng có thể gây ra thiếu hụt nguồn nước ngọt cung cấp cho hệ thống tưới tiêu, đặc biệt là ở các vùng ven biển. Điều này có thể gây ra sự mâu thuẫn nghiêm trọng trong việc sử dụng nguồn nước giữa các hệ thống canh tác, nhất là những khu vực tiếp giáp giữa mặn và ngọt. Ngoài ra, việc điều tiết nước còn phụ thuộc khá nhiều vào thời tiết, và việc điều tiết nước chưa được chủ động hoàn toàn. Khi mực nước biển dâng lên, việc tiêu tự chảy sẽ hết sức khó khăn, đặc biệt là vào các thời gian triều cường, gây ngập úng tại nhiều khu vực. Tuy nhiên, việc thay đổi lịch thời vụ và áp dụng phương pháp tưới tiết kiệm cho cây lúa có thể giảm thiểu được ảnh hưởng của việc thiếu nước do xâm nhập mặn.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how the salinization of freshwater can affect irrigation practices. It also suggests potential solutions to mitigate these effects. The answer is comprehensive and seems to be accurate, although without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã chỉ ra những hoạt động nông nghiệp cụ thể nào góp phần vào sự gia tăng mặn của nước ở các lưu vực con có mức độ mặn cao và xu hướng mặn tăng?</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nghiên cứu không chỉ ra hoạt động nông nghiệp cụ thể nào góp phần vào sự gia tăng mặn của nước ở các lưu vực con có mức độ mặn cao và xu hướng mặn tăng.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query. The user asked for specific agricultural activities that contribute to the increase in salinity, but the generated answer states that no specific activities have been identified, which does not answer the user's question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, hoạt động nông nghiệp, cụ thể là hoạt động tưới tiêu, đã gây ra những hậu quả gì đối với môi trường, đặc biệt là vấn đề nước mặn?</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Hoạt động nông nghiệp, cụ thể là hoạt động tưới tiêu, có thể gây ra nhiều hậu quả đối với môi trường, đặc biệt là vấn đề nước mặn. Một trong những hậu quả đó là sự xâm nhập mặn, làm gia tăng sự thay đổi môi trường nước giữa ngọt và mặn, ảnh hưởng đến sản xuất nông nghiệp. Điều này cũng gây ra sự mâu thuẫn nghiêm trọng trong việc sử dụng nguồn nước giữa các hệ thống canh tác, đặc biệt là ở những khu vực tiếp giáp giữa mặn và ngọt. Ngoài ra, việc mực nước biển dâng cao cũng làm giảm khả năng tiêu thoát nước ra biển, kéo theo mực nước các con sông trong nội địa dâng lên, gây ngập úng tại nhiều khu vực. Điều này cũng tạo ra rủi ro cho canh tác nông nghiệp ở vùng ven biển do tác động của biến đổi khí hậu và nước biển dâng.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the environmental consequences of agricultural activities, specifically irrigation, with a focus on the issue of saltwater. It correctly identifies several impacts, including saltwater intrusion, conflicts in water use among different farming systems, and risks to coastal agriculture due to climate change and rising sea levels. The answer could be slightly improved by providing more specific examples or data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Trong tương lai, yêu cầu về nước tưới tiêu dự kiến sẽ thay đổi như thế nào và điều này sẽ ảnh hưởng như thế nào đến quản lý nước ngọt mặn?</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Trong tương lai, nhu cầu về nước tưới tiêu dự kiến sẽ tăng lên do nhiệt độ trung bình tăng cao hơn so với hiện tại. Điều này dẫn đến việc tăng nhu cầu sử dụng nước cho cây lúa và làm tăng lượng nước bốc hơi, dẫn đến lượng nước bơm và số lần bơm cao hơn so với hiện tại. Đặc biệt, vào mùa khô, tình trạng thiếu hụt nguồn nước cung cấp tưới cho nông nghiệp sẽ trở nên nghiêm trọng hơn khi hạn hán kéo dài và xâm nhập mặn ngày càng tăng cao. Điều này đòi hỏi việc mở rộng kênh nội đồng và thay đổi lịch thời vụ để thích ứng với thực trạng xâm nhập mặn trong quá trình sản xuất nông nghiệp.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how future irrigation needs are expected to change and how this will affect freshwater management. The answer is comprehensive and accurate, but it could be slightly more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu trong tài liệu, những yếu tố nào được xem là có ảnh hưởng đến mức độ mặn của nước mặt? Hãy liệt kê và giải thích cách chúng tác động lên mức độ mặn của nước mặt.</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Có một số yếu tố được xem là có ảnh hưởng đến mức độ mặn của nước mặt. Đầu tiên, điều kiện thời tiết có thể tác động lên mức độ mặn. Thay đổi trong lượng mưa, nhiệt độ và gió có thể ảnh hưởng đến sự bay hơi và lưu lượng nước, từ đó thay đổi mức độ mặn. Thứ hai, lưu lượng của sông thượng nguồn đổ về cũng có thể làm thay đổi mức độ mặn. Nếu lưu lượng nước từ thượng nguồn giảm, mức độ mặn có thể tăng lên do nước biển xâm nhập vào. Thứ ba, hạn mặn cũng có thể làm thay đổi mức độ mặn. Trong những năm hạn mặn, mức độ mặn có thể tăng lên đáng kể. Cuối cùng, mực nước biển dâng cũng có thể làm tăng mức độ mặn, đặc biệt là trong các khu vực ven biển. Khi mực nước biển dâng, nước mặn có thể xâm nhập vào các con sông và kênh rạch, làm tăng mức độ mặn.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the factors that influence the salinity of surface water. It correctly identifies and explains the impact of weather conditions, upstream river flow, drought, and sea level rise on salinity levels.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Trong quá trình lựa chọn và xử lý dữ liệu về độ mặn của sông, tác giả đã sử dụng những tiêu chí nào để chọn ra các vùng nghiên cứu? Hãy mô tả quy trình này dựa trên thông tin trong tài liệu.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Tác giả đã thực hiện một số bước để chọn và xử lý dữ liệu về độ mặn của sông trong quá trình nghiên cứu. Đầu tiên, họ xác định khu vực nghiên cứu. Trong trường hợp này, khu vực được chọn là Huyện Ngã Năm, tỉnh Sóc Trăng, Việt Nam, một vùng sản xuất lúa chất lượng cao nhưng đang chịu ảnh hưởng bất lợi do tác động của biến đổi khí hậu. 
+Tiếp theo, họ tổng hợp và thu thập các số liệu liên quan đến việc xây dựng mô hình cân bằng nước. Điều này bao gồm việc xem xét tác động của nước lũ từ Hậu Giang và nước mặn từ Bạc Liêu, cũng như việc đánh giá tình hình xâm nhập mặn từ năm 2005 đến 2012.
+Sau đó, họ xây dựng mô hình, hiệu chỉnh và kiểm định mô hình. Điều này bao gồm việc xây dựng các kịch bản thích ứng với hiện trạng thiếu nước do xâm nhập mặn và đánh giá các tác động của điều kiện tự nhiên đến sự biến động nguồn nước tưới cho khu vực nghiên cứu trong tương lai.
+Cuối cùng, họ phân tích số liệu bằng cách tổng hợp, mã hóa, phân tích thống kê mô tả, so sánh nhóm đối tượng bằng phần mềm Microsoft Excel. Kết quả phân tích được lập thành bảng, biểu đồ phục vụ cho việc xếp hạng, phân tích.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the process used by the author to select and process data on river salinity. It does not contain any noticeable mistakes. However, without a reference answer, it's hard to confirm if all the details are correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, những yếu tố nào có thể gây ra tình trạng mặn hóa nước ngọt? Hãy liệt kê và giải thích cách mà chúng gây ra tình trạng mặn hóa.</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Có một số yếu tố có thể gây ra tình trạng mặn hóa nước ngọt. Đầu tiên, mực nước biển dâng cao có thể gây ra xâm nhập mặn, ảnh hưởng nghiêm trọng đến các dự án ngăn mặn. Khi mực nước biển dâng, chế độ sóng và dòng chảy ven bờ thay đổi, gây xói lở bờ và hệ thống đê biển, làm giảm khả năng tiêu thoát nước ra biển. Điều này kéo theo mực nước các con sông trong nội địa dâng lên, kết hợp với sự gia tăng dòng chảy lũ từ thượng nguồn, uy hiếp sự an toàn của các tuyến đê bao và bờ bao.
+Thứ hai, tác động của xâm nhập mặn cũng làm gia tăng sự thay đổi môi trường nước giữa ngọt, lợ mặn, gây ảnh hưởng đến sản xuất nông nghiệp. Điều này gây ra sự mâu thuẫn nghiêm trọng trong sử dụng nguồn nước giữa các hệ thống canh tác, nhất là những khu vực tiếp giáp giữa mặn và ngọt.
+Cuối cùng, việc tự ý chuyển đổi cơ cấu sử dụng đất nhanh chóng mà không chú ý đến diễn biến của điều kiện tự nhiên cũng có thể gây ra tình trạng mặn hóa. Điều này tồn tại nhiều bất cập, thiếu tính ổn định và ẩn chứa nhiều rủi ro lâu dài.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the factors that can cause salinization of fresh water. It also explains how these factors contribute to the problem, which was specifically asked in the query. The answer is comprehensive and accurate, hence the perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu, các tác giả đã phân loại mức độ ảnh hưởng của mặn hóa thành ba loại: thấp, trung bình và cao. Hãy mô tả cách họ xác định các mức độ này và giải thích ý nghĩa của các giá trị ngưỡng được sử dụng.</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu, các tác giả đã chia khu vực nghiên cứu thành ba vùng tương ứng với ba mức độ ảnh hưởng của mặn hóa (XNM): đã bị XNM nghiêm trọng (Vùng 1), đang bị XNM mức độ nhẹ (Vùng 2) và chưa bị XNM (Vùng 3). 
+Họ đã sử dụng một hệ thống điểm để xác định mức độ ảnh hưởng của mặn hóa và động lực thích ứng của nông dân. Ví dụ, vùng có điểm động lực thích ứng được quy đổi của vùng &gt; 0 (tức &gt;50% nông dân có mong muốn thay đổi) được xếp vào loại “không ủng hộ” chính sách thích ứng mới, và ngược lại được xếp vào loại “ủng hộ” chính sách thích ứng mới. Tương tự, nếu vùng có điểm năng lực nằm trong khoảng dao động từ 3 - 5 điểm được xếp vào loại “chủ động” thích ứng, và ngược lại có số điểm từ 1 - 3 xếp vào loại “bị động” thích ứng. 
+Các giá trị ngưỡng này giúp xác định mức độ mong muốn thay đổi và năng lực thích ứng của nông dân, từ đó đưa ra các giải pháp quản lý phù hợp với năng lực thực tế và sự mong muốn của nông dân.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of how the authors of the study classified the levels of salinization impact and the meaning of the threshold values used. However, it does not directly address the low, medium, and high categories mentioned in the query, which slightly reduces its score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu này, phương pháp nào được sử dụng để đánh giá sự thay đổi và biến động của các giá trị chuỗi thời gian cho cả độ mặn và các biến số tác động trong khoảng thời gian từ 1980 đến 2010?</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Dựa vào thông tin được cung cấp, không có phương pháp cụ thể nào được nêu ra để đánh giá sự thay đổi và biến động của các giá trị chuỗi thời gian cho cả độ mặn và các biến số tác động trong khoảng thời gian từ 1980 đến 2010.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and correctly states that there is no specific method mentioned in the provided information for evaluating the changes and fluctuations of time series values for both salinity and impact variables from 1980 to 2010. However, it does not provide any additional information or insight, which could have made the answer more valuable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Mô hình Rừng Ngẫu nhiên (RF) được sử dụng trong nghiên cứu này với mục đích gì và các biến số nào được sử dụng làm biến phụ thuộc và độc lập trong mô hình này?</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the use of the Random Forest (RF) model in this research, nor does it mention which variables are used as dependent and independent variables in this model.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and correctly states that the information asked for is not provided in the context. However, it does not provide any additional information or attempt to explain what a Random Forest model is or what dependent and independent variables could be in general, which could have made the answer more helpful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của Thorslund và cộng sự, họ đã sử dụng phương pháp nào để đánh giá tầm quan trọng của các biến dự đoán trong việc dự đoán độ mặn? Hãy giải thích về phương pháp này.</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Rất tiếc, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về nghiên cứu của Thorslund và cộng sự, cũng như phương pháp mà họ đã sử dụng để đánh giá tầm quan trọng của các biến dự đoán trong việc dự đoán độ mặn.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the question about Thorslund and colleagues' research. However, it does not provide the specific information asked for, which is the method they used to evaluate the importance of predictive variables in predicting salinity. The answer is correct in stating that the information is not available in the context, but it does not provide any additional information or attempt to explain any potential methods that could be used in such a situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hãy mô tả quy trình mà nhóm nghiên cứu đã sử dụng để tìm ra bộ biến tối thiểu dẫn đến khả năng dự đoán tốt nhất của mỗi mô hình.</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không mô tả quy trình mà nhóm nghiên cứu đã sử dụng để tìm ra bộ biến tối thiểu dẫn đến khả năng dự đoán tốt nhất của mỗi mô hình.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query. The user asked for a description of the process used by the research team to find the minimal set of variables leading to the best predictive ability of each model, but the generated answer simply states that the provided information does not describe this process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu này, các mô hình RF cuối cùng đã sử dụng những chỉ số nào để đánh giá hiệu suất của chúng? Hãy mô tả ý nghĩa của từng chỉ số.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh không cung cấp chi tiết về các chỉ số được sử dụng để đánh giá hiệu suất của các mô hình RF cuối cùng, cũng như ý nghĩa của từng chỉ số.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and it is correct in stating that there is not enough information provided in the query to answer it. However, it does not provide any additional information or attempt to clarify the query, which could have improved the response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Dữ liệu về độ mặn, các biến số điều khiển và dữ liệu hình dạng lưu vực con được sử dụng trong nghiên cứu này đã được lưu trữ ở đâu? Hãy nêu tên cơ sở dữ liệu và cung cấp mã truy cập tương ứng.</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>The context does not provide information on where the data about salinity, control variables, and sub-basin shape used in this research is stored, nor does it mention the name of the database or provide any access codes.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and correctly states that the information asked for is not provided in the context. However, it does not provide any additional information or suggestions, which could have made it a perfect response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Hãy mô tả quá trình xâm nhập mặn ở Đồng bằng sông Cửu Long (ĐBSCL) và nêu rõ tác động của nó đối với nông nghiệp và sản xuất thủy sản ở khu vực này.</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Quá trình xâm nhập mặn ở Đồng bằng sông Cửu Long (ĐBSCL) diễn ra phức tạp do địa hình thấp và hệ thống sông ngòi phức tạp của khu vực này. ĐBSCL hình dạng như một bán đảo chịu ảnh hưởng mạnh của thủy triều biển Đông và biển Tây. Độ mặn xâm nhập vào đất liền chủ yếu vào mùa khô (từ tháng 1 đến tháng 5) khi lượng mưa ít, nước mặn từ biển chảy vào đất liền qua các con sông và kênh rạch. Nước mặn sẽ thấm vào đất, ảnh hưởng đến cây trồng và sản xuất nông nghiệp.
+ĐBSCL là khu vực sản xuất nông nghiệp và nuôi trồng thủy sản lớn nhất của Việt Nam. Do đó, xâm nhập mặn có thể gây ảnh hưởng lớn đến sản xuất nông nghiệp và thủy sản ở khu vực này. Việc dự báo độ mặn trên các sông chính khu vực nghiên cứu là thật sự cần thiết để giúp người dân và chính quyền địa phương điều chỉnh lịch gieo trồng và đưa ra được những phương án xử lý phù hợp để hạn chế tình hình xâm nhập mặn ảnh hưởng đến đời sống người dân.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate description of the process of saltwater intrusion in the Mekong Delta, as well as its impact on agriculture and aquaculture in the region. It also suggests the importance of forecasting the salinity level to help local people and authorities adjust their planting schedules and come up with appropriate solutions to mitigate the effects of saltwater intrusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Trong bài báo, mô hình nào được sử dụng để mô phỏng và dự báo xâm nhập mặn cho khu vực ĐBSCL? Hãy giải thích vì sao kết quả kiểm định mực nước và mặn tại các trạm thủy văn và trạm đo mặn thuộc khu vực nghiên cứu năm 2016 cho thấy bộ thông số mô hình đáp ứng tốt dự báo xâm nhập mặn trong tương lai.</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Mô hình MIKE 11 đã được sử dụng để mô phỏng và dự báo xâm nhập mặn cho khu vực Đồng bằng sông Cửu Long (ĐBSCL). Kết quả kiểm định mực nước và mặn tại các trạm thủy văn và trạm đo mặn thuộc khu vực nghiên cứu năm 2016 cho thấy bộ thông số mô hình đáp ứng tốt dự báo xâm nhập mặn trong tương lai. Điều này có nghĩa là mô hình đã chính xác trong việc dự đoán mức độ xâm nhập mặn, dựa trên dữ liệu mực nước và mặn từ năm 2016.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response. It correctly identifies the model used for simulating and forecasting salt intrusion in the Mekong Delta region and explains why the model parameters responded well to future salt intrusion forecasts based on the 2016 water and salt level validation results.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Trong bài báo của chúng tôi, chúng tôi đã sử dụng phương pháp nào để xây dựng mô hình mô phỏng xâm nhập mặn và kiểm định mực nước và độ mặn tại các trạm ĐBSCL trong năm 2016?</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Trong bài báo, các tác giả đã sử dụng phương pháp mô hình hóa, cụ thể là ứng dụng mô hình thuỷ lực và lan truyền chất của bộ mô hình MIKE 11 HD và AD để xây dựng mô hình mô phỏng xâm nhập mặn và kiểm định mực nước và độ mặn tại các trạm ĐBSCL trong năm 2016. Ngoài ra, họ cũng đã sử dụng phương pháp GIS, sử dụng phần mềm bản đồ GIS để biểu diễn kết quả xâm nhập mặn và tính toán thống kê, phân tích kết quả trên các sông rạch.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing detailed information about the methods used in the paper to build the model and validate the water level and salinity at the stations in 2016. However, without a reference answer, it's hard to confirm the absolute correctness of the specific methods mentioned.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Hãy mô tả các giả thuyết cơ bản được sử dụng trong mô hình MIKE 11 để mô tả quá trình diễn biến mực nước và lưu lượng trên các sông rạch.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Mô hình MIKE 11 sử dụng một số giả thuyết cơ bản sau để mô tả quá trình diễn biến mực nước và lưu lượng trên các sông rạch:
+1. Nước được coi là chất lỏng đồng nhất và không nén được, tức là khối lượng riêng của nước không thay đổi.
+2. Độ dốc đáy dọc theo chiều dài sông được giả định là nhỏ.
+3. Chiều dài bước sóng lớn hơn độ sâu mực nước. Điều này đảm bảo mặt thoáng dòng chảy có thể xem như song song với đáy, nghĩa là gia tốc dòng chảy theo chiều thẳng đứng có thể bỏ qua. Nói cách khác, áp suất trên mặt cắt ngang phân bố theo quy luật thủy tĩnh.
+4. Vật chất hòa tan được xáo trộn đều trong nước.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate description of the basic assumptions used in the MIKE 11 model to describe the evolution of water levels and flows in rivers and canals. It does not contain any mistakes or inaccuracies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Hãy giải thích ý nghĩa của các biến Q(x,t) và h(x,t) trong hệ phương trình Saint – Venant được sử dụng trong nghiên cứu. Đồng thời, hãy nêu điều kiện đầu và điều kiện biên trong hệ phương trình này.</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Biến Q(x,t) trong hệ phương trình Saint – Venant đại diện cho lưu lượng dòng chảy, đơn vị đo là mét khối trên giây (m3/s). Biến h(x,t) đại diện cho độ sâu dòng chảy, đơn vị đo là mét (m). Điều kiện đầu và điều kiện biên trong hệ phương trình này được xác định bởi hệ số hiệu chỉnh động năng, ký hiệu là a.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and mostly correct. It accurately explains the meaning of the variables Q(x,t) and h(x,t) in the Saint-Venant equations. However, it does not fully explain the initial and boundary conditions in these equations, only mentioning that they are determined by the kinetic correction factor, denoted as 'a'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Trong quá trình ứng dụng mô hình tính toán, dữ liệu đầu vào được thu thập từ đâu và bao gồm những thông tin gì? Hãy mô tả quy trình xây dựng mô-đun thủy lực dựa trên các biên lưu lượng chính.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Dữ liệu đầu vào cho mô hình được thu thập từ nhiều nguồn khác nhau. Đầu tiên, khu vực nghiên cứu được xác định. Sau đó, các số liệu liên quan đến việc xây dựng mô hình cân bằng nước được tổng hợp và thu thập. Mô hình sau đó được xây dựng, hiệu chỉnh và kiểm định. Các kịch bản thích ứng với hiện trạng thiếu nước do xâm nhập mặn cũng được xây dựng. Cuối cùng, các tác động của điều kiện tự nhiên đến sự biến động nguồn nước tưới cho khu vực nghiên cứu trong tương lai được đánh giá.
+Phương pháp tưới được xây dựng trong mô hình dựa vào phương pháp tưới thực tế của người dân tại vùng nghiên cứu. Phương pháp tưới của người dân được mô phỏng lại và lượng nước cần tưới được mô phỏng theo công thức. Thời gian phát triển của cây lúa, thời gian bơm nước và mực nước qua các giai đoạn được thể hiện qua Bảng 2.
+Mô hình mô phỏng biến động nguồn nước trong hệ thống canh tác lúa được xây dựng. Bốc thoát hơi nước tham chiếu (ETo) là lượng nước mất đi qua bề mặt đất, mặt thoáng của vùng chứa nước và quá trình thoát hơi qua mặt lá, thân của cây do tác động của năng lượng mặt trời, gió, độ ẩm, và các yếu tố môi trường khác. Giá trị ETo được xác định theo phương pháp Penmen-Monteith.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the process of data collection and model building in hydraulic modeling. It does not directly address the part of the question about the main flow variables, but it does discuss related concepts such as water balance and evapotranspiration. The answer is well-structured and informative, but it could be improved by directly addressing all parts of the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của Toan và cộng sự năm 2020, họ đã sử dụng dữ liệu mực nước tại những cửa sông ven biển nào? Hãy liệt kê tên các cửa sông và trạm thủy văn tương ứng.</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của Toan và cộng sự năm 2020, họ đã sử dụng dữ liệu mực nước tại các cửa sông ven biển sau: Vàm Kênh (cửa Tiểu), Bình Đại (cửa Đại), An Thuận (cửa Hàm Luông), Bến Trại (cửa Cổ Chiên), và Mỹ Thanh (cửa Mỹ Thanh, Định An, Trần Đề).</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed list of the river mouths and corresponding hydrological stations used in Toan's 2020 study. It appears to be fully correct, although without a reference answer, it's impossible to confirm the accuracy of the specific details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Kết quả kiểm định mặn trong nghiên cứu cho thấy mối tương quan như thế nào giữa số liệu thực đo và số liệu mô phỏng từ mô hình? Hãy nêu rõ hệ số tương quan và đánh giá về mức độ phù hợp của kết quả tính toán lan truyền mặn với tình hình thực tế.</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Kết quả kiểm định mặn cho thấy mối tương quan giữa số liệu thực đo và số liệu mô phỏng từ mô hình khá phù hợp với tình hình thực tế. Hệ số tương quan nằm trong khoảng từ 0,70 đến 0,90. Mặc dù có sự chênh lệch về pha và độ lớn so với số liệu thực đo, nhưng kết quả tính toán lan truyền mặn vẫn được đánh giá là khá phù hợp.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed response, including the correlation coefficient and an evaluation of the suitability of the salinity propagation calculation results with the actual situation. However, without a reference answer, it's hard to confirm the exact correctness of the provided correlation coefficient range.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của tác giả, mô hình nào được sử dụng để dự báo xâm nhập mặn ở khu vực Đồng bằng sông Cửu Long? Dựa trên dữ liệu nào để tính toán mực nước cho mô hình này?</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Tác giả đã sử dụng mô hình MIKE 11 để dự báo xâm nhập mặn ở khu vực Đồng bằng sông Cửu Long. Dữ liệu dự báo mực nước được tính toán từ mô hình U-tide từ ngày 01/01/2020 đến ngày 31/12/2020.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing specific details about the model used (MIKE 11) and the data source for calculating water levels (U-tide model). However, without a reference answer, it's hard to confirm the absolute correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Theo dự báo, trạm nào ở ĐBSCL có độ mặn lớn nhất trong tháng 2 và tháng 3 năm 2020? Độ mặn lớn nhất ở các trạm này dao động trong khoảng nào?</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Trạm có độ mặn lớn nhất trong tháng 2 và tháng 3 năm 2020 ở ĐBSCL là Bình Đại (sông Cửa Đại), Bến Trại (sông Cổ Chiên), Trà Kha, Trần Đề (sông Hậu), Cà Mau (sông Gành Hào) và Rạch Giá (biển Tây). Độ mặn lớn nhất ở các trạm này dao động từ 21-27‰.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides specific and detailed information. It correctly identifies the stations with the highest salinity in the Mekong Delta in February and March 2020, and provides the range of the highest salinity at these stations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của nhóm tác giả, mô hình nào được sử dụng để dự báo xâm nhập mặn ở khu vực Đồng bằng sông Cửu Long?</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Nhóm tác giả đã sử dụng mô hình MIKE 11 để dự báo xâm nhập mặn ở khu vực Đồng bằng sông Cửu Long.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and directly answers the user's query about which model was used in the study to predict salt intrusion in the Mekong Delta region.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Theo kết quả nghiên cứu, việc dự báo xâm nhập mặn có thể hỗ trợ những hoạt động nào trong quản lý vùng ven biển và cung cấp thông tin cho người dân và chính quyền địa phương?</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Việc dự báo xâm nhập mặn có thể hỗ trợ trong việc cung cấp thông tin cảnh báo sớm cho người dân và chính quyền địa phương. Điều này giúp họ điều chỉnh lịch gieo trồng và đưa ra các phương án xử lý phù hợp để hạn chế tình hình xâm nhập mặn ảnh hưởng đến đời sống người dân. Ngoài ra, kết quả của nghiên cứu cũng có thể hữu ích trong công tác dự báo xâm nhập mặn toàn bộ khu vực, cũng như trong các hoạt động quản lý vùng ven biển.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant and accurate to the user query. It provides a detailed explanation of how saltwater intrusion forecasts can support local management activities and provide information to residents and local authorities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Hãy mô tả các áp lực chính đang ảnh hưởng đến sự bền vững của đồng cỏ ướt ở Đồng bằng sông Cửu Long, Việt Nam, theo như được trình bày trong bài viết. Đồng thời, hãy nêu các biện pháp ứng phó với những áp lực này.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Các áp lực chính đang ảnh hưởng đến sự bền vững của đồng cỏ ướt ở Đồng bằng sông Cửu Long, Việt Nam, bao gồm xói lở, suy giảm phù sa, biến đổi khí hậu và các tác động bất lợi từ vận hành thủy điện. Những áp lực này có thể làm biến đổi đường bờ phức tạp và kéo dài trước khi đạt đến mức ổn định tương đối.
+Đối với việc ứng phó với những áp lực này, một số giải pháp được đề xuất bao gồm quy hoạch các tuyến đê biển, đê cửa sông, bố trí hành lang ngoài đê hợp lý, bảo vệ đê bằng các giải pháp sinh thái, rừng ngập mặn thay vì cứng hóa. Ngoài ra, cần nghiên cứu các giải pháp thay đổi thời vụ cho các vùng nhằm giảm tập trung nước trong các tháng đầu mùa mưa và đầu mùa khô. Cộng đồng cần nâng cao nhận thức để chủ động thích ứng với các tác động của biến đổi khí hậu và phát triển thượng lưu, bảo vệ môi trường nước, sử dụng phân bón và thuốc bảo vệ thực vật hợp lý. Cần xây dựng các thể chế, chính sách, quy hoạch sử dụng đất hợp lý và giải pháp sinh kế nhằm giảm thiểu thiệt hại cho các nhóm dễ bị ảnh hưởng.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant and accurate to the user query. It provides a detailed description of the main pressures affecting the sustainability of wet grasslands in the Mekong Delta, Vietnam, and also suggests several measures to cope with these pressures. The answer is comprehensive and well-structured, making it easy to understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Trình bày về đặc điểm địa lý và thủy văn của Đồng bằng sông Cửu Long, bao gồm loại đất, vị trí của các loại đất khác nhau và cách thức mà các yếu tố thủy văn như lượng mưa, lưu lượng sông và biến động thủy triều ảnh hưởng đến các hệ thống nước ở đây.</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Đồng bằng sông Cửu Long là một hệ thống thấp và mở, nằm ở cuối lưu vực sông Mê Công. Khu vực này chịu ảnh hưởng mạnh bởi chu kỳ thủy triều nửa ngày, và mặn xâm nhập là đặc trưng của vùng trong mùa khô. Thời gian xuất hiện, duy trì, và không gian mặn xâm nhập phụ thuộc vào nhiều yếu tố, trong đó dòng chảy từ thượng lưu về đồng bằng là một trong những yếu tố tác động rõ nhất đến diễn biến mặn.
+Sông Mê Kông chảy qua lãnh thổ của 6 quốc gia với tổng chiều dài dòng chính hơn 4.800 km, diện tích lưu vực 795.000 km2. Dòng chảy trung bình hàng năm của sông Mê Công vào khoảng 475 tỷ m3; trong đó 82% tổng lượng dòng chảy được hình thành từ bốn nước hạ lưu: Lào 35%, Thái Lan 18%, Campuchia 18% và Việt Nam 11% và 18% dòng chảy đóng góp từ hai nước thượng lưu.
+Đồng bằng sông Cửu Long là phần cuối cùng của Châu thổ sông Mê Kông, tổng diện tích tự nhiên khoảng 4 triệu ha, chiếm 79% diện tích toàn Châu thổ và bằng 5% diện tích toàn lưu vực sông Mê Kông. Đồng bằng sông Cửu Long có vị trí quan trọng trong phát triển kinh tế - xã hội và là chìa khóa chính trong chiến lược an ninh lương thực Quốc gia.
+Lưu lượng nước sông Mê-kông giảm từ 2-24% trong mùa khô, tăng từ 7-15% vào mùa lũ. Sự thay đổi lượng mưa cùng với nước biển dâng đã làm cho xâm nhập mặn lấn sâu vào trong nội đồng, làm thiệt hại đáng kể đến sản xuất nông nghiệp.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the geographical and hydrological features of the Mekong Delta, including the types of soil, the location of different types of soil, and how hydrological factors such as rainfall, river flow, and tidal fluctuations affect the water systems there. However, it does not provide specific details about the types of soil in the region, which was part of the user's query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Hãy mô tả vị trí địa lý và đặc điểm địa chất của Đồng Tháp Mười, Long Xuyên Quadrangle và bán đảo Cà Mau dựa trên thông tin trong ngữ cảnh đã cho.</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh đã cho không cung cấp chi tiết về vị trí địa lý và đặc điểm địa chất của Đồng Tháp Mười, Long Xuyên Quadrangle và bán đảo Cà Mau.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and it is correct in stating that the information provided in the context does not allow for a detailed description of the geographical location and geological features of Đồng Tháp Mười, Long Xuyên Quadrangle, and the Cà Mau Peninsula. However, it does not provide any additional information or attempt to provide a general description based on common knowledge, hence the score is not the highest possible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Trình bày về Khung Kế hoạch Áp lực-Trạng thái-Phản ứng (Pressure-State-Response Framework) được sử dụng trong bài viết.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Khung Kế hoạch Áp lực-Trạng thái-Phản ứng (Pressure-State-Response Framework) được sử dụng như một cách để sắp xếp tất cả thông tin liên quan đến đầm lầy trong đồng bằng sông Cửu Long thành một bức tranh mạch lạc và logic. Khung này cung cấp một cách để hiểu các mối quan hệ của 3 tập thông tin: áp lực, trạng thái và phản ứng. Đây là một khung phổ biến để báo cáo các chỉ số môi trường và trạng thái môi trường. Trong khung này, áp lực ("tại sao nó xảy ra?") dẫn đến một trạng thái nhất định ("điều gì đang xảy ra?") được xác định cùng với các phản ứng ("điều gì đang được làm về nó?"). Khung này cho thấy các mối quan hệ nguyên nhân và liên kết giữa các tập thông tin. Các phản ứng đề cập đến các cải tiến về cơ sở và chính sách được thiết kế để khắc phục, giảm bớt hoặc giảm nhẹ những thay đổi do áp lực gây ra và do đó cải thiện trạng thái. Áp lực, mặt khác, đề cập đến tập hợp các hoạt động con người hoặc tổ chức ảnh hưởng đến môi trường đầm lầy trong khi trạng thái là tình trạng của đầm lầy và tài nguyên của nó bị ảnh hưởng bởi áp lực.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the Pressure-State-Response Framework. It explains the relationship between the three components of the framework and how they are used in the context of environmental reporting. The answer also provides examples of what each component represents, making it easier for the user to understand the concept.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Hãy mô tả khung Pressure-State-Response được sử dụng trong bài viết và giải thích cách nó giúp hiểu rõ hơn về mối quan hệ giữa các yếu tố áp lực, trạng thái và phản ứng trong môi trường đất ngập nước.</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến khung Pressure-State-Response hoặc cách nó giúp hiểu rõ hơn về mối quan hệ giữa các yếu tố áp lực, trạng thái và phản ứng trong môi trường đất ngập nước.</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query. The user asked for a description and explanation of the Pressure-State-Response framework, but the generated answer does not provide this information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Theo bài viết, đồng cỏ ngập nước theo mùa ở đồng bằng Hà Tiên, tỉnh Kiên Giang đang đối mặt với mối đe dọa nào? Hãy nêu nguyên nhân chính dẫn đến sự thay đổi vật lý trong môi trường đất ngập nước ở đồng bằng sông Cửu Long.</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Bài viết không cung cấp thông tin cụ thể về đồng cỏ ngập nước theo mùa ở đồng bằng Hà Tiên, tỉnh Kiên Giang. Tuy nhiên, nói chung, đồng bằng sông Cửu Long đang đối mặt với mối đe dọa từ biến đổi khí hậu, đặc biệt là tác động của nước biển dâng. Nước biển dâng có thể biến nhiều vùng đồng bằng nước ngọt hiện nay thành vùng nước lợ, thay đổi chế độ thủy văn dòng chảy và gây áp lực đến 90% diện tích ngập nước. Điều này cũng gây ra sự thay đổi vật lý trong môi trường đất ngập nước ở đồng bằng sông Cửu Long.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a plausible threat to the seasonal wet grasslands in Ha Tien, Kien Giang province, which is climate change, specifically sea level rise. It also explains the main cause leading to the physical changes in the flooded soil environment in the Mekong Delta. However, without a reference answer, it's hard to confirm the absolute correctness of the generated answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Chính sách "đổi mới" được triển khai như thế nào trong nền kinh tế Việt Nam sau chiến tranh kết thúc vào năm 1975 và những tác động của nó đối với nền kinh tế và xã hội Việt Nam là gì?</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>The context provided does not contain information about the implementation of the "đổi mới" policy in Vietnam's economy after the war ended in 1975 or its impacts on Vietnam's economy and society.</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query. It does not provide any information about the "đổi mới" policy in Vietnam's economy after the war ended in 1975 or its impacts on Vietnam's economy and society.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Hai quá trình song song nào liên quan đến chính sách "đổi mới" đang tạo ra áp lực lên tình trạng của đồng cỏ ướt ở Đồng bằng sông Cửu Long?</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến hai quá trình song song nào liên quan đến chính sách "đổi mới" đang tạo ra áp lực lên tình trạng của đồng cỏ ướt ở Đồng bằng sông Cửu Long.</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the question. However, it does not provide any specific information or answer to the user's question, which makes it partially incorrect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Hãy mô tả những áp lực mà sự tăng cường sản xuất lúa gạo đã tạo ra đối với môi trường đất ngập nước ở Đồng bằng sông Cửu Long? Hãy đề cập đến những dự án hạ tầng lớn liên quan đến việc này.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Sự tăng cường sản xuất lúa gạo tại Đồng bằng sông Cửu Long đã tạo ra nhiều áp lực cho môi trường đất ngập nước. Một trong những áp lực lớn nhất là việc khai thác nước ngầm quá mức để phục vụ cho sản xuất nông nghiệp, điều này đã làm mực nước ngầm hạ thấp và có thể làm gia tăng sụt lún đất trên đồng bằng. Đồng thời, việc phát triển nuôi trồng thủy sản tăng mạnh trong khi cơ sở hạ tầng phân ranh mặn ngọt chưa được phát triển đồng bộ cũng làm ảnh hưởng đến các vùng sản xuất lúa phụ cận. Ngoài ra, việc phát triển thủy điện ở phía hạ lưu, đặc biệt là ở Lào, cũng là mối lo ngại vì nó có thể tác động xấu đến thay đổi phù sa và thủy sản ở ĐBSCL.</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the pressures that increased rice production has created for the wetland environment in the Mekong Delta. It also mentions large infrastructure projects related to this issue, such as groundwater exploitation and hydropower development. However, it could have been more specific about the projects, hence the score is not a perfect 5.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Các kênh đào đóng vai trò gì trong việc hỗ trợ sản xuất lúa ở Đồng bằng sông Cửu Long?</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Các kênh đào đóng vai trò quan trọng trong việc hỗ trợ sản xuất lúa ở Đồng bằng sông Cửu Long. Chúng giúp ứng phó với các trường hợp mặn xuất hiện sớm, vào sâu theo các dòng chính, đồng thời ứng phó với các trường hợp mặn rút muộn hoặc mặn bất thường do vận hành thủy điện ở thượng lưu. Các kênh đào cũng giúp kiểm soát mặn và ngăn triều cường gây ngập. Ngoài ra, chúng cũng giúp chủ động về nước tưới, tích trữ nước hay tiêu thoát nước, bảo vệ môi trường chất lượng nước trong các vùng hưởng lợi của hệ thống thủy lợi.</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the role of canals in supporting rice production in the Mekong Delta. It correctly identifies several key functions of the canals, such as dealing with salinity, controlling flooding, and managing irrigation. However, without a reference answer, it's hard to confirm the absolute correctness of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Theo bài viết, những dự án phát triển nông nghiệp tại Đồng bằng sông Cửu Long đã mang lại những lợi ích và áp lực mới nào đối với môi trường đất ngập nước ở đây? Hãy nêu rõ các biện pháp mà bài viết đề xuất để giải quyết những áp lực này.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Bài viết không cung cấp thông tin cụ thể về lợi ích và áp lực mới mà các dự án phát triển nông nghiệp mang lại cho môi trường đất ngập nước tại Đồng bằng sông Cửu Long. Tuy nhiên, bài viết đề xuất một số biện pháp để giải quyết các áp lực môi trường. Đầu tiên, cần quy hoạch các tuyến đê biển và đê cửa sông, tính đến các ảnh hưởng gia tăng do xói lở, bố trí hành lang ngoài đê hợp lý, bảo vệ đê bằng các giải pháp sinh thái, rừng ngập mặn thay vì cứng hóa. Thứ hai, cần nghiên cứu các giải pháp thay đổi thời vụ cho các vùng nhằm giảm tập trung nước trong các tháng đầu mùa mưa và đầu mùa khô. Thứ ba, cần nâng cao nhận thức của cộng đồng để chủ động thích ứng với các tác động của biến đổi khí hậu và phát triển thượng lưu. Cuối cùng, cần xây dựng các thể chế, chính sách, quy hoạch sử dụng đất hợp lý và các giải pháp sinh kế nhằm giảm thiểu thiệt hại cho các nhóm dễ bị ảnh hưởng.</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed response to the question. It explains that the article does not provide specific information about the benefits and new pressures that agricultural development projects bring to the flooded land environment in the Mekong Delta. However, it goes on to list several measures proposed in the article to address these environmental pressures. The answer is comprehensive and accurate, but it could be slightly more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Chính phủ Việt Nam đang kỳ vọng gì vào ngành nuôi trồng thủy sản, đặc biệt là nuôi tôm, trong kế hoạch phát triển kinh tế của mình? Hãy trình bày về các tài nguyên tự nhiên mà Việt Nam có để phát triển ngành này theo như được mô tả trong bài viết.</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Bài viết không cung cấp thông tin về kỳ vọng của Chính phủ Việt Nam đối với ngành nuôi trồng thủy sản, cụ thể là nuôi tôm, trong kế hoạch phát triển kinh tế của mình. Cũng không có thông tin về các tài nguyên tự nhiên mà Việt Nam có để phát triển ngành này.</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the government's expectations and natural resources for the development of the aquaculture industry. However, it does not provide any specific information or details, stating that the article does not provide the necessary information. This makes it impossible to judge its correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Theo báo cáo của SCP Fisheries Consultants Australia năm 1996 và Luttrell năm 2002, chính phủ Việt Nam có kế hoạch gì cho ngành thủy sản của mình và tại sao họ tin rằng sự phát triển kinh tế và tăng trưởng có thể thực hiện thông qua ngành thủy sản?</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Rất tiếc, thông tin được cung cấp không đề cập đến báo cáo của SCP Fisheries Consultants Australia năm 1996 và Luttrell năm 2002, cũng như kế hoạch của chính phủ Việt Nam cho ngành thủy sản của mình. Do đó, không thể cung cấp câu trả lời cho câu hỏi này dựa trên thông tin đã cho.</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of the question. However, it does not provide any specific information or answer the user's question, hence the score is in the middle of the range.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hãy mô tả hệ thống nông nghiệp tích hợp được áp dụng trong việc trồng lúa và nuôi tôm ở Việt Nam, cũng như lợi ích của hệ thống này đối với việc ngăn chặn sự tăng độ axit của đất.</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Hệ thống nông nghiệp tích hợp được áp dụng trong việc trồng lúa và nuôi tôm ở Việt Nam thường liên quan đến việc sử dụng cùng một khu đất để trồng lúa và nuôi tôm theo phương pháp luân canh. Điều này không chỉ giúp tạo ra những sản phẩm có lợi cho sức khỏe con người mà còn góp phần cải tạo thổ nhưỡng và bảo vệ môi trường sinh thái. Tuy nhiên, hệ thống này đòi hỏi sự ổn định và cân bằng giữa thời gian mặn và thời gian ngọt trong năm. Đối với những vùng có nguy cơ giảm năng suất do xâm nhập mặn, Nhà nước cần hỗ trợ nông dân về kỹ thuật canh tác, vốn đầu tư và có những nghiên cứu về lai tạo giống nhằm duy trì và nâng cao năng suất của mô hình canh tác hiện tại. Đối với vùng rủi ro cao, cần giúp người dân từng bước chuyển đổi mô hình canh tác phù hợp, tăng cường kiến thức cho việc thích ứng mới, hỗ trợ vốn và kỹ thuật canh tác ban đầu giúp nông hộ quen dần và canh tác có hiệu quả trên mô hình mới.</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the integrated agriculture system used in Vietnam for rice cultivation and shrimp farming. It also discusses the benefits of this system in terms of soil improvement and ecological protection. However, it does not directly address the part of the query about the system's role in preventing soil acidification, which is why it doesn't get a perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Theo báo cáo của de Graaf và Xuan (1998), việc chuyển đổi rừng ngập mặn để nuôi tôm có những tác động môi trường nào? Hãy liệt kê và giải thích.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin trong ngữ cảnh đã cung cấp không đề cập đến báo cáo của de Graaf và Xuan (1998) hoặc tác động môi trường của việc chuyển đổi rừng ngập mặn để nuôi tôm. Do đó, tôi không thể cung cấp câu trả lời cho câu hỏi của bạn.</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query. The user asked for the environmental impacts of converting mangrove forests for shrimp farming according to a report by de Graaf and Xuan (1998), but the chatbot failed to provide any information on this topic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Theo báo cáo, việc sử dụng rừng ngập mặn ở Việt Nam đã thay đổi như thế nào từ thập kỷ 1900 đến thập kỷ 1950? Hãy mô tả quá trình này và nêu rõ các yếu tố gây ra sự thay đổi.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin trong văn bản không cung cấp chi tiết về cách sử dụng rừng ngập mặn ở Việt Nam đã thay đổi từ thập kỷ 1900 đến thập kỷ 1950, cũng như các yếu tố gây ra sự thay đổi này.</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of changes in the use of mangrove forests in Vietnam. However, it does not provide any specific information or details about the changes or the factors causing them, which is what the user asked for. Therefore, it is not fully correct or satisfactory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hãy mô tả những tác động tiêu cực mà việc nuôi tôm đã gây ra cho môi trường và xã hội ở Việt Nam, dựa trên thông tin trong bài đọc.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Việc nuôi tôm đã gây ra một số tác động tiêu cực đối với môi trường và xã hội ở Việt Nam. Một trong những tác động đó là việc xâm nhập mặn, khiến cho nhu cầu nước tăng lên và gây ra sự thiếu hụt nguồn nước cho canh tác. Điều này đã dẫn đến việc trễ trong việc gieo vụ lúa ở một số khu vực. Ngoài ra, việc nuôi tôm cũng đã gây ra mâu thuẫn trong việc chia sẻ nguồn nước giữa các hộ nông dân. Một số nông dân không nhận thức được rủi ro dịch bệnh trên tôm và không nhận thức rõ hành vi của mình đang gián tiếp gây ra xâm nhập mặn ngày càng nghiêm trọng hơn.</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and mostly correct. It accurately describes the negative impacts of shrimp farming on the environment and society in Vietnam, such as saltwater intrusion, increased water demand, delayed rice planting, and conflicts over water resources among farmers. However, it could have included more details or examples to fully answer the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Theo bài đọc, hãy giải thích vì sao một số nông dân nuôi tôm ở Việt Nam đang cân nhắc việc chuyển đổi ao tôm của họ thành cánh đồng lúa.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Một số nông dân nuôi tôm ở Việt Nam đang cân nhắc việc chuyển đổi ao tôm của họ thành cánh đồng lúa vì họ nhận thức rằng việc canh tác hiện tại đã phù hợp. Họ duy trì mô hình tôm-lúa và trồng thêm hoa màu như rau thơm, hành lá, dưa hấu,... để có nguồn thu nhập luân phiên, ổn định và bền vững, không quá phụ thuộc vào một loại hình canh tác duy nhất.</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and mostly correct. It explains why some shrimp farmers in Vietnam are considering converting their shrimp ponds into rice fields. The answer mentions that they maintain a shrimp-rice model and grow additional crops for a stable and sustainable income, not relying on a single type of farming. However, it does not provide specific reasons related to the challenges of shrimp farming that might be prompting this consideration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hãy mô tả về chính sách quốc gia hiện hành của Việt Nam nhằm phục hồi và phát triển năm triệu hecta rừng? Chương trình này sẽ kéo dài đến khi nào và mục tiêu cụ thể của nó là gì?</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Rất tiếc, thông tin được cung cấp không đề cập đến chính sách quốc gia của Việt Nam nhằm phục hồi và phát triển năm triệu hecta rừng, thời gian kéo dài của chương trình này, hoặc mục tiêu cụ thể của nó.</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query as it does not provide any information about the current national policy of Vietnam to restore and develop five million hectares of forest, the duration of this program, or its specific objectives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Theo quy định pháp lý hiện hành tại Việt Nam, đất đai ẩm uất được định nghĩa như thế nào? Hãy nêu rõ vấn đề về việc bảo vệ môi trường đất đai ẩm uất trong pháp luật môi trường chung.</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the legal definition of wetlands in Vietnam, nor does it discuss the issue of wetland environmental protection in general environmental law.</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of wetlands in Vietnam. However, it does not provide any specific information or answer the user's question, which is a significant mistake.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Chương trình quốc gia về tái tạo và phát triển rừng tại Việt Nam nhắm mục tiêu đến bao nhiêu hecta rừng để tái tạo và bảo vệ? Hãy nêu rõ các mục tiêu quan trọng khác của chương trình này.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>The context does not provide information on the national program for forest regeneration and development in Vietnam, including the number of hectares of forest targeted for regeneration and protection, or any other important objectives of this program.</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>The generated answer does not provide any information in response to the user's query about the national program for forest regeneration and development in Vietnam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Theo các tác giả từ Trường Đại học Nông Lâm TP.HCM, việc quản lý tài nguyên thiên nhiên nên được thực hiện như thế nào để đạt hiệu quả cao và bền vững? Hãy nêu rõ vấn đề mà họ đặt ra về chính sách giảm bớt quyền tự quản địa phương trong bối cảnh biến đổi môi trường toàn cầu.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Các tác giả đề xuất một số giải pháp để thúc đẩy phát triển nông nghiệp theo mô hình tăng trưởng xanh. Đối với quản lý nhà nước, họ đề xuất tăng cường hợp tác toàn diện, liên tỉnh trong tiểu vùng DHPĐ, vùng ĐBSCL và toàn khu vực phía nam trên nhiều mặt, trên cơ sở tài nguyên nước, đảm bảo cân bằng nước phù hợp với các xu thế diễn biến nguồn nước trong tương lai và phải bảo đảm tính tổng thể, thống nhất. Họ cũng đề xuất thực hiện rà soát lại các quy hoạch liên quan bao gồm các quy hoạch hệ sinh thái rừng ngập mặn ven biến, quy hoạch sử dụng đất, quy hoạch phát triển các ngành nghề. Tuy nhiên, không có thông tin cụ thể về vấn đề họ đặt ra về chính sách giảm bớt quyền tự quản địa phương trong bối cảnh biến đổi môi trường toàn cầu trong ngữ cảnh được cung cấp.</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it discusses the management of natural resources and proposes solutions for sustainable development. However, it does not address the specific issue raised in the query about the policy of reducing local self-governance rights in the context of global environmental change. Therefore, it is not fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Theo báo cáo, chính sách tự do hóa kinh tế theo hướng đổi mới được cho là tăng sự dễ bị tổn thương đối với các rủi ro như bão lũ và biến đổi khí hậu cho các cộng đồng sống trong môi trường không ổn định. Hãy giải thích tại sao chính sách này lại tạo ra tác động tiêu cực như vậy?</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Rất tiếc, thông tin được cung cấp trong ngữ cảnh không đề cập đến việc chính sách tự do hóa kinh tế theo hướng đổi mới tạo ra tác động tiêu cực đối với các cộng đồng sống trong môi trường không ổn định. Do đó, không thể giải thích tại sao chính sách này lại tạo ra tác động tiêu cực như vậy dựa trên thông tin đã được cung cấp.</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query. The user asked for an explanation of why economic liberalization policies can increase vulnerability to risks such as storms and climate change for communities living in unstable environments. The generated answer, however, does not provide any explanation or relevant information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Dự án "Kiểm kê và Quản lý Đất ngập nước ở Đồng bằng sông Cửu Long" đã đạt được những thành tựu gì từ năm 1991 đến 1998? Hãy liệt kê và giải thích ý nghĩa của mỗi thành tựu.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Rất tiếc, thông tin trong ngữ cảnh không cung cấp chi tiết về những thành tựu của dự án "Kiểm kê và Quản lý Đất ngập nước ở Đồng bằng sông Cửu Long" từ năm 1991 đến 1998.</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the project mentioned. However, it does not provide any information about the achievements of the project from 1991 to 1998, which was the main point of the user's question. Therefore, it is not fully correct or helpful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Theo nội dung tài liệu, hãy nêu những nguyên nhân chính dẫn đến sự suy thoái của khu vực đất ngập nước ở Đồng bằng sông Cửu Long?</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Nguyên nhân chính dẫn đến sự suy thoái của khu vực đất ngập nước ở Đồng bằng sông Cửu Long bao gồm các tác động bất lợi đến hai vụ lúa chính, sự suy thoái lũ, mất phù sa, và các tác động của biến đổi khí hậu. Ngoài ra, việc xây dựng các đập thủy điện của các nước thượng nguồn như Campuchia, Lào, Thái Lan và Trung Quốc cũng làm hạn chế nguồn nước ngọt đổ về từ thượng nguồn sông Mekong, gây ra tình trạng hạn hán.</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and accurate in response to the user query. It correctly identifies the main causes of the degradation of the flooded areas in the Mekong Delta, including adverse impacts on the two main rice crops, flood degradation, loss of alluvium, and the impacts of climate change. It also correctly mentions the construction of hydroelectric dams by upstream countries as a cause of drought. The answer could be more detailed, but overall it is very good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Dự án mà Trung tâm WorldFish (trước đây là CLARM) khởi xướng vào giữa năm 2000 nhằm mục đích gì và dự kiến mang lại những kết quả gì?</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>The context provided does not contain any information about a project initiated by the WorldFish Center (formerly CLARM) in the middle of 2000, its purpose, or its expected results.</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and it is correct in the sense that it admits not having the specific information asked for. However, it does not provide any additional information or attempt to answer the question in a more general sense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, giải pháp nào được đề xuất để gia tăng nguồn nước ngọt phục vụ sản xuất lúa trong thời gian thiếu nước do xâm nhập mặn ở vùng ven biển Đồng bằng sông Cửu Long?</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Giải pháp được đề xuất để gia tăng nguồn nước ngọt phục vụ sản xuất lúa trong thời gian thiếu nước do xâm nhập mặn ở vùng ven biển Đồng bằng sông Cửu Long là thay đổi lịch thời vụ và áp dụng phương pháp tưới tiết kiệm cho cây lúa.</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems correct, providing a solution to increase fresh water supply for rice production during water shortage due to saltwater intrusion in the coastal areas of the Mekong Delta. However, without a reference answer, it's hard to confirm the absolute correctness of the solution proposed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Ngoài việc tăng diện tích mặt nước và chiều sâu kênh, giải pháp nào khác được đề xuất trong nghiên cứu để giảm thiểu ảnh hưởng của việc thiếu nước do xâm nhập mặn?</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đề xuất một số giải pháp khác để giảm thiểu ảnh hưởng của việc thiếu nước do xâm nhập mặn. Đó là thay đổi lịch thời vụ và áp dụng phương pháp tưới tiết kiệm nước cho cây lúa. Ngoài ra, việc giảm diện tích canh tác lúa (25% và 50%) cũng được phân tích như một giải pháp thích ứng với điều kiện khan hiếm nguồn nước trong tương lai.</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and correct. It provides alternative solutions to the problem of water shortage due to saltwater intrusion, such as changing the seasonal schedule, applying water-saving irrigation methods for rice, and reducing the rice cultivation area. However, it could be more specific about the research or studies that proposed these solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong bài, hãy nêu những tác động tiêu cực của Biến đổi khí hậu đối với lĩnh vực nông nghiệp ở Việt Nam, đặc biệt là vùng đồng bằng sông Cửu Long?</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Biến đổi khí hậu có tác động tiêu cực đến lĩnh vực nông nghiệp ở Việt Nam, đặc biệt là vùng đồng bằng sông Cửu Long. Cụ thể, sự thay đổi nguồn nước và xâm nhập mặn do nước biển dâng ảnh hưởng trực tiếp đến sản xuất nông nghiệp. Điều này tạo ra rủi ro cho các mô hình canh tác trên sinh thái ngọt, lợ, mặn. Tiểu vùng sinh thái lợ và mặn sẽ chịu rủi ro cao nhất theo kịch bản nước biển dâng 17 cm đến năm 2030. Xâm nhập mặn trong điều kiện nước cao (lụt) gây rủi ro cho sản xuất nông nghiệp cao hơn so với điều kiện bình thường (nước trung bình) và khô hạn. Các tác động bất lợi đến 2 vụ lúa chính trên đồng bằng đã thấy rõ cùng với sự suy thoái lũ, mất phù sa.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the negative impacts of climate change on agriculture in Vietnam, specifically in the Mekong Delta region. It correctly identifies issues such as changes in water sources, saltwater intrusion due to sea level rise, and risks to different farming models. It also mentions the specific risks under different scenarios and the impacts on rice crops. The answer is comprehensive and accurate, hence the perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Theo các kịch bản Biến đổi khí hậu, diễn biến của khí hậu trong tương lai sẽ như thế nào đối với con người ở Đồng bằng sông Cửu Long?</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Theo các kịch bản Biến đổi khí hậu, diễn biến của khí hậu trong tương lai sẽ ngày càng theo hướng bất lợi đối với con người ở Đồng bằng sông Cửu Long. Một trong những vấn đề đáng quan tâm là xâm nhập mặn ngày càng tăng, nhưng khả năng thích ứng của phần lớn cộng đồng và chính quyền địa phương khu vực ven biển Đồng bằng sông Cửu Long còn chưa cao.</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed response about the future climate scenarios in the Mekong Delta. It correctly identifies the increasing salinity intrusion as a major concern. However, it could have included more specific details or predictions to fully answer the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Theo các nghiên cứu và dự báo, hãy mô tả những diễn biến bất lợi của khí hậu đối với con người ở ĐBSCL trong tương lai? Hãy đề cập đến vấn đề xâm nhập mặn và tác động của nó đối với cộng đồng và chính quyền địa phương.</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Trong tương lai, khí hậu dự kiến sẽ diễn biến theo hướng bất lợi đối với con người ở Đồng bằng sông Cửu Long (ĐBSCL). Một trong những vấn đề lớn là xâm nhập mặn, mà dự báo sẽ tăng lên cả về không gian và thời gian. Điều này gây ra tình trạng thiếu nguồn nước ngọt cung cấp cho hệ thống canh tác lúa, đặc biệt ở vùng ven biển. Tuy nhiên, khả năng thích ứng với tình trạng xâm nhập mặn của phần lớn cộng đồng và chính quyền địa phương khu vực ven biển ĐBSCL còn chưa cao. Nếu không có biện pháp kịp thời để thích ứng với hiện trạng xâm nhập mặn, ĐBSCL sẽ phải chịu tác hại nặng nề do biến đổi khí hậu gây ra trong tương lai.</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive and accurate response to the question. It discusses the future adverse effects of climate change on humans in the Mekong Delta, specifically addressing the issue of saltwater intrusion and its impact on local communities and governments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Trình bày về tầm quan trọng của việc xác định mối tương quan giữa các yếu tố theo một tư duy hệ thống trong quản lý tổng hợp nguồn tài nguyên nước. Hãy đề cập đến việc ứng dụng mô hình tư duy hệ thống trong các lĩnh vực môi trường.</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Xác định mối tương quan giữa các yếu tố theo một tư duy hệ thống rất quan trọng trong việc quản lý tổng hợp nguồn tài nguyên nước. Điều này giúp đánh giá tổng quan thực trạng quản lý nguồn tài nguyên nước, đặc biệt trong bối cảnh hiện nay khi các yếu tố như khí hậu và hoạt động con người đang thay đổi mạnh mẽ.
+Mô hình tư duy hệ thống, như Stella, đã được ứng dụng rộng rãi trong các lĩnh vực môi trường. Mô hình này giúp mô phỏng các diễn biến thực tế trong tự nhiên và đưa ra các dự báo cần thiết. Thông qua việc xây dựng mô hình động, các nghiên cứu đã thể hiện sự tác động qua lại giữa các yếu tố khác nhau, như sự phát triển của tảo và cá hồi, hoặc sự kết hợp giữa hệ sinh thái và kinh tế của rừng ngập mặn. Điều này cho thấy mô hình tư duy hệ thống có thể hỗ trợ việc quản lý nguồn tài nguyên nước một cách hiệu quả.</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the importance of identifying correlations between factors in a systems thinking approach for integrated water resource management. It also discusses the application of systems thinking models in environmental fields, which was requested in the user query. The answer is accurate and well-articulated, making it a perfect response to the query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hãy mô tả cách mô hình tư duy hệ thống đã được ứng dụng trong việc quản lý tài nguyên nước, cụ thể là trong các nghiên cứu của Costanza et al., Simonovic và Panigrahi et al.?</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Mô hình tư duy hệ thống đã được ứng dụng trong việc quản lý tài nguyên nước thông qua nhiều nghiên cứu. Costanza et al. đã sử dụng mô hình này để mô phỏng sự tác động qua lại giữa sự phát triển của tảo và cá hồi, cũng như sự kết hợp giữa hệ sinh thái và kinh tế của rừng ngập mặn ở Vịnh Chesapeake, Brazil. Simonovic đã xây dựng mô hình hệ thống về sự biến động nguồn tài nguyên nước toàn cầu liên quan đến các lĩnh vực quan trọng như nông nghiệp, công nghiệp, dân số. Tuy nhiên, mô hình của Simonovic chưa đủ để phản ánh chi tiết cho từng lĩnh vực cụ thể trong mô hình, ví dụ như lĩnh vực nông nghiệp. Dựa trên nền tảng đó, Panigrahi et al. đã nghiên cứu thu hẹp lại cho lĩnh vực nông nghiệp bằng việc xây dựng hồ chứa nước cung cấp cho nông nghiệp ở miền Đông của Ấn Độ dựa trên mô hình hệ thống.</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides detailed information about how the system thinking model has been applied in water resource management, specifically in the studies of Costanza et al., Simonovic, and Panigrahi et al. The answer could be improved by providing more specific details about the models used in each study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Trong lĩnh vực môi trường và quản lý tài nguyên nước tại Việt Nam, hãy nêu một ví dụ về việc ứng dụng mô hình tư duy hệ thống.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Một ví dụ về việc ứng dụng mô hình tư duy hệ thống trong lĩnh vực môi trường và quản lý tài nguyên nước tại Việt Nam là công trình nghiên cứu của Ngô Ngọc Hưng năm 2008.</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and seems to be correct, but without specific details about the research of Ngô Ngọc Hưng in 2008, it's hard to fully verify its correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hãy mô tả các bước trong phương pháp nghiên cứu được thực hiện trong nghiên cứu này.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Các bước trong phương pháp nghiên cứu được thực hiện trong nghiên cứu này bao gồm: (1) xác định khu vực nghiên cứu; (2) tổng hợp, thu thập các số liệu liên quan đến việc xây dựng mô hình cân bằng nước; (3) xây dựng mô hình; (4) hiệu chỉnh và kiểm định mô hình; (5) xây dựng các kịch bản thích ứng với hiện trạng thiếu nước do xâm nhập mặn; và, (6) đánh giá các tác động của điều kiện tự nhiên đến sự biến động nguồn nước tưới cho khu vực nghiên cứu trong tương lai.</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed description of the steps involved in the research method. It is fully correct and comprehensive, even without a reference answer for comparison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hãy phân tích tình hình xâm nhập mặn tại Huyện Ngã Năm từ năm 2005 đến 2012 và nêu rõ những ảnh hưởng của nước mặn đến hệ thống nông nghiệp của Huyện.</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Từ năm 2005 đến 2012, tình hình xâm nhập mặn tại Huyện Ngã Năm ngày càng trở nên nghiêm trọng, với sự tăng về không gian, thời gian và nồng độ mặn. Nước mặn từ Bạc Liêu đã ảnh hưởng nghiêm trọng đến sản xuất nông nghiệp của Huyện. Nước mặn đã xâm nhập sâu vào nội đồng và hệ thống kênh trữ nước bên trong nội đồng, dẫn đến tình trạng nông dân không thể bơm nước vào ruộng. Ảnh hưởng của nước mặn đến hệ thống nông nghiệp của Huyện trong những năm gần đây có xu hướng gia tăng, với nước mặn đến sớm hơn, nồng độ cao hơn, xâm nhập sâu hơn và kéo dài hơn. Hiện trạng nước mặn xâm nhập vào hệ thống kênh đã gây thiếu nước ngọt cung cấp cho cây lúa, gây thiệt hại đáng kể cho sản xuất nông nghiệp của Huyện.</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the situation of saltwater intrusion in Ngã Năm District from 2005 to 2012. It also clearly explains the impact of saltwater on the agricultural system of the district. However, without a reference answer, it's hard to confirm the absolute accuracy of the information provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hãy mô tả tình hình xâm nhập nước mặn vào hệ thống kênh và ảnh hưởng của nó đến sản xuất nông nghiệp ở Huyện theo nội dung trong bài đọc.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Tại Huyện, nước mặn đã xâm nhập sâu vào nội đồng và hệ thống kênh trữ nước bên trong nội đồng. Dù Huyện có hệ thống gồm 9 cống ngăn mặn dọc theo tuyến kênh Phụng Hiệp, tình hình xâm nhập mặn vẫn ngày càng trở nên nghiêm trọng. Điều này đã dẫn đến tình trạng nông dân không thể bơm nước vào ruộng, gây thiếu nước ngọt cung cấp cho cây lúa và gây thiệt hại đáng kể cho sản xuất nông nghiệp của Huyện. Ảnh hưởng của nước mặn đến hệ thống nông nghiệp của Huyện trong những năm gần đây có xu hướng gia tăng, với nước mặn đến sớm hơn, nồng độ cao hơn, xâm nhập sâu hơn và kéo dài hơn.</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the situation of saltwater intrusion into the canal system and its impact on agricultural production in the district. It does not contain any noticeable mistakes. However, without a reference answer, it's hard to determine if it's fully correct, hence the slight deduction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Trong mô hình cân bằng nước, hãy liệt kê các số liệu đầu vào, điều kiện ban đầu và giả định được sử dụng.</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Các số liệu đầu vào trong mô hình cân bằng nước bao gồm lượng nước bơm vào (Qp), lượng nước sẵn có trên ruộng (Q), lượng nước từ mưa (Qr) và lượng nước từ kênh chảy tràn vào ruộng (Qk). Điều kiện ban đầu được xác định bởi diện tích ruộng (Dr), mực nước ruộng ban đầu (L), và mực nước thấp nhất quy định giới hạn (dưới) bơm nước vào (Htmin). Một giả định quan trọng trong mô hình là trạm bơm sẽ tiến hành bơm nước nếu tổng lượng nước trên ruộng “nhỏ hơn” hoặc “bằng” lượng nước thấp nhất được quy định tại mức bơm nước. Ngoài ra, biến nồng độ mặn (Ec) cũng quan trọng trong việc quy định mức nồng độ mặn không được phép bơm nước.</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the inputs, initial conditions, and assumptions used in a water balance model. It does not contain any mistakes or inaccuracies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu này, giả định về bề mặt đất và mực nước trữ trong kênh được đưa ra như thế nào? Hãy giải thích tại sao các giả định này lại quan trọng cho quá trình tính toán và xây dựng mô hình.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu, bề mặt đất được giả định là bằng phẳng và mực nước trữ trong kênh tăng đến 1.5 m sẽ tự chảy tràn vào ruộng. Các giả định này quan trọng vì chúng tạo ra một môi trường kiểm soát cho việc tính toán và xây dựng mô hình. Giả định về bề mặt đất bằng phẳng giúp đơn giản hóa quá trình mô phỏng, trong khi giả định về mực nước trữ trong kênh tăng đến 1.5 m giúp xác định mức độ nước mà sau đó nước sẽ tự chảy tràn vào ruộng.</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of the assumptions made about the ground surface and water level in the channel in the study. It also explains why these assumptions are important for the calculation and model building process. The only reason it doesn't get a perfect score is because without a reference answer, it's hard to confirm the absolute correctness of the specific details provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hãy mô tả đặc tính của loại đất được sử dụng trong nghiên cứu này, cũng như giống lúa và phương pháp tưới được áp dụng. Đồng thời, giải thích tác động của các yếu tố này đối với quá trình canh tác lúa.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Loại đất được sử dụng trong nghiên cứu này là đất sét, có khả năng giữ nước cao. Đặc tính này khiến cho giá trị thấm (trực di) không đáng kể. Quá trình canh tác lúa tạo ra tầng đế cày (tầng nén dẽ), có tác dụng giữ nước bề mặt, ngăn nước thấm xuống tầng dưới và nước từ tầng dưới thấm lên tầng mặt. Đất này cũng có đặc tính lý-hóa tương tự như loại đất trong nghiên cứu ở Kununurra, Tây Úc, với lượng nước thấm của đất trồng lúa là 1 mm/ngày.
+Giống lúa được sử dụng là ST5, với thời gian sinh trưởng khoảng 115 – 120 ngày và được chia làm 4 giai đoạn phát triển. Mùa vụ Đông Xuân (ĐX) bắt đầu từ ngày 1/12/2011 đến ngày 24/3/2012 và mùa vụ Hè Thu (HT) bắt đầu từ ngày 12/4/2012 đến ngày 31/7/2012.
+Phương pháp tưới được áp dụng dựa trên phương pháp tưới thực tế của người dân tại vùng nghiên cứu. Phương pháp này được áp dụng như nhau cho cả 2 vụ ĐX và HT.
+Các yếu tố này đều có tác động quan trọng đến quá trình canh tác lúa. Đặc tính của đất sét giúp giữ nước, tạo điều kiện thuận lợi cho sự phát triển của cây lúa. Giống lúa ST5 và lịch thời vụ cũng quyết định đến chu kỳ canh tác. Phương pháp tưới được áp dụng cũng ảnh hưởng đến việc cung cấp nước cho cây lúa trong quá trình sinh trưởng.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response. It describes the type of soil used in the study, the rice variety, and the irrigation method applied, as well as explaining the impact of these factors on the rice cultivation process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hãy giải thích về phương pháp tưới được áp dụng trong mô hình nghiên cứu, cụ thể là cách mô phỏng lượng nước cần tưới và cách quản lý mực nước trong quá trình canh tác lúa?</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Phương pháp tưới trong mô hình nghiên cứu được xây dựng dựa trên cách thực hành tưới của người dân trong khu vực nghiên cứu. Lượng nước cần tưới được mô phỏng theo một công thức cụ thể. Trong quá trình canh tác, lượng nước cung cấp tưới và số lần bơm nước có thể thay đổi tùy thuộc vào điều kiện thời tiết như mưa và hạn hán, nhưng mực nước được giữ ổn định qua các giai đoạn phát triển của cây lúa. Mực nước trên ruộng có thể khác nhau tại mỗi giai đoạn phát triển của cây lúa, với Ltmax là mực nước cao nhất và Ltmin là mực nước thấp nhất. Nếu mực nước còn lại so với mực nước ban đầu trên ruộng (Si) vượt mức Ltmax (do mưa), thì cần thoát nước ra. Ngược lại, nếu Si nhỏ hơn Ltmin, thì cần bơm nước vào.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the irrigation method used in the research model, including how the amount of water needed for irrigation is simulated and how water levels are managed during rice cultivation. The answer is comprehensive and appears to be correct, although without a reference answer, it's not possible to confirm every detail. The score is not a perfect 5 because the answer could be more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Bốc thoát hơi nước tham chiếu (ETo) là gì? Phương pháp nào được sử dụng để xác định giá trị ETo và tại sao phương pháp đó lại phù hợp nhất?</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Bốc thoát hơi nước tham chiếu (ETo) là lượng nước mất đi qua bề mặt đất, mặt thoáng của vùng chứa nước và quá trình thoát hơi qua mặt lá, thân của cây do tác động của năng lượng mặt trời, gió, độ ẩm, và các yếu tố môi trường khác. Giá trị ETo được xác định theo phương pháp Penmen-Monteith. Phương pháp này được chọn vì nó cho kết quả phù hợp nhất trong việc xác định nhu cầu nước của cây trồng, do nó kết hợp nhiều mối quan hệ các yếu tố khí hậu.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of what ETo is and how it is determined using the Penmen-Monteith method. It also explains why this method is the most suitable. Therefore, the answer is fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hãy giải thích ý nghĩa của các biểu thức ETo, Rn, G, T, U2, es, ea, (es-ea), Δ, γ và ETc trong nghiên cứu về nhu cầu nước của cây trồng theo phương pháp Penmen-Monteith.</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ETo là bốc thoát hơi nước, được đo bằng mm/ngày. Rn là lưới bức xạ trên bề mặt cây trồng, được đo bằng MJm-2/ngày. G là thông lượng nhiệt của đất, cũng được đo bằng MJm-2/ngày. T là nhiệt độ trung bình không khí tại độ cao 2 m, được đo bằng độ Celsius. U2 là tốc độ gió tại 2 m chiều cao so với mặt đất, được đo bằng m/s. es là áp suất hơi nước bão hòa, được đo bằng kPa. ea là áp suất hơi nước thực tế, cũng được đo bằng kPa. (es-ea) là sự thiếu hụt áp lực bão hòa hơi nước, được đo bằng kPa. Δ là độ nghiêng của đường quan hệ giữa nhiệt độ với áp suất hơi bão hòa tại nhiệt độ t, được đo bằng kPa°C-1. γ là hằng số biểu nhiệt, cũng được đo bằng kPa°C-1. Cuối cùng, ETc là nhu cầu nước cho cây trồng, là lượng nước mất đi trong quá trình bốc thoát hơi nước và cũng là lượng nước cần cung cấp đủ cho cây trồng trong quá trình phát triển.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant and accurate. It provides a detailed explanation of each term in the context of the Penmen-Monteith method for studying plant water requirements, which is exactly what the user asked for.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Trình bày về sự tương tác giữa nguồn nước trong ruộng và kênh nội đồng trong hệ thống canh tác lúa, cụ thể là các yếu tố tạo thành lượng nước vào và lượng nước ra ở cả hai nguồn.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Lượng nước vào ruộng bao gồm lượng mưa và lượng nước chảy tràn từ kênh. Lượng nước ra từ ruộng bao gồm nước bốc hơi từ cây trồng, nước thấm và nước thoát. Mối tương tác giữa nguồn nước trong ruộng và nguồn nước trong kênh nội đồng được thể hiện qua một mô hình hệ thống động, sử dụng phần mềm Stella 10.0.
+Trong mô hình này, biến "Trạm bơm" rất quan trọng vì nó quyết định lượng nước bơm vào và thời gian bơm nước. Các yếu tố trong biến "Trạm bơm" được thể hiện qua phương trình cân bằng nước. Lượng nước bơm vào (Qp) phụ thuộc vào tổng lượng nước trên ruộng bao gồm lượng nước sẵn có trên ruộng (Q), lượng nước từ mưa (Qr) (nếu có mưa) và lượng nước từ kênh chảy tràn vào ruộng (Qk). Trạm bơm sẽ tiến hành bơm nước nếu tổng lượng nước trên ruộng “nhỏ hơn” hoặc “bằng” lượng nước thấp nhất được quy định tại mức bơm nước. Biến nồng độ mặn (Ec) cũng quan trọng trong việc quy định mức nồng độ mặn không được phép bơm nước.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the interaction between water sources in the field and the internal canal in the rice cultivation system. It also explains the factors that contribute to the amount of water entering and leaving both sources. The answer is accurate and comprehensive, but it could be a bit more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hãy mô tả cách lượng nước vào và ra ruộng được tính toán trong mô hình hệ thống canh tác lúa mà tác giả đã trình bày. Hãy đề cập đến các yếu tố như lượng mưa, lượng nước chảy tràn từ kênh, bốc thoát hơi cây trồng, thấm và thoát nước.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Trong mô hình hệ thống canh tác lúa, lượng nước vào ruộng được tính toán dựa trên lượng mưa và lượng nước chảy tràn từ kênh. Đối với lượng nước ra ruộng, nó bao gồm lượng nước bốc hơi từ cây trồng, lượng nước thấm vào đất và lượng nước thoát ra khỏi ruộng. Các yếu tố này được thể hiện qua một phương trình cụ thể.</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and correct. It accurately describes how water input and output in a rice farming system is calculated, mentioning factors such as rainfall, overflow from channels, plant evaporation, infiltration, and water discharge. However, it could be improved by providing more detailed information or examples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Trong quá trình hiệu chỉnh mô hình, biến "Trạm bơm" được chọn làm biến hiệu chỉnh vì sao? Hãy giải thích cách biến này ảnh hưởng đến lượng nước bơm vào và thời gian bơm nước.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Biến "Trạm bơm" được chọn làm biến hiệu chỉnh vì nó quyết định đến lượng nước bơm vào và thời gian bơm nước, giúp kết quả mô phỏng của mô hình phù hợp với kết quả thực tế về cách quản lý nước cho sản xuất lúa. Lượng nước bơm vào (Qp) phụ thuộc vào tổng lượng nước trên ruộng bao gồm lượng nước sẵn có trên ruộng (Q), lượng nước từ mưa (Qr) (nếu có mưa) và lượng nước từ kênh chảy tràn vào ruộng (Qk). Trạm bơm sẽ tiến hành bơm nước nếu tổng lượng nước trên ruộng “nhỏ hơn” hoặc “bằng” lượng nước thấp nhất được quy định tại mức bơm nước (Dr*(L + Htmin) trong đó: Dr là diện tích ruộng, L là mực nước ruộng ban đầu, Htmin là mực nước mà tại đó tiến hành bơm nước.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why the "Pump Station" variable is chosen for model calibration. It also explains how this variable affects the amount of water pumped in and the pumping time, which is exactly what the user asked for. The answer is fully correct and comprehensive, hence the perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu này, biến nào được xem là quan trọng trong việc quy định mức nồng độ mặn không được phép bơm nước và hãy giải thích cách tính lượng nước bơm vào ruộng?</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Biến nồng độ mặn (Ec) được xem là quan trọng trong việc quy định mức nồng độ mặn không được phép bơm nước. Cách tính lượng nước bơm vào ruộng (Qp) phụ thuộc vào tổng lượng nước trên ruộng bao gồm lượng nước sẵn có trên ruộng (Q), lượng nước từ mưa (Qr) (nếu có mưa) và lượng nước từ kênh chảy tràn vào ruộng (Qk). Trạm bơm sẽ tiến hành bơm nước nếu tổng lượng nước trên ruộng “nhỏ hơn” hoặc “bằng” lượng nước thấp nhất được quy định tại mức bơm nước (Dr*(L + Htmin) trong đó: Dr là diện tích ruộng, L là mực nước ruộng ban đầu, Htmin là mực nước mà tại đó tiến hành bơm nước. Lượng nước bơm vào bằng tổng diện tích ruộng nhân với mực nước ruộng và trừ đi phần lượng nước sẵn có trên ruộng với lượng nước vào ruộng từ mưa (nếu có mưa).</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and correct explanation of the variables involved in determining the salinity level for water pumping and the calculation of the amount of water pumped into the field.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hãy mô tả các bước hiệu chỉnh biến "Trạm bơm" trong nghiên cứu này và giải thích tầm quan trọng của việc hiệu chỉnh giá trị Htmax và Htmin.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu này, việc hiệu chỉnh biến "Trạm bơm" được thực hiện qua ba bước chính. Bước đầu tiên là hiệu chỉnh giá trị Htmax, mục tiêu là làm cho kết quả của mô hình phù hợp với kết quả thực tế về mực nước cao nhất. Bước thứ hai là hiệu chỉnh giá trị Htmin sau khi đã hiệu chỉnh Htmax, nhằm làm cho kết quả của mô hình phù hợp với kết quả thực tế về mực nước thấp nhất. Bước cuối cùng là lặp lại bước một và hai cho đến khi kết quả mô phỏng mực nước (cao nhất và thấp nhất) của mô hình tương đương với giá trị mực nước thực tế qua các giai đoạn phát triển của cây lúa. Trong nghiên cứu này, sai lệch mực nước giữa mô hình và thực tế được chấp nhận nếu nằm trong khoảng ±0.5 cm.
+Việc hiệu chỉnh giá trị Htmax và Htmin rất quan trọng vì nó giúp mô hình phản ánh chính xác hơn mực nước thực tế trong quá trình phát triển của cây lúa. Điều này giúp nâng cao độ chính xác của mô hình trong việc dự đoán và quản lý nguồn nước, từ đó hỗ trợ hiệu quả trong việc quản lý nguồn nước cho sản xuất lúa.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the steps involved in adjusting the "Pump Station" variable in the study. It also explains the importance of adjusting the Htmax and Htmin values. The answer is complete and accurate, with no errors or omissions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hãy mô tả các kịch bản được xây dựng trong nghiên cứu để thích ứng với tình trạng xâm nhập mặn trong quản lý nước cho cây lúa. Đặc biệt, hãy giải thích về phương pháp tưới tiết kiệm nước (AWD) và cách cơ cấu lại hệ thống kênh mương nội đồng.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu, một số kịch bản đã được xây dựng để thích ứng với tình trạng xâm nhập mặn trong quản lý nước cho cây lúa. Một trong những giải pháp đó là mở rộng kênh nội đồng, điều này có thể giải quyết tình trạng thiếu nước tưới cho sản xuất lúa trong thời gian xâm nhập mặn. Cụ thể, việc tăng thêm 2.4 ha diện tích mặt nước và 0.5 m chiều sâu kênh so với hiện trạng có thể đảm bảo lượng nước tưới cho 120 ha lúa trong 15 ngày.
+Ngoài ra, việc thay đổi lịch thời vụ và áp dụng phương pháp tưới tiết kiệm nước cũng được đề xuất. Phương pháp tưới tiết kiệm nước được xây dựng trong mô hình dựa vào phương pháp tưới thực tế của người dân tại vùng nghiên cứu. Trong quá trình canh tác, tùy thuộc vào điều kiện thời tiết (mưa và hạn hán) mà lượng nước cung cấp tưới và số lần bơm nước thay đổi nhưng vẫn giữ mực nước ổn định qua các giai đoạn phát triển của cây lúa.
+Các kịch bản về giảm diện tích canh tác lúa (25% và 50%) cũng được phân tích trong nghiên cứu này nhằm cung cấp kết quả tham khảo về giải pháp thích ứng với điều kiện khan hiếm nguồn nước trong tương lai.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the scenarios built in the study to adapt to the situation of salt intrusion in water management for rice crops. It also explains the water-saving irrigation method (AWD) and how to restructure the internal canal system, as requested by the user. The answer is fully correct and comprehensive, hence the perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu, các biến nào được chọn để phân tích độ nhạy của mô hình đối với sự thay đổi của các điều kiện tự nhiên? Hãy giải thích cách mô hình PRECIS được sử dụng để đánh giá sự biến động nguồn nước trong quá trình sản xuất khi điều kiện thời tiết thay đổi.</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Các biến được chọn để phân tích độ nhạy của mô hình đối với sự thay đổi của các điều kiện tự nhiên bao gồm: sự thay đổi lượng mưa, sự thay đổi nhiệt độ, và sự thay đổi thời gian xâm nhập mặn. Mô hình PRECIS được sử dụng để đánh giá sự biến động nguồn nước trong quá trình sản xuất khi điều kiện thời tiết thay đổi bằng cách sắp xếp dãy số liệu theo thứ tự 2 năm liên tiếp nhau và chọn các giá trị của Percentile 75%, 85% và 95% của giai đoạn mô phỏng (2015 - 2030). Giá trị mưa từ mô hình PRECIS sau đó được hiệu chỉnh lại theo phương pháp của Hồng Minh Hoàng và Văn Phạm Đăng Trí.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the variables chosen for sensitivity analysis in relation to natural conditions and how the PRECIS model is used to evaluate water source variability during production when weather conditions change. However, without a reference answer, it's hard to confirm the complete accuracy of the information provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu của Lê Sâm (2006), diễn biến độ mặn trên sông vùng ĐBSCL phụ thuộc vào yếu tố nào? Giả định thời gian mặn xâm nhập trong tương lai tăng lên so với hiện tại là bao nhiêu ngày?</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Rất tiếc, thông tin trong ngữ cảnh không cung cấp đủ chi tiết về nghiên cứu của Lê Sâm (2006) hoặc yếu tố nào mà diễn biến độ mặn trên sông vùng ĐBSCL phụ thuộc vào. Thông tin về giả định thời gian mặn xâm nhập trong tương lai tăng lên so với hiện tại cũng không được đề cập trong ngữ cảnh.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the lack of information about the research of Le Sam (2006) and the factors affecting the salinity in the Mekong Delta region. However, it does not provide a concrete answer to the user's question, hence the score is not higher.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mô hình sau khi hiệu chỉnh đã cho kết quả mô phỏng như thế nào về mực nước trên ruộng qua các giai đoạn phát triển của cây lúa? Kết quả mô phỏng của mô hình về mực nước (mực nước cao nhất và thấp nhất) đối với giá trị Htmin và Htmax ban đầu có chênh lệch so với thực tế không?</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Sau khi hiệu chỉnh, mô hình đã cho kết quả mô phỏng phù hợp với thực tế về mực nước trên ruộng qua các giai đoạn phát triển của cây lúa. Tuy nhiên, kết quả mô phỏng của mô hình về mực nước (mực nước cao nhất và thấp nhất) đối với giá trị Htmin và Htmax ban đầu còn chênh lệch lớn so với thực tế và sự chênh lệch này vượt mức giá trị chấp nhận (&gt; 0.5 cm).</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct as it directly addresses the user's query about the simulation results of the water level on the field through the development stages of the rice plant and the discrepancy between the simulated and actual values for Htmin and Htmax. However, without a reference answer, it's hard to confirm the absolute correctness of the generated answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, mô hình mô phỏng mực nước cao nhất và thấp nhất đối với giá trị Htmin và Htmax ban đầu có chênh lệch như thế nào so với thực tế? Hãy nêu cách hiệu chỉnh mô hình để đạt được kết quả phù hợp với thực tế.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, mô hình mô phỏng mực nước cao nhất và thấp nhất đối với giá trị Htmin và Htmax ban đầu có chênh lệch lớn so với thực tế. Sự chênh lệch này vượt mức giá trị chấp nhận, tức là lớn hơn 0.5 cm. Để hiệu chỉnh mô hình và đạt được kết quả phù hợp với thực tế, các bước thực hiện theo phương pháp hiệu chỉnh đã được áp dụng. Kết quả hiệu chỉnh cuối cùng của mô hình cho kết quả phù hợp với kết quả thực tế về mực nước cao nhất và thấp nhất (Lmin và Lmax) và giá trị sai lệch thỏa điều kiện chấp nhận (nhỏ hơn 0.5 cm).</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of the discrepancy between the simulated and actual water levels, as well as the method for adjusting the model to achieve results that align with reality. However, it does not provide specific steps or methods for the adjustment, which could have made the answer more complete.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Trong thời gian xâm nhập mặn, lượng nước hiện tại có thể cung cấp được bao lâu cho cây lúa? Việc dự báo mặn có thể giúp nông dân chủ động bơm nước trữ và tránh bơm nước mặn vào kênh nội đồng như thế nào?</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Trong thời gian xâm nhập mặn, lượng nước hiện tại chỉ có thể cung cấp được khoảng 2 ngày cho cây lúa. Việc dự báo mặn giúp nông dân chủ động bơm nước trữ, tránh bơm nước mặn vào kênh nội đồng, từ đó làm tăng lượng nước cung cấp (bao gồm lượng nước từ ruộng và kênh) cho nhu cầu tưới lên khoảng 64.000m3.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing specific details about the duration of water supply for rice plants during salt intrusion and how salt intrusion forecasts can help farmers. However, without a reference answer, it's hard to confirm the exact correctness of the specific details provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, việc dự báo xâm nhập mặn có thể giúp nông dân chủ động bơm nước trữ và tránh bơm nước mặn vào kênh nội đồng, làm tăng lượng nước cung cấp cho nhu cầu tưới lên khoảng bao nhiêu mét khối?</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Việc dự báo xâm nhập mặn có thể giúp nông dân chủ động bơm nước trữ và tránh bơm nước mặn vào kênh nội đồng, làm tăng lượng nước cung cấp cho nhu cầu tưới lên khoảng 64.000 mét khối.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems correct, but without a reference answer, it's hard to confirm the exactness of the figure provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Giải pháp thay đổi lịch canh tác có thể tạo ra một khoảng thời gian dài giữa 2 vụ, vậy nông dân có thể tận dụng khoảng thời gian này để làm gì?</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Nông dân có thể tận dụng khoảng thời gian giữa hai vụ để nâng cao hiệu quả sử dụng đất mùa lũ. Họ cũng có thể dùng thời gian này để thích nghi với các phương pháp canh tác mới hoặc chuyển đổi sang mô hình canh tác khác.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a correct and comprehensive response to the question about how farmers can utilize the time between two crops.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, phương pháp tưới tiết kiệm nước có thể tiết kiệm được bao nhiêu lượng nước so với phương pháp tưới của địa phương? Và nó giảm được bao nhiêu lần bơm nước?</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Phương pháp tưới tiết kiệm nước có thể tiết kiệm được khoảng 200.000m3 nước so với phương pháp tưới của địa phương. Ngoài ra, nó cũng giúp giảm được 4 lần bơm nước.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing specific figures in response to the user's query. However, without a reference answer or specific research data, it's hard to confirm the exact accuracy of these figures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Khi giảm 25% diện tích trồng lúa hiện tại, diện tích bề mặt kênh và chiều sâu kênh cần tăng thêm bao nhiêu so với giá trị ban đầu?</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Khi giảm 25% diện tích trồng lúa hiện tại, diện tích bề mặt kênh cần tăng thêm là 1.5ha và chiều sâu kênh cần tăng thêm 0.5 m so với giá trị ban đầu.</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>The generated answer seems to be providing specific numbers, but without any context or explanation, it's impossible to verify its correctness. The question seems to be asking for a calculation or a formula, but the answer doesn't provide either.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, nếu giảm 25% diện tích trồng lúa hiện tại thì diện tích bề mặt kênh và chiều sâu kênh cần tăng thêm bao nhiêu? Tổng nhu cầu nước cho cây lúa là bao nhiêu và tổng lượng nước có thể cung cấp sau khi mở rộng kênh là bao nhiêu?</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Nếu giảm 25% diện tích trồng lúa hiện tại, diện tích bề mặt kênh cần tăng thêm là 1.5ha và chiều sâu kênh cần tăng thêm 0.5 m so với giá trị ban đầu. Tổng nhu cầu nước cho cây lúa là 90.000 m3 và tổng lượng nước có thể cung cấp sau khi mở rộng kênh là khoảng 90.000 m3.</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides specific numbers. However, without a reference answer or additional context, it's impossible to verify the correctness of these numbers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Trong tương lai, lượng mưa có xu hướng thay đổi như thế nào và ảnh hưởng như thế nào đến nguồn nước tưới cho cây lúa? Các yếu tố bất lợi về thời tiết vào mùa mưa có thể gây ra những tác động gì đến năng suất lúa?</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Thông tin trong văn bản không cung cấp chi tiết về xu hướng thay đổi của lượng mưa trong tương lai. Tuy nhiên, nó cho biết rằng sự thay đổi bất thường về lượng mưa và thời gian xâm nhập mặn trong tương lai sẽ ảnh hưởng đáng kể đến nguồn nước cung cấp cho sản xuất lúa. Điều này có thể gây ra tình trạng thiếu hụt nguồn nước tưới cho nông nghiệp, đặc biệt trong thời gian xâm nhập mặn. Nếu hạn hán kéo dài, nó có thể ảnh hưởng đến sự phát triển của cây lúa. Tuy nhiên, văn bản không cung cấp thông tin cụ thể về các yếu tố bất lợi về thời tiết vào mùa mưa có thể gây ra những tác động gì đến năng suất lúa.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a comprehensive response to the question about the future trends of rainfall and its impact on the water supply for rice cultivation. It also mentions the potential effects of prolonged drought on rice growth. However, it does not provide specific information about the adverse weather factors during the rainy season that could impact rice productivity, which was part of the user's query. Therefore, it is not fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, sự thay đổi nhiệt độ trong tương lai sẽ ảnh hưởng như thế nào đến nhu cầu sử dụng nước và lượng nước cung cấp cho cây lúa?</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Theo mô hình dự báo, nhiệt độ trung bình trong tương lai sẽ cao hơn so với hiện tại, dẫn đến việc tăng nhu cầu sử dụng nước cho cây lúa. Điều này cũng làm tăng lượng nước bốc hơi, dẫn đến việc cần bơm nhiều nước hơn so với hiện tại, đặc biệt là vào mùa khô. Sự tăng nhiệt độ này có thể gây ra tình trạng thiếu hụt nguồn nước cung cấp tưới cho nông nghiệp trong tương lai, đặc biệt khi hạn hán kéo dài và xâm nhập mặn ngày càng tăng cao.</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how future temperature changes could affect water demand and supply for rice crops. It is accurate and comprehensive, although it could be slightly more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Giải pháp nào được đề xuất trong nghiên cứu để khắc phục tình trạng thiếu nước cung cấp tưới cho sản xuất lúa trong thời gian xâm nhập mặn?</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Các giải pháp được đề xuất trong nghiên cứu bao gồm việc mở rộng kênh nội đồng, tăng thêm 2.4 ha diện tích mặt nước và 0.5 m chiều sâu kênh. Điều này có thể đảm bảo lượng nước tưới cho 120 ha lúa trong 15 ngày. Ngoài ra, việc thay đổi lịch thời vụ và áp dụng phương pháp tưới tiết kiệm nước cũng được đề xuất như một cách để hạn chế ảnh hưởng của việc thiếu nước do xâm nhập mặn. Các kịch bản về việc giảm diện tích canh tác lúa (25% và 50%) cũng được phân tích như một giải pháp thích ứng với điều kiện khan hiếm nguồn nước trong tương lai.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response to the question about solutions proposed in research to address the issue of water shortage for rice production during saltwater intrusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, việc mở rộng kênh nội đồng và tăng thêm diện tích mặt nước cùng chiều sâu kênh có thể đảm bảo lượng nước tưới cho bao nhiêu ha lúa trong bao lâu? Hãy nêu rõ các số liệu cụ thể.</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Việc mở rộng kênh nội đồng và tăng thêm 2.4 ha diện tích mặt nước cùng 0.5 m chiều sâu kênh có thể đảm bảo lượng nước tưới cho 120 ha lúa trong 15 ngày.</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing specific figures in response to the user's query. However, without a reference answer, it's hard to confirm the absolute correctness of the provided figures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mô hình toán được sử dụng trong nghiên cứu có thể hỗ trợ công tác quản lý nguồn tài nguyên nước mặt như thế nào? Hãy nêu rõ hạn chế của mô hình này.</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Mô hình toán được sử dụng trong nghiên cứu giúp đánh giá hiệu quả của việc điều chỉnh hệ thống canh tác để thích ứng với điều kiện khan hiếm nguồn tài nguyên nước mặt trong tương lai. Nó cung cấp cái nhìn tổng quan về mối quan hệ giữa các yếu tố trong hệ thống, như biến động nguồn nước giữa ruộng và kênh nội đồng. Mô hình này cũng cho ra kết quả nhanh, giúp nông dân địa phương và cơ quan nhà nước có liên quan trong lĩnh vực quản lý nước trong nông nghiệp dễ dàng lựa chọn giải pháp thích hợp để thích ứng với sự thay đổi của khí hậu. Tuy nhiên, mô hình này cũng có hạn chế là ở bước thời gian mô phỏng (trong thực tế nguồn nước biến động liên tục; trong khi đó, mô hình mô phỏng biến động nguồn nước theo ngày) cũng như một số giả định chưa được kiểm chứng. Do đó, mô hình cần được tiếp tục nghiên cứu và cải thiện về sau.</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of how mathematical models can be used in managing freshwater resources. It also addresses the limitations of these models. The answer is comprehensive and seems accurate, but without a reference answer, it's hard to confirm its complete correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, vùng nào trong tỉnh Trà Vinh đang xảy ra mâu thuẫn giữa cơ hội và thách thức cao hơn hai vùng còn lại do xâm nhập mặn?</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Vùng 1 trong tỉnh Trà Vinh đang xảy ra mâu thuẫn giữa cơ hội và thách thức cao hơn hai vùng còn lại do xâm nhập mặn. Vùng này đã bị xâm nhập mặn nghiêm trọng do nằm ngoài dự án Nam Măng Thít với hình thức nông nghiệp chính là nuôi tôm.</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a specific region (Vùng 1) in Trà Vinh province where the contradiction between opportunities and challenges is higher due to salt intrusion. However, without a reference answer or specific research to confirm, it's hard to verify the full correctness of this response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh biến đổi khí hậu, nếu nước biển dâng thêm 1m thì diện tích xâm nhập mặn (XNM) với độ mặn 4 g/l của Đồng bằng sông Cửu Long (ĐBSCL) sẽ tăng thêm bao nhiêu phần trăm so với năm 2004?</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Nếu nước biển dâng thêm 1m trong bối cảnh biến đổi khí hậu, diện tích xâm nhập mặn (XNM) với độ mặn 4 g/l của Đồng bằng sông Cửu Long (ĐBSCL) sẽ tăng thêm 25% so với năm 2004.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, but without a reference answer, it's hard to confirm the exact percentage increase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Theo báo cáo, diện tích xâm nhập mặn (XNM) với độ mặn 4 g/l của Đồng bằng sông Cửu Long (ĐBSCL) sẽ tăng thêm bao nhiêu phần trăm so với năm 2004 nếu nước biển dâng thêm 1m? Hãy nêu rõ các hậu quả có thể xảy ra do tình trạng này và giải pháp đã được đề xuất để giảm thiểu tối đa những thiệt hại do mặn xâm nhập sâu vào nội đồng.</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Nếu nước biển dâng thêm 1m, diện tích xâm nhập mặn (XNM) với độ mặn 4 g/l của Đồng bằng sông Cửu Long (ĐBSCL) sẽ tăng thêm 25% so với năm 2004. Hậu quả của tình trạng này có thể là sự mở rộng của môi trường nước lợ, ảnh hưởng đến sản xuất lúa tại Trà Vinh và các vùng khác. Để giảm thiểu tối đa những thiệt hại do mặn xâm nhập sâu vào nội đồng, việc xây dựng các hệ thống thủy lợi đã được quan tâm từ rất sớm. Một trong những dự án lớn là dự án Nam Măng Thít thuộc Dự án phát triển thủy lợi ĐBSCL, với phần lớn diện tích nằm trên địa bàn tỉnh Trà Vinh.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct. It provides a specific percentage increase in the area of salt intrusion in the Mekong Delta if sea levels rise by 1m, discusses potential consequences, and suggests a solution. However, without a reference answer, it's hard to confirm the exact correctness of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu về dự báo mặn tại Trà Vinh, các chính sách thích ứng với tình trạng xâm nhập mặn đã gặp phải những "lỗ hổng" nào? Hãy đề cập đến các vấn đề liên quan đến việc thực hiện các chính sách này và giải pháp đã được đề xuất để khắc phục những "lỗ hổng" này.</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Thông tin trong ngữ cảnh không cung cấp chi tiết về các "lỗ hổng" trong các chính sách thích ứng với tình trạng xâm nhập mặn tại Trà Vinh. Cũng không có thông tin về các vấn đề liên quan đến việc thực hiện các chính sách này và giải pháp đã được đề xuất để khắc phục những "lỗ hổng" này.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it addresses the topic of policies and solutions related to salt intrusion in Tra Vinh. However, it does not provide any specific information or details about the "loopholes" in these policies, the issues related to their implementation, or the proposed solutions to these problems. Therefore, it is not fully correct or complete.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Mục tiêu của nghiên cứu trong bài viết này là gì và đối tượng nghiên cứu là ai?</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Mục tiêu của nghiên cứu trong bài viết đầu tiên là phân tích và đánh giá năng lực thích ứng của các hộ nông dân với XNM (không rõ XNM là gì dựa trên ngữ cảnh) trong ba vùng khác nhau, được chia theo mức độ XNM: đã bị XNM nghiêm trọng, đang bị XNM mức độ nhẹ và chưa bị XNM. Đối tượng nghiên cứu là 103 hộ nông dân tại 6 xã: Hiệp Mỹ Đông và Ngũ Lạc (Vùng 1), Long Sơn và Đôn Châu (Vùng 2), Nhị Trường và Ngọc Biên (Vùng 3).
+Trong bài viết thứ hai, mục tiêu của nghiên cứu là thử nghiệm công nghệ IOT ứng dụng trong hệ thống khử mặn. Bài viết không cung cấp thông tin cụ thể về đối tượng nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing detailed information about the research objectives and subjects in two different articles. However, it's not clear what XNM refers to, which could potentially lead to confusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Phương pháp MOTA được phát triển bởi ai và năm nào?</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Phương pháp MOTA được phát triển bởi Ho Long Phi và cộng sự vào năm 2015.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>The generated answer is incorrect. The MOTA (Multiple Object Tracking Accuracy) metric was not developed by Ho Long Phi and his colleagues in 2015. The actual developers and the year of development are not specified in the generated answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hãy mô tả các bước trong phương pháp tiếp cận MOTA mà Ho Long Phi và cộng sự đã phát triển. Trong đó, bạn cần giải thích cách mà nhận thức, động lực và năng lực liên quan đến việc thích ứng của nông dân trong bối cảnh biến đổi khí hậu và xâm nhập mặn.</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Phương pháp tiếp cận MOTA bao gồm các bước sau:
+1. Xác định các nguyên nhân dẫn đến sự thích ứng (thay đổi): Đây là bước xác định nguyên nhân chính yếu gây ra các ảnh hưởng đến cuộc sống nông dân trong bối cảnh biến đổi khí hậu và xâm nhập mặn.
+2. Đánh giá nhận thức của đối tượng thích ứng đối với các nguyên nhân: Bao gồm hai yếu tố dẫn đến nhận thức về xâm nhập mặn (cơ hội hoặc thách thức). Nếu là thách thức, nông dân khác nhau sẽ có ngưỡng nhận thức khác nhau, và mức thách thức cho đối tượng càng cao sẽ tạo ra nhận thức càng mạnh. Nếu là cơ hội, cơ hội không chia đều cho tất cả các nông dân, và các cơ hội khác nhau sẽ quyết định nhận thức về vấn đề khác nhau.
+3. Đánh giá các động lực (điều kiện kinh tế, xã hội,...) và xác định năng lực thích ứng của đối tượng: Nhận thức khác nhau thể hiện động lực và năng lực để thích ứng của nông dân cũng khác nhau. Động lực và năng lực có mối liên hệ tương quan với nhau và quyết định hành vi của con người, vì thế nhận thức và hành vi có mối quan hệ gián tiếp với nhau thông qua động lực và năng lực.
+Sau khi các hành vi được thực hiện phù hợp với động lực và năng lực mà họ đang có, nếu có vấn đề gì phát sinh, sẽ quay lại bước đầu tìm hiểu nguyên nhân, cứ thế cách thích ứng của nông dân sẽ ngày càng được nâng cao và phát triển.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the MOTA approach developed by Ho Long Phi and his colleagues. It also explains how perception, motivation, and capacity relate to farmers' adaptation in the context of climate change and saltwater intrusion. The answer could be slightly improved by providing more specific examples or further elaboration on the steps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Trong phương pháp điều tra bằng phiếu khảo sát, tỉnh Trà Vinh được chia thành 3 vùng dựa trên mức độ xâm nhập mặn. Hãy mô tả đặc điểm của mỗi vùng và hình thức nông nghiệp chính ở mỗi vùng.</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Tỉnh Trà Vinh được chia thành 3 vùng dựa trên mức độ xâm nhập mặn. Vùng 1 đã bị xâm nhập mặn nghiêm trọng do nằm ngoài dự án Nam Măng Thít và hình thức nông nghiệp chính ở đây là nuôi tôm. Vùng 2 nằm trong vùng dự án Nam Măng Thít và nông dân tự phát nuôi tôm nên đang dần bị xâm nhập mặn. Hình thức nông nghiệp ở vùng này vừa nuôi tôm vừa trồng lúa. Cuối cùng, Vùng 3 chưa bị xâm nhập mặn và hình thức nông nghiệp chính ở đây là thâm canh lúa.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of each region in Trà Vinh province based on the level of salt intrusion and the main form of agriculture in each region. It does not contain any mistakes or inaccuracies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Tỉnh Trà Vinh được chia thành bao nhiêu vùng và mô tả đặc điểm của từng vùng?</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Tỉnh Trà Vinh được chia thành 3 vùng. Vùng 1 đã bị XNM nghiêm trọng do nằm ngoài dự án Nam Măng Thít và hình thức nông nghiệp chính là nuôi tôm. Vùng 2 nằm trong vùng dự án Nam Măng hiệu quả và nông dân tự phát nuôi tôm nên đang dần bị XNM với hình thức nông nghiệp vừa nuôi tôm vừa trồng lúa. Vùng 3 chưa bị XNM với hình thức nông nghiệp thâm canh lúa.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it provides information about the division of Trà Vinh province into three regions and describes the characteristics of each region. However, the answer contains some unclear abbreviations like "XNM" which are not explained, making it difficult to fully understand the answer. Therefore, the score is in the middle of the range for relevant but flawed answers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Theo dữ liệu thu thập từ năm 2006 đến 2013, hãy mô tả xu hướng biến đổi độ mặn tại các trạm Hưng Mỹ, Trà Vinh, Trà Kha và Cầu Quan.</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Từ năm 2006 đến 2013, nồng độ mặn có xu hướng tăng tại trạm Hưng Mỹ và Trà Vinh, đều nằm trên sông Cổ Chiên. Tuy nhiên, tại hai trạm Trà Kha và Cầu Quan, cả hai đều nằm trên sông Hậu, nồng độ mặn lại có xu hướng giảm. Đặc biệt, tại trạm Trà Kha, mặc dù độ mặn tăng trong giai đoạn 2006 - 2009, nhưng sau năm 2010, độ mặn lại có xu hướng giảm.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the salinity changes at the specified stations from 2006 to 2013. It does not contain any mistakes and is fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, nông dân ở vùng nào đã nhận thức được tác động của XNM đến họ và xem đó là cơ hội để chuyển hoàn toàn từ hình thức trồng lúa sang nuôi tôm thâm canh và tôm-lúa với lợi nhuận cao hơn?</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Nông dân ở Vùng 1 đã nhận thức được tác động của XNM đến họ và xem đó là cơ hội để chuyển hoàn toàn từ hình thức trồng lúa sang nuôi tôm thâm canh và tôm-lúa với lợi nhuận cao hơn.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it's not fully correct because it doesn't specify which region "Vùng 1" refers to. The user query asks for a specific region, and "Vùng 1" is too vague.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tại sao nông dân ở vùng 3 có thể phát triển ổn định với nghề trồng lúa lâu năm?</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Nông dân ở Vùng 3 có thể phát triển ổn định với nghề trồng lúa lâu năm do họ có nguồn nước cung ứng từ sông Măng Thít.</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it's not fully correct because it only provides one reason (water supply from the Măng Thít river) why farmers in Region 3 can sustainably grow rice for a long time. There could be other factors involved such as soil fertility, climate, farming techniques, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong bài, hãy mô tả những khó khăn mà nông dân ở Vùng 3 gặp phải trong việc chia sẻ nguồn nước và những tác động của XNM đối với quá trình sản xuất nông nghiệp của họ?</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Nông dân ở Vùng 3 gặp phải khó khăn trong việc chia sẻ nguồn nước với các xã khác do khu vực này được phân chia bởi nhiều kênh nhỏ. Một số nơi hơi cao thì lại thiếu nước, và một số nơi khác bị nhiễm phèn. Về tác động của XNM, nông dân ở đây đã nhận thức được về những tác động có thể có lợi hoặc có hại đối với quá trình sản xuất nông nghiệp của họ. Tuy nhiên, họ cho rằng khu vực của họ hầu như không có sự XNM, và chỉ một phần nhỏ bị mặn là do các hộ nuôi tôm thải nước thải ra kênh sau khi thu hoạch tôm.</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and provides a detailed explanation of the difficulties faced by farmers in Region 3 in sharing water resources and the impacts of XNM on their agricultural production process. It does not contain any noticeable errors or inaccuracies. The only reason it does not receive a full score is because without a reference answer, it's hard to determine if it's fully comprehensive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Tại sao nông dân ở Vùng 1 lại có tỷ lệ mong muốn chuyển đổi hình thức nông nghiệp cao nhất và những rủi ro mà họ có thể gặp phải khi chuyển đổi sang loại hình nuôi tôm hoàn toàn là gì?</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Nông dân ở Vùng 1 có tỷ lệ mong muốn chuyển đổi hình thức nông nghiệp cao nhất vì họ đã từng thay đổi để thích ứng với các tác động môi trường trước đó. Họ đã có sẵn những tư liệu và công cụ sản xuất, đặc biệt là các kinh nghiệm thích ứng được tích lũy hơn 10 năm qua. Do đó, họ có đủ điều kiện và rất mong muốn chuyển đổi sang loại hình chỉ chuyên canh nuôi tôm quanh năm. Tuy nhiên, việc chuyển đổi sang loại hình nuôi tôm hoàn toàn có thể mang đến nhiều rủi ro. Những rủi ro này bao gồm những biến động từ thị trường tiêu thụ, giá cả và quan trọng hơn là dịch bệnh. Nếu ao tôm bị bệnh, họ có thể mất toàn bộ thu nhập.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why farmers in Region 1 have the highest desire to transition to a different form of agriculture, as well as the risks they may face when transitioning to shrimp farming. The answer is comprehensive and seems accurate, but without a reference answer, it's hard to confirm its complete correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong bài, hãy mô tả lý do mà một số nông dân không muốn chuyển đổi mô hình canh tác hiện tại của họ? Hãy đưa ra các ví dụ cụ thể từ ngữ cảnh.</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Một số nông dân không muốn chuyển đổi mô hình canh tác hiện tại vì họ cảm thấy rằng phương pháp canh tác hiện tại đã phù hợp. Họ duy trì mô hình tôm-lúa và trồng thêm các loại cây như rau thơm, hành lá, dưa hấu,... để có nguồn thu nhập luân phiên, ổn định và bền vững, không quá phụ thuộc vào một loại hình canh tác duy nhất. Điều này đặc biệt phù hợp với các hộ gia đình có lực lượng lao động ít, hộ có nhân lực lao động nông nghiệp tuổi đã cao và dựa vào canh tác nông nghiệp làm nguồn thu nhập chính.
+Một ví dụ cụ thể là ở Vùng 2 (xã Long Sơn và Đôn Châu), tỷ lệ mong muốn chuyển đổi thấp hơn Vùng 1 (chiếm 35,3%), và phần lớn của tỷ lệ này (khoảng 90%) cũng dự định chuyển sang loại hình là nuôi tôm vì họ nghĩ nước mặn xâm nhập thì trồng lúa khó khăn và chỉ có thể nuôi tôm. Tuy nhiên, tỷ lệ các hộ không muốn chuyển đổi chiếm đa số là các hộ trồng lúa người Khơme và có nhiều trẻ em, họ nghĩ đất nông nghiệp của mình chỉ có thể để trồng lúa, mặc dù mùa vụ năm nay đã bị ảnh hưởng rất nhiều nhưng họ vẫn kiên quyết duy trì để đảm bảo nguồn thức ăn tối thiểu cho gia đình.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why some farmers do not want to change their current farming model. It also provides specific examples from the context, which was requested in the user query. The answer is fully correct and comprehensive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tại sao việc tuyên truyền và hỗ trợ khác lại rất cần thiết tại Vùng 2? Hãy giải thích tầm quan trọng của việc thay đổi nhận thức và động lực của nông dân trong việc thích ứng lâu dài và bền vững.</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Tuyên truyền và hỗ trợ khác cần thiết tại Vùng 2 vì nông dân ở đây chưa nhận thức đầy đủ về các vấn đề liên quan đến canh tác và kinh tế. Họ thường chỉ tập trung vào việc đáp ứng nhu cầu tối thiểu cho gia đình mà không nhận thức được các vấn đề khác. Việc thay đổi nhận thức và động lực của nông dân rất quan trọng để họ có thể thích ứng lâu dài và bền vững. Điều này giúp họ thoát khỏi vòng lặp "vay vốn - sản xuất - hoàn trả" chỉ để sinh sống qua ngày, và thay vào đó, họ có thể tìm kiếm các cách thức canh tác hiệu quả hơn, tạo ra nguồn thu nhập ổn định và bền vững hơn.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of why propaganda and other support are necessary in Region 2. It also explains the importance of changing farmers' perceptions and motivations for long-term and sustainable adaptation. The answer could be improved by providing more specific examples or strategies for achieving these changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong bài, vì sao nông dân ở Vùng 3 có tỷ lệ mong muốn chuyển đổi thấp nhất và họ chưa nghĩ đến việc thích ứng chuyển đổi như thế nào với XNM?</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Nông dân ở Vùng 3 có tỷ lệ mong muốn chuyển đổi thấp nhất vì họ có truyền thống trồng lúa nước và mức độ XNM thấp nhất. Cuộc sống nông dân trong vùng đã khá ổn định với việc canh tác lúa chuyên canh luôn mang lại lợi nhuận cao. Họ chưa nghĩ đến việc sẽ thích ứng chuyển đổi như thế nào với XNM, trong đó cũng có một phần họ nghĩ mặn sẽ không xâm nhập đến khu vực của mình.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing a detailed explanation for why farmers in Region 3 have the lowest desire to transition and how they have not yet considered adapting to salinity intrusion (XNM). The answer could be more concise, but overall it is a good response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Điểm động lực của Vùng 1, Vùng 2 và Vùng 3 tương ứng là bao nhiêu và nó được quy đổi như thế nào?</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Điểm động lực của Vùng 1, Vùng 2 và Vùng 3 tương ứng là -0,106; -0,294 và -0,420. Điểm này được quy đổi trên thang điểm từ -1 đến 1. Nếu vùng có điểm động lực thích ứng được quy đổi của vùng &gt; 0 (tức &gt;50% nông dân có mong muốn thay đổi) được xếp vào loại “không ủng hộ” chính sách thích ứng mới, và ngược lại được xếp vào loại “ủng hộ” chính sách thích ứng mới.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query as it provides the motivation scores for the three regions and explains how they are converted. However, the explanation of the conversion seems to be incorrect or confusing, as it states that a score &gt; 0 (or &gt;50% of farmers wanting change) is classified as "not supporting" new adaptation policies, which seems counterintuitive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, vùng nào có điểm năng lực thích ứng cao nhất và vùng nào có điểm thấp nhất? Hãy giải thích vì sao các vùng này lại có sự khác biệt về năng lực thích ứng như vậy?</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Vùng có điểm năng lực thích ứng cao nhất là Vùng 3 với 3,33 điểm, trong khi vùng có điểm thấp nhất là Vùng 2 với 2,86 điểm. Sự khác biệt về năng lực thích ứng giữa các vùng có thể do mức độ tác động của XNM. Vùng 1 và Vùng 3 có năng lực thích ứng cao hơn có thể do chúng chưa bị tác động nặng nề bởi XNM hoặc đã bị tác động nghiêm trọng và đã thích ứng. Trong khi đó, Vùng 2 - nơi đang chịu tác động của XNM, có năng lực thích ứng thấp hơn.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides specific information about the regions with the highest and lowest adaptation scores. However, it does not fully explain why these regions have such differences in adaptation capabilities, and the explanation given is somewhat vague and unclear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Hãy mô tả sự phân bố giữa điểm quy đổi động lực thích ứng và điểm năng lực thích ứng của ba vùng theo hình 6.</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Vùng 1, có mức độ XNM cao nhất, có điểm động lực – năng lực là (-0,106; 3,17). Vùng 2, có mức độ XNM đứng thứ hai, có điểm động lực – năng lực là (-0,294; 2,86). Vùng 3, có mức độ XNM thấp nhất, có số điểm tương ứng là (-0,42; 3,33).</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides specific details about the distribution of the adaptation dynamic and capability scores for the three regions. However, without a reference answer or the actual figure 6, it's hard to confirm the absolute correctness of the provided data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu của Trung et al. 2016, hãy mô tả sự phân bố giữa điểm quy đổi động lực thích ứng và điểm năng lực thích ứng trong 3 vùng khác nhau. Đồng thời, giải thích ý nghĩa của các điểm số này và cách chúng được sử dụng để phân loại nông dân.</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu, ba vùng được phân loại dựa trên mức độ XNM (xâm nhập mặn). Vùng 1 có mức độ XNM cao nhất với điểm động lực - năng lực là (-0,106; 3,17). Vùng 2 có mức độ XNM đứng thứ hai với điểm động lực - năng lực là (-0,294; 2,86). Vùng 3 có mức độ XNM thấp nhất với điểm tương ứng là (-0,42; 3,33).
+Điểm động lực thích ứng được quy đổi của mỗi vùng nếu lớn hơn 0 (tức là hơn 50% nông dân có mong muốn thay đổi) được xếp vào loại "không ủng hộ" chính sách thích ứng mới, và ngược lại được xếp vào loại "ủng hộ" chính sách thích ứng mới. Điểm năng lực thích ứng nếu nằm trong khoảng từ 3 - 5 điểm được xếp vào loại "chủ động" thích ứng, và ngược lại có số điểm từ 1 - 3 xếp vào loại "bị động" thích ứng.
+Dựa trên điểm số này, nông dân ở cả ba vùng đều nằm trong dạng "không ủng hộ" chính sách thích ứng mới. Cụ thể, nông dân ở Vùng 1 và Vùng 3 thuộc nhóm "Không ủng hộ - Chủ động", trong khi nông dân ở Vùng 2 thuộc nhóm "Không ủng hộ - Bị động". Điểm số này giúp các nhà ra quyết định đưa ra các giải pháp quản lý phù hợp với năng lực thực tế và sự mong muốn của nông dân.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the distribution of the adaptation motivation and capacity scores in the three different regions as per Trung et al.'s 2016 study. It also explains the significance of these scores and how they are used to classify farmers. The answer is complete and accurate, hence the perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Theo kết luận của nghiên cứu, 3 vùng được chia dựa trên mức độ XNM. Hãy mô tả mức độ XNM của mỗi vùng và giải thích cách mà các nhà ra quyết định có thể sử dụng thông tin này để đưa ra các chính sách quản lý phù hợp.</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Theo kết luận của nghiên cứu, 3 vùng được chia dựa trên mức độ XNM. Vùng 1 đã bị XNM nghiêm trọng, Vùng 2 đang bị XNM mức độ nhẹ, và Vùng 3 chưa bị XNM. Các nhà ra quyết định có thể sử dụng thông tin này để đưa ra các chính sách quản lý phù hợp. Họ có thể căn cứ vào sự phân loại động lực và năng lực của mỗi vùng để đưa ra các giải pháp quản lý phù hợp với năng lực thực tế và sự mong muốn của nông dân. Các chính sách đó được đề xuất theo cách tiếp cận “dưới - lên” và mang ý nghĩa thực tế nên mang tính phù hợp và khả thi cao.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct. It describes the levels of XNM in each region and explains how decision-makers can use this information to make appropriate management policies. However, without a reference answer, it's hard to be certain of its full correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu, khu vực được chia thành 3 vùng tương ứng với 3 mức độ XNM. Hãy mô tả đặc điểm và năng lực thích ứng của mỗi vùng.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Khu vực nghiên cứu được chia thành 3 vùng tương ứng với 3 mức độ XNM. Vùng 1 đã bị XNM nghiêm trọng, vùng 2 đang bị XNM mức độ nhẹ, và vùng 3 chưa bị XNM. 
+Vùng 1, với mức độ XNM cao nhất, có điểm động lực – năng lực là (-0,106; 3,17). Nông dân ở đây thuộc nhóm đối tượng “Không ủng hộ - Chủ động” đối với các chính sách thích ứng, tức là họ không có sự mong muốn thay đổi thích ứng nhưng lại có các tiềm năng để chủ động việc thích ứng.
+Vùng 2, có mức độ XNM đứng thứ hai, có điểm động lực – năng lực là (-0,294; 2,86). Nông dân ở đây thuộc nhóm đối tượng “Không ủng hộ - Bị động”, tức là họ đang trong tình trạng bị động về năng lực thay đổi và cũng không có mong muốn thay đổi.
+Vùng 3, có mức độ XNM thấp nhất, có số điểm tương ứng (-0,42; 3,33). Nông dân ở đây giống nông dân Vùng 1 thuộc nhóm đối tượng “Không ủng hộ - Chủ động”, tức là họ không có sự mong muốn thay đổi thích ứng nhưng lại có các tiềm năng để chủ động việc thích ứng.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed description of the three regions in the study area, their characteristics, and their adaptive capacities. However, without a reference answer, it's hard to confirm the correctness of the specific details provided. The score is slightly reduced due to this uncertainty.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, tỷ lệ mong muốn chuyển đổi hay động lực thích ứng của nông dân 3 vùng đều dưới 50%. Hãy giải thích ý nghĩa của thông tin này và nó ảnh hưởng như thế nào đến việc thích ứng với XNM của nông dân.</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Thông tin về tỷ lệ mong muốn chuyển đổi hay động lực thích ứng của nông dân ở 3 vùng dưới 50% cho thấy rằng có một phần lớn nông dân không ủng hộ hoặc không có động lực để thích ứng với các chính sách thích ứng với XNM. Điều này có thể ảnh hưởng đến hiệu quả của các biện pháp thích ứng với XNM, vì nếu nông dân không có động lực để thay đổi, họ có thể không thực hiện các biện pháp thích ứng một cách hiệu quả. Điều này cũng cho thấy rằng có nhu cầu cho các hoạt động tuyên truyền và hỗ trợ để tăng cường nhận thức và động lực của nông dân trong việc thích ứng với XNM.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and accurate in explaining the implications of the information provided in the user query. It correctly interprets the significance of the low adaptation rate among farmers in the three regions and its impact on the effectiveness of adaptation measures. The answer also suggests a need for awareness and motivation activities, which is a logical conclusion. The only reason it doesn't get a full score is because without a reference answer, it's hard to be certain that it's completely correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hãy liệt kê 4 tỉnh thuộc Tiểu vùng Duyên Hải phía Đông và nêu tốc độ tăng trưởng kinh tế của từng tỉnh trong năm 2017.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Tiểu vùng Duyên Hải phía Đông bao gồm 4 tỉnh: Bến Tre, Tiền Giang, Vĩnh Long và Trà Vinh. Tốc độ tăng trưởng kinh tế của từng tỉnh trong năm 2017 là: Trà Vinh tăng trưởng 12,09%, Tiền Giang tăng trưởng 7,4%, Bến Tre tăng trưởng 7,23%, và Vĩnh Long tăng trưởng 5,62%.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and fully correct. It accurately lists the four provinces in the Eastern Sea region and provides the economic growth rate for each province in 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Theo báo cáo, vấn đề gì đang đe dọa sản xuất nông nghiệp và nuôi trồng thủy sản ở các tỉnh thuộc Tiểu vùng Duyên Hải phía Đông?</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Sản xuất nông nghiệp và nuôi trồng thủy sản ở các tỉnh thuộc Tiểu vùng Duyên Hải phía Đông đang đối mặt với nhiều thách thức. Một trong những vấn đề lớn là biến đổi khí hậu, cụ thể là tình trạng hạn hán do việc xây dựng các đập thủy điện của các nước thượng nguồn như Campuchia, Lào, Thái Lan và Trung Quốc, làm giảm nguồn nước ngọt từ thượng nguồn sông Mekong. Ngoài ra, việc tăng diện tích đất nhiễm mặn cũng gây ra thách thức, làm giảm hiệu suất sử dụng đất và tăng chi phí cải tạo đất. Sự xâm nhập mặn cũng làm thay đổi hệ sinh thái ven biển. Cuối cùng, sự suy giảm về chất lượng các nguồn lực tự nhiên và môi trường sống của người dân cũng đang gây ra những thách thức lớn.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the issues threatening agriculture and aquaculture in the Eastern Sea coastal region. It mentions climate change, dam construction, salinization, and degradation of natural resources and living environment, which are all significant challenges. The answer could be improved by providing more specific examples or data, but overall, it is very informative and accurate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong bài viết, hãy nêu rõ những thách thức mà Tiểu vùng DHPĐ đang phải đối mặt trong quá trình phát triển nông nghiệp?</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Bài viết không cung cấp thông tin cụ thể về những thách thức mà Tiểu vùng DHPĐ đang phải đối mặt trong quá trình phát triển nông nghiệp.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but without a reference answer or the original article, it's hard to determine if it's fully correct. However, it does address the question directly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Khái niệm "tăng trưởng xanh" có nguồn gốc từ khu vực nào trên thế giới?</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Khái niệm "tăng trưởng xanh" có nguồn gốc từ khu vực Châu Á - Thái Bình Dương.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it's not fully correct. The concept of "green growth" is generally considered to have originated in the West, not specifically in the Asia-Pacific region.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Hãy giải thích khái niệm "tăng trưởng xanh" và nêu rõ những yếu tố mà nó kết hợp.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>"Tăng trưởng xanh" là một khái niệm xuất phát từ khu vực Châu Á - Thái Bình Dương, được xem như mô hình tăng trưởng của tương lai. Nó được định nghĩa là sự kết hợp hài hòa giữa tăng trưởng kinh tế và sự bền vững môi trường, đồng thời nâng cao hiệu quả sinh thái của tăng trưởng kinh tế và tăng cường sự phối hợp giữa yếu tố kinh tế và môi trường. Theo World Bank, tăng trưởng xanh còn là mô hình tăng trưởng hiệu quả, sạch và có tính đàn hồi – hiệu quả trong việc sử dụng tài nguyên thiên nhiên, sạch trong việc giảm thiểu tác động gây ô nhiễm môi trường, và có tính đàn hồi, chống chịu được trước các thiên tai, thảm họa thiên nhiên do tôn trọng giới hạn tuyệt đối của môi trường sinh thái.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the concept "green growth" and the factors it combines. It is accurate and detailed, making it a perfect response to the query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Theo Tổ chức Lương thực và Nông nghiệp Liên Hiệp Quốc (FAO, 2012), tăng trưởng xanh trong nông nghiệp được xem xét trong khuôn khổ của điều gì?</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Tăng trưởng xanh trong nông nghiệp được xem xét trong khuôn khổ của Xanh hóa nền kinh tế với Nông nghiệp (Greening the Economy with Agriculture - GE).</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing a specific framework ("Greening the Economy with Agriculture - GE") in which green growth in agriculture is considered according to the FAO. However, without a reference answer, it's slightly difficult to confirm the absolute correctness of the response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Theo Tổ chức Lương thực và Nông nghiệp Liên Hiệp Quốc (FAO, 2012), khái niệm tăng trưởng xanh trong nông nghiệp được xem xét trong khuôn khổ của Xanh hóa nền kinh tế với Nông nghiệp (GEA). Hãy liệt kê và giải thích các nội dung mà GEA bao gồm.</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Greening the Economy with Agriculture (GEA) bao gồm các nội dung sau:
+1. Đảm bảo an ninh lương thực và dinh dưỡng thông qua sự cân bằng thích hợp giữa sản lượng sản xuất và thương mại. Điều này có nghĩa là cần phải tạo ra một sự cân đối giữa lượng thực phẩm được sản xuất và lượng thực phẩm được tiêu thụ, để đảm bảo rằng không có sự thiếu hụt hoặc lãng phí.
+2. Đảm bảo sinh kế ở khu vực nông thôn. Điều này liên quan đến việc tạo ra cơ hội việc làm và thu nhập ổn định cho những người sống ở khu vực nông thôn, nhằm giảm nghèo và cải thiện chất lượng cuộc sống.
+3. Sử dụng kiến thức truyền thống và khoa học để duy trì bền vững các hệ sinh thái. Điều này nghĩa là việc áp dụng các phương pháp nông nghiệp truyền thống và hiện đại, nhằm bảo vệ và cải thiện chất lượng môi trường và hệ sinh thái.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the components of Greening the Economy with Agriculture (GEA). It does not contain any noticeable mistakes. The only reason it does not receive a perfect score is because it could have provided more examples or further elaboration on each point.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Trình bày nội dung nghiên cứu của Nguyễn Trọng Hoài và các tác giả (2013) về tăng trưởng xanh cho vùng ĐBSCL, bao gồm khung phân tích đề xuất và các định hướng chung cho từng khu vực.</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Nguyễn Trọng Hoài và các tác giả (2013) đã thực hiện nghiên cứu và đề xuất một khung phân tích tăng trưởng xanh cho vùng ĐBSCL. Khung phân tích này dựa trên các chỉ tiêu phổ quát nhất. Ngoài ra, họ cũng đã đưa ra các định hướng chung cho từng khu vực khác nhau, bao gồm khu vực nông nghiệp, công nghiệp và hộ nông dân. Định hướng này liên quan đến sản xuất nông nghiệp và hành vi tiêu dùng. Khung phân tích đề xuất từ nghiên cứu này có thể được áp dụng cho một địa phương thuộc vùng ĐBSCL.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a comprehensive overview of the research conducted by Nguyễn Trọng Hoài and his colleagues in 2013 on green growth for the Mekong Delta region, including the proposed analytical framework and general directions for each area. However, it lacks specific details about the proposed directions for each area, which could have made the answer more complete.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu của Nguyễn Trọng Hoài và các tác giả (2013), khung phân tích tăng trưởng xanh được đề xuất dựa trên những chỉ tiêu nào và có thể vận dụng cho những địa phương nào thuộc vùng ĐBSCL?</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu của Nguyễn Trọng Hoài và các tác giả (2013), khung phân tích tăng trưởng xanh được đề xuất dựa trên các chỉ tiêu phổ quát nhất. Đồng thời, nghiên cứu cũng đưa ra các định hướng chung cho từng khu vực nông nghiệp, công nghiệp và hộ nông dân (bao gồm sản xuất nông nghiệp và hành vi tiêu dùng). Khung phân tích này có thể được vận dụng cho bất kỳ địa phương nào thuộc vùng ĐBSCL.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing a general overview of the criteria used in the green growth analysis framework proposed by Nguyen Trong Hoai and co-authors (2013), and stating that it can be applied to any locality in the Mekong Delta region. However, without a reference answer, it's hard to confirm the exact correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Hãy mô tả thực trạng và những thách thức trong phát triển nông nghiệp theo mô hình tăng trưởng xanh tại tiểu vùng DHPĐ.</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Tiểu vùng DHPĐ đang đối mặt với thách thức phải chuyển đổi sang mô hình tăng trưởng mới, hiệu quả và bền vững hơn cho tỉnh, một mô hình tăng trưởng theo chiều sâu theo điều kiện đặc thù của tỉnh. Trong quá trình tái cơ cấu kinh tế và đổi mới mô hình tăng trưởng, tiểu vùng DHPĐ đã phê duyệt các đề án tái cơ cấu ngành, tái cơ cấu nền kinh tế gắn với chuyển đổi mô hình tăng trưởng theo hướng nâng cao chất lượng, hiệu quả và năng lực cạnh tranh. Tuy nhiên, các đề án trên chỉ mới dừng lại ở việc thúc đẩy dịch chuyển tỷ trọng đóng góp về lượng giữa các ngành mà chưa đề cập đến mô hình tăng trưởng theo chiều sâu, gắn với những thách thức về biến đổi khí hậu. Do đó, việc đề xuất các giải pháp để thúc đẩy phát triển nông nghiệp theo mô hình tăng trưởng xanh là thật sự cần thiết để đảm bảo phát triển nông nghiệp bền vững của tiểu vùng DHPĐ trong điều kiện thích ứng với biến đổi khí hậu và các hiện tượng thời tiết cực đoan.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query, providing a detailed description of the current situation and challenges in developing agriculture according to the green growth model in the DHPĐ subregion. It also mentions the need for solutions to promote sustainable agricultural development in the face of climate change and extreme weather phenomena. However, it could be improved by providing more specific examples or data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Hãy mô tả tác động của biến đổi khí hậu đối với sản lượng nông nghiệp và chất lượng cuộc sống của người dân Tiểu vùng DHPĐ, dựa trên thông tin trong ngữ cảnh đã cho.</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Biến đổi khí hậu, bao gồm quá trình nhiệt độ tăng lên, thay đổi mực nước biển, và sự suy giảm tổng lượng mưa, đã ảnh hưởng nghiêm trọng đến sự phát triển nông nghiệp và chất lượng cuộc sống của người dân Tiểu vùng DHPĐ. Những thay đổi này dẫn đến gia tăng quá trình xâm nhập mặn, gây khó khăn cho các vấn đề cấp thoát nước và xử lý môi trường. Nếu nhiệt độ trung bình toàn cầu tăng 1-3 ˚C, kết hợp với nồng độ cao hơn của khí carbon dioxide và thay đổi lượng mưa, có thể làm giảm sản lượng nông nghiệp ở những nước nằm ở vĩ độ thấp. Biến đổi khí hậu cũng làm gia tăng tần suất các sự kiện khí hậu cực đoan như stress nhiệt, hạn hán, lũ lụt, cũng như tăng nguy cơ cháy và bùng phát dịch hại và mầm bệnh, làm tăng sự bất ổn của sản xuất nông nghiệp. Sự suy giảm trữ lượng nước phục vụ sản xuất nông nghiệp, đặc biệt trong điều kiện nắng nóng kéo dài, cùng với tác động của nước biển dâng lên, ảnh hưởng trực tiếp đến sản lượng và chất lượng cây ăn quả, lúa, và nuôi trồng thủy sản.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of climate change on agricultural production and the quality of life of people in the DHPĐ subregion. It covers various aspects such as temperature increase, sea level changes, rainfall reduction, and their effects on agriculture and living conditions. The answer could be improved by providing more specific examples or data related to the DHPĐ subregion, hence the score is not a perfect 5.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Theo ước lượng, nếu nhiệt độ trung bình toàn cầu tăng 1-3 ˚C, điều gì sẽ xảy ra với sản lượng nông nghiệp ở những nước nằm ở vĩ độ thấp?</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Nếu nhiệt độ trung bình toàn cầu tăng 1-3 ˚C, sản lượng nông nghiệp ở những nước nằm ở vĩ độ thấp có thể giảm.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and correct, providing a plausible outcome for the scenario described in the user query. However, it could be more detailed in explaining why the agricultural yield might decrease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu của Lê Anh Tuấn năm 2009, lượng mưa đầu vụ Hè Thu sẽ giảm bao nhiêu phần trăm? Hãy giải thích tác động của biến đổi khí hậu đến đời sống người dân và phát triển kinh tế xã hội.</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu của Lê Anh Tuấn năm 2009, lượng mưa đầu vụ Hè Thu sẽ giảm khoảng 10-20%. Biến đổi khí hậu có tác động mạnh mẽ đến đời sống người dân và phát triển kinh tế xã hội. Quá trình nhiệt độ tăng lên, thay đổi mực nước biển, và sự suy giảm tổng lượng mưa có thể dẫn đến gia tăng quá trình xâm nhập mặn, gây khó khăn cho các vấn đề cấp thoát nước và xử lý môi trường. Nếu nhiệt độ trung bình toàn cầu tăng 1-3 ˚C, kết hợp với nồng độ cao hơn của khí carbon dioxide và thay đổi lượng mưa có thể làm giảm sản lượng nông nghiệp ở những nước nằm ở vĩ độ thấp. Biến đổi khí hậu cũng làm gia tăng tần suất các sự kiện khí hậu cực đoan như stress nhiệt, hạn hán, lũ lụt, cũng như tăng nguy cơ cháy và bùng phát dịch hại và mầm bệnh; do đó, làm tăng sự bất ổn của sản xuất nông nghiệp trên toàn cầu.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of climate change on people's lives and socio-economic development. However, without a reference answer, it's hard to verify the exact percentage of rainfall decrease according to Le Anh Tuan's 2009 study. The answer could be more precise in this aspect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Theo Bộ TN&amp;MT năm 2012, tỷ lệ hấp thụ qua cây trồng của thuốc bảo vệ thực vật là bao nhiêu? Hãy mô tả những hậu quả mà việc sử dụng thuốc bảo vệ thực vật không bền vững có thể gây ra cho môi trường và sức khỏe con người.</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Theo Bộ TN&amp;MT năm 2012, tỷ lệ hấp thụ qua cây trồng của thuốc bảo vệ thực vật là khoảng 20%. Việc sử dụng thuốc bảo vệ thực vật không bền vững có thể gây ra nhiều hậu quả tiêu cực. Đối với môi trường, khoảng 15-20% thuốc bảo vệ thực vật bốc hơi, còn phần còn lại thấm vào đất và hòa vào nước, gây ra ô nhiễm môi trường trầm trọng. Đối với sức khỏe con người, người nông dân trực tiếp phun xịt thuốc bảo vệ thực vật mà thiếu các biện pháp bảo hộ lao động cần thiết có thể gặp nguy cơ nhiễm độc, ảnh hưởng lâu dài đến sức khỏe, có thể dẫn đến các bệnh như ung thư, rối loạn nội tiết tố, bệnh ngoài da, bệnh phổi, v.v.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed response. It correctly states the absorption rate of plant protection drugs according to the Ministry of Natural Resources and Environment in 2012 and describes the negative consequences of unsustainable use of these drugs on the environment and human health. However, without a reference answer, it's hard to confirm the exact accuracy of the information provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Theo báo cáo, hãy mô tả tác động của việc sử dụng thuốc bảo vệ thực vật và phân bón dư thừa trong sản xuất lúa tại ĐBSCL đối với môi trường và sức khỏe con người.</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Sử dụng thuốc bảo vệ thực vật và phân bón dư thừa trong sản xuất lúa tại ĐBSCL đã gây ra nhiều tác động tiêu cực đối với môi trường và sức khỏe con người. Hàng ngàn tấn thuốc bảo vệ thực vật được sử dụng hàng năm, nhưng chỉ khoảng 20% được hấp thụ qua cây trồng, còn lại thấm vào đất và hòa vào nước, gây ra ô nhiễm môi trường trầm trọng. Đối với người nông dân trực tiếp phun xịt, việc tiếp xúc cường độ cao với thuốc bảo vệ thực vật mà thiếu các biện pháp bảo hộ lao động cần thiết gây nguy cơ nhiễm độc, ảnh hưởng lâu dài đến sức khỏe, có thể dẫn đến các bệnh như ung thư, rối loạn nội tiết tố, bệnh ngoài da, bệnh phổi, v.v. 
+Về phân bón dư thừa, lượng phân bón dư thừa trong sản xuất lúa tại ĐBSCL đã phát thải gần 140.000 tấn/năm, gây ra ô nhiễm môi trường. Ngoài ra, ô nhiễm môi trường trong ngành thủy sản cũng đang ở mức báo động với khoảng 5.000ha mặt nước nuôi cá tra, ước tính mỗi năm có gần 1 triệu tấn chất thải có nguồn gốc từ thức ăn nuôi cá trong các ao thải ra môi trường, đã ảnh hưởng không nhỏ đến môi trường, sức khỏe của chính bà con.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate explanation of the impact of the overuse of plant protection drugs and fertilizers in rice production in the Mekong Delta on the environment and human health. It covers both the environmental and health impacts, and provides specific examples and statistics to support its points.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Trình bày về tình hình sử dụng nguồn nước dưới đất tại ĐBSCL, cũng như những khó khăn mà người dân gặp phải trong việc tiếp cận nguồn nước sạch.</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Nguồn nước dưới đất tại ĐBSCL đóng vai trò quan trọng trong việc cung cấp nước cho sinh hoạt đô thị, nông thôn và công nghiệp. 80% dân số nông thôn sử dụng nguồn nước dưới đất và nhiều đô thị hoàn toàn phụ thuộc vào nguồn nước này, như các tỉnh Sóc Trăng, Bạc Liêu, Cà Mau, Trà Vinh. Tuy nhiên, việc tiếp cận nguồn nước sạch của người dân ĐBSCL còn hạn chế và gặp nhiều khó khăn. Tỷ lệ hộ gia đình sử dụng nước mưa làm nguồn nước ăn uống chính chiếm đến 14,6%, cao hơn so với mặt bằng chung của cả nước 12,8%. Có 17,9% hộ gia đình chọn nguồn nước sinh hoạt khác, chủ yếu là nước từ sông, kênh rạch không đảm bảo vệ sinh. Ngoài ra, chất lượng nguồn nước ngầm đang suy giảm do việc khai thác liên tục, đặc biệt trong thời gian khoảng 6 tháng mùa khô.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the situation of groundwater usage in the Mekong Delta, as well as the difficulties people face in accessing clean water. It includes specific statistics and examples, which adds to its accuracy. However, it could be improved by providing more specific solutions or suggestions to address these issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu của Nguyễn Văn Sánh, lượng nước ngầm khai thác và sử dụng tăng lên bao nhiêu lần trong khoảng thời gian từ năm 2004 đến năm 2006? Hãy nêu rõ các con số cụ thể về lượng nước tiêu thụ trong các năm 2004, 2006 và 2008.</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu của Nguyễn Văn Sánh, lượng nước ngầm khai thác và sử dụng đã tăng gấp 10 lần trong khoảng thời gian từ năm 2004 đến năm 2006. Cụ thể, lượng nước tiêu thụ trong năm 2004 là khoảng 80.000 m3/tháng. Số này tăng lên 180.000 m3/tháng vào năm 2006 và hơn 200.000 m3/tháng vào năm 2008.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct as it provides specific numbers for the amount of water consumed in the years 2004, 2006, and 2008. However, without a reference answer, it's hard to confirm the exact correctness of the data. The only minor issue is that the increase from 80,000 m3/month in 2004 to 180,000 m3/month in 2006 is not exactly 10 times as stated in the answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Trình bày về tình hình nhiễm mặn và đất phèn ở các tỉnh Bến Tre, Tiền Giang, Trà Vinh và Vĩnh Long. Hãy nêu rõ tỷ lệ phần trăm diện tích đất nhiễm mặn và đất phèn ở các tỉnh này.</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Đất phèn chiếm khoảng 17,8% diện tích toàn vùng, trong đó tỉnh Vĩnh Long chiếm 29,7%, Tiền Giang chiếm 19,4% và Trà Vinh chiếm 18%. Về diện tích rừng ngập mặn, toàn vùng Đồng Bằng Sông Cửu Long có đến 92 ngàn ha, trong đó tỉnh Cà Mau chiếm 70,2%, còn lại phân bố rải rác dọc theo ven biển các tỉnh khác như Long An, Bến Tre, Kiên Giang, Trà Vinh, Sóc Trăng, Bạc Liêu và Tiền Giang. Tình trạng nhiễm mặn đang làm giảm hiệu suất sử dụng đất và làm tăng chi phí cải tạo đất.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides some specific percentages for the area of saline and alkaline soil in the provinces of Vinh Long, Tien Giang, and Tra Vinh. However, it does not provide the specific percentages for Ben Tre province as requested in the query. Also, it mentions the province of Ca Mau which was not asked for in the query. Therefore, the answer is not fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Theo báo cáo của Tổng Cục Thống kê năm 2017, tỉnh nào chiếm diện tích rừng ngập mặn lớn nhất trong ĐBSCL và tỉ lệ chiếm là bao nhiêu phần trăm?</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Tỉnh Cà Mau chiếm diện tích rừng ngập mặn lớn nhất trong ĐBSCL với tỉ lệ là 70,2%.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and appears to be correct, providing specific information in response to the user's query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Theo phân tích trong văn bản, tiểu vùng DHPĐ đang gặp những thách thức gì trong việc phát triển nông nghiệp bền vững và đề xuất giải pháp nào để khắc phục?</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Tiểu vùng DHPĐ đang gặp thách thức về môi trường và sự suy giảm về chất lượng các nguồn lực tự nhiên, dẫn đến môi trường sống của người dân ngày càng suy thoái trầm trọng. Sự ô nhiễm này thách thức chất lượng tăng trưởng, chất lượng cuộc sống người dân và tính bền vững của môi trường. Ngoài ra, tiểu vùng DHPĐ đang theo đuổi mô hình tăng trưởng chủ yếu dựa vào các yếu tố đầu vào như đất đai, nguồn nước sông Mekong, nguồn lực tự nhiên, nhưng qui trình sản xuất nông nghiệp và thủy sản chưa mang tính bền vững, khả năng gây phương hại môi trường còn cao.
+Để khắc phục, một số giải pháp được đề xuất bao gồm tăng cường hợp tác toàn diện, liên tỉnh trong tiểu vùng DHPĐ, đảm bảo cân bằng nước phù hợp với các xu thế diễn biến nguồn nước trong tương lai và thực hiện rà soát lại các quy hoạch liên quan. Bên cạnh đó, cần có các giải pháp để nhân rộng mô hình tăng trưởng xanh trong nông nghiệp, đồng thời tiểu vùng DHPĐ cần chuyển đổi sang mô hình tăng trưởng mới, hiệu quả và bền vững hơn.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and appears to be fully correct. It provides a detailed analysis of the challenges faced by the DHPĐ subregion in sustainable agricultural development and proposes solutions to overcome these challenges. The answer is comprehensive and well-structured, making it easy to understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong văn bản, tiểu vùng DHPĐ đang cần chuyển đổi sang mô hình tăng trưởng nào để phù hợp với điều kiện đặc thù của tỉnh và đảm bảo phát triển bền vững?</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Tiểu vùng DHPĐ đang cần chuyển đổi sang mô hình tăng trưởng xanh để phù hợp với điều kiện đặc thù của tỉnh và đảm bảo phát triển bền vững.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and directly addresses the user's query. It provides a specific model of growth (green growth) that the DHPĐ subregion needs to transition to, in order to suit the specific conditions of the province and ensure sustainable development. Without a reference answer for comparison, the generated answer appears to be fully correct based on the information given.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Các tỉnh Bến Tre, Vĩnh Long, Tiền Giang và Trà Vinh đã thực hiện những biện pháp nào để tái cơ cấu kinh tế và chuyển đổi mô hình tăng trưởng?</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Tỉnh Bến Tre đã ban hành Chương trình hành động số 604/CTr-UBND để thực hiện đề án tái cơ cấu kinh tế liên quan đến chuyển đổi mô hình tăng trưởng, nhằm nâng cao chất lượng, hiệu quả và năng lực cạnh tranh trong giai đoạn 2016-2020. Tỉnh Vĩnh Long đã ban hành kế hoạch thực hiện Đề án cơ cấu lại ngành nông nghiệp theo hướng nâng cao giá trị gia tăng và phát triển bền vững trong giai đoạn 2017-2020, với tầm nhìn đến năm 2030. UBND tỉnh Tiền Giang đã có Kế hoạch hành động 83/KH-UBND tái cơ cấu ngành nông nghiệp theo hướng xác định sản phẩm chủ lực, có lợi thế để tập trung đầu tư về khoa học - công nghệ, cơ sở hạ tầng, hạ tầng kỹ thuật, tổ chức lại sản xuất, hình thành chuỗi giá trị các ngành hàng để tạo bước đột phá về sức cạnh tranh, nâng cao giá trị gia tăng, phát triển bền vững. Tỉnh Trà Vinh cũng đã ban hành kế hoạch thực hiện đề án tái cơ cấu ngành nông nghiệp theo hướng nâng cao giá trị gia tăng và phát triển bền vững.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides detailed information about the measures taken by each of the mentioned provinces to restructure their economies and transition their growth models. The answer is comprehensive and appears to be accurate, although a reference answer was not provided for comparison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Theo "Chiến lược quốc gia về tăng trưởng xanh thời kỳ 2011-2020 và tầm nhìn đến 2050", chiến lược này tập trung vào những nhiệm vụ chiến lược nào? Hãy liệt kê và giải thích sơ lược về từng nhiệm vụ.</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Chiến lược quốc gia về tăng trưởng xanh thời kỳ 2011-2020 và tầm nhìn đến 2050 tập trung vào ba nhiệm vụ chiến lược chính:
+1. Giảm cường độ phát thải khí nhà kính và thúc đẩy sử dụng năng lượng sạch, năng lượng tái tạo: Nhiệm vụ này nhằm giảm lượng khí nhà kính phát thải vào môi trường, đồng thời khuyến khích việc sử dụng các nguồn năng lượng không gây ô nhiễm và có thể tái tạo.
+2. Xanh hóa sản xuất: Đây là nhiệm vụ nhằm thúc đẩy việc sản xuất theo hướng bền vững, giảm thiểu tác động tiêu cực đến môi trường và tối ưu hóa việc sử dụng tài nguyên.
+3. Xanh hóa lối sống và thúc đẩy tiêu dùng bền vững: Nhiệm vụ này nhằm thay đổi lối sống và thói quen tiêu dùng của cộng đồng theo hướng bền vững, giảm thiểu tác động đến môi trường và tối ưu hóa việc sử dụng tài nguyên.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and correct response. It lists and explains the strategic tasks focused on by the national strategy for green growth for the period 2011-2020 and vision to 2050.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh phát triển nông nghiệp theo mô hình tăng trưởng xanh, hãy mô tả một số giải pháp thể chế, chính sách, quản lý nhà nước được đề xuất trong ngữ cảnh trên.</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Một số giải pháp thể chế, chính sách, quản lý nhà nước được đề xuất trong việc phát triển nông nghiệp theo mô hình tăng trưởng xanh bao gồm:
+1. Tăng cường hợp tác toàn diện, liên tỉnh trong tiểu vùng DHPĐ, vùng ĐBSCL và toàn khu vực phía nam trên nhiều mặt, trên cơ sở tài nguyên nước, đảm bảo cân bằng nước phù hợp với các xu thế diễn biến nguồn nước trong tương lai và phải bảo đảm tính tổng thể, thống nhất. Giải pháp cấp nước quy mô vùng bằng cách kết hợp giữa các nhà máy cấp nước ở các tỉnh, đảm bảo hài hòa, phù hợp với điều kiện nguồn nước của khu vực.
+2. Thực hiện rà soát lại các quy hoạch liên quan bao gồm các quy hoạch hệ sinh thái rừng ngập mặn ven biến, quy hoạch sử dụng đất, quy hoạch phát triển các ngành nghề.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response to the question about solutions, policies, and state management in the context of developing agriculture according to the green growth model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Hãy mô tả giải pháp cấp nước quy mô vùng được đề xuất trong văn bản, cùng với việc thực hiện rà soát lại các quy hoạch liên quan. Đồng thời, hãy phân tích tầm quan trọng của việc đánh giá thực trạng phát triển các ngành nghề và các nguồn tài nguyên kinh tế trong quá trình này.</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Giải pháp cấp nước quy mô vùng được đề xuất trong văn bản là kết hợp giữa các nhà máy cấp nước ở các tỉnh. Mục tiêu là đảm bảo sự hài hòa và phù hợp với điều kiện nguồn nước của khu vực. Đồng thời, cần thực hiện rà soát lại các quy hoạch liên quan, bao gồm quy hoạch hệ sinh thái rừng ngập mặn ven biển, quy hoạch sử dụng đất, và quy hoạch phát triển các ngành nghề.
+Việc đánh giá thực trạng phát triển các ngành nghề và các nguồn tài nguyên kinh tế rất quan trọng trong quá trình này. Đánh giá này giúp hiểu rõ hơn về nguồn lực, năng suất và tiềm năng tương lai của nông nghiệp. Nó cũng giúp đánh giá các tác động tới môi trường của các mô hình kinh tế nông nghiệp đã thực hiện trước đây, nhằm rút ra bài học kinh nghiệm, tập trung thực hiện, phát triển những mô hình hiệu quả, và thay thế những mô hình kém hiệu quả.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and accurate response. It describes the proposed regional water supply solution, the importance of reviewing related plans, and the significance of assessing the status of various industries and economic resources. The answer is comprehensive and does not contain any mistakes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Trong văn bản, tác giả đã đề cập đến việc phát triển các hợp tác xã nông nghiệp xanh và liên kết hợp tác giữa các hợp tác xã. Hãy giải thích ý nghĩa của việc hỗ trợ và khuyến khích phát triển các hợp tác xã này, cũng như vai trò của Nhà nước trong việc đảm bảo hoạt động ổn định của các mắc xích trong chuỗi cung ứng.</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Hỗ trợ và khuyến khích phát triển các hợp tác xã nông nghiệp xanh có ý nghĩa quan trọng trong việc tạo ra một mô hình phát triển nông nghiệp bền vững, giúp nâng cao năng suất và chất lượng sản phẩm theo hướng xanh, chuẩn quốc tế. Điều này cũng giúp tạo ra các sản phẩm nông nghiệp sạch, bảo vệ môi trường và sức khỏe người tiêu dùng.
+Nhà nước đóng vai trò chủ đạo trong việc đảm bảo hoạt động ổn định của các mắc xích trong chuỗi cung ứng. Nhà nước hoạt động như một trung gian kết nối giữa nông dân và nông dẫn, giữa nông dân và doanh nghiệp, giúp tạo ra một môi trường kinh doanh ổn định và thuận lợi. Điều này giúp tăng cường liên kết giữa các hợp tác xã và các đối tượng xã hội khác tham gia phát triển nông nghiệp theo mô hình tăng trưởng xanh.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive explanation of the importance of supporting and encouraging the development of green agricultural cooperatives, as well as the role of the state in ensuring the stability of the supply chain. The answer is accurate and detailed, but it could be slightly more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Theo Tiến sĩ Nguyễn Đăng Nghĩa, liên kết "4 nhà" đáp ứng điều kiện gì để xây dựng nền nông nghiệp hiện đại?</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Theo Tiến sĩ Nguyễn Đăng Nghĩa, liên kết "4 nhà" đáp ứng các điều kiện cần và đủ để xây dựng nền nông nghiệp hiện đại.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it does not provide specific details about what the conditions are for the "4 nhà" linkage to build a modern agriculture base.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Trang web được tạo ra với mục đích gì và cung cấp những thông tin gì về sản xuất nông nghiệp xanh?</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Trang web được tạo ra với mục đích cung cấp thông tin về các dữ liệu thu thập liên quan đến sản xuất nông nghiệp xanh. Các thông tin cung cấp bao gồm dữ liệu về cung và cầu trong phát triển nông nghiệp xanh, thông tin liên quan đến đất, nước, phân bón, giống, kỹ thuật sản xuất, phương pháp nuôi trồng, các mô hình sản xuất hiệu quả, thông tin của các doanh nghiệp thu mua, đầu ra, và các doanh nghiệp cung ứng các dịch vụ nông nghiệp. Trang web này cũng đóng vai trò như một diễn đàn, kết nối tất cả các nhà trong nền sản xuất của cách mạng 4.0.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and accurate to the user query. It explains the purpose of the website and the information it provides about green agricultural production. However, it could be more concise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hãy mô tả các thông tin mà trang web về sản xuất nông nghiệp xanh cung cấp, và giải thích tầm quan trọng của việc cung cấp những thông tin này trong bối cảnh cách mạng 4.0.</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Trang web về sản xuất nông nghiệp xanh cung cấp thông tin về các dữ liệu thu thập liên quan đến sản xuất nông nghiệp xanh. Các thông tin này bao gồm dữ liệu về cung và cầu trong phát triển nông nghiệp xanh, thông tin liên quan đến đất, nước, phân bón, giống, kỹ thuật sản xuất, phương pháp nuôi trồng, các mô hình sản xuất hiệu quả, thông tin của các doanh nghiệp thu mua, đầu ra, và các doanh nghiệp cung ứng các dịch vụ nông nghiệp. Trang web này đóng vai trò như một diễn đàn, cung cấp thông tin và kết nối tất cả các nhà trong nền sản xuất của cách mạng 4.0. Việc cung cấp những thông tin này quan trọng bởi vì nó giúp tạo ra một mạng lưới thông tin toàn diện, giúp các nhà sản xuất nông nghiệp có thể tiếp cận và sử dụng các dữ liệu và thông tin một cách hiệu quả, đồng thời cũng tạo điều kiện cho sự phát triển của nông nghiệp xanh trong bối cảnh cách mạng 4.0.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive description of the information provided by a website on green agriculture. It also explains the importance of this information in the context of the 4.0 revolution. The answer is accurate and complete, hence the perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Liệt kê và giải thích các giải pháp được đề xuất để nâng cao nhận thức và thực hành nông nghiệp xanh đối với các hộ dân sản xuất nông nghiệp.</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Các giải pháp được đề xuất để nâng cao nhận thức và thực hành nông nghiệp xanh đối với các hộ dân sản xuất nông nghiệp bao gồm:
+1. Tăng cường hợp tác toàn diện, liên tỉnh trong tiểu vùng DHPĐ, vùng ĐBSCL và toàn khu vực phía nam trên nhiều mặt, trên cơ sở tài nguyên nước. Điều này giúp đảm bảo cân bằng nước phù hợp với các xu thế diễn biến nguồn nước trong tương lai và phải bảo đảm tính tổng thể, thống nhất.
+2. Thực hiện rà soát lại các quy hoạch liên quan bao gồm các quy hoạch hệ sinh thái rừng ngập mặn ven biến, quy hoạch sử dụng đất, quy hoạch phát triển các ngành nghề. Việc này giúp đảm bảo rằng các hoạt động nông nghiệp đang được thực hiện một cách bền vững và không gây hại cho môi trường.
+3. Xây dựng các thể chế, chính sách, xây dựng các quy hoạch sử dụng đất hợp lý cùng các giải pháp sinh kế nhằm giảm thiểu thiệt hại cho các nhóm dễ bị ảnh hưởng. Điều này giúp tạo ra một môi trường thuận lợi cho việc thực hiện nông nghiệp xanh.
+4. Xây dựng và triển khai các giải pháp xã hội nhằm hỗ trợ các hộ phụ thuộc chính vào sản xuất nông nghiệp lại có ít diện tích, người nghèo có thu nhập thấp. Điều này bao gồm chính sách hỗ trợ về sinh kế, đào tạo dạy nghề cho các hộ gia đình nghèo, tập huấn chuyển giao các tiến bộ kỹ thuật. Điều này giúp nâng cao khả năng của các hộ gia đình nghèo trong việc thực hiện nông nghiệp xanh.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed and comprehensive list of proposed solutions to enhance awareness and practice of green agriculture for agricultural households. The answer is also correct as it provides practical and feasible solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong văn bản, hãy mô tả các giải pháp được đề xuất để đẩy mạnh liên kết cộng đồng trong sản xuất nông nghiệp và hỗ trợ các hộ dân tham gia các chương trình ưu đãi?</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Các giải pháp được đề xuất để đẩy mạnh liên kết cộng đồng trong sản xuất nông nghiệp bao gồm việc tăng cường liên kết giữa các hộ nông dân để chia sẻ thông tin và mở rộng các mô hình sản xuất xanh. Đối với các hộ dân, hỗ trợ được cung cấp thông qua việc tham gia các chương trình ưu đãi vay vốn và chính sách ưu đãi trong mô hình tăng trưởng xanh về thuốc bảo vệ thực vật, nước, đất, phân bón, giống và phương thức sản xuất. Đối với các doanh nghiệp, giải pháp bao gồm việc thu hút đầu tư và cung cấp chính sách ưu đãi về thuế và vay vốn cho các ngành nghề liên quan trong chuỗi giá trị nông nghiệp. Các chương trình liên kết được tổ chức để mang doanh nghiệp và hộ nông dân làm việc trực tiếp với nhau, nhằm rút ngắn các giai đoạn trung gian trong chuỗi cung ứng, giảm giá thành sản phẩm nông nghiệp và nâng cao hiệu quả kinh tế.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the proposed solutions to promote community linkage in agricultural production and support households in participating in preferential programs. It covers all aspects of the query, including strengthening links between farming households, preferential loan programs, green growth models, and policies for businesses. The answer is comprehensive and accurate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Trình bày về mô hình sản xuất lúa hữu cơ trong hệ thống canh tác lúa - tôm được đề cập trong văn bản, cùng với lợi ích mà nó mang lại cho sức khỏe con người và môi trường sinh thái.</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Mô hình sản xuất lúa hữu cơ trong hệ thống canh tác lúa - tôm được xây dựng với mục tiêu liên kết sản xuất với tiêu thụ sản phẩm. Điển hình là ở Trà Vinh, một tỉnh có diện tích đất ngập mặn ven biển khá lớn, thích hợp cho việc sản xuất lúa hữu cơ theo phương pháp luân canh tôm - lúa. Nông dân huyện Thạnh Phú, tỉnh Bến Tre đã liên kết với doanh nghiệp để phát triển sản xuất lúa hữu cơ, mang lại hiệu quả kinh tế cao. 
+Mô hình này không chỉ tạo ra những sản phẩm có lợi cho sức khỏe con người, mà còn góp phần cải tạo thổ nhưỡng và bảo vệ môi trường sinh thái.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and provides a detailed explanation of the organic rice production model in the rice-shrimp farming system. It also mentions the benefits to human health and the ecological environment. However, it could have provided more specific details about the benefits to human health and the ecological environment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Phương pháp nào được sử dụng trong nghiên cứu để thu thập dữ liệu nhanh chóng, hiệu quả và có tính đa chiều?</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>The context does not provide information on a method used in research for quick, efficient, and multidimensional data collection.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query. The user is asking for a method used in research for quick, efficient, and multidimensional data collection, but the generated answer does not provide any method.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Theo kết quả nghiên cứu, những vùng nào trong sản xuất nông nghiệp tại tỉnh Bạc Liêu có nguy cơ rủi ro cao do xâm nhập mặn?</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Các tiểu vùng sinh thái lợ và mặn tại tỉnh Bạc Liêu có nguy cơ rủi ro cao do xâm nhập mặn, đặc biệt trong kịch bản nước biển dâng 17 cm đến năm 2030. Ngoài ra, những vùng canh tác lúa-tôm và tôm-thủy sản kết hợp cũng chịu ảnh hưởng rõ rệt từ xâm nhập mặn.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides specific details about the areas in Bac Lieu province that are at high risk due to saltwater intrusion. It also mentions the scenario of sea level rise, which is a significant factor contributing to saltwater intrusion. The answer could be improved by providing more specific locations within the province.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, đồng bằng sông Cửu Long chịu ảnh hưởng nặng nề từ yếu tố nào của biến đổi khí hậu? Hãy nêu rõ các tác động cụ thể của yếu tố này đối với đồng bằng sông Cửu Long.</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Đồng bằng sông Cửu Long chịu ảnh hưởng nặng nề từ yếu tố nước biển dâng, một hậu quả của biến đổi khí hậu. Nước biển dâng tác động trực tiếp và mạnh mẽ, làm cho nhiều vùng đồng bằng nước ngọt hiện nay trở thành vùng nước lợ, thay đổi chế độ thủy văn dòng chảy và gây áp lực đến 90% diện tích ngập nước. Điều này dẫn đến việc từ 15.000 - 20.000 km2 đất thấp ven biển bị ngập hoàn toàn. Lưu lượng nước sông Mê-kông giảm từ 2-24% trong mùa khô, tăng từ 7-15% vào mùa lũ. Trồng trọt, nuôi trồng thủy sản và lâm nghiệp vùng ven biển chịu tác động rất lớn bởi nước biển dâng và xâm nhập mặn. Đặc biệt, sự thay đổi lượng mưa cùng với nước biển dâng đã làm cho xâm nhập mặn lấn sâu vào trong nội đồng, gây thiệt hại đáng kể đến sản xuất nông nghiệp.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of sea level rise, a consequence of climate change, on the Mekong Delta. It includes specific details about the effects on agriculture, aquaculture, and forestry in coastal areas, as well as the significant damage to agricultural production due to increased salinity intrusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Tỉnh Bạc Liêu chịu ảnh hưởng như thế nào từ sự thay đổi lượng mưa và nước biển dâng? Hãy trình bày cụ thể về thiệt hại mà Bạc Liêu phải chịu trong mùa khô năm 2010.</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Tỉnh Bạc Liêu chịu ảnh hưởng nặng nề từ sự thay đổi lượng mưa và nước biển dâng, đặc biệt là sự xâm nhập mặn. Sự thay đổi này đã làm cho xâm nhập mặn lấn sâu vào trong nội đồng, gây ra thiệt hại đáng kể cho sản xuất nông nghiệp. Cụ thể, trong mùa khô năm 2010, nước mặn từ 3,3‰-6‰ đã xâm nhập vào vùng chuyên canh lúa, làm thiệt hại 20.000 ha lúa Đông Xuân và hơn 45.000 ha lúa khác thiếu nước ngọt tại Sóc Trăng và Bạc Liêu.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides specific details about the impact of rainfall changes and sea level rise on Bac Lieu province, especially during the dry season of 2010. It correctly identifies saltwater intrusion as a major issue and provides specific figures for the damage caused. However, without a reference answer, it's hard to confirm the exact accuracy of these figures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, hãy mô tả những tác động của việc nước biển dâng và xâm nhập mặn đối với tỉnh Bạc Liêu trong giai đoạn 2010-2013?</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Trong giai đoạn 2010-2013, tỉnh Bạc Liêu đã chịu ảnh hưởng nặng nề từ việc nước biển dâng và xâm nhập mặn. Trong mùa khô năm 2010, nước mặn đã xâm nhập vào vùng chuyên canh lúa, gây thiệt hại cho 20.000 ha lúa Đông Xuân và hơn 45.000 ha lúa khác thiếu nước ngọt. Mùa khô năm 2011, 2.615 ha lúa bị thiệt hại do khô hạn và xâm nhập mặn, và 30.065 tấn muối bị thất thoát do mưa trái mùa. Năm 2013, nước mặn rò rỉ qua cửa van các cống ngăn mặn đã làm thiệt hại 625 ha lúa, gây ngập trên 10 ha rau màu, và làm tăng độ mặn, gây khó khăn trong việc cải tạo rửa mặn, làm thiệt hại trắng 55 ha lúa-tôm.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the impacts of sea level rise and saltwater intrusion on Bac Lieu province during the period 2010-2013. It includes specific data and examples, which indicates a high level of accuracy. However, without a reference answer, it's difficult to confirm the absolute correctness of the information provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Theo báo cáo của Sở Nông nghiệp và PTNT tỉnh Bạc Liêu năm 2012 và 2014, hãy phân tích những khó khăn và thách thức trong việc quản lý và vận hành hệ thống thủy lợi tại tỉnh Bạc Liêu.</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Tại tỉnh Bạc Liêu, việc quản lý và vận hành hệ thống thủy lợi gặp phải nhiều khó khăn và thách thức. Một trong những vấn đề lớn là sự xâm nhập mặn vào vùng sản xuất lúa ổn định, đặc biệt vào thời điểm tháng 3 và tháng 4 hàng năm. Hệ thống thủy lợi hiện tại không thể tách riêng hệ thống kênh cấp và hệ thống kênh thoát để phục vụ các khu vực nuôi trồng thủy sản. Việc điều tiết nước còn phụ thuộc khá nhiều vào thời tiết, và khu vực điều tiết nước còn hở, nên việc điều tiết nước chưa được chủ động hoàn toàn. Ngoài ra, nước biển dâng và xâm nhập mặn sẽ ảnh hưởng nghiêm trọng đến các dự án ngăn mặn.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed analysis of the challenges faced in managing and operating the irrigation system in Bac Lieu province. It mentions specific issues such as saltwater intrusion, dependence on weather for water regulation, and the impact of sea level rise. However, without a reference answer, it's hard to confirm the complete accuracy of the information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Theo nội dung trong bài, hãy mô tả những tác động của việc nước biển dâng và xâm nhập mặn đối với việc điều tiết nước và sản xuất nông nghiệp ở vùng ven biển?</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Nước biển dâng và xâm nhập mặn có nhiều tác động đến việc điều tiết nước và sản xuất nông nghiệp ở vùng ven biển. Việc điều tiết nước không hoàn toàn chủ động do phụ thuộc vào thời tiết và khu vực. Nước biển dâng có thể gây ra những thay đổi trong chế độ sóng và dòng chảy ven bờ, gây xói lở bờ và hệ thống đê biển, làm giảm khả năng tiêu thoát nước ra biển và làm dâng lên mực nước các con sông trong nội địa. Điều này cũng làm gia tăng dòng chảy lũ từ thượng nguồn, uy hiếp sự an toàn của các tuyến đê bao và bờ bao. 
+Ngoài ra, xâm nhập mặn làm thay đổi môi trường nước từ ngọt sang mặn, ảnh hưởng đến sản xuất nông nghiệp. Điều này gây ra mâu thuẫn trong việc sử dụng nguồn nước giữa các hệ thống canh tác, đặc biệt là ở những khu vực tiếp giáp giữa mặn và ngọt. 
+Các mô hình canh tác nông nghiệp ở tỉnh Bạc Liêu nhạy cảm với sự thay đổi nguồn nước. Xâm nhập mặn do nước biển dâng ảnh hưởng trực tiếp đến sản xuất nông nghiệp của vùng, kéo theo rủi ro cho các mô hình canh tác trên sinh thái ngọt, lợ, mặn. Xâm nhập mặn tác động rõ rệt đến những vùng canh tác lúa-tôm và tôm-thủy sản kết hợp.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impacts of sea level rise and saltwater intrusion on water regulation and agricultural production in coastal areas. It covers all aspects of the question and provides specific examples, making it a fully correct response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Theo bài viết, việc chuyển đổi cơ cấu sử dụng đất nhanh chóng đã gặp những bất cập gì và ảnh hưởng như thế nào đến sự phát triển bền vững của vùng ven biển?</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Việc chuyển đổi cơ cấu sử dụng đất nhanh chóng đã không chú ý đến diễn biến của điều kiện tự nhiên, dẫn đến nhiều bất cập và thiếu tính ổn định. Điều này cũng ẩn chứa nhiều rủi ro lâu dài. Sự phát triển bền vững của vùng ven biển sẽ bị ảnh hưởng rất lớn, đặc biệt là sản xuất nông nghiệp, dẫn đến những đe dọa cho sự phát triển của hệ thống kinh tế - xã hội - môi trường.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing a detailed explanation of the problems and impacts of rapid land use restructuring on the sustainable development of coastal areas. However, without a reference answer, it's not possible to confirm its full accuracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, những yếu tố nào sẽ bị ảnh hưởng lớn đối với sự phát triển bền vững của vùng, đặc biệt là sản xuất nông nghiệp?</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Sự phát triển bền vững của vùng, đặc biệt là sản xuất nông nghiệp, sẽ bị ảnh hưởng lớn bởi các yếu tố như xâm nhập mặn, biến đổi khí hậu và tăng mực nước biển. Điều này dẫn đến những đe dọa cho sự phát triển của hệ thống kinh tế - xã hội - môi trường. Ngoài ra, sự tăng diện tích đất nhiễm mặn cũng dẫn đến giảm hiệu suất sử dụng đất và làm tăng chi phí cải tạo đất. Xâm nhập mặn cũng làm biến đổi hệ sinh thái ven biển.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the factors that can affect the sustainable development of a region, especially in agriculture. It mentions factors such as saltwater intrusion, climate change, and rising sea levels, which are all significant factors in agricultural production. The only reason it doesn't get a perfect score is because it could have included more factors or been a bit more comprehensive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Trong phần thu thập số liệu thứ cấp của nghiên cứu, hãy mô tả ba kịch bản xâm nhập mặn đến năm 2030 được xây dựng dựa trên giả thuyết nước biển dâng 17 cm.</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Xin lỗi, nhưng thông tin được cung cấp không đề cập đến ba kịch bản xâm nhập mặn đến năm 2030 được xây dựng dựa trên giả thuyết nước biển dâng 17 cm.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>The generated answer is not relevant to the user query. The user asked for a description of three scenarios of saltwater intrusion by 2030 based on the hypothesis of a 17 cm sea level rise, but the chatbot failed to provide any information on this topic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Hãy mô tả quy trình thực hiện PRA - đánh giá nông thôn có sự tham gia, bao gồm các thông tin thu thập và các nhóm đối tượng tham gia.</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Quy trình thực hiện PRA - đánh giá nông thôn có sự tham gia bao gồm việc thu thập thông tin về các điều kiện tự nhiên như đất, nước, khí hậu; yêu cầu sử dụng đất đai; thực trạng sản xuất; các yếu tố tác động đến sản xuất; lịch thời vụ của các mô hình canh tác; và việc kiểm chứng các bản đồ và cập nhật bổ sung phù hợp với thực tế.
+Quy trình này được thực hiện với hai nhóm đối tượng. Nhóm đầu tiên là nhóm Nhà quản lý, bao gồm cán bộ công tác về lĩnh vực nông nghiệp, thủy lợi, tài nguyên - môi trường. Nhóm thứ hai là nhóm nông dân, bao gồm nông dân đại diện cho các nông hộ có cùng điều kiện sản xuất trên cùng tiểu vùng sinh thái. Mỗi nhóm bao gồm 25-30 nông dân có thâm niên canh tác và am hiểu điều kiện sản xuất của vùng.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the PRA process, including the information collected and the groups involved. It is fully correct and comprehensive, covering all aspects of the user's question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Phương pháp xác định vùng sản xuất nông nghiệp bị rủi ro trong nghiên cứu này dựa trên yếu tố nào?</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Phương pháp xác định vùng sản xuất nông nghiệp bị rủi ro trong nghiên cứu này dựa trên sự thay đổi nguồn nước canh tác do nước biển dâng và xâm nhập mặn trong điều kiện biến đổi khí hậu.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing a specific factor (changes in irrigation water due to sea level rise and saltwater intrusion under climate change conditions) that the agricultural risk assessment method in the study is based on. However, without a reference answer, it's not possible to confirm the absolute correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, mô hình canh tác hiện tại có thể không còn phù hợp hoặc không mang lại hiệu quả về năng suất trong điều kiện mới do yếu tố nào? Hãy giải thích.</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Mô hình canh tác hiện tại có thể không còn phù hợp hoặc không mang lại hiệu quả về năng suất trong điều kiện mới do sự thay đổi nguồn nước và tác động của xâm nhập mặn. Xâm nhập mặn ngày càng tăng có thể gây áp lực lên sản xuất nông nghiệp, làm tăng chi phí đầu tư nhưng không đảm bảo hiệu quả về năng suất. Đặc biệt, mô hình canh tác lúa-tôm và tôm-thủy sản kết hợp có rủi ro cao do đòi hỏi sự ổn định và cân bằng giữa thời gian mặn và thời gian ngọt trong năm. Ngoài ra, diễn biến của khí hậu ngày càng theo hướng bất lợi cũng là một yếu tố gây ảnh hưởng.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of why the current farming model may not be effective or efficient under new conditions. It correctly identifies changes in water sources, the impact of salt intrusion, and unfavorable climate trends as factors. The answer could be improved by providing more diverse examples or discussing other potential factors, but overall it is a strong response.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Phương pháp nào được sử dụng để xác định yêu cầu sử dụng đất đai của các mô hình canh tác chính trong vùng nghiên cứu? Hãy mô tả cách thức hoạt động của phương pháp này.</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Phương pháp đánh giá đất đai FAO (1976) được sử dụng để xác định yêu cầu sử dụng đất đai của các mô hình canh tác chính trong vùng nghiên cứu. Phương pháp này hoạt động bằng cách đối chiếu yêu cầu sử dụng đất đai, cụ thể là nhu cầu nước, của các mô hình canh tác so với khả năng cung cấp của điều kiện tự nhiên trong điều kiện biến đổi khí hậu thông qua các kịch bản xâm nhập mặn. Dựa vào mức độ thích nghi, phương pháp này phân chia cụ thể ra những vùng rủi ro cao (không thích nghi) và những vùng rủi ro thấp (thích nghi kém).</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation of the method used to determine the land use requirements of the main farming models in the research area. It also describes how this method works. However, without a reference answer, it's hard to confirm the absolute correctness of the information provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Hãy mô tả các phương pháp phân tích số liệu được sử dụng trong nghiên cứu này, bao gồm cả phần mềm được sử dụng và các phương pháp thống kê cụ thể.</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu này, số liệu được tổng hợp, mã hóa và phân tích thống kê mô tả bằng phần mềm Microsoft Excel. Kết quả phân tích được lập thành bảng, biểu đồ để phục vụ cho việc xếp hạng và phân tích. Các phương pháp thống kê cụ thể bao gồm phân tích hiện trạng canh tác bằng cách tính tổng giá trị diện tích trên bản đồ và tham chiếu với số liệu thống kê tính toán diện tích các mô hình canh tác. Ngoài ra, còn có việc tổng hợp và phân tích các chỉ tiêu thu thập được từ kết quả PRA bằng phương pháp trung bình số học, giá trị cao nhất, giá trị thấp nhất và xếp hạng tổng các lựa chọn phân cấp yếu tố. Phân tích và phân nhóm cấp độ rủi ro canh tác nông nghiệp do xâm nhập mặn cũng được thực hiện, cũng như thống kê diện tích các mô hình canh tác theo cấp độ rủi ro do xâm nhập mặn. Phần mềm MapInfo được sử dụng trong việc xử lý bản đồ, chống xếp đối tượng và phân tích dữ liệu không gian nhằm xác định vùng canh tác dễ bị rủi ro.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed description of the data analysis methods used in the study, including the software used and specific statistical methods. It could be slightly improved by providing more specific details about the statistical methods used.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tỉnh Bạc Liêu được chia thành ba tiểu vùng sinh thái nông nghiệp. Hãy mô tả các khó khăn trong việc quản lý nguồn nước canh tác ở mỗi tiểu vùng sinh thái này.</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Tỉnh Bạc Liêu được chia thành ba tiểu vùng sinh thái nông nghiệp: ngọt, mặn và lợ. Mỗi tiểu vùng sinh thái đều gặp phải những khó khăn riêng trong việc quản lý nguồn nước canh tác. 
+Tiểu vùng sinh thái ngọt được bảo vệ khỏi xâm nhập mặn bằng đê bao khép kín và hệ thống cống đập kiên cố. Tuy nhiên, nguy cơ xâm nhiễm mặn do rò rỉ nước qua cống, đập hoặc xâm nhập mặn do nước biển lấn sâu vào các hệ thống kênh trục chính là rất cao.
+Tiểu vùng sinh thái lợ gặp nhiều khó khăn hơn trong việc quản lý nguồn nước canh tác, do chịu ảnh hưởng cả nước mặn và nước ngọt từ nhiều hướng. 
+Thông tin về tiểu vùng sinh thái mặn không được cung cấp trong ngữ cảnh này.</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides detailed information about the challenges of water management in two of the three ecological sub-regions of Bac Lieu province. However, it lacks information about the saline sub-region, which is why it doesn't get a perfect score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, mô hình canh tác nào chiếm ưu thế trong tiểu vùng ngọt và tiểu vùng mặn ở Bạc Liêu?</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Nghiên cứu không cung cấp thông tin cụ thể về mô hình canh tác nào chiếm ưu thế trong tiểu vùng ngọt và tiểu vùng mặn ở Bạc Liêu.</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query, but it does not provide a specific answer to the question. However, it does correctly state that the research does not provide specific information, which is a valid response if the information is indeed not available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Trình bày hai kịch bản xâm nhập mặn trong điều kiện biến đổi khí hậu ở tỉnh Bạc Liêu được đề cập trong bài viết.</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Bài viết không cung cấp thông tin cụ thể về hai kịch bản xâm nhập mặn trong điều kiện biến đổi khí hậu ở tỉnh Bạc Liêu.</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and seems correct, but without a reference answer, it's hard to confirm its full accuracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Trình bày về kịch bản xâm nhập mặn trong điều kiện khô hạn và điều kiện mưa nhiều mà tác giả đã nêu trong bài viết. Hãy chỉ ra sự khác biệt giữa hai kịch bản này.</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Kịch bản xâm nhập mặn trong điều kiện khô hạn được mô tả là khắc nghiệt nhất, với xâm nhập mặn xảy ra khi nước biển dâng 17 cm so với thời kỳ 1980-1999. Trong khi đó, kịch bản xâm nhập mặn trong điều kiện bình thường cho thấy tình hình mặn vào năm 2030 khá giống với hiện tại, nhưng thời gian nhiễm mặn có xu hướng kéo dài hơn. Sự khác biệt chính giữa hai kịch bản này là mức độ xâm nhập mặn và thời gian nhiễm mặn, với kịch bản khô hạn mang tính chất khắc nghiệt hơn và có thể gây ra nhiều hậu quả nghiêm trọng hơn.</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and accurate to the user query. It explains the scenarios of salt intrusion in dry and normal conditions, and points out the differences between the two scenarios. However, it does not mention the scenario in heavy rain conditions as asked in the query.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Theo bài viết, khu vực nào chịu rủi ro cao nhất do xâm nhập mặn? Hãy giải thích tại sao khu vực này lại chịu rủi ro cao như vậy.</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Vùng sinh thái lợ là khu vực chịu rủi ro cao nhất do xâm nhập mặn. Lý do là độ mặn và thời gian mặn trong khu vực này không ổn định, điều này ảnh hưởng đáng kể đến năng suất và khả năng thực hiện mô hình canh tác.</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and correct. It identifies the area most at risk from salt intrusion and provides a reasonable explanation for why this is the case. However, it could be more detailed in its explanation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, vùng sinh thái nào chịu rủi ro cao nhất so với hai vùng sinh thái còn lại ở tỉnh ven biển Bạc Liêu? Hãy giải thích nguyên nhân.</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Vùng sinh thái lợ chịu rủi ro cao nhất so với hai vùng sinh thái còn lại ở tỉnh ven biển Bạc Liêu. Nguyên nhân là do độ mặn và thời gian mặn không ổn định, ảnh hưởng đáng kể đến năng suất và khả năng thực hiện mô hình canh tác.</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct, providing a specific ecosystem (the mangrove ecosystem) and explaining the reason for its high risk due to unstable salinity and its significant impact on productivity and the ability to implement farming models. However, without a reference answer, it's hard to confirm the absolute correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Trong điều kiện mưa nhiều, bình thường và khô hạn, diện tích rủi ro nông nghiệp ở tỉnh Bạc Liêu là bao nhiêu? Hãy so sánh và giải thích sự khác biệt.</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Dựa trên thông tin được cung cấp, không thể xác định chính xác diện tích rủi ro nông nghiệp ở tỉnh Bạc Liêu trong các điều kiện mưa nhiều, bình thường và khô hạn. Tuy nhiên, thông tin cho thấy rằng xâm nhập mặn trong năm mưa nhiều dự báo sẽ gây rủi ro cao hơn so với năm bình thường và năm khô hạn. Điều này có thể do việc mưa nhiều làm tăng lưu lượng nước, dẫn đến việc nước biển dâng và xâm nhập mặn sâu hơn vào nội đồng, gây thiệt hại cho sản xuất nông nghiệp.</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant to the user query and provides a detailed explanation about the agricultural risk in Bac Lieu province under different weather conditions. However, it does not provide a specific area of agricultural risk, which was asked in the query. Therefore, it is not fully correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu của Vu et al. 2016, mô hình canh tác nào đang chịu rủi ro cao và cần sự quan tâm đặc biệt từ các chính sách nông nghiệp?</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, hai mô hình canh tác đang chịu rủi ro cao và cần sự quan tâm đặc biệt từ các chính sách nông nghiệp là mô hình canh tác lúa-tôm và tôm-thủy sản kết hợp.</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and seems to be correct as it provides specific models of agriculture that are at high risk according to the research of Vu et al. 2016. However, without a reference answer, it's hard to confirm the absolute correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Theo kết luận của nghiên cứu, tác động của yếu tố nào ảnh hưởng trực tiếp đến sản xuất nông nghiệp của tỉnh Bạc Liêu và kéo theo rủi ro cho các mô hình canh tác trên sinh thái ngọt, lợ, mặn?</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Tác động của xâm nhập mặn do nước biển dâng ảnh hưởng trực tiếp đến sản xuất nông nghiệp của tỉnh Bạc Liêu và kéo theo rủi ro cho các mô hình canh tác trên sinh thái ngọt, lợ, mặn.</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>The generated answer is relevant and directly addresses the user's query. It correctly identifies the factor (sea level rise leading to saltwater intrusion) that impacts agricultural production in Bac Lieu province and poses risks to various farming models in fresh, brackish, and saline ecosystems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu, những mô hình canh tác nông nghiệp nào ở tỉnh Bạc Liêu nhạy cảm với sự thay đổi nguồn nước và xâm nhập mặn do nước biển dâng? Hãy nêu rõ tác động của xâm nhập mặn đối với các mô hình canh tác này.</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Các mô hình canh tác nông nghiệp ở tỉnh Bạc Liêu nhạy cảm với sự thay đổi nguồn nước và xâm nhập mặn do nước biển dâng bao gồm các mô hình canh tác trên sinh thái ngọt, lợ, mặn. Xâm nhập mặn do nước biển dâng ảnh hưởng trực tiếp đến sản xuất nông nghiệp của vùng, kéo theo rủi ro cho các mô hình canh tác này. Đặc biệt, mô hình canh tác lúa-tôm và tôm-thủy sản kết hợp bị tác động mạnh mẽ bởi xâm nhập mặn. Rủi ro đối với mô hình lúa-tôm và tôm-thủy sản kết hợp rất cao, vì mô hình canh tác này đòi hỏi sự ổn định và cân bằng giữa thời gian mặn và thời gian ngọt trong năm.</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a detailed explanation of the impact of saltwater intrusion on different agricultural models in Bac Lieu province. It correctly identifies the models that are sensitive to changes in water sources and saltwater intrusion due to sea level rise. However, it could have been more specific about the exact impacts on each model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Đề xuất các giải pháp để giảm thiểu rủi ro và nâng cao hiệu quả sản xuất trong các mô hình canh tác nông nghiệp ở tỉnh Bạc Liêu theo nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Để giảm thiểu rủi ro và nâng cao hiệu quả sản xuất trong các mô hình canh tác nông nghiệp ở tỉnh Bạc Liêu, nghiên cứu đề xuất một số giải pháp. Đối với vùng có nguy cơ giảm năng suất, cần cải tiến kỹ thuật canh tác, điều chỉnh lịch thời vụ, và quản lý hệ thống thủy văn để nâng cao hiệu quả sản xuất. Đối với vùng chịu rủi ro cao, cần hỗ trợ người dân chuyển đổi mô hình canh tác phù hợp với diễn biến của xâm nhập mặn. Đặc biệt, các chính sách cần quan tâm đến nhóm nông hộ trên hai mô hình canh tác lúa-tôm và tôm-thủy sản kết hợp để giảm thiệt hại do xâm nhập mặn. Trên những vùng bị nhiễm có nguy cơ giảm năng suất, Nhà nước cần hỗ trợ nông dân về kỹ thuật canh tác, vốn đầu tư và nghiên cứu về lai tạo giống. Đối với vùng rủi ro cao, cần giúp người dân chuyển đổi mô hình canh tác phù hợp, tăng cường kiến thức cho việc thích ứng mới, hỗ trợ vốn và kỹ thuật canh tác ban đầu.</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>The generated answer is highly relevant to the user query and provides a comprehensive and detailed response to the question about reducing risk and improving agricultural productivity in Bac Lieu province. It suggests several solutions such as improving farming techniques, adjusting farming schedules, managing irrigation systems, supporting farmers in transitioning to suitable farming models, and providing technical and financial support. The answer is fully correct and does not contain any mistakes.</t>
         </is>
       </c>
     </row>
